--- a/data/raw.xlsx
+++ b/data/raw.xlsx
@@ -491,16 +491,16 @@
         <v>44831</v>
       </c>
       <c r="B2" t="n">
-        <v>150.3663927315013</v>
+        <v>150.3664234461509</v>
       </c>
       <c r="C2" t="n">
-        <v>152.3156188966605</v>
+        <v>152.3156500094695</v>
       </c>
       <c r="D2" t="n">
-        <v>147.6197415235521</v>
+        <v>147.6197716771559</v>
       </c>
       <c r="E2" t="n">
-        <v>149.401611328125</v>
+        <v>149.4016418457031</v>
       </c>
       <c r="F2" t="n">
         <v>84442700</v>
@@ -543,16 +543,16 @@
         <v>44833</v>
       </c>
       <c r="B4" t="n">
-        <v>143.8296248741345</v>
+        <v>143.8295935811918</v>
       </c>
       <c r="C4" t="n">
-        <v>144.4399853217973</v>
+        <v>144.4399538960587</v>
       </c>
       <c r="D4" t="n">
-        <v>138.4938379777845</v>
+        <v>138.4938078457463</v>
       </c>
       <c r="E4" t="n">
-        <v>140.265869140625</v>
+        <v>140.2658386230469</v>
       </c>
       <c r="F4" t="n">
         <v>128138200</v>
@@ -569,16 +569,16 @@
         <v>44834</v>
       </c>
       <c r="B5" t="n">
-        <v>139.0844755504192</v>
+        <v>139.084506748129</v>
       </c>
       <c r="C5" t="n">
-        <v>140.8761995479705</v>
+        <v>140.8762311475777</v>
       </c>
       <c r="D5" t="n">
-        <v>135.855448696185</v>
+        <v>135.8554791695994</v>
       </c>
       <c r="E5" t="n">
-        <v>136.0523376464844</v>
+        <v>136.0523681640625</v>
       </c>
       <c r="F5" t="n">
         <v>124925300</v>
@@ -595,16 +595,16 @@
         <v>44837</v>
       </c>
       <c r="B6" t="n">
-        <v>136.0621828021141</v>
+        <v>136.0621976067289</v>
       </c>
       <c r="C6" t="n">
-        <v>140.8466575820989</v>
+        <v>140.8466729073015</v>
       </c>
       <c r="D6" t="n">
-        <v>135.5502595480769</v>
+        <v>135.5502742969905</v>
       </c>
       <c r="E6" t="n">
-        <v>140.2362823486328</v>
+        <v>140.2362976074219</v>
       </c>
       <c r="F6" t="n">
         <v>114311700</v>
@@ -647,16 +647,16 @@
         <v>44839</v>
       </c>
       <c r="B8" t="n">
-        <v>141.8311453524753</v>
+        <v>141.8311603684175</v>
       </c>
       <c r="C8" t="n">
-        <v>145.0897052260287</v>
+        <v>145.0897205869611</v>
       </c>
       <c r="D8" t="n">
-        <v>140.7876052377075</v>
+        <v>140.7876201431681</v>
       </c>
       <c r="E8" t="n">
-        <v>144.1249237060547</v>
+        <v>144.1249389648438</v>
       </c>
       <c r="F8" t="n">
         <v>79471000</v>
@@ -673,16 +673,16 @@
         <v>44840</v>
       </c>
       <c r="B9" t="n">
-        <v>143.5440824447642</v>
+        <v>143.5441130420839</v>
       </c>
       <c r="C9" t="n">
-        <v>145.2471937094301</v>
+        <v>145.2472246697787</v>
       </c>
       <c r="D9" t="n">
-        <v>142.9632547622573</v>
+        <v>142.9632852357701</v>
       </c>
       <c r="E9" t="n">
-        <v>143.1699829101562</v>
+        <v>143.1700134277344</v>
       </c>
       <c r="F9" t="n">
         <v>68402200</v>
@@ -725,16 +725,16 @@
         <v>44844</v>
       </c>
       <c r="B11" t="n">
-        <v>138.2378387451172</v>
+        <v>138.2378692626953</v>
       </c>
       <c r="C11" t="n">
-        <v>139.6849958050268</v>
+        <v>139.6850266420813</v>
       </c>
       <c r="D11" t="n">
-        <v>136.4165971883016</v>
+        <v>136.4166273038199</v>
       </c>
       <c r="E11" t="n">
-        <v>138.2378387451172</v>
+        <v>138.2378692626953</v>
       </c>
       <c r="F11" t="n">
         <v>74899000</v>
@@ -751,16 +751,16 @@
         <v>44845</v>
       </c>
       <c r="B12" t="n">
-        <v>137.7259221748937</v>
+        <v>137.7259068150969</v>
       </c>
       <c r="C12" t="n">
-        <v>139.1534009246497</v>
+        <v>139.1533854056543</v>
       </c>
       <c r="D12" t="n">
-        <v>136.0720368953115</v>
+        <v>136.0720217199632</v>
       </c>
       <c r="E12" t="n">
-        <v>136.8202209472656</v>
+        <v>136.8202056884766</v>
       </c>
       <c r="F12" t="n">
         <v>77033700</v>
@@ -855,16 +855,16 @@
         <v>44851</v>
       </c>
       <c r="B16" t="n">
-        <v>138.8778026920601</v>
+        <v>138.8777573464222</v>
       </c>
       <c r="C16" t="n">
-        <v>140.6793515750068</v>
+        <v>140.6793056411368</v>
       </c>
       <c r="D16" t="n">
-        <v>138.0902315556971</v>
+        <v>138.0901864672128</v>
       </c>
       <c r="E16" t="n">
-        <v>140.1969757080078</v>
+        <v>140.1969299316406</v>
       </c>
       <c r="F16" t="n">
         <v>85250900</v>
@@ -881,16 +881,16 @@
         <v>44852</v>
       </c>
       <c r="B17" t="n">
-        <v>143.2290480602273</v>
+        <v>143.229078947202</v>
       </c>
       <c r="C17" t="n">
-        <v>144.4202358925764</v>
+        <v>144.4202670364276</v>
       </c>
       <c r="D17" t="n">
-        <v>138.4248798871267</v>
+        <v>138.4249097380949</v>
       </c>
       <c r="E17" t="n">
-        <v>141.5160827636719</v>
+        <v>141.51611328125</v>
       </c>
       <c r="F17" t="n">
         <v>99136600</v>
@@ -907,16 +907,16 @@
         <v>44853</v>
       </c>
       <c r="B18" t="n">
-        <v>139.488083594309</v>
+        <v>139.488113651557</v>
       </c>
       <c r="C18" t="n">
-        <v>142.697416493252</v>
+        <v>142.6974472420552</v>
       </c>
       <c r="D18" t="n">
-        <v>139.3010338662171</v>
+        <v>139.3010638831592</v>
       </c>
       <c r="E18" t="n">
-        <v>141.6243591308594</v>
+        <v>141.6243896484375</v>
       </c>
       <c r="F18" t="n">
         <v>61758300</v>
@@ -933,16 +933,16 @@
         <v>44854</v>
       </c>
       <c r="B19" t="n">
-        <v>140.7974520498777</v>
+        <v>140.7974216110454</v>
       </c>
       <c r="C19" t="n">
-        <v>143.6228470143876</v>
+        <v>143.6228159647365</v>
       </c>
       <c r="D19" t="n">
-        <v>140.4331916903949</v>
+        <v>140.4331613303116</v>
       </c>
       <c r="E19" t="n">
-        <v>141.1616973876953</v>
+        <v>141.1616668701172</v>
       </c>
       <c r="F19" t="n">
         <v>64522000</v>
@@ -959,16 +959,16 @@
         <v>44855</v>
       </c>
       <c r="B20" t="n">
-        <v>140.6497673856839</v>
+        <v>140.6497821885837</v>
       </c>
       <c r="C20" t="n">
-        <v>145.5523880250328</v>
+        <v>145.5524033439164</v>
       </c>
       <c r="D20" t="n">
-        <v>140.4331850270782</v>
+        <v>140.4331998071835</v>
       </c>
       <c r="E20" t="n">
-        <v>144.9813995361328</v>
+        <v>144.9814147949219</v>
       </c>
       <c r="F20" t="n">
         <v>86548600</v>
@@ -985,16 +985,16 @@
         <v>44858</v>
       </c>
       <c r="B21" t="n">
-        <v>144.9026439056378</v>
+        <v>144.9026589336822</v>
       </c>
       <c r="C21" t="n">
-        <v>147.8953951612225</v>
+        <v>147.8954104996491</v>
       </c>
       <c r="D21" t="n">
-        <v>143.7311343115499</v>
+        <v>143.7311492180955</v>
       </c>
       <c r="E21" t="n">
-        <v>147.1275177001953</v>
+        <v>147.1275329589844</v>
       </c>
       <c r="F21" t="n">
         <v>75981900</v>
@@ -1011,16 +1011,16 @@
         <v>44859</v>
       </c>
       <c r="B22" t="n">
-        <v>147.7575908367303</v>
+        <v>147.7575758033074</v>
       </c>
       <c r="C22" t="n">
-        <v>150.120303738468</v>
+        <v>150.1202884646536</v>
       </c>
       <c r="D22" t="n">
-        <v>147.0389392766393</v>
+        <v>147.0389243163347</v>
       </c>
       <c r="E22" t="n">
-        <v>149.9726257324219</v>
+        <v>149.9726104736328</v>
       </c>
       <c r="F22" t="n">
         <v>74732300</v>
@@ -1037,16 +1037,16 @@
         <v>44860</v>
       </c>
       <c r="B23" t="n">
-        <v>148.6140487734417</v>
+        <v>148.6140641967212</v>
       </c>
       <c r="C23" t="n">
-        <v>149.6280411026362</v>
+        <v>149.6280566311486</v>
       </c>
       <c r="D23" t="n">
-        <v>145.7394131171851</v>
+        <v>145.7394282421328</v>
       </c>
       <c r="E23" t="n">
-        <v>147.0290679931641</v>
+        <v>147.0290832519531</v>
       </c>
       <c r="F23" t="n">
         <v>88194300</v>
@@ -1063,16 +1063,16 @@
         <v>44861</v>
       </c>
       <c r="B24" t="n">
-        <v>145.7689773475377</v>
+        <v>145.7689617441609</v>
       </c>
       <c r="C24" t="n">
-        <v>146.7337437954485</v>
+        <v>146.7337280888014</v>
       </c>
       <c r="D24" t="n">
-        <v>141.8902031311427</v>
+        <v>141.890187942957</v>
       </c>
       <c r="E24" t="n">
-        <v>142.5497894287109</v>
+        <v>142.5497741699219</v>
       </c>
       <c r="F24" t="n">
         <v>109180200</v>
@@ -1089,16 +1089,16 @@
         <v>44862</v>
       </c>
       <c r="B25" t="n">
-        <v>145.8969574751693</v>
+        <v>145.8969429551204</v>
       </c>
       <c r="C25" t="n">
-        <v>155.0524377565564</v>
+        <v>155.05242232533</v>
       </c>
       <c r="D25" t="n">
-        <v>145.5228729194421</v>
+        <v>145.5228584366232</v>
       </c>
       <c r="E25" t="n">
-        <v>153.3197937011719</v>
+        <v>153.3197784423828</v>
       </c>
       <c r="F25" t="n">
         <v>164762400</v>
@@ -1141,16 +1141,16 @@
         <v>44866</v>
       </c>
       <c r="B27" t="n">
-        <v>152.6700332965796</v>
+        <v>152.6700490040681</v>
       </c>
       <c r="C27" t="n">
-        <v>153.0342786292701</v>
+        <v>153.034294374234</v>
       </c>
       <c r="D27" t="n">
-        <v>146.8125002718361</v>
+        <v>146.8125153766711</v>
       </c>
       <c r="E27" t="n">
-        <v>148.3088684082031</v>
+        <v>148.3088836669922</v>
       </c>
       <c r="F27" t="n">
         <v>80379300</v>
@@ -1167,16 +1167,16 @@
         <v>44867</v>
       </c>
       <c r="B28" t="n">
-        <v>146.6352798393088</v>
+        <v>146.6352955105258</v>
       </c>
       <c r="C28" t="n">
-        <v>149.80524150265</v>
+        <v>149.8052575126474</v>
       </c>
       <c r="D28" t="n">
-        <v>142.7466667494328</v>
+        <v>142.7466820050657</v>
       </c>
       <c r="E28" t="n">
-        <v>142.7761993408203</v>
+        <v>142.7762145996094</v>
       </c>
       <c r="F28" t="n">
         <v>93604600</v>
@@ -1193,16 +1193,16 @@
         <v>44868</v>
       </c>
       <c r="B29" t="n">
-        <v>139.8523927758634</v>
+        <v>139.8523615595117</v>
       </c>
       <c r="C29" t="n">
-        <v>140.5808986231452</v>
+        <v>140.5808672441843</v>
       </c>
       <c r="D29" t="n">
-        <v>136.5938324027318</v>
+        <v>136.5938019137211</v>
       </c>
       <c r="E29" t="n">
-        <v>136.7218170166016</v>
+        <v>136.7217864990234</v>
       </c>
       <c r="F29" t="n">
         <v>97918500</v>
@@ -1245,16 +1245,16 @@
         <v>44872</v>
       </c>
       <c r="B31" t="n">
-        <v>135.2032111952328</v>
+        <v>135.2031961352515</v>
       </c>
       <c r="C31" t="n">
-        <v>137.2148342852633</v>
+        <v>137.2148190012118</v>
       </c>
       <c r="D31" t="n">
-        <v>133.7832348744654</v>
+        <v>133.7832199726521</v>
       </c>
       <c r="E31" t="n">
-        <v>136.988037109375</v>
+        <v>136.9880218505859</v>
       </c>
       <c r="F31" t="n">
         <v>83374600</v>
@@ -1271,16 +1271,16 @@
         <v>44873</v>
       </c>
       <c r="B32" t="n">
-        <v>138.4572998817349</v>
+        <v>138.457315240062</v>
       </c>
       <c r="C32" t="n">
-        <v>139.4631037493987</v>
+        <v>139.4631192192943</v>
       </c>
       <c r="D32" t="n">
-        <v>135.5779105819191</v>
+        <v>135.5779256208509</v>
       </c>
       <c r="E32" t="n">
-        <v>137.5599517822266</v>
+        <v>137.5599670410156</v>
       </c>
       <c r="F32" t="n">
         <v>89908500</v>
@@ -1297,16 +1297,16 @@
         <v>44874</v>
       </c>
       <c r="B33" t="n">
-        <v>136.5738922188885</v>
+        <v>136.5738608799345</v>
       </c>
       <c r="C33" t="n">
-        <v>136.6231998824364</v>
+        <v>136.623168532168</v>
       </c>
       <c r="D33" t="n">
-        <v>132.7182646468712</v>
+        <v>132.7182341926496</v>
       </c>
       <c r="E33" t="n">
-        <v>132.9943695068359</v>
+        <v>132.9943389892578</v>
       </c>
       <c r="F33" t="n">
         <v>74917800</v>
@@ -1323,16 +1323,16 @@
         <v>44875</v>
       </c>
       <c r="B34" t="n">
-        <v>139.2757610400915</v>
+        <v>139.2757903878347</v>
       </c>
       <c r="C34" t="n">
-        <v>144.8274536132812</v>
+        <v>144.8274841308594</v>
       </c>
       <c r="D34" t="n">
-        <v>137.559954045974</v>
+        <v>137.5599830321678</v>
       </c>
       <c r="E34" t="n">
-        <v>144.8274536132812</v>
+        <v>144.8274841308594</v>
       </c>
       <c r="F34" t="n">
         <v>118854000</v>
@@ -1349,16 +1349,16 @@
         <v>44876</v>
       </c>
       <c r="B35" t="n">
-        <v>143.7920876986634</v>
+        <v>143.7920728353582</v>
       </c>
       <c r="C35" t="n">
-        <v>147.9238047070131</v>
+        <v>147.9237894166263</v>
       </c>
       <c r="D35" t="n">
-        <v>142.3622408191883</v>
+        <v>142.3622261036816</v>
       </c>
       <c r="E35" t="n">
-        <v>147.6181182861328</v>
+        <v>147.6181030273438</v>
       </c>
       <c r="F35" t="n">
         <v>93979700</v>
@@ -1375,16 +1375,16 @@
         <v>44879</v>
       </c>
       <c r="B36" t="n">
-        <v>146.898256219997</v>
+        <v>146.8982715497909</v>
       </c>
       <c r="C36" t="n">
-        <v>148.1900354737595</v>
+        <v>148.190050938359</v>
       </c>
       <c r="D36" t="n">
-        <v>145.3796647723285</v>
+        <v>145.3796799436475</v>
       </c>
       <c r="E36" t="n">
-        <v>146.2178497314453</v>
+        <v>146.2178649902344</v>
       </c>
       <c r="F36" t="n">
         <v>73374100</v>
@@ -1401,16 +1401,16 @@
         <v>44880</v>
       </c>
       <c r="B37" t="n">
-        <v>150.1031213658828</v>
+        <v>150.1030904048991</v>
       </c>
       <c r="C37" t="n">
-        <v>151.4540643542993</v>
+        <v>151.4540331146638</v>
       </c>
       <c r="D37" t="n">
-        <v>146.4940163239203</v>
+        <v>146.4939861073678</v>
       </c>
       <c r="E37" t="n">
-        <v>147.9534301757812</v>
+        <v>147.9533996582031</v>
       </c>
       <c r="F37" t="n">
         <v>89868300</v>
@@ -1453,16 +1453,16 @@
         <v>44882</v>
       </c>
       <c r="B39" t="n">
-        <v>144.3935846673988</v>
+        <v>144.3935994918703</v>
       </c>
       <c r="C39" t="n">
-        <v>149.3733571163338</v>
+        <v>149.3733724520642</v>
       </c>
       <c r="D39" t="n">
-        <v>144.1174798427903</v>
+        <v>144.1174946389149</v>
       </c>
       <c r="E39" t="n">
-        <v>148.6239318847656</v>
+        <v>148.6239471435547</v>
       </c>
       <c r="F39" t="n">
         <v>80389400</v>
@@ -1479,16 +1479,16 @@
         <v>44883</v>
       </c>
       <c r="B40" t="n">
-        <v>150.1918237204073</v>
+        <v>150.1918083587428</v>
       </c>
       <c r="C40" t="n">
-        <v>150.5763993918672</v>
+        <v>150.5763839908681</v>
       </c>
       <c r="D40" t="n">
-        <v>147.8843696916482</v>
+        <v>147.8843545659908</v>
       </c>
       <c r="E40" t="n">
-        <v>149.1860046386719</v>
+        <v>149.1859893798828</v>
       </c>
       <c r="F40" t="n">
         <v>74829600</v>
@@ -1505,16 +1505,16 @@
         <v>44886</v>
       </c>
       <c r="B41" t="n">
-        <v>148.0717542441461</v>
+        <v>148.0717387637062</v>
       </c>
       <c r="C41" t="n">
-        <v>148.2788253840727</v>
+        <v>148.2788098819842</v>
       </c>
       <c r="D41" t="n">
-        <v>145.6656844982235</v>
+        <v>145.6656692693307</v>
       </c>
       <c r="E41" t="n">
-        <v>145.9516448974609</v>
+        <v>145.9516296386719</v>
       </c>
       <c r="F41" t="n">
         <v>58724100</v>
@@ -1531,16 +1531,16 @@
         <v>44887</v>
       </c>
       <c r="B42" t="n">
-        <v>146.0699521721837</v>
+        <v>146.0699672226872</v>
       </c>
       <c r="C42" t="n">
-        <v>148.3280983866841</v>
+        <v>148.3281136698585</v>
       </c>
       <c r="D42" t="n">
-        <v>144.8866286056601</v>
+        <v>144.8866435342383</v>
       </c>
       <c r="E42" t="n">
-        <v>148.0914306640625</v>
+        <v>148.0914459228516</v>
       </c>
       <c r="F42" t="n">
         <v>51804100</v>
@@ -1557,16 +1557,16 @@
         <v>44888</v>
       </c>
       <c r="B43" t="n">
-        <v>147.3716198007479</v>
+        <v>147.3715896104273</v>
       </c>
       <c r="C43" t="n">
-        <v>149.7185263372214</v>
+        <v>149.7184956661171</v>
       </c>
       <c r="D43" t="n">
-        <v>147.263148951249</v>
+        <v>147.2631187831496</v>
       </c>
       <c r="E43" t="n">
-        <v>148.9691009521484</v>
+        <v>148.9690704345703</v>
       </c>
       <c r="F43" t="n">
         <v>58301400</v>
@@ -1583,16 +1583,16 @@
         <v>44890</v>
       </c>
       <c r="B44" t="n">
-        <v>146.2474169615763</v>
+        <v>146.2474322409697</v>
       </c>
       <c r="C44" t="n">
-        <v>146.8094970653349</v>
+        <v>146.8095124034524</v>
       </c>
       <c r="D44" t="n">
-        <v>145.0739641526052</v>
+        <v>145.0739793094005</v>
       </c>
       <c r="E44" t="n">
-        <v>146.0502014160156</v>
+        <v>146.0502166748047</v>
       </c>
       <c r="F44" t="n">
         <v>35195900</v>
@@ -1635,16 +1635,16 @@
         <v>44894</v>
       </c>
       <c r="B46" t="n">
-        <v>142.2833153607106</v>
+        <v>142.2833621487803</v>
       </c>
       <c r="C46" t="n">
-        <v>142.7960878004511</v>
+        <v>142.7961347571396</v>
       </c>
       <c r="D46" t="n">
-        <v>138.3981225898592</v>
+        <v>138.3981681003324</v>
       </c>
       <c r="E46" t="n">
-        <v>139.2067108154297</v>
+        <v>139.2067565917969</v>
       </c>
       <c r="F46" t="n">
         <v>83763800</v>
@@ -1687,16 +1687,16 @@
         <v>44896</v>
       </c>
       <c r="B48" t="n">
-        <v>146.1488667577625</v>
+        <v>146.1488362607593</v>
       </c>
       <c r="C48" t="n">
-        <v>147.0560706152601</v>
+        <v>147.05603992895</v>
       </c>
       <c r="D48" t="n">
-        <v>144.5711117598442</v>
+        <v>144.5710815920725</v>
       </c>
       <c r="E48" t="n">
-        <v>146.2474670410156</v>
+        <v>146.2474365234375</v>
       </c>
       <c r="F48" t="n">
         <v>71250400</v>
@@ -1713,16 +1713,16 @@
         <v>44897</v>
       </c>
       <c r="B49" t="n">
-        <v>143.9301316267426</v>
+        <v>143.9301617623625</v>
       </c>
       <c r="C49" t="n">
-        <v>145.9417545966316</v>
+        <v>145.9417851534385</v>
       </c>
       <c r="D49" t="n">
-        <v>143.6244301773082</v>
+        <v>143.6244602489213</v>
       </c>
       <c r="E49" t="n">
-        <v>145.75439453125</v>
+        <v>145.7544250488281</v>
       </c>
       <c r="F49" t="n">
         <v>65447400</v>
@@ -1739,16 +1739,16 @@
         <v>44900</v>
       </c>
       <c r="B50" t="n">
-        <v>145.7149657221435</v>
+        <v>145.7149503447224</v>
       </c>
       <c r="C50" t="n">
-        <v>148.8211526300417</v>
+        <v>148.8211369248222</v>
       </c>
       <c r="D50" t="n">
-        <v>143.7427797370437</v>
+        <v>143.742764567749</v>
       </c>
       <c r="E50" t="n">
-        <v>144.5908203125</v>
+        <v>144.5908050537109</v>
       </c>
       <c r="F50" t="n">
         <v>68826400</v>
@@ -1765,16 +1765,16 @@
         <v>44901</v>
       </c>
       <c r="B51" t="n">
-        <v>145.0247123522227</v>
+        <v>145.0246809463006</v>
       </c>
       <c r="C51" t="n">
-        <v>145.2515095410952</v>
+        <v>145.2514780860589</v>
       </c>
       <c r="D51" t="n">
-        <v>139.9463241074439</v>
+        <v>139.9462938012755</v>
       </c>
       <c r="E51" t="n">
-        <v>140.9225616455078</v>
+        <v>140.9225311279297</v>
       </c>
       <c r="F51" t="n">
         <v>64727200</v>
@@ -1817,16 +1817,16 @@
         <v>44903</v>
       </c>
       <c r="B53" t="n">
-        <v>140.380207847569</v>
+        <v>140.3801926197995</v>
       </c>
       <c r="C53" t="n">
-        <v>141.5240794020274</v>
+        <v>141.5240640501762</v>
       </c>
       <c r="D53" t="n">
-        <v>139.1377360156072</v>
+        <v>139.1377209226151</v>
       </c>
       <c r="E53" t="n">
-        <v>140.6661682128906</v>
+        <v>140.6661529541016</v>
       </c>
       <c r="F53" t="n">
         <v>62128300</v>
@@ -1869,16 +1869,16 @@
         <v>44907</v>
       </c>
       <c r="B55" t="n">
-        <v>140.7154607574232</v>
+        <v>140.7154758271793</v>
       </c>
       <c r="C55" t="n">
-        <v>142.4904310742392</v>
+        <v>142.4904463340837</v>
       </c>
       <c r="D55" t="n">
-        <v>139.0982689235651</v>
+        <v>139.09828382013</v>
       </c>
       <c r="E55" t="n">
-        <v>142.4805755615234</v>
+        <v>142.4805908203125</v>
       </c>
       <c r="F55" t="n">
         <v>70462700</v>
@@ -1947,16 +1947,16 @@
         <v>44910</v>
       </c>
       <c r="B58" t="n">
-        <v>139.1475893409442</v>
+        <v>139.147557792699</v>
       </c>
       <c r="C58" t="n">
-        <v>139.8279959453362</v>
+        <v>139.8279642428258</v>
       </c>
       <c r="D58" t="n">
-        <v>134.1382348970254</v>
+        <v>134.1382044845264</v>
       </c>
       <c r="E58" t="n">
-        <v>134.6016998291016</v>
+        <v>134.6016693115234</v>
       </c>
       <c r="F58" t="n">
         <v>98931900</v>
@@ -1973,16 +1973,16 @@
         <v>44911</v>
       </c>
       <c r="B59" t="n">
-        <v>134.7890489957113</v>
+        <v>134.7890645018001</v>
       </c>
       <c r="C59" t="n">
-        <v>135.7356898104224</v>
+        <v>135.7357054254124</v>
       </c>
       <c r="D59" t="n">
-        <v>131.8702072160859</v>
+        <v>131.870222386392</v>
       </c>
       <c r="E59" t="n">
-        <v>132.6393585205078</v>
+        <v>132.6393737792969</v>
       </c>
       <c r="F59" t="n">
         <v>160156900</v>
@@ -2025,16 +2025,16 @@
         <v>44915</v>
       </c>
       <c r="B61" t="n">
-        <v>129.5627349310346</v>
+        <v>129.5627500848686</v>
       </c>
       <c r="C61" t="n">
-        <v>131.3968681768677</v>
+        <v>131.3968835452244</v>
       </c>
       <c r="D61" t="n">
-        <v>128.0835957020267</v>
+        <v>128.0836106828586</v>
       </c>
       <c r="E61" t="n">
-        <v>130.4600830078125</v>
+        <v>130.4600982666016</v>
       </c>
       <c r="F61" t="n">
         <v>77432800</v>
@@ -2051,16 +2051,16 @@
         <v>44916</v>
       </c>
       <c r="B62" t="n">
-        <v>131.1306783837453</v>
+        <v>131.1306634032082</v>
       </c>
       <c r="C62" t="n">
-        <v>134.9074174005385</v>
+        <v>134.9074019885418</v>
       </c>
       <c r="D62" t="n">
-        <v>130.9038811454648</v>
+        <v>130.9038661908373</v>
       </c>
       <c r="E62" t="n">
-        <v>133.5663299560547</v>
+        <v>133.5663146972656</v>
       </c>
       <c r="F62" t="n">
         <v>85928000</v>
@@ -2155,16 +2155,16 @@
         <v>44923</v>
       </c>
       <c r="B66" t="n">
-        <v>127.8666698178021</v>
+        <v>127.8666619686782</v>
       </c>
       <c r="C66" t="n">
-        <v>129.2077568190471</v>
+        <v>129.2077488876003</v>
       </c>
       <c r="D66" t="n">
-        <v>124.1195211570346</v>
+        <v>124.1195135379303</v>
       </c>
       <c r="E66" t="n">
-        <v>124.2871551513672</v>
+        <v>124.2871475219727</v>
       </c>
       <c r="F66" t="n">
         <v>85438400</v>
@@ -2181,16 +2181,16 @@
         <v>44924</v>
       </c>
       <c r="B67" t="n">
-        <v>126.2100295230018</v>
+        <v>126.2099993868646</v>
       </c>
       <c r="C67" t="n">
-        <v>128.6653987639097</v>
+        <v>128.6653680414852</v>
       </c>
       <c r="D67" t="n">
-        <v>125.9536507830122</v>
+        <v>125.9536207080926</v>
       </c>
       <c r="E67" t="n">
-        <v>127.807502746582</v>
+        <v>127.8074722290039</v>
       </c>
       <c r="F67" t="n">
         <v>75703700</v>
@@ -2233,16 +2233,16 @@
         <v>44929</v>
       </c>
       <c r="B69" t="n">
-        <v>128.4681780257393</v>
+        <v>128.4681859729489</v>
       </c>
       <c r="C69" t="n">
-        <v>129.0795507908317</v>
+        <v>129.0795587758616</v>
       </c>
       <c r="D69" t="n">
-        <v>122.443149982273</v>
+        <v>122.4431575567665</v>
       </c>
       <c r="E69" t="n">
-        <v>123.3306350708008</v>
+        <v>123.3306427001953</v>
       </c>
       <c r="F69" t="n">
         <v>112117500</v>
@@ -2259,16 +2259,16 @@
         <v>44930</v>
       </c>
       <c r="B70" t="n">
-        <v>125.1253349737568</v>
+        <v>125.1253502965467</v>
       </c>
       <c r="C70" t="n">
-        <v>126.8707237243436</v>
+        <v>126.8707392608729</v>
       </c>
       <c r="D70" t="n">
-        <v>123.3405091253046</v>
+        <v>123.3405242295256</v>
       </c>
       <c r="E70" t="n">
-        <v>124.6027069091797</v>
+        <v>124.6027221679688</v>
       </c>
       <c r="F70" t="n">
         <v>89113600</v>
@@ -2311,16 +2311,16 @@
         <v>44932</v>
       </c>
       <c r="B72" t="n">
-        <v>124.2575788089564</v>
+        <v>124.2575639751336</v>
       </c>
       <c r="C72" t="n">
-        <v>128.4780480462767</v>
+        <v>128.4780327086159</v>
       </c>
       <c r="D72" t="n">
-        <v>123.1531519603702</v>
+        <v>123.1531372583934</v>
       </c>
       <c r="E72" t="n">
-        <v>127.8173675537109</v>
+        <v>127.8173522949219</v>
       </c>
       <c r="F72" t="n">
         <v>87754700</v>
@@ -2337,16 +2337,16 @@
         <v>44935</v>
       </c>
       <c r="B73" t="n">
-        <v>128.6555533163335</v>
+        <v>128.6555686126402</v>
       </c>
       <c r="C73" t="n">
-        <v>131.5546691077916</v>
+        <v>131.5546847487843</v>
       </c>
       <c r="D73" t="n">
-        <v>128.0836175778445</v>
+        <v>128.0836328061518</v>
       </c>
       <c r="E73" t="n">
-        <v>128.3399963378906</v>
+        <v>128.3400115966797</v>
       </c>
       <c r="F73" t="n">
         <v>70790800</v>
@@ -2363,16 +2363,16 @@
         <v>44936</v>
       </c>
       <c r="B74" t="n">
-        <v>128.4484765863662</v>
+        <v>128.4484613824357</v>
       </c>
       <c r="C74" t="n">
-        <v>129.4345696464241</v>
+        <v>129.4345543257736</v>
       </c>
       <c r="D74" t="n">
-        <v>126.3382380397058</v>
+        <v>126.3382230855557</v>
       </c>
       <c r="E74" t="n">
-        <v>128.9119415283203</v>
+        <v>128.9119262695312</v>
       </c>
       <c r="F74" t="n">
         <v>63896200</v>
@@ -2389,16 +2389,16 @@
         <v>44937</v>
       </c>
       <c r="B75" t="n">
-        <v>129.4246764351566</v>
+        <v>129.4247214433815</v>
       </c>
       <c r="C75" t="n">
-        <v>131.653240685004</v>
+        <v>131.6532864682258</v>
       </c>
       <c r="D75" t="n">
-        <v>128.6456697651094</v>
+        <v>128.64571450243</v>
       </c>
       <c r="E75" t="n">
-        <v>131.6335296630859</v>
+        <v>131.6335754394531</v>
       </c>
       <c r="F75" t="n">
         <v>69458900</v>
@@ -2441,16 +2441,16 @@
         <v>44939</v>
       </c>
       <c r="B77" t="n">
-        <v>130.1938350469048</v>
+        <v>130.1938499965782</v>
       </c>
       <c r="C77" t="n">
-        <v>133.0436427216781</v>
+        <v>133.0436579985842</v>
       </c>
       <c r="D77" t="n">
-        <v>129.8289855149754</v>
+        <v>129.8290004227544</v>
       </c>
       <c r="E77" t="n">
-        <v>132.8858642578125</v>
+        <v>132.8858795166016</v>
       </c>
       <c r="F77" t="n">
         <v>57809700</v>
@@ -2467,16 +2467,16 @@
         <v>44943</v>
       </c>
       <c r="B78" t="n">
-        <v>132.9548901573667</v>
+        <v>132.9549204257575</v>
       </c>
       <c r="C78" t="n">
-        <v>135.3806699486315</v>
+        <v>135.3807007692732</v>
       </c>
       <c r="D78" t="n">
-        <v>132.2646282267866</v>
+        <v>132.2646583380329</v>
       </c>
       <c r="E78" t="n">
-        <v>134.0494537353516</v>
+        <v>134.0494842529297</v>
       </c>
       <c r="F78" t="n">
         <v>63646600</v>
@@ -2493,16 +2493,16 @@
         <v>44944</v>
       </c>
       <c r="B79" t="n">
-        <v>134.9172304456464</v>
+        <v>134.9172613266098</v>
       </c>
       <c r="C79" t="n">
-        <v>136.6823300199292</v>
+        <v>136.682361304903</v>
       </c>
       <c r="D79" t="n">
-        <v>133.1521158247809</v>
+        <v>133.1521463017304</v>
       </c>
       <c r="E79" t="n">
-        <v>133.3296203613281</v>
+        <v>133.3296508789062</v>
       </c>
       <c r="F79" t="n">
         <v>69672800</v>
@@ -2519,16 +2519,16 @@
         <v>44945</v>
       </c>
       <c r="B80" t="n">
-        <v>132.2153560837081</v>
+        <v>132.2153258346004</v>
       </c>
       <c r="C80" t="n">
-        <v>134.3551761664197</v>
+        <v>134.3551454277497</v>
       </c>
       <c r="D80" t="n">
-        <v>131.9096696499759</v>
+        <v>131.9096394708051</v>
       </c>
       <c r="E80" t="n">
-        <v>133.3888092041016</v>
+        <v>133.3887786865234</v>
       </c>
       <c r="F80" t="n">
         <v>58280400</v>
@@ -2545,16 +2545,16 @@
         <v>44946</v>
       </c>
       <c r="B81" t="n">
-        <v>133.3986594670003</v>
+        <v>133.3986444948596</v>
       </c>
       <c r="C81" t="n">
-        <v>136.1005596962916</v>
+        <v>136.1005444209002</v>
       </c>
       <c r="D81" t="n">
-        <v>132.3534032973474</v>
+        <v>132.3533884425221</v>
       </c>
       <c r="E81" t="n">
-        <v>135.95263671875</v>
+        <v>135.9526214599609</v>
       </c>
       <c r="F81" t="n">
         <v>80223600</v>
@@ -2623,16 +2623,16 @@
         <v>44951</v>
       </c>
       <c r="B84" t="n">
-        <v>138.930619479783</v>
+        <v>138.9306497886899</v>
       </c>
       <c r="C84" t="n">
-        <v>140.4491958312912</v>
+        <v>140.4492264714887</v>
       </c>
       <c r="D84" t="n">
-        <v>136.8795445691478</v>
+        <v>136.8795744305952</v>
       </c>
       <c r="E84" t="n">
-        <v>139.8871307373047</v>
+        <v>139.8871612548828</v>
       </c>
       <c r="F84" t="n">
         <v>65799300</v>
@@ -2649,16 +2649,16 @@
         <v>44952</v>
       </c>
       <c r="B85" t="n">
-        <v>141.1789552759405</v>
+        <v>141.1789249258335</v>
       </c>
       <c r="C85" t="n">
-        <v>142.2439376895358</v>
+        <v>142.243907110483</v>
       </c>
       <c r="D85" t="n">
-        <v>139.9266127553347</v>
+        <v>139.9265826744515</v>
       </c>
       <c r="E85" t="n">
-        <v>141.9579772949219</v>
+        <v>141.9579467773438</v>
       </c>
       <c r="F85" t="n">
         <v>54105100</v>
@@ -2701,16 +2701,16 @@
         <v>44956</v>
       </c>
       <c r="B87" t="n">
-        <v>142.9440557695909</v>
+        <v>142.9440248337285</v>
       </c>
       <c r="C87" t="n">
-        <v>143.5258470604382</v>
+        <v>143.5258159986648</v>
       </c>
       <c r="D87" t="n">
-        <v>140.863398823187</v>
+        <v>140.863368337619</v>
       </c>
       <c r="E87" t="n">
-        <v>141.0113067626953</v>
+        <v>141.0112762451172</v>
       </c>
       <c r="F87" t="n">
         <v>64015300</v>
@@ -2727,16 +2727,16 @@
         <v>44957</v>
       </c>
       <c r="B88" t="n">
-        <v>140.7154563263628</v>
+        <v>140.7154714170084</v>
       </c>
       <c r="C88" t="n">
-        <v>142.3326481092963</v>
+        <v>142.3326633733732</v>
       </c>
       <c r="D88" t="n">
-        <v>140.301299106578</v>
+        <v>140.3013141528084</v>
       </c>
       <c r="E88" t="n">
-        <v>142.2833404541016</v>
+        <v>142.2833557128906</v>
       </c>
       <c r="F88" t="n">
         <v>65874500</v>
@@ -2805,16 +2805,16 @@
         <v>44960</v>
       </c>
       <c r="B91" t="n">
-        <v>145.9713267849812</v>
+        <v>145.9713414047775</v>
       </c>
       <c r="C91" t="n">
-        <v>155.1913011660709</v>
+        <v>155.1913167092961</v>
       </c>
       <c r="D91" t="n">
-        <v>145.7741112196999</v>
+        <v>145.774125819744</v>
       </c>
       <c r="E91" t="n">
-        <v>152.3513488769531</v>
+        <v>152.3513641357422</v>
       </c>
       <c r="F91" t="n">
         <v>154357300</v>
@@ -2831,16 +2831,16 @@
         <v>44963</v>
       </c>
       <c r="B92" t="n">
-        <v>150.4481871835553</v>
+        <v>150.4482332133508</v>
       </c>
       <c r="C92" t="n">
-        <v>150.9708151689185</v>
+        <v>150.9708613586127</v>
       </c>
       <c r="D92" t="n">
-        <v>148.6830726282791</v>
+        <v>148.6831181180358</v>
       </c>
       <c r="E92" t="n">
-        <v>149.6198577880859</v>
+        <v>149.6199035644531</v>
       </c>
       <c r="F92" t="n">
         <v>69858300</v>
@@ -2909,16 +2909,16 @@
         <v>44966</v>
       </c>
       <c r="B95" t="n">
-        <v>151.641384913738</v>
+        <v>151.6413538075322</v>
       </c>
       <c r="C95" t="n">
-        <v>152.1837390894266</v>
+        <v>152.1837078719676</v>
       </c>
       <c r="D95" t="n">
-        <v>148.3281117318598</v>
+        <v>148.3280813053058</v>
       </c>
       <c r="E95" t="n">
-        <v>148.7718505859375</v>
+        <v>148.7718200683594</v>
       </c>
       <c r="F95" t="n">
         <v>56007100</v>
@@ -2961,16 +2961,16 @@
         <v>44970</v>
       </c>
       <c r="B97" t="n">
-        <v>149.0780022037311</v>
+        <v>149.0779872325639</v>
       </c>
       <c r="C97" t="n">
-        <v>152.3469510828992</v>
+        <v>152.3469357834477</v>
       </c>
       <c r="D97" t="n">
-        <v>149.0483754519819</v>
+        <v>149.04836048379</v>
       </c>
       <c r="E97" t="n">
-        <v>151.9420471191406</v>
+        <v>151.9420318603516</v>
       </c>
       <c r="F97" t="n">
         <v>62199000</v>
@@ -3013,16 +3013,16 @@
         <v>44972</v>
       </c>
       <c r="B99" t="n">
-        <v>151.2112014683867</v>
+        <v>151.2112165090948</v>
       </c>
       <c r="C99" t="n">
-        <v>153.5715611952289</v>
+        <v>153.5715764707177</v>
       </c>
       <c r="D99" t="n">
-        <v>150.9840580410787</v>
+        <v>150.9840730591931</v>
       </c>
       <c r="E99" t="n">
-        <v>153.4036712646484</v>
+        <v>153.4036865234375</v>
       </c>
       <c r="F99" t="n">
         <v>65573800</v>
@@ -3065,16 +3065,16 @@
         <v>44974</v>
       </c>
       <c r="B101" t="n">
-        <v>150.4606254196174</v>
+        <v>150.4606406584018</v>
       </c>
       <c r="C101" t="n">
-        <v>151.1025583652421</v>
+        <v>151.102573669042</v>
       </c>
       <c r="D101" t="n">
-        <v>148.9792277885856</v>
+        <v>148.9792428773327</v>
       </c>
       <c r="E101" t="n">
-        <v>150.6581420898438</v>
+        <v>150.6581573486328</v>
       </c>
       <c r="F101" t="n">
         <v>59144100</v>
@@ -3091,16 +3091,16 @@
         <v>44978</v>
       </c>
       <c r="B102" t="n">
-        <v>148.3373122181069</v>
+        <v>148.3372813470114</v>
       </c>
       <c r="C102" t="n">
-        <v>149.4236767462983</v>
+        <v>149.4236456491149</v>
       </c>
       <c r="D102" t="n">
-        <v>146.5695172890238</v>
+        <v>146.5694867858314</v>
       </c>
       <c r="E102" t="n">
-        <v>146.6386413574219</v>
+        <v>146.6386108398438</v>
       </c>
       <c r="F102" t="n">
         <v>58867200</v>
@@ -3143,16 +3143,16 @@
         <v>44980</v>
       </c>
       <c r="B104" t="n">
-        <v>148.2286714025428</v>
+        <v>148.2286407440195</v>
       </c>
       <c r="C104" t="n">
-        <v>148.4755710544504</v>
+        <v>148.4755403448602</v>
       </c>
       <c r="D104" t="n">
-        <v>145.4140244125316</v>
+        <v>145.4139943361692</v>
       </c>
       <c r="E104" t="n">
-        <v>147.5472259521484</v>
+        <v>147.5471954345703</v>
       </c>
       <c r="F104" t="n">
         <v>48394200</v>
@@ -3169,16 +3169,16 @@
         <v>44981</v>
       </c>
       <c r="B105" t="n">
-        <v>145.2856431874803</v>
+        <v>145.2856125866983</v>
       </c>
       <c r="C105" t="n">
-        <v>145.3646528906462</v>
+        <v>145.3646222732227</v>
       </c>
       <c r="D105" t="n">
-        <v>143.9128816177882</v>
+        <v>143.912851306144</v>
       </c>
       <c r="E105" t="n">
-        <v>144.8906097412109</v>
+        <v>144.8905792236328</v>
       </c>
       <c r="F105" t="n">
         <v>55469600</v>
@@ -3195,16 +3195,16 @@
         <v>44984</v>
       </c>
       <c r="B106" t="n">
-        <v>145.8781840387877</v>
+        <v>145.878199275915</v>
       </c>
       <c r="C106" t="n">
-        <v>147.3200694392231</v>
+        <v>147.3200848269568</v>
       </c>
       <c r="D106" t="n">
-        <v>145.6213987790375</v>
+        <v>145.6214139893433</v>
       </c>
       <c r="E106" t="n">
-        <v>146.0855712890625</v>
+        <v>146.0855865478516</v>
       </c>
       <c r="F106" t="n">
         <v>44998500</v>
@@ -3221,16 +3221,16 @@
         <v>44985</v>
       </c>
       <c r="B107" t="n">
-        <v>145.2263883123522</v>
+        <v>145.2263730908277</v>
       </c>
       <c r="C107" t="n">
-        <v>147.2312124189658</v>
+        <v>147.2311969873109</v>
       </c>
       <c r="D107" t="n">
-        <v>145.0091153980784</v>
+        <v>145.0091001993268</v>
       </c>
       <c r="E107" t="n">
-        <v>145.5819244384766</v>
+        <v>145.5819091796875</v>
       </c>
       <c r="F107" t="n">
         <v>50547000</v>
@@ -3247,16 +3247,16 @@
         <v>44986</v>
       </c>
       <c r="B108" t="n">
-        <v>145.0090884987679</v>
+        <v>145.0091039171703</v>
       </c>
       <c r="C108" t="n">
-        <v>145.4041218680449</v>
+        <v>145.4041373284501</v>
       </c>
       <c r="D108" t="n">
-        <v>143.2116520085762</v>
+        <v>143.2116672358624</v>
       </c>
       <c r="E108" t="n">
-        <v>143.5079345703125</v>
+        <v>143.5079498291016</v>
       </c>
       <c r="F108" t="n">
         <v>55479000</v>
@@ -3273,16 +3273,16 @@
         <v>44987</v>
       </c>
       <c r="B109" t="n">
-        <v>142.58948505088</v>
+        <v>142.5894699520932</v>
       </c>
       <c r="C109" t="n">
-        <v>144.8905915062189</v>
+        <v>144.8905761637681</v>
       </c>
       <c r="D109" t="n">
-        <v>142.1154268915466</v>
+        <v>142.1154118429578</v>
       </c>
       <c r="E109" t="n">
-        <v>144.1005096435547</v>
+        <v>144.1004943847656</v>
       </c>
       <c r="F109" t="n">
         <v>52238100</v>
@@ -3325,16 +3325,16 @@
         <v>44991</v>
       </c>
       <c r="B111" t="n">
-        <v>151.8827593514713</v>
+        <v>151.8827746062918</v>
       </c>
       <c r="C111" t="n">
-        <v>154.3616411113071</v>
+        <v>154.3616566151018</v>
       </c>
       <c r="D111" t="n">
-        <v>151.5568651234158</v>
+        <v>151.5568803455041</v>
       </c>
       <c r="E111" t="n">
-        <v>151.9222717285156</v>
+        <v>151.9222869873047</v>
       </c>
       <c r="F111" t="n">
         <v>87558000</v>
@@ -3351,16 +3351,16 @@
         <v>44992</v>
       </c>
       <c r="B112" t="n">
-        <v>151.793903485547</v>
+        <v>151.7938880153904</v>
       </c>
       <c r="C112" t="n">
-        <v>152.1198128355</v>
+        <v>152.1197973321281</v>
       </c>
       <c r="D112" t="n">
-        <v>149.2557828916356</v>
+        <v>149.2557676801529</v>
       </c>
       <c r="E112" t="n">
-        <v>149.7199554443359</v>
+        <v>149.7199401855469</v>
       </c>
       <c r="F112" t="n">
         <v>56182000</v>
@@ -3377,16 +3377,16 @@
         <v>44993</v>
       </c>
       <c r="B113" t="n">
-        <v>150.9149286283649</v>
+        <v>150.9149438811654</v>
       </c>
       <c r="C113" t="n">
-        <v>151.5667472734343</v>
+        <v>151.5667625921133</v>
       </c>
       <c r="D113" t="n">
-        <v>149.9470862905562</v>
+        <v>149.9471014455379</v>
       </c>
       <c r="E113" t="n">
-        <v>150.9741821289062</v>
+        <v>150.9741973876953</v>
       </c>
       <c r="F113" t="n">
         <v>47204800</v>
@@ -3403,16 +3403,16 @@
         <v>44994</v>
       </c>
       <c r="B114" t="n">
-        <v>151.6556111433857</v>
+        <v>151.6556267031152</v>
       </c>
       <c r="C114" t="n">
-        <v>152.6234533766544</v>
+        <v>152.6234690356837</v>
       </c>
       <c r="D114" t="n">
-        <v>148.3669065925505</v>
+        <v>148.3669218148619</v>
       </c>
       <c r="E114" t="n">
-        <v>148.7224426269531</v>
+        <v>148.7224578857422</v>
       </c>
       <c r="F114" t="n">
         <v>53833600</v>
@@ -3429,16 +3429,16 @@
         <v>44995</v>
       </c>
       <c r="B115" t="n">
-        <v>148.3471709649887</v>
+        <v>148.3472018339828</v>
       </c>
       <c r="C115" t="n">
-        <v>149.0681136196498</v>
+        <v>149.068144638662</v>
       </c>
       <c r="D115" t="n">
-        <v>145.7794089470896</v>
+        <v>145.7794392817679</v>
       </c>
       <c r="E115" t="n">
-        <v>146.6583709716797</v>
+        <v>146.6584014892578</v>
       </c>
       <c r="F115" t="n">
         <v>68572400</v>
@@ -3481,16 +3481,16 @@
         <v>44999</v>
       </c>
       <c r="B117" t="n">
-        <v>149.4039106364519</v>
+        <v>149.403925764243</v>
       </c>
       <c r="C117" t="n">
-        <v>151.4976147850095</v>
+        <v>151.4976301247972</v>
       </c>
       <c r="D117" t="n">
-        <v>148.238551555895</v>
+        <v>148.2385665656885</v>
       </c>
       <c r="E117" t="n">
-        <v>150.6976623535156</v>
+        <v>150.6976776123047</v>
       </c>
       <c r="F117" t="n">
         <v>73695900</v>
@@ -3507,16 +3507,16 @@
         <v>45000</v>
       </c>
       <c r="B118" t="n">
-        <v>149.3150168625453</v>
+        <v>149.315047021069</v>
       </c>
       <c r="C118" t="n">
-        <v>151.3494673237617</v>
+        <v>151.3494978932021</v>
       </c>
       <c r="D118" t="n">
-        <v>148.0607625712835</v>
+        <v>148.060792476474</v>
       </c>
       <c r="E118" t="n">
-        <v>151.0926971435547</v>
+        <v>151.0927276611328</v>
       </c>
       <c r="F118" t="n">
         <v>77167900</v>
@@ -3533,16 +3533,16 @@
         <v>45001</v>
       </c>
       <c r="B119" t="n">
-        <v>150.272980457994</v>
+        <v>150.2730102530188</v>
       </c>
       <c r="C119" t="n">
-        <v>154.5196567133458</v>
+        <v>154.5196873503704</v>
       </c>
       <c r="D119" t="n">
-        <v>149.7594250558325</v>
+        <v>149.7594547490333</v>
       </c>
       <c r="E119" t="n">
-        <v>153.9172210693359</v>
+        <v>153.9172515869141</v>
       </c>
       <c r="F119" t="n">
         <v>76161100</v>
@@ -3559,16 +3559,16 @@
         <v>45002</v>
       </c>
       <c r="B120" t="n">
-        <v>154.1443822818222</v>
+        <v>154.1443976469308</v>
       </c>
       <c r="C120" t="n">
-        <v>154.7962009363973</v>
+        <v>154.7962163664791</v>
       </c>
       <c r="D120" t="n">
-        <v>152.3667018918711</v>
+        <v>152.3667170797805</v>
       </c>
       <c r="E120" t="n">
-        <v>153.0777740478516</v>
+        <v>153.0777893066406</v>
       </c>
       <c r="F120" t="n">
         <v>98944600</v>
@@ -3585,16 +3585,16 @@
         <v>45005</v>
       </c>
       <c r="B121" t="n">
-        <v>153.1469368663268</v>
+        <v>153.146921833413</v>
       </c>
       <c r="C121" t="n">
-        <v>155.8628332775641</v>
+        <v>155.8628179780578</v>
       </c>
       <c r="D121" t="n">
-        <v>152.238332805718</v>
+        <v>152.238317861993</v>
       </c>
       <c r="E121" t="n">
-        <v>155.4480285644531</v>
+        <v>155.4480133056641</v>
       </c>
       <c r="F121" t="n">
         <v>73641400</v>
@@ -3611,16 +3611,16 @@
         <v>45006</v>
       </c>
       <c r="B122" t="n">
-        <v>155.3690028835596</v>
+        <v>155.3689878125348</v>
       </c>
       <c r="C122" t="n">
-        <v>157.4231944974596</v>
+        <v>157.4231792271752</v>
       </c>
       <c r="D122" t="n">
-        <v>154.5986621914006</v>
+        <v>154.5986471951001</v>
       </c>
       <c r="E122" t="n">
-        <v>157.3046875</v>
+        <v>157.3046722412109</v>
       </c>
       <c r="F122" t="n">
         <v>73938300</v>
@@ -3637,16 +3637,16 @@
         <v>45007</v>
       </c>
       <c r="B123" t="n">
-        <v>157.3244671363256</v>
+        <v>157.3244517354188</v>
       </c>
       <c r="C123" t="n">
-        <v>160.1292436709663</v>
+        <v>160.1292279954925</v>
       </c>
       <c r="D123" t="n">
-        <v>155.8529397304782</v>
+        <v>155.8529244736231</v>
       </c>
       <c r="E123" t="n">
-        <v>155.8726959228516</v>
+        <v>155.8726806640625</v>
       </c>
       <c r="F123" t="n">
         <v>75701800</v>
@@ -3663,16 +3663,16 @@
         <v>45008</v>
       </c>
       <c r="B124" t="n">
-        <v>156.8602945873959</v>
+        <v>156.8602793382069</v>
       </c>
       <c r="C124" t="n">
-        <v>159.5465641072527</v>
+        <v>159.5465485969178</v>
       </c>
       <c r="D124" t="n">
-        <v>155.7245471039558</v>
+        <v>155.7245319651787</v>
       </c>
       <c r="E124" t="n">
-        <v>156.9590454101562</v>
+        <v>156.9590301513672</v>
       </c>
       <c r="F124" t="n">
         <v>67622100</v>
@@ -3689,16 +3689,16 @@
         <v>45009</v>
       </c>
       <c r="B125" t="n">
-        <v>156.8899034378606</v>
+        <v>156.8899336907309</v>
       </c>
       <c r="C125" t="n">
-        <v>158.3515450461316</v>
+        <v>158.3515755808484</v>
       </c>
       <c r="D125" t="n">
-        <v>155.8924343453171</v>
+        <v>155.8924644058469</v>
       </c>
       <c r="E125" t="n">
-        <v>158.2626647949219</v>
+        <v>158.2626953125</v>
       </c>
       <c r="F125" t="n">
         <v>59196500</v>
@@ -3715,16 +3715,16 @@
         <v>45012</v>
       </c>
       <c r="B126" t="n">
-        <v>157.9565408967691</v>
+        <v>157.9565254779494</v>
       </c>
       <c r="C126" t="n">
-        <v>158.7762496386106</v>
+        <v>158.7762341397757</v>
       </c>
       <c r="D126" t="n">
-        <v>155.9122043232195</v>
+        <v>155.9121891039564</v>
       </c>
       <c r="E126" t="n">
-        <v>156.3171234130859</v>
+        <v>156.3171081542969</v>
       </c>
       <c r="F126" t="n">
         <v>52390300</v>
@@ -3741,16 +3741,16 @@
         <v>45013</v>
       </c>
       <c r="B127" t="n">
-        <v>156.0109392722038</v>
+        <v>156.0109545619661</v>
       </c>
       <c r="C127" t="n">
-        <v>156.5244947216264</v>
+        <v>156.5245100617194</v>
       </c>
       <c r="D127" t="n">
-        <v>154.0456127940986</v>
+        <v>154.0456278912501</v>
       </c>
       <c r="E127" t="n">
-        <v>155.6949005126953</v>
+        <v>155.6949157714844</v>
       </c>
       <c r="F127" t="n">
         <v>45992200</v>
@@ -3819,16 +3819,16 @@
         <v>45016</v>
       </c>
       <c r="B130" t="n">
-        <v>160.4255117206566</v>
+        <v>160.4254966894993</v>
       </c>
       <c r="C130" t="n">
-        <v>162.953761610884</v>
+        <v>162.953746342841</v>
       </c>
       <c r="D130" t="n">
-        <v>159.902085691956</v>
+        <v>159.9020707098414</v>
       </c>
       <c r="E130" t="n">
-        <v>162.8549957275391</v>
+        <v>162.85498046875</v>
       </c>
       <c r="F130" t="n">
         <v>68749800</v>
@@ -3871,16 +3871,16 @@
         <v>45020</v>
       </c>
       <c r="B132" t="n">
-        <v>164.5339300837739</v>
+        <v>164.5339454319251</v>
       </c>
       <c r="C132" t="n">
-        <v>164.7709440993611</v>
+        <v>164.7709594696216</v>
       </c>
       <c r="D132" t="n">
-        <v>163.0624027689168</v>
+        <v>163.0624179798</v>
       </c>
       <c r="E132" t="n">
-        <v>163.5759582519531</v>
+        <v>163.5759735107422</v>
       </c>
       <c r="F132" t="n">
         <v>46278300</v>
@@ -3897,16 +3897,16 @@
         <v>45021</v>
       </c>
       <c r="B133" t="n">
-        <v>162.6969987129814</v>
+        <v>162.6969833628771</v>
       </c>
       <c r="C133" t="n">
-        <v>163.0031518677089</v>
+        <v>163.0031364887197</v>
       </c>
       <c r="D133" t="n">
-        <v>159.7934564192093</v>
+        <v>159.7934413430479</v>
       </c>
       <c r="E133" t="n">
-        <v>161.7291412353516</v>
+        <v>161.7291259765625</v>
       </c>
       <c r="F133" t="n">
         <v>51511700</v>
@@ -3923,16 +3923,16 @@
         <v>45022</v>
       </c>
       <c r="B134" t="n">
-        <v>160.4156403912687</v>
+        <v>160.4156102869939</v>
       </c>
       <c r="C134" t="n">
-        <v>162.9142788227101</v>
+        <v>162.9142482495303</v>
       </c>
       <c r="D134" t="n">
-        <v>159.9909802080555</v>
+        <v>159.9909501834743</v>
       </c>
       <c r="E134" t="n">
-        <v>162.6179962158203</v>
+        <v>162.6179656982422</v>
       </c>
       <c r="F134" t="n">
         <v>45390100</v>
@@ -3949,16 +3949,16 @@
         <v>45026</v>
       </c>
       <c r="B135" t="n">
-        <v>159.418148417319</v>
+        <v>159.4181636186627</v>
       </c>
       <c r="C135" t="n">
-        <v>160.0205841064453</v>
+        <v>160.0205993652344</v>
       </c>
       <c r="D135" t="n">
-        <v>158.0947700410602</v>
+        <v>158.094785116213</v>
       </c>
       <c r="E135" t="n">
-        <v>160.0205841064453</v>
+        <v>160.0205993652344</v>
       </c>
       <c r="F135" t="n">
         <v>47716900</v>
@@ -4001,16 +4001,16 @@
         <v>45028</v>
       </c>
       <c r="B137" t="n">
-        <v>159.220638014566</v>
+        <v>159.2206533800993</v>
       </c>
       <c r="C137" t="n">
-        <v>160.0502171724631</v>
+        <v>160.0502326180547</v>
       </c>
       <c r="D137" t="n">
-        <v>157.7984937041379</v>
+        <v>157.7985089324277</v>
       </c>
       <c r="E137" t="n">
-        <v>158.1145324707031</v>
+        <v>158.1145477294922</v>
       </c>
       <c r="F137" t="n">
         <v>50133100</v>
@@ -4079,16 +4079,16 @@
         <v>45033</v>
       </c>
       <c r="B140" t="n">
-        <v>163.0426297596527</v>
+        <v>163.0426602513732</v>
       </c>
       <c r="C140" t="n">
-        <v>163.3389123181331</v>
+        <v>163.3389428652635</v>
       </c>
       <c r="D140" t="n">
-        <v>161.9957777799711</v>
+        <v>161.9958080759127</v>
       </c>
       <c r="E140" t="n">
-        <v>163.1808929443359</v>
+        <v>163.1809234619141</v>
       </c>
       <c r="F140" t="n">
         <v>41516200</v>
@@ -4105,16 +4105,16 @@
         <v>45034</v>
       </c>
       <c r="B141" t="n">
-        <v>164.0401261934215</v>
+        <v>164.0401109685465</v>
       </c>
       <c r="C141" t="n">
-        <v>165.3338778907626</v>
+        <v>165.3338625458121</v>
       </c>
       <c r="D141" t="n">
-        <v>163.5956947875371</v>
+        <v>163.5956796039106</v>
       </c>
       <c r="E141" t="n">
-        <v>164.4055328369141</v>
+        <v>164.405517578125</v>
       </c>
       <c r="F141" t="n">
         <v>49923000</v>
@@ -4157,16 +4157,16 @@
         <v>45036</v>
       </c>
       <c r="B143" t="n">
-        <v>164.0302297269617</v>
+        <v>164.0302449344763</v>
       </c>
       <c r="C143" t="n">
-        <v>165.7881538350928</v>
+        <v>165.7881692055875</v>
       </c>
       <c r="D143" t="n">
-        <v>163.5068037323809</v>
+        <v>163.5068188913679</v>
       </c>
       <c r="E143" t="n">
-        <v>164.5832824707031</v>
+        <v>164.5832977294922</v>
       </c>
       <c r="F143" t="n">
         <v>52456400</v>
@@ -4209,16 +4209,16 @@
         <v>45040</v>
       </c>
       <c r="B145" t="n">
-        <v>162.9537537700505</v>
+        <v>162.9537385417183</v>
       </c>
       <c r="C145" t="n">
-        <v>163.5463189024918</v>
+        <v>163.5463036187833</v>
       </c>
       <c r="D145" t="n">
-        <v>161.8575188237243</v>
+        <v>161.8575036978372</v>
       </c>
       <c r="E145" t="n">
-        <v>163.2796630859375</v>
+        <v>163.2796478271484</v>
       </c>
       <c r="F145" t="n">
         <v>41949600</v>
@@ -4235,16 +4235,16 @@
         <v>45041</v>
       </c>
       <c r="B146" t="n">
-        <v>163.1414017604714</v>
+        <v>163.1413863693782</v>
       </c>
       <c r="C146" t="n">
-        <v>164.2475072794641</v>
+        <v>164.2474917840186</v>
       </c>
       <c r="D146" t="n">
-        <v>161.6995012921638</v>
+        <v>161.6994860371025</v>
       </c>
       <c r="E146" t="n">
-        <v>161.739013671875</v>
+        <v>161.7389984130859</v>
       </c>
       <c r="F146" t="n">
         <v>48714100</v>
@@ -4261,16 +4261,16 @@
         <v>45042</v>
       </c>
       <c r="B147" t="n">
-        <v>161.0378252295865</v>
+        <v>161.0378100360216</v>
       </c>
       <c r="C147" t="n">
-        <v>163.2302953261262</v>
+        <v>163.2302799257066</v>
       </c>
       <c r="D147" t="n">
-        <v>160.7810550187477</v>
+        <v>160.7810398494085</v>
       </c>
       <c r="E147" t="n">
-        <v>161.7291412353516</v>
+        <v>161.7291259765625</v>
       </c>
       <c r="F147" t="n">
         <v>45498800</v>
@@ -4287,16 +4287,16 @@
         <v>45043</v>
       </c>
       <c r="B148" t="n">
-        <v>163.1414036936249</v>
+        <v>163.1414186606658</v>
       </c>
       <c r="C148" t="n">
-        <v>166.4696059197472</v>
+        <v>166.4696211921265</v>
       </c>
       <c r="D148" t="n">
-        <v>163.1414036936249</v>
+        <v>163.1414186606658</v>
       </c>
       <c r="E148" t="n">
-        <v>166.3214721679688</v>
+        <v>166.3214874267578</v>
       </c>
       <c r="F148" t="n">
         <v>64902300</v>
@@ -4313,16 +4313,16 @@
         <v>45044</v>
       </c>
       <c r="B149" t="n">
-        <v>166.4004844995999</v>
+        <v>166.4004693478227</v>
       </c>
       <c r="C149" t="n">
-        <v>167.7436191254186</v>
+        <v>167.7436038513408</v>
       </c>
       <c r="D149" t="n">
-        <v>165.7980487835439</v>
+        <v>165.7980336866221</v>
       </c>
       <c r="E149" t="n">
-        <v>167.5757141113281</v>
+        <v>167.5756988525391</v>
       </c>
       <c r="F149" t="n">
         <v>55275900</v>
@@ -4339,16 +4339,16 @@
         <v>45047</v>
       </c>
       <c r="B150" t="n">
-        <v>167.180693761707</v>
+        <v>167.1807089926042</v>
       </c>
       <c r="C150" t="n">
-        <v>168.3361823427249</v>
+        <v>168.3361976788922</v>
       </c>
       <c r="D150" t="n">
-        <v>166.5486312455205</v>
+        <v>166.548646418834</v>
       </c>
       <c r="E150" t="n">
-        <v>167.4868469238281</v>
+        <v>167.4868621826172</v>
       </c>
       <c r="F150" t="n">
         <v>52472900</v>
@@ -4365,16 +4365,16 @@
         <v>45048</v>
       </c>
       <c r="B151" t="n">
-        <v>167.9806250474325</v>
+        <v>167.9806712447888</v>
       </c>
       <c r="C151" t="n">
-        <v>168.237410301642</v>
+        <v>168.2374565696184</v>
       </c>
       <c r="D151" t="n">
-        <v>165.4622458615326</v>
+        <v>165.4622913662944</v>
       </c>
       <c r="E151" t="n">
-        <v>166.4498443603516</v>
+        <v>166.4498901367188</v>
       </c>
       <c r="F151" t="n">
         <v>48425700</v>
@@ -4391,16 +4391,16 @@
         <v>45049</v>
       </c>
       <c r="B152" t="n">
-        <v>167.3979472668269</v>
+        <v>167.3979627124213</v>
       </c>
       <c r="C152" t="n">
-        <v>168.8003353411873</v>
+        <v>168.8003509161784</v>
       </c>
       <c r="D152" t="n">
-        <v>165.0869703725804</v>
+        <v>165.0869856049439</v>
       </c>
       <c r="E152" t="n">
-        <v>165.3733673095703</v>
+        <v>165.3733825683594</v>
       </c>
       <c r="F152" t="n">
         <v>65136000</v>
@@ -4417,16 +4417,16 @@
         <v>45050</v>
       </c>
       <c r="B153" t="n">
-        <v>162.8451303127368</v>
+        <v>162.8451151367803</v>
       </c>
       <c r="C153" t="n">
-        <v>164.9684612457258</v>
+        <v>164.9684458718907</v>
       </c>
       <c r="D153" t="n">
-        <v>162.2723213242636</v>
+        <v>162.2723062016887</v>
       </c>
       <c r="E153" t="n">
-        <v>163.7339630126953</v>
+        <v>163.7339477539062</v>
       </c>
       <c r="F153" t="n">
         <v>81235400</v>
@@ -4443,16 +4443,16 @@
         <v>45051</v>
       </c>
       <c r="B154" t="n">
-        <v>168.8595888771551</v>
+        <v>168.8596039082526</v>
       </c>
       <c r="C154" t="n">
-        <v>172.1384231609627</v>
+        <v>172.1384384839267</v>
       </c>
       <c r="D154" t="n">
-        <v>168.6423159995748</v>
+        <v>168.6423310113316</v>
       </c>
       <c r="E154" t="n">
-        <v>171.41748046875</v>
+        <v>171.4174957275391</v>
       </c>
       <c r="F154" t="n">
         <v>113453200</v>
@@ -4469,16 +4469,16 @@
         <v>45054</v>
       </c>
       <c r="B155" t="n">
-        <v>170.3409881875394</v>
+        <v>170.3410185257051</v>
       </c>
       <c r="C155" t="n">
-        <v>171.6940084046762</v>
+        <v>171.6940389838182</v>
       </c>
       <c r="D155" t="n">
-        <v>169.9755815580898</v>
+        <v>169.9756118311756</v>
       </c>
       <c r="E155" t="n">
-        <v>171.3483428955078</v>
+        <v>171.3483734130859</v>
       </c>
       <c r="F155" t="n">
         <v>55962800</v>
@@ -4521,16 +4521,16 @@
         <v>45056</v>
       </c>
       <c r="B157" t="n">
-        <v>170.8743114268366</v>
+        <v>170.8743266381514</v>
       </c>
       <c r="C157" t="n">
-        <v>171.8717805728245</v>
+        <v>171.8717958729345</v>
       </c>
       <c r="D157" t="n">
-        <v>169.7681907641384</v>
+        <v>169.7682058769857</v>
       </c>
       <c r="E157" t="n">
-        <v>171.4076080322266</v>
+        <v>171.4076232910156</v>
       </c>
       <c r="F157" t="n">
         <v>53724500</v>
@@ -4547,16 +4547,16 @@
         <v>45057</v>
       </c>
       <c r="B158" t="n">
-        <v>171.6940112425966</v>
+        <v>171.6940265101682</v>
       </c>
       <c r="C158" t="n">
-        <v>172.4248245135754</v>
+        <v>172.4248398461332</v>
       </c>
       <c r="D158" t="n">
-        <v>170.0348378685444</v>
+        <v>170.0348529885771</v>
       </c>
       <c r="E158" t="n">
-        <v>171.5952453613281</v>
+        <v>171.5952606201172</v>
       </c>
       <c r="F158" t="n">
         <v>49514700</v>
@@ -4573,16 +4573,16 @@
         <v>45058</v>
       </c>
       <c r="B159" t="n">
-        <v>171.7040195971583</v>
+        <v>171.7040042455284</v>
       </c>
       <c r="C159" t="n">
-        <v>172.1391664117347</v>
+        <v>172.1391510211994</v>
       </c>
       <c r="D159" t="n">
-        <v>169.1129373163278</v>
+        <v>169.1129221963601</v>
       </c>
       <c r="E159" t="n">
-        <v>170.6656188964844</v>
+        <v>170.6656036376953</v>
       </c>
       <c r="F159" t="n">
         <v>45533100</v>
@@ -4599,16 +4599,16 @@
         <v>45061</v>
       </c>
       <c r="B160" t="n">
-        <v>171.2491103489714</v>
+        <v>171.2490949935239</v>
       </c>
       <c r="C160" t="n">
-        <v>171.2985615960675</v>
+        <v>171.2985462361859</v>
       </c>
       <c r="D160" t="n">
-        <v>169.5777577937755</v>
+        <v>169.5777425881936</v>
       </c>
       <c r="E160" t="n">
-        <v>170.171142578125</v>
+        <v>170.1711273193359</v>
       </c>
       <c r="F160" t="n">
         <v>37266700</v>
@@ -4625,16 +4625,16 @@
         <v>45062</v>
       </c>
       <c r="B161" t="n">
-        <v>170.0920236008516</v>
+        <v>170.0920083491569</v>
       </c>
       <c r="C161" t="n">
-        <v>171.2293268320526</v>
+        <v>171.229311478379</v>
       </c>
       <c r="D161" t="n">
-        <v>169.9041179161275</v>
+        <v>169.9041026812818</v>
       </c>
       <c r="E161" t="n">
-        <v>170.171142578125</v>
+        <v>170.1711273193359</v>
       </c>
       <c r="F161" t="n">
         <v>42110300</v>
@@ -4651,16 +4651,16 @@
         <v>45063</v>
       </c>
       <c r="B162" t="n">
-        <v>169.8151358327416</v>
+        <v>169.81509031615</v>
       </c>
       <c r="C162" t="n">
-        <v>171.0216588875202</v>
+        <v>171.0216130475368</v>
       </c>
       <c r="D162" t="n">
-        <v>168.5393629149387</v>
+        <v>168.5393177403003</v>
       </c>
       <c r="E162" t="n">
-        <v>170.7843170166016</v>
+        <v>170.7842712402344</v>
       </c>
       <c r="F162" t="n">
         <v>57951600</v>
@@ -4703,16 +4703,16 @@
         <v>45065</v>
       </c>
       <c r="B164" t="n">
-        <v>174.4434730688754</v>
+        <v>174.4434884348136</v>
       </c>
       <c r="C164" t="n">
-        <v>174.4434730688754</v>
+        <v>174.4434884348136</v>
       </c>
       <c r="D164" t="n">
-        <v>173.0094773521914</v>
+        <v>173.0094925918154</v>
       </c>
       <c r="E164" t="n">
-        <v>173.22705078125</v>
+        <v>173.2270660400391</v>
       </c>
       <c r="F164" t="n">
         <v>55809500</v>
@@ -4729,16 +4729,16 @@
         <v>45068</v>
       </c>
       <c r="B165" t="n">
-        <v>172.0600297644734</v>
+        <v>172.0600754830286</v>
       </c>
       <c r="C165" t="n">
-        <v>172.7819846737764</v>
+        <v>172.7820305841642</v>
       </c>
       <c r="D165" t="n">
-        <v>171.5358798163164</v>
+        <v>171.5359253955981</v>
       </c>
       <c r="E165" t="n">
-        <v>172.2776031494141</v>
+        <v>172.2776489257812</v>
       </c>
       <c r="F165" t="n">
         <v>43570900</v>
@@ -4755,16 +4755,16 @@
         <v>45069</v>
       </c>
       <c r="B166" t="n">
-        <v>171.2194603598222</v>
+        <v>171.2194295629667</v>
       </c>
       <c r="C166" t="n">
-        <v>171.4667015305189</v>
+        <v>171.4666706891927</v>
       </c>
       <c r="D166" t="n">
-        <v>169.3898696605051</v>
+        <v>169.3898391927339</v>
       </c>
       <c r="E166" t="n">
-        <v>169.6667785644531</v>
+        <v>169.666748046875</v>
       </c>
       <c r="F166" t="n">
         <v>50747300</v>
@@ -4833,16 +4833,16 @@
         <v>45072</v>
       </c>
       <c r="B169" t="n">
-        <v>171.407363369959</v>
+        <v>171.4073181441673</v>
       </c>
       <c r="C169" t="n">
-        <v>173.8303237866238</v>
+        <v>173.8302779215346</v>
       </c>
       <c r="D169" t="n">
-        <v>171.1996741500605</v>
+        <v>171.1996289790676</v>
       </c>
       <c r="E169" t="n">
-        <v>173.4940643310547</v>
+        <v>173.4940185546875</v>
       </c>
       <c r="F169" t="n">
         <v>54835000</v>
@@ -4859,16 +4859,16 @@
         <v>45076</v>
       </c>
       <c r="B170" t="n">
-        <v>175.0071699879076</v>
+        <v>175.0071852174359</v>
       </c>
       <c r="C170" t="n">
-        <v>177.0147667779445</v>
+        <v>177.0147821821785</v>
       </c>
       <c r="D170" t="n">
-        <v>174.6214744245607</v>
+        <v>174.6214896205249</v>
       </c>
       <c r="E170" t="n">
-        <v>175.3434143066406</v>
+        <v>175.3434295654297</v>
       </c>
       <c r="F170" t="n">
         <v>55964400</v>
@@ -4885,16 +4885,16 @@
         <v>45077</v>
       </c>
       <c r="B171" t="n">
-        <v>175.3730948091431</v>
+        <v>175.3731100748192</v>
       </c>
       <c r="C171" t="n">
-        <v>177.3708075319269</v>
+        <v>177.3708229714976</v>
       </c>
       <c r="D171" t="n">
-        <v>174.8093777422062</v>
+        <v>174.8093929588125</v>
       </c>
       <c r="E171" t="n">
-        <v>175.2939758300781</v>
+        <v>175.2939910888672</v>
       </c>
       <c r="F171" t="n">
         <v>99625300</v>
@@ -4911,16 +4911,16 @@
         <v>45078</v>
       </c>
       <c r="B172" t="n">
-        <v>175.7390058325088</v>
+        <v>175.7390208887964</v>
       </c>
       <c r="C172" t="n">
-        <v>178.1322983459061</v>
+        <v>178.1323136072369</v>
       </c>
       <c r="D172" t="n">
-        <v>174.9774988676636</v>
+        <v>174.9775138587097</v>
       </c>
       <c r="E172" t="n">
-        <v>178.1026306152344</v>
+        <v>178.1026458740234</v>
       </c>
       <c r="F172" t="n">
         <v>68901800</v>
@@ -4963,16 +4963,16 @@
         <v>45082</v>
       </c>
       <c r="B174" t="n">
-        <v>180.6145961643528</v>
+        <v>180.6145806464071</v>
       </c>
       <c r="C174" t="n">
-        <v>182.908986017055</v>
+        <v>182.9089703019812</v>
       </c>
       <c r="D174" t="n">
-        <v>176.0752375225132</v>
+        <v>176.0752223945776</v>
       </c>
       <c r="E174" t="n">
-        <v>177.5982513427734</v>
+        <v>177.5982360839844</v>
       </c>
       <c r="F174" t="n">
         <v>121946500</v>
@@ -4989,16 +4989,16 @@
         <v>45083</v>
       </c>
       <c r="B175" t="n">
-        <v>177.9839532147194</v>
+        <v>177.9839838617166</v>
       </c>
       <c r="C175" t="n">
-        <v>178.132291862679</v>
+        <v>178.1323225352186</v>
       </c>
       <c r="D175" t="n">
-        <v>175.4719747796581</v>
+        <v>175.4720049941186</v>
       </c>
       <c r="E175" t="n">
-        <v>177.2323455810547</v>
+        <v>177.2323760986328</v>
       </c>
       <c r="F175" t="n">
         <v>64848400</v>
@@ -5015,16 +5015,16 @@
         <v>45084</v>
       </c>
       <c r="B176" t="n">
-        <v>176.4708497706318</v>
+        <v>176.4708344586407</v>
       </c>
       <c r="C176" t="n">
-        <v>179.2102860020899</v>
+        <v>179.2102704524039</v>
       </c>
       <c r="D176" t="n">
-        <v>175.3632142216245</v>
+        <v>175.3631990057406</v>
       </c>
       <c r="E176" t="n">
-        <v>175.8576965332031</v>
+        <v>175.8576812744141</v>
       </c>
       <c r="F176" t="n">
         <v>61944600</v>
@@ -5041,16 +5041,16 @@
         <v>45085</v>
       </c>
       <c r="B177" t="n">
-        <v>175.936798014529</v>
+        <v>175.9368280808564</v>
       </c>
       <c r="C177" t="n">
-        <v>178.8443563812644</v>
+        <v>178.8443869444726</v>
       </c>
       <c r="D177" t="n">
-        <v>175.5016662622359</v>
+        <v>175.5016962542024</v>
       </c>
       <c r="E177" t="n">
-        <v>178.5773468017578</v>
+        <v>178.5773773193359</v>
       </c>
       <c r="F177" t="n">
         <v>50214900</v>
@@ -5067,16 +5067,16 @@
         <v>45086</v>
       </c>
       <c r="B178" t="n">
-        <v>179.4970468561002</v>
+        <v>179.4970774647442</v>
       </c>
       <c r="C178" t="n">
-        <v>180.2189866759946</v>
+        <v>180.219017407747</v>
       </c>
       <c r="D178" t="n">
-        <v>178.6366526174534</v>
+        <v>178.6366830793792</v>
       </c>
       <c r="E178" t="n">
-        <v>178.9630126953125</v>
+        <v>178.9630432128906</v>
       </c>
       <c r="F178" t="n">
         <v>48900000</v>
@@ -5093,16 +5093,16 @@
         <v>45089</v>
       </c>
       <c r="B179" t="n">
-        <v>179.2696151465179</v>
+        <v>179.26963019609</v>
       </c>
       <c r="C179" t="n">
-        <v>181.8606975389362</v>
+        <v>181.860712806028</v>
       </c>
       <c r="D179" t="n">
-        <v>178.9729227519474</v>
+        <v>178.9729377766124</v>
       </c>
       <c r="E179" t="n">
-        <v>181.7617950439453</v>
+        <v>181.7618103027344</v>
       </c>
       <c r="F179" t="n">
         <v>54274900</v>
@@ -5119,16 +5119,16 @@
         <v>45090</v>
       </c>
       <c r="B180" t="n">
-        <v>180.782712398369</v>
+        <v>180.7827428310429</v>
       </c>
       <c r="C180" t="n">
-        <v>182.1178054101209</v>
+        <v>182.1178360675422</v>
       </c>
       <c r="D180" t="n">
-        <v>180.426684577155</v>
+        <v>180.4267149498958</v>
       </c>
       <c r="E180" t="n">
-        <v>181.2870788574219</v>
+        <v>181.287109375</v>
       </c>
       <c r="F180" t="n">
         <v>54929100</v>
@@ -5145,16 +5145,16 @@
         <v>45091</v>
       </c>
       <c r="B181" t="n">
-        <v>181.3464122173833</v>
+        <v>181.3464274280608</v>
       </c>
       <c r="C181" t="n">
-        <v>182.3551602142352</v>
+        <v>182.3551755095228</v>
       </c>
       <c r="D181" t="n">
-        <v>180.0113192210563</v>
+        <v>180.0113343197511</v>
       </c>
       <c r="E181" t="n">
-        <v>181.9200134277344</v>
+        <v>181.9200286865234</v>
       </c>
       <c r="F181" t="n">
         <v>57462900</v>
@@ -5197,16 +5197,16 @@
         <v>45093</v>
       </c>
       <c r="B183" t="n">
-        <v>184.6693724302083</v>
+        <v>184.669341613924</v>
       </c>
       <c r="C183" t="n">
-        <v>184.9265129075944</v>
+        <v>184.9264820484004</v>
       </c>
       <c r="D183" t="n">
-        <v>182.2365277422246</v>
+        <v>182.2364973319158</v>
       </c>
       <c r="E183" t="n">
-        <v>182.8793487548828</v>
+        <v>182.8793182373047</v>
       </c>
       <c r="F183" t="n">
         <v>101256200</v>
@@ -5249,16 +5249,16 @@
         <v>45098</v>
       </c>
       <c r="B185" t="n">
-        <v>182.8595763478174</v>
+        <v>182.8595456743025</v>
       </c>
       <c r="C185" t="n">
-        <v>183.3639580284768</v>
+        <v>183.3639272703552</v>
       </c>
       <c r="D185" t="n">
-        <v>180.5750701884206</v>
+        <v>180.5750398981168</v>
       </c>
       <c r="E185" t="n">
-        <v>181.9299621582031</v>
+        <v>181.929931640625</v>
       </c>
       <c r="F185" t="n">
         <v>49515700</v>
@@ -5301,16 +5301,16 @@
         <v>45100</v>
       </c>
       <c r="B187" t="n">
-        <v>183.5023534994331</v>
+        <v>183.5023838322858</v>
       </c>
       <c r="C187" t="n">
-        <v>185.4901665765498</v>
+        <v>185.490197237987</v>
       </c>
       <c r="D187" t="n">
-        <v>182.9683042551692</v>
+        <v>182.9683344997437</v>
       </c>
       <c r="E187" t="n">
-        <v>184.619873046875</v>
+        <v>184.6199035644531</v>
       </c>
       <c r="F187" t="n">
         <v>53117000</v>
@@ -5327,16 +5327,16 @@
         <v>45103</v>
       </c>
       <c r="B188" t="n">
-        <v>184.7682615166346</v>
+        <v>184.7682461293646</v>
       </c>
       <c r="C188" t="n">
-        <v>185.974799558642</v>
+        <v>185.974784070893</v>
       </c>
       <c r="D188" t="n">
-        <v>183.1859120906044</v>
+        <v>183.1858968351105</v>
       </c>
       <c r="E188" t="n">
-        <v>183.2254791259766</v>
+        <v>183.2254638671875</v>
       </c>
       <c r="F188" t="n">
         <v>48088700</v>
@@ -5379,16 +5379,16 @@
         <v>45105</v>
       </c>
       <c r="B190" t="n">
-        <v>185.8561043245189</v>
+        <v>185.856089172159</v>
       </c>
       <c r="C190" t="n">
-        <v>187.8043657338943</v>
+        <v>187.8043504226978</v>
       </c>
       <c r="D190" t="n">
-        <v>185.5297592960992</v>
+        <v>185.5297441703453</v>
       </c>
       <c r="E190" t="n">
-        <v>187.1615447998047</v>
+        <v>187.1615295410156</v>
       </c>
       <c r="F190" t="n">
         <v>51216800</v>
@@ -5405,16 +5405,16 @@
         <v>45106</v>
       </c>
       <c r="B191" t="n">
-        <v>186.9934209820816</v>
+        <v>186.9934361998247</v>
       </c>
       <c r="C191" t="n">
-        <v>187.9725013298976</v>
+        <v>187.9725166273194</v>
       </c>
       <c r="D191" t="n">
-        <v>186.8549665471744</v>
+        <v>186.85498175365</v>
       </c>
       <c r="E191" t="n">
-        <v>187.4977874755859</v>
+        <v>187.497802734375</v>
       </c>
       <c r="F191" t="n">
         <v>46347300</v>
@@ -5457,16 +5457,16 @@
         <v>45110</v>
       </c>
       <c r="B193" t="n">
-        <v>191.6415459416396</v>
+        <v>191.6415613050814</v>
       </c>
       <c r="C193" t="n">
-        <v>191.7404484310712</v>
+        <v>191.7404638024418</v>
       </c>
       <c r="D193" t="n">
-        <v>189.6438333602496</v>
+        <v>189.6438485635397</v>
       </c>
       <c r="E193" t="n">
-        <v>190.3361206054688</v>
+        <v>190.3361358642578</v>
       </c>
       <c r="F193" t="n">
         <v>31458200</v>
@@ -5483,16 +5483,16 @@
         <v>45112</v>
       </c>
       <c r="B194" t="n">
-        <v>189.4559390690727</v>
+        <v>189.4559696249322</v>
       </c>
       <c r="C194" t="n">
-        <v>190.8503675642152</v>
+        <v>190.8503983449712</v>
       </c>
       <c r="D194" t="n">
-        <v>188.5164107090535</v>
+        <v>188.5164411133839</v>
       </c>
       <c r="E194" t="n">
-        <v>189.2185821533203</v>
+        <v>189.2186126708984</v>
       </c>
       <c r="F194" t="n">
         <v>46920300</v>
@@ -5509,16 +5509,16 @@
         <v>45113</v>
       </c>
       <c r="B195" t="n">
-        <v>187.745021760032</v>
+        <v>187.7450519641767</v>
       </c>
       <c r="C195" t="n">
-        <v>189.9009722710322</v>
+        <v>189.9010028220231</v>
       </c>
       <c r="D195" t="n">
-        <v>187.1120850677973</v>
+        <v>187.1121151701161</v>
       </c>
       <c r="E195" t="n">
-        <v>189.6932830810547</v>
+        <v>189.6933135986328</v>
       </c>
       <c r="F195" t="n">
         <v>45094300</v>
@@ -5535,16 +5535,16 @@
         <v>45114</v>
       </c>
       <c r="B196" t="n">
-        <v>189.297714900077</v>
+        <v>189.2977302172838</v>
       </c>
       <c r="C196" t="n">
-        <v>190.5438048450505</v>
+        <v>190.5438202630858</v>
       </c>
       <c r="D196" t="n">
-        <v>188.140628146087</v>
+        <v>188.1406433696669</v>
       </c>
       <c r="E196" t="n">
-        <v>188.5757598876953</v>
+        <v>188.5757751464844</v>
       </c>
       <c r="F196" t="n">
         <v>46815000</v>
@@ -5561,16 +5561,16 @@
         <v>45117</v>
       </c>
       <c r="B197" t="n">
-        <v>187.1714311709934</v>
+        <v>187.1714464823678</v>
       </c>
       <c r="C197" t="n">
-        <v>187.8933861802262</v>
+        <v>187.8934015506594</v>
       </c>
       <c r="D197" t="n">
-        <v>184.9759285939004</v>
+        <v>184.9759437256739</v>
       </c>
       <c r="E197" t="n">
-        <v>186.5286102294922</v>
+        <v>186.5286254882812</v>
       </c>
       <c r="F197" t="n">
         <v>59922200</v>
@@ -5613,16 +5613,16 @@
         <v>45119</v>
       </c>
       <c r="B199" t="n">
-        <v>187.5867934870542</v>
+        <v>187.5867782355027</v>
       </c>
       <c r="C199" t="n">
-        <v>189.584506155405</v>
+        <v>189.5844907414315</v>
       </c>
       <c r="D199" t="n">
-        <v>186.3901548010078</v>
+        <v>186.3901396467477</v>
       </c>
       <c r="E199" t="n">
-        <v>187.6758117675781</v>
+        <v>187.6757965087891</v>
       </c>
       <c r="F199" t="n">
         <v>60750200</v>
@@ -5639,16 +5639,16 @@
         <v>45120</v>
       </c>
       <c r="B200" t="n">
-        <v>188.3977649484926</v>
+        <v>188.3977496929062</v>
       </c>
       <c r="C200" t="n">
-        <v>189.0801529682823</v>
+        <v>189.0801376574393</v>
       </c>
       <c r="D200" t="n">
-        <v>187.6857091965731</v>
+        <v>187.6856939986458</v>
       </c>
       <c r="E200" t="n">
-        <v>188.4373168945312</v>
+        <v>188.4373016357422</v>
       </c>
       <c r="F200" t="n">
         <v>41342300</v>
@@ -5665,16 +5665,16 @@
         <v>45121</v>
       </c>
       <c r="B201" t="n">
-        <v>188.1307477059412</v>
+        <v>188.1307324839614</v>
       </c>
       <c r="C201" t="n">
-        <v>189.0702611381296</v>
+        <v>189.0702458401321</v>
       </c>
       <c r="D201" t="n">
-        <v>187.5373779494871</v>
+        <v>187.5373627755177</v>
       </c>
       <c r="E201" t="n">
-        <v>188.5856781005859</v>
+        <v>188.5856628417969</v>
       </c>
       <c r="F201" t="n">
         <v>41616200</v>
@@ -5691,16 +5691,16 @@
         <v>45124</v>
       </c>
       <c r="B202" t="n">
-        <v>189.7823108298618</v>
+        <v>189.7822957354681</v>
       </c>
       <c r="C202" t="n">
-        <v>192.1756185691131</v>
+        <v>192.1756032843669</v>
       </c>
       <c r="D202" t="n">
-        <v>189.6933076328095</v>
+        <v>189.6932925454947</v>
       </c>
       <c r="E202" t="n">
-        <v>191.8492584228516</v>
+        <v>191.8492431640625</v>
       </c>
       <c r="F202" t="n">
         <v>50520200</v>
@@ -5717,16 +5717,16 @@
         <v>45125</v>
       </c>
       <c r="B203" t="n">
-        <v>191.2163057753995</v>
+        <v>191.2163210042594</v>
       </c>
       <c r="C203" t="n">
-        <v>192.1854868293446</v>
+        <v>192.185502135392</v>
       </c>
       <c r="D203" t="n">
-        <v>190.2965608776665</v>
+        <v>190.296576033276</v>
       </c>
       <c r="E203" t="n">
-        <v>191.5921020507812</v>
+        <v>191.5921173095703</v>
       </c>
       <c r="F203" t="n">
         <v>48288200</v>
@@ -5743,16 +5743,16 @@
         <v>45126</v>
       </c>
       <c r="B204" t="n">
-        <v>190.9690618542327</v>
+        <v>190.9690769566016</v>
       </c>
       <c r="C204" t="n">
-        <v>196.0424397664868</v>
+        <v>196.0424552700726</v>
       </c>
       <c r="D204" t="n">
-        <v>190.5240157315845</v>
+        <v>190.5240307987579</v>
       </c>
       <c r="E204" t="n">
-        <v>192.9469909667969</v>
+        <v>192.9470062255859</v>
       </c>
       <c r="F204" t="n">
         <v>80507300</v>
@@ -5795,16 +5795,16 @@
         <v>45128</v>
       </c>
       <c r="B206" t="n">
-        <v>191.9580514977171</v>
+        <v>191.9580360672127</v>
       </c>
       <c r="C206" t="n">
-        <v>192.8184459451999</v>
+        <v>192.8184304455329</v>
       </c>
       <c r="D206" t="n">
-        <v>189.1197125887689</v>
+        <v>189.1196973864238</v>
       </c>
       <c r="E206" t="n">
-        <v>189.8218841552734</v>
+        <v>189.8218688964844</v>
       </c>
       <c r="F206" t="n">
         <v>71951700</v>
@@ -5821,16 +5821,16 @@
         <v>45131</v>
       </c>
       <c r="B207" t="n">
-        <v>191.2756450560654</v>
+        <v>191.2756297450281</v>
       </c>
       <c r="C207" t="n">
-        <v>192.759091941705</v>
+        <v>192.7590765119222</v>
       </c>
       <c r="D207" t="n">
-        <v>190.1284425094743</v>
+        <v>190.1284272902671</v>
       </c>
       <c r="E207" t="n">
-        <v>190.6229248046875</v>
+        <v>190.6229095458984</v>
       </c>
       <c r="F207" t="n">
         <v>45377800</v>
@@ -5847,16 +5847,16 @@
         <v>45132</v>
       </c>
       <c r="B208" t="n">
-        <v>191.1965290476535</v>
+        <v>191.1964985757829</v>
       </c>
       <c r="C208" t="n">
-        <v>192.2942803636932</v>
+        <v>192.2942497168689</v>
       </c>
       <c r="D208" t="n">
-        <v>190.7910499375842</v>
+        <v>190.7910195303367</v>
       </c>
       <c r="E208" t="n">
-        <v>191.4833221435547</v>
+        <v>191.4832916259766</v>
       </c>
       <c r="F208" t="n">
         <v>37283200</v>
@@ -5873,16 +5873,16 @@
         <v>45133</v>
       </c>
       <c r="B209" t="n">
-        <v>191.5327495873121</v>
+        <v>191.5327799746606</v>
       </c>
       <c r="C209" t="n">
-        <v>193.4810108258054</v>
+        <v>193.4810415222525</v>
       </c>
       <c r="D209" t="n">
-        <v>191.1866210725465</v>
+        <v>191.1866514049806</v>
       </c>
       <c r="E209" t="n">
-        <v>192.3535919189453</v>
+        <v>192.3536224365234</v>
       </c>
       <c r="F209" t="n">
         <v>47471900</v>
@@ -5951,16 +5951,16 @@
         <v>45138</v>
       </c>
       <c r="B212" t="n">
-        <v>193.8964088782979</v>
+        <v>193.8963936498011</v>
       </c>
       <c r="C212" t="n">
-        <v>194.3216715292241</v>
+        <v>194.3216562673275</v>
       </c>
       <c r="D212" t="n">
-        <v>193.1052341320003</v>
+        <v>193.1052189656419</v>
       </c>
       <c r="E212" t="n">
-        <v>194.2821044921875</v>
+        <v>194.2820892333984</v>
       </c>
       <c r="F212" t="n">
         <v>38824100</v>
@@ -5977,16 +5977,16 @@
         <v>45139</v>
       </c>
       <c r="B213" t="n">
-        <v>194.0743921639423</v>
+        <v>194.0744074718757</v>
       </c>
       <c r="C213" t="n">
-        <v>194.5589750942353</v>
+        <v>194.5589904403909</v>
       </c>
       <c r="D213" t="n">
-        <v>193.1249796371802</v>
+        <v>193.1249948702271</v>
       </c>
       <c r="E213" t="n">
-        <v>193.4513397216797</v>
+        <v>193.4513549804688</v>
       </c>
       <c r="F213" t="n">
         <v>35175100</v>
@@ -6003,16 +6003,16 @@
         <v>45140</v>
       </c>
       <c r="B214" t="n">
-        <v>192.8876170118382</v>
+        <v>192.8876479192438</v>
       </c>
       <c r="C214" t="n">
-        <v>193.0260714293011</v>
+        <v>193.026102358892</v>
       </c>
       <c r="D214" t="n">
-        <v>189.7328331360479</v>
+        <v>189.7328635379458</v>
       </c>
       <c r="E214" t="n">
-        <v>190.4547729492188</v>
+        <v>190.4548034667969</v>
       </c>
       <c r="F214" t="n">
         <v>50389300</v>
@@ -6055,16 +6055,16 @@
         <v>45142</v>
       </c>
       <c r="B216" t="n">
-        <v>183.4727336032895</v>
+        <v>183.4727024937722</v>
       </c>
       <c r="C216" t="n">
-        <v>185.3122085311998</v>
+        <v>185.3121771097823</v>
       </c>
       <c r="D216" t="n">
-        <v>179.9124546813976</v>
+        <v>179.9124241755589</v>
       </c>
       <c r="E216" t="n">
-        <v>179.981689453125</v>
+        <v>179.9816589355469</v>
       </c>
       <c r="F216" t="n">
         <v>115956800</v>
@@ -6107,16 +6107,16 @@
         <v>45146</v>
       </c>
       <c r="B218" t="n">
-        <v>177.7070549630004</v>
+        <v>177.7070397135465</v>
       </c>
       <c r="C218" t="n">
-        <v>178.2806562533865</v>
+        <v>178.2806409547106</v>
       </c>
       <c r="D218" t="n">
-        <v>175.6203390114105</v>
+        <v>175.6203239410226</v>
       </c>
       <c r="E218" t="n">
-        <v>177.8158416748047</v>
+        <v>177.8158264160156</v>
       </c>
       <c r="F218" t="n">
         <v>67823000</v>
@@ -6133,16 +6133,16 @@
         <v>45147</v>
       </c>
       <c r="B219" t="n">
-        <v>178.8740201465377</v>
+        <v>178.8740356348203</v>
       </c>
       <c r="C219" t="n">
-        <v>178.9333556073348</v>
+        <v>178.9333711007551</v>
       </c>
       <c r="D219" t="n">
-        <v>175.0566162344388</v>
+        <v>175.0566313921813</v>
       </c>
       <c r="E219" t="n">
-        <v>176.2236022949219</v>
+        <v>176.2236175537109</v>
       </c>
       <c r="F219" t="n">
         <v>60378500</v>
@@ -6159,16 +6159,16 @@
         <v>45148</v>
       </c>
       <c r="B220" t="n">
-        <v>177.4993429142372</v>
+        <v>177.4993583024902</v>
       </c>
       <c r="C220" t="n">
-        <v>178.7553320452058</v>
+        <v>178.7553475423464</v>
       </c>
       <c r="D220" t="n">
-        <v>175.6400999295409</v>
+        <v>175.6401151566074</v>
       </c>
       <c r="E220" t="n">
-        <v>176.0060119628906</v>
+        <v>176.0060272216797</v>
       </c>
       <c r="F220" t="n">
         <v>54686900</v>
@@ -6185,16 +6185,16 @@
         <v>45149</v>
       </c>
       <c r="B221" t="n">
-        <v>175.6000330280764</v>
+        <v>175.6000178096238</v>
       </c>
       <c r="C221" t="n">
-        <v>176.8874111577423</v>
+        <v>176.8873958277185</v>
       </c>
       <c r="D221" t="n">
-        <v>174.8374976677621</v>
+        <v>174.837482515395</v>
       </c>
       <c r="E221" t="n">
-        <v>176.0654602050781</v>
+        <v>176.0654449462891</v>
       </c>
       <c r="F221" t="n">
         <v>52036700</v>
@@ -6211,16 +6211,16 @@
         <v>45152</v>
       </c>
       <c r="B222" t="n">
-        <v>176.2437161584364</v>
+        <v>176.2436858942371</v>
       </c>
       <c r="C222" t="n">
-        <v>177.9470335987608</v>
+        <v>177.9470030420714</v>
       </c>
       <c r="D222" t="n">
-        <v>175.5901144430323</v>
+        <v>175.5900842910681</v>
       </c>
       <c r="E222" t="n">
-        <v>177.7192687988281</v>
+        <v>177.71923828125</v>
       </c>
       <c r="F222" t="n">
         <v>43675600</v>
@@ -6315,16 +6315,16 @@
         <v>45156</v>
       </c>
       <c r="B226" t="n">
-        <v>170.6286953862117</v>
+        <v>170.6287255207675</v>
       </c>
       <c r="C226" t="n">
-        <v>173.4015384467851</v>
+        <v>173.4015690710498</v>
       </c>
       <c r="D226" t="n">
-        <v>170.2919970081336</v>
+        <v>170.2920270832255</v>
       </c>
       <c r="E226" t="n">
-        <v>172.7974548339844</v>
+        <v>172.7974853515625</v>
       </c>
       <c r="F226" t="n">
         <v>61172200</v>
@@ -6341,16 +6341,16 @@
         <v>45159</v>
       </c>
       <c r="B227" t="n">
-        <v>173.3718334944042</v>
+        <v>173.3718183024321</v>
       </c>
       <c r="C227" t="n">
-        <v>174.4215491084137</v>
+        <v>174.4215338244587</v>
       </c>
       <c r="D227" t="n">
-        <v>172.0547326412932</v>
+        <v>172.0547175647341</v>
       </c>
       <c r="E227" t="n">
-        <v>174.1343536376953</v>
+        <v>174.1343383789062</v>
       </c>
       <c r="F227" t="n">
         <v>46311900</v>
@@ -6445,16 +6445,16 @@
         <v>45163</v>
       </c>
       <c r="B231" t="n">
-        <v>175.6594223889941</v>
+        <v>175.6594375427037</v>
       </c>
       <c r="C231" t="n">
-        <v>177.4122425446925</v>
+        <v>177.4122578496136</v>
       </c>
       <c r="D231" t="n">
-        <v>174.1145567754665</v>
+        <v>174.1145717959043</v>
       </c>
       <c r="E231" t="n">
-        <v>176.8774871826172</v>
+        <v>176.8775024414062</v>
       </c>
       <c r="F231" t="n">
         <v>51449600</v>
@@ -6523,16 +6523,16 @@
         <v>45168</v>
       </c>
       <c r="B234" t="n">
-        <v>183.1460836808417</v>
+        <v>183.1460987192674</v>
       </c>
       <c r="C234" t="n">
-        <v>186.0278602958339</v>
+        <v>186.027875570887</v>
       </c>
       <c r="D234" t="n">
-        <v>182.9480267037944</v>
+        <v>182.9480417259573</v>
       </c>
       <c r="E234" t="n">
-        <v>185.8297882080078</v>
+        <v>185.8298034667969</v>
       </c>
       <c r="F234" t="n">
         <v>60813900</v>
@@ -6549,16 +6549,16 @@
         <v>45169</v>
       </c>
       <c r="B235" t="n">
-        <v>186.0179759202833</v>
+        <v>186.0179911766358</v>
       </c>
       <c r="C235" t="n">
-        <v>187.2855588991337</v>
+        <v>187.2855742594477</v>
       </c>
       <c r="D235" t="n">
-        <v>185.6614672630578</v>
+        <v>185.6614824901711</v>
       </c>
       <c r="E235" t="n">
-        <v>186.0476837158203</v>
+        <v>186.0476989746094</v>
       </c>
       <c r="F235" t="n">
         <v>60794500</v>
@@ -6575,16 +6575,16 @@
         <v>45170</v>
       </c>
       <c r="B236" t="n">
-        <v>187.651961210495</v>
+        <v>187.6519764717001</v>
       </c>
       <c r="C236" t="n">
-        <v>188.0777829772235</v>
+        <v>188.0777982730595</v>
       </c>
       <c r="D236" t="n">
-        <v>186.4536915057467</v>
+        <v>186.4537066694999</v>
       </c>
       <c r="E236" t="n">
-        <v>187.6222534179688</v>
+        <v>187.6222686767578</v>
       </c>
       <c r="F236" t="n">
         <v>45766500</v>
@@ -6601,16 +6601,16 @@
         <v>45174</v>
       </c>
       <c r="B237" t="n">
-        <v>186.4536848553425</v>
+        <v>186.453699999912</v>
       </c>
       <c r="C237" t="n">
-        <v>188.1371918518247</v>
+        <v>188.1372071331358</v>
       </c>
       <c r="D237" t="n">
-        <v>185.7901856612905</v>
+        <v>185.7902007519677</v>
       </c>
       <c r="E237" t="n">
-        <v>187.8599090576172</v>
+        <v>187.8599243164062</v>
       </c>
       <c r="F237" t="n">
         <v>45280000</v>
@@ -6679,16 +6679,16 @@
         <v>45177</v>
       </c>
       <c r="B240" t="n">
-        <v>176.6200091931817</v>
+        <v>176.6199939198332</v>
       </c>
       <c r="C240" t="n">
-        <v>178.4916755691339</v>
+        <v>178.4916601339316</v>
       </c>
       <c r="D240" t="n">
-        <v>176.06542850594</v>
+        <v>176.0654132805493</v>
       </c>
       <c r="E240" t="n">
-        <v>176.4516448974609</v>
+        <v>176.4516296386719</v>
       </c>
       <c r="F240" t="n">
         <v>65551300</v>
@@ -6705,16 +6705,16 @@
         <v>45180</v>
       </c>
       <c r="B241" t="n">
-        <v>178.3233283895146</v>
+        <v>178.3233437087065</v>
       </c>
       <c r="C241" t="n">
-        <v>178.5510931586707</v>
+        <v>178.5511084974291</v>
       </c>
       <c r="D241" t="n">
-        <v>175.6197985076869</v>
+        <v>175.619813594627</v>
       </c>
       <c r="E241" t="n">
-        <v>177.6202087402344</v>
+        <v>177.6202239990234</v>
       </c>
       <c r="F241" t="n">
         <v>58953100</v>
@@ -6731,16 +6731,16 @@
         <v>45181</v>
       </c>
       <c r="B242" t="n">
-        <v>177.7489488808384</v>
+        <v>177.7489644157226</v>
       </c>
       <c r="C242" t="n">
-        <v>178.3827402637169</v>
+        <v>178.3827558539932</v>
       </c>
       <c r="D242" t="n">
-        <v>173.1242497867316</v>
+        <v>173.1242649174268</v>
       </c>
       <c r="E242" t="n">
-        <v>174.5898895263672</v>
+        <v>174.5899047851562</v>
       </c>
       <c r="F242" t="n">
         <v>90370200</v>
@@ -6757,16 +6757,16 @@
         <v>45182</v>
       </c>
       <c r="B243" t="n">
-        <v>174.7978191426498</v>
+        <v>174.7978500631327</v>
       </c>
       <c r="C243" t="n">
-        <v>175.5801644774974</v>
+        <v>175.5801955363716</v>
       </c>
       <c r="D243" t="n">
-        <v>172.2923617588327</v>
+        <v>172.2923922361182</v>
       </c>
       <c r="E243" t="n">
-        <v>172.5201416015625</v>
+        <v>172.5201721191406</v>
       </c>
       <c r="F243" t="n">
         <v>84267900</v>
@@ -6835,16 +6835,16 @@
         <v>45187</v>
       </c>
       <c r="B246" t="n">
-        <v>174.7681304997074</v>
+        <v>174.7681456307464</v>
       </c>
       <c r="C246" t="n">
-        <v>177.6400094138573</v>
+        <v>177.6400247935372</v>
       </c>
       <c r="D246" t="n">
-        <v>174.4611399337141</v>
+        <v>174.4611550381745</v>
       </c>
       <c r="E246" t="n">
-        <v>176.2436828613281</v>
+        <v>176.2436981201172</v>
       </c>
       <c r="F246" t="n">
         <v>67257600</v>
@@ -6861,16 +6861,16 @@
         <v>45188</v>
       </c>
       <c r="B247" t="n">
-        <v>175.7980550939869</v>
+        <v>175.7980399672756</v>
       </c>
       <c r="C247" t="n">
-        <v>177.8875886373594</v>
+        <v>177.8875733308522</v>
       </c>
       <c r="D247" t="n">
-        <v>175.4118387097038</v>
+        <v>175.4118236162249</v>
       </c>
       <c r="E247" t="n">
-        <v>177.3330230712891</v>
+        <v>177.3330078125</v>
       </c>
       <c r="F247" t="n">
         <v>51826900</v>
@@ -6913,16 +6913,16 @@
         <v>45190</v>
       </c>
       <c r="B249" t="n">
-        <v>172.8568857425703</v>
+        <v>172.8569010557525</v>
       </c>
       <c r="C249" t="n">
-        <v>174.5899109202313</v>
+        <v>174.5899263869401</v>
       </c>
       <c r="D249" t="n">
-        <v>172.1735762547962</v>
+        <v>172.1735915074449</v>
       </c>
       <c r="E249" t="n">
-        <v>172.2428894042969</v>
+        <v>172.2429046630859</v>
       </c>
       <c r="F249" t="n">
         <v>63149100</v>
@@ -7043,16 +7043,16 @@
         <v>45197</v>
       </c>
       <c r="B254" t="n">
-        <v>167.6974059121897</v>
+        <v>167.6974210502953</v>
       </c>
       <c r="C254" t="n">
-        <v>170.3613154496694</v>
+        <v>170.3613308282471</v>
       </c>
       <c r="D254" t="n">
-        <v>165.9940886267553</v>
+        <v>165.9941036111019</v>
       </c>
       <c r="E254" t="n">
-        <v>169.0343170166016</v>
+        <v>169.0343322753906</v>
       </c>
       <c r="F254" t="n">
         <v>56294400</v>
@@ -7069,16 +7069,16 @@
         <v>45198</v>
       </c>
       <c r="B255" t="n">
-        <v>170.3514265477787</v>
+        <v>170.3514112168</v>
       </c>
       <c r="C255" t="n">
-        <v>171.3912446695313</v>
+        <v>171.3912292449729</v>
       </c>
       <c r="D255" t="n">
-        <v>168.6877145308185</v>
+        <v>168.6876993495675</v>
       </c>
       <c r="E255" t="n">
-        <v>169.5492858886719</v>
+        <v>169.5492706298828</v>
       </c>
       <c r="F255" t="n">
         <v>51861100</v>
@@ -7095,16 +7095,16 @@
         <v>45201</v>
       </c>
       <c r="B256" t="n">
-        <v>169.5591782758026</v>
+        <v>169.5591933124062</v>
       </c>
       <c r="C256" t="n">
-        <v>172.6093042881744</v>
+        <v>172.6093195952649</v>
       </c>
       <c r="D256" t="n">
-        <v>169.2719827950215</v>
+        <v>169.2719978061565</v>
       </c>
       <c r="E256" t="n">
-        <v>172.0646362304688</v>
+        <v>172.0646514892578</v>
       </c>
       <c r="F256" t="n">
         <v>52164500</v>
@@ -7121,16 +7121,16 @@
         <v>45202</v>
       </c>
       <c r="B257" t="n">
-        <v>170.589111258527</v>
+        <v>170.589080765731</v>
       </c>
       <c r="C257" t="n">
-        <v>171.945832841631</v>
+        <v>171.9458021063211</v>
       </c>
       <c r="D257" t="n">
-        <v>169.1630916280864</v>
+        <v>169.1630613901914</v>
       </c>
       <c r="E257" t="n">
-        <v>170.7277526855469</v>
+        <v>170.7277221679688</v>
       </c>
       <c r="F257" t="n">
         <v>49594600</v>
@@ -7147,16 +7147,16 @@
         <v>45203</v>
       </c>
       <c r="B258" t="n">
-        <v>169.4304463047103</v>
+        <v>169.4304312717371</v>
       </c>
       <c r="C258" t="n">
-        <v>172.5201929982168</v>
+        <v>172.5201776911012</v>
       </c>
       <c r="D258" t="n">
-        <v>169.3116151240765</v>
+        <v>169.3116001016468</v>
       </c>
       <c r="E258" t="n">
-        <v>171.9755249023438</v>
+        <v>171.9755096435547</v>
       </c>
       <c r="F258" t="n">
         <v>53020300</v>
@@ -7251,16 +7251,16 @@
         <v>45209</v>
       </c>
       <c r="B262" t="n">
-        <v>176.3724570656863</v>
+        <v>176.3724418317021</v>
       </c>
       <c r="C262" t="n">
-        <v>177.9767384214472</v>
+        <v>177.9767230488949</v>
       </c>
       <c r="D262" t="n">
-        <v>176.2239029815132</v>
+        <v>176.2238877603602</v>
       </c>
       <c r="E262" t="n">
-        <v>176.6596374511719</v>
+        <v>176.6596221923828</v>
       </c>
       <c r="F262" t="n">
         <v>43698000</v>
@@ -7277,16 +7277,16 @@
         <v>45210</v>
       </c>
       <c r="B263" t="n">
-        <v>176.4714678376734</v>
+        <v>176.4714829606774</v>
       </c>
       <c r="C263" t="n">
-        <v>178.1054720046952</v>
+        <v>178.1054872677278</v>
       </c>
       <c r="D263" t="n">
-        <v>175.8772968675762</v>
+        <v>175.8773119396617</v>
       </c>
       <c r="E263" t="n">
-        <v>178.0559539794922</v>
+        <v>178.0559692382812</v>
       </c>
       <c r="F263" t="n">
         <v>47551100</v>
@@ -7303,16 +7303,16 @@
         <v>45211</v>
       </c>
       <c r="B264" t="n">
-        <v>178.3233313959954</v>
+        <v>178.323361805493</v>
       </c>
       <c r="C264" t="n">
-        <v>180.5713015558535</v>
+        <v>180.5713323486978</v>
       </c>
       <c r="D264" t="n">
-        <v>177.3033084761017</v>
+        <v>177.3033387116547</v>
       </c>
       <c r="E264" t="n">
-        <v>178.9571228027344</v>
+        <v>178.9571533203125</v>
       </c>
       <c r="F264" t="n">
         <v>56743100</v>
@@ -7329,16 +7329,16 @@
         <v>45212</v>
       </c>
       <c r="B265" t="n">
-        <v>179.6602366589199</v>
+        <v>179.6602521369707</v>
       </c>
       <c r="C265" t="n">
-        <v>180.1652842541005</v>
+        <v>180.165299775662</v>
       </c>
       <c r="D265" t="n">
-        <v>176.4120536422897</v>
+        <v>176.4120688405038</v>
       </c>
       <c r="E265" t="n">
-        <v>177.1151733398438</v>
+        <v>177.1151885986328</v>
       </c>
       <c r="F265" t="n">
         <v>51427100</v>
@@ -7355,16 +7355,16 @@
         <v>45215</v>
       </c>
       <c r="B266" t="n">
-        <v>175.035542532252</v>
+        <v>175.0355274416581</v>
       </c>
       <c r="C266" t="n">
-        <v>177.3429435766639</v>
+        <v>177.3429282871386</v>
       </c>
       <c r="D266" t="n">
-        <v>174.797865068565</v>
+        <v>174.7978499984623</v>
       </c>
       <c r="E266" t="n">
-        <v>176.9864349365234</v>
+        <v>176.9864196777344</v>
       </c>
       <c r="F266" t="n">
         <v>52517000</v>
@@ -7381,16 +7381,16 @@
         <v>45216</v>
       </c>
       <c r="B267" t="n">
-        <v>174.9364906202884</v>
+        <v>174.9364754045668</v>
       </c>
       <c r="C267" t="n">
-        <v>176.6893258679855</v>
+        <v>176.6893104998048</v>
       </c>
       <c r="D267" t="n">
-        <v>173.104444669323</v>
+        <v>173.10442961295</v>
       </c>
       <c r="E267" t="n">
-        <v>175.431640625</v>
+        <v>175.4316253662109</v>
       </c>
       <c r="F267" t="n">
         <v>57549400</v>
@@ -7407,16 +7407,16 @@
         <v>45217</v>
       </c>
       <c r="B268" t="n">
-        <v>173.876881069792</v>
+        <v>173.8768658335644</v>
       </c>
       <c r="C268" t="n">
-        <v>175.8574811296678</v>
+        <v>175.8574657198871</v>
       </c>
       <c r="D268" t="n">
-        <v>173.4114388468588</v>
+        <v>173.4114236514163</v>
       </c>
       <c r="E268" t="n">
-        <v>174.1343536376953</v>
+        <v>174.1343383789062</v>
       </c>
       <c r="F268" t="n">
         <v>54764400</v>
@@ -7485,16 +7485,16 @@
         <v>45222</v>
       </c>
       <c r="B271" t="n">
-        <v>169.2522061966263</v>
+        <v>169.2521911221772</v>
       </c>
       <c r="C271" t="n">
-        <v>172.3221276665047</v>
+        <v>172.322112318633</v>
       </c>
       <c r="D271" t="n">
-        <v>168.2817011473087</v>
+        <v>168.2816861592976</v>
       </c>
       <c r="E271" t="n">
-        <v>171.3219299316406</v>
+        <v>171.3219146728516</v>
       </c>
       <c r="F271" t="n">
         <v>55980100</v>
@@ -7537,16 +7537,16 @@
         <v>45224</v>
       </c>
       <c r="B273" t="n">
-        <v>170.2127862637829</v>
+        <v>170.2127709354331</v>
       </c>
       <c r="C273" t="n">
-        <v>171.3813331302583</v>
+        <v>171.3813176966761</v>
       </c>
       <c r="D273" t="n">
-        <v>168.9947062593012</v>
+        <v>168.9946910406445</v>
       </c>
       <c r="E273" t="n">
-        <v>169.4403533935547</v>
+        <v>169.4403381347656</v>
       </c>
       <c r="F273" t="n">
         <v>57157000</v>
@@ -7563,16 +7563,16 @@
         <v>45225</v>
       </c>
       <c r="B274" t="n">
-        <v>168.7174348121486</v>
+        <v>168.7174192351828</v>
       </c>
       <c r="C274" t="n">
-        <v>169.7176476528795</v>
+        <v>169.7176319835683</v>
       </c>
       <c r="D274" t="n">
-        <v>164.0630270440031</v>
+        <v>164.0630118967591</v>
       </c>
       <c r="E274" t="n">
-        <v>165.2711944580078</v>
+        <v>165.2711791992188</v>
       </c>
       <c r="F274" t="n">
         <v>70625300</v>
@@ -7615,16 +7615,16 @@
         <v>45229</v>
       </c>
       <c r="B276" t="n">
-        <v>167.3805134493289</v>
+        <v>167.380543739313</v>
       </c>
       <c r="C276" t="n">
-        <v>169.5096524459554</v>
+        <v>169.5096831212387</v>
       </c>
       <c r="D276" t="n">
-        <v>167.2319593800053</v>
+        <v>167.2319896431063</v>
       </c>
       <c r="E276" t="n">
-        <v>168.63818359375</v>
+        <v>168.6382141113281</v>
       </c>
       <c r="F276" t="n">
         <v>51131000</v>
@@ -7693,16 +7693,16 @@
         <v>45232</v>
       </c>
       <c r="B279" t="n">
-        <v>173.8174619142396</v>
+        <v>173.8174468316096</v>
       </c>
       <c r="C279" t="n">
-        <v>176.0555344960324</v>
+        <v>176.0555192191985</v>
       </c>
       <c r="D279" t="n">
-        <v>173.7580463313888</v>
+        <v>173.7580312539145</v>
       </c>
       <c r="E279" t="n">
-        <v>175.8475799560547</v>
+        <v>175.8475646972656</v>
       </c>
       <c r="F279" t="n">
         <v>77334800</v>
@@ -7745,16 +7745,16 @@
         <v>45236</v>
       </c>
       <c r="B281" t="n">
-        <v>174.6691393309983</v>
+        <v>174.669124314844</v>
       </c>
       <c r="C281" t="n">
-        <v>177.6895425967872</v>
+        <v>177.6895273209714</v>
       </c>
       <c r="D281" t="n">
-        <v>174.5007901245378</v>
+        <v>174.5007751228563</v>
       </c>
       <c r="E281" t="n">
-        <v>177.4914855957031</v>
+        <v>177.4914703369141</v>
       </c>
       <c r="F281" t="n">
         <v>63841300</v>
@@ -7797,16 +7797,16 @@
         <v>45238</v>
       </c>
       <c r="B283" t="n">
-        <v>180.5812266581694</v>
+        <v>180.5812114444328</v>
       </c>
       <c r="C283" t="n">
-        <v>181.6705476858897</v>
+        <v>181.6705323803792</v>
       </c>
       <c r="D283" t="n">
-        <v>179.8285889221945</v>
+        <v>179.8285737718667</v>
       </c>
       <c r="E283" t="n">
-        <v>181.1159820556641</v>
+        <v>181.115966796875</v>
       </c>
       <c r="F283" t="n">
         <v>49340300</v>
@@ -7849,16 +7849,16 @@
         <v>45240</v>
       </c>
       <c r="B285" t="n">
-        <v>182.4255213215233</v>
+        <v>182.425536381392</v>
       </c>
       <c r="C285" t="n">
-        <v>185.0036996425853</v>
+        <v>185.0037149152918</v>
       </c>
       <c r="D285" t="n">
-        <v>181.989212824357</v>
+        <v>181.9892278482069</v>
       </c>
       <c r="E285" t="n">
-        <v>184.8351135253906</v>
+        <v>184.8351287841797</v>
       </c>
       <c r="F285" t="n">
         <v>66133400</v>
@@ -7901,16 +7901,16 @@
         <v>45244</v>
       </c>
       <c r="B287" t="n">
-        <v>186.1242211071054</v>
+        <v>186.1242058271512</v>
       </c>
       <c r="C287" t="n">
-        <v>186.5307827134021</v>
+        <v>186.530767400071</v>
       </c>
       <c r="D287" t="n">
-        <v>184.7359804157126</v>
+        <v>184.7359652497266</v>
       </c>
       <c r="E287" t="n">
-        <v>185.8664093017578</v>
+        <v>185.8663940429688</v>
       </c>
       <c r="F287" t="n">
         <v>60108400</v>
@@ -7953,16 +7953,16 @@
         <v>45246</v>
       </c>
       <c r="B289" t="n">
-        <v>187.9784855357856</v>
+        <v>187.9785312783714</v>
       </c>
       <c r="C289" t="n">
-        <v>189.3568152824047</v>
+        <v>189.3568613603926</v>
       </c>
       <c r="D289" t="n">
-        <v>187.0661960166829</v>
+        <v>187.0662415372727</v>
       </c>
       <c r="E289" t="n">
-        <v>188.1173095703125</v>
+        <v>188.1173553466797</v>
       </c>
       <c r="F289" t="n">
         <v>54412900</v>
@@ -7979,16 +7979,16 @@
         <v>45247</v>
       </c>
       <c r="B290" t="n">
-        <v>188.6528151938572</v>
+        <v>188.6527998900215</v>
       </c>
       <c r="C290" t="n">
-        <v>188.7817286610399</v>
+        <v>188.7817133467466</v>
       </c>
       <c r="D290" t="n">
-        <v>186.986926374981</v>
+        <v>186.9869112062851</v>
       </c>
       <c r="E290" t="n">
-        <v>188.0975189208984</v>
+        <v>188.0975036621094</v>
       </c>
       <c r="F290" t="n">
         <v>50922700</v>
@@ -8005,16 +8005,16 @@
         <v>45250</v>
       </c>
       <c r="B291" t="n">
-        <v>188.2958115269965</v>
+        <v>188.2958266614519</v>
       </c>
       <c r="C291" t="n">
-        <v>190.2988572113063</v>
+        <v>190.2988725067584</v>
       </c>
       <c r="D291" t="n">
-        <v>188.2859009272728</v>
+        <v>188.2859160609316</v>
       </c>
       <c r="E291" t="n">
-        <v>189.8427124023438</v>
+        <v>189.8427276611328</v>
       </c>
       <c r="F291" t="n">
         <v>46505100</v>
@@ -8057,16 +8057,16 @@
         <v>45252</v>
       </c>
       <c r="B293" t="n">
-        <v>189.8823846488971</v>
+        <v>189.8824151951899</v>
       </c>
       <c r="C293" t="n">
-        <v>191.3102826710158</v>
+        <v>191.310313447014</v>
       </c>
       <c r="D293" t="n">
-        <v>189.2279219320802</v>
+        <v>189.2279523730899</v>
       </c>
       <c r="E293" t="n">
-        <v>189.7038879394531</v>
+        <v>189.7039184570312</v>
       </c>
       <c r="F293" t="n">
         <v>39617700</v>
@@ -8083,16 +8083,16 @@
         <v>45254</v>
       </c>
       <c r="B294" t="n">
-        <v>189.2676061275758</v>
+        <v>189.2675907964973</v>
       </c>
       <c r="C294" t="n">
-        <v>189.2973530615597</v>
+        <v>189.2973377280717</v>
       </c>
       <c r="D294" t="n">
-        <v>187.6612111696873</v>
+        <v>187.6611959687303</v>
       </c>
       <c r="E294" t="n">
-        <v>188.3751678466797</v>
+        <v>188.3751525878906</v>
       </c>
       <c r="F294" t="n">
         <v>24048300</v>
@@ -8187,16 +8187,16 @@
         <v>45260</v>
       </c>
       <c r="B298" t="n">
-        <v>188.2462237862095</v>
+        <v>188.2462390361622</v>
       </c>
       <c r="C298" t="n">
-        <v>188.7222049139764</v>
+        <v>188.7222202024886</v>
       </c>
       <c r="D298" t="n">
-        <v>186.6100821602339</v>
+        <v>186.6100972776417</v>
       </c>
       <c r="E298" t="n">
-        <v>188.3553009033203</v>
+        <v>188.3553161621094</v>
       </c>
       <c r="F298" t="n">
         <v>48794400</v>
@@ -8239,16 +8239,16 @@
         <v>45264</v>
       </c>
       <c r="B300" t="n">
-        <v>188.3850615285251</v>
+        <v>188.3850462254327</v>
       </c>
       <c r="C300" t="n">
-        <v>188.4544811220455</v>
+        <v>188.4544658133139</v>
       </c>
       <c r="D300" t="n">
-        <v>185.8763027832703</v>
+        <v>185.876287683972</v>
       </c>
       <c r="E300" t="n">
-        <v>187.8396759033203</v>
+        <v>187.8396606445312</v>
       </c>
       <c r="F300" t="n">
         <v>43389500</v>
@@ -8343,16 +8343,16 @@
         <v>45268</v>
       </c>
       <c r="B304" t="n">
-        <v>192.5696379802798</v>
+        <v>192.5696228392207</v>
       </c>
       <c r="C304" t="n">
-        <v>194.3446189426589</v>
+        <v>194.3446036620394</v>
       </c>
       <c r="D304" t="n">
-        <v>192.0440886771746</v>
+        <v>192.0440735774375</v>
       </c>
       <c r="E304" t="n">
-        <v>194.0669708251953</v>
+        <v>194.0669555664062</v>
       </c>
       <c r="F304" t="n">
         <v>53406400</v>
@@ -8421,16 +8421,16 @@
         <v>45273</v>
       </c>
       <c r="B307" t="n">
-        <v>193.452164559549</v>
+        <v>193.4521795971172</v>
       </c>
       <c r="C307" t="n">
-        <v>196.3377379763236</v>
+        <v>196.3377532381953</v>
       </c>
       <c r="D307" t="n">
-        <v>193.214189106248</v>
+        <v>193.2142041253177</v>
       </c>
       <c r="E307" t="n">
-        <v>196.2980804443359</v>
+        <v>196.298095703125</v>
       </c>
       <c r="F307" t="n">
         <v>70404200</v>
@@ -8473,16 +8473,16 @@
         <v>45275</v>
       </c>
       <c r="B309" t="n">
-        <v>195.8717042860451</v>
+        <v>195.871673774647</v>
       </c>
       <c r="C309" t="n">
-        <v>196.7343956614167</v>
+        <v>196.734365015635</v>
       </c>
       <c r="D309" t="n">
-        <v>195.3461549274062</v>
+        <v>195.3461244978741</v>
       </c>
       <c r="E309" t="n">
-        <v>195.911376953125</v>
+        <v>195.9113464355469</v>
       </c>
       <c r="F309" t="n">
         <v>128538400</v>
@@ -8499,16 +8499,16 @@
         <v>45278</v>
       </c>
       <c r="B310" t="n">
-        <v>194.4437708037096</v>
+        <v>194.4437860780774</v>
       </c>
       <c r="C310" t="n">
-        <v>194.9792458391617</v>
+        <v>194.9792611555933</v>
       </c>
       <c r="D310" t="n">
-        <v>192.758045763451</v>
+        <v>192.758060905398</v>
       </c>
       <c r="E310" t="n">
-        <v>194.2454528808594</v>
+        <v>194.2454681396484</v>
       </c>
       <c r="F310" t="n">
         <v>55751900</v>
@@ -8525,16 +8525,16 @@
         <v>45279</v>
       </c>
       <c r="B311" t="n">
-        <v>194.5131858799095</v>
+        <v>194.5132010782648</v>
       </c>
       <c r="C311" t="n">
-        <v>195.2965469527107</v>
+        <v>195.2965622122741</v>
       </c>
       <c r="D311" t="n">
-        <v>194.2454483684032</v>
+        <v>194.2454635458387</v>
       </c>
       <c r="E311" t="n">
-        <v>195.2866363525391</v>
+        <v>195.2866516113281</v>
       </c>
       <c r="F311" t="n">
         <v>40714100</v>
@@ -8577,16 +8577,16 @@
         <v>45281</v>
       </c>
       <c r="B313" t="n">
-        <v>194.4537159728716</v>
+        <v>194.4537006027836</v>
       </c>
       <c r="C313" t="n">
-        <v>195.4254844834596</v>
+        <v>195.4254690365607</v>
       </c>
       <c r="D313" t="n">
-        <v>191.8755373260343</v>
+        <v>191.8755221597317</v>
       </c>
       <c r="E313" t="n">
-        <v>193.0456237792969</v>
+        <v>193.0456085205078</v>
       </c>
       <c r="F313" t="n">
         <v>46482500</v>
@@ -8603,16 +8603,16 @@
         <v>45282</v>
       </c>
       <c r="B314" t="n">
-        <v>193.5413924757588</v>
+        <v>193.5414078590762</v>
       </c>
       <c r="C314" t="n">
-        <v>193.7694724442452</v>
+        <v>193.7694878456911</v>
       </c>
       <c r="D314" t="n">
-        <v>191.3499546254364</v>
+        <v>191.349969834571</v>
       </c>
       <c r="E314" t="n">
-        <v>191.9746704101562</v>
+        <v>191.9746856689453</v>
       </c>
       <c r="F314" t="n">
         <v>37149600</v>
@@ -8629,16 +8629,16 @@
         <v>45286</v>
       </c>
       <c r="B315" t="n">
-        <v>191.9846022868164</v>
+        <v>191.9845869837648</v>
       </c>
       <c r="C315" t="n">
-        <v>192.2622504150879</v>
+        <v>192.262235089905</v>
       </c>
       <c r="D315" t="n">
-        <v>191.2111517679618</v>
+        <v>191.2111365265618</v>
       </c>
       <c r="E315" t="n">
-        <v>191.4293060302734</v>
+        <v>191.4292907714844</v>
       </c>
       <c r="F315" t="n">
         <v>28919300</v>
@@ -8655,16 +8655,16 @@
         <v>45287</v>
       </c>
       <c r="B316" t="n">
-        <v>190.874025191282</v>
+        <v>190.8739947779816</v>
       </c>
       <c r="C316" t="n">
-        <v>191.8755406541079</v>
+        <v>191.8755100812291</v>
       </c>
       <c r="D316" t="n">
-        <v>189.4857693071021</v>
+        <v>189.4857391150024</v>
       </c>
       <c r="E316" t="n">
-        <v>191.5284729003906</v>
+        <v>191.5284423828125</v>
       </c>
       <c r="F316" t="n">
         <v>48087700</v>
@@ -8681,16 +8681,16 @@
         <v>45288</v>
       </c>
       <c r="B317" t="n">
-        <v>192.5101607849602</v>
+        <v>192.5101301790993</v>
       </c>
       <c r="C317" t="n">
-        <v>193.0257995323335</v>
+        <v>193.0257688444948</v>
       </c>
       <c r="D317" t="n">
-        <v>191.5483028909341</v>
+        <v>191.5482724379923</v>
       </c>
       <c r="E317" t="n">
-        <v>191.9548645019531</v>
+        <v>191.954833984375</v>
       </c>
       <c r="F317" t="n">
         <v>34049900</v>
@@ -8707,16 +8707,16 @@
         <v>45289</v>
       </c>
       <c r="B318" t="n">
-        <v>192.2721441015654</v>
+        <v>192.2721594689321</v>
       </c>
       <c r="C318" t="n">
-        <v>192.7679464485325</v>
+        <v>192.7679618555263</v>
       </c>
       <c r="D318" t="n">
-        <v>190.1203637314106</v>
+        <v>190.1203789267961</v>
       </c>
       <c r="E318" t="n">
-        <v>190.9136505126953</v>
+        <v>190.9136657714844</v>
       </c>
       <c r="F318" t="n">
         <v>42672100</v>
@@ -8733,16 +8733,16 @@
         <v>45293</v>
       </c>
       <c r="B319" t="n">
-        <v>185.5787994699213</v>
+        <v>185.5788302357291</v>
       </c>
       <c r="C319" t="n">
-        <v>186.8579779090344</v>
+        <v>186.8580088869083</v>
       </c>
       <c r="D319" t="n">
-        <v>182.3461738402791</v>
+        <v>182.3462040701726</v>
       </c>
       <c r="E319" t="n">
-        <v>184.0814819335938</v>
+        <v>184.0815124511719</v>
       </c>
       <c r="F319" t="n">
         <v>82488700</v>
@@ -8759,16 +8759,16 @@
         <v>45294</v>
       </c>
       <c r="B320" t="n">
-        <v>182.6734085887357</v>
+        <v>182.6734391013451</v>
       </c>
       <c r="C320" t="n">
-        <v>184.3194759278842</v>
+        <v>184.3195067154423</v>
       </c>
       <c r="D320" t="n">
-        <v>181.8900324473893</v>
+        <v>181.8900628291485</v>
       </c>
       <c r="E320" t="n">
-        <v>182.7031555175781</v>
+        <v>182.7031860351562</v>
       </c>
       <c r="F320" t="n">
         <v>58414500</v>
@@ -8785,16 +8785,16 @@
         <v>45295</v>
       </c>
       <c r="B321" t="n">
-        <v>180.6208184994182</v>
+        <v>180.6207879415788</v>
       </c>
       <c r="C321" t="n">
-        <v>181.55292948513</v>
+        <v>181.552898769594</v>
       </c>
       <c r="D321" t="n">
-        <v>179.3614912261763</v>
+        <v>179.3614608813928</v>
       </c>
       <c r="E321" t="n">
-        <v>180.3828430175781</v>
+        <v>180.3828125</v>
       </c>
       <c r="F321" t="n">
         <v>71983600</v>
@@ -8811,16 +8811,16 @@
         <v>45296</v>
       </c>
       <c r="B322" t="n">
-        <v>180.4621480782428</v>
+        <v>180.4621787322578</v>
       </c>
       <c r="C322" t="n">
-        <v>181.2256728170181</v>
+        <v>181.2257036007284</v>
       </c>
       <c r="D322" t="n">
-        <v>178.6574202287292</v>
+        <v>178.657450576186</v>
       </c>
       <c r="E322" t="n">
-        <v>179.658935546875</v>
+        <v>179.6589660644531</v>
       </c>
       <c r="F322" t="n">
         <v>62379700</v>
@@ -8837,16 +8837,16 @@
         <v>45299</v>
       </c>
       <c r="B323" t="n">
-        <v>180.5612822357534</v>
+        <v>180.5613271560953</v>
       </c>
       <c r="C323" t="n">
-        <v>184.0418241473761</v>
+        <v>184.0418699336132</v>
       </c>
       <c r="D323" t="n">
-        <v>179.9762391393372</v>
+        <v>179.9762839141311</v>
       </c>
       <c r="E323" t="n">
-        <v>184.0021514892578</v>
+        <v>184.002197265625</v>
       </c>
       <c r="F323" t="n">
         <v>59144500</v>
@@ -8863,16 +8863,16 @@
         <v>45300</v>
       </c>
       <c r="B324" t="n">
-        <v>182.3759344161945</v>
+        <v>182.375949574434</v>
       </c>
       <c r="C324" t="n">
-        <v>183.5956039593173</v>
+        <v>183.59561921893</v>
       </c>
       <c r="D324" t="n">
-        <v>181.1959224035276</v>
+        <v>181.19593746369</v>
       </c>
       <c r="E324" t="n">
-        <v>183.585693359375</v>
+        <v>183.5857086181641</v>
       </c>
       <c r="F324" t="n">
         <v>42841800</v>
@@ -8889,16 +8889,16 @@
         <v>45301</v>
       </c>
       <c r="B325" t="n">
-        <v>182.8023580766897</v>
+        <v>182.8023278606972</v>
       </c>
       <c r="C325" t="n">
-        <v>184.8351358915854</v>
+        <v>184.8351053395885</v>
       </c>
       <c r="D325" t="n">
-        <v>182.3759601280669</v>
+        <v>182.3759299825551</v>
       </c>
       <c r="E325" t="n">
-        <v>184.6269073486328</v>
+        <v>184.6268768310547</v>
       </c>
       <c r="F325" t="n">
         <v>46792900</v>
@@ -8915,16 +8915,16 @@
         <v>45302</v>
       </c>
       <c r="B326" t="n">
-        <v>184.9739428703456</v>
+        <v>184.9739121965543</v>
       </c>
       <c r="C326" t="n">
-        <v>185.4796709750172</v>
+        <v>185.4796402173622</v>
       </c>
       <c r="D326" t="n">
-        <v>182.0784588244365</v>
+        <v>182.0784286307964</v>
       </c>
       <c r="E326" t="n">
-        <v>184.0319213867188</v>
+        <v>184.0318908691406</v>
       </c>
       <c r="F326" t="n">
         <v>49128400</v>
@@ -8941,16 +8941,16 @@
         <v>45303</v>
       </c>
       <c r="B327" t="n">
-        <v>184.4979701725253</v>
+        <v>184.4979854428044</v>
       </c>
       <c r="C327" t="n">
-        <v>185.1722692441994</v>
+        <v>185.1722845702879</v>
       </c>
       <c r="D327" t="n">
-        <v>183.6352789154723</v>
+        <v>183.6352941143493</v>
       </c>
       <c r="E327" t="n">
-        <v>184.3591461181641</v>
+        <v>184.3591613769531</v>
       </c>
       <c r="F327" t="n">
         <v>40477800</v>
@@ -8967,16 +8967,16 @@
         <v>45307</v>
       </c>
       <c r="B328" t="n">
-        <v>180.6307338993907</v>
+        <v>180.6307187627519</v>
       </c>
       <c r="C328" t="n">
-        <v>182.7130948998251</v>
+        <v>182.7130795886869</v>
       </c>
       <c r="D328" t="n">
-        <v>179.4110491019701</v>
+        <v>179.4110340675394</v>
       </c>
       <c r="E328" t="n">
-        <v>182.0883941650391</v>
+        <v>182.08837890625</v>
       </c>
       <c r="F328" t="n">
         <v>65603000</v>
@@ -8993,16 +8993,16 @@
         <v>45308</v>
       </c>
       <c r="B329" t="n">
-        <v>179.7481807176754</v>
+        <v>179.7481958586918</v>
       </c>
       <c r="C329" t="n">
-        <v>181.3942329517824</v>
+        <v>181.3942482314533</v>
       </c>
       <c r="D329" t="n">
-        <v>178.7863229882893</v>
+        <v>178.786338048284</v>
       </c>
       <c r="E329" t="n">
-        <v>181.1463317871094</v>
+        <v>181.1463470458984</v>
       </c>
       <c r="F329" t="n">
         <v>47317400</v>
@@ -9045,16 +9045,16 @@
         <v>45310</v>
       </c>
       <c r="B331" t="n">
-        <v>187.7405231993351</v>
+        <v>187.7405382804929</v>
       </c>
       <c r="C331" t="n">
-        <v>190.338522720401</v>
+        <v>190.3385380102556</v>
       </c>
       <c r="D331" t="n">
-        <v>187.2348102398665</v>
+        <v>187.2348252804006</v>
       </c>
       <c r="E331" t="n">
-        <v>189.9517974853516</v>
+        <v>189.9518127441406</v>
       </c>
       <c r="F331" t="n">
         <v>68903000</v>
@@ -9071,16 +9071,16 @@
         <v>45313</v>
       </c>
       <c r="B332" t="n">
-        <v>190.6855745499896</v>
+        <v>190.6855896836489</v>
       </c>
       <c r="C332" t="n">
-        <v>193.6901353869465</v>
+        <v>193.6901507590611</v>
       </c>
       <c r="D332" t="n">
-        <v>190.6459018913611</v>
+        <v>190.6459170218718</v>
       </c>
       <c r="E332" t="n">
-        <v>192.2622222900391</v>
+        <v>192.2622375488281</v>
       </c>
       <c r="F332" t="n">
         <v>60133900</v>
@@ -9097,16 +9097,16 @@
         <v>45314</v>
       </c>
       <c r="B333" t="n">
-        <v>193.3827670891404</v>
+        <v>193.3827365965774</v>
       </c>
       <c r="C333" t="n">
-        <v>194.1066343369205</v>
+        <v>194.1066037302182</v>
       </c>
       <c r="D333" t="n">
-        <v>192.2027549882256</v>
+        <v>192.2027246817267</v>
       </c>
       <c r="E333" t="n">
-        <v>193.5414123535156</v>
+        <v>193.5413818359375</v>
       </c>
       <c r="F333" t="n">
         <v>42355600</v>
@@ -9149,16 +9149,16 @@
         <v>45316</v>
       </c>
       <c r="B335" t="n">
-        <v>193.5810897970112</v>
+        <v>193.581074455708</v>
       </c>
       <c r="C335" t="n">
-        <v>194.622277860624</v>
+        <v>194.6222624368066</v>
       </c>
       <c r="D335" t="n">
-        <v>191.4888030688575</v>
+        <v>191.4887878933681</v>
       </c>
       <c r="E335" t="n">
-        <v>192.5399017333984</v>
+        <v>192.5398864746094</v>
       </c>
       <c r="F335" t="n">
         <v>54822100</v>
@@ -9175,16 +9175,16 @@
         <v>45317</v>
       </c>
       <c r="B336" t="n">
-        <v>192.6390246837024</v>
+        <v>192.6390400891958</v>
       </c>
       <c r="C336" t="n">
-        <v>193.1249012409611</v>
+        <v>193.1249166853105</v>
       </c>
       <c r="D336" t="n">
-        <v>190.3285842123257</v>
+        <v>190.3285994330514</v>
       </c>
       <c r="E336" t="n">
-        <v>190.8045501708984</v>
+        <v>190.8045654296875</v>
       </c>
       <c r="F336" t="n">
         <v>44594000</v>
@@ -9201,16 +9201,16 @@
         <v>45320</v>
       </c>
       <c r="B337" t="n">
-        <v>190.3980094284619</v>
+        <v>190.3980399906073</v>
       </c>
       <c r="C337" t="n">
-        <v>190.5864167388377</v>
+        <v>190.5864473312257</v>
       </c>
       <c r="D337" t="n">
-        <v>187.9884173153908</v>
+        <v>187.9884474907554</v>
       </c>
       <c r="E337" t="n">
-        <v>190.120361328125</v>
+        <v>190.1203918457031</v>
       </c>
       <c r="F337" t="n">
         <v>47145600</v>
@@ -9227,16 +9227,16 @@
         <v>45321</v>
       </c>
       <c r="B338" t="n">
-        <v>189.3370278187127</v>
+        <v>189.337012324598</v>
       </c>
       <c r="C338" t="n">
-        <v>190.1898085739461</v>
+        <v>190.1897930100453</v>
       </c>
       <c r="D338" t="n">
-        <v>185.8961578634667</v>
+        <v>185.8961426509305</v>
       </c>
       <c r="E338" t="n">
-        <v>186.4613647460938</v>
+        <v>186.4613494873047</v>
       </c>
       <c r="F338" t="n">
         <v>55859400</v>
@@ -9253,16 +9253,16 @@
         <v>45322</v>
       </c>
       <c r="B339" t="n">
-        <v>185.4697494385244</v>
+        <v>185.4697184840352</v>
       </c>
       <c r="C339" t="n">
-        <v>185.5292584344751</v>
+        <v>185.5292274700541</v>
       </c>
       <c r="D339" t="n">
-        <v>182.8023453182215</v>
+        <v>182.8023148089162</v>
       </c>
       <c r="E339" t="n">
-        <v>182.8519134521484</v>
+        <v>182.8518829345703</v>
       </c>
       <c r="F339" t="n">
         <v>55467800</v>
@@ -9305,16 +9305,16 @@
         <v>45324</v>
       </c>
       <c r="B341" t="n">
-        <v>178.350016469113</v>
+        <v>178.3500312361064</v>
       </c>
       <c r="C341" t="n">
-        <v>185.7573045610492</v>
+        <v>185.7573199413499</v>
       </c>
       <c r="D341" t="n">
-        <v>177.7451370154647</v>
+        <v>177.7451517323754</v>
       </c>
       <c r="E341" t="n">
-        <v>184.2897338867188</v>
+        <v>184.2897491455078</v>
       </c>
       <c r="F341" t="n">
         <v>102551700</v>
@@ -9331,16 +9331,16 @@
         <v>45327</v>
       </c>
       <c r="B342" t="n">
-        <v>186.570394960881</v>
+        <v>186.5704255548833</v>
       </c>
       <c r="C342" t="n">
-        <v>187.6611660469816</v>
+        <v>187.6611968198497</v>
       </c>
       <c r="D342" t="n">
-        <v>184.2797908107548</v>
+        <v>184.2798210291415</v>
       </c>
       <c r="E342" t="n">
-        <v>186.1043395996094</v>
+        <v>186.1043701171875</v>
       </c>
       <c r="F342" t="n">
         <v>69668800</v>
@@ -9409,16 +9409,16 @@
         <v>45330</v>
       </c>
       <c r="B345" t="n">
-        <v>187.8000075403015</v>
+        <v>187.8000228857875</v>
       </c>
       <c r="C345" t="n">
-        <v>187.9487421882847</v>
+        <v>187.9487575459241</v>
       </c>
       <c r="D345" t="n">
-        <v>185.7771406742971</v>
+        <v>185.777155854491</v>
       </c>
       <c r="E345" t="n">
-        <v>186.7389984130859</v>
+        <v>186.739013671875</v>
       </c>
       <c r="F345" t="n">
         <v>40962000</v>
@@ -9461,16 +9461,16 @@
         <v>45334</v>
       </c>
       <c r="B347" t="n">
-        <v>187.0765926484614</v>
+        <v>187.0765772861258</v>
       </c>
       <c r="C347" t="n">
-        <v>187.3248101870274</v>
+        <v>187.3247948043087</v>
       </c>
       <c r="D347" t="n">
-        <v>185.4582094490119</v>
+        <v>185.4581942195746</v>
       </c>
       <c r="E347" t="n">
-        <v>185.8156433105469</v>
+        <v>185.8156280517578</v>
       </c>
       <c r="F347" t="n">
         <v>41781900</v>
@@ -9487,16 +9487,16 @@
         <v>45335</v>
       </c>
       <c r="B348" t="n">
-        <v>184.44546335353</v>
+        <v>184.4454786725173</v>
       </c>
       <c r="C348" t="n">
-        <v>184.8823285756615</v>
+        <v>184.8823439309324</v>
       </c>
       <c r="D348" t="n">
-        <v>182.2015674671262</v>
+        <v>182.2015825997483</v>
       </c>
       <c r="E348" t="n">
-        <v>183.7206573486328</v>
+        <v>183.7206726074219</v>
       </c>
       <c r="F348" t="n">
         <v>56529500</v>
@@ -9513,16 +9513,16 @@
         <v>45336</v>
       </c>
       <c r="B349" t="n">
-        <v>183.9986768546959</v>
+        <v>183.9986922104331</v>
       </c>
       <c r="C349" t="n">
-        <v>184.2071710720395</v>
+        <v>184.2071864451767</v>
       </c>
       <c r="D349" t="n">
-        <v>181.1392063883179</v>
+        <v>181.139221505416</v>
       </c>
       <c r="E349" t="n">
-        <v>182.8370056152344</v>
+        <v>182.8370208740234</v>
       </c>
       <c r="F349" t="n">
         <v>54630500</v>
@@ -9591,16 +9591,16 @@
         <v>45342</v>
       </c>
       <c r="B352" t="n">
-        <v>180.4938282671166</v>
+        <v>180.4938435452351</v>
       </c>
       <c r="C352" t="n">
-        <v>181.1292644527841</v>
+        <v>181.1292797846899</v>
       </c>
       <c r="D352" t="n">
-        <v>178.7165976564194</v>
+        <v>178.7166127841021</v>
       </c>
       <c r="E352" t="n">
-        <v>180.2654724121094</v>
+        <v>180.2654876708984</v>
       </c>
       <c r="F352" t="n">
         <v>53665600</v>
@@ -9695,16 +9695,16 @@
         <v>45348</v>
       </c>
       <c r="B356" t="n">
-        <v>180.9406640211651</v>
+        <v>180.9406486714093</v>
       </c>
       <c r="C356" t="n">
-        <v>181.4569455981047</v>
+        <v>181.4569302045512</v>
       </c>
       <c r="D356" t="n">
-        <v>179.3619889474565</v>
+        <v>179.3619737316247</v>
       </c>
       <c r="E356" t="n">
-        <v>179.8683624267578</v>
+        <v>179.8683471679688</v>
       </c>
       <c r="F356" t="n">
         <v>40867400</v>
@@ -9721,16 +9721,16 @@
         <v>45349</v>
       </c>
       <c r="B357" t="n">
-        <v>179.8087756065873</v>
+        <v>179.8087604756301</v>
       </c>
       <c r="C357" t="n">
-        <v>182.6086613239592</v>
+        <v>182.6086459573909</v>
       </c>
       <c r="D357" t="n">
-        <v>178.2797472158991</v>
+        <v>178.27973221361</v>
       </c>
       <c r="E357" t="n">
-        <v>181.3278656005859</v>
+        <v>181.3278503417969</v>
       </c>
       <c r="F357" t="n">
         <v>54318900</v>
@@ -9747,16 +9747,16 @@
         <v>45350</v>
       </c>
       <c r="B358" t="n">
-        <v>181.2087048057168</v>
+        <v>181.2087201561828</v>
       </c>
       <c r="C358" t="n">
-        <v>181.814356133641</v>
+        <v>181.8143715354126</v>
       </c>
       <c r="D358" t="n">
-        <v>178.8456844221719</v>
+        <v>178.8456995724628</v>
       </c>
       <c r="E358" t="n">
-        <v>180.1264801025391</v>
+        <v>180.1264953613281</v>
       </c>
       <c r="F358" t="n">
         <v>48953900</v>
@@ -9903,16 +9903,16 @@
         <v>45358</v>
       </c>
       <c r="B364" t="n">
-        <v>167.9439683976919</v>
+        <v>167.9439531253601</v>
       </c>
       <c r="C364" t="n">
-        <v>169.5127049460677</v>
+        <v>169.5126895310795</v>
       </c>
       <c r="D364" t="n">
-        <v>167.2886856572273</v>
+        <v>167.2886704444849</v>
       </c>
       <c r="E364" t="n">
-        <v>167.7950439453125</v>
+        <v>167.7950286865234</v>
       </c>
       <c r="F364" t="n">
         <v>71765100</v>
@@ -9929,16 +9929,16 @@
         <v>45359</v>
       </c>
       <c r="B365" t="n">
-        <v>167.7950344093611</v>
+        <v>167.7950495135339</v>
       </c>
       <c r="C365" t="n">
-        <v>172.4615205019895</v>
+        <v>172.4615360262189</v>
       </c>
       <c r="D365" t="n">
-        <v>167.7354646317948</v>
+        <v>167.7354797306053</v>
       </c>
       <c r="E365" t="n">
-        <v>169.5126953125</v>
+        <v>169.5127105712891</v>
       </c>
       <c r="F365" t="n">
         <v>76267000</v>
@@ -9955,16 +9955,16 @@
         <v>45362</v>
       </c>
       <c r="B366" t="n">
-        <v>171.7069582907232</v>
+        <v>171.7069430151515</v>
       </c>
       <c r="C366" t="n">
-        <v>173.1366936651567</v>
+        <v>173.1366782623913</v>
       </c>
       <c r="D366" t="n">
-        <v>170.8233045037464</v>
+        <v>170.8232893067872</v>
       </c>
       <c r="E366" t="n">
-        <v>171.518310546875</v>
+        <v>171.5182952880859</v>
       </c>
       <c r="F366" t="n">
         <v>60139500</v>
@@ -10007,16 +10007,16 @@
         <v>45364</v>
       </c>
       <c r="B368" t="n">
-        <v>171.5381727031981</v>
+        <v>171.5381572981787</v>
       </c>
       <c r="C368" t="n">
-        <v>171.9551763303205</v>
+        <v>171.955160887852</v>
       </c>
       <c r="D368" t="n">
-        <v>169.5424940912606</v>
+        <v>169.5424788654635</v>
       </c>
       <c r="E368" t="n">
-        <v>169.9098663330078</v>
+        <v>169.9098510742188</v>
       </c>
       <c r="F368" t="n">
         <v>52488700</v>
@@ -10111,16 +10111,16 @@
         <v>45370</v>
       </c>
       <c r="B372" t="n">
-        <v>173.0969551594652</v>
+        <v>173.0969702674684</v>
       </c>
       <c r="C372" t="n">
-        <v>175.3507743404662</v>
+        <v>175.350789645184</v>
       </c>
       <c r="D372" t="n">
-        <v>171.7962978609562</v>
+        <v>171.7963128554373</v>
       </c>
       <c r="E372" t="n">
-        <v>174.8245544433594</v>
+        <v>174.8245697021484</v>
       </c>
       <c r="F372" t="n">
         <v>55215200</v>
@@ -10189,16 +10189,16 @@
         <v>45373</v>
       </c>
       <c r="B375" t="n">
-        <v>170.5353543329811</v>
+        <v>170.5353695457136</v>
       </c>
       <c r="C375" t="n">
-        <v>171.8161651814705</v>
+        <v>171.8161805084586</v>
       </c>
       <c r="D375" t="n">
-        <v>168.8474782779902</v>
+        <v>168.8474933401544</v>
       </c>
       <c r="E375" t="n">
-        <v>171.0516510009766</v>
+        <v>171.0516662597656</v>
       </c>
       <c r="F375" t="n">
         <v>71160100</v>
@@ -10215,16 +10215,16 @@
         <v>45376</v>
       </c>
       <c r="B376" t="n">
-        <v>169.3538335652694</v>
+        <v>169.3538487990515</v>
       </c>
       <c r="C376" t="n">
-        <v>170.7140605401114</v>
+        <v>170.7140758962492</v>
       </c>
       <c r="D376" t="n">
-        <v>168.241808926354</v>
+        <v>168.2418240601068</v>
       </c>
       <c r="E376" t="n">
-        <v>169.6318359375</v>
+        <v>169.6318511962891</v>
       </c>
       <c r="F376" t="n">
         <v>54288300</v>
@@ -10241,16 +10241,16 @@
         <v>45377</v>
       </c>
       <c r="B377" t="n">
-        <v>168.7878951080797</v>
+        <v>168.7879103929424</v>
       </c>
       <c r="C377" t="n">
-        <v>170.1977686492186</v>
+        <v>170.1977840617546</v>
       </c>
       <c r="D377" t="n">
-        <v>168.3708915381648</v>
+        <v>168.370906785265</v>
       </c>
       <c r="E377" t="n">
-        <v>168.4999694824219</v>
+        <v>168.4999847412109</v>
       </c>
       <c r="F377" t="n">
         <v>57388400</v>
@@ -10293,16 +10293,16 @@
         <v>45379</v>
       </c>
       <c r="B379" t="n">
-        <v>170.525449179057</v>
+        <v>170.5254338962422</v>
       </c>
       <c r="C379" t="n">
-        <v>171.0020226116196</v>
+        <v>171.0020072860934</v>
       </c>
       <c r="D379" t="n">
-        <v>169.294284732441</v>
+        <v>169.2942695599655</v>
       </c>
       <c r="E379" t="n">
-        <v>170.2573699951172</v>
+        <v>170.2573547363281</v>
       </c>
       <c r="F379" t="n">
         <v>65672700</v>
@@ -10449,16 +10449,16 @@
         <v>45390</v>
       </c>
       <c r="B385" t="n">
-        <v>167.8248135569868</v>
+        <v>167.8248288683144</v>
       </c>
       <c r="C385" t="n">
-        <v>167.9935996376489</v>
+        <v>167.9936149643756</v>
       </c>
       <c r="D385" t="n">
-        <v>167.0404529292048</v>
+        <v>167.0404681689721</v>
       </c>
       <c r="E385" t="n">
-        <v>167.2489471435547</v>
+        <v>167.2489624023438</v>
       </c>
       <c r="F385" t="n">
         <v>37425500</v>
@@ -10527,16 +10527,16 @@
         <v>45393</v>
       </c>
       <c r="B388" t="n">
-        <v>167.1397502393056</v>
+        <v>167.1397208898473</v>
       </c>
       <c r="C388" t="n">
-        <v>174.208995705804</v>
+        <v>174.2089651149981</v>
       </c>
       <c r="D388" t="n">
-        <v>166.9610408919762</v>
+        <v>166.9610115738989</v>
       </c>
       <c r="E388" t="n">
-        <v>173.7919769287109</v>
+        <v>173.7919464111328</v>
       </c>
       <c r="F388" t="n">
         <v>91070300</v>
@@ -10579,16 +10579,16 @@
         <v>45397</v>
       </c>
       <c r="B390" t="n">
-        <v>174.109686092399</v>
+        <v>174.1096705976904</v>
       </c>
       <c r="C390" t="n">
-        <v>175.370635250956</v>
+        <v>175.3706196440305</v>
       </c>
       <c r="D390" t="n">
-        <v>171.2700772491096</v>
+        <v>171.270062007109</v>
       </c>
       <c r="E390" t="n">
-        <v>171.4587249755859</v>
+        <v>171.4587097167969</v>
       </c>
       <c r="F390" t="n">
         <v>73531800</v>
@@ -10631,16 +10631,16 @@
         <v>45399</v>
       </c>
       <c r="B392" t="n">
-        <v>168.4006911997193</v>
+        <v>168.4007066047384</v>
       </c>
       <c r="C392" t="n">
-        <v>169.433269394387</v>
+        <v>169.4332848938648</v>
       </c>
       <c r="D392" t="n">
-        <v>166.8021697998047</v>
+        <v>166.8021850585938</v>
       </c>
       <c r="E392" t="n">
-        <v>166.8021697998047</v>
+        <v>166.8021850585938</v>
       </c>
       <c r="F392" t="n">
         <v>50901200</v>
@@ -10683,16 +10683,16 @@
         <v>45401</v>
       </c>
       <c r="B394" t="n">
-        <v>165.0249267099425</v>
+        <v>165.0249574513175</v>
       </c>
       <c r="C394" t="n">
-        <v>165.2135592809116</v>
+        <v>165.2135900574256</v>
       </c>
       <c r="D394" t="n">
-        <v>162.9101087959822</v>
+        <v>162.910139143402</v>
       </c>
       <c r="E394" t="n">
-        <v>163.8235473632812</v>
+        <v>163.8235778808594</v>
       </c>
       <c r="F394" t="n">
         <v>68149400</v>
@@ -10709,16 +10709,16 @@
         <v>45404</v>
       </c>
       <c r="B395" t="n">
-        <v>164.3398517240313</v>
+        <v>164.3398364946844</v>
       </c>
       <c r="C395" t="n">
-        <v>166.0674358814589</v>
+        <v>166.0674204920171</v>
       </c>
       <c r="D395" t="n">
-        <v>163.5951992010038</v>
+        <v>163.5951840406637</v>
       </c>
       <c r="E395" t="n">
-        <v>164.6575622558594</v>
+        <v>164.6575469970703</v>
       </c>
       <c r="F395" t="n">
         <v>48116400</v>
@@ -10735,16 +10735,16 @@
         <v>45405</v>
       </c>
       <c r="B396" t="n">
-        <v>164.1710551260113</v>
+        <v>164.171085360175</v>
       </c>
       <c r="C396" t="n">
-        <v>165.8589310401446</v>
+        <v>165.8589615851519</v>
       </c>
       <c r="D396" t="n">
-        <v>163.7441131621461</v>
+        <v>163.744143317683</v>
       </c>
       <c r="E396" t="n">
-        <v>165.7099914550781</v>
+        <v>165.7100219726562</v>
       </c>
       <c r="F396" t="n">
         <v>49537800</v>
@@ -10787,16 +10787,16 @@
         <v>45407</v>
       </c>
       <c r="B398" t="n">
-        <v>168.3212618473153</v>
+        <v>168.32124662086</v>
       </c>
       <c r="C398" t="n">
-        <v>169.3935633415022</v>
+        <v>169.3935480180457</v>
       </c>
       <c r="D398" t="n">
-        <v>166.9510963019663</v>
+        <v>166.951081199457</v>
       </c>
       <c r="E398" t="n">
-        <v>168.6786956787109</v>
+        <v>168.6786804199219</v>
       </c>
       <c r="F398" t="n">
         <v>50558300</v>
@@ -10839,16 +10839,16 @@
         <v>45411</v>
       </c>
       <c r="B400" t="n">
-        <v>172.1338920039943</v>
+        <v>172.1338615092833</v>
       </c>
       <c r="C400" t="n">
-        <v>174.7749302228295</v>
+        <v>174.7748992602403</v>
       </c>
       <c r="D400" t="n">
-        <v>171.8658279731322</v>
+        <v>171.8657975259106</v>
       </c>
       <c r="E400" t="n">
-        <v>172.2629699707031</v>
+        <v>172.262939453125</v>
       </c>
       <c r="F400" t="n">
         <v>68169400</v>
@@ -10995,16 +10995,16 @@
         <v>45419</v>
       </c>
       <c r="B406" t="n">
-        <v>182.1419885189408</v>
+        <v>182.1420192121963</v>
       </c>
       <c r="C406" t="n">
-        <v>183.5816469102885</v>
+        <v>183.5816778461448</v>
       </c>
       <c r="D406" t="n">
-        <v>180.0271858364759</v>
+        <v>180.02721617336</v>
       </c>
       <c r="E406" t="n">
-        <v>181.0994720458984</v>
+        <v>181.0995025634766</v>
       </c>
       <c r="F406" t="n">
         <v>77305800</v>
@@ -11021,16 +11021,16 @@
         <v>45420</v>
       </c>
       <c r="B407" t="n">
-        <v>181.5462890620128</v>
+        <v>181.5463043299869</v>
       </c>
       <c r="C407" t="n">
-        <v>181.7647216782258</v>
+        <v>181.7647369645701</v>
       </c>
       <c r="D407" t="n">
-        <v>180.1562619452029</v>
+        <v>180.1562770962763</v>
       </c>
       <c r="E407" t="n">
-        <v>181.4370727539062</v>
+        <v>181.4370880126953</v>
       </c>
       <c r="F407" t="n">
         <v>45057100</v>
@@ -11047,16 +11047,16 @@
         <v>45421</v>
       </c>
       <c r="B408" t="n">
-        <v>181.2583347756327</v>
+        <v>181.2583649608674</v>
       </c>
       <c r="C408" t="n">
-        <v>183.343367720595</v>
+        <v>183.3433982530535</v>
       </c>
       <c r="D408" t="n">
-        <v>180.8115463302817</v>
+        <v>180.811576441112</v>
       </c>
       <c r="E408" t="n">
-        <v>183.2540130615234</v>
+        <v>183.2540435791016</v>
       </c>
       <c r="F408" t="n">
         <v>48983000</v>
@@ -11073,16 +11073,16 @@
         <v>45422</v>
       </c>
       <c r="B409" t="n">
-        <v>183.830686078945</v>
+        <v>183.8306552529416</v>
       </c>
       <c r="C409" t="n">
-        <v>184.01958970422</v>
+        <v>184.01955884654</v>
       </c>
       <c r="D409" t="n">
-        <v>181.0767163784401</v>
+        <v>181.0766860142415</v>
       </c>
       <c r="E409" t="n">
-        <v>181.9913940429688</v>
+        <v>181.9913635253906</v>
       </c>
       <c r="F409" t="n">
         <v>50759500</v>
@@ -11099,16 +11099,16 @@
         <v>45425</v>
       </c>
       <c r="B410" t="n">
-        <v>184.3675441223296</v>
+        <v>184.3675745022942</v>
       </c>
       <c r="C410" t="n">
-        <v>186.0179474570355</v>
+        <v>186.0179781089525</v>
       </c>
       <c r="D410" t="n">
-        <v>183.5522791604112</v>
+        <v>183.552309406037</v>
       </c>
       <c r="E410" t="n">
-        <v>185.2026824951172</v>
+        <v>185.2027130126953</v>
       </c>
       <c r="F410" t="n">
         <v>72044800</v>
@@ -11125,16 +11125,16 @@
         <v>45426</v>
       </c>
       <c r="B411" t="n">
-        <v>186.425562713799</v>
+        <v>186.4255779791011</v>
       </c>
       <c r="C411" t="n">
-        <v>187.2110023802185</v>
+        <v>187.2110177098357</v>
       </c>
       <c r="D411" t="n">
-        <v>185.2126171602605</v>
+        <v>185.2126323262415</v>
       </c>
       <c r="E411" t="n">
-        <v>186.3460235595703</v>
+        <v>186.3460388183594</v>
       </c>
       <c r="F411" t="n">
         <v>52393600</v>
@@ -11177,16 +11177,16 @@
         <v>45428</v>
       </c>
       <c r="B413" t="n">
-        <v>189.3684573270214</v>
+        <v>189.3684726364485</v>
       </c>
       <c r="C413" t="n">
-        <v>189.9948187067773</v>
+        <v>189.9948340668423</v>
       </c>
       <c r="D413" t="n">
-        <v>188.5631442219314</v>
+        <v>188.5631594662532</v>
       </c>
       <c r="E413" t="n">
-        <v>188.7420959472656</v>
+        <v>188.7421112060547</v>
       </c>
       <c r="F413" t="n">
         <v>52845200</v>
@@ -11203,16 +11203,16 @@
         <v>45429</v>
       </c>
       <c r="B414" t="n">
-        <v>188.4140234778259</v>
+        <v>188.4140082479681</v>
       </c>
       <c r="C414" t="n">
-        <v>189.7065083736888</v>
+        <v>189.706493039357</v>
       </c>
       <c r="D414" t="n">
-        <v>188.0859301078384</v>
+        <v>188.085914904501</v>
       </c>
       <c r="E414" t="n">
-        <v>188.7719421386719</v>
+        <v>188.7719268798828</v>
       </c>
       <c r="F414" t="n">
         <v>41282900</v>
@@ -11229,16 +11229,16 @@
         <v>45432</v>
       </c>
       <c r="B415" t="n">
-        <v>188.2350632210391</v>
+        <v>188.2350480988308</v>
       </c>
       <c r="C415" t="n">
-        <v>190.8100810190114</v>
+        <v>190.8100656899344</v>
       </c>
       <c r="D415" t="n">
-        <v>187.9169065722093</v>
+        <v>187.9168914755607</v>
       </c>
       <c r="E415" t="n">
-        <v>189.9351654052734</v>
+        <v>189.9351501464844</v>
       </c>
       <c r="F415" t="n">
         <v>44361300</v>
@@ -11307,16 +11307,16 @@
         <v>45435</v>
       </c>
       <c r="B418" t="n">
-        <v>189.8755198828199</v>
+        <v>189.8755042892658</v>
       </c>
       <c r="C418" t="n">
-        <v>189.8954084665374</v>
+        <v>189.89539287135</v>
       </c>
       <c r="D418" t="n">
-        <v>185.5506859127412</v>
+        <v>185.5506706743646</v>
       </c>
       <c r="E418" t="n">
-        <v>185.7992401123047</v>
+        <v>185.7992248535156</v>
       </c>
       <c r="F418" t="n">
         <v>51005900</v>
@@ -11333,16 +11333,16 @@
         <v>45436</v>
       </c>
       <c r="B419" t="n">
-        <v>187.7280219308774</v>
+        <v>187.7280067652561</v>
       </c>
       <c r="C419" t="n">
-        <v>189.4778380232483</v>
+        <v>189.4778227162681</v>
       </c>
       <c r="D419" t="n">
-        <v>186.9525188762844</v>
+        <v>186.9525037733123</v>
       </c>
       <c r="E419" t="n">
-        <v>188.8813018798828</v>
+        <v>188.8812866210938</v>
       </c>
       <c r="F419" t="n">
         <v>36327000</v>
@@ -11385,16 +11385,16 @@
         <v>45441</v>
       </c>
       <c r="B421" t="n">
-        <v>188.5134539967084</v>
+        <v>188.5134387924459</v>
       </c>
       <c r="C421" t="n">
-        <v>191.1381858246173</v>
+        <v>191.1381704086612</v>
       </c>
       <c r="D421" t="n">
-        <v>188.4140262453567</v>
+        <v>188.4140110491134</v>
       </c>
       <c r="E421" t="n">
-        <v>189.1895141601562</v>
+        <v>189.1894989013672</v>
       </c>
       <c r="F421" t="n">
         <v>53068000</v>
@@ -11411,16 +11411,16 @@
         <v>45442</v>
       </c>
       <c r="B422" t="n">
-        <v>189.6567973718936</v>
+        <v>189.6567669388692</v>
       </c>
       <c r="C422" t="n">
-        <v>191.0685834525777</v>
+        <v>191.0685527930129</v>
       </c>
       <c r="D422" t="n">
-        <v>189.5275594997307</v>
+        <v>189.5275290874443</v>
       </c>
       <c r="E422" t="n">
-        <v>190.1837310791016</v>
+        <v>190.1837005615234</v>
       </c>
       <c r="F422" t="n">
         <v>49889100</v>
@@ -11437,16 +11437,16 @@
         <v>45443</v>
       </c>
       <c r="B423" t="n">
-        <v>190.3328703970531</v>
+        <v>190.3328400080532</v>
       </c>
       <c r="C423" t="n">
-        <v>191.4563402579262</v>
+        <v>191.4563096895504</v>
       </c>
       <c r="D423" t="n">
-        <v>188.8117198765045</v>
+        <v>188.8116897303752</v>
       </c>
       <c r="E423" t="n">
-        <v>191.13818359375</v>
+        <v>191.1381530761719</v>
       </c>
       <c r="F423" t="n">
         <v>75158300</v>
@@ -11567,16 +11567,16 @@
         <v>45450</v>
       </c>
       <c r="B428" t="n">
-        <v>193.5242917070246</v>
+        <v>193.5242766218339</v>
       </c>
       <c r="C428" t="n">
-        <v>195.801056646944</v>
+        <v>195.8010413842798</v>
       </c>
       <c r="D428" t="n">
-        <v>193.017246606564</v>
+        <v>193.0172315608974</v>
       </c>
       <c r="E428" t="n">
-        <v>195.7513427734375</v>
+        <v>195.7513275146484</v>
       </c>
       <c r="F428" t="n">
         <v>53103900</v>
@@ -11593,16 +11593,16 @@
         <v>45453</v>
       </c>
       <c r="B429" t="n">
-        <v>195.7612660385386</v>
+        <v>195.7612815959928</v>
       </c>
       <c r="C429" t="n">
-        <v>196.1589618287401</v>
+        <v>196.1589774177998</v>
       </c>
       <c r="D429" t="n">
-        <v>191.0387366200161</v>
+        <v>191.0387518021634</v>
       </c>
       <c r="E429" t="n">
-        <v>192.0031280517578</v>
+        <v>192.0031433105469</v>
       </c>
       <c r="F429" t="n">
         <v>97010200</v>
@@ -11619,16 +11619,16 @@
         <v>45454</v>
       </c>
       <c r="B430" t="n">
-        <v>192.5300695841464</v>
+        <v>192.5300553197752</v>
       </c>
       <c r="C430" t="n">
-        <v>205.9619477263615</v>
+        <v>205.9619324668351</v>
       </c>
       <c r="D430" t="n">
-        <v>192.5101961717298</v>
+        <v>192.510181908831</v>
       </c>
       <c r="E430" t="n">
-        <v>205.9519958496094</v>
+        <v>205.9519805908203</v>
       </c>
       <c r="F430" t="n">
         <v>172373300</v>
@@ -11645,16 +11645,16 @@
         <v>45455</v>
       </c>
       <c r="B431" t="n">
-        <v>206.1707209873844</v>
+        <v>206.1707061367958</v>
       </c>
       <c r="C431" t="n">
-        <v>218.9265236110146</v>
+        <v>218.9265078416186</v>
       </c>
       <c r="D431" t="n">
-        <v>205.7034379048798</v>
+        <v>205.7034230879499</v>
       </c>
       <c r="E431" t="n">
-        <v>211.8377685546875</v>
+        <v>211.8377532958984</v>
       </c>
       <c r="F431" t="n">
         <v>198134300</v>
@@ -11671,16 +11671,16 @@
         <v>45456</v>
       </c>
       <c r="B432" t="n">
-        <v>213.4981307613781</v>
+        <v>213.4981001725771</v>
       </c>
       <c r="C432" t="n">
-        <v>215.4965011584757</v>
+        <v>215.4964702833595</v>
       </c>
       <c r="D432" t="n">
-        <v>210.3762904748314</v>
+        <v>210.37626033331</v>
       </c>
       <c r="E432" t="n">
-        <v>213.0010223388672</v>
+        <v>213.0009918212891</v>
       </c>
       <c r="F432" t="n">
         <v>97862700</v>
@@ -11697,16 +11697,16 @@
         <v>45457</v>
       </c>
       <c r="B433" t="n">
-        <v>212.6132590503739</v>
+        <v>212.613243693924</v>
       </c>
       <c r="C433" t="n">
-        <v>213.9256172778308</v>
+        <v>213.9256018265929</v>
       </c>
       <c r="D433" t="n">
-        <v>210.0780032919047</v>
+        <v>210.077988118569</v>
       </c>
       <c r="E433" t="n">
-        <v>211.2611236572266</v>
+        <v>211.2611083984375</v>
       </c>
       <c r="F433" t="n">
         <v>70122700</v>
@@ -11723,16 +11723,16 @@
         <v>45460</v>
       </c>
       <c r="B434" t="n">
-        <v>212.1360280257328</v>
+        <v>212.1360129993434</v>
       </c>
       <c r="C434" t="n">
-        <v>217.6837594401996</v>
+        <v>217.6837440208437</v>
       </c>
       <c r="D434" t="n">
-        <v>211.4897931914233</v>
+        <v>211.4897782108092</v>
       </c>
       <c r="E434" t="n">
-        <v>215.4169464111328</v>
+        <v>215.4169311523438</v>
       </c>
       <c r="F434" t="n">
         <v>93728300</v>
@@ -11749,16 +11749,16 @@
         <v>45461</v>
       </c>
       <c r="B435" t="n">
-        <v>216.3316078372056</v>
+        <v>216.3316233309755</v>
       </c>
       <c r="C435" t="n">
-        <v>217.3656016993958</v>
+        <v>217.3656172672209</v>
       </c>
       <c r="D435" t="n">
-        <v>211.768156830934</v>
+        <v>211.7681719978675</v>
       </c>
       <c r="E435" t="n">
-        <v>213.0506896972656</v>
+        <v>213.0507049560547</v>
       </c>
       <c r="F435" t="n">
         <v>79943300</v>
@@ -11801,16 +11801,16 @@
         <v>45464</v>
       </c>
       <c r="B437" t="n">
-        <v>209.1732770433439</v>
+        <v>209.1732615712896</v>
       </c>
       <c r="C437" t="n">
-        <v>210.6646022796918</v>
+        <v>210.6645866973278</v>
       </c>
       <c r="D437" t="n">
-        <v>205.9122470735066</v>
+        <v>205.912231842663</v>
       </c>
       <c r="E437" t="n">
-        <v>206.2900543212891</v>
+        <v>206.2900390625</v>
       </c>
       <c r="F437" t="n">
         <v>241805100</v>
@@ -11827,16 +11827,16 @@
         <v>45467</v>
       </c>
       <c r="B438" t="n">
-        <v>206.5187252991225</v>
+        <v>206.5187100711235</v>
       </c>
       <c r="C438" t="n">
-        <v>211.4699209644532</v>
+        <v>211.4699053713697</v>
       </c>
       <c r="D438" t="n">
-        <v>205.3952554040291</v>
+        <v>205.3952402588711</v>
       </c>
       <c r="E438" t="n">
-        <v>206.9362945556641</v>
+        <v>206.936279296875</v>
       </c>
       <c r="F438" t="n">
         <v>80727000</v>
@@ -11879,16 +11879,16 @@
         <v>45469</v>
       </c>
       <c r="B440" t="n">
-        <v>210.2768443064002</v>
+        <v>210.2768291728298</v>
       </c>
       <c r="C440" t="n">
-        <v>213.6174132199336</v>
+        <v>213.6173978459433</v>
       </c>
       <c r="D440" t="n">
-        <v>209.4218172877416</v>
+        <v>209.4218022157072</v>
       </c>
       <c r="E440" t="n">
-        <v>212.0167236328125</v>
+        <v>212.0167083740234</v>
       </c>
       <c r="F440" t="n">
         <v>66213200</v>
@@ -11905,16 +11905,16 @@
         <v>45470</v>
       </c>
       <c r="B441" t="n">
-        <v>213.4484159601294</v>
+        <v>213.4483853584538</v>
       </c>
       <c r="C441" t="n">
-        <v>214.4923466769879</v>
+        <v>214.492315925646</v>
       </c>
       <c r="D441" t="n">
-        <v>211.12195219379</v>
+        <v>211.1219219256549</v>
       </c>
       <c r="E441" t="n">
-        <v>212.8618316650391</v>
+        <v>212.8618011474609</v>
       </c>
       <c r="F441" t="n">
         <v>49772700</v>
@@ -11983,16 +11983,16 @@
         <v>45475</v>
       </c>
       <c r="B444" t="n">
-        <v>214.8999559805068</v>
+        <v>214.8999260337406</v>
       </c>
       <c r="C444" t="n">
-        <v>219.1055039815598</v>
+        <v>219.1054734487415</v>
       </c>
       <c r="D444" t="n">
-        <v>213.8560404734025</v>
+        <v>213.8560106721081</v>
       </c>
       <c r="E444" t="n">
-        <v>218.9961395263672</v>
+        <v>218.9961090087891</v>
       </c>
       <c r="F444" t="n">
         <v>58046200</v>
@@ -12009,16 +12009,16 @@
         <v>45476</v>
       </c>
       <c r="B445" t="n">
-        <v>218.7276986998382</v>
+        <v>218.7276683957665</v>
       </c>
       <c r="C445" t="n">
-        <v>220.2687377929688</v>
+        <v>220.2687072753906</v>
       </c>
       <c r="D445" t="n">
-        <v>217.7633071782908</v>
+        <v>217.7632770078327</v>
       </c>
       <c r="E445" t="n">
-        <v>220.2687377929688</v>
+        <v>220.2687072753906</v>
       </c>
       <c r="F445" t="n">
         <v>37369800</v>
@@ -12035,16 +12035,16 @@
         <v>45478</v>
       </c>
       <c r="B446" t="n">
-        <v>220.3681270754722</v>
+        <v>220.3681420180832</v>
       </c>
       <c r="C446" t="n">
-        <v>225.1403703039852</v>
+        <v>225.1403855701899</v>
       </c>
       <c r="D446" t="n">
-        <v>220.3681270754722</v>
+        <v>220.3681420180832</v>
       </c>
       <c r="E446" t="n">
-        <v>225.031005859375</v>
+        <v>225.0310211181641</v>
       </c>
       <c r="F446" t="n">
         <v>60412400</v>
@@ -12061,16 +12061,16 @@
         <v>45481</v>
       </c>
       <c r="B447" t="n">
-        <v>225.7766827586142</v>
+        <v>225.7766675487194</v>
       </c>
       <c r="C447" t="n">
-        <v>226.5322972132979</v>
+        <v>226.5322819524995</v>
       </c>
       <c r="D447" t="n">
-        <v>221.9588940010497</v>
+        <v>221.9588790483477</v>
       </c>
       <c r="E447" t="n">
-        <v>226.5024719238281</v>
+        <v>226.5024566650391</v>
       </c>
       <c r="F447" t="n">
         <v>59085900</v>
@@ -12139,16 +12139,16 @@
         <v>45484</v>
       </c>
       <c r="B450" t="n">
-        <v>230.0518217466028</v>
+        <v>230.0518062316796</v>
       </c>
       <c r="C450" t="n">
-        <v>231.0460385336438</v>
+        <v>231.0460229516697</v>
       </c>
       <c r="D450" t="n">
-        <v>224.4643282580064</v>
+        <v>224.4643131199093</v>
       </c>
       <c r="E450" t="n">
-        <v>226.2539215087891</v>
+        <v>226.25390625</v>
       </c>
       <c r="F450" t="n">
         <v>64710600</v>
@@ -12165,16 +12165,16 @@
         <v>45485</v>
       </c>
       <c r="B451" t="n">
-        <v>227.5960997712765</v>
+        <v>227.5960846197104</v>
       </c>
       <c r="C451" t="n">
-        <v>231.294587346624</v>
+        <v>231.2945719488415</v>
       </c>
       <c r="D451" t="n">
-        <v>227.357482286545</v>
+        <v>227.3574671508641</v>
       </c>
       <c r="E451" t="n">
-        <v>229.2067260742188</v>
+        <v>229.2067108154297</v>
       </c>
       <c r="F451" t="n">
         <v>53046500</v>
@@ -12217,16 +12217,16 @@
         <v>45489</v>
       </c>
       <c r="B453" t="n">
-        <v>233.6409268235753</v>
+        <v>233.6409573645456</v>
       </c>
       <c r="C453" t="n">
-        <v>234.9035862928846</v>
+        <v>234.9036169989066</v>
       </c>
       <c r="D453" t="n">
-        <v>230.9863700286407</v>
+        <v>230.9864002226138</v>
       </c>
       <c r="E453" t="n">
-        <v>233.4619750976562</v>
+        <v>233.4620056152344</v>
       </c>
       <c r="F453" t="n">
         <v>43234300</v>
@@ -12243,16 +12243,16 @@
         <v>45490</v>
       </c>
       <c r="B454" t="n">
-        <v>228.1230311101644</v>
+        <v>228.1230158133756</v>
       </c>
       <c r="C454" t="n">
-        <v>230.1214164943178</v>
+        <v>230.1214010635272</v>
       </c>
       <c r="D454" t="n">
-        <v>225.3292844594588</v>
+        <v>225.3292693500046</v>
       </c>
       <c r="E454" t="n">
-        <v>227.5563354492188</v>
+        <v>227.5563201904297</v>
       </c>
       <c r="F454" t="n">
         <v>57345900</v>
@@ -12321,16 +12321,16 @@
         <v>45495</v>
       </c>
       <c r="B457" t="n">
-        <v>225.6971284733096</v>
+        <v>225.6971439398997</v>
       </c>
       <c r="C457" t="n">
-        <v>226.4626795830049</v>
+        <v>226.4626951020567</v>
       </c>
       <c r="D457" t="n">
-        <v>221.7998008147913</v>
+        <v>221.799816014305</v>
       </c>
       <c r="E457" t="n">
-        <v>222.6647796630859</v>
+        <v>222.664794921875</v>
       </c>
       <c r="F457" t="n">
         <v>48201800</v>
@@ -12347,16 +12347,16 @@
         <v>45496</v>
       </c>
       <c r="B458" t="n">
-        <v>223.0724115914999</v>
+        <v>223.0723963761116</v>
       </c>
       <c r="C458" t="n">
-        <v>225.6275559695254</v>
+        <v>225.6275405798551</v>
       </c>
       <c r="D458" t="n">
-        <v>221.3921828247117</v>
+        <v>221.392167723929</v>
       </c>
       <c r="E458" t="n">
-        <v>223.7087097167969</v>
+        <v>223.7086944580078</v>
       </c>
       <c r="F458" t="n">
         <v>39960300</v>
@@ -12373,16 +12373,16 @@
         <v>45497</v>
       </c>
       <c r="B459" t="n">
-        <v>222.7045375663034</v>
+        <v>222.7045532063183</v>
       </c>
       <c r="C459" t="n">
-        <v>223.499913948863</v>
+        <v>223.4999296447353</v>
       </c>
       <c r="D459" t="n">
-        <v>215.8742737910534</v>
+        <v>215.8742889513949</v>
       </c>
       <c r="E459" t="n">
-        <v>217.2761077880859</v>
+        <v>217.276123046875</v>
       </c>
       <c r="F459" t="n">
         <v>61777600</v>
@@ -12399,16 +12399,16 @@
         <v>45498</v>
       </c>
       <c r="B460" t="n">
-        <v>217.663867640833</v>
+        <v>217.6638522810165</v>
       </c>
       <c r="C460" t="n">
-        <v>219.5727771670938</v>
+        <v>219.5727616725718</v>
       </c>
       <c r="D460" t="n">
-        <v>213.3787958392943</v>
+        <v>213.3787807818611</v>
       </c>
       <c r="E460" t="n">
-        <v>216.2322082519531</v>
+        <v>216.2321929931641</v>
       </c>
       <c r="F460" t="n">
         <v>51391200</v>
@@ -12425,16 +12425,16 @@
         <v>45499</v>
       </c>
       <c r="B461" t="n">
-        <v>217.4351887967129</v>
+        <v>217.4352194179005</v>
       </c>
       <c r="C461" t="n">
-        <v>218.2206284835583</v>
+        <v>218.2206592153586</v>
       </c>
       <c r="D461" t="n">
-        <v>214.7607434520739</v>
+        <v>214.760773696622</v>
       </c>
       <c r="E461" t="n">
-        <v>216.6994781494141</v>
+        <v>216.6995086669922</v>
       </c>
       <c r="F461" t="n">
         <v>41601300</v>
@@ -12477,16 +12477,16 @@
         <v>45503</v>
       </c>
       <c r="B463" t="n">
-        <v>217.9223813938138</v>
+        <v>217.9223661078267</v>
       </c>
       <c r="C463" t="n">
-        <v>219.0557879315782</v>
+        <v>219.0557725660892</v>
       </c>
       <c r="D463" t="n">
-        <v>214.8701285559178</v>
+        <v>214.8701134840286</v>
       </c>
       <c r="E463" t="n">
-        <v>217.5346374511719</v>
+        <v>217.5346221923828</v>
       </c>
       <c r="F463" t="n">
         <v>41643800</v>
@@ -12581,16 +12581,16 @@
         <v>45509</v>
       </c>
       <c r="B467" t="n">
-        <v>197.9385894997678</v>
+        <v>197.9386185328084</v>
       </c>
       <c r="C467" t="n">
-        <v>212.2652550883471</v>
+        <v>212.2652862227801</v>
       </c>
       <c r="D467" t="n">
-        <v>194.8664636876629</v>
+        <v>194.8664922700932</v>
       </c>
       <c r="E467" t="n">
-        <v>208.0597229003906</v>
+        <v>208.0597534179688</v>
       </c>
       <c r="F467" t="n">
         <v>119548600</v>
@@ -12607,16 +12607,16 @@
         <v>45510</v>
       </c>
       <c r="B468" t="n">
-        <v>204.1126936889009</v>
+        <v>204.1127088055804</v>
       </c>
       <c r="C468" t="n">
-        <v>208.7755724881847</v>
+        <v>208.7755879501992</v>
       </c>
       <c r="D468" t="n">
-        <v>199.9071612514616</v>
+        <v>199.9071760566775</v>
       </c>
       <c r="E468" t="n">
-        <v>206.0315246582031</v>
+        <v>206.0315399169922</v>
       </c>
       <c r="F468" t="n">
         <v>69660500</v>
@@ -12659,16 +12659,16 @@
         <v>45512</v>
       </c>
       <c r="B470" t="n">
-        <v>211.8775299255005</v>
+        <v>211.8775451699831</v>
       </c>
       <c r="C470" t="n">
-        <v>212.96122253044</v>
+        <v>212.9612378528938</v>
       </c>
       <c r="D470" t="n">
-        <v>207.6222834948103</v>
+        <v>207.62229843313</v>
       </c>
       <c r="E470" t="n">
-        <v>212.0763702392578</v>
+        <v>212.0763854980469</v>
       </c>
       <c r="F470" t="n">
         <v>47161100</v>
@@ -12711,16 +12711,16 @@
         <v>45516</v>
       </c>
       <c r="B472" t="n">
-        <v>215.0690801889043</v>
+        <v>215.0690650325273</v>
       </c>
       <c r="C472" t="n">
-        <v>218.4931319043141</v>
+        <v>218.4931165066369</v>
       </c>
       <c r="D472" t="n">
-        <v>214.6012562114996</v>
+        <v>214.6012410880911</v>
       </c>
       <c r="E472" t="n">
-        <v>216.5223083496094</v>
+        <v>216.5222930908203</v>
       </c>
       <c r="F472" t="n">
         <v>38028100</v>
@@ -12737,16 +12737,16 @@
         <v>45517</v>
       </c>
       <c r="B473" t="n">
-        <v>217.9954546002453</v>
+        <v>217.9954243943679</v>
       </c>
       <c r="C473" t="n">
-        <v>220.8621181746332</v>
+        <v>220.8620875715453</v>
       </c>
       <c r="D473" t="n">
-        <v>217.9954546002453</v>
+        <v>217.9954243943679</v>
       </c>
       <c r="E473" t="n">
-        <v>220.2449951171875</v>
+        <v>220.2449645996094</v>
       </c>
       <c r="F473" t="n">
         <v>44155300</v>
@@ -12763,16 +12763,16 @@
         <v>45518</v>
       </c>
       <c r="B474" t="n">
-        <v>219.5482197870256</v>
+        <v>219.548234966672</v>
       </c>
       <c r="C474" t="n">
-        <v>221.9968153653892</v>
+        <v>221.9968307143324</v>
       </c>
       <c r="D474" t="n">
-        <v>218.6822397221969</v>
+        <v>218.6822548419691</v>
       </c>
       <c r="E474" t="n">
-        <v>220.6928863525391</v>
+        <v>220.6929016113281</v>
       </c>
       <c r="F474" t="n">
         <v>41960600</v>
@@ -12789,16 +12789,16 @@
         <v>45519</v>
       </c>
       <c r="B475" t="n">
-        <v>223.5595463560131</v>
+        <v>223.5595616066544</v>
       </c>
       <c r="C475" t="n">
-        <v>224.3060719802811</v>
+        <v>224.3060872818483</v>
       </c>
       <c r="D475" t="n">
-        <v>221.7280586148511</v>
+        <v>221.728073740553</v>
       </c>
       <c r="E475" t="n">
-        <v>223.6789855957031</v>
+        <v>223.6790008544922</v>
       </c>
       <c r="F475" t="n">
         <v>46414000</v>
@@ -12841,16 +12841,16 @@
         <v>45523</v>
       </c>
       <c r="B477" t="n">
-        <v>224.6743562399008</v>
+        <v>224.6743714872065</v>
       </c>
       <c r="C477" t="n">
-        <v>224.9431097210682</v>
+        <v>224.9431249866126</v>
       </c>
       <c r="D477" t="n">
-        <v>222.0067634073601</v>
+        <v>222.0067784736323</v>
       </c>
       <c r="E477" t="n">
-        <v>224.8435668945312</v>
+        <v>224.8435821533203</v>
       </c>
       <c r="F477" t="n">
         <v>40687800</v>
@@ -12867,16 +12867,16 @@
         <v>45524</v>
       </c>
       <c r="B478" t="n">
-        <v>224.7241463177854</v>
+        <v>224.7241158999058</v>
       </c>
       <c r="C478" t="n">
-        <v>226.1176548764241</v>
+        <v>226.117624269924</v>
       </c>
       <c r="D478" t="n">
-        <v>224.4056213968942</v>
+        <v>224.405591022129</v>
       </c>
       <c r="E478" t="n">
-        <v>225.4607086181641</v>
+        <v>225.4606781005859</v>
       </c>
       <c r="F478" t="n">
         <v>30299000</v>
@@ -12893,16 +12893,16 @@
         <v>45525</v>
       </c>
       <c r="B479" t="n">
-        <v>225.4706659840429</v>
+        <v>225.4706507171655</v>
       </c>
       <c r="C479" t="n">
-        <v>226.9238941294544</v>
+        <v>226.9238787641772</v>
       </c>
       <c r="D479" t="n">
-        <v>224.0074744425549</v>
+        <v>224.0074592747518</v>
       </c>
       <c r="E479" t="n">
-        <v>225.3512115478516</v>
+        <v>225.3511962890625</v>
       </c>
       <c r="F479" t="n">
         <v>34765500</v>
@@ -12919,16 +12919,16 @@
         <v>45526</v>
       </c>
       <c r="B480" t="n">
-        <v>226.7347453328591</v>
+        <v>226.7347608131935</v>
       </c>
       <c r="C480" t="n">
-        <v>227.2822004693802</v>
+        <v>227.2822159870921</v>
       </c>
       <c r="D480" t="n">
-        <v>222.8627665499764</v>
+        <v>222.862781765951</v>
       </c>
       <c r="E480" t="n">
-        <v>223.4898529052734</v>
+        <v>223.4898681640625</v>
       </c>
       <c r="F480" t="n">
         <v>43695300</v>
@@ -12997,16 +12997,16 @@
         <v>45531</v>
       </c>
       <c r="B483" t="n">
-        <v>224.9530683997657</v>
+        <v>224.9530532768154</v>
       </c>
       <c r="C483" t="n">
-        <v>227.7898720189865</v>
+        <v>227.7898567053261</v>
       </c>
       <c r="D483" t="n">
-        <v>223.8482098014285</v>
+        <v>223.8481947527548</v>
       </c>
       <c r="E483" t="n">
-        <v>226.9736633300781</v>
+        <v>226.9736480712891</v>
       </c>
       <c r="F483" t="n">
         <v>35934600</v>
@@ -13023,16 +13023,16 @@
         <v>45532</v>
       </c>
       <c r="B484" t="n">
-        <v>226.864148811834</v>
+        <v>226.8641641669627</v>
       </c>
       <c r="C484" t="n">
-        <v>228.7951641071056</v>
+        <v>228.7951795929336</v>
       </c>
       <c r="D484" t="n">
-        <v>224.6345202420592</v>
+        <v>224.6345354462772</v>
       </c>
       <c r="E484" t="n">
-        <v>225.4407806396484</v>
+        <v>225.4407958984375</v>
       </c>
       <c r="F484" t="n">
         <v>38052200</v>
@@ -13049,16 +13049,16 @@
         <v>45533</v>
       </c>
       <c r="B485" t="n">
-        <v>229.0340863515214</v>
+        <v>229.0340710721464</v>
       </c>
       <c r="C485" t="n">
-        <v>231.8410150307569</v>
+        <v>231.8409995641255</v>
       </c>
       <c r="D485" t="n">
-        <v>227.8197366882459</v>
+        <v>227.819721489883</v>
       </c>
       <c r="E485" t="n">
-        <v>228.7255096435547</v>
+        <v>228.7254943847656</v>
       </c>
       <c r="F485" t="n">
         <v>51906300</v>
@@ -13075,16 +13075,16 @@
         <v>45534</v>
       </c>
       <c r="B486" t="n">
-        <v>229.1236683308476</v>
+        <v>229.123652992766</v>
       </c>
       <c r="C486" t="n">
-        <v>229.3326870197365</v>
+        <v>229.3326716676627</v>
       </c>
       <c r="D486" t="n">
-        <v>226.4262154749595</v>
+        <v>226.4262003174517</v>
       </c>
       <c r="E486" t="n">
-        <v>227.9391784667969</v>
+        <v>227.9391632080078</v>
       </c>
       <c r="F486" t="n">
         <v>52990800</v>
@@ -13101,16 +13101,16 @@
         <v>45538</v>
       </c>
       <c r="B487" t="n">
-        <v>227.4912604304481</v>
+        <v>227.4912760851423</v>
       </c>
       <c r="C487" t="n">
-        <v>227.9391727978887</v>
+        <v>227.9391884834057</v>
       </c>
       <c r="D487" t="n">
-        <v>220.1454429272487</v>
+        <v>220.1454580764442</v>
       </c>
       <c r="E487" t="n">
-        <v>221.738037109375</v>
+        <v>221.7380523681641</v>
       </c>
       <c r="F487" t="n">
         <v>50190600</v>
@@ -13179,16 +13179,16 @@
         <v>45541</v>
       </c>
       <c r="B490" t="n">
-        <v>222.9125480449781</v>
+        <v>222.9125635200513</v>
       </c>
       <c r="C490" t="n">
-        <v>224.1965806221913</v>
+        <v>224.1965961864048</v>
       </c>
       <c r="D490" t="n">
-        <v>218.7519191953913</v>
+        <v>218.7519343816246</v>
       </c>
       <c r="E490" t="n">
-        <v>219.7970581054688</v>
+        <v>219.7970733642578</v>
       </c>
       <c r="F490" t="n">
         <v>48423000</v>
@@ -13257,16 +13257,16 @@
         <v>45546</v>
       </c>
       <c r="B493" t="n">
-        <v>220.4341020290199</v>
+        <v>220.4340868524661</v>
       </c>
       <c r="C493" t="n">
-        <v>222.0565407908522</v>
+        <v>222.056525502596</v>
       </c>
       <c r="D493" t="n">
-        <v>216.8806326219321</v>
+        <v>216.8806176900293</v>
       </c>
       <c r="E493" t="n">
-        <v>221.6285400390625</v>
+        <v>221.6285247802734</v>
       </c>
       <c r="F493" t="n">
         <v>44587100</v>
@@ -13283,16 +13283,16 @@
         <v>45547</v>
       </c>
       <c r="B494" t="n">
-        <v>221.4692836136691</v>
+        <v>221.4692988539641</v>
       </c>
       <c r="C494" t="n">
-        <v>222.5144225964331</v>
+        <v>222.5144379086487</v>
       </c>
       <c r="D494" t="n">
-        <v>218.8017058249269</v>
+        <v>218.8017208816538</v>
       </c>
       <c r="E494" t="n">
-        <v>221.738037109375</v>
+        <v>221.7380523681641</v>
       </c>
       <c r="F494" t="n">
         <v>37455600</v>
@@ -13309,16 +13309,16 @@
         <v>45548</v>
       </c>
       <c r="B495" t="n">
-        <v>222.5442675216374</v>
+        <v>222.5442828544918</v>
       </c>
       <c r="C495" t="n">
-        <v>223.0021280664009</v>
+        <v>223.0021434308009</v>
       </c>
       <c r="D495" t="n">
-        <v>220.8820056188433</v>
+        <v>220.8820208371711</v>
       </c>
       <c r="E495" t="n">
-        <v>221.4692687988281</v>
+        <v>221.4692840576172</v>
       </c>
       <c r="F495" t="n">
         <v>36766600</v>
@@ -13335,16 +13335,16 @@
         <v>45551</v>
       </c>
       <c r="B496" t="n">
-        <v>215.5368684849391</v>
+        <v>215.5368837592455</v>
       </c>
       <c r="C496" t="n">
-        <v>216.213726272445</v>
+        <v>216.2137415947178</v>
       </c>
       <c r="D496" t="n">
-        <v>212.9290105348456</v>
+        <v>212.9290256243428</v>
       </c>
       <c r="E496" t="n">
-        <v>215.3179016113281</v>
+        <v>215.3179168701172</v>
       </c>
       <c r="F496" t="n">
         <v>59357400</v>
@@ -13361,16 +13361,16 @@
         <v>45552</v>
       </c>
       <c r="B497" t="n">
-        <v>214.7505300879131</v>
+        <v>214.7505452735021</v>
       </c>
       <c r="C497" t="n">
-        <v>215.8951965948326</v>
+        <v>215.8952118613641</v>
       </c>
       <c r="D497" t="n">
-        <v>213.5063207594779</v>
+        <v>213.5063358570856</v>
       </c>
       <c r="E497" t="n">
-        <v>215.7857055664062</v>
+        <v>215.7857208251953</v>
       </c>
       <c r="F497" t="n">
         <v>45519300</v>
@@ -13491,16 +13491,16 @@
         <v>45559</v>
       </c>
       <c r="B502" t="n">
-        <v>227.5907806547056</v>
+        <v>227.5907959993953</v>
       </c>
       <c r="C502" t="n">
-        <v>228.2875500792357</v>
+        <v>228.2875654709032</v>
       </c>
       <c r="D502" t="n">
-        <v>224.6843092769655</v>
+        <v>224.6843244256943</v>
       </c>
       <c r="E502" t="n">
-        <v>226.3167114257812</v>
+        <v>226.3167266845703</v>
       </c>
       <c r="F502" t="n">
         <v>43556100</v>
@@ -13517,16 +13517,16 @@
         <v>45560</v>
       </c>
       <c r="B503" t="n">
-        <v>223.888018378611</v>
+        <v>223.8880032168873</v>
       </c>
       <c r="C503" t="n">
-        <v>226.2370864319121</v>
+        <v>226.2370711111093</v>
       </c>
       <c r="D503" t="n">
-        <v>222.9822454403592</v>
+        <v>222.9822303399746</v>
       </c>
       <c r="E503" t="n">
-        <v>225.3213500976562</v>
+        <v>225.3213348388672</v>
       </c>
       <c r="F503" t="n">
         <v>42308700</v>
@@ -13543,16 +13543,16 @@
         <v>45561</v>
       </c>
       <c r="B504" t="n">
-        <v>226.2470366109127</v>
+        <v>226.2470518549472</v>
       </c>
       <c r="C504" t="n">
-        <v>227.4414745776386</v>
+        <v>227.4414899021518</v>
       </c>
       <c r="D504" t="n">
-        <v>224.3657926365912</v>
+        <v>224.3658077538716</v>
       </c>
       <c r="E504" t="n">
-        <v>226.4660186767578</v>
+        <v>226.4660339355469</v>
       </c>
       <c r="F504" t="n">
         <v>36636700</v>
@@ -13595,16 +13595,16 @@
         <v>45565</v>
       </c>
       <c r="B506" t="n">
-        <v>228.9743293437991</v>
+        <v>228.9743594736852</v>
       </c>
       <c r="C506" t="n">
-        <v>231.9206237792969</v>
+        <v>231.920654296875</v>
       </c>
       <c r="D506" t="n">
-        <v>228.586136632551</v>
+        <v>228.5861667113562</v>
       </c>
       <c r="E506" t="n">
-        <v>231.9206237792969</v>
+        <v>231.920654296875</v>
       </c>
       <c r="F506" t="n">
         <v>54541900</v>
@@ -13621,16 +13621,16 @@
         <v>45566</v>
       </c>
       <c r="B507" t="n">
-        <v>228.4567427059963</v>
+        <v>228.4567581880582</v>
       </c>
       <c r="C507" t="n">
-        <v>228.5861301473398</v>
+        <v>228.5861456381701</v>
       </c>
       <c r="D507" t="n">
-        <v>222.703520026568</v>
+        <v>222.7035351187454</v>
       </c>
       <c r="E507" t="n">
-        <v>225.1620788574219</v>
+        <v>225.1620941162109</v>
       </c>
       <c r="F507" t="n">
         <v>63285000</v>
@@ -13725,16 +13725,16 @@
         <v>45572</v>
       </c>
       <c r="B511" t="n">
-        <v>223.4600360693569</v>
+        <v>223.4600051649579</v>
       </c>
       <c r="C511" t="n">
-        <v>224.6445259957679</v>
+        <v>224.6444949275546</v>
       </c>
       <c r="D511" t="n">
-        <v>220.3047224605715</v>
+        <v>220.3046919925507</v>
       </c>
       <c r="E511" t="n">
-        <v>220.6630554199219</v>
+        <v>220.6630249023438</v>
       </c>
       <c r="F511" t="n">
         <v>39505400</v>
@@ -13777,16 +13777,16 @@
         <v>45574</v>
       </c>
       <c r="B513" t="n">
-        <v>224.1866374402548</v>
+        <v>224.186622467975</v>
       </c>
       <c r="C513" t="n">
-        <v>228.6857031876272</v>
+        <v>228.6856879148778</v>
       </c>
       <c r="D513" t="n">
-        <v>223.7884964805669</v>
+        <v>223.788481534877</v>
       </c>
       <c r="E513" t="n">
-        <v>228.4766693115234</v>
+        <v>228.4766540527344</v>
       </c>
       <c r="F513" t="n">
         <v>33591100</v>
@@ -13881,16 +13881,16 @@
         <v>45580</v>
       </c>
       <c r="B517" t="n">
-        <v>232.527799450427</v>
+        <v>232.5278146935557</v>
       </c>
       <c r="C517" t="n">
-        <v>236.3898301635819</v>
+        <v>236.3898456598821</v>
       </c>
       <c r="D517" t="n">
-        <v>231.2935382977429</v>
+        <v>231.2935534599607</v>
       </c>
       <c r="E517" t="n">
-        <v>232.7666931152344</v>
+        <v>232.7667083740234</v>
       </c>
       <c r="F517" t="n">
         <v>64751400</v>
@@ -13907,16 +13907,16 @@
         <v>45581</v>
       </c>
       <c r="B518" t="n">
-        <v>230.5271247052497</v>
+        <v>230.5271094583102</v>
       </c>
       <c r="C518" t="n">
-        <v>231.0447048824563</v>
+        <v>231.0446896012842</v>
       </c>
       <c r="D518" t="n">
-        <v>228.7752681420796</v>
+        <v>228.7752530110069</v>
       </c>
       <c r="E518" t="n">
-        <v>230.7062835693359</v>
+        <v>230.7062683105469</v>
       </c>
       <c r="F518" t="n">
         <v>34082200</v>
@@ -13959,16 +13959,16 @@
         <v>45583</v>
       </c>
       <c r="B520" t="n">
-        <v>235.0859033854084</v>
+        <v>235.0858880500012</v>
       </c>
       <c r="C520" t="n">
-        <v>235.0859033854084</v>
+        <v>235.0858880500012</v>
       </c>
       <c r="D520" t="n">
-        <v>232.92595759952</v>
+        <v>232.925942405013</v>
       </c>
       <c r="E520" t="n">
-        <v>233.911376953125</v>
+        <v>233.9113616943359</v>
       </c>
       <c r="F520" t="n">
         <v>46431500</v>
@@ -13985,16 +13985,16 @@
         <v>45586</v>
       </c>
       <c r="B521" t="n">
-        <v>233.3639265084296</v>
+        <v>233.3639113806255</v>
       </c>
       <c r="C521" t="n">
-        <v>235.7528178175407</v>
+        <v>235.7528025348768</v>
       </c>
       <c r="D521" t="n">
-        <v>233.3639265084296</v>
+        <v>233.3639113806255</v>
       </c>
       <c r="E521" t="n">
-        <v>235.384521484375</v>
+        <v>235.3845062255859</v>
       </c>
       <c r="F521" t="n">
         <v>36254500</v>
@@ -14037,16 +14037,16 @@
         <v>45588</v>
       </c>
       <c r="B523" t="n">
-        <v>232.9956370655622</v>
+        <v>232.9956215872407</v>
       </c>
       <c r="C523" t="n">
-        <v>234.0507242345666</v>
+        <v>234.0507086861539</v>
       </c>
       <c r="D523" t="n">
-        <v>226.7049068825192</v>
+        <v>226.7048918221024</v>
       </c>
       <c r="E523" t="n">
-        <v>229.6910095214844</v>
+        <v>229.6909942626953</v>
       </c>
       <c r="F523" t="n">
         <v>52287000</v>
@@ -14089,16 +14089,16 @@
         <v>45590</v>
       </c>
       <c r="B525" t="n">
-        <v>228.6757355296476</v>
+        <v>228.6757506783198</v>
       </c>
       <c r="C525" t="n">
-        <v>232.1396101862481</v>
+        <v>232.1396255643854</v>
       </c>
       <c r="D525" t="n">
-        <v>228.5065248767671</v>
+        <v>228.5065400142299</v>
       </c>
       <c r="E525" t="n">
-        <v>230.3379974365234</v>
+        <v>230.3380126953125</v>
       </c>
       <c r="F525" t="n">
         <v>38802300</v>
@@ -14115,16 +14115,16 @@
         <v>45593</v>
       </c>
       <c r="B526" t="n">
-        <v>232.2391705803882</v>
+        <v>232.2391553268284</v>
       </c>
       <c r="C526" t="n">
-        <v>233.6426273223557</v>
+        <v>233.6426119766163</v>
       </c>
       <c r="D526" t="n">
-        <v>231.4727332926884</v>
+        <v>231.4727180894684</v>
       </c>
       <c r="E526" t="n">
-        <v>232.3187866210938</v>
+        <v>232.3187713623047</v>
       </c>
       <c r="F526" t="n">
         <v>36087100</v>
@@ -14141,16 +14141,16 @@
         <v>45594</v>
       </c>
       <c r="B527" t="n">
-        <v>232.0201880523175</v>
+        <v>232.0201728307493</v>
       </c>
       <c r="C527" t="n">
-        <v>233.244485918189</v>
+        <v>233.2444706163013</v>
       </c>
       <c r="D527" t="n">
-        <v>231.2438025580474</v>
+        <v>231.2437873874136</v>
       </c>
       <c r="E527" t="n">
-        <v>232.5875396728516</v>
+        <v>232.5875244140625</v>
       </c>
       <c r="F527" t="n">
         <v>35417200</v>
@@ -14219,16 +14219,16 @@
         <v>45597</v>
       </c>
       <c r="B530" t="n">
-        <v>219.9463649274566</v>
+        <v>219.9463498014659</v>
       </c>
       <c r="C530" t="n">
-        <v>224.3060795811073</v>
+        <v>224.3060641552936</v>
       </c>
       <c r="D530" t="n">
-        <v>219.2496106921502</v>
+        <v>219.2495956140762</v>
       </c>
       <c r="E530" t="n">
-        <v>221.8773803710938</v>
+        <v>221.8773651123047</v>
       </c>
       <c r="F530" t="n">
         <v>65276700</v>
@@ -14427,16 +14427,16 @@
         <v>45609</v>
       </c>
       <c r="B538" t="n">
-        <v>223.2175952714209</v>
+        <v>223.2175800878685</v>
       </c>
       <c r="C538" t="n">
-        <v>225.8482560889112</v>
+        <v>225.8482407264178</v>
       </c>
       <c r="D538" t="n">
-        <v>221.9720169448666</v>
+        <v>221.97200184604</v>
       </c>
       <c r="E538" t="n">
-        <v>224.3236694335938</v>
+        <v>224.3236541748047</v>
       </c>
       <c r="F538" t="n">
         <v>48566200</v>
@@ -14479,16 +14479,16 @@
         <v>45611</v>
       </c>
       <c r="B540" t="n">
-        <v>225.5991278698978</v>
+        <v>225.5991432236301</v>
       </c>
       <c r="C540" t="n">
-        <v>226.1172926822584</v>
+        <v>226.1173080712557</v>
       </c>
       <c r="D540" t="n">
-        <v>223.4766728588287</v>
+        <v>223.4766880681117</v>
       </c>
       <c r="E540" t="n">
-        <v>224.2040863037109</v>
+        <v>224.2041015625</v>
       </c>
       <c r="F540" t="n">
         <v>47923700</v>
@@ -14505,16 +14505,16 @@
         <v>45614</v>
       </c>
       <c r="B541" t="n">
-        <v>224.4532037266457</v>
+        <v>224.4532188000698</v>
       </c>
       <c r="C541" t="n">
-        <v>228.9273263357063</v>
+        <v>228.9273417095955</v>
       </c>
       <c r="D541" t="n">
-        <v>224.3734848929754</v>
+        <v>224.3734999610459</v>
       </c>
       <c r="E541" t="n">
-        <v>227.2134094238281</v>
+        <v>227.2134246826172</v>
       </c>
       <c r="F541" t="n">
         <v>44633700</v>
@@ -14531,16 +14531,16 @@
         <v>45615</v>
       </c>
       <c r="B542" t="n">
-        <v>226.1770839408332</v>
+        <v>226.1770687689395</v>
       </c>
       <c r="C542" t="n">
-        <v>229.3458430169113</v>
+        <v>229.3458276324582</v>
       </c>
       <c r="D542" t="n">
-        <v>225.8582238051146</v>
+        <v>225.8582086546099</v>
       </c>
       <c r="E542" t="n">
-        <v>227.4724884033203</v>
+        <v>227.4724731445312</v>
       </c>
       <c r="F542" t="n">
         <v>36211800</v>
@@ -14557,16 +14557,16 @@
         <v>45616</v>
       </c>
       <c r="B543" t="n">
-        <v>227.2532641048254</v>
+        <v>227.25327930098</v>
       </c>
       <c r="C543" t="n">
-        <v>229.1166443503319</v>
+        <v>229.1166596710885</v>
       </c>
       <c r="D543" t="n">
-        <v>225.0909420304879</v>
+        <v>225.0909570820506</v>
       </c>
       <c r="E543" t="n">
-        <v>228.18994140625</v>
+        <v>228.1899566650391</v>
       </c>
       <c r="F543" t="n">
         <v>35169600</v>
@@ -14583,16 +14583,16 @@
         <v>45617</v>
       </c>
       <c r="B544" t="n">
-        <v>228.0703665513171</v>
+        <v>228.0703818341442</v>
       </c>
       <c r="C544" t="n">
-        <v>229.345837472986</v>
+        <v>229.3458528412815</v>
       </c>
       <c r="D544" t="n">
-        <v>224.9115819089953</v>
+        <v>224.9115969801546</v>
       </c>
       <c r="E544" t="n">
-        <v>227.7116394042969</v>
+        <v>227.7116546630859</v>
       </c>
       <c r="F544" t="n">
         <v>42108300</v>
@@ -14661,16 +14661,16 @@
         <v>45622</v>
       </c>
       <c r="B547" t="n">
-        <v>232.5046242958029</v>
+        <v>232.5046394422903</v>
       </c>
       <c r="C547" t="n">
-        <v>234.7367060320631</v>
+        <v>234.7367213239591</v>
       </c>
       <c r="D547" t="n">
-        <v>232.5046242958029</v>
+        <v>232.5046394422903</v>
       </c>
       <c r="E547" t="n">
-        <v>234.2285003662109</v>
+        <v>234.228515625</v>
       </c>
       <c r="F547" t="n">
         <v>45986200</v>
@@ -14687,16 +14687,16 @@
         <v>45623</v>
       </c>
       <c r="B548" t="n">
-        <v>233.640604190904</v>
+        <v>233.6405889619916</v>
       </c>
       <c r="C548" t="n">
-        <v>234.8562898685375</v>
+        <v>234.8562745603856</v>
       </c>
       <c r="D548" t="n">
-        <v>232.9829351774668</v>
+        <v>232.9829199914219</v>
       </c>
       <c r="E548" t="n">
-        <v>234.0989685058594</v>
+        <v>234.0989532470703</v>
       </c>
       <c r="F548" t="n">
         <v>33498400</v>
@@ -14713,16 +14713,16 @@
         <v>45625</v>
       </c>
       <c r="B549" t="n">
-        <v>233.979388423105</v>
+        <v>233.9794035198741</v>
       </c>
       <c r="C549" t="n">
-        <v>236.9687763221197</v>
+        <v>236.9687916117694</v>
       </c>
       <c r="D549" t="n">
-        <v>233.1423634605361</v>
+        <v>233.1423785032988</v>
       </c>
       <c r="E549" t="n">
-        <v>236.490478515625</v>
+        <v>236.4904937744141</v>
       </c>
       <c r="F549" t="n">
         <v>28481400</v>
@@ -14817,16 +14817,16 @@
         <v>45631</v>
       </c>
       <c r="B553" t="n">
-        <v>243.1269189823759</v>
+        <v>243.1269343008096</v>
       </c>
       <c r="C553" t="n">
-        <v>243.6749612569442</v>
+        <v>243.6749766099078</v>
       </c>
       <c r="D553" t="n">
-        <v>241.2734979097132</v>
+        <v>241.2735131113704</v>
       </c>
       <c r="E553" t="n">
-        <v>242.1802673339844</v>
+        <v>242.1802825927734</v>
       </c>
       <c r="F553" t="n">
         <v>40033900</v>
@@ -14843,16 +14843,16 @@
         <v>45632</v>
       </c>
       <c r="B554" t="n">
-        <v>242.0507319698173</v>
+        <v>242.0507472330053</v>
       </c>
       <c r="C554" t="n">
-        <v>243.7646488451358</v>
+        <v>243.7646642163996</v>
       </c>
       <c r="D554" t="n">
-        <v>241.2236661935451</v>
+        <v>241.2236814045801</v>
       </c>
       <c r="E554" t="n">
-        <v>241.9809722900391</v>
+        <v>241.9809875488281</v>
       </c>
       <c r="F554" t="n">
         <v>36870600</v>
@@ -14895,16 +14895,16 @@
         <v>45636</v>
       </c>
       <c r="B556" t="n">
-        <v>246.0166626912396</v>
+        <v>246.0166474866452</v>
       </c>
       <c r="C556" t="n">
-        <v>247.3320006856302</v>
+        <v>247.3319853997438</v>
       </c>
       <c r="D556" t="n">
-        <v>244.4721425450312</v>
+        <v>244.4721274358929</v>
       </c>
       <c r="E556" t="n">
-        <v>246.8935546875</v>
+        <v>246.8935394287109</v>
       </c>
       <c r="F556" t="n">
         <v>36914800</v>
@@ -14921,16 +14921,16 @@
         <v>45637</v>
       </c>
       <c r="B557" t="n">
-        <v>247.0828737526952</v>
+        <v>247.0828891024836</v>
       </c>
       <c r="C557" t="n">
-        <v>249.9128238963201</v>
+        <v>249.9128394219165</v>
       </c>
       <c r="D557" t="n">
-        <v>245.3888751635895</v>
+        <v>245.3888904081398</v>
       </c>
       <c r="E557" t="n">
-        <v>245.6180725097656</v>
+        <v>245.6180877685547</v>
       </c>
       <c r="F557" t="n">
         <v>45205800</v>
@@ -14947,16 +14947,16 @@
         <v>45638</v>
       </c>
       <c r="B558" t="n">
-        <v>246.0166634068319</v>
+        <v>246.0166482138882</v>
       </c>
       <c r="C558" t="n">
-        <v>247.8601253939288</v>
+        <v>247.8601100871407</v>
       </c>
       <c r="D558" t="n">
-        <v>244.8109369084667</v>
+        <v>244.8109217899835</v>
       </c>
       <c r="E558" t="n">
-        <v>247.0828857421875</v>
+        <v>247.0828704833984</v>
       </c>
       <c r="F558" t="n">
         <v>32777500</v>
@@ -14973,16 +14973,16 @@
         <v>45639</v>
       </c>
       <c r="B559" t="n">
-        <v>246.9433725816478</v>
+        <v>246.9433878213735</v>
       </c>
       <c r="C559" t="n">
-        <v>248.4081586374719</v>
+        <v>248.4081739675946</v>
       </c>
       <c r="D559" t="n">
-        <v>245.3689598251532</v>
+        <v>245.3689749677165</v>
       </c>
       <c r="E559" t="n">
-        <v>247.2522735595703</v>
+        <v>247.2522888183594</v>
       </c>
       <c r="F559" t="n">
         <v>33155300</v>
@@ -15077,16 +15077,16 @@
         <v>45645</v>
       </c>
       <c r="B563" t="n">
-        <v>246.6245097734382</v>
+        <v>246.6244946545368</v>
       </c>
       <c r="C563" t="n">
-        <v>251.1085917693189</v>
+        <v>251.1085763755283</v>
       </c>
       <c r="D563" t="n">
-        <v>246.2159564313249</v>
+        <v>246.2159413374691</v>
       </c>
       <c r="E563" t="n">
-        <v>248.9064025878906</v>
+        <v>248.9063873291016</v>
       </c>
       <c r="F563" t="n">
         <v>60882300</v>
@@ -15103,16 +15103,16 @@
         <v>45646</v>
       </c>
       <c r="B564" t="n">
-        <v>247.1626013953669</v>
+        <v>247.1625716512524</v>
       </c>
       <c r="C564" t="n">
-        <v>254.0979884768534</v>
+        <v>254.0979578981185</v>
       </c>
       <c r="D564" t="n">
-        <v>244.8209231734688</v>
+        <v>244.8208937111572</v>
       </c>
       <c r="E564" t="n">
-        <v>253.5897979736328</v>
+        <v>253.5897674560547</v>
       </c>
       <c r="F564" t="n">
         <v>147495300</v>
@@ -15129,16 +15129,16 @@
         <v>45649</v>
       </c>
       <c r="B565" t="n">
-        <v>253.8688035675433</v>
+        <v>253.8687731097403</v>
       </c>
       <c r="C565" t="n">
-        <v>254.7456803947061</v>
+        <v>254.7456498317001</v>
       </c>
       <c r="D565" t="n">
-        <v>252.5534655195782</v>
+        <v>252.5534352195823</v>
       </c>
       <c r="E565" t="n">
-        <v>254.3670349121094</v>
+        <v>254.3670043945312</v>
       </c>
       <c r="F565" t="n">
         <v>40858800</v>
@@ -15207,16 +15207,16 @@
         <v>45653</v>
       </c>
       <c r="B568" t="n">
-        <v>256.917949151404</v>
+        <v>256.9179337588869</v>
       </c>
       <c r="C568" t="n">
-        <v>257.7848971924942</v>
+        <v>257.7848817480364</v>
       </c>
       <c r="D568" t="n">
-        <v>252.1648333049514</v>
+        <v>252.1648181972039</v>
       </c>
       <c r="E568" t="n">
-        <v>254.6858825683594</v>
+        <v>254.6858673095703</v>
       </c>
       <c r="F568" t="n">
         <v>42355300</v>
@@ -15363,16 +15363,16 @@
         <v>45664</v>
       </c>
       <c r="B574" t="n">
-        <v>242.1204910028268</v>
+        <v>242.1204756955299</v>
       </c>
       <c r="C574" t="n">
-        <v>244.681407317594</v>
+        <v>244.6813918483913</v>
       </c>
       <c r="D574" t="n">
-        <v>240.496267218822</v>
+        <v>240.4962520142114</v>
       </c>
       <c r="E574" t="n">
-        <v>241.3532257080078</v>
+        <v>241.3532104492188</v>
       </c>
       <c r="F574" t="n">
         <v>40856000</v>
@@ -15389,16 +15389,16 @@
         <v>45665</v>
       </c>
       <c r="B575" t="n">
-        <v>241.064221598299</v>
+        <v>241.0642368080488</v>
       </c>
       <c r="C575" t="n">
-        <v>242.8478981021098</v>
+        <v>242.8479134243992</v>
       </c>
       <c r="D575" t="n">
-        <v>239.2008414696227</v>
+        <v>239.200856561804</v>
       </c>
       <c r="E575" t="n">
-        <v>241.8414611816406</v>
+        <v>241.8414764404297</v>
       </c>
       <c r="F575" t="n">
         <v>37628900</v>
@@ -15415,16 +15415,16 @@
         <v>45667</v>
       </c>
       <c r="B576" t="n">
-        <v>239.1609868223346</v>
+        <v>239.1610022847023</v>
       </c>
       <c r="C576" t="n">
-        <v>239.3104653375161</v>
+        <v>239.3104808095479</v>
       </c>
       <c r="D576" t="n">
-        <v>232.1757893628752</v>
+        <v>232.175804373632</v>
       </c>
       <c r="E576" t="n">
-        <v>236.0121765136719</v>
+        <v>236.0121917724609</v>
       </c>
       <c r="F576" t="n">
         <v>61710900</v>
@@ -15493,16 +15493,16 @@
         <v>45672</v>
       </c>
       <c r="B579" t="n">
-        <v>233.8099793161749</v>
+        <v>233.8099943677675</v>
       </c>
       <c r="C579" t="n">
-        <v>238.1147049629049</v>
+        <v>238.1147202916155</v>
       </c>
       <c r="D579" t="n">
-        <v>233.6007154841204</v>
+        <v>233.6007305222416</v>
       </c>
       <c r="E579" t="n">
-        <v>237.0285491943359</v>
+        <v>237.028564453125</v>
       </c>
       <c r="F579" t="n">
         <v>39832000</v>
@@ -15597,16 +15597,16 @@
         <v>45679</v>
       </c>
       <c r="B583" t="n">
-        <v>219.0125058897086</v>
+        <v>219.0125208730849</v>
       </c>
       <c r="C583" t="n">
-        <v>223.3271907274834</v>
+        <v>223.3272060060417</v>
       </c>
       <c r="D583" t="n">
-        <v>219.0125058897086</v>
+        <v>219.0125208730849</v>
       </c>
       <c r="E583" t="n">
-        <v>223.0382232666016</v>
+        <v>223.0382385253906</v>
       </c>
       <c r="F583" t="n">
         <v>64126500</v>
@@ -15623,16 +15623,16 @@
         <v>45680</v>
       </c>
       <c r="B584" t="n">
-        <v>223.9450322465422</v>
+        <v>223.945016914072</v>
       </c>
       <c r="C584" t="n">
-        <v>226.2269251350915</v>
+        <v>226.2269096463908</v>
       </c>
       <c r="D584" t="n">
-        <v>221.5136608303883</v>
+        <v>221.5136456643827</v>
       </c>
       <c r="E584" t="n">
-        <v>222.8688507080078</v>
+        <v>222.8688354492188</v>
       </c>
       <c r="F584" t="n">
         <v>60234800</v>
@@ -15675,16 +15675,16 @@
         <v>45684</v>
       </c>
       <c r="B586" t="n">
-        <v>223.2275524150376</v>
+        <v>223.2275672861503</v>
       </c>
       <c r="C586" t="n">
-        <v>231.3287828869517</v>
+        <v>231.3287982977573</v>
       </c>
       <c r="D586" t="n">
-        <v>223.1876853969666</v>
+        <v>223.1877002654234</v>
       </c>
       <c r="E586" t="n">
-        <v>229.0468902587891</v>
+        <v>229.0469055175781</v>
       </c>
       <c r="F586" t="n">
         <v>94863400</v>
@@ -15727,16 +15727,16 @@
         <v>45686</v>
       </c>
       <c r="B588" t="n">
-        <v>233.2918357915463</v>
+        <v>233.2918208667986</v>
       </c>
       <c r="C588" t="n">
-        <v>239.0115369998243</v>
+        <v>239.0115217091611</v>
       </c>
       <c r="D588" t="n">
-        <v>233.1822242894862</v>
+        <v>233.1822093717508</v>
       </c>
       <c r="E588" t="n">
-        <v>238.5133056640625</v>
+        <v>238.5132904052734</v>
       </c>
       <c r="F588" t="n">
         <v>45486100</v>
@@ -15753,16 +15753,16 @@
         <v>45687</v>
       </c>
       <c r="B589" t="n">
-        <v>237.825723654139</v>
+        <v>237.8257389822892</v>
       </c>
       <c r="C589" t="n">
-        <v>239.9382194716127</v>
+        <v>239.9382349359158</v>
       </c>
       <c r="D589" t="n">
-        <v>236.3708967927962</v>
+        <v>236.3709120271811</v>
       </c>
       <c r="E589" t="n">
-        <v>236.7495422363281</v>
+        <v>236.7495574951172</v>
       </c>
       <c r="F589" t="n">
         <v>55658300</v>
@@ -15831,16 +15831,16 @@
         <v>45692</v>
       </c>
       <c r="B592" t="n">
-        <v>226.44613087125</v>
+        <v>226.4461457662662</v>
       </c>
       <c r="C592" t="n">
-        <v>232.3053359547129</v>
+        <v>232.3053512351318</v>
       </c>
       <c r="D592" t="n">
-        <v>225.8482472160674</v>
+        <v>225.8482620717564</v>
       </c>
       <c r="E592" t="n">
-        <v>231.9765014648438</v>
+        <v>231.9765167236328</v>
       </c>
       <c r="F592" t="n">
         <v>45067300</v>
@@ -15857,16 +15857,16 @@
         <v>45693</v>
       </c>
       <c r="B593" t="n">
-        <v>227.7216092681561</v>
+        <v>227.7215942679796</v>
       </c>
       <c r="C593" t="n">
-        <v>231.8469640505294</v>
+        <v>231.846948778613</v>
       </c>
       <c r="D593" t="n">
-        <v>227.4625344516602</v>
+        <v>227.4625194685491</v>
       </c>
       <c r="E593" t="n">
-        <v>231.6476745605469</v>
+        <v>231.6476593017578</v>
       </c>
       <c r="F593" t="n">
         <v>39620300</v>
@@ -15909,16 +15909,16 @@
         <v>45695</v>
       </c>
       <c r="B595" t="n">
-        <v>231.7772035941854</v>
+        <v>231.77721918613</v>
       </c>
       <c r="C595" t="n">
-        <v>233.1722451327125</v>
+        <v>233.1722608185033</v>
       </c>
       <c r="D595" t="n">
-        <v>226.4560818290891</v>
+        <v>226.4560970630751</v>
       </c>
       <c r="E595" t="n">
-        <v>226.8247833251953</v>
+        <v>226.8247985839844</v>
       </c>
       <c r="F595" t="n">
         <v>39707200</v>
@@ -15961,16 +15961,16 @@
         <v>45699</v>
       </c>
       <c r="B597" t="n">
-        <v>227.6427961872311</v>
+        <v>227.6427812183734</v>
       </c>
       <c r="C597" t="n">
-        <v>234.6556296697615</v>
+        <v>234.6556142397685</v>
       </c>
       <c r="D597" t="n">
-        <v>227.5729750229086</v>
+        <v>227.5729600586419</v>
       </c>
       <c r="E597" t="n">
-        <v>232.052001953125</v>
+        <v>232.0519866943359</v>
       </c>
       <c r="F597" t="n">
         <v>53718400</v>
@@ -16013,16 +16013,16 @@
         <v>45701</v>
       </c>
       <c r="B599" t="n">
-        <v>236.3315322675825</v>
+        <v>236.3315173006641</v>
       </c>
       <c r="C599" t="n">
-        <v>241.7482663414184</v>
+        <v>241.7482510314573</v>
       </c>
       <c r="D599" t="n">
-        <v>234.9948078453487</v>
+        <v>234.9947929630853</v>
       </c>
       <c r="E599" t="n">
-        <v>240.9402465820312</v>
+        <v>240.9402313232422</v>
       </c>
       <c r="F599" t="n">
         <v>53614100</v>
@@ -16117,16 +16117,16 @@
         <v>45708</v>
       </c>
       <c r="B603" t="n">
-        <v>244.3419101310375</v>
+        <v>244.3419253345839</v>
       </c>
       <c r="C603" t="n">
-        <v>246.1774135823035</v>
+        <v>246.1774289000594</v>
       </c>
       <c r="D603" t="n">
-        <v>243.6934881623141</v>
+        <v>243.6935033255141</v>
       </c>
       <c r="E603" t="n">
-        <v>245.229736328125</v>
+        <v>245.2297515869141</v>
       </c>
       <c r="F603" t="n">
         <v>32316900</v>
@@ -16221,16 +16221,16 @@
         <v>45714</v>
       </c>
       <c r="B607" t="n">
-        <v>243.7333937698084</v>
+        <v>243.7334092806253</v>
       </c>
       <c r="C607" t="n">
-        <v>244.3818005030484</v>
+        <v>244.3818160551289</v>
       </c>
       <c r="D607" t="n">
-        <v>238.5460942392985</v>
+        <v>238.5461094200037</v>
       </c>
       <c r="E607" t="n">
-        <v>239.7730865478516</v>
+        <v>239.7731018066406</v>
       </c>
       <c r="F607" t="n">
         <v>44433600</v>
@@ -16455,16 +16455,16 @@
         <v>45727</v>
       </c>
       <c r="B616" t="n">
-        <v>223.2635152882841</v>
+        <v>223.2634998242848</v>
       </c>
       <c r="C616" t="n">
-        <v>225.2885573705892</v>
+        <v>225.2885417663285</v>
       </c>
       <c r="D616" t="n">
-        <v>216.9190440448537</v>
+        <v>216.9190290202944</v>
       </c>
       <c r="E616" t="n">
-        <v>220.3007659912109</v>
+        <v>220.3007507324219</v>
       </c>
       <c r="F616" t="n">
         <v>76137400</v>
@@ -16507,16 +16507,16 @@
         <v>45729</v>
       </c>
       <c r="B618" t="n">
-        <v>215.4227092543014</v>
+        <v>215.4226935392329</v>
       </c>
       <c r="C618" t="n">
-        <v>216.3105355217808</v>
+        <v>216.3105197419454</v>
       </c>
       <c r="D618" t="n">
-        <v>207.9110965632093</v>
+        <v>207.9110813961123</v>
       </c>
       <c r="E618" t="n">
-        <v>209.1680145263672</v>
+        <v>209.1679992675781</v>
       </c>
       <c r="F618" t="n">
         <v>61368300</v>
@@ -16533,16 +16533,16 @@
         <v>45730</v>
       </c>
       <c r="B619" t="n">
-        <v>210.7341834889886</v>
+        <v>210.7341683902996</v>
       </c>
       <c r="C619" t="n">
-        <v>213.4275877602813</v>
+        <v>213.4275724686152</v>
       </c>
       <c r="D619" t="n">
-        <v>209.0682630129612</v>
+        <v>209.0682480336321</v>
       </c>
       <c r="E619" t="n">
-        <v>212.9687194824219</v>
+        <v>212.9687042236328</v>
       </c>
       <c r="F619" t="n">
         <v>60107600</v>
@@ -16585,16 +16585,16 @@
         <v>45734</v>
       </c>
       <c r="B621" t="n">
-        <v>213.6370660568716</v>
+        <v>213.6370814211214</v>
       </c>
       <c r="C621" t="n">
-        <v>214.6246389251954</v>
+        <v>214.624654360469</v>
       </c>
       <c r="D621" t="n">
-        <v>210.9735875107531</v>
+        <v>210.973602683452</v>
       </c>
       <c r="E621" t="n">
-        <v>212.170654296875</v>
+        <v>212.1706695556641</v>
       </c>
       <c r="F621" t="n">
         <v>42432400</v>
@@ -16663,16 +16663,16 @@
         <v>45737</v>
       </c>
       <c r="B624" t="n">
-        <v>211.0434078881146</v>
+        <v>211.0434226778215</v>
       </c>
       <c r="C624" t="n">
-        <v>218.3056302814506</v>
+        <v>218.3056455800866</v>
       </c>
       <c r="D624" t="n">
-        <v>210.764092813104</v>
+        <v>210.7641075832368</v>
       </c>
       <c r="E624" t="n">
-        <v>217.7370300292969</v>
+        <v>217.7370452880859</v>
       </c>
       <c r="F624" t="n">
         <v>94127800</v>
@@ -16741,16 +16741,16 @@
         <v>45742</v>
       </c>
       <c r="B627" t="n">
-        <v>222.9642203562523</v>
+        <v>222.9642357514217</v>
       </c>
       <c r="C627" t="n">
-        <v>224.4705429297273</v>
+        <v>224.4705584289048</v>
       </c>
       <c r="D627" t="n">
-        <v>219.9316502269997</v>
+        <v>219.9316654127771</v>
       </c>
       <c r="E627" t="n">
-        <v>220.9890594482422</v>
+        <v>220.9890747070312</v>
       </c>
       <c r="F627" t="n">
         <v>34466100</v>
@@ -16767,16 +16767,16 @@
         <v>45743</v>
       </c>
       <c r="B628" t="n">
-        <v>220.8494059295757</v>
+        <v>220.8494210206779</v>
       </c>
       <c r="C628" t="n">
-        <v>224.4406214835582</v>
+        <v>224.4406368200556</v>
       </c>
       <c r="D628" t="n">
-        <v>220.0214308095873</v>
+        <v>220.0214458441122</v>
       </c>
       <c r="E628" t="n">
-        <v>223.3034057617188</v>
+        <v>223.3034210205078</v>
       </c>
       <c r="F628" t="n">
         <v>37094800</v>
@@ -16845,16 +16845,16 @@
         <v>45748</v>
       </c>
       <c r="B631" t="n">
-        <v>219.2732679074421</v>
+        <v>219.273282935151</v>
       </c>
       <c r="C631" t="n">
-        <v>223.1338133128227</v>
+        <v>223.1338286051108</v>
       </c>
       <c r="D631" t="n">
-        <v>218.3654862823353</v>
+        <v>218.3655012478301</v>
       </c>
       <c r="E631" t="n">
-        <v>222.64501953125</v>
+        <v>222.6450347900391</v>
       </c>
       <c r="F631" t="n">
         <v>36412700</v>
@@ -16871,16 +16871,16 @@
         <v>45749</v>
       </c>
       <c r="B632" t="n">
-        <v>220.7795908052514</v>
+        <v>220.7796058888877</v>
       </c>
       <c r="C632" t="n">
-        <v>224.6401362151353</v>
+        <v>224.6401515625236</v>
       </c>
       <c r="D632" t="n">
-        <v>220.4803202973195</v>
+        <v>220.4803353605096</v>
       </c>
       <c r="E632" t="n">
-        <v>223.3433074951172</v>
+        <v>223.3433227539062</v>
       </c>
       <c r="F632" t="n">
         <v>35905900</v>
@@ -16897,16 +16897,16 @@
         <v>45750</v>
       </c>
       <c r="B633" t="n">
-        <v>205.0381156657125</v>
+        <v>205.0381002304481</v>
       </c>
       <c r="C633" t="n">
-        <v>206.9833664271943</v>
+        <v>206.9833508454915</v>
       </c>
       <c r="D633" t="n">
-        <v>200.7585974778203</v>
+        <v>200.758582364718</v>
       </c>
       <c r="E633" t="n">
-        <v>202.6938629150391</v>
+        <v>202.69384765625</v>
       </c>
       <c r="F633" t="n">
         <v>103419000</v>
@@ -16975,16 +16975,16 @@
         <v>45755</v>
       </c>
       <c r="B636" t="n">
-        <v>186.244123618335</v>
+        <v>186.2441070957976</v>
       </c>
       <c r="C636" t="n">
-        <v>189.8752350665279</v>
+        <v>189.8752182218586</v>
       </c>
       <c r="D636" t="n">
-        <v>168.7968394376211</v>
+        <v>168.7968244629091</v>
       </c>
       <c r="E636" t="n">
-        <v>171.9989929199219</v>
+        <v>171.9989776611328</v>
       </c>
       <c r="F636" t="n">
         <v>120859500</v>
@@ -17027,16 +17027,16 @@
         <v>45757</v>
       </c>
       <c r="B638" t="n">
-        <v>188.6083530498886</v>
+        <v>188.6083378992774</v>
       </c>
       <c r="C638" t="n">
-        <v>194.3044023572991</v>
+        <v>194.3043867491332</v>
       </c>
       <c r="D638" t="n">
-        <v>182.5531669279647</v>
+        <v>182.553152263757</v>
       </c>
       <c r="E638" t="n">
-        <v>189.9550476074219</v>
+        <v>189.9550323486328</v>
       </c>
       <c r="F638" t="n">
         <v>121880000</v>
@@ -17105,16 +17105,16 @@
         <v>45762</v>
       </c>
       <c r="B641" t="n">
-        <v>201.3671082485446</v>
+        <v>201.3670930108916</v>
       </c>
       <c r="C641" t="n">
-        <v>203.013073266667</v>
+        <v>203.0130579044621</v>
       </c>
       <c r="D641" t="n">
-        <v>199.3121406961873</v>
+        <v>199.3121256140358</v>
       </c>
       <c r="E641" t="n">
-        <v>201.6464233398438</v>
+        <v>201.6464080810547</v>
       </c>
       <c r="F641" t="n">
         <v>51343900</v>
@@ -17183,16 +17183,16 @@
         <v>45768</v>
       </c>
       <c r="B644" t="n">
-        <v>192.7980712406539</v>
+        <v>192.7980865081325</v>
       </c>
       <c r="C644" t="n">
-        <v>193.3267758515581</v>
+        <v>193.3267911609043</v>
       </c>
       <c r="D644" t="n">
-        <v>189.3465132845993</v>
+        <v>189.3465282787526</v>
       </c>
       <c r="E644" t="n">
-        <v>192.6883392333984</v>
+        <v>192.6883544921875</v>
       </c>
       <c r="F644" t="n">
         <v>46742500</v>
@@ -17235,16 +17235,16 @@
         <v>45770</v>
       </c>
       <c r="B646" t="n">
-        <v>205.4970088747083</v>
+        <v>205.4969935115097</v>
       </c>
       <c r="C646" t="n">
-        <v>207.4921254657249</v>
+        <v>207.492109953369</v>
       </c>
       <c r="D646" t="n">
-        <v>202.3048253733881</v>
+        <v>202.3048102488409</v>
       </c>
       <c r="E646" t="n">
-        <v>204.1004333496094</v>
+        <v>204.1004180908203</v>
       </c>
       <c r="F646" t="n">
         <v>52929200</v>
@@ -17339,16 +17339,16 @@
         <v>45776</v>
       </c>
       <c r="B650" t="n">
-        <v>208.1804239669747</v>
+        <v>208.1804390437069</v>
       </c>
       <c r="C650" t="n">
-        <v>211.7217586344391</v>
+        <v>211.7217739676401</v>
       </c>
       <c r="D650" t="n">
-        <v>207.8611980354541</v>
+        <v>207.8612130890675</v>
       </c>
       <c r="E650" t="n">
-        <v>210.6942749023438</v>
+        <v>210.6942901611328</v>
       </c>
       <c r="F650" t="n">
         <v>36827600</v>
@@ -17469,16 +17469,16 @@
         <v>45783</v>
       </c>
       <c r="B655" t="n">
-        <v>197.7260132783305</v>
+        <v>197.7260285140605</v>
       </c>
       <c r="C655" t="n">
-        <v>200.1600424480363</v>
+        <v>200.1600578713198</v>
       </c>
       <c r="D655" t="n">
-        <v>196.5389166103485</v>
+        <v>196.538931754607</v>
       </c>
       <c r="E655" t="n">
-        <v>198.0252685546875</v>
+        <v>198.0252838134766</v>
       </c>
       <c r="F655" t="n">
         <v>51216500</v>
@@ -20043,10 +20043,10 @@
         <v>45926</v>
       </c>
       <c r="B754" t="n">
-        <v>254.1300048828125</v>
+        <v>254.1000061035156</v>
       </c>
       <c r="C754" t="n">
-        <v>257.3599853515625</v>
+        <v>257.6000061035156</v>
       </c>
       <c r="D754" t="n">
         <v>253.7799987792969</v>
@@ -20055,7 +20055,7 @@
         <v>255.4600067138672</v>
       </c>
       <c r="F754" t="n">
-        <v>45566241</v>
+        <v>46045700</v>
       </c>
       <c r="G754" t="n">
         <v>0</v>
@@ -20741,237 +20741,237 @@
       </c>
       <c r="EC1" s="1" t="inlineStr">
         <is>
+          <t>exchange</t>
+        </is>
+      </c>
+      <c r="ED1" s="1" t="inlineStr">
+        <is>
+          <t>messageBoardId</t>
+        </is>
+      </c>
+      <c r="EE1" s="1" t="inlineStr">
+        <is>
+          <t>exchangeTimezoneName</t>
+        </is>
+      </c>
+      <c r="EF1" s="1" t="inlineStr">
+        <is>
+          <t>exchangeTimezoneShortName</t>
+        </is>
+      </c>
+      <c r="EG1" s="1" t="inlineStr">
+        <is>
+          <t>gmtOffSetMilliseconds</t>
+        </is>
+      </c>
+      <c r="EH1" s="1" t="inlineStr">
+        <is>
+          <t>market</t>
+        </is>
+      </c>
+      <c r="EI1" s="1" t="inlineStr">
+        <is>
+          <t>esgPopulated</t>
+        </is>
+      </c>
+      <c r="EJ1" s="1" t="inlineStr">
+        <is>
+          <t>regularMarketChangePercent</t>
+        </is>
+      </c>
+      <c r="EK1" s="1" t="inlineStr">
+        <is>
+          <t>regularMarketPrice</t>
+        </is>
+      </c>
+      <c r="EL1" s="1" t="inlineStr">
+        <is>
+          <t>marketState</t>
+        </is>
+      </c>
+      <c r="EM1" s="1" t="inlineStr">
+        <is>
           <t>corporateActions</t>
         </is>
       </c>
-      <c r="ED1" s="1" t="inlineStr">
+      <c r="EN1" s="1" t="inlineStr">
         <is>
           <t>postMarketTime</t>
         </is>
       </c>
-      <c r="EE1" s="1" t="inlineStr">
+      <c r="EO1" s="1" t="inlineStr">
         <is>
           <t>regularMarketTime</t>
         </is>
       </c>
-      <c r="EF1" s="1" t="inlineStr">
-        <is>
-          <t>marketState</t>
-        </is>
-      </c>
-      <c r="EG1" s="1" t="inlineStr">
-        <is>
-          <t>regularMarketChangePercent</t>
-        </is>
-      </c>
-      <c r="EH1" s="1" t="inlineStr">
-        <is>
-          <t>regularMarketPrice</t>
-        </is>
-      </c>
-      <c r="EI1" s="1" t="inlineStr">
-        <is>
-          <t>exchange</t>
-        </is>
-      </c>
-      <c r="EJ1" s="1" t="inlineStr">
-        <is>
-          <t>messageBoardId</t>
-        </is>
-      </c>
-      <c r="EK1" s="1" t="inlineStr">
-        <is>
-          <t>exchangeTimezoneName</t>
-        </is>
-      </c>
-      <c r="EL1" s="1" t="inlineStr">
-        <is>
-          <t>exchangeTimezoneShortName</t>
-        </is>
-      </c>
-      <c r="EM1" s="1" t="inlineStr">
-        <is>
-          <t>gmtOffSetMilliseconds</t>
-        </is>
-      </c>
-      <c r="EN1" s="1" t="inlineStr">
-        <is>
-          <t>market</t>
-        </is>
-      </c>
-      <c r="EO1" s="1" t="inlineStr">
-        <is>
-          <t>esgPopulated</t>
-        </is>
-      </c>
       <c r="EP1" s="1" t="inlineStr">
         <is>
+          <t>averageDailyVolume3Month</t>
+        </is>
+      </c>
+      <c r="EQ1" s="1" t="inlineStr">
+        <is>
+          <t>fiftyTwoWeekLowChange</t>
+        </is>
+      </c>
+      <c r="ER1" s="1" t="inlineStr">
+        <is>
+          <t>fiftyTwoWeekLowChangePercent</t>
+        </is>
+      </c>
+      <c r="ES1" s="1" t="inlineStr">
+        <is>
+          <t>fiftyTwoWeekRange</t>
+        </is>
+      </c>
+      <c r="ET1" s="1" t="inlineStr">
+        <is>
+          <t>fiftyTwoWeekHighChange</t>
+        </is>
+      </c>
+      <c r="EU1" s="1" t="inlineStr">
+        <is>
+          <t>fiftyTwoWeekHighChangePercent</t>
+        </is>
+      </c>
+      <c r="EV1" s="1" t="inlineStr">
+        <is>
+          <t>fiftyTwoWeekChangePercent</t>
+        </is>
+      </c>
+      <c r="EW1" s="1" t="inlineStr">
+        <is>
+          <t>dividendDate</t>
+        </is>
+      </c>
+      <c r="EX1" s="1" t="inlineStr">
+        <is>
+          <t>earningsTimestamp</t>
+        </is>
+      </c>
+      <c r="EY1" s="1" t="inlineStr">
+        <is>
+          <t>earningsTimestampStart</t>
+        </is>
+      </c>
+      <c r="EZ1" s="1" t="inlineStr">
+        <is>
+          <t>earningsTimestampEnd</t>
+        </is>
+      </c>
+      <c r="FA1" s="1" t="inlineStr">
+        <is>
+          <t>earningsCallTimestampStart</t>
+        </is>
+      </c>
+      <c r="FB1" s="1" t="inlineStr">
+        <is>
+          <t>earningsCallTimestampEnd</t>
+        </is>
+      </c>
+      <c r="FC1" s="1" t="inlineStr">
+        <is>
+          <t>isEarningsDateEstimate</t>
+        </is>
+      </c>
+      <c r="FD1" s="1" t="inlineStr">
+        <is>
+          <t>epsTrailingTwelveMonths</t>
+        </is>
+      </c>
+      <c r="FE1" s="1" t="inlineStr">
+        <is>
+          <t>epsForward</t>
+        </is>
+      </c>
+      <c r="FF1" s="1" t="inlineStr">
+        <is>
+          <t>epsCurrentYear</t>
+        </is>
+      </c>
+      <c r="FG1" s="1" t="inlineStr">
+        <is>
+          <t>priceEpsCurrentYear</t>
+        </is>
+      </c>
+      <c r="FH1" s="1" t="inlineStr">
+        <is>
           <t>fiftyDayAverageChange</t>
         </is>
       </c>
-      <c r="EQ1" s="1" t="inlineStr">
+      <c r="FI1" s="1" t="inlineStr">
         <is>
           <t>fiftyDayAverageChangePercent</t>
         </is>
       </c>
-      <c r="ER1" s="1" t="inlineStr">
+      <c r="FJ1" s="1" t="inlineStr">
         <is>
           <t>twoHundredDayAverageChange</t>
         </is>
       </c>
-      <c r="ES1" s="1" t="inlineStr">
+      <c r="FK1" s="1" t="inlineStr">
         <is>
           <t>twoHundredDayAverageChangePercent</t>
         </is>
       </c>
-      <c r="ET1" s="1" t="inlineStr">
+      <c r="FL1" s="1" t="inlineStr">
         <is>
           <t>sourceInterval</t>
         </is>
       </c>
-      <c r="EU1" s="1" t="inlineStr">
+      <c r="FM1" s="1" t="inlineStr">
         <is>
           <t>exchangeDataDelayedBy</t>
         </is>
       </c>
-      <c r="EV1" s="1" t="inlineStr">
+      <c r="FN1" s="1" t="inlineStr">
         <is>
           <t>averageAnalystRating</t>
         </is>
       </c>
-      <c r="EW1" s="1" t="inlineStr">
+      <c r="FO1" s="1" t="inlineStr">
         <is>
           <t>cryptoTradeable</t>
         </is>
       </c>
-      <c r="EX1" s="1" t="inlineStr">
+      <c r="FP1" s="1" t="inlineStr">
         <is>
           <t>hasPrePostMarketData</t>
         </is>
       </c>
-      <c r="EY1" s="1" t="inlineStr">
+      <c r="FQ1" s="1" t="inlineStr">
         <is>
           <t>firstTradeDateMilliseconds</t>
         </is>
       </c>
-      <c r="EZ1" s="1" t="inlineStr">
+      <c r="FR1" s="1" t="inlineStr">
         <is>
           <t>postMarketChangePercent</t>
         </is>
       </c>
-      <c r="FA1" s="1" t="inlineStr">
+      <c r="FS1" s="1" t="inlineStr">
         <is>
           <t>postMarketPrice</t>
         </is>
       </c>
-      <c r="FB1" s="1" t="inlineStr">
+      <c r="FT1" s="1" t="inlineStr">
         <is>
           <t>postMarketChange</t>
         </is>
       </c>
-      <c r="FC1" s="1" t="inlineStr">
+      <c r="FU1" s="1" t="inlineStr">
         <is>
           <t>regularMarketChange</t>
         </is>
       </c>
-      <c r="FD1" s="1" t="inlineStr">
+      <c r="FV1" s="1" t="inlineStr">
         <is>
           <t>regularMarketDayRange</t>
         </is>
       </c>
-      <c r="FE1" s="1" t="inlineStr">
+      <c r="FW1" s="1" t="inlineStr">
         <is>
           <t>fullExchangeName</t>
-        </is>
-      </c>
-      <c r="FF1" s="1" t="inlineStr">
-        <is>
-          <t>averageDailyVolume3Month</t>
-        </is>
-      </c>
-      <c r="FG1" s="1" t="inlineStr">
-        <is>
-          <t>fiftyTwoWeekLowChange</t>
-        </is>
-      </c>
-      <c r="FH1" s="1" t="inlineStr">
-        <is>
-          <t>fiftyTwoWeekLowChangePercent</t>
-        </is>
-      </c>
-      <c r="FI1" s="1" t="inlineStr">
-        <is>
-          <t>fiftyTwoWeekRange</t>
-        </is>
-      </c>
-      <c r="FJ1" s="1" t="inlineStr">
-        <is>
-          <t>fiftyTwoWeekHighChange</t>
-        </is>
-      </c>
-      <c r="FK1" s="1" t="inlineStr">
-        <is>
-          <t>fiftyTwoWeekHighChangePercent</t>
-        </is>
-      </c>
-      <c r="FL1" s="1" t="inlineStr">
-        <is>
-          <t>fiftyTwoWeekChangePercent</t>
-        </is>
-      </c>
-      <c r="FM1" s="1" t="inlineStr">
-        <is>
-          <t>dividendDate</t>
-        </is>
-      </c>
-      <c r="FN1" s="1" t="inlineStr">
-        <is>
-          <t>earningsTimestamp</t>
-        </is>
-      </c>
-      <c r="FO1" s="1" t="inlineStr">
-        <is>
-          <t>earningsTimestampStart</t>
-        </is>
-      </c>
-      <c r="FP1" s="1" t="inlineStr">
-        <is>
-          <t>earningsTimestampEnd</t>
-        </is>
-      </c>
-      <c r="FQ1" s="1" t="inlineStr">
-        <is>
-          <t>earningsCallTimestampStart</t>
-        </is>
-      </c>
-      <c r="FR1" s="1" t="inlineStr">
-        <is>
-          <t>earningsCallTimestampEnd</t>
-        </is>
-      </c>
-      <c r="FS1" s="1" t="inlineStr">
-        <is>
-          <t>isEarningsDateEstimate</t>
-        </is>
-      </c>
-      <c r="FT1" s="1" t="inlineStr">
-        <is>
-          <t>epsTrailingTwelveMonths</t>
-        </is>
-      </c>
-      <c r="FU1" s="1" t="inlineStr">
-        <is>
-          <t>epsForward</t>
-        </is>
-      </c>
-      <c r="FV1" s="1" t="inlineStr">
-        <is>
-          <t>epsCurrentYear</t>
-        </is>
-      </c>
-      <c r="FW1" s="1" t="inlineStr">
-        <is>
-          <t>priceEpsCurrentYear</t>
         </is>
       </c>
       <c r="FX1" s="1" t="inlineStr">
@@ -21142,7 +21142,7 @@
         <v>1.04</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
       <c r="AM2" t="n">
         <v>1754870400</v>
@@ -21157,7 +21157,7 @@
         <v>1.109</v>
       </c>
       <c r="AQ2" t="n">
-        <v>38.706062</v>
+        <v>38.764793</v>
       </c>
       <c r="AR2" t="n">
         <v>30.741274</v>
@@ -21169,13 +21169,13 @@
         <v>45566241</v>
       </c>
       <c r="AU2" t="n">
-        <v>57215926</v>
+        <v>56787322</v>
       </c>
       <c r="AV2" t="n">
-        <v>67960130</v>
+        <v>66996360</v>
       </c>
       <c r="AW2" t="n">
-        <v>67960130</v>
+        <v>66996360</v>
       </c>
       <c r="AX2" t="n">
         <v>241.21</v>
@@ -21208,10 +21208,10 @@
         <v>9.277763</v>
       </c>
       <c r="BH2" t="n">
-        <v>227.5418</v>
+        <v>228.4506</v>
       </c>
       <c r="BI2" t="n">
-        <v>221.9105</v>
+        <v>221.9736</v>
       </c>
       <c r="BJ2" t="n">
         <v>1.01</v>
@@ -21258,7 +21258,7 @@
         <v>0.0197</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.63647</v>
+        <v>0.63646</v>
       </c>
       <c r="BY2" t="n">
         <v>2.47</v>
@@ -21291,7 +21291,7 @@
         <v>99280003072</v>
       </c>
       <c r="CI2" t="n">
-        <v>6.6</v>
+        <v>6.59</v>
       </c>
       <c r="CJ2" t="n">
         <v>8.31</v>
@@ -21311,10 +21311,10 @@
         <v>27.082</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.12766147</v>
+        <v>0.09639490000000001</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.15101504</v>
+        <v>0.1529237</v>
       </c>
       <c r="CQ2" t="n">
         <v>0.26</v>
@@ -21337,7 +21337,7 @@
         <v>175</v>
       </c>
       <c r="CW2" t="n">
-        <v>243.06557</v>
+        <v>243.19057</v>
       </c>
       <c r="CX2" t="n">
         <v>243</v>
@@ -21450,167 +21450,167 @@
       </c>
       <c r="EC2" t="inlineStr">
         <is>
+          <t>NMS</t>
+        </is>
+      </c>
+      <c r="ED2" t="inlineStr">
+        <is>
+          <t>finmb_24937</t>
+        </is>
+      </c>
+      <c r="EE2" t="inlineStr">
+        <is>
+          <t>America/New_York</t>
+        </is>
+      </c>
+      <c r="EF2" t="inlineStr">
+        <is>
+          <t>EDT</t>
+        </is>
+      </c>
+      <c r="EG2" t="n">
+        <v>-14400000</v>
+      </c>
+      <c r="EH2" t="inlineStr">
+        <is>
+          <t>us_market</t>
+        </is>
+      </c>
+      <c r="EI2" t="b">
+        <v>0</v>
+      </c>
+      <c r="EJ2" t="n">
+        <v>-0.548911</v>
+      </c>
+      <c r="EK2" t="n">
+        <v>255.46</v>
+      </c>
+      <c r="EL2" t="inlineStr">
+        <is>
+          <t>CLOSED</t>
+        </is>
+      </c>
+      <c r="EM2" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="ED2" t="n">
-        <v>1758928066</v>
-      </c>
-      <c r="EE2" t="n">
+      <c r="EN2" t="n">
+        <v>1758931161</v>
+      </c>
+      <c r="EO2" t="n">
         <v>1758916800</v>
       </c>
-      <c r="EF2" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="EG2" t="n">
-        <v>-0.5489113</v>
-      </c>
-      <c r="EH2" t="n">
-        <v>255.46</v>
-      </c>
-      <c r="EI2" t="inlineStr">
-        <is>
-          <t>NMS</t>
-        </is>
-      </c>
-      <c r="EJ2" t="inlineStr">
-        <is>
-          <t>finmb_24937</t>
-        </is>
-      </c>
-      <c r="EK2" t="inlineStr">
-        <is>
-          <t>America/New_York</t>
-        </is>
-      </c>
-      <c r="EL2" t="inlineStr">
-        <is>
-          <t>EDT</t>
-        </is>
-      </c>
-      <c r="EM2" t="n">
-        <v>-14400000</v>
-      </c>
-      <c r="EN2" t="inlineStr">
-        <is>
-          <t>us_market</t>
-        </is>
-      </c>
-      <c r="EO2" t="b">
-        <v>0</v>
-      </c>
       <c r="EP2" t="n">
-        <v>27.918213</v>
+        <v>56787322</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.12269488</v>
+        <v>86.25</v>
       </c>
       <c r="ER2" t="n">
-        <v>33.5495</v>
-      </c>
-      <c r="ES2" t="n">
-        <v>0.15118481</v>
+        <v>0.50972164</v>
+      </c>
+      <c r="ES2" t="inlineStr">
+        <is>
+          <t>169.21 - 260.1</t>
+        </is>
       </c>
       <c r="ET2" t="n">
+        <v>-4.6399994</v>
+      </c>
+      <c r="EU2" t="n">
+        <v>-0.01783929</v>
+      </c>
+      <c r="EV2" t="n">
+        <v>9.63949</v>
+      </c>
+      <c r="EW2" t="n">
+        <v>1755129600</v>
+      </c>
+      <c r="EX2" t="n">
+        <v>1753992000</v>
+      </c>
+      <c r="EY2" t="n">
+        <v>1761854400</v>
+      </c>
+      <c r="EZ2" t="n">
+        <v>1761854400</v>
+      </c>
+      <c r="FA2" t="n">
+        <v>1753995600</v>
+      </c>
+      <c r="FB2" t="n">
+        <v>1753995600</v>
+      </c>
+      <c r="FC2" t="b">
+        <v>1</v>
+      </c>
+      <c r="FD2" t="n">
+        <v>6.59</v>
+      </c>
+      <c r="FE2" t="n">
+        <v>8.31</v>
+      </c>
+      <c r="FF2" t="n">
+        <v>7.38559</v>
+      </c>
+      <c r="FG2" t="n">
+        <v>34.588978</v>
+      </c>
+      <c r="FH2" t="n">
+        <v>27.0094</v>
+      </c>
+      <c r="FI2" t="n">
+        <v>0.118228614</v>
+      </c>
+      <c r="FJ2" t="n">
+        <v>33.486404</v>
+      </c>
+      <c r="FK2" t="n">
+        <v>0.1508576</v>
+      </c>
+      <c r="FL2" t="n">
         <v>15</v>
       </c>
-      <c r="EU2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV2" t="inlineStr">
+      <c r="FM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN2" t="inlineStr">
         <is>
           <t>2.0 - Buy</t>
         </is>
       </c>
-      <c r="EW2" t="b">
-        <v>0</v>
-      </c>
-      <c r="EX2" t="b">
+      <c r="FO2" t="b">
+        <v>0</v>
+      </c>
+      <c r="FP2" t="b">
         <v>1</v>
       </c>
-      <c r="EY2" t="n">
+      <c r="FQ2" t="n">
         <v>345479400000</v>
       </c>
-      <c r="EZ2" t="n">
-        <v>0.04305982</v>
-      </c>
-      <c r="FA2" t="n">
-        <v>255.57</v>
-      </c>
-      <c r="FB2" t="n">
-        <v>0.11000061</v>
-      </c>
-      <c r="FC2" t="n">
-        <v>-1.4099884</v>
-      </c>
-      <c r="FD2" t="inlineStr">
+      <c r="FR2" t="n">
+        <v>0.007824713000000001</v>
+      </c>
+      <c r="FS2" t="n">
+        <v>255.48</v>
+      </c>
+      <c r="FT2" t="n">
+        <v>0.019989014</v>
+      </c>
+      <c r="FU2" t="n">
+        <v>-1.40999</v>
+      </c>
+      <c r="FV2" t="inlineStr">
         <is>
           <t>253.78 - 257.36</t>
         </is>
       </c>
-      <c r="FE2" t="inlineStr">
+      <c r="FW2" t="inlineStr">
         <is>
           <t>NasdaqGS</t>
         </is>
       </c>
-      <c r="FF2" t="n">
-        <v>57215926</v>
-      </c>
-      <c r="FG2" t="n">
-        <v>86.25</v>
-      </c>
-      <c r="FH2" t="n">
-        <v>0.50972164</v>
-      </c>
-      <c r="FI2" t="inlineStr">
-        <is>
-          <t>169.21 - 260.1</t>
-        </is>
-      </c>
-      <c r="FJ2" t="n">
-        <v>-4.6399994</v>
-      </c>
-      <c r="FK2" t="n">
-        <v>-0.01783929</v>
-      </c>
-      <c r="FL2" t="n">
-        <v>12.766147</v>
-      </c>
-      <c r="FM2" t="n">
-        <v>1755129600</v>
-      </c>
-      <c r="FN2" t="n">
-        <v>1753992000</v>
-      </c>
-      <c r="FO2" t="n">
-        <v>1761854400</v>
-      </c>
-      <c r="FP2" t="n">
-        <v>1761854400</v>
-      </c>
-      <c r="FQ2" t="n">
-        <v>1753995600</v>
-      </c>
-      <c r="FR2" t="n">
-        <v>1753995600</v>
-      </c>
-      <c r="FS2" t="b">
-        <v>1</v>
-      </c>
-      <c r="FT2" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="FU2" t="n">
-        <v>8.31</v>
-      </c>
-      <c r="FV2" t="n">
-        <v>7.38523</v>
-      </c>
-      <c r="FW2" t="n">
-        <v>34.590664</v>
-      </c>
       <c r="FX2" t="inlineStr">
         <is>
           <t>Apple Inc.</t>
@@ -21627,7 +21627,7 @@
         </is>
       </c>
       <c r="GA2" t="n">
-        <v>2.4591</v>
+        <v>2.4456</v>
       </c>
     </row>
   </sheetData>
@@ -21690,7 +21690,7 @@
         <v>175</v>
       </c>
       <c r="E2" t="n">
-        <v>243.06557</v>
+        <v>243.19057</v>
       </c>
       <c r="F2" t="n">
         <v>243</v>

--- a/data/raw.xlsx
+++ b/data/raw.xlsx
@@ -491,16 +491,16 @@
         <v>44831</v>
       </c>
       <c r="B2" t="n">
-        <v>150.3664234461509</v>
+        <v>150.3664080888261</v>
       </c>
       <c r="C2" t="n">
-        <v>152.3156500094695</v>
+        <v>152.315634453065</v>
       </c>
       <c r="D2" t="n">
-        <v>147.6197716771559</v>
+        <v>147.619756600354</v>
       </c>
       <c r="E2" t="n">
-        <v>149.4016418457031</v>
+        <v>149.4016265869141</v>
       </c>
       <c r="F2" t="n">
         <v>84442700</v>
@@ -517,16 +517,16 @@
         <v>44832</v>
       </c>
       <c r="B3" t="n">
-        <v>145.3456506991346</v>
+        <v>145.3456356643798</v>
       </c>
       <c r="C3" t="n">
-        <v>148.2990302297496</v>
+        <v>148.2990148894932</v>
       </c>
       <c r="D3" t="n">
-        <v>142.5891601328942</v>
+        <v>142.5891453832746</v>
       </c>
       <c r="E3" t="n">
-        <v>147.5114593505859</v>
+        <v>147.5114440917969</v>
       </c>
       <c r="F3" t="n">
         <v>146691400</v>
@@ -569,16 +569,16 @@
         <v>44834</v>
       </c>
       <c r="B5" t="n">
-        <v>139.084506748129</v>
+        <v>139.0844755504192</v>
       </c>
       <c r="C5" t="n">
-        <v>140.8762311475777</v>
+        <v>140.8761995479705</v>
       </c>
       <c r="D5" t="n">
-        <v>135.8554791695994</v>
+        <v>135.855448696185</v>
       </c>
       <c r="E5" t="n">
-        <v>136.0523681640625</v>
+        <v>136.0523376464844</v>
       </c>
       <c r="F5" t="n">
         <v>124925300</v>
@@ -595,16 +595,16 @@
         <v>44837</v>
       </c>
       <c r="B6" t="n">
-        <v>136.0621976067289</v>
+        <v>136.0622420205734</v>
       </c>
       <c r="C6" t="n">
-        <v>140.8466729073015</v>
+        <v>140.8467188829093</v>
       </c>
       <c r="D6" t="n">
-        <v>135.5502742969905</v>
+        <v>135.5503185437314</v>
       </c>
       <c r="E6" t="n">
-        <v>140.2362976074219</v>
+        <v>140.2363433837891</v>
       </c>
       <c r="F6" t="n">
         <v>114311700</v>
@@ -621,16 +621,16 @@
         <v>44838</v>
       </c>
       <c r="B7" t="n">
-        <v>142.7762105956811</v>
+        <v>142.7761954486443</v>
       </c>
       <c r="C7" t="n">
-        <v>143.9477202186119</v>
+        <v>143.9477049472904</v>
       </c>
       <c r="D7" t="n">
-        <v>142.0181723064319</v>
+        <v>142.018157239815</v>
       </c>
       <c r="E7" t="n">
-        <v>143.82958984375</v>
+        <v>143.8295745849609</v>
       </c>
       <c r="F7" t="n">
         <v>87830100</v>
@@ -647,16 +647,16 @@
         <v>44839</v>
       </c>
       <c r="B8" t="n">
-        <v>141.8311603684175</v>
+        <v>141.8311453524753</v>
       </c>
       <c r="C8" t="n">
-        <v>145.0897205869611</v>
+        <v>145.0897052260287</v>
       </c>
       <c r="D8" t="n">
-        <v>140.7876201431681</v>
+        <v>140.7876052377075</v>
       </c>
       <c r="E8" t="n">
-        <v>144.1249389648438</v>
+        <v>144.1249237060547</v>
       </c>
       <c r="F8" t="n">
         <v>79471000</v>
@@ -673,16 +673,16 @@
         <v>44840</v>
       </c>
       <c r="B9" t="n">
-        <v>143.5441130420839</v>
+        <v>143.5440824447642</v>
       </c>
       <c r="C9" t="n">
-        <v>145.2472246697787</v>
+        <v>145.2471937094301</v>
       </c>
       <c r="D9" t="n">
-        <v>142.9632852357701</v>
+        <v>142.9632547622573</v>
       </c>
       <c r="E9" t="n">
-        <v>143.1700134277344</v>
+        <v>143.1699829101562</v>
       </c>
       <c r="F9" t="n">
         <v>68402200</v>
@@ -725,16 +725,16 @@
         <v>44844</v>
       </c>
       <c r="B11" t="n">
-        <v>138.2378692626953</v>
+        <v>138.2378845214844</v>
       </c>
       <c r="C11" t="n">
-        <v>139.6850266420813</v>
+        <v>139.6850420606086</v>
       </c>
       <c r="D11" t="n">
-        <v>136.4166273038199</v>
+        <v>136.416642361579</v>
       </c>
       <c r="E11" t="n">
-        <v>138.2378692626953</v>
+        <v>138.2378845214844</v>
       </c>
       <c r="F11" t="n">
         <v>74899000</v>
@@ -751,16 +751,16 @@
         <v>44845</v>
       </c>
       <c r="B12" t="n">
-        <v>137.7259068150969</v>
+        <v>137.7259528944874</v>
       </c>
       <c r="C12" t="n">
-        <v>139.1533854056543</v>
+        <v>139.1534319626407</v>
       </c>
       <c r="D12" t="n">
-        <v>136.0720217199632</v>
+        <v>136.0720672460081</v>
       </c>
       <c r="E12" t="n">
-        <v>136.8202056884766</v>
+        <v>136.8202514648438</v>
       </c>
       <c r="F12" t="n">
         <v>77033700</v>
@@ -777,16 +777,16 @@
         <v>44846</v>
       </c>
       <c r="B13" t="n">
-        <v>136.9679019716922</v>
+        <v>136.9678866257659</v>
       </c>
       <c r="C13" t="n">
-        <v>138.1787833655157</v>
+        <v>138.1787678839218</v>
       </c>
       <c r="D13" t="n">
-        <v>136.0129747277696</v>
+        <v>136.0129594888336</v>
       </c>
       <c r="E13" t="n">
-        <v>136.1901702880859</v>
+        <v>136.1901550292969</v>
       </c>
       <c r="F13" t="n">
         <v>70433700</v>
@@ -803,16 +803,16 @@
         <v>44847</v>
       </c>
       <c r="B14" t="n">
-        <v>132.8922497334545</v>
+        <v>132.8922209232728</v>
       </c>
       <c r="C14" t="n">
-        <v>141.3585960149257</v>
+        <v>141.3585653692948</v>
       </c>
       <c r="D14" t="n">
-        <v>132.2818743695852</v>
+        <v>132.281845691729</v>
       </c>
       <c r="E14" t="n">
-        <v>140.7679290771484</v>
+        <v>140.7678985595703</v>
       </c>
       <c r="F14" t="n">
         <v>113224000</v>
@@ -907,16 +907,16 @@
         <v>44853</v>
       </c>
       <c r="B18" t="n">
-        <v>139.488113651557</v>
+        <v>139.488143708805</v>
       </c>
       <c r="C18" t="n">
-        <v>142.6974472420552</v>
+        <v>142.6974779908585</v>
       </c>
       <c r="D18" t="n">
-        <v>139.3010638831592</v>
+        <v>139.3010939001013</v>
       </c>
       <c r="E18" t="n">
-        <v>141.6243896484375</v>
+        <v>141.6244201660156</v>
       </c>
       <c r="F18" t="n">
         <v>61758300</v>
@@ -933,16 +933,16 @@
         <v>44854</v>
       </c>
       <c r="B19" t="n">
-        <v>140.7974216110454</v>
+        <v>140.7974368304615</v>
       </c>
       <c r="C19" t="n">
-        <v>143.6228159647365</v>
+        <v>143.622831489562</v>
       </c>
       <c r="D19" t="n">
-        <v>140.4331613303116</v>
+        <v>140.4331765103532</v>
       </c>
       <c r="E19" t="n">
-        <v>141.1616668701172</v>
+        <v>141.1616821289062</v>
       </c>
       <c r="F19" t="n">
         <v>64522000</v>
@@ -959,16 +959,16 @@
         <v>44855</v>
       </c>
       <c r="B20" t="n">
-        <v>140.6497821885837</v>
+        <v>140.6497673856839</v>
       </c>
       <c r="C20" t="n">
-        <v>145.5524033439164</v>
+        <v>145.5523880250328</v>
       </c>
       <c r="D20" t="n">
-        <v>140.4331998071835</v>
+        <v>140.4331850270782</v>
       </c>
       <c r="E20" t="n">
-        <v>144.9814147949219</v>
+        <v>144.9813995361328</v>
       </c>
       <c r="F20" t="n">
         <v>86548600</v>
@@ -1011,16 +1011,16 @@
         <v>44859</v>
       </c>
       <c r="B22" t="n">
-        <v>147.7575758033074</v>
+        <v>147.7575908367303</v>
       </c>
       <c r="C22" t="n">
-        <v>150.1202884646536</v>
+        <v>150.120303738468</v>
       </c>
       <c r="D22" t="n">
-        <v>147.0389243163347</v>
+        <v>147.0389392766393</v>
       </c>
       <c r="E22" t="n">
-        <v>149.9726104736328</v>
+        <v>149.9726257324219</v>
       </c>
       <c r="F22" t="n">
         <v>74732300</v>
@@ -1037,16 +1037,16 @@
         <v>44860</v>
       </c>
       <c r="B23" t="n">
-        <v>148.6140641967212</v>
+        <v>148.6140796200008</v>
       </c>
       <c r="C23" t="n">
-        <v>149.6280566311486</v>
+        <v>149.6280721596611</v>
       </c>
       <c r="D23" t="n">
-        <v>145.7394282421328</v>
+        <v>145.7394433670804</v>
       </c>
       <c r="E23" t="n">
-        <v>147.0290832519531</v>
+        <v>147.0290985107422</v>
       </c>
       <c r="F23" t="n">
         <v>88194300</v>
@@ -1063,16 +1063,16 @@
         <v>44861</v>
       </c>
       <c r="B24" t="n">
-        <v>145.7689617441609</v>
+        <v>145.7689773475377</v>
       </c>
       <c r="C24" t="n">
-        <v>146.7337280888014</v>
+        <v>146.7337437954485</v>
       </c>
       <c r="D24" t="n">
-        <v>141.890187942957</v>
+        <v>141.8902031311427</v>
       </c>
       <c r="E24" t="n">
-        <v>142.5497741699219</v>
+        <v>142.5497894287109</v>
       </c>
       <c r="F24" t="n">
         <v>109180200</v>
@@ -1089,16 +1089,16 @@
         <v>44862</v>
       </c>
       <c r="B25" t="n">
-        <v>145.8969429551204</v>
+        <v>145.8969284350716</v>
       </c>
       <c r="C25" t="n">
-        <v>155.05242232533</v>
+        <v>155.0524068941037</v>
       </c>
       <c r="D25" t="n">
-        <v>145.5228584366232</v>
+        <v>145.5228439538041</v>
       </c>
       <c r="E25" t="n">
-        <v>153.3197784423828</v>
+        <v>153.3197631835938</v>
       </c>
       <c r="F25" t="n">
         <v>164762400</v>
@@ -1167,16 +1167,16 @@
         <v>44867</v>
       </c>
       <c r="B28" t="n">
-        <v>146.6352955105258</v>
+        <v>146.6352798393088</v>
       </c>
       <c r="C28" t="n">
-        <v>149.8052575126474</v>
+        <v>149.80524150265</v>
       </c>
       <c r="D28" t="n">
-        <v>142.7466820050657</v>
+        <v>142.7466667494328</v>
       </c>
       <c r="E28" t="n">
-        <v>142.7762145996094</v>
+        <v>142.7761993408203</v>
       </c>
       <c r="F28" t="n">
         <v>93604600</v>
@@ -1193,16 +1193,16 @@
         <v>44868</v>
       </c>
       <c r="B29" t="n">
-        <v>139.8523615595117</v>
+        <v>139.8523459513358</v>
       </c>
       <c r="C29" t="n">
-        <v>140.5808672441843</v>
+        <v>140.5808515547038</v>
       </c>
       <c r="D29" t="n">
-        <v>136.5938019137211</v>
+        <v>136.5937866692157</v>
       </c>
       <c r="E29" t="n">
-        <v>136.7217864990234</v>
+        <v>136.7217712402344</v>
       </c>
       <c r="F29" t="n">
         <v>97918500</v>
@@ -1245,16 +1245,16 @@
         <v>44872</v>
       </c>
       <c r="B31" t="n">
-        <v>135.2031961352515</v>
+        <v>135.2032111952328</v>
       </c>
       <c r="C31" t="n">
-        <v>137.2148190012118</v>
+        <v>137.2148342852633</v>
       </c>
       <c r="D31" t="n">
-        <v>133.7832199726521</v>
+        <v>133.7832348744654</v>
       </c>
       <c r="E31" t="n">
-        <v>136.9880218505859</v>
+        <v>136.988037109375</v>
       </c>
       <c r="F31" t="n">
         <v>83374600</v>
@@ -1271,16 +1271,16 @@
         <v>44873</v>
       </c>
       <c r="B32" t="n">
-        <v>138.457315240062</v>
+        <v>138.4573305983891</v>
       </c>
       <c r="C32" t="n">
-        <v>139.4631192192943</v>
+        <v>139.4631346891898</v>
       </c>
       <c r="D32" t="n">
-        <v>135.5779256208509</v>
+        <v>135.5779406597828</v>
       </c>
       <c r="E32" t="n">
-        <v>137.5599670410156</v>
+        <v>137.5599822998047</v>
       </c>
       <c r="F32" t="n">
         <v>89908500</v>
@@ -1297,16 +1297,16 @@
         <v>44874</v>
       </c>
       <c r="B33" t="n">
-        <v>136.5738608799345</v>
+        <v>136.5738765494115</v>
       </c>
       <c r="C33" t="n">
-        <v>136.623168532168</v>
+        <v>136.6231842073022</v>
       </c>
       <c r="D33" t="n">
-        <v>132.7182341926496</v>
+        <v>132.7182494197604</v>
       </c>
       <c r="E33" t="n">
-        <v>132.9943389892578</v>
+        <v>132.9943542480469</v>
       </c>
       <c r="F33" t="n">
         <v>74917800</v>
@@ -1323,16 +1323,16 @@
         <v>44875</v>
       </c>
       <c r="B34" t="n">
-        <v>139.2757903878347</v>
+        <v>139.2757610400915</v>
       </c>
       <c r="C34" t="n">
-        <v>144.8274841308594</v>
+        <v>144.8274536132812</v>
       </c>
       <c r="D34" t="n">
-        <v>137.5599830321678</v>
+        <v>137.559954045974</v>
       </c>
       <c r="E34" t="n">
-        <v>144.8274841308594</v>
+        <v>144.8274536132812</v>
       </c>
       <c r="F34" t="n">
         <v>118854000</v>
@@ -1349,16 +1349,16 @@
         <v>44876</v>
       </c>
       <c r="B35" t="n">
-        <v>143.7920728353582</v>
+        <v>143.7920876986634</v>
       </c>
       <c r="C35" t="n">
-        <v>147.9237894166263</v>
+        <v>147.9238047070131</v>
       </c>
       <c r="D35" t="n">
-        <v>142.3622261036816</v>
+        <v>142.3622408191883</v>
       </c>
       <c r="E35" t="n">
-        <v>147.6181030273438</v>
+        <v>147.6181182861328</v>
       </c>
       <c r="F35" t="n">
         <v>93979700</v>
@@ -1375,16 +1375,16 @@
         <v>44879</v>
       </c>
       <c r="B36" t="n">
-        <v>146.8982715497909</v>
+        <v>146.898256219997</v>
       </c>
       <c r="C36" t="n">
-        <v>148.190050938359</v>
+        <v>148.1900354737595</v>
       </c>
       <c r="D36" t="n">
-        <v>145.3796799436475</v>
+        <v>145.3796647723285</v>
       </c>
       <c r="E36" t="n">
-        <v>146.2178649902344</v>
+        <v>146.2178497314453</v>
       </c>
       <c r="F36" t="n">
         <v>73374100</v>
@@ -1401,16 +1401,16 @@
         <v>44880</v>
       </c>
       <c r="B37" t="n">
-        <v>150.1030904048991</v>
+        <v>150.1030594439155</v>
       </c>
       <c r="C37" t="n">
-        <v>151.4540331146638</v>
+        <v>151.4540018750282</v>
       </c>
       <c r="D37" t="n">
-        <v>146.4939861073678</v>
+        <v>146.4939558908153</v>
       </c>
       <c r="E37" t="n">
-        <v>147.9533996582031</v>
+        <v>147.953369140625</v>
       </c>
       <c r="F37" t="n">
         <v>89868300</v>
@@ -1427,16 +1427,16 @@
         <v>44881</v>
       </c>
       <c r="B38" t="n">
-        <v>147.0560319066165</v>
+        <v>147.0560472002746</v>
       </c>
       <c r="C38" t="n">
-        <v>147.7857309876454</v>
+        <v>147.7857463571914</v>
       </c>
       <c r="D38" t="n">
-        <v>145.2416096226334</v>
+        <v>145.2416247275937</v>
       </c>
       <c r="E38" t="n">
-        <v>146.7207489013672</v>
+        <v>146.7207641601562</v>
       </c>
       <c r="F38" t="n">
         <v>64218300</v>
@@ -1479,16 +1479,16 @@
         <v>44883</v>
       </c>
       <c r="B40" t="n">
-        <v>150.1918083587428</v>
+        <v>150.1918237204073</v>
       </c>
       <c r="C40" t="n">
-        <v>150.5763839908681</v>
+        <v>150.5763993918672</v>
       </c>
       <c r="D40" t="n">
-        <v>147.8843545659908</v>
+        <v>147.8843696916482</v>
       </c>
       <c r="E40" t="n">
-        <v>149.1859893798828</v>
+        <v>149.1860046386719</v>
       </c>
       <c r="F40" t="n">
         <v>74829600</v>
@@ -1505,16 +1505,16 @@
         <v>44886</v>
       </c>
       <c r="B41" t="n">
-        <v>148.0717387637062</v>
+        <v>148.0717078028264</v>
       </c>
       <c r="C41" t="n">
-        <v>148.2788098819842</v>
+        <v>148.2787788778071</v>
       </c>
       <c r="D41" t="n">
-        <v>145.6656692693307</v>
+        <v>145.6656388115451</v>
       </c>
       <c r="E41" t="n">
-        <v>145.9516296386719</v>
+        <v>145.9515991210938</v>
       </c>
       <c r="F41" t="n">
         <v>58724100</v>
@@ -1531,16 +1531,16 @@
         <v>44887</v>
       </c>
       <c r="B42" t="n">
-        <v>146.0699672226872</v>
+        <v>146.0699521721837</v>
       </c>
       <c r="C42" t="n">
-        <v>148.3281136698585</v>
+        <v>148.3280983866841</v>
       </c>
       <c r="D42" t="n">
-        <v>144.8866435342383</v>
+        <v>144.8866286056601</v>
       </c>
       <c r="E42" t="n">
-        <v>148.0914459228516</v>
+        <v>148.0914306640625</v>
       </c>
       <c r="F42" t="n">
         <v>51804100</v>
@@ -1557,16 +1557,16 @@
         <v>44888</v>
       </c>
       <c r="B43" t="n">
-        <v>147.3715896104273</v>
+        <v>147.3716198007479</v>
       </c>
       <c r="C43" t="n">
-        <v>149.7184956661171</v>
+        <v>149.7185263372214</v>
       </c>
       <c r="D43" t="n">
-        <v>147.2631187831496</v>
+        <v>147.263148951249</v>
       </c>
       <c r="E43" t="n">
-        <v>148.9690704345703</v>
+        <v>148.9691009521484</v>
       </c>
       <c r="F43" t="n">
         <v>58301400</v>
@@ -1583,16 +1583,16 @@
         <v>44890</v>
       </c>
       <c r="B44" t="n">
-        <v>146.2474322409697</v>
+        <v>146.2474169615763</v>
       </c>
       <c r="C44" t="n">
-        <v>146.8095124034524</v>
+        <v>146.8094970653349</v>
       </c>
       <c r="D44" t="n">
-        <v>145.0739793094005</v>
+        <v>145.0739641526052</v>
       </c>
       <c r="E44" t="n">
-        <v>146.0502166748047</v>
+        <v>146.0502014160156</v>
       </c>
       <c r="F44" t="n">
         <v>35195900</v>
@@ -1609,16 +1609,16 @@
         <v>44893</v>
       </c>
       <c r="B45" t="n">
-        <v>143.1215286500031</v>
+        <v>143.12154400613</v>
       </c>
       <c r="C45" t="n">
-        <v>144.6006680593858</v>
+        <v>144.6006835742159</v>
       </c>
       <c r="D45" t="n">
-        <v>141.3860104930978</v>
+        <v>141.3860256630134</v>
       </c>
       <c r="E45" t="n">
-        <v>142.2143249511719</v>
+        <v>142.2143402099609</v>
       </c>
       <c r="F45" t="n">
         <v>69246000</v>
@@ -1635,16 +1635,16 @@
         <v>44894</v>
       </c>
       <c r="B46" t="n">
-        <v>142.2833621487803</v>
+        <v>142.2833465527571</v>
       </c>
       <c r="C46" t="n">
-        <v>142.7961347571396</v>
+        <v>142.7961191049101</v>
       </c>
       <c r="D46" t="n">
-        <v>138.3981681003324</v>
+        <v>138.3981529301747</v>
       </c>
       <c r="E46" t="n">
-        <v>139.2067565917969</v>
+        <v>139.2067413330078</v>
       </c>
       <c r="F46" t="n">
         <v>83763800</v>
@@ -1687,16 +1687,16 @@
         <v>44896</v>
       </c>
       <c r="B48" t="n">
-        <v>146.1488362607593</v>
+        <v>146.1488210122578</v>
       </c>
       <c r="C48" t="n">
-        <v>147.05603992895</v>
+        <v>147.056024585795</v>
       </c>
       <c r="D48" t="n">
-        <v>144.5710815920725</v>
+        <v>144.5710665081866</v>
       </c>
       <c r="E48" t="n">
-        <v>146.2474365234375</v>
+        <v>146.2474212646484</v>
       </c>
       <c r="F48" t="n">
         <v>71250400</v>
@@ -1713,16 +1713,16 @@
         <v>44897</v>
       </c>
       <c r="B49" t="n">
-        <v>143.9301617623625</v>
+        <v>143.9301165589326</v>
       </c>
       <c r="C49" t="n">
-        <v>145.9417851534385</v>
+        <v>145.9417393182281</v>
       </c>
       <c r="D49" t="n">
-        <v>143.6244602489213</v>
+        <v>143.6244151415016</v>
       </c>
       <c r="E49" t="n">
-        <v>145.7544250488281</v>
+        <v>145.7543792724609</v>
       </c>
       <c r="F49" t="n">
         <v>65447400</v>
@@ -1765,16 +1765,16 @@
         <v>44901</v>
       </c>
       <c r="B51" t="n">
-        <v>145.0246809463006</v>
+        <v>145.0246966492616</v>
       </c>
       <c r="C51" t="n">
-        <v>145.2514780860589</v>
+        <v>145.251493813577</v>
       </c>
       <c r="D51" t="n">
-        <v>139.9462938012755</v>
+        <v>139.9463089543597</v>
       </c>
       <c r="E51" t="n">
-        <v>140.9225311279297</v>
+        <v>140.9225463867188</v>
       </c>
       <c r="F51" t="n">
         <v>64727200</v>
@@ -1791,16 +1791,16 @@
         <v>44902</v>
       </c>
       <c r="B52" t="n">
-        <v>140.2125662022691</v>
+        <v>140.2125508081495</v>
       </c>
       <c r="C52" t="n">
-        <v>141.3761487209441</v>
+        <v>141.3761331990733</v>
       </c>
       <c r="D52" t="n">
-        <v>138.0530201228931</v>
+        <v>138.0530049658729</v>
       </c>
       <c r="E52" t="n">
-        <v>138.9799499511719</v>
+        <v>138.9799346923828</v>
       </c>
       <c r="F52" t="n">
         <v>69721100</v>
@@ -1817,16 +1817,16 @@
         <v>44903</v>
       </c>
       <c r="B53" t="n">
-        <v>140.3801926197995</v>
+        <v>140.3801773920301</v>
       </c>
       <c r="C53" t="n">
-        <v>141.5240640501762</v>
+        <v>141.5240486983251</v>
       </c>
       <c r="D53" t="n">
-        <v>139.1377209226151</v>
+        <v>139.137705829623</v>
       </c>
       <c r="E53" t="n">
-        <v>140.6661529541016</v>
+        <v>140.6661376953125</v>
       </c>
       <c r="F53" t="n">
         <v>62128300</v>
@@ -1843,16 +1843,16 @@
         <v>44904</v>
       </c>
       <c r="B54" t="n">
-        <v>140.3604729146931</v>
+        <v>140.3604576365845</v>
       </c>
       <c r="C54" t="n">
-        <v>143.5455641134062</v>
+        <v>143.5455484886033</v>
       </c>
       <c r="D54" t="n">
-        <v>138.9404965983084</v>
+        <v>138.9404814747629</v>
       </c>
       <c r="E54" t="n">
-        <v>140.1829833984375</v>
+        <v>140.1829681396484</v>
       </c>
       <c r="F54" t="n">
         <v>76097000</v>
@@ -1869,16 +1869,16 @@
         <v>44907</v>
       </c>
       <c r="B55" t="n">
-        <v>140.7154758271793</v>
+        <v>140.7154908969355</v>
       </c>
       <c r="C55" t="n">
-        <v>142.4904463340837</v>
+        <v>142.4904615939282</v>
       </c>
       <c r="D55" t="n">
-        <v>139.09828382013</v>
+        <v>139.0982987166949</v>
       </c>
       <c r="E55" t="n">
-        <v>142.4805908203125</v>
+        <v>142.4806060791016</v>
       </c>
       <c r="F55" t="n">
         <v>70462700</v>
@@ -1895,16 +1895,16 @@
         <v>44908</v>
       </c>
       <c r="B56" t="n">
-        <v>147.4209143273598</v>
+        <v>147.420898645852</v>
       </c>
       <c r="C56" t="n">
-        <v>147.8843792751259</v>
+        <v>147.8843635443182</v>
       </c>
       <c r="D56" t="n">
-        <v>142.2340701831816</v>
+        <v>142.2340550534105</v>
       </c>
       <c r="E56" t="n">
-        <v>143.4469604492188</v>
+        <v>143.4469451904297</v>
       </c>
       <c r="F56" t="n">
         <v>93886200</v>
@@ -1921,16 +1921,16 @@
         <v>44909</v>
       </c>
       <c r="B57" t="n">
-        <v>143.3286221868551</v>
+        <v>143.3286067000526</v>
       </c>
       <c r="C57" t="n">
-        <v>144.6204015969479</v>
+        <v>144.6203859705674</v>
       </c>
       <c r="D57" t="n">
-        <v>139.196890149234</v>
+        <v>139.1968751088693</v>
       </c>
       <c r="E57" t="n">
-        <v>141.2183837890625</v>
+        <v>141.2183685302734</v>
       </c>
       <c r="F57" t="n">
         <v>82291200</v>
@@ -1947,16 +1947,16 @@
         <v>44910</v>
       </c>
       <c r="B58" t="n">
-        <v>139.147557792699</v>
+        <v>139.1475735668216</v>
       </c>
       <c r="C58" t="n">
-        <v>139.8279642428258</v>
+        <v>139.827980094081</v>
       </c>
       <c r="D58" t="n">
-        <v>134.1382044845264</v>
+        <v>134.1382196907759</v>
       </c>
       <c r="E58" t="n">
-        <v>134.6016693115234</v>
+        <v>134.6016845703125</v>
       </c>
       <c r="F58" t="n">
         <v>98931900</v>
@@ -1973,16 +1973,16 @@
         <v>44911</v>
       </c>
       <c r="B59" t="n">
-        <v>134.7890645018001</v>
+        <v>134.7890489957113</v>
       </c>
       <c r="C59" t="n">
-        <v>135.7357054254124</v>
+        <v>135.7356898104224</v>
       </c>
       <c r="D59" t="n">
-        <v>131.870222386392</v>
+        <v>131.8702072160859</v>
       </c>
       <c r="E59" t="n">
-        <v>132.6393737792969</v>
+        <v>132.6393585205078</v>
       </c>
       <c r="F59" t="n">
         <v>160156900</v>
@@ -1999,16 +1999,16 @@
         <v>44914</v>
       </c>
       <c r="B60" t="n">
-        <v>133.2310137615175</v>
+        <v>133.2310449107972</v>
       </c>
       <c r="C60" t="n">
-        <v>133.3197585122971</v>
+        <v>133.3197896823252</v>
       </c>
       <c r="D60" t="n">
-        <v>129.4937282506023</v>
+        <v>129.4937585261083</v>
       </c>
       <c r="E60" t="n">
-        <v>130.5291137695312</v>
+        <v>130.5291442871094</v>
       </c>
       <c r="F60" t="n">
         <v>79592600</v>
@@ -2025,16 +2025,16 @@
         <v>44915</v>
       </c>
       <c r="B61" t="n">
-        <v>129.5627500848686</v>
+        <v>129.5627652387026</v>
       </c>
       <c r="C61" t="n">
-        <v>131.3968835452244</v>
+        <v>131.3968989135812</v>
       </c>
       <c r="D61" t="n">
-        <v>128.0836106828586</v>
+        <v>128.0836256636905</v>
       </c>
       <c r="E61" t="n">
-        <v>130.4600982666016</v>
+        <v>130.4601135253906</v>
       </c>
       <c r="F61" t="n">
         <v>77432800</v>
@@ -2051,16 +2051,16 @@
         <v>44916</v>
       </c>
       <c r="B62" t="n">
-        <v>131.1306634032082</v>
+        <v>131.1306484226711</v>
       </c>
       <c r="C62" t="n">
-        <v>134.9074019885418</v>
+        <v>134.9073865765452</v>
       </c>
       <c r="D62" t="n">
-        <v>130.9038661908373</v>
+        <v>130.9038512362098</v>
       </c>
       <c r="E62" t="n">
-        <v>133.5663146972656</v>
+        <v>133.5662994384766</v>
       </c>
       <c r="F62" t="n">
         <v>85928000</v>
@@ -2103,16 +2103,16 @@
         <v>44918</v>
       </c>
       <c r="B64" t="n">
-        <v>129.0992999862007</v>
+        <v>129.0992848361884</v>
       </c>
       <c r="C64" t="n">
-        <v>130.5784395576007</v>
+        <v>130.5784242340089</v>
       </c>
       <c r="D64" t="n">
-        <v>127.8371020889996</v>
+        <v>127.8370870871082</v>
       </c>
       <c r="E64" t="n">
-        <v>130.0262298583984</v>
+        <v>130.0262145996094</v>
       </c>
       <c r="F64" t="n">
         <v>63814900</v>
@@ -2129,16 +2129,16 @@
         <v>44922</v>
       </c>
       <c r="B65" t="n">
-        <v>129.5528959230332</v>
+        <v>129.5529113402431</v>
       </c>
       <c r="C65" t="n">
-        <v>129.5824775076551</v>
+        <v>129.5824929283853</v>
       </c>
       <c r="D65" t="n">
-        <v>126.929885078274</v>
+        <v>126.9299001833372</v>
       </c>
       <c r="E65" t="n">
-        <v>128.2216644287109</v>
+        <v>128.2216796875</v>
       </c>
       <c r="F65" t="n">
         <v>69007800</v>
@@ -2155,16 +2155,16 @@
         <v>44923</v>
       </c>
       <c r="B66" t="n">
-        <v>127.8666619686782</v>
+        <v>127.8666855160497</v>
       </c>
       <c r="C66" t="n">
-        <v>129.2077488876003</v>
+        <v>129.2077726819406</v>
       </c>
       <c r="D66" t="n">
-        <v>124.1195135379303</v>
+        <v>124.1195363952431</v>
       </c>
       <c r="E66" t="n">
-        <v>124.2871475219727</v>
+        <v>124.2871704101562</v>
       </c>
       <c r="F66" t="n">
         <v>85438400</v>
@@ -2181,16 +2181,16 @@
         <v>44924</v>
       </c>
       <c r="B67" t="n">
-        <v>126.2099993868646</v>
+        <v>126.2100521251047</v>
       </c>
       <c r="C67" t="n">
-        <v>128.6653680414852</v>
+        <v>128.6654218057281</v>
       </c>
       <c r="D67" t="n">
-        <v>125.9536207080926</v>
+        <v>125.953673339202</v>
       </c>
       <c r="E67" t="n">
-        <v>127.8074722290039</v>
+        <v>127.8075256347656</v>
       </c>
       <c r="F67" t="n">
         <v>75703700</v>
@@ -2207,16 +2207,16 @@
         <v>44925</v>
       </c>
       <c r="B68" t="n">
-        <v>126.624211538705</v>
+        <v>126.6241964584213</v>
       </c>
       <c r="C68" t="n">
-        <v>128.1427882077361</v>
+        <v>128.1427729465977</v>
       </c>
       <c r="D68" t="n">
-        <v>125.6578370442106</v>
+        <v>125.657822079017</v>
       </c>
       <c r="E68" t="n">
-        <v>128.1230621337891</v>
+        <v>128.123046875</v>
       </c>
       <c r="F68" t="n">
         <v>77034200</v>
@@ -2233,16 +2233,16 @@
         <v>44929</v>
       </c>
       <c r="B69" t="n">
-        <v>128.4681859729489</v>
+        <v>128.4681939201586</v>
       </c>
       <c r="C69" t="n">
-        <v>129.0795587758616</v>
+        <v>129.0795667608916</v>
       </c>
       <c r="D69" t="n">
-        <v>122.4431575567665</v>
+        <v>122.44316513126</v>
       </c>
       <c r="E69" t="n">
-        <v>123.3306427001953</v>
+        <v>123.3306503295898</v>
       </c>
       <c r="F69" t="n">
         <v>112117500</v>
@@ -2259,16 +2259,16 @@
         <v>44930</v>
       </c>
       <c r="B70" t="n">
-        <v>125.1253502965467</v>
+        <v>125.1253349737568</v>
       </c>
       <c r="C70" t="n">
-        <v>126.8707392608729</v>
+        <v>126.8707237243436</v>
       </c>
       <c r="D70" t="n">
-        <v>123.3405242295256</v>
+        <v>123.3405091253046</v>
       </c>
       <c r="E70" t="n">
-        <v>124.6027221679688</v>
+        <v>124.6027069091797</v>
       </c>
       <c r="F70" t="n">
         <v>89113600</v>
@@ -2285,16 +2285,16 @@
         <v>44931</v>
       </c>
       <c r="B71" t="n">
-        <v>125.3620061090517</v>
+        <v>125.3619828345772</v>
       </c>
       <c r="C71" t="n">
-        <v>125.9931050560214</v>
+        <v>125.9930816643783</v>
       </c>
       <c r="D71" t="n">
-        <v>123.0249704071863</v>
+        <v>123.0249475666015</v>
       </c>
       <c r="E71" t="n">
-        <v>123.2813491821289</v>
+        <v>123.2813262939453</v>
       </c>
       <c r="F71" t="n">
         <v>80962700</v>
@@ -2311,16 +2311,16 @@
         <v>44932</v>
       </c>
       <c r="B72" t="n">
-        <v>124.2575639751336</v>
+        <v>124.2575936427792</v>
       </c>
       <c r="C72" t="n">
-        <v>128.4780327086159</v>
+        <v>128.4780633839376</v>
       </c>
       <c r="D72" t="n">
-        <v>123.1531372583934</v>
+        <v>123.1531666623469</v>
       </c>
       <c r="E72" t="n">
-        <v>127.8173522949219</v>
+        <v>127.8173828125</v>
       </c>
       <c r="F72" t="n">
         <v>87754700</v>
@@ -2389,16 +2389,16 @@
         <v>44937</v>
       </c>
       <c r="B75" t="n">
-        <v>129.4247214433815</v>
+        <v>129.4247064406399</v>
       </c>
       <c r="C75" t="n">
-        <v>131.6532864682258</v>
+        <v>131.6532712071518</v>
       </c>
       <c r="D75" t="n">
-        <v>128.64571450243</v>
+        <v>128.6456995899898</v>
       </c>
       <c r="E75" t="n">
-        <v>131.6335754394531</v>
+        <v>131.6335601806641</v>
       </c>
       <c r="F75" t="n">
         <v>69458900</v>
@@ -2441,16 +2441,16 @@
         <v>44939</v>
       </c>
       <c r="B77" t="n">
-        <v>130.1938499965782</v>
+        <v>130.1938649462515</v>
       </c>
       <c r="C77" t="n">
-        <v>133.0436579985842</v>
+        <v>133.0436732754904</v>
       </c>
       <c r="D77" t="n">
-        <v>129.8290004227544</v>
+        <v>129.8290153305335</v>
       </c>
       <c r="E77" t="n">
-        <v>132.8858795166016</v>
+        <v>132.8858947753906</v>
       </c>
       <c r="F77" t="n">
         <v>57809700</v>
@@ -2493,16 +2493,16 @@
         <v>44944</v>
       </c>
       <c r="B79" t="n">
-        <v>134.9172613266098</v>
+        <v>134.9172304456464</v>
       </c>
       <c r="C79" t="n">
-        <v>136.682361304903</v>
+        <v>136.6823300199292</v>
       </c>
       <c r="D79" t="n">
-        <v>133.1521463017304</v>
+        <v>133.1521158247809</v>
       </c>
       <c r="E79" t="n">
-        <v>133.3296508789062</v>
+        <v>133.3296203613281</v>
       </c>
       <c r="F79" t="n">
         <v>69672800</v>
@@ -2519,16 +2519,16 @@
         <v>44945</v>
       </c>
       <c r="B80" t="n">
-        <v>132.2153258346004</v>
+        <v>132.2153560837081</v>
       </c>
       <c r="C80" t="n">
-        <v>134.3551454277497</v>
+        <v>134.3551761664197</v>
       </c>
       <c r="D80" t="n">
-        <v>131.9096394708051</v>
+        <v>131.9096696499759</v>
       </c>
       <c r="E80" t="n">
-        <v>133.3887786865234</v>
+        <v>133.3888092041016</v>
       </c>
       <c r="F80" t="n">
         <v>58280400</v>
@@ -2545,16 +2545,16 @@
         <v>44946</v>
       </c>
       <c r="B81" t="n">
-        <v>133.3986444948596</v>
+        <v>133.3986594670003</v>
       </c>
       <c r="C81" t="n">
-        <v>136.1005444209002</v>
+        <v>136.1005596962916</v>
       </c>
       <c r="D81" t="n">
-        <v>132.3533884425221</v>
+        <v>132.3534032973474</v>
       </c>
       <c r="E81" t="n">
-        <v>135.9526214599609</v>
+        <v>135.95263671875</v>
       </c>
       <c r="F81" t="n">
         <v>80223600</v>
@@ -2571,16 +2571,16 @@
         <v>44949</v>
       </c>
       <c r="B82" t="n">
-        <v>136.1991595385028</v>
+        <v>136.1991744739706</v>
       </c>
       <c r="C82" t="n">
-        <v>141.326855145404</v>
+        <v>141.3268706431699</v>
       </c>
       <c r="D82" t="n">
-        <v>135.9822178760608</v>
+        <v>135.982232787739</v>
       </c>
       <c r="E82" t="n">
-        <v>139.1475830078125</v>
+        <v>139.1475982666016</v>
       </c>
       <c r="F82" t="n">
         <v>81760300</v>
@@ -2675,16 +2675,16 @@
         <v>44953</v>
       </c>
       <c r="B86" t="n">
-        <v>141.1690614873003</v>
+        <v>141.1690764564527</v>
       </c>
       <c r="C86" t="n">
-        <v>145.182451718091</v>
+        <v>145.1824671128115</v>
       </c>
       <c r="D86" t="n">
-        <v>141.0901722506536</v>
+        <v>141.0901872114408</v>
       </c>
       <c r="E86" t="n">
-        <v>143.9005279541016</v>
+        <v>143.9005432128906</v>
       </c>
       <c r="F86" t="n">
         <v>70555800</v>
@@ -2727,16 +2727,16 @@
         <v>44957</v>
       </c>
       <c r="B88" t="n">
-        <v>140.7154714170084</v>
+        <v>140.715486507654</v>
       </c>
       <c r="C88" t="n">
-        <v>142.3326633733732</v>
+        <v>142.3326786374501</v>
       </c>
       <c r="D88" t="n">
-        <v>140.3013141528084</v>
+        <v>140.3013291990389</v>
       </c>
       <c r="E88" t="n">
-        <v>142.2833557128906</v>
+        <v>142.2833709716797</v>
       </c>
       <c r="F88" t="n">
         <v>65874500</v>
@@ -2779,16 +2779,16 @@
         <v>44959</v>
       </c>
       <c r="B90" t="n">
-        <v>146.8292226244252</v>
+        <v>146.8292376889623</v>
       </c>
       <c r="C90" t="n">
-        <v>149.0775131688931</v>
+        <v>149.0775284641027</v>
       </c>
       <c r="D90" t="n">
-        <v>146.1093790408974</v>
+        <v>146.1093940315793</v>
       </c>
       <c r="E90" t="n">
-        <v>148.7225341796875</v>
+        <v>148.7225494384766</v>
       </c>
       <c r="F90" t="n">
         <v>118339000</v>
@@ -2831,16 +2831,16 @@
         <v>44963</v>
       </c>
       <c r="B92" t="n">
-        <v>150.4482332133508</v>
+        <v>150.4482178700856</v>
       </c>
       <c r="C92" t="n">
-        <v>150.9708613586127</v>
+        <v>150.9708459620479</v>
       </c>
       <c r="D92" t="n">
-        <v>148.6831181180358</v>
+        <v>148.6831029547836</v>
       </c>
       <c r="E92" t="n">
-        <v>149.6199035644531</v>
+        <v>149.6198883056641</v>
       </c>
       <c r="F92" t="n">
         <v>69858300</v>
@@ -2857,16 +2857,16 @@
         <v>44964</v>
       </c>
       <c r="B93" t="n">
-        <v>148.5450551575921</v>
+        <v>148.5450254313191</v>
       </c>
       <c r="C93" t="n">
-        <v>153.0712186065277</v>
+        <v>153.071187974496</v>
       </c>
       <c r="D93" t="n">
-        <v>148.5450551575921</v>
+        <v>148.5450254313191</v>
       </c>
       <c r="E93" t="n">
-        <v>152.4992828369141</v>
+        <v>152.4992523193359</v>
       </c>
       <c r="F93" t="n">
         <v>83322600</v>
@@ -2909,16 +2909,16 @@
         <v>44966</v>
       </c>
       <c r="B95" t="n">
-        <v>151.6413538075322</v>
+        <v>151.641384913738</v>
       </c>
       <c r="C95" t="n">
-        <v>152.1837078719676</v>
+        <v>152.1837390894266</v>
       </c>
       <c r="D95" t="n">
-        <v>148.3280813053058</v>
+        <v>148.3281117318598</v>
       </c>
       <c r="E95" t="n">
-        <v>148.7718200683594</v>
+        <v>148.7718505859375</v>
       </c>
       <c r="F95" t="n">
         <v>56007100</v>
@@ -2961,16 +2961,16 @@
         <v>44970</v>
       </c>
       <c r="B97" t="n">
-        <v>149.0779872325639</v>
+        <v>149.0780171748983</v>
       </c>
       <c r="C97" t="n">
-        <v>152.3469357834477</v>
+        <v>152.3469663823508</v>
       </c>
       <c r="D97" t="n">
-        <v>149.04836048379</v>
+        <v>149.0483904201738</v>
       </c>
       <c r="E97" t="n">
-        <v>151.9420318603516</v>
+        <v>151.9420623779297</v>
       </c>
       <c r="F97" t="n">
         <v>62199000</v>
@@ -3065,16 +3065,16 @@
         <v>44974</v>
       </c>
       <c r="B101" t="n">
-        <v>150.4606406584018</v>
+        <v>150.4606254196174</v>
       </c>
       <c r="C101" t="n">
-        <v>151.102573669042</v>
+        <v>151.1025583652421</v>
       </c>
       <c r="D101" t="n">
-        <v>148.9792428773327</v>
+        <v>148.9792277885856</v>
       </c>
       <c r="E101" t="n">
-        <v>150.6581573486328</v>
+        <v>150.6581420898438</v>
       </c>
       <c r="F101" t="n">
         <v>59144100</v>
@@ -3091,16 +3091,16 @@
         <v>44978</v>
       </c>
       <c r="B102" t="n">
-        <v>148.3372813470114</v>
+        <v>148.3373276536547</v>
       </c>
       <c r="C102" t="n">
-        <v>149.4236456491149</v>
+        <v>149.42369229489</v>
       </c>
       <c r="D102" t="n">
-        <v>146.5694867858314</v>
+        <v>146.5695325406201</v>
       </c>
       <c r="E102" t="n">
-        <v>146.6386108398438</v>
+        <v>146.6386566162109</v>
       </c>
       <c r="F102" t="n">
         <v>58867200</v>
@@ -3143,16 +3143,16 @@
         <v>44980</v>
       </c>
       <c r="B104" t="n">
-        <v>148.2286407440195</v>
+        <v>148.2286560732811</v>
       </c>
       <c r="C104" t="n">
-        <v>148.4755403448602</v>
+        <v>148.4755556996553</v>
       </c>
       <c r="D104" t="n">
-        <v>145.4139943361692</v>
+        <v>145.4140093743504</v>
       </c>
       <c r="E104" t="n">
-        <v>147.5471954345703</v>
+        <v>147.5472106933594</v>
       </c>
       <c r="F104" t="n">
         <v>48394200</v>
@@ -3169,16 +3169,16 @@
         <v>44981</v>
       </c>
       <c r="B105" t="n">
-        <v>145.2856125866983</v>
+        <v>145.2856431874803</v>
       </c>
       <c r="C105" t="n">
-        <v>145.3646222732227</v>
+        <v>145.3646528906462</v>
       </c>
       <c r="D105" t="n">
-        <v>143.912851306144</v>
+        <v>143.9128816177882</v>
       </c>
       <c r="E105" t="n">
-        <v>144.8905792236328</v>
+        <v>144.8906097412109</v>
       </c>
       <c r="F105" t="n">
         <v>55469600</v>
@@ -3195,16 +3195,16 @@
         <v>44984</v>
       </c>
       <c r="B106" t="n">
-        <v>145.878199275915</v>
+        <v>145.8781840387877</v>
       </c>
       <c r="C106" t="n">
-        <v>147.3200848269568</v>
+        <v>147.3200694392231</v>
       </c>
       <c r="D106" t="n">
-        <v>145.6214139893433</v>
+        <v>145.6213987790375</v>
       </c>
       <c r="E106" t="n">
-        <v>146.0855865478516</v>
+        <v>146.0855712890625</v>
       </c>
       <c r="F106" t="n">
         <v>44998500</v>
@@ -3247,16 +3247,16 @@
         <v>44986</v>
       </c>
       <c r="B108" t="n">
-        <v>145.0091039171703</v>
+        <v>145.0090884987679</v>
       </c>
       <c r="C108" t="n">
-        <v>145.4041373284501</v>
+        <v>145.4041218680449</v>
       </c>
       <c r="D108" t="n">
-        <v>143.2116672358624</v>
+        <v>143.2116520085762</v>
       </c>
       <c r="E108" t="n">
-        <v>143.5079498291016</v>
+        <v>143.5079345703125</v>
       </c>
       <c r="F108" t="n">
         <v>55479000</v>
@@ -3273,16 +3273,16 @@
         <v>44987</v>
       </c>
       <c r="B109" t="n">
-        <v>142.5894699520932</v>
+        <v>142.58948505088</v>
       </c>
       <c r="C109" t="n">
-        <v>144.8905761637681</v>
+        <v>144.8905915062189</v>
       </c>
       <c r="D109" t="n">
-        <v>142.1154118429578</v>
+        <v>142.1154268915466</v>
       </c>
       <c r="E109" t="n">
-        <v>144.1004943847656</v>
+        <v>144.1005096435547</v>
       </c>
       <c r="F109" t="n">
         <v>52238100</v>
@@ -3325,16 +3325,16 @@
         <v>44991</v>
       </c>
       <c r="B111" t="n">
-        <v>151.8827746062918</v>
+        <v>151.8827898611123</v>
       </c>
       <c r="C111" t="n">
-        <v>154.3616566151018</v>
+        <v>154.3616721188966</v>
       </c>
       <c r="D111" t="n">
-        <v>151.5568803455041</v>
+        <v>151.5568955675924</v>
       </c>
       <c r="E111" t="n">
-        <v>151.9222869873047</v>
+        <v>151.9223022460938</v>
       </c>
       <c r="F111" t="n">
         <v>87558000</v>
@@ -3429,16 +3429,16 @@
         <v>44995</v>
       </c>
       <c r="B115" t="n">
-        <v>148.3472018339828</v>
+        <v>148.3471863994858</v>
       </c>
       <c r="C115" t="n">
-        <v>149.068144638662</v>
+        <v>149.0681291291559</v>
       </c>
       <c r="D115" t="n">
-        <v>145.7794392817679</v>
+        <v>145.7794241144287</v>
       </c>
       <c r="E115" t="n">
-        <v>146.6584014892578</v>
+        <v>146.6583862304688</v>
       </c>
       <c r="F115" t="n">
         <v>68572400</v>
@@ -3455,16 +3455,16 @@
         <v>44998</v>
       </c>
       <c r="B116" t="n">
-        <v>145.9769423152844</v>
+        <v>145.9769273262397</v>
       </c>
       <c r="C116" t="n">
-        <v>151.2408445051467</v>
+        <v>151.2408289755998</v>
       </c>
       <c r="D116" t="n">
-        <v>145.8683058697316</v>
+        <v>145.8682908918417</v>
       </c>
       <c r="E116" t="n">
-        <v>148.6039581298828</v>
+        <v>148.6039428710938</v>
       </c>
       <c r="F116" t="n">
         <v>84457100</v>
@@ -3507,16 +3507,16 @@
         <v>45000</v>
       </c>
       <c r="B118" t="n">
-        <v>149.315047021069</v>
+        <v>149.3150319418071</v>
       </c>
       <c r="C118" t="n">
-        <v>151.3494978932021</v>
+        <v>151.3494826084818</v>
       </c>
       <c r="D118" t="n">
-        <v>148.060792476474</v>
+        <v>148.0607775238788</v>
       </c>
       <c r="E118" t="n">
-        <v>151.0927276611328</v>
+        <v>151.0927124023438</v>
       </c>
       <c r="F118" t="n">
         <v>77167900</v>
@@ -3533,16 +3533,16 @@
         <v>45001</v>
       </c>
       <c r="B119" t="n">
-        <v>150.2730102530188</v>
+        <v>150.2729953555065</v>
       </c>
       <c r="C119" t="n">
-        <v>154.5196873503704</v>
+        <v>154.5196720318581</v>
       </c>
       <c r="D119" t="n">
-        <v>149.7594547490333</v>
+        <v>149.7594399024329</v>
       </c>
       <c r="E119" t="n">
-        <v>153.9172515869141</v>
+        <v>153.917236328125</v>
       </c>
       <c r="F119" t="n">
         <v>76161100</v>
@@ -3585,16 +3585,16 @@
         <v>45005</v>
       </c>
       <c r="B121" t="n">
-        <v>153.146921833413</v>
+        <v>153.1469068004993</v>
       </c>
       <c r="C121" t="n">
-        <v>155.8628179780578</v>
+        <v>155.8628026785515</v>
       </c>
       <c r="D121" t="n">
-        <v>152.238317861993</v>
+        <v>152.2383029182678</v>
       </c>
       <c r="E121" t="n">
-        <v>155.4480133056641</v>
+        <v>155.447998046875</v>
       </c>
       <c r="F121" t="n">
         <v>73641400</v>
@@ -3611,16 +3611,16 @@
         <v>45006</v>
       </c>
       <c r="B122" t="n">
-        <v>155.3689878125348</v>
+        <v>155.3690028835596</v>
       </c>
       <c r="C122" t="n">
-        <v>157.4231792271752</v>
+        <v>157.4231944974596</v>
       </c>
       <c r="D122" t="n">
-        <v>154.5986471951001</v>
+        <v>154.5986621914006</v>
       </c>
       <c r="E122" t="n">
-        <v>157.3046722412109</v>
+        <v>157.3046875</v>
       </c>
       <c r="F122" t="n">
         <v>73938300</v>
@@ -3637,16 +3637,16 @@
         <v>45007</v>
       </c>
       <c r="B123" t="n">
-        <v>157.3244517354188</v>
+        <v>157.3244363345121</v>
       </c>
       <c r="C123" t="n">
-        <v>160.1292279954925</v>
+        <v>160.1292123200188</v>
       </c>
       <c r="D123" t="n">
-        <v>155.8529244736231</v>
+        <v>155.8529092167681</v>
       </c>
       <c r="E123" t="n">
-        <v>155.8726806640625</v>
+        <v>155.8726654052734</v>
       </c>
       <c r="F123" t="n">
         <v>75701800</v>
@@ -3663,16 +3663,16 @@
         <v>45008</v>
       </c>
       <c r="B124" t="n">
-        <v>156.8602793382069</v>
+        <v>156.8602945873959</v>
       </c>
       <c r="C124" t="n">
-        <v>159.5465485969178</v>
+        <v>159.5465641072527</v>
       </c>
       <c r="D124" t="n">
-        <v>155.7245319651787</v>
+        <v>155.7245471039558</v>
       </c>
       <c r="E124" t="n">
-        <v>156.9590301513672</v>
+        <v>156.9590454101562</v>
       </c>
       <c r="F124" t="n">
         <v>67622100</v>
@@ -3689,16 +3689,16 @@
         <v>45009</v>
       </c>
       <c r="B125" t="n">
-        <v>156.8899336907309</v>
+        <v>156.8899185642958</v>
       </c>
       <c r="C125" t="n">
-        <v>158.3515755808484</v>
+        <v>158.35156031349</v>
       </c>
       <c r="D125" t="n">
-        <v>155.8924644058469</v>
+        <v>155.892449375582</v>
       </c>
       <c r="E125" t="n">
-        <v>158.2626953125</v>
+        <v>158.2626800537109</v>
       </c>
       <c r="F125" t="n">
         <v>59196500</v>
@@ -3793,16 +3793,16 @@
         <v>45015</v>
       </c>
       <c r="B129" t="n">
-        <v>159.5267880006936</v>
+        <v>159.5268031814781</v>
       </c>
       <c r="C129" t="n">
-        <v>160.4551330221979</v>
+        <v>160.4551482913249</v>
       </c>
       <c r="D129" t="n">
-        <v>159.2700178100987</v>
+        <v>159.2700329664486</v>
       </c>
       <c r="E129" t="n">
-        <v>160.3464965820312</v>
+        <v>160.3465118408203</v>
       </c>
       <c r="F129" t="n">
         <v>49501700</v>
@@ -3819,16 +3819,16 @@
         <v>45016</v>
       </c>
       <c r="B130" t="n">
-        <v>160.4254966894993</v>
+        <v>160.4255267518138</v>
       </c>
       <c r="C130" t="n">
-        <v>162.953746342841</v>
+        <v>162.953776878927</v>
       </c>
       <c r="D130" t="n">
-        <v>159.9020707098414</v>
+        <v>159.9021006740705</v>
       </c>
       <c r="E130" t="n">
-        <v>162.85498046875</v>
+        <v>162.8550109863281</v>
       </c>
       <c r="F130" t="n">
         <v>68749800</v>
@@ -3845,16 +3845,16 @@
         <v>45019</v>
       </c>
       <c r="B131" t="n">
-        <v>162.2328216703816</v>
+        <v>162.2328065860621</v>
       </c>
       <c r="C131" t="n">
-        <v>164.2277599360897</v>
+        <v>164.2277446662819</v>
       </c>
       <c r="D131" t="n">
-        <v>162.1834387278613</v>
+        <v>162.1834236481334</v>
       </c>
       <c r="E131" t="n">
-        <v>164.1092529296875</v>
+        <v>164.1092376708984</v>
       </c>
       <c r="F131" t="n">
         <v>56976200</v>
@@ -3897,16 +3897,16 @@
         <v>45021</v>
       </c>
       <c r="B133" t="n">
-        <v>162.6969833628771</v>
+        <v>162.6969987129814</v>
       </c>
       <c r="C133" t="n">
-        <v>163.0031364887197</v>
+        <v>163.0031518677089</v>
       </c>
       <c r="D133" t="n">
-        <v>159.7934413430479</v>
+        <v>159.7934564192093</v>
       </c>
       <c r="E133" t="n">
-        <v>161.7291259765625</v>
+        <v>161.7291412353516</v>
       </c>
       <c r="F133" t="n">
         <v>51511700</v>
@@ -3923,16 +3923,16 @@
         <v>45022</v>
       </c>
       <c r="B134" t="n">
-        <v>160.4156102869939</v>
+        <v>160.4156403912687</v>
       </c>
       <c r="C134" t="n">
-        <v>162.9142482495303</v>
+        <v>162.9142788227101</v>
       </c>
       <c r="D134" t="n">
-        <v>159.9909501834743</v>
+        <v>159.9909802080555</v>
       </c>
       <c r="E134" t="n">
-        <v>162.6179656982422</v>
+        <v>162.6179962158203</v>
       </c>
       <c r="F134" t="n">
         <v>45390100</v>
@@ -4027,16 +4027,16 @@
         <v>45029</v>
       </c>
       <c r="B138" t="n">
-        <v>159.6255803374139</v>
+        <v>159.6255952339963</v>
       </c>
       <c r="C138" t="n">
-        <v>163.7438650470286</v>
+        <v>163.7438803279377</v>
       </c>
       <c r="D138" t="n">
-        <v>159.4181779828813</v>
+        <v>159.4181928601085</v>
       </c>
       <c r="E138" t="n">
-        <v>163.5068359375</v>
+        <v>163.5068511962891</v>
       </c>
       <c r="F138" t="n">
         <v>68445600</v>
@@ -4053,16 +4053,16 @@
         <v>45030</v>
       </c>
       <c r="B139" t="n">
-        <v>162.5488571823505</v>
+        <v>162.5488267793007</v>
       </c>
       <c r="C139" t="n">
-        <v>164.2574136863755</v>
+        <v>164.2573829637581</v>
       </c>
       <c r="D139" t="n">
-        <v>161.7884170766324</v>
+        <v>161.7883868158149</v>
       </c>
       <c r="E139" t="n">
-        <v>163.1611785888672</v>
+        <v>163.1611480712891</v>
       </c>
       <c r="F139" t="n">
         <v>49386500</v>
@@ -4079,16 +4079,16 @@
         <v>45033</v>
       </c>
       <c r="B140" t="n">
-        <v>163.0426602513732</v>
+        <v>163.0426754972335</v>
       </c>
       <c r="C140" t="n">
-        <v>163.3389428652635</v>
+        <v>163.3389581388287</v>
       </c>
       <c r="D140" t="n">
-        <v>161.9958080759127</v>
+        <v>161.9958232238835</v>
       </c>
       <c r="E140" t="n">
-        <v>163.1809234619141</v>
+        <v>163.1809387207031</v>
       </c>
       <c r="F140" t="n">
         <v>41516200</v>
@@ -4105,16 +4105,16 @@
         <v>45034</v>
       </c>
       <c r="B141" t="n">
-        <v>164.0401109685465</v>
+        <v>164.0401261934215</v>
       </c>
       <c r="C141" t="n">
-        <v>165.3338625458121</v>
+        <v>165.3338778907626</v>
       </c>
       <c r="D141" t="n">
-        <v>163.5956796039106</v>
+        <v>163.5956947875371</v>
       </c>
       <c r="E141" t="n">
-        <v>164.405517578125</v>
+        <v>164.4055328369141</v>
       </c>
       <c r="F141" t="n">
         <v>49923000</v>
@@ -4131,16 +4131,16 @@
         <v>45035</v>
       </c>
       <c r="B142" t="n">
-        <v>163.7438403311756</v>
+        <v>163.7438252389654</v>
       </c>
       <c r="C142" t="n">
-        <v>166.0745734796078</v>
+        <v>166.0745581725747</v>
       </c>
       <c r="D142" t="n">
-        <v>163.4870550672227</v>
+        <v>163.4870399986803</v>
       </c>
       <c r="E142" t="n">
-        <v>165.5511474609375</v>
+        <v>165.5511322021484</v>
       </c>
       <c r="F142" t="n">
         <v>47720200</v>
@@ -4157,16 +4157,16 @@
         <v>45036</v>
       </c>
       <c r="B143" t="n">
-        <v>164.0302449344763</v>
+        <v>164.0302297269617</v>
       </c>
       <c r="C143" t="n">
-        <v>165.7881692055875</v>
+        <v>165.7881538350928</v>
       </c>
       <c r="D143" t="n">
-        <v>163.5068188913679</v>
+        <v>163.5068037323809</v>
       </c>
       <c r="E143" t="n">
-        <v>164.5832977294922</v>
+        <v>164.5832824707031</v>
       </c>
       <c r="F143" t="n">
         <v>52456400</v>
@@ -4183,16 +4183,16 @@
         <v>45037</v>
       </c>
       <c r="B144" t="n">
-        <v>163.0031374919961</v>
+        <v>163.003152753559</v>
       </c>
       <c r="C144" t="n">
-        <v>164.385769381588</v>
+        <v>164.3857847726032</v>
       </c>
       <c r="D144" t="n">
-        <v>162.4500847361593</v>
+        <v>162.4500999459414</v>
       </c>
       <c r="E144" t="n">
-        <v>162.9735107421875</v>
+        <v>162.9735260009766</v>
       </c>
       <c r="F144" t="n">
         <v>58337300</v>
@@ -4209,16 +4209,16 @@
         <v>45040</v>
       </c>
       <c r="B145" t="n">
-        <v>162.9537385417183</v>
+        <v>162.9537537700505</v>
       </c>
       <c r="C145" t="n">
-        <v>163.5463036187833</v>
+        <v>163.5463189024918</v>
       </c>
       <c r="D145" t="n">
-        <v>161.8575036978372</v>
+        <v>161.8575188237243</v>
       </c>
       <c r="E145" t="n">
-        <v>163.2796478271484</v>
+        <v>163.2796630859375</v>
       </c>
       <c r="F145" t="n">
         <v>41949600</v>
@@ -4235,16 +4235,16 @@
         <v>45041</v>
       </c>
       <c r="B146" t="n">
-        <v>163.1413863693782</v>
+        <v>163.1414171515646</v>
       </c>
       <c r="C146" t="n">
-        <v>164.2474917840186</v>
+        <v>164.2475227749096</v>
       </c>
       <c r="D146" t="n">
-        <v>161.6994860371025</v>
+        <v>161.6995165472252</v>
       </c>
       <c r="E146" t="n">
-        <v>161.7389984130859</v>
+        <v>161.7390289306641</v>
       </c>
       <c r="F146" t="n">
         <v>48714100</v>
@@ -4261,16 +4261,16 @@
         <v>45042</v>
       </c>
       <c r="B147" t="n">
-        <v>161.0378100360216</v>
+        <v>161.0378252295865</v>
       </c>
       <c r="C147" t="n">
-        <v>163.2302799257066</v>
+        <v>163.2302953261262</v>
       </c>
       <c r="D147" t="n">
-        <v>160.7810398494085</v>
+        <v>160.7810550187477</v>
       </c>
       <c r="E147" t="n">
-        <v>161.7291259765625</v>
+        <v>161.7291412353516</v>
       </c>
       <c r="F147" t="n">
         <v>45498800</v>
@@ -4287,16 +4287,16 @@
         <v>45043</v>
       </c>
       <c r="B148" t="n">
-        <v>163.1414186606658</v>
+        <v>163.1413887265841</v>
       </c>
       <c r="C148" t="n">
-        <v>166.4696211921265</v>
+        <v>166.4695906473679</v>
       </c>
       <c r="D148" t="n">
-        <v>163.1414186606658</v>
+        <v>163.1413887265841</v>
       </c>
       <c r="E148" t="n">
-        <v>166.3214874267578</v>
+        <v>166.3214569091797</v>
       </c>
       <c r="F148" t="n">
         <v>64902300</v>
@@ -4365,16 +4365,16 @@
         <v>45048</v>
       </c>
       <c r="B151" t="n">
-        <v>167.9806712447888</v>
+        <v>167.9806250474325</v>
       </c>
       <c r="C151" t="n">
-        <v>168.2374565696184</v>
+        <v>168.237410301642</v>
       </c>
       <c r="D151" t="n">
-        <v>165.4622913662944</v>
+        <v>165.4622458615326</v>
       </c>
       <c r="E151" t="n">
-        <v>166.4498901367188</v>
+        <v>166.4498443603516</v>
       </c>
       <c r="F151" t="n">
         <v>48425700</v>
@@ -4443,16 +4443,16 @@
         <v>45051</v>
       </c>
       <c r="B154" t="n">
-        <v>168.8596039082526</v>
+        <v>168.8595738460577</v>
       </c>
       <c r="C154" t="n">
-        <v>172.1384384839267</v>
+        <v>172.1384078379986</v>
       </c>
       <c r="D154" t="n">
-        <v>168.6423310113316</v>
+        <v>168.642300987818</v>
       </c>
       <c r="E154" t="n">
-        <v>171.4174957275391</v>
+        <v>171.4174652099609</v>
       </c>
       <c r="F154" t="n">
         <v>113453200</v>
@@ -4469,16 +4469,16 @@
         <v>45054</v>
       </c>
       <c r="B155" t="n">
-        <v>170.3410185257051</v>
+        <v>170.3409881875394</v>
       </c>
       <c r="C155" t="n">
-        <v>171.6940389838182</v>
+        <v>171.6940084046762</v>
       </c>
       <c r="D155" t="n">
-        <v>169.9756118311756</v>
+        <v>169.9755815580898</v>
       </c>
       <c r="E155" t="n">
-        <v>171.3483734130859</v>
+        <v>171.3483428955078</v>
       </c>
       <c r="F155" t="n">
         <v>55962800</v>
@@ -4495,16 +4495,16 @@
         <v>45055</v>
       </c>
       <c r="B156" t="n">
-        <v>170.9039259181643</v>
+        <v>170.9039566631539</v>
       </c>
       <c r="C156" t="n">
-        <v>171.3878395456677</v>
+        <v>171.3878703777116</v>
       </c>
       <c r="D156" t="n">
-        <v>169.471911086302</v>
+        <v>169.4719415736773</v>
       </c>
       <c r="E156" t="n">
-        <v>169.6398010253906</v>
+        <v>169.6398315429688</v>
       </c>
       <c r="F156" t="n">
         <v>45326900</v>
@@ -4521,16 +4521,16 @@
         <v>45056</v>
       </c>
       <c r="B157" t="n">
-        <v>170.8743266381514</v>
+        <v>170.8743114268366</v>
       </c>
       <c r="C157" t="n">
-        <v>171.8717958729345</v>
+        <v>171.8717805728245</v>
       </c>
       <c r="D157" t="n">
-        <v>169.7682058769857</v>
+        <v>169.7681907641384</v>
       </c>
       <c r="E157" t="n">
-        <v>171.4076232910156</v>
+        <v>171.4076080322266</v>
       </c>
       <c r="F157" t="n">
         <v>53724500</v>
@@ -4547,16 +4547,16 @@
         <v>45057</v>
       </c>
       <c r="B158" t="n">
-        <v>171.6940265101682</v>
+        <v>171.6940417777398</v>
       </c>
       <c r="C158" t="n">
-        <v>172.4248398461332</v>
+        <v>172.4248551786911</v>
       </c>
       <c r="D158" t="n">
-        <v>170.0348529885771</v>
+        <v>170.0348681086098</v>
       </c>
       <c r="E158" t="n">
-        <v>171.5952606201172</v>
+        <v>171.5952758789062</v>
       </c>
       <c r="F158" t="n">
         <v>49514700</v>
@@ -4573,16 +4573,16 @@
         <v>45058</v>
       </c>
       <c r="B159" t="n">
-        <v>171.7040042455284</v>
+        <v>171.7040195971583</v>
       </c>
       <c r="C159" t="n">
-        <v>172.1391510211994</v>
+        <v>172.1391664117347</v>
       </c>
       <c r="D159" t="n">
-        <v>169.1129221963601</v>
+        <v>169.1129373163278</v>
       </c>
       <c r="E159" t="n">
-        <v>170.6656036376953</v>
+        <v>170.6656188964844</v>
       </c>
       <c r="F159" t="n">
         <v>45533100</v>
@@ -4599,16 +4599,16 @@
         <v>45061</v>
       </c>
       <c r="B160" t="n">
-        <v>171.2490949935239</v>
+        <v>171.2491103489714</v>
       </c>
       <c r="C160" t="n">
-        <v>171.2985462361859</v>
+        <v>171.2985615960675</v>
       </c>
       <c r="D160" t="n">
-        <v>169.5777425881936</v>
+        <v>169.5777577937755</v>
       </c>
       <c r="E160" t="n">
-        <v>170.1711273193359</v>
+        <v>170.171142578125</v>
       </c>
       <c r="F160" t="n">
         <v>37266700</v>
@@ -4625,16 +4625,16 @@
         <v>45062</v>
       </c>
       <c r="B161" t="n">
-        <v>170.0920083491569</v>
+        <v>170.0920236008516</v>
       </c>
       <c r="C161" t="n">
-        <v>171.229311478379</v>
+        <v>171.2293268320526</v>
       </c>
       <c r="D161" t="n">
-        <v>169.9041026812818</v>
+        <v>169.9041179161275</v>
       </c>
       <c r="E161" t="n">
-        <v>170.1711273193359</v>
+        <v>170.171142578125</v>
       </c>
       <c r="F161" t="n">
         <v>42110300</v>
@@ -4651,16 +4651,16 @@
         <v>45063</v>
       </c>
       <c r="B162" t="n">
-        <v>169.81509031615</v>
+        <v>169.8151054883472</v>
       </c>
       <c r="C162" t="n">
-        <v>171.0216130475368</v>
+        <v>171.0216283275313</v>
       </c>
       <c r="D162" t="n">
-        <v>168.5393177403003</v>
+        <v>168.5393327985131</v>
       </c>
       <c r="E162" t="n">
-        <v>170.7842712402344</v>
+        <v>170.7842864990234</v>
       </c>
       <c r="F162" t="n">
         <v>57951600</v>
@@ -4703,16 +4703,16 @@
         <v>45065</v>
       </c>
       <c r="B164" t="n">
-        <v>174.4434884348136</v>
+        <v>174.4434577029371</v>
       </c>
       <c r="C164" t="n">
-        <v>174.4434884348136</v>
+        <v>174.4434577029371</v>
       </c>
       <c r="D164" t="n">
-        <v>173.0094925918154</v>
+        <v>173.0094621125674</v>
       </c>
       <c r="E164" t="n">
-        <v>173.2270660400391</v>
+        <v>173.2270355224609</v>
       </c>
       <c r="F164" t="n">
         <v>55809500</v>
@@ -4729,16 +4729,16 @@
         <v>45068</v>
       </c>
       <c r="B165" t="n">
-        <v>172.0600754830286</v>
+        <v>172.0600450039918</v>
       </c>
       <c r="C165" t="n">
-        <v>172.7820305841642</v>
+        <v>172.781999977239</v>
       </c>
       <c r="D165" t="n">
-        <v>171.5359253955981</v>
+        <v>171.5358950094103</v>
       </c>
       <c r="E165" t="n">
-        <v>172.2776489257812</v>
+        <v>172.2776184082031</v>
       </c>
       <c r="F165" t="n">
         <v>43570900</v>
@@ -4755,16 +4755,16 @@
         <v>45069</v>
       </c>
       <c r="B166" t="n">
-        <v>171.2194295629667</v>
+        <v>171.2194603598222</v>
       </c>
       <c r="C166" t="n">
-        <v>171.4666706891927</v>
+        <v>171.4667015305189</v>
       </c>
       <c r="D166" t="n">
-        <v>169.3898391927339</v>
+        <v>169.3898696605051</v>
       </c>
       <c r="E166" t="n">
-        <v>169.666748046875</v>
+        <v>169.6667785644531</v>
       </c>
       <c r="F166" t="n">
         <v>50747300</v>
@@ -4807,16 +4807,16 @@
         <v>45071</v>
       </c>
       <c r="B168" t="n">
-        <v>170.5073923665693</v>
+        <v>170.5074075741986</v>
       </c>
       <c r="C168" t="n">
-        <v>171.9809399805049</v>
+        <v>171.9809553195606</v>
       </c>
       <c r="D168" t="n">
-        <v>169.795336638739</v>
+        <v>169.7953517828598</v>
       </c>
       <c r="E168" t="n">
-        <v>171.0809936523438</v>
+        <v>171.0810089111328</v>
       </c>
       <c r="F168" t="n">
         <v>56058300</v>
@@ -4833,16 +4833,16 @@
         <v>45072</v>
       </c>
       <c r="B169" t="n">
-        <v>171.4073181441673</v>
+        <v>171.4073482946951</v>
       </c>
       <c r="C169" t="n">
-        <v>173.8302779215346</v>
+        <v>173.8303084982607</v>
       </c>
       <c r="D169" t="n">
-        <v>171.1996289790676</v>
+        <v>171.1996590930629</v>
       </c>
       <c r="E169" t="n">
-        <v>173.4940185546875</v>
+        <v>173.4940490722656</v>
       </c>
       <c r="F169" t="n">
         <v>54835000</v>
@@ -4937,16 +4937,16 @@
         <v>45079</v>
       </c>
       <c r="B173" t="n">
-        <v>179.032259237154</v>
+        <v>179.0322745026893</v>
       </c>
       <c r="C173" t="n">
-        <v>179.7739826826232</v>
+        <v>179.773998011403</v>
       </c>
       <c r="D173" t="n">
-        <v>177.2817876805341</v>
+        <v>177.281802796812</v>
       </c>
       <c r="E173" t="n">
-        <v>178.9531402587891</v>
+        <v>178.9531555175781</v>
       </c>
       <c r="F173" t="n">
         <v>61996900</v>
@@ -4989,16 +4989,16 @@
         <v>45083</v>
       </c>
       <c r="B175" t="n">
-        <v>177.9839838617166</v>
+        <v>177.9839532147194</v>
       </c>
       <c r="C175" t="n">
-        <v>178.1323225352186</v>
+        <v>178.132291862679</v>
       </c>
       <c r="D175" t="n">
-        <v>175.4720049941186</v>
+        <v>175.4719747796581</v>
       </c>
       <c r="E175" t="n">
-        <v>177.2323760986328</v>
+        <v>177.2323455810547</v>
       </c>
       <c r="F175" t="n">
         <v>64848400</v>
@@ -5015,16 +5015,16 @@
         <v>45084</v>
       </c>
       <c r="B176" t="n">
-        <v>176.4708344586407</v>
+        <v>176.4708497706318</v>
       </c>
       <c r="C176" t="n">
-        <v>179.2102704524039</v>
+        <v>179.2102860020899</v>
       </c>
       <c r="D176" t="n">
-        <v>175.3631990057406</v>
+        <v>175.3632142216245</v>
       </c>
       <c r="E176" t="n">
-        <v>175.8576812744141</v>
+        <v>175.8576965332031</v>
       </c>
       <c r="F176" t="n">
         <v>61944600</v>
@@ -5041,16 +5041,16 @@
         <v>45085</v>
       </c>
       <c r="B177" t="n">
-        <v>175.9368280808564</v>
+        <v>175.936798014529</v>
       </c>
       <c r="C177" t="n">
-        <v>178.8443869444726</v>
+        <v>178.8443563812644</v>
       </c>
       <c r="D177" t="n">
-        <v>175.5016962542024</v>
+        <v>175.5016662622359</v>
       </c>
       <c r="E177" t="n">
-        <v>178.5773773193359</v>
+        <v>178.5773468017578</v>
       </c>
       <c r="F177" t="n">
         <v>50214900</v>
@@ -5067,16 +5067,16 @@
         <v>45086</v>
       </c>
       <c r="B178" t="n">
-        <v>179.4970774647442</v>
+        <v>179.4970621604222</v>
       </c>
       <c r="C178" t="n">
-        <v>180.219017407747</v>
+        <v>180.2190020418708</v>
       </c>
       <c r="D178" t="n">
-        <v>178.6366830793792</v>
+        <v>178.6366678484163</v>
       </c>
       <c r="E178" t="n">
-        <v>178.9630432128906</v>
+        <v>178.9630279541016</v>
       </c>
       <c r="F178" t="n">
         <v>48900000</v>
@@ -5093,16 +5093,16 @@
         <v>45089</v>
       </c>
       <c r="B179" t="n">
-        <v>179.26963019609</v>
+        <v>179.2696000969458</v>
       </c>
       <c r="C179" t="n">
-        <v>181.860712806028</v>
+        <v>181.8606822718443</v>
       </c>
       <c r="D179" t="n">
-        <v>178.9729377766124</v>
+        <v>178.9729077272824</v>
       </c>
       <c r="E179" t="n">
-        <v>181.7618103027344</v>
+        <v>181.7617797851562</v>
       </c>
       <c r="F179" t="n">
         <v>54274900</v>
@@ -5119,16 +5119,16 @@
         <v>45090</v>
       </c>
       <c r="B180" t="n">
-        <v>180.7827428310429</v>
+        <v>180.7827276147059</v>
       </c>
       <c r="C180" t="n">
-        <v>182.1178360675422</v>
+        <v>182.1178207388316</v>
       </c>
       <c r="D180" t="n">
-        <v>180.4267149498958</v>
+        <v>180.4266997635254</v>
       </c>
       <c r="E180" t="n">
-        <v>181.287109375</v>
+        <v>181.2870941162109</v>
       </c>
       <c r="F180" t="n">
         <v>54929100</v>
@@ -5223,16 +5223,16 @@
         <v>45097</v>
       </c>
       <c r="B184" t="n">
-        <v>182.3749530885541</v>
+        <v>182.3749682978587</v>
       </c>
       <c r="C184" t="n">
-        <v>184.0463055632048</v>
+        <v>184.0463209118931</v>
       </c>
       <c r="D184" t="n">
-        <v>182.3749530885541</v>
+        <v>182.3749682978587</v>
       </c>
       <c r="E184" t="n">
-        <v>182.9683227539062</v>
+        <v>182.9683380126953</v>
       </c>
       <c r="F184" t="n">
         <v>49799100</v>
@@ -5249,16 +5249,16 @@
         <v>45098</v>
       </c>
       <c r="B185" t="n">
-        <v>182.8595456743025</v>
+        <v>182.859530337545</v>
       </c>
       <c r="C185" t="n">
-        <v>183.3639272703552</v>
+        <v>183.3639118912943</v>
       </c>
       <c r="D185" t="n">
-        <v>180.5750398981168</v>
+        <v>180.575024752965</v>
       </c>
       <c r="E185" t="n">
-        <v>181.929931640625</v>
+        <v>181.9299163818359</v>
       </c>
       <c r="F185" t="n">
         <v>49515700</v>
@@ -5275,16 +5275,16 @@
         <v>45099</v>
       </c>
       <c r="B186" t="n">
-        <v>181.7123668419414</v>
+        <v>181.7123518491607</v>
       </c>
       <c r="C186" t="n">
-        <v>184.9858373580588</v>
+        <v>184.9858220951895</v>
       </c>
       <c r="D186" t="n">
-        <v>181.6431320743364</v>
+        <v>181.6431170872681</v>
       </c>
       <c r="E186" t="n">
-        <v>184.9363861083984</v>
+        <v>184.9363708496094</v>
       </c>
       <c r="F186" t="n">
         <v>51245300</v>
@@ -5301,16 +5301,16 @@
         <v>45100</v>
       </c>
       <c r="B187" t="n">
-        <v>183.5023838322858</v>
+        <v>183.5023686658594</v>
       </c>
       <c r="C187" t="n">
-        <v>185.490197237987</v>
+        <v>185.4901819072684</v>
       </c>
       <c r="D187" t="n">
-        <v>182.9683344997437</v>
+        <v>182.9683193774565</v>
       </c>
       <c r="E187" t="n">
-        <v>184.6199035644531</v>
+        <v>184.6198883056641</v>
       </c>
       <c r="F187" t="n">
         <v>53117000</v>
@@ -5353,16 +5353,16 @@
         <v>45104</v>
       </c>
       <c r="B189" t="n">
-        <v>183.838613722899</v>
+        <v>183.838628805619</v>
       </c>
       <c r="C189" t="n">
-        <v>186.3110250189143</v>
+        <v>186.311040304479</v>
       </c>
       <c r="D189" t="n">
-        <v>183.6210403216176</v>
+        <v>183.6210553864872</v>
       </c>
       <c r="E189" t="n">
-        <v>185.9846649169922</v>
+        <v>185.9846801757812</v>
       </c>
       <c r="F189" t="n">
         <v>50730800</v>
@@ -5379,16 +5379,16 @@
         <v>45105</v>
       </c>
       <c r="B190" t="n">
-        <v>185.856089172159</v>
+        <v>185.8561043245189</v>
       </c>
       <c r="C190" t="n">
-        <v>187.8043504226978</v>
+        <v>187.8043657338943</v>
       </c>
       <c r="D190" t="n">
-        <v>185.5297441703453</v>
+        <v>185.5297592960992</v>
       </c>
       <c r="E190" t="n">
-        <v>187.1615295410156</v>
+        <v>187.1615447998047</v>
       </c>
       <c r="F190" t="n">
         <v>51216800</v>
@@ -5405,16 +5405,16 @@
         <v>45106</v>
       </c>
       <c r="B191" t="n">
-        <v>186.9934361998247</v>
+        <v>186.9934209820816</v>
       </c>
       <c r="C191" t="n">
-        <v>187.9725166273194</v>
+        <v>187.9725013298976</v>
       </c>
       <c r="D191" t="n">
-        <v>186.85498175365</v>
+        <v>186.8549665471744</v>
       </c>
       <c r="E191" t="n">
-        <v>187.497802734375</v>
+        <v>187.4977874755859</v>
       </c>
       <c r="F191" t="n">
         <v>46347300</v>
@@ -5431,16 +5431,16 @@
         <v>45107</v>
       </c>
       <c r="B192" t="n">
-        <v>189.5152791189743</v>
+        <v>189.5152941936858</v>
       </c>
       <c r="C192" t="n">
-        <v>192.3338189961463</v>
+        <v>192.3338342950544</v>
       </c>
       <c r="D192" t="n">
-        <v>189.1493519786864</v>
+        <v>189.1493670242908</v>
       </c>
       <c r="E192" t="n">
-        <v>191.8294525146484</v>
+        <v>191.8294677734375</v>
       </c>
       <c r="F192" t="n">
         <v>85213200</v>
@@ -5457,16 +5457,16 @@
         <v>45110</v>
       </c>
       <c r="B193" t="n">
-        <v>191.6415613050814</v>
+        <v>191.6415766685233</v>
       </c>
       <c r="C193" t="n">
-        <v>191.7404638024418</v>
+        <v>191.7404791738125</v>
       </c>
       <c r="D193" t="n">
-        <v>189.6438485635397</v>
+        <v>189.6438637668297</v>
       </c>
       <c r="E193" t="n">
-        <v>190.3361358642578</v>
+        <v>190.3361511230469</v>
       </c>
       <c r="F193" t="n">
         <v>31458200</v>
@@ -5483,16 +5483,16 @@
         <v>45112</v>
       </c>
       <c r="B194" t="n">
-        <v>189.4559696249322</v>
+        <v>189.455984902862</v>
       </c>
       <c r="C194" t="n">
-        <v>190.8503983449712</v>
+        <v>190.8504137353492</v>
       </c>
       <c r="D194" t="n">
-        <v>188.5164411133839</v>
+        <v>188.5164563155491</v>
       </c>
       <c r="E194" t="n">
-        <v>189.2186126708984</v>
+        <v>189.2186279296875</v>
       </c>
       <c r="F194" t="n">
         <v>46920300</v>
@@ -5535,16 +5535,16 @@
         <v>45114</v>
       </c>
       <c r="B196" t="n">
-        <v>189.2977302172838</v>
+        <v>189.2976995828703</v>
       </c>
       <c r="C196" t="n">
-        <v>190.5438202630858</v>
+        <v>190.5437894270152</v>
       </c>
       <c r="D196" t="n">
-        <v>188.1406433696669</v>
+        <v>188.140612922507</v>
       </c>
       <c r="E196" t="n">
-        <v>188.5757751464844</v>
+        <v>188.5757446289062</v>
       </c>
       <c r="F196" t="n">
         <v>46815000</v>
@@ -5561,16 +5561,16 @@
         <v>45117</v>
       </c>
       <c r="B197" t="n">
-        <v>187.1714464823678</v>
+        <v>187.1714617937421</v>
       </c>
       <c r="C197" t="n">
-        <v>187.8934015506594</v>
+        <v>187.8934169210926</v>
       </c>
       <c r="D197" t="n">
-        <v>184.9759437256739</v>
+        <v>184.9759588574474</v>
       </c>
       <c r="E197" t="n">
-        <v>186.5286254882812</v>
+        <v>186.5286407470703</v>
       </c>
       <c r="F197" t="n">
         <v>59922200</v>
@@ -5587,16 +5587,16 @@
         <v>45118</v>
       </c>
       <c r="B198" t="n">
-        <v>187.0725544445054</v>
+        <v>187.0725697909142</v>
       </c>
       <c r="C198" t="n">
-        <v>187.2110088901344</v>
+        <v>187.2110242479012</v>
       </c>
       <c r="D198" t="n">
-        <v>184.5408073870605</v>
+        <v>184.5408225257786</v>
       </c>
       <c r="E198" t="n">
-        <v>186.0044708251953</v>
+        <v>186.0044860839844</v>
       </c>
       <c r="F198" t="n">
         <v>46638100</v>
@@ -5639,16 +5639,16 @@
         <v>45120</v>
       </c>
       <c r="B200" t="n">
-        <v>188.3977496929062</v>
+        <v>188.3977191817336</v>
       </c>
       <c r="C200" t="n">
-        <v>189.0801376574393</v>
+        <v>189.0801070357534</v>
       </c>
       <c r="D200" t="n">
-        <v>187.6856939986458</v>
+        <v>187.6856636027912</v>
       </c>
       <c r="E200" t="n">
-        <v>188.4373016357422</v>
+        <v>188.4372711181641</v>
       </c>
       <c r="F200" t="n">
         <v>41342300</v>
@@ -5665,16 +5665,16 @@
         <v>45121</v>
       </c>
       <c r="B201" t="n">
-        <v>188.1307324839614</v>
+        <v>188.1307172619815</v>
       </c>
       <c r="C201" t="n">
-        <v>189.0702458401321</v>
+        <v>189.0702305421347</v>
       </c>
       <c r="D201" t="n">
-        <v>187.5373627755177</v>
+        <v>187.5373476015485</v>
       </c>
       <c r="E201" t="n">
-        <v>188.5856628417969</v>
+        <v>188.5856475830078</v>
       </c>
       <c r="F201" t="n">
         <v>41616200</v>
@@ -5691,16 +5691,16 @@
         <v>45124</v>
       </c>
       <c r="B202" t="n">
-        <v>189.7822957354681</v>
+        <v>189.7823108298618</v>
       </c>
       <c r="C202" t="n">
-        <v>192.1756032843669</v>
+        <v>192.1756185691131</v>
       </c>
       <c r="D202" t="n">
-        <v>189.6932925454947</v>
+        <v>189.6933076328095</v>
       </c>
       <c r="E202" t="n">
-        <v>191.8492431640625</v>
+        <v>191.8492584228516</v>
       </c>
       <c r="F202" t="n">
         <v>50520200</v>
@@ -5743,16 +5743,16 @@
         <v>45126</v>
       </c>
       <c r="B204" t="n">
-        <v>190.9690769566016</v>
+        <v>190.9690467518638</v>
       </c>
       <c r="C204" t="n">
-        <v>196.0424552700726</v>
+        <v>196.0424242629009</v>
       </c>
       <c r="D204" t="n">
-        <v>190.5240307987579</v>
+        <v>190.5240006644111</v>
       </c>
       <c r="E204" t="n">
-        <v>192.9470062255859</v>
+        <v>192.9469757080078</v>
       </c>
       <c r="F204" t="n">
         <v>80507300</v>
@@ -5795,16 +5795,16 @@
         <v>45128</v>
       </c>
       <c r="B206" t="n">
-        <v>191.9580360672127</v>
+        <v>191.9580206367083</v>
       </c>
       <c r="C206" t="n">
-        <v>192.8184304455329</v>
+        <v>192.8184149458659</v>
       </c>
       <c r="D206" t="n">
-        <v>189.1196973864238</v>
+        <v>189.1196821840786</v>
       </c>
       <c r="E206" t="n">
-        <v>189.8218688964844</v>
+        <v>189.8218536376953</v>
       </c>
       <c r="F206" t="n">
         <v>71951700</v>
@@ -5821,16 +5821,16 @@
         <v>45131</v>
       </c>
       <c r="B207" t="n">
-        <v>191.2756297450281</v>
+        <v>191.2756603671028</v>
       </c>
       <c r="C207" t="n">
-        <v>192.7590765119222</v>
+        <v>192.7591073714878</v>
       </c>
       <c r="D207" t="n">
-        <v>190.1284272902671</v>
+        <v>190.1284577286816</v>
       </c>
       <c r="E207" t="n">
-        <v>190.6229095458984</v>
+        <v>190.6229400634766</v>
       </c>
       <c r="F207" t="n">
         <v>45377800</v>
@@ -5847,16 +5847,16 @@
         <v>45132</v>
       </c>
       <c r="B208" t="n">
-        <v>191.1964985757829</v>
+        <v>191.1965290476535</v>
       </c>
       <c r="C208" t="n">
-        <v>192.2942497168689</v>
+        <v>192.2942803636932</v>
       </c>
       <c r="D208" t="n">
-        <v>190.7910195303367</v>
+        <v>190.7910499375842</v>
       </c>
       <c r="E208" t="n">
-        <v>191.4832916259766</v>
+        <v>191.4833221435547</v>
       </c>
       <c r="F208" t="n">
         <v>37283200</v>
@@ -5873,16 +5873,16 @@
         <v>45133</v>
       </c>
       <c r="B209" t="n">
-        <v>191.5327799746606</v>
+        <v>191.5327647809863</v>
       </c>
       <c r="C209" t="n">
-        <v>193.4810415222525</v>
+        <v>193.4810261740289</v>
       </c>
       <c r="D209" t="n">
-        <v>191.1866514049806</v>
+        <v>191.1866362387635</v>
       </c>
       <c r="E209" t="n">
-        <v>192.3536224365234</v>
+        <v>192.3536071777344</v>
       </c>
       <c r="F209" t="n">
         <v>47471900</v>
@@ -5899,16 +5899,16 @@
         <v>45134</v>
       </c>
       <c r="B210" t="n">
-        <v>193.8568418890768</v>
+        <v>193.8568573689851</v>
       </c>
       <c r="C210" t="n">
-        <v>195.0238128542506</v>
+        <v>195.0238284273441</v>
       </c>
       <c r="D210" t="n">
-        <v>190.4251335769918</v>
+        <v>190.4251487828704</v>
       </c>
       <c r="E210" t="n">
-        <v>191.0877380371094</v>
+        <v>191.0877532958984</v>
       </c>
       <c r="F210" t="n">
         <v>47460200</v>
@@ -5977,16 +5977,16 @@
         <v>45139</v>
       </c>
       <c r="B213" t="n">
-        <v>194.0744074718757</v>
+        <v>194.074422779809</v>
       </c>
       <c r="C213" t="n">
-        <v>194.5589904403909</v>
+        <v>194.5590057865465</v>
       </c>
       <c r="D213" t="n">
-        <v>193.1249948702271</v>
+        <v>193.125010103274</v>
       </c>
       <c r="E213" t="n">
-        <v>193.4513549804688</v>
+        <v>193.4513702392578</v>
       </c>
       <c r="F213" t="n">
         <v>35175100</v>
@@ -6003,16 +6003,16 @@
         <v>45140</v>
       </c>
       <c r="B214" t="n">
-        <v>192.8876479192438</v>
+        <v>192.8876633729466</v>
       </c>
       <c r="C214" t="n">
-        <v>193.026102358892</v>
+        <v>193.0261178236875</v>
       </c>
       <c r="D214" t="n">
-        <v>189.7328635379458</v>
+        <v>189.7328787388947</v>
       </c>
       <c r="E214" t="n">
-        <v>190.4548034667969</v>
+        <v>190.4548187255859</v>
       </c>
       <c r="F214" t="n">
         <v>50389300</v>
@@ -6029,16 +6029,16 @@
         <v>45141</v>
       </c>
       <c r="B215" t="n">
-        <v>189.4559586700465</v>
+        <v>189.4559433793295</v>
       </c>
       <c r="C215" t="n">
-        <v>190.247118290272</v>
+        <v>190.2471029357017</v>
       </c>
       <c r="D215" t="n">
-        <v>188.5856649793155</v>
+        <v>188.5856497588386</v>
       </c>
       <c r="E215" t="n">
-        <v>189.0603637695312</v>
+        <v>189.0603485107422</v>
       </c>
       <c r="F215" t="n">
         <v>61235200</v>
@@ -6055,16 +6055,16 @@
         <v>45142</v>
       </c>
       <c r="B216" t="n">
-        <v>183.4727024937722</v>
+        <v>183.4727180485309</v>
       </c>
       <c r="C216" t="n">
-        <v>185.3121771097823</v>
+        <v>185.312192820491</v>
       </c>
       <c r="D216" t="n">
-        <v>179.9124241755589</v>
+        <v>179.9124394284783</v>
       </c>
       <c r="E216" t="n">
-        <v>179.9816589355469</v>
+        <v>179.9816741943359</v>
       </c>
       <c r="F216" t="n">
         <v>115956800</v>
@@ -6081,16 +6081,16 @@
         <v>45145</v>
       </c>
       <c r="B217" t="n">
-        <v>180.1201147075628</v>
+        <v>180.1201302461886</v>
       </c>
       <c r="C217" t="n">
-        <v>181.109079237726</v>
+        <v>181.109094861668</v>
       </c>
       <c r="D217" t="n">
-        <v>175.3928654606145</v>
+        <v>175.3928805914294</v>
       </c>
       <c r="E217" t="n">
-        <v>176.8763122558594</v>
+        <v>176.8763275146484</v>
       </c>
       <c r="F217" t="n">
         <v>97576100</v>
@@ -6107,16 +6107,16 @@
         <v>45146</v>
       </c>
       <c r="B218" t="n">
-        <v>177.7070397135465</v>
+        <v>177.7070549630004</v>
       </c>
       <c r="C218" t="n">
-        <v>178.2806409547106</v>
+        <v>178.2806562533865</v>
       </c>
       <c r="D218" t="n">
-        <v>175.6203239410226</v>
+        <v>175.6203390114105</v>
       </c>
       <c r="E218" t="n">
-        <v>177.8158264160156</v>
+        <v>177.8158416748047</v>
       </c>
       <c r="F218" t="n">
         <v>67823000</v>
@@ -6133,16 +6133,16 @@
         <v>45147</v>
       </c>
       <c r="B219" t="n">
-        <v>178.8740356348203</v>
+        <v>178.8740201465377</v>
       </c>
       <c r="C219" t="n">
-        <v>178.9333711007551</v>
+        <v>178.9333556073348</v>
       </c>
       <c r="D219" t="n">
-        <v>175.0566313921813</v>
+        <v>175.0566162344388</v>
       </c>
       <c r="E219" t="n">
-        <v>176.2236175537109</v>
+        <v>176.2236022949219</v>
       </c>
       <c r="F219" t="n">
         <v>60378500</v>
@@ -6185,16 +6185,16 @@
         <v>45149</v>
       </c>
       <c r="B221" t="n">
-        <v>175.6000178096238</v>
+        <v>175.6000025911711</v>
       </c>
       <c r="C221" t="n">
-        <v>176.8873958277185</v>
+        <v>176.8873804976947</v>
       </c>
       <c r="D221" t="n">
-        <v>174.837482515395</v>
+        <v>174.8374673630278</v>
       </c>
       <c r="E221" t="n">
-        <v>176.0654449462891</v>
+        <v>176.0654296875</v>
       </c>
       <c r="F221" t="n">
         <v>52036700</v>
@@ -6211,16 +6211,16 @@
         <v>45152</v>
       </c>
       <c r="B222" t="n">
-        <v>176.2436858942371</v>
+        <v>176.2437010263368</v>
       </c>
       <c r="C222" t="n">
-        <v>177.9470030420714</v>
+        <v>177.9470183204161</v>
       </c>
       <c r="D222" t="n">
-        <v>175.5900842910681</v>
+        <v>175.5900993670502</v>
       </c>
       <c r="E222" t="n">
-        <v>177.71923828125</v>
+        <v>177.7192535400391</v>
       </c>
       <c r="F222" t="n">
         <v>43675600</v>
@@ -6263,16 +6263,16 @@
         <v>45154</v>
       </c>
       <c r="B224" t="n">
-        <v>175.411880762497</v>
+        <v>175.4118654553142</v>
       </c>
       <c r="C224" t="n">
-        <v>176.8081925722514</v>
+        <v>176.8081771432205</v>
       </c>
       <c r="D224" t="n">
-        <v>174.787986795708</v>
+        <v>174.7879715429688</v>
       </c>
       <c r="E224" t="n">
-        <v>174.8573150634766</v>
+        <v>174.8572998046875</v>
       </c>
       <c r="F224" t="n">
         <v>46964900</v>
@@ -6289,16 +6289,16 @@
         <v>45155</v>
       </c>
       <c r="B225" t="n">
-        <v>175.4217671946831</v>
+        <v>175.4217516605343</v>
       </c>
       <c r="C225" t="n">
-        <v>175.7881734131209</v>
+        <v>175.7881578465257</v>
       </c>
       <c r="D225" t="n">
-        <v>171.7972650350441</v>
+        <v>171.7972498218564</v>
       </c>
       <c r="E225" t="n">
-        <v>172.3122253417969</v>
+        <v>172.3122100830078</v>
       </c>
       <c r="F225" t="n">
         <v>66062900</v>
@@ -6341,16 +6341,16 @@
         <v>45159</v>
       </c>
       <c r="B227" t="n">
-        <v>173.3718183024321</v>
+        <v>173.3718334944042</v>
       </c>
       <c r="C227" t="n">
-        <v>174.4215338244587</v>
+        <v>174.4215491084137</v>
       </c>
       <c r="D227" t="n">
-        <v>172.0547175647341</v>
+        <v>172.0547326412932</v>
       </c>
       <c r="E227" t="n">
-        <v>174.1343383789062</v>
+        <v>174.1343536376953</v>
       </c>
       <c r="F227" t="n">
         <v>46311900</v>
@@ -6367,16 +6367,16 @@
         <v>45160</v>
       </c>
       <c r="B228" t="n">
-        <v>175.3425150715963</v>
+        <v>175.3425303157492</v>
       </c>
       <c r="C228" t="n">
-        <v>175.9564962343588</v>
+        <v>175.9565115318908</v>
       </c>
       <c r="D228" t="n">
-        <v>174.5403744916571</v>
+        <v>174.5403896660725</v>
       </c>
       <c r="E228" t="n">
-        <v>175.5108642578125</v>
+        <v>175.5108795166016</v>
       </c>
       <c r="F228" t="n">
         <v>42038900</v>
@@ -6393,16 +6393,16 @@
         <v>45161</v>
       </c>
       <c r="B229" t="n">
-        <v>176.7883728042474</v>
+        <v>176.7883577644994</v>
       </c>
       <c r="C229" t="n">
-        <v>179.788980808789</v>
+        <v>179.7889655137731</v>
       </c>
       <c r="D229" t="n">
-        <v>176.6002133731409</v>
+        <v>176.6001983493999</v>
       </c>
       <c r="E229" t="n">
-        <v>179.3631439208984</v>
+        <v>179.3631286621094</v>
       </c>
       <c r="F229" t="n">
         <v>52722800</v>
@@ -6419,16 +6419,16 @@
         <v>45162</v>
       </c>
       <c r="B230" t="n">
-        <v>178.9175090022964</v>
+        <v>178.9175246322166</v>
       </c>
       <c r="C230" t="n">
-        <v>179.3433458832632</v>
+        <v>179.3433615503837</v>
       </c>
       <c r="D230" t="n">
-        <v>174.3027071225369</v>
+        <v>174.3027223493161</v>
       </c>
       <c r="E230" t="n">
-        <v>174.6691284179688</v>
+        <v>174.6691436767578</v>
       </c>
       <c r="F230" t="n">
         <v>54945800</v>
@@ -6445,16 +6445,16 @@
         <v>45163</v>
       </c>
       <c r="B231" t="n">
-        <v>175.6594375427037</v>
+        <v>175.6594526964133</v>
       </c>
       <c r="C231" t="n">
-        <v>177.4122578496136</v>
+        <v>177.4122731545347</v>
       </c>
       <c r="D231" t="n">
-        <v>174.1145717959043</v>
+        <v>174.1145868163421</v>
       </c>
       <c r="E231" t="n">
-        <v>176.8775024414062</v>
+        <v>176.8775177001953</v>
       </c>
       <c r="F231" t="n">
         <v>51449600</v>
@@ -6471,16 +6471,16 @@
         <v>45166</v>
       </c>
       <c r="B232" t="n">
-        <v>178.3431331397182</v>
+        <v>178.3431483900386</v>
       </c>
       <c r="C232" t="n">
-        <v>178.8382831668333</v>
+        <v>178.8382984594946</v>
       </c>
       <c r="D232" t="n">
-        <v>176.8180777049469</v>
+        <v>176.8180928248581</v>
       </c>
       <c r="E232" t="n">
-        <v>178.4421691894531</v>
+        <v>178.4421844482422</v>
       </c>
       <c r="F232" t="n">
         <v>43820700</v>
@@ -6497,16 +6497,16 @@
         <v>45167</v>
       </c>
       <c r="B233" t="n">
-        <v>177.9569059889832</v>
+        <v>177.9569208814686</v>
       </c>
       <c r="C233" t="n">
-        <v>183.1064629382127</v>
+        <v>183.1064782616435</v>
       </c>
       <c r="D233" t="n">
-        <v>177.7588490122395</v>
+        <v>177.7588638881504</v>
       </c>
       <c r="E233" t="n">
-        <v>182.3340301513672</v>
+        <v>182.3340454101562</v>
       </c>
       <c r="F233" t="n">
         <v>53003900</v>
@@ -6549,16 +6549,16 @@
         <v>45169</v>
       </c>
       <c r="B235" t="n">
-        <v>186.0179911766358</v>
+        <v>186.0179606639307</v>
       </c>
       <c r="C235" t="n">
-        <v>187.2855742594477</v>
+        <v>187.2855435388197</v>
       </c>
       <c r="D235" t="n">
-        <v>185.6614824901711</v>
+        <v>185.6614520359444</v>
       </c>
       <c r="E235" t="n">
-        <v>186.0476989746094</v>
+        <v>186.0476684570312</v>
       </c>
       <c r="F235" t="n">
         <v>60794500</v>
@@ -6653,16 +6653,16 @@
         <v>45176</v>
       </c>
       <c r="B239" t="n">
-        <v>173.4807580134351</v>
+        <v>173.4807730676962</v>
       </c>
       <c r="C239" t="n">
-        <v>176.4813811102254</v>
+        <v>176.4813964248736</v>
       </c>
       <c r="D239" t="n">
-        <v>171.8566665123906</v>
+        <v>171.8566814257167</v>
       </c>
       <c r="E239" t="n">
-        <v>175.8376770019531</v>
+        <v>175.8376922607422</v>
       </c>
       <c r="F239" t="n">
         <v>112488800</v>
@@ -6679,16 +6679,16 @@
         <v>45177</v>
       </c>
       <c r="B240" t="n">
-        <v>176.6199939198332</v>
+        <v>176.6200244665302</v>
       </c>
       <c r="C240" t="n">
-        <v>178.4916601339316</v>
+        <v>178.4916910043361</v>
       </c>
       <c r="D240" t="n">
-        <v>176.0654132805493</v>
+        <v>176.0654437313307</v>
       </c>
       <c r="E240" t="n">
-        <v>176.4516296386719</v>
+        <v>176.45166015625</v>
       </c>
       <c r="F240" t="n">
         <v>65551300</v>
@@ -6705,16 +6705,16 @@
         <v>45180</v>
       </c>
       <c r="B241" t="n">
-        <v>178.3233437087065</v>
+        <v>178.3233590278983</v>
       </c>
       <c r="C241" t="n">
-        <v>178.5511084974291</v>
+        <v>178.5511238361875</v>
       </c>
       <c r="D241" t="n">
-        <v>175.619813594627</v>
+        <v>175.6198286815672</v>
       </c>
       <c r="E241" t="n">
-        <v>177.6202239990234</v>
+        <v>177.6202392578125</v>
       </c>
       <c r="F241" t="n">
         <v>58953100</v>
@@ -6731,16 +6731,16 @@
         <v>45181</v>
       </c>
       <c r="B242" t="n">
-        <v>177.7489644157226</v>
+        <v>177.7489799506068</v>
       </c>
       <c r="C242" t="n">
-        <v>178.3827558539932</v>
+        <v>178.3827714442694</v>
       </c>
       <c r="D242" t="n">
-        <v>173.1242649174268</v>
+        <v>173.124280048122</v>
       </c>
       <c r="E242" t="n">
-        <v>174.5899047851562</v>
+        <v>174.5899200439453</v>
       </c>
       <c r="F242" t="n">
         <v>90370200</v>
@@ -6783,16 +6783,16 @@
         <v>45183</v>
       </c>
       <c r="B244" t="n">
-        <v>172.3122117976119</v>
+        <v>172.3122269053233</v>
       </c>
       <c r="C244" t="n">
-        <v>174.3918479843088</v>
+        <v>174.3918632743552</v>
       </c>
       <c r="D244" t="n">
-        <v>171.8962875824285</v>
+        <v>171.8963026536732</v>
       </c>
       <c r="E244" t="n">
-        <v>174.0353393554688</v>
+        <v>174.0353546142578</v>
       </c>
       <c r="F244" t="n">
         <v>60895800</v>
@@ -6861,16 +6861,16 @@
         <v>45188</v>
       </c>
       <c r="B247" t="n">
-        <v>175.7980399672756</v>
+        <v>175.7980702206982</v>
       </c>
       <c r="C247" t="n">
-        <v>177.8875733308522</v>
+        <v>177.8876039438666</v>
       </c>
       <c r="D247" t="n">
-        <v>175.4118236162249</v>
+        <v>175.4118538031827</v>
       </c>
       <c r="E247" t="n">
-        <v>177.3330078125</v>
+        <v>177.3330383300781</v>
       </c>
       <c r="F247" t="n">
         <v>51826900</v>
@@ -6913,16 +6913,16 @@
         <v>45190</v>
       </c>
       <c r="B249" t="n">
-        <v>172.8569010557525</v>
+        <v>172.856870429388</v>
       </c>
       <c r="C249" t="n">
-        <v>174.5899263869401</v>
+        <v>174.5898954535224</v>
       </c>
       <c r="D249" t="n">
-        <v>172.1735915074449</v>
+        <v>172.1735610021475</v>
       </c>
       <c r="E249" t="n">
-        <v>172.2429046630859</v>
+        <v>172.2428741455078</v>
       </c>
       <c r="F249" t="n">
         <v>63149100</v>
@@ -6939,16 +6939,16 @@
         <v>45191</v>
       </c>
       <c r="B250" t="n">
-        <v>172.9757122834832</v>
+        <v>172.9756970351695</v>
       </c>
       <c r="C250" t="n">
-        <v>175.3623390907725</v>
+        <v>175.3623236320706</v>
       </c>
       <c r="D250" t="n">
-        <v>172.3617310724451</v>
+        <v>172.3617158782556</v>
       </c>
       <c r="E250" t="n">
-        <v>173.0945434570312</v>
+        <v>173.0945281982422</v>
       </c>
       <c r="F250" t="n">
         <v>56725400</v>
@@ -7043,16 +7043,16 @@
         <v>45197</v>
       </c>
       <c r="B254" t="n">
-        <v>167.6974210502953</v>
+        <v>167.6974059121897</v>
       </c>
       <c r="C254" t="n">
-        <v>170.3613308282471</v>
+        <v>170.3613154496694</v>
       </c>
       <c r="D254" t="n">
-        <v>165.9941036111019</v>
+        <v>165.9940886267553</v>
       </c>
       <c r="E254" t="n">
-        <v>169.0343322753906</v>
+        <v>169.0343170166016</v>
       </c>
       <c r="F254" t="n">
         <v>56294400</v>
@@ -7147,16 +7147,16 @@
         <v>45203</v>
       </c>
       <c r="B258" t="n">
-        <v>169.4304312717371</v>
+        <v>169.4304162387641</v>
       </c>
       <c r="C258" t="n">
-        <v>172.5201776911012</v>
+        <v>172.5201623839856</v>
       </c>
       <c r="D258" t="n">
-        <v>169.3116001016468</v>
+        <v>169.3115850792172</v>
       </c>
       <c r="E258" t="n">
-        <v>171.9755096435547</v>
+        <v>171.9754943847656</v>
       </c>
       <c r="F258" t="n">
         <v>53020300</v>
@@ -7173,16 +7173,16 @@
         <v>45204</v>
       </c>
       <c r="B259" t="n">
-        <v>172.1042629384862</v>
+        <v>172.1042326163229</v>
       </c>
       <c r="C259" t="n">
-        <v>173.7481648763392</v>
+        <v>173.7481342645453</v>
       </c>
       <c r="D259" t="n">
-        <v>171.0050291259197</v>
+        <v>171.0049989974247</v>
       </c>
       <c r="E259" t="n">
-        <v>173.2134094238281</v>
+        <v>173.21337890625</v>
       </c>
       <c r="F259" t="n">
         <v>48527900</v>
@@ -7199,16 +7199,16 @@
         <v>45205</v>
       </c>
       <c r="B260" t="n">
-        <v>172.1141468247828</v>
+        <v>172.1141617663429</v>
       </c>
       <c r="C260" t="n">
-        <v>176.2635063341819</v>
+        <v>176.2635216359558</v>
       </c>
       <c r="D260" t="n">
-        <v>171.5001505358878</v>
+        <v>171.5001654241457</v>
       </c>
       <c r="E260" t="n">
-        <v>175.7683563232422</v>
+        <v>175.7683715820312</v>
       </c>
       <c r="F260" t="n">
         <v>57266700</v>
@@ -7251,16 +7251,16 @@
         <v>45209</v>
       </c>
       <c r="B262" t="n">
-        <v>176.3724418317021</v>
+        <v>176.3724265977179</v>
       </c>
       <c r="C262" t="n">
-        <v>177.9767230488949</v>
+        <v>177.9767076763426</v>
       </c>
       <c r="D262" t="n">
-        <v>176.2238877603602</v>
+        <v>176.2238725392073</v>
       </c>
       <c r="E262" t="n">
-        <v>176.6596221923828</v>
+        <v>176.6596069335938</v>
       </c>
       <c r="F262" t="n">
         <v>43698000</v>
@@ -7277,16 +7277,16 @@
         <v>45210</v>
       </c>
       <c r="B263" t="n">
-        <v>176.4714829606774</v>
+        <v>176.4714678376734</v>
       </c>
       <c r="C263" t="n">
-        <v>178.1054872677278</v>
+        <v>178.1054720046952</v>
       </c>
       <c r="D263" t="n">
-        <v>175.8773119396617</v>
+        <v>175.8772968675762</v>
       </c>
       <c r="E263" t="n">
-        <v>178.0559692382812</v>
+        <v>178.0559539794922</v>
       </c>
       <c r="F263" t="n">
         <v>47551100</v>
@@ -7303,16 +7303,16 @@
         <v>45211</v>
       </c>
       <c r="B264" t="n">
-        <v>178.323361805493</v>
+        <v>178.3233466007442</v>
       </c>
       <c r="C264" t="n">
-        <v>180.5713323486978</v>
+        <v>180.5713169522757</v>
       </c>
       <c r="D264" t="n">
-        <v>177.3033387116547</v>
+        <v>177.3033235938782</v>
       </c>
       <c r="E264" t="n">
-        <v>178.9571533203125</v>
+        <v>178.9571380615234</v>
       </c>
       <c r="F264" t="n">
         <v>56743100</v>
@@ -7329,16 +7329,16 @@
         <v>45212</v>
       </c>
       <c r="B265" t="n">
-        <v>179.6602521369707</v>
+        <v>179.6602366589199</v>
       </c>
       <c r="C265" t="n">
-        <v>180.165299775662</v>
+        <v>180.1652842541005</v>
       </c>
       <c r="D265" t="n">
-        <v>176.4120688405038</v>
+        <v>176.4120536422897</v>
       </c>
       <c r="E265" t="n">
-        <v>177.1151885986328</v>
+        <v>177.1151733398438</v>
       </c>
       <c r="F265" t="n">
         <v>51427100</v>
@@ -7381,16 +7381,16 @@
         <v>45216</v>
       </c>
       <c r="B267" t="n">
-        <v>174.9364754045668</v>
+        <v>174.9365210517317</v>
       </c>
       <c r="C267" t="n">
-        <v>176.6893104998048</v>
+        <v>176.6893566043469</v>
       </c>
       <c r="D267" t="n">
-        <v>173.10442961295</v>
+        <v>173.1044747820688</v>
       </c>
       <c r="E267" t="n">
-        <v>175.4316253662109</v>
+        <v>175.4316711425781</v>
       </c>
       <c r="F267" t="n">
         <v>57549400</v>
@@ -7407,16 +7407,16 @@
         <v>45217</v>
       </c>
       <c r="B268" t="n">
-        <v>173.8768658335644</v>
+        <v>173.876881069792</v>
       </c>
       <c r="C268" t="n">
-        <v>175.8574657198871</v>
+        <v>175.8574811296678</v>
       </c>
       <c r="D268" t="n">
-        <v>173.4114236514163</v>
+        <v>173.4114388468588</v>
       </c>
       <c r="E268" t="n">
-        <v>174.1343383789062</v>
+        <v>174.1343536376953</v>
       </c>
       <c r="F268" t="n">
         <v>54764400</v>
@@ -7433,16 +7433,16 @@
         <v>45218</v>
       </c>
       <c r="B269" t="n">
-        <v>174.3324173827791</v>
+        <v>174.3324480012336</v>
       </c>
       <c r="C269" t="n">
-        <v>176.1149605279567</v>
+        <v>176.114991459484</v>
       </c>
       <c r="D269" t="n">
-        <v>173.4906713911534</v>
+        <v>173.49070186177</v>
       </c>
       <c r="E269" t="n">
-        <v>173.758056640625</v>
+        <v>173.7580871582031</v>
       </c>
       <c r="F269" t="n">
         <v>59302900</v>
@@ -7511,16 +7511,16 @@
         <v>45223</v>
       </c>
       <c r="B272" t="n">
-        <v>171.3714130102576</v>
+        <v>171.3714282347356</v>
       </c>
       <c r="C272" t="n">
-        <v>171.985394156852</v>
+        <v>171.9854094358755</v>
       </c>
       <c r="D272" t="n">
-        <v>169.7869270122857</v>
+        <v>169.7869420959994</v>
       </c>
       <c r="E272" t="n">
-        <v>171.7576293945312</v>
+        <v>171.7576446533203</v>
       </c>
       <c r="F272" t="n">
         <v>43816600</v>
@@ -7537,16 +7537,16 @@
         <v>45224</v>
       </c>
       <c r="B273" t="n">
-        <v>170.2127709354331</v>
+        <v>170.2127862637829</v>
       </c>
       <c r="C273" t="n">
-        <v>171.3813176966761</v>
+        <v>171.3813331302583</v>
       </c>
       <c r="D273" t="n">
-        <v>168.9946910406445</v>
+        <v>168.9947062593012</v>
       </c>
       <c r="E273" t="n">
-        <v>169.4403381347656</v>
+        <v>169.4403533935547</v>
       </c>
       <c r="F273" t="n">
         <v>57157000</v>
@@ -7589,16 +7589,16 @@
         <v>45226</v>
       </c>
       <c r="B275" t="n">
-        <v>165.2909966143656</v>
+        <v>165.290981474403</v>
       </c>
       <c r="C275" t="n">
-        <v>167.321114882013</v>
+        <v>167.3210995561</v>
       </c>
       <c r="D275" t="n">
-        <v>165.2117707914918</v>
+        <v>165.2117556587859</v>
       </c>
       <c r="E275" t="n">
-        <v>166.5882873535156</v>
+        <v>166.5882720947266</v>
       </c>
       <c r="F275" t="n">
         <v>58499100</v>
@@ -7615,16 +7615,16 @@
         <v>45229</v>
       </c>
       <c r="B276" t="n">
-        <v>167.380543739313</v>
+        <v>167.3805285943209</v>
       </c>
       <c r="C276" t="n">
-        <v>169.5096831212387</v>
+        <v>169.5096677835971</v>
       </c>
       <c r="D276" t="n">
-        <v>167.2319896431063</v>
+        <v>167.2319745115558</v>
       </c>
       <c r="E276" t="n">
-        <v>168.6382141113281</v>
+        <v>168.6381988525391</v>
       </c>
       <c r="F276" t="n">
         <v>51131000</v>
@@ -7641,16 +7641,16 @@
         <v>45230</v>
       </c>
       <c r="B277" t="n">
-        <v>167.7073164176521</v>
+        <v>167.7073315495603</v>
       </c>
       <c r="C277" t="n">
-        <v>169.2422693782089</v>
+        <v>169.242284648613</v>
       </c>
       <c r="D277" t="n">
-        <v>166.2713692830213</v>
+        <v>166.2713842853667</v>
       </c>
       <c r="E277" t="n">
-        <v>169.1135406494141</v>
+        <v>169.1135559082031</v>
       </c>
       <c r="F277" t="n">
         <v>44846000</v>
@@ -7693,16 +7693,16 @@
         <v>45232</v>
       </c>
       <c r="B279" t="n">
-        <v>173.8174468316096</v>
+        <v>173.8174769968696</v>
       </c>
       <c r="C279" t="n">
-        <v>176.0555192191985</v>
+        <v>176.0555497728662</v>
       </c>
       <c r="D279" t="n">
-        <v>173.7580312539145</v>
+        <v>173.7580614088632</v>
       </c>
       <c r="E279" t="n">
-        <v>175.8475646972656</v>
+        <v>175.8475952148438</v>
       </c>
       <c r="F279" t="n">
         <v>77334800</v>
@@ -7719,16 +7719,16 @@
         <v>45233</v>
       </c>
       <c r="B280" t="n">
-        <v>172.5498964006483</v>
+        <v>172.5498813500308</v>
       </c>
       <c r="C280" t="n">
-        <v>175.1048724946971</v>
+        <v>175.1048572212225</v>
       </c>
       <c r="D280" t="n">
-        <v>171.6685299082299</v>
+        <v>171.6685149344893</v>
       </c>
       <c r="E280" t="n">
-        <v>174.9365081787109</v>
+        <v>174.9364929199219</v>
       </c>
       <c r="F280" t="n">
         <v>79829200</v>
@@ -7745,16 +7745,16 @@
         <v>45236</v>
       </c>
       <c r="B281" t="n">
-        <v>174.669124314844</v>
+        <v>174.6691092986896</v>
       </c>
       <c r="C281" t="n">
-        <v>177.6895273209714</v>
+        <v>177.6895120451555</v>
       </c>
       <c r="D281" t="n">
-        <v>174.5007751228563</v>
+        <v>174.5007601211747</v>
       </c>
       <c r="E281" t="n">
-        <v>177.4914703369141</v>
+        <v>177.491455078125</v>
       </c>
       <c r="F281" t="n">
         <v>63841300</v>
@@ -7797,16 +7797,16 @@
         <v>45238</v>
       </c>
       <c r="B283" t="n">
-        <v>180.5812114444328</v>
+        <v>180.5812266581694</v>
       </c>
       <c r="C283" t="n">
-        <v>181.6705323803792</v>
+        <v>181.6705476858897</v>
       </c>
       <c r="D283" t="n">
-        <v>179.8285737718667</v>
+        <v>179.8285889221945</v>
       </c>
       <c r="E283" t="n">
-        <v>181.115966796875</v>
+        <v>181.1159820556641</v>
       </c>
       <c r="F283" t="n">
         <v>49340300</v>
@@ -7901,16 +7901,16 @@
         <v>45244</v>
       </c>
       <c r="B287" t="n">
-        <v>186.1242058271512</v>
+        <v>186.1242211071054</v>
       </c>
       <c r="C287" t="n">
-        <v>186.530767400071</v>
+        <v>186.5307827134021</v>
       </c>
       <c r="D287" t="n">
-        <v>184.7359652497266</v>
+        <v>184.7359804157126</v>
       </c>
       <c r="E287" t="n">
-        <v>185.8663940429688</v>
+        <v>185.8664093017578</v>
       </c>
       <c r="F287" t="n">
         <v>60108400</v>
@@ -7927,16 +7927,16 @@
         <v>45245</v>
       </c>
       <c r="B288" t="n">
-        <v>186.2729648412074</v>
+        <v>186.2729800870119</v>
       </c>
       <c r="C288" t="n">
-        <v>187.9091066835381</v>
+        <v>187.9091220632552</v>
       </c>
       <c r="D288" t="n">
-        <v>186.2035452435543</v>
+        <v>186.2035604836771</v>
       </c>
       <c r="E288" t="n">
-        <v>186.4316101074219</v>
+        <v>186.4316253662109</v>
       </c>
       <c r="F288" t="n">
         <v>53790500</v>
@@ -7953,16 +7953,16 @@
         <v>45246</v>
       </c>
       <c r="B289" t="n">
-        <v>187.9785312783714</v>
+        <v>187.9785160308428</v>
       </c>
       <c r="C289" t="n">
-        <v>189.3568613603926</v>
+        <v>189.3568460010633</v>
       </c>
       <c r="D289" t="n">
-        <v>187.0662415372727</v>
+        <v>187.0662263637428</v>
       </c>
       <c r="E289" t="n">
-        <v>188.1173553466797</v>
+        <v>188.1173400878906</v>
       </c>
       <c r="F289" t="n">
         <v>54412900</v>
@@ -7979,16 +7979,16 @@
         <v>45247</v>
       </c>
       <c r="B290" t="n">
-        <v>188.6527998900215</v>
+        <v>188.6528151938572</v>
       </c>
       <c r="C290" t="n">
-        <v>188.7817133467466</v>
+        <v>188.7817286610399</v>
       </c>
       <c r="D290" t="n">
-        <v>186.9869112062851</v>
+        <v>186.986926374981</v>
       </c>
       <c r="E290" t="n">
-        <v>188.0975036621094</v>
+        <v>188.0975189208984</v>
       </c>
       <c r="F290" t="n">
         <v>50922700</v>
@@ -8031,16 +8031,16 @@
         <v>45251</v>
       </c>
       <c r="B292" t="n">
-        <v>189.8030601227414</v>
+        <v>189.8030907635815</v>
       </c>
       <c r="C292" t="n">
-        <v>189.9121372454657</v>
+        <v>189.9121679039146</v>
       </c>
       <c r="D292" t="n">
-        <v>188.1470820818824</v>
+        <v>188.1471124553899</v>
       </c>
       <c r="E292" t="n">
-        <v>189.0395202636719</v>
+        <v>189.03955078125</v>
       </c>
       <c r="F292" t="n">
         <v>38134500</v>
@@ -8135,16 +8135,16 @@
         <v>45258</v>
       </c>
       <c r="B296" t="n">
-        <v>188.1867388581487</v>
+        <v>188.1867540672509</v>
       </c>
       <c r="C296" t="n">
-        <v>189.4758279949889</v>
+        <v>189.4758433082743</v>
       </c>
       <c r="D296" t="n">
-        <v>187.8099242301234</v>
+        <v>187.8099394087718</v>
       </c>
       <c r="E296" t="n">
-        <v>188.8015289306641</v>
+        <v>188.8015441894531</v>
       </c>
       <c r="F296" t="n">
         <v>38415400</v>
@@ -8213,16 +8213,16 @@
         <v>45261</v>
       </c>
       <c r="B299" t="n">
-        <v>188.7321270456235</v>
+        <v>188.7321422318045</v>
       </c>
       <c r="C299" t="n">
-        <v>189.9517966073436</v>
+        <v>189.9518118916644</v>
       </c>
       <c r="D299" t="n">
-        <v>187.6413558078658</v>
+        <v>187.6413709062789</v>
       </c>
       <c r="E299" t="n">
-        <v>189.6344909667969</v>
+        <v>189.6345062255859</v>
       </c>
       <c r="F299" t="n">
         <v>45704800</v>
@@ -8239,16 +8239,16 @@
         <v>45264</v>
       </c>
       <c r="B300" t="n">
-        <v>188.3850462254327</v>
+        <v>188.3850615285251</v>
       </c>
       <c r="C300" t="n">
-        <v>188.4544658133139</v>
+        <v>188.4544811220455</v>
       </c>
       <c r="D300" t="n">
-        <v>185.876287683972</v>
+        <v>185.8763027832703</v>
       </c>
       <c r="E300" t="n">
-        <v>187.8396606445312</v>
+        <v>187.8396759033203</v>
       </c>
       <c r="F300" t="n">
         <v>43389500</v>
@@ -8265,16 +8265,16 @@
         <v>45265</v>
       </c>
       <c r="B301" t="n">
-        <v>188.6131605952718</v>
+        <v>188.6131155786076</v>
       </c>
       <c r="C301" t="n">
-        <v>192.7679721060875</v>
+        <v>192.7679260977865</v>
       </c>
       <c r="D301" t="n">
-        <v>188.5833985302606</v>
+        <v>188.5833535206997</v>
       </c>
       <c r="E301" t="n">
-        <v>191.7962036132812</v>
+        <v>191.7961578369141</v>
       </c>
       <c r="F301" t="n">
         <v>66628400</v>
@@ -8343,16 +8343,16 @@
         <v>45268</v>
       </c>
       <c r="B304" t="n">
-        <v>192.5696228392207</v>
+        <v>192.5696379802798</v>
       </c>
       <c r="C304" t="n">
-        <v>194.3446036620394</v>
+        <v>194.3446189426589</v>
       </c>
       <c r="D304" t="n">
-        <v>192.0440735774375</v>
+        <v>192.0440886771746</v>
       </c>
       <c r="E304" t="n">
-        <v>194.0669555664062</v>
+        <v>194.0669708251953</v>
       </c>
       <c r="F304" t="n">
         <v>53406400</v>
@@ -8369,16 +8369,16 @@
         <v>45271</v>
       </c>
       <c r="B305" t="n">
-        <v>191.4887925574205</v>
+        <v>191.48877730416</v>
       </c>
       <c r="C305" t="n">
-        <v>191.8656072016425</v>
+        <v>191.8655919183663</v>
       </c>
       <c r="D305" t="n">
-        <v>189.8129781205652</v>
+        <v>189.8129630007935</v>
       </c>
       <c r="E305" t="n">
-        <v>191.5581970214844</v>
+        <v>191.5581817626953</v>
       </c>
       <c r="F305" t="n">
         <v>60943700</v>
@@ -8395,16 +8395,16 @@
         <v>45272</v>
       </c>
       <c r="B306" t="n">
-        <v>191.4590426114497</v>
+        <v>191.4590577425006</v>
       </c>
       <c r="C306" t="n">
-        <v>193.0852737594078</v>
+        <v>193.08528901898</v>
       </c>
       <c r="D306" t="n">
-        <v>190.1104595767513</v>
+        <v>190.1104746012234</v>
       </c>
       <c r="E306" t="n">
-        <v>193.0753631591797</v>
+        <v>193.0753784179688</v>
       </c>
       <c r="F306" t="n">
         <v>52696900</v>
@@ -8421,16 +8421,16 @@
         <v>45273</v>
       </c>
       <c r="B307" t="n">
-        <v>193.4521795971172</v>
+        <v>193.452164559549</v>
       </c>
       <c r="C307" t="n">
-        <v>196.3377532381953</v>
+        <v>196.3377379763236</v>
       </c>
       <c r="D307" t="n">
-        <v>193.2142041253177</v>
+        <v>193.214189106248</v>
       </c>
       <c r="E307" t="n">
-        <v>196.298095703125</v>
+        <v>196.2980804443359</v>
       </c>
       <c r="F307" t="n">
         <v>70404200</v>
@@ -8499,16 +8499,16 @@
         <v>45278</v>
       </c>
       <c r="B310" t="n">
-        <v>194.4437860780774</v>
+        <v>194.4437708037096</v>
       </c>
       <c r="C310" t="n">
-        <v>194.9792611555933</v>
+        <v>194.9792458391617</v>
       </c>
       <c r="D310" t="n">
-        <v>192.758060905398</v>
+        <v>192.758045763451</v>
       </c>
       <c r="E310" t="n">
-        <v>194.2454681396484</v>
+        <v>194.2454528808594</v>
       </c>
       <c r="F310" t="n">
         <v>55751900</v>
@@ -8525,16 +8525,16 @@
         <v>45279</v>
       </c>
       <c r="B311" t="n">
-        <v>194.5132010782648</v>
+        <v>194.5131858799095</v>
       </c>
       <c r="C311" t="n">
-        <v>195.2965622122741</v>
+        <v>195.2965469527107</v>
       </c>
       <c r="D311" t="n">
-        <v>194.2454635458387</v>
+        <v>194.2454483684032</v>
       </c>
       <c r="E311" t="n">
-        <v>195.2866516113281</v>
+        <v>195.2866363525391</v>
       </c>
       <c r="F311" t="n">
         <v>40714100</v>
@@ -8551,16 +8551,16 @@
         <v>45280</v>
       </c>
       <c r="B312" t="n">
-        <v>195.2469651176754</v>
+        <v>195.2469805385831</v>
       </c>
       <c r="C312" t="n">
-        <v>196.0204155959587</v>
+        <v>196.0204310779547</v>
       </c>
       <c r="D312" t="n">
-        <v>193.1943511962891</v>
+        <v>193.1943664550781</v>
       </c>
       <c r="E312" t="n">
-        <v>193.1943511962891</v>
+        <v>193.1943664550781</v>
       </c>
       <c r="F312" t="n">
         <v>52242800</v>
@@ -8681,16 +8681,16 @@
         <v>45288</v>
       </c>
       <c r="B317" t="n">
-        <v>192.5101301790993</v>
+        <v>192.5101454820298</v>
       </c>
       <c r="C317" t="n">
-        <v>193.0257688444948</v>
+        <v>193.0257841884141</v>
       </c>
       <c r="D317" t="n">
-        <v>191.5482724379923</v>
+        <v>191.5482876644632</v>
       </c>
       <c r="E317" t="n">
-        <v>191.954833984375</v>
+        <v>191.9548492431641</v>
       </c>
       <c r="F317" t="n">
         <v>34049900</v>
@@ -8707,16 +8707,16 @@
         <v>45289</v>
       </c>
       <c r="B318" t="n">
-        <v>192.2721594689321</v>
+        <v>192.2721441015654</v>
       </c>
       <c r="C318" t="n">
-        <v>192.7679618555263</v>
+        <v>192.7679464485325</v>
       </c>
       <c r="D318" t="n">
-        <v>190.1203789267961</v>
+        <v>190.1203637314106</v>
       </c>
       <c r="E318" t="n">
-        <v>190.9136657714844</v>
+        <v>190.9136505126953</v>
       </c>
       <c r="F318" t="n">
         <v>42672100</v>
@@ -8733,16 +8733,16 @@
         <v>45293</v>
       </c>
       <c r="B319" t="n">
-        <v>185.5788302357291</v>
+        <v>185.5788148528252</v>
       </c>
       <c r="C319" t="n">
-        <v>186.8580088869083</v>
+        <v>186.8579933979713</v>
       </c>
       <c r="D319" t="n">
-        <v>182.3462040701726</v>
+        <v>182.3461889552258</v>
       </c>
       <c r="E319" t="n">
-        <v>184.0815124511719</v>
+        <v>184.0814971923828</v>
       </c>
       <c r="F319" t="n">
         <v>82488700</v>
@@ -8759,16 +8759,16 @@
         <v>45294</v>
       </c>
       <c r="B320" t="n">
-        <v>182.6734391013451</v>
+        <v>182.6734543576498</v>
       </c>
       <c r="C320" t="n">
-        <v>184.3195067154423</v>
+        <v>184.3195221092213</v>
       </c>
       <c r="D320" t="n">
-        <v>181.8900628291485</v>
+        <v>181.8900780200281</v>
       </c>
       <c r="E320" t="n">
-        <v>182.7031860351562</v>
+        <v>182.7032012939453</v>
       </c>
       <c r="F320" t="n">
         <v>58414500</v>
@@ -8811,16 +8811,16 @@
         <v>45296</v>
       </c>
       <c r="B322" t="n">
-        <v>180.4621787322578</v>
+        <v>180.4621634052503</v>
       </c>
       <c r="C322" t="n">
-        <v>181.2257036007284</v>
+        <v>181.2256882088732</v>
       </c>
       <c r="D322" t="n">
-        <v>178.657450576186</v>
+        <v>178.6574354024576</v>
       </c>
       <c r="E322" t="n">
-        <v>179.6589660644531</v>
+        <v>179.6589508056641</v>
       </c>
       <c r="F322" t="n">
         <v>62379700</v>
@@ -8837,16 +8837,16 @@
         <v>45299</v>
       </c>
       <c r="B323" t="n">
-        <v>180.5613271560953</v>
+        <v>180.561312182648</v>
       </c>
       <c r="C323" t="n">
-        <v>184.0418699336132</v>
+        <v>184.0418546715341</v>
       </c>
       <c r="D323" t="n">
-        <v>179.9762839141311</v>
+        <v>179.9762689891998</v>
       </c>
       <c r="E323" t="n">
-        <v>184.002197265625</v>
+        <v>184.0021820068359</v>
       </c>
       <c r="F323" t="n">
         <v>59144500</v>
@@ -8889,16 +8889,16 @@
         <v>45301</v>
       </c>
       <c r="B325" t="n">
-        <v>182.8023278606972</v>
+        <v>182.802312752701</v>
       </c>
       <c r="C325" t="n">
-        <v>184.8351053395885</v>
+        <v>184.8350900635901</v>
       </c>
       <c r="D325" t="n">
-        <v>182.3759299825551</v>
+        <v>182.3759149097992</v>
       </c>
       <c r="E325" t="n">
-        <v>184.6268768310547</v>
+        <v>184.6268615722656</v>
       </c>
       <c r="F325" t="n">
         <v>46792900</v>
@@ -8915,16 +8915,16 @@
         <v>45302</v>
       </c>
       <c r="B326" t="n">
-        <v>184.9739121965543</v>
+        <v>184.97392753345</v>
       </c>
       <c r="C326" t="n">
-        <v>185.4796402173622</v>
+        <v>185.4796555961897</v>
       </c>
       <c r="D326" t="n">
-        <v>182.0784286307964</v>
+        <v>182.0784437276164</v>
       </c>
       <c r="E326" t="n">
-        <v>184.0318908691406</v>
+        <v>184.0319061279297</v>
       </c>
       <c r="F326" t="n">
         <v>49128400</v>
@@ -8941,16 +8941,16 @@
         <v>45303</v>
       </c>
       <c r="B327" t="n">
-        <v>184.4979854428044</v>
+        <v>184.4979701725253</v>
       </c>
       <c r="C327" t="n">
-        <v>185.1722845702879</v>
+        <v>185.1722692441994</v>
       </c>
       <c r="D327" t="n">
-        <v>183.6352941143493</v>
+        <v>183.6352789154723</v>
       </c>
       <c r="E327" t="n">
-        <v>184.3591613769531</v>
+        <v>184.3591461181641</v>
       </c>
       <c r="F327" t="n">
         <v>40477800</v>
@@ -8993,16 +8993,16 @@
         <v>45308</v>
       </c>
       <c r="B329" t="n">
-        <v>179.7481958586918</v>
+        <v>179.7481807176754</v>
       </c>
       <c r="C329" t="n">
-        <v>181.3942482314533</v>
+        <v>181.3942329517824</v>
       </c>
       <c r="D329" t="n">
-        <v>178.786338048284</v>
+        <v>178.7863229882893</v>
       </c>
       <c r="E329" t="n">
-        <v>181.1463470458984</v>
+        <v>181.1463317871094</v>
       </c>
       <c r="F329" t="n">
         <v>47317400</v>
@@ -9045,16 +9045,16 @@
         <v>45310</v>
       </c>
       <c r="B331" t="n">
-        <v>187.7405382804929</v>
+        <v>187.7405231993351</v>
       </c>
       <c r="C331" t="n">
-        <v>190.3385380102556</v>
+        <v>190.338522720401</v>
       </c>
       <c r="D331" t="n">
-        <v>187.2348252804006</v>
+        <v>187.2348102398665</v>
       </c>
       <c r="E331" t="n">
-        <v>189.9518127441406</v>
+        <v>189.9517974853516</v>
       </c>
       <c r="F331" t="n">
         <v>68903000</v>
@@ -9071,16 +9071,16 @@
         <v>45313</v>
       </c>
       <c r="B332" t="n">
-        <v>190.6855896836489</v>
+        <v>190.6855745499896</v>
       </c>
       <c r="C332" t="n">
-        <v>193.6901507590611</v>
+        <v>193.6901353869465</v>
       </c>
       <c r="D332" t="n">
-        <v>190.6459170218718</v>
+        <v>190.6459018913611</v>
       </c>
       <c r="E332" t="n">
-        <v>192.2622375488281</v>
+        <v>192.2622222900391</v>
       </c>
       <c r="F332" t="n">
         <v>60133900</v>
@@ -9097,16 +9097,16 @@
         <v>45314</v>
       </c>
       <c r="B333" t="n">
-        <v>193.3827365965774</v>
+        <v>193.3827518428589</v>
       </c>
       <c r="C333" t="n">
-        <v>194.1066037302182</v>
+        <v>194.1066190335693</v>
       </c>
       <c r="D333" t="n">
-        <v>192.2027246817267</v>
+        <v>192.2027398349761</v>
       </c>
       <c r="E333" t="n">
-        <v>193.5413818359375</v>
+        <v>193.5413970947266</v>
       </c>
       <c r="F333" t="n">
         <v>42355600</v>
@@ -9175,16 +9175,16 @@
         <v>45317</v>
       </c>
       <c r="B336" t="n">
-        <v>192.6390400891958</v>
+        <v>192.6390709001827</v>
       </c>
       <c r="C336" t="n">
-        <v>193.1249166853105</v>
+        <v>193.1249475740092</v>
       </c>
       <c r="D336" t="n">
-        <v>190.3285994330514</v>
+        <v>190.3286298745028</v>
       </c>
       <c r="E336" t="n">
-        <v>190.8045654296875</v>
+        <v>190.8045959472656</v>
       </c>
       <c r="F336" t="n">
         <v>44594000</v>
@@ -9253,16 +9253,16 @@
         <v>45322</v>
       </c>
       <c r="B339" t="n">
-        <v>185.4697184840352</v>
+        <v>185.4697339612798</v>
       </c>
       <c r="C339" t="n">
-        <v>185.5292274700541</v>
+        <v>185.5292429522646</v>
       </c>
       <c r="D339" t="n">
-        <v>182.8023148089162</v>
+        <v>182.8023300635688</v>
       </c>
       <c r="E339" t="n">
-        <v>182.8518829345703</v>
+        <v>182.8518981933594</v>
       </c>
       <c r="F339" t="n">
         <v>55467800</v>
@@ -9305,16 +9305,16 @@
         <v>45324</v>
       </c>
       <c r="B341" t="n">
-        <v>178.3500312361064</v>
+        <v>178.350016469113</v>
       </c>
       <c r="C341" t="n">
-        <v>185.7573199413499</v>
+        <v>185.7573045610492</v>
       </c>
       <c r="D341" t="n">
-        <v>177.7451517323754</v>
+        <v>177.7451370154647</v>
       </c>
       <c r="E341" t="n">
-        <v>184.2897491455078</v>
+        <v>184.2897338867188</v>
       </c>
       <c r="F341" t="n">
         <v>102551700</v>
@@ -9435,16 +9435,16 @@
         <v>45331</v>
       </c>
       <c r="B346" t="n">
-        <v>187.3049233972936</v>
+        <v>187.3049081546652</v>
       </c>
       <c r="C346" t="n">
-        <v>188.6353807393983</v>
+        <v>188.635365388499</v>
       </c>
       <c r="D346" t="n">
-        <v>186.6595639436563</v>
+        <v>186.6595487535465</v>
       </c>
       <c r="E346" t="n">
-        <v>187.5035095214844</v>
+        <v>187.5034942626953</v>
       </c>
       <c r="F346" t="n">
         <v>45155200</v>
@@ -9539,16 +9539,16 @@
         <v>45337</v>
       </c>
       <c r="B350" t="n">
-        <v>182.2412850006514</v>
+        <v>182.2413002337134</v>
       </c>
       <c r="C350" t="n">
-        <v>183.1745851912121</v>
+        <v>183.1746005022862</v>
       </c>
       <c r="D350" t="n">
-        <v>180.0569741089098</v>
+        <v>180.056989159391</v>
       </c>
       <c r="E350" t="n">
-        <v>182.549072265625</v>
+        <v>182.5490875244141</v>
       </c>
       <c r="F350" t="n">
         <v>65434500</v>
@@ -9643,16 +9643,16 @@
         <v>45344</v>
       </c>
       <c r="B354" t="n">
-        <v>182.1718118659595</v>
+        <v>182.1717814956972</v>
       </c>
       <c r="C354" t="n">
-        <v>183.6412706039098</v>
+        <v>183.6412399886709</v>
       </c>
       <c r="D354" t="n">
-        <v>181.1590952154757</v>
+        <v>181.1590650140456</v>
       </c>
       <c r="E354" t="n">
-        <v>183.0554656982422</v>
+        <v>183.0554351806641</v>
       </c>
       <c r="F354" t="n">
         <v>52292200</v>
@@ -9669,16 +9669,16 @@
         <v>45345</v>
       </c>
       <c r="B355" t="n">
-        <v>183.6908798817894</v>
+        <v>183.6908953487433</v>
       </c>
       <c r="C355" t="n">
-        <v>183.7206647708659</v>
+        <v>183.7206802403276</v>
       </c>
       <c r="D355" t="n">
-        <v>180.9307023940782</v>
+        <v>180.9307176286224</v>
       </c>
       <c r="E355" t="n">
-        <v>181.2186431884766</v>
+        <v>181.2186584472656</v>
       </c>
       <c r="F355" t="n">
         <v>45119700</v>
@@ -9721,16 +9721,16 @@
         <v>45349</v>
       </c>
       <c r="B357" t="n">
-        <v>179.8087604756301</v>
+        <v>179.8087756065873</v>
       </c>
       <c r="C357" t="n">
-        <v>182.6086459573909</v>
+        <v>182.6086613239592</v>
       </c>
       <c r="D357" t="n">
-        <v>178.27973221361</v>
+        <v>178.2797472158991</v>
       </c>
       <c r="E357" t="n">
-        <v>181.3278503417969</v>
+        <v>181.3278656005859</v>
       </c>
       <c r="F357" t="n">
         <v>54318900</v>
@@ -9747,16 +9747,16 @@
         <v>45350</v>
       </c>
       <c r="B358" t="n">
-        <v>181.2087201561828</v>
+        <v>181.2087048057168</v>
       </c>
       <c r="C358" t="n">
-        <v>181.8143715354126</v>
+        <v>181.814356133641</v>
       </c>
       <c r="D358" t="n">
-        <v>178.8456995724628</v>
+        <v>178.8456844221719</v>
       </c>
       <c r="E358" t="n">
-        <v>180.1264953613281</v>
+        <v>180.1264801025391</v>
       </c>
       <c r="F358" t="n">
         <v>48953900</v>
@@ -9773,16 +9773,16 @@
         <v>45351</v>
       </c>
       <c r="B359" t="n">
-        <v>179.9775698948909</v>
+        <v>179.9775545922035</v>
       </c>
       <c r="C359" t="n">
-        <v>181.268304073722</v>
+        <v>181.2682886612891</v>
       </c>
       <c r="D359" t="n">
-        <v>178.2499704416867</v>
+        <v>178.2499552858893</v>
       </c>
       <c r="E359" t="n">
-        <v>179.4612731933594</v>
+        <v>179.4612579345703</v>
       </c>
       <c r="F359" t="n">
         <v>136682600</v>
@@ -9799,16 +9799,16 @@
         <v>45352</v>
       </c>
       <c r="B360" t="n">
-        <v>178.2698272634628</v>
+        <v>178.2698120140162</v>
       </c>
       <c r="C360" t="n">
-        <v>179.2428357073387</v>
+        <v>179.2428203746597</v>
       </c>
       <c r="D360" t="n">
-        <v>176.1153009913112</v>
+        <v>176.1152859261658</v>
       </c>
       <c r="E360" t="n">
-        <v>178.3790435791016</v>
+        <v>178.3790283203125</v>
       </c>
       <c r="F360" t="n">
         <v>73563100</v>
@@ -9851,16 +9851,16 @@
         <v>45356</v>
       </c>
       <c r="B362" t="n">
-        <v>169.5424796657224</v>
+        <v>169.542464349529</v>
       </c>
       <c r="C362" t="n">
-        <v>170.8133520831047</v>
+        <v>170.8133366521028</v>
       </c>
       <c r="D362" t="n">
-        <v>168.410608445554</v>
+        <v>168.410593231612</v>
       </c>
       <c r="E362" t="n">
-        <v>168.9070434570312</v>
+        <v>168.9070281982422</v>
       </c>
       <c r="F362" t="n">
         <v>95132400</v>
@@ -9955,16 +9955,16 @@
         <v>45362</v>
       </c>
       <c r="B366" t="n">
-        <v>171.7069430151515</v>
+        <v>171.7069582907232</v>
       </c>
       <c r="C366" t="n">
-        <v>173.1366782623913</v>
+        <v>173.1366936651567</v>
       </c>
       <c r="D366" t="n">
-        <v>170.8232893067872</v>
+        <v>170.8233045037464</v>
       </c>
       <c r="E366" t="n">
-        <v>171.5182952880859</v>
+        <v>171.518310546875</v>
       </c>
       <c r="F366" t="n">
         <v>60139500</v>
@@ -10033,16 +10033,16 @@
         <v>45365</v>
       </c>
       <c r="B369" t="n">
-        <v>171.6771553457591</v>
+        <v>171.6771705966104</v>
       </c>
       <c r="C369" t="n">
-        <v>173.0671672858406</v>
+        <v>173.0671826601728</v>
       </c>
       <c r="D369" t="n">
-        <v>170.8232865397108</v>
+        <v>170.8233017147091</v>
       </c>
       <c r="E369" t="n">
-        <v>171.7665100097656</v>
+        <v>171.7665252685547</v>
       </c>
       <c r="F369" t="n">
         <v>72913500</v>
@@ -10059,16 +10059,16 @@
         <v>45366</v>
       </c>
       <c r="B370" t="n">
-        <v>169.9495626656345</v>
+        <v>169.9495475350183</v>
       </c>
       <c r="C370" t="n">
-        <v>171.3892211914062</v>
+        <v>171.3892059326172</v>
       </c>
       <c r="D370" t="n">
-        <v>169.0758321837892</v>
+        <v>169.0758171309612</v>
       </c>
       <c r="E370" t="n">
-        <v>171.3892211914062</v>
+        <v>171.3892059326172</v>
       </c>
       <c r="F370" t="n">
         <v>121752700</v>
@@ -10137,16 +10137,16 @@
         <v>45371</v>
       </c>
       <c r="B373" t="n">
-        <v>174.467139074951</v>
+        <v>174.4671240680978</v>
       </c>
       <c r="C373" t="n">
-        <v>177.3961029052734</v>
+        <v>177.3960876464844</v>
       </c>
       <c r="D373" t="n">
-        <v>173.8416260500023</v>
+        <v>173.8416110969529</v>
       </c>
       <c r="E373" t="n">
-        <v>177.3961029052734</v>
+        <v>177.3960876464844</v>
       </c>
       <c r="F373" t="n">
         <v>53423100</v>
@@ -10241,16 +10241,16 @@
         <v>45377</v>
       </c>
       <c r="B377" t="n">
-        <v>168.7879103929424</v>
+        <v>168.787925677805</v>
       </c>
       <c r="C377" t="n">
-        <v>170.1977840617546</v>
+        <v>170.1977994742906</v>
       </c>
       <c r="D377" t="n">
-        <v>168.370906785265</v>
+        <v>168.3709220323653</v>
       </c>
       <c r="E377" t="n">
-        <v>168.4999847412109</v>
+        <v>168.5</v>
       </c>
       <c r="F377" t="n">
         <v>57388400</v>
@@ -10267,16 +10267,16 @@
         <v>45378</v>
       </c>
       <c r="B378" t="n">
-        <v>169.1949931447558</v>
+        <v>169.1949631378279</v>
       </c>
       <c r="C378" t="n">
-        <v>172.3622511085293</v>
+        <v>172.3622205398845</v>
       </c>
       <c r="D378" t="n">
-        <v>168.8971290922075</v>
+        <v>168.8970991381061</v>
       </c>
       <c r="E378" t="n">
-        <v>172.0743103027344</v>
+        <v>172.0742797851562</v>
       </c>
       <c r="F378" t="n">
         <v>60273300</v>
@@ -10345,16 +10345,16 @@
         <v>45384</v>
       </c>
       <c r="B381" t="n">
-        <v>167.8744789712972</v>
+        <v>167.8744636908178</v>
       </c>
       <c r="C381" t="n">
-        <v>168.1326197442911</v>
+        <v>168.1326044403149</v>
       </c>
       <c r="D381" t="n">
-        <v>167.0305333230549</v>
+        <v>167.0305181193942</v>
       </c>
       <c r="E381" t="n">
-        <v>167.6361846923828</v>
+        <v>167.6361694335938</v>
       </c>
       <c r="F381" t="n">
         <v>49329500</v>
@@ -10397,16 +10397,16 @@
         <v>45386</v>
       </c>
       <c r="B383" t="n">
-        <v>169.0758226855775</v>
+        <v>169.0758380772312</v>
       </c>
       <c r="C383" t="n">
-        <v>170.6942056053534</v>
+        <v>170.694221144335</v>
       </c>
       <c r="D383" t="n">
-        <v>167.6163177490234</v>
+        <v>167.6163330078125</v>
       </c>
       <c r="E383" t="n">
-        <v>167.6163177490234</v>
+        <v>167.6163330078125</v>
       </c>
       <c r="F383" t="n">
         <v>53704400</v>
@@ -10449,16 +10449,16 @@
         <v>45390</v>
       </c>
       <c r="B385" t="n">
-        <v>167.8248288683144</v>
+        <v>167.8248135569868</v>
       </c>
       <c r="C385" t="n">
-        <v>167.9936149643756</v>
+        <v>167.9935996376489</v>
       </c>
       <c r="D385" t="n">
-        <v>167.0404681689721</v>
+        <v>167.0404529292048</v>
       </c>
       <c r="E385" t="n">
-        <v>167.2489624023438</v>
+        <v>167.2489471435547</v>
       </c>
       <c r="F385" t="n">
         <v>37425500</v>
@@ -10475,16 +10475,16 @@
         <v>45391</v>
       </c>
       <c r="B386" t="n">
-        <v>167.4971809153481</v>
+        <v>167.4971960869028</v>
       </c>
       <c r="C386" t="n">
-        <v>168.8673464856025</v>
+        <v>168.8673617812641</v>
       </c>
       <c r="D386" t="n">
-        <v>167.1496854743383</v>
+        <v>167.1497006144176</v>
       </c>
       <c r="E386" t="n">
-        <v>168.4602661132812</v>
+        <v>168.4602813720703</v>
       </c>
       <c r="F386" t="n">
         <v>42373800</v>
@@ -10501,16 +10501,16 @@
         <v>45392</v>
       </c>
       <c r="B387" t="n">
-        <v>167.5964719544717</v>
+        <v>167.5964566029182</v>
       </c>
       <c r="C387" t="n">
-        <v>167.8843976106783</v>
+        <v>167.8843822327512</v>
       </c>
       <c r="D387" t="n">
-        <v>165.9185191010747</v>
+        <v>165.9185039032187</v>
       </c>
       <c r="E387" t="n">
-        <v>166.583740234375</v>
+        <v>166.5837249755859</v>
       </c>
       <c r="F387" t="n">
         <v>49709300</v>
@@ -10527,16 +10527,16 @@
         <v>45393</v>
       </c>
       <c r="B388" t="n">
-        <v>167.1397208898473</v>
+        <v>167.1397355645765</v>
       </c>
       <c r="C388" t="n">
-        <v>174.2089651149981</v>
+        <v>174.208980410401</v>
       </c>
       <c r="D388" t="n">
-        <v>166.9610115738989</v>
+        <v>166.9610262329375</v>
       </c>
       <c r="E388" t="n">
-        <v>173.7919464111328</v>
+        <v>173.7919616699219</v>
       </c>
       <c r="F388" t="n">
         <v>91070300</v>
@@ -10579,16 +10579,16 @@
         <v>45397</v>
       </c>
       <c r="B390" t="n">
-        <v>174.1096705976904</v>
+        <v>174.109686092399</v>
       </c>
       <c r="C390" t="n">
-        <v>175.3706196440305</v>
+        <v>175.370635250956</v>
       </c>
       <c r="D390" t="n">
-        <v>171.270062007109</v>
+        <v>171.2700772491096</v>
       </c>
       <c r="E390" t="n">
-        <v>171.4587097167969</v>
+        <v>171.4587249755859</v>
       </c>
       <c r="F390" t="n">
         <v>73531800</v>
@@ -10605,16 +10605,16 @@
         <v>45398</v>
       </c>
       <c r="B391" t="n">
-        <v>170.5254299180361</v>
+        <v>170.5254453903288</v>
       </c>
       <c r="C391" t="n">
-        <v>172.5210932508517</v>
+        <v>172.5211089042171</v>
       </c>
       <c r="D391" t="n">
-        <v>167.0702464097302</v>
+        <v>167.0702615685236</v>
       </c>
       <c r="E391" t="n">
-        <v>168.1723327636719</v>
+        <v>168.1723480224609</v>
       </c>
       <c r="F391" t="n">
         <v>73711200</v>
@@ -10683,16 +10683,16 @@
         <v>45401</v>
       </c>
       <c r="B394" t="n">
-        <v>165.0249574513175</v>
+        <v>165.02494208063</v>
       </c>
       <c r="C394" t="n">
-        <v>165.2135900574256</v>
+        <v>165.2135746691686</v>
       </c>
       <c r="D394" t="n">
-        <v>162.910139143402</v>
+        <v>162.9101239696921</v>
       </c>
       <c r="E394" t="n">
-        <v>163.8235778808594</v>
+        <v>163.8235626220703</v>
       </c>
       <c r="F394" t="n">
         <v>68149400</v>
@@ -10709,16 +10709,16 @@
         <v>45404</v>
       </c>
       <c r="B395" t="n">
-        <v>164.3398364946844</v>
+        <v>164.3398517240313</v>
       </c>
       <c r="C395" t="n">
-        <v>166.0674204920171</v>
+        <v>166.0674358814589</v>
       </c>
       <c r="D395" t="n">
-        <v>163.5951840406637</v>
+        <v>163.5951992010038</v>
       </c>
       <c r="E395" t="n">
-        <v>164.6575469970703</v>
+        <v>164.6575622558594</v>
       </c>
       <c r="F395" t="n">
         <v>48116400</v>
@@ -10787,16 +10787,16 @@
         <v>45407</v>
       </c>
       <c r="B398" t="n">
-        <v>168.32124662086</v>
+        <v>168.3212618473153</v>
       </c>
       <c r="C398" t="n">
-        <v>169.3935480180457</v>
+        <v>169.3935633415022</v>
       </c>
       <c r="D398" t="n">
-        <v>166.951081199457</v>
+        <v>166.9510963019663</v>
       </c>
       <c r="E398" t="n">
-        <v>168.6786804199219</v>
+        <v>168.6786956787109</v>
       </c>
       <c r="F398" t="n">
         <v>50558300</v>
@@ -10839,16 +10839,16 @@
         <v>45411</v>
       </c>
       <c r="B400" t="n">
-        <v>172.1338615092833</v>
+        <v>172.1338767566388</v>
       </c>
       <c r="C400" t="n">
-        <v>174.7748992602403</v>
+        <v>174.7749147415349</v>
       </c>
       <c r="D400" t="n">
-        <v>171.8657975259106</v>
+        <v>171.8658127495214</v>
       </c>
       <c r="E400" t="n">
-        <v>172.262939453125</v>
+        <v>172.2629547119141</v>
       </c>
       <c r="F400" t="n">
         <v>68169400</v>
@@ -10917,16 +10917,16 @@
         <v>45414</v>
       </c>
       <c r="B403" t="n">
-        <v>171.2800137361139</v>
+        <v>171.2799833102497</v>
       </c>
       <c r="C403" t="n">
-        <v>172.183529153824</v>
+        <v>172.183498567461</v>
       </c>
       <c r="D403" t="n">
-        <v>169.6715690386484</v>
+        <v>169.6715388985054</v>
       </c>
       <c r="E403" t="n">
-        <v>171.7963104248047</v>
+        <v>171.7962799072266</v>
       </c>
       <c r="F403" t="n">
         <v>94214900</v>
@@ -10969,16 +10969,16 @@
         <v>45418</v>
       </c>
       <c r="B405" t="n">
-        <v>181.04984964293</v>
+        <v>181.0498649554619</v>
       </c>
       <c r="C405" t="n">
-        <v>182.8866500436298</v>
+        <v>182.8866655115116</v>
       </c>
       <c r="D405" t="n">
-        <v>179.1336026746395</v>
+        <v>179.1336178251023</v>
       </c>
       <c r="E405" t="n">
-        <v>180.4144134521484</v>
+        <v>180.4144287109375</v>
       </c>
       <c r="F405" t="n">
         <v>78569700</v>
@@ -10995,16 +10995,16 @@
         <v>45419</v>
       </c>
       <c r="B406" t="n">
-        <v>182.1420192121963</v>
+        <v>182.1420038655686</v>
       </c>
       <c r="C406" t="n">
-        <v>183.5816778461448</v>
+        <v>183.5816623782166</v>
       </c>
       <c r="D406" t="n">
-        <v>180.02721617336</v>
+        <v>180.0272010049179</v>
       </c>
       <c r="E406" t="n">
-        <v>181.0995025634766</v>
+        <v>181.0994873046875</v>
       </c>
       <c r="F406" t="n">
         <v>77305800</v>
@@ -11073,16 +11073,16 @@
         <v>45422</v>
       </c>
       <c r="B409" t="n">
-        <v>183.8306552529416</v>
+        <v>183.8306706659433</v>
       </c>
       <c r="C409" t="n">
-        <v>184.01955884654</v>
+        <v>184.01957427538</v>
       </c>
       <c r="D409" t="n">
-        <v>181.0766860142415</v>
+        <v>181.0767011963408</v>
       </c>
       <c r="E409" t="n">
-        <v>181.9913635253906</v>
+        <v>181.9913787841797</v>
       </c>
       <c r="F409" t="n">
         <v>50759500</v>
@@ -11099,16 +11099,16 @@
         <v>45425</v>
       </c>
       <c r="B410" t="n">
-        <v>184.3675745022942</v>
+        <v>184.3675593123119</v>
       </c>
       <c r="C410" t="n">
-        <v>186.0179781089525</v>
+        <v>186.017962782994</v>
       </c>
       <c r="D410" t="n">
-        <v>183.552309406037</v>
+        <v>183.5522942832241</v>
       </c>
       <c r="E410" t="n">
-        <v>185.2027130126953</v>
+        <v>185.2026977539062</v>
       </c>
       <c r="F410" t="n">
         <v>72044800</v>
@@ -11177,16 +11177,16 @@
         <v>45428</v>
       </c>
       <c r="B413" t="n">
-        <v>189.3684726364485</v>
+        <v>189.3684573270214</v>
       </c>
       <c r="C413" t="n">
-        <v>189.9948340668423</v>
+        <v>189.9948187067773</v>
       </c>
       <c r="D413" t="n">
-        <v>188.5631594662532</v>
+        <v>188.5631442219314</v>
       </c>
       <c r="E413" t="n">
-        <v>188.7421112060547</v>
+        <v>188.7420959472656</v>
       </c>
       <c r="F413" t="n">
         <v>52845200</v>
@@ -11333,16 +11333,16 @@
         <v>45436</v>
       </c>
       <c r="B419" t="n">
-        <v>187.7280067652561</v>
+        <v>187.7280219308774</v>
       </c>
       <c r="C419" t="n">
-        <v>189.4778227162681</v>
+        <v>189.4778380232483</v>
       </c>
       <c r="D419" t="n">
-        <v>186.9525037733123</v>
+        <v>186.9525188762844</v>
       </c>
       <c r="E419" t="n">
-        <v>188.8812866210938</v>
+        <v>188.8813018798828</v>
       </c>
       <c r="F419" t="n">
         <v>36327000</v>
@@ -11541,16 +11541,16 @@
         <v>45449</v>
       </c>
       <c r="B427" t="n">
-        <v>194.5582793350848</v>
+        <v>194.5582946888103</v>
       </c>
       <c r="C427" t="n">
-        <v>195.3635924798522</v>
+        <v>195.3636078971296</v>
       </c>
       <c r="D427" t="n">
-        <v>193.0470656187862</v>
+        <v>193.047080853253</v>
       </c>
       <c r="E427" t="n">
-        <v>193.3552703857422</v>
+        <v>193.3552856445312</v>
       </c>
       <c r="F427" t="n">
         <v>41181800</v>
@@ -11697,16 +11697,16 @@
         <v>45457</v>
       </c>
       <c r="B433" t="n">
-        <v>212.613243693924</v>
+        <v>212.6132590503739</v>
       </c>
       <c r="C433" t="n">
-        <v>213.9256018265929</v>
+        <v>213.9256172778308</v>
       </c>
       <c r="D433" t="n">
-        <v>210.077988118569</v>
+        <v>210.0780032919047</v>
       </c>
       <c r="E433" t="n">
-        <v>211.2611083984375</v>
+        <v>211.2611236572266</v>
       </c>
       <c r="F433" t="n">
         <v>70122700</v>
@@ -11723,16 +11723,16 @@
         <v>45460</v>
       </c>
       <c r="B434" t="n">
-        <v>212.1360129993434</v>
+        <v>212.1360430521221</v>
       </c>
       <c r="C434" t="n">
-        <v>217.6837440208437</v>
+        <v>217.6837748595555</v>
       </c>
       <c r="D434" t="n">
-        <v>211.4897782108092</v>
+        <v>211.4898081720374</v>
       </c>
       <c r="E434" t="n">
-        <v>215.4169311523438</v>
+        <v>215.4169616699219</v>
       </c>
       <c r="F434" t="n">
         <v>93728300</v>
@@ -11749,16 +11749,16 @@
         <v>45461</v>
       </c>
       <c r="B435" t="n">
-        <v>216.3316233309755</v>
+        <v>216.3316078372056</v>
       </c>
       <c r="C435" t="n">
-        <v>217.3656172672209</v>
+        <v>217.3656016993958</v>
       </c>
       <c r="D435" t="n">
-        <v>211.7681719978675</v>
+        <v>211.768156830934</v>
       </c>
       <c r="E435" t="n">
-        <v>213.0507049560547</v>
+        <v>213.0506896972656</v>
       </c>
       <c r="F435" t="n">
         <v>79943300</v>
@@ -11775,16 +11775,16 @@
         <v>45463</v>
       </c>
       <c r="B436" t="n">
-        <v>212.6927826496957</v>
+        <v>212.6927670816265</v>
       </c>
       <c r="C436" t="n">
-        <v>213.0010025863277</v>
+        <v>213.0009869956984</v>
       </c>
       <c r="D436" t="n">
-        <v>207.6421748954302</v>
+        <v>207.6421596970407</v>
       </c>
       <c r="E436" t="n">
-        <v>208.4673614501953</v>
+        <v>208.4673461914062</v>
       </c>
       <c r="F436" t="n">
         <v>86172500</v>
@@ -11827,16 +11827,16 @@
         <v>45467</v>
       </c>
       <c r="B438" t="n">
-        <v>206.5187100711235</v>
+        <v>206.5186948431246</v>
       </c>
       <c r="C438" t="n">
-        <v>211.4699053713697</v>
+        <v>211.4698897782862</v>
       </c>
       <c r="D438" t="n">
-        <v>205.3952402588711</v>
+        <v>205.3952251137131</v>
       </c>
       <c r="E438" t="n">
-        <v>206.936279296875</v>
+        <v>206.9362640380859</v>
       </c>
       <c r="F438" t="n">
         <v>80727000</v>
@@ -11853,16 +11853,16 @@
         <v>45468</v>
       </c>
       <c r="B439" t="n">
-        <v>207.9404248679382</v>
+        <v>207.940440132565</v>
       </c>
       <c r="C439" t="n">
-        <v>210.1575391184255</v>
+        <v>210.1575545458077</v>
       </c>
       <c r="D439" t="n">
-        <v>207.4035545039836</v>
+        <v>207.4035697291995</v>
       </c>
       <c r="E439" t="n">
-        <v>207.8609008789062</v>
+        <v>207.8609161376953</v>
       </c>
       <c r="F439" t="n">
         <v>55549700</v>
@@ -11931,16 +11931,16 @@
         <v>45471</v>
       </c>
       <c r="B442" t="n">
-        <v>214.5221416113415</v>
+        <v>214.5221572432334</v>
       </c>
       <c r="C442" t="n">
-        <v>214.8204096554565</v>
+        <v>214.8204253090827</v>
       </c>
       <c r="D442" t="n">
-        <v>209.0837750485818</v>
+        <v>209.0837902841884</v>
       </c>
       <c r="E442" t="n">
-        <v>209.4019165039062</v>
+        <v>209.4019317626953</v>
       </c>
       <c r="F442" t="n">
         <v>82542700</v>
@@ -11957,16 +11957,16 @@
         <v>45474</v>
       </c>
       <c r="B443" t="n">
-        <v>210.8634216386627</v>
+        <v>210.8634365693964</v>
       </c>
       <c r="C443" t="n">
-        <v>216.2520744695974</v>
+        <v>216.2520897818886</v>
       </c>
       <c r="D443" t="n">
-        <v>210.6944066158183</v>
+        <v>210.6944215345844</v>
       </c>
       <c r="E443" t="n">
-        <v>215.4964752197266</v>
+        <v>215.4964904785156</v>
       </c>
       <c r="F443" t="n">
         <v>60402900</v>
@@ -11983,16 +11983,16 @@
         <v>45475</v>
       </c>
       <c r="B444" t="n">
-        <v>214.8999260337406</v>
+        <v>214.8999410071237</v>
       </c>
       <c r="C444" t="n">
-        <v>219.1054734487415</v>
+        <v>219.1054887151507</v>
       </c>
       <c r="D444" t="n">
-        <v>213.8560106721081</v>
+        <v>213.8560255727553</v>
       </c>
       <c r="E444" t="n">
-        <v>218.9961090087891</v>
+        <v>218.9961242675781</v>
       </c>
       <c r="F444" t="n">
         <v>58046200</v>
@@ -12061,16 +12061,16 @@
         <v>45481</v>
       </c>
       <c r="B447" t="n">
-        <v>225.7766675487194</v>
+        <v>225.776697968509</v>
       </c>
       <c r="C447" t="n">
-        <v>226.5322819524995</v>
+        <v>226.5323124740962</v>
       </c>
       <c r="D447" t="n">
-        <v>221.9588790483477</v>
+        <v>221.9589089537516</v>
       </c>
       <c r="E447" t="n">
-        <v>226.5024566650391</v>
+        <v>226.5024871826172</v>
       </c>
       <c r="F447" t="n">
         <v>59085900</v>
@@ -12113,16 +12113,16 @@
         <v>45483</v>
       </c>
       <c r="B449" t="n">
-        <v>227.9739037781008</v>
+        <v>227.9738887603291</v>
       </c>
       <c r="C449" t="n">
-        <v>231.7320418789461</v>
+        <v>231.7320266136073</v>
       </c>
       <c r="D449" t="n">
-        <v>227.9241899064988</v>
+        <v>227.9241748920021</v>
       </c>
       <c r="E449" t="n">
-        <v>231.6326141357422</v>
+        <v>231.6325988769531</v>
       </c>
       <c r="F449" t="n">
         <v>62627700</v>
@@ -12217,16 +12217,16 @@
         <v>45489</v>
       </c>
       <c r="B453" t="n">
-        <v>233.6409573645456</v>
+        <v>233.6409420940605</v>
       </c>
       <c r="C453" t="n">
-        <v>234.9036169989066</v>
+        <v>234.9036016458956</v>
       </c>
       <c r="D453" t="n">
-        <v>230.9864002226138</v>
+        <v>230.9863851256273</v>
       </c>
       <c r="E453" t="n">
-        <v>233.4620056152344</v>
+        <v>233.4619903564453</v>
       </c>
       <c r="F453" t="n">
         <v>43234300</v>
@@ -12243,16 +12243,16 @@
         <v>45490</v>
       </c>
       <c r="B454" t="n">
-        <v>228.1230158133756</v>
+        <v>228.1230464069532</v>
       </c>
       <c r="C454" t="n">
-        <v>230.1214010635272</v>
+        <v>230.1214319251083</v>
       </c>
       <c r="D454" t="n">
-        <v>225.3292693500046</v>
+        <v>225.3292995689129</v>
       </c>
       <c r="E454" t="n">
-        <v>227.5563201904297</v>
+        <v>227.5563507080078</v>
       </c>
       <c r="F454" t="n">
         <v>57345900</v>
@@ -12295,16 +12295,16 @@
         <v>45492</v>
       </c>
       <c r="B456" t="n">
-        <v>223.5198165983548</v>
+        <v>223.5198013048721</v>
       </c>
       <c r="C456" t="n">
-        <v>225.4883615119168</v>
+        <v>225.488346083744</v>
       </c>
       <c r="D456" t="n">
-        <v>221.9887143107171</v>
+        <v>221.9886991219942</v>
       </c>
       <c r="E456" t="n">
-        <v>223.0127563476562</v>
+        <v>223.0127410888672</v>
       </c>
       <c r="F456" t="n">
         <v>49151500</v>
@@ -12321,16 +12321,16 @@
         <v>45495</v>
       </c>
       <c r="B457" t="n">
-        <v>225.6971439398997</v>
+        <v>225.6971284733096</v>
       </c>
       <c r="C457" t="n">
-        <v>226.4626951020567</v>
+        <v>226.4626795830049</v>
       </c>
       <c r="D457" t="n">
-        <v>221.799816014305</v>
+        <v>221.7998008147913</v>
       </c>
       <c r="E457" t="n">
-        <v>222.664794921875</v>
+        <v>222.6647796630859</v>
       </c>
       <c r="F457" t="n">
         <v>48201800</v>
@@ -12399,16 +12399,16 @@
         <v>45498</v>
       </c>
       <c r="B460" t="n">
-        <v>217.6638522810165</v>
+        <v>217.663867640833</v>
       </c>
       <c r="C460" t="n">
-        <v>219.5727616725718</v>
+        <v>219.5727771670938</v>
       </c>
       <c r="D460" t="n">
-        <v>213.3787807818611</v>
+        <v>213.3787958392943</v>
       </c>
       <c r="E460" t="n">
-        <v>216.2321929931641</v>
+        <v>216.2322082519531</v>
       </c>
       <c r="F460" t="n">
         <v>51391200</v>
@@ -12425,16 +12425,16 @@
         <v>45499</v>
       </c>
       <c r="B461" t="n">
-        <v>217.4352194179005</v>
+        <v>217.4351887967129</v>
       </c>
       <c r="C461" t="n">
-        <v>218.2206592153586</v>
+        <v>218.2206284835583</v>
       </c>
       <c r="D461" t="n">
-        <v>214.760773696622</v>
+        <v>214.7607434520739</v>
       </c>
       <c r="E461" t="n">
-        <v>216.6995086669922</v>
+        <v>216.6994781494141</v>
       </c>
       <c r="F461" t="n">
         <v>41601300</v>
@@ -12451,16 +12451,16 @@
         <v>45502</v>
       </c>
       <c r="B462" t="n">
-        <v>215.7052784956351</v>
+        <v>215.7052633263403</v>
       </c>
       <c r="C462" t="n">
-        <v>218.0317421116191</v>
+        <v>218.0317267787177</v>
       </c>
       <c r="D462" t="n">
-        <v>214.50226952108</v>
+        <v>214.5022544363858</v>
       </c>
       <c r="E462" t="n">
-        <v>216.9778747558594</v>
+        <v>216.9778594970703</v>
       </c>
       <c r="F462" t="n">
         <v>36311800</v>
@@ -12607,16 +12607,16 @@
         <v>45510</v>
       </c>
       <c r="B468" t="n">
-        <v>204.1127088055804</v>
+        <v>204.1126936889009</v>
       </c>
       <c r="C468" t="n">
-        <v>208.7755879501992</v>
+        <v>208.7755724881847</v>
       </c>
       <c r="D468" t="n">
-        <v>199.9071760566775</v>
+        <v>199.9071612514616</v>
       </c>
       <c r="E468" t="n">
-        <v>206.0315399169922</v>
+        <v>206.0315246582031</v>
       </c>
       <c r="F468" t="n">
         <v>69660500</v>
@@ -12633,16 +12633,16 @@
         <v>45511</v>
       </c>
       <c r="B469" t="n">
-        <v>205.7034411002453</v>
+        <v>205.703426053809</v>
       </c>
       <c r="C469" t="n">
-        <v>212.4044675085499</v>
+        <v>212.4044519719587</v>
       </c>
       <c r="D469" t="n">
-        <v>205.1963960152132</v>
+        <v>205.1963810058654</v>
       </c>
       <c r="E469" t="n">
-        <v>208.6065673828125</v>
+        <v>208.6065521240234</v>
       </c>
       <c r="F469" t="n">
         <v>63516400</v>
@@ -12685,16 +12685,16 @@
         <v>45513</v>
       </c>
       <c r="B471" t="n">
-        <v>210.8733840757052</v>
+        <v>210.8733691090516</v>
       </c>
       <c r="C471" t="n">
-        <v>215.5263113015057</v>
+        <v>215.5262960046125</v>
       </c>
       <c r="D471" t="n">
-        <v>210.7441310403627</v>
+        <v>210.7441160828828</v>
       </c>
       <c r="E471" t="n">
-        <v>214.9894409179688</v>
+        <v>214.9894256591797</v>
       </c>
       <c r="F471" t="n">
         <v>42201600</v>
@@ -12737,16 +12737,16 @@
         <v>45517</v>
       </c>
       <c r="B473" t="n">
-        <v>217.9954243943679</v>
+        <v>217.9954394973066</v>
       </c>
       <c r="C473" t="n">
-        <v>220.8620875715453</v>
+        <v>220.8621028730892</v>
       </c>
       <c r="D473" t="n">
-        <v>217.9954243943679</v>
+        <v>217.9954394973066</v>
       </c>
       <c r="E473" t="n">
-        <v>220.2449645996094</v>
+        <v>220.2449798583984</v>
       </c>
       <c r="F473" t="n">
         <v>44155300</v>
@@ -12763,16 +12763,16 @@
         <v>45518</v>
       </c>
       <c r="B474" t="n">
-        <v>219.548234966672</v>
+        <v>219.5482197870256</v>
       </c>
       <c r="C474" t="n">
-        <v>221.9968307143324</v>
+        <v>221.9968153653892</v>
       </c>
       <c r="D474" t="n">
-        <v>218.6822548419691</v>
+        <v>218.6822397221969</v>
       </c>
       <c r="E474" t="n">
-        <v>220.6929016113281</v>
+        <v>220.6928863525391</v>
       </c>
       <c r="F474" t="n">
         <v>41960600</v>
@@ -12867,16 +12867,16 @@
         <v>45524</v>
       </c>
       <c r="B478" t="n">
-        <v>224.7241158999058</v>
+        <v>224.7241311088456</v>
       </c>
       <c r="C478" t="n">
-        <v>226.117624269924</v>
+        <v>226.117639573174</v>
       </c>
       <c r="D478" t="n">
-        <v>224.405591022129</v>
+        <v>224.4056062095116</v>
       </c>
       <c r="E478" t="n">
-        <v>225.4606781005859</v>
+        <v>225.460693359375</v>
       </c>
       <c r="F478" t="n">
         <v>30299000</v>
@@ -12893,16 +12893,16 @@
         <v>45525</v>
       </c>
       <c r="B479" t="n">
-        <v>225.4706507171655</v>
+        <v>225.4706659840429</v>
       </c>
       <c r="C479" t="n">
-        <v>226.9238787641772</v>
+        <v>226.9238941294544</v>
       </c>
       <c r="D479" t="n">
-        <v>224.0074592747518</v>
+        <v>224.0074744425549</v>
       </c>
       <c r="E479" t="n">
-        <v>225.3511962890625</v>
+        <v>225.3512115478516</v>
       </c>
       <c r="F479" t="n">
         <v>34765500</v>
@@ -12945,16 +12945,16 @@
         <v>45527</v>
       </c>
       <c r="B481" t="n">
-        <v>224.6146429036607</v>
+        <v>224.6146277242459</v>
       </c>
       <c r="C481" t="n">
-        <v>227.1627813780302</v>
+        <v>227.1627660264127</v>
       </c>
       <c r="D481" t="n">
-        <v>223.290802251815</v>
+        <v>223.2907871618651</v>
       </c>
       <c r="E481" t="n">
-        <v>225.7891693115234</v>
+        <v>225.7891540527344</v>
       </c>
       <c r="F481" t="n">
         <v>38677300</v>
@@ -12971,16 +12971,16 @@
         <v>45530</v>
       </c>
       <c r="B482" t="n">
-        <v>225.7095262127757</v>
+        <v>225.7095414433551</v>
       </c>
       <c r="C482" t="n">
-        <v>226.2271215594374</v>
+        <v>226.2271368249435</v>
       </c>
       <c r="D482" t="n">
-        <v>222.8528263811224</v>
+        <v>222.8528414189355</v>
       </c>
       <c r="E482" t="n">
-        <v>226.1275787353516</v>
+        <v>226.1275939941406</v>
       </c>
       <c r="F482" t="n">
         <v>30602200</v>
@@ -12997,16 +12997,16 @@
         <v>45531</v>
       </c>
       <c r="B483" t="n">
-        <v>224.9530532768154</v>
+        <v>224.9530683997657</v>
       </c>
       <c r="C483" t="n">
-        <v>227.7898567053261</v>
+        <v>227.7898720189865</v>
       </c>
       <c r="D483" t="n">
-        <v>223.8481947527548</v>
+        <v>223.8482098014285</v>
       </c>
       <c r="E483" t="n">
-        <v>226.9736480712891</v>
+        <v>226.9736633300781</v>
       </c>
       <c r="F483" t="n">
         <v>35934600</v>
@@ -13101,16 +13101,16 @@
         <v>45538</v>
       </c>
       <c r="B487" t="n">
-        <v>227.4912760851423</v>
+        <v>227.4912604304481</v>
       </c>
       <c r="C487" t="n">
-        <v>227.9391884834057</v>
+        <v>227.9391727978887</v>
       </c>
       <c r="D487" t="n">
-        <v>220.1454580764442</v>
+        <v>220.1454429272487</v>
       </c>
       <c r="E487" t="n">
-        <v>221.7380523681641</v>
+        <v>221.738037109375</v>
       </c>
       <c r="F487" t="n">
         <v>50190600</v>
@@ -13205,16 +13205,16 @@
         <v>45544</v>
       </c>
       <c r="B491" t="n">
-        <v>219.7970630244126</v>
+        <v>219.7970782769854</v>
       </c>
       <c r="C491" t="n">
-        <v>220.2449753707262</v>
+        <v>220.2449906543814</v>
       </c>
       <c r="D491" t="n">
-        <v>215.7061019102892</v>
+        <v>215.7061168789743</v>
       </c>
       <c r="E491" t="n">
-        <v>219.8866424560547</v>
+        <v>219.8866577148438</v>
       </c>
       <c r="F491" t="n">
         <v>67180000</v>
@@ -13257,16 +13257,16 @@
         <v>45546</v>
       </c>
       <c r="B493" t="n">
-        <v>220.4340868524661</v>
+        <v>220.4341020290199</v>
       </c>
       <c r="C493" t="n">
-        <v>222.056525502596</v>
+        <v>222.0565407908522</v>
       </c>
       <c r="D493" t="n">
-        <v>216.8806176900293</v>
+        <v>216.8806326219321</v>
       </c>
       <c r="E493" t="n">
-        <v>221.6285247802734</v>
+        <v>221.6285400390625</v>
       </c>
       <c r="F493" t="n">
         <v>44587100</v>
@@ -13283,16 +13283,16 @@
         <v>45547</v>
       </c>
       <c r="B494" t="n">
-        <v>221.4692988539641</v>
+        <v>221.4692836136691</v>
       </c>
       <c r="C494" t="n">
-        <v>222.5144379086487</v>
+        <v>222.5144225964331</v>
       </c>
       <c r="D494" t="n">
-        <v>218.8017208816538</v>
+        <v>218.8017058249269</v>
       </c>
       <c r="E494" t="n">
-        <v>221.7380523681641</v>
+        <v>221.738037109375</v>
       </c>
       <c r="F494" t="n">
         <v>37455600</v>
@@ -13309,16 +13309,16 @@
         <v>45548</v>
       </c>
       <c r="B495" t="n">
-        <v>222.5442828544918</v>
+        <v>222.5442675216374</v>
       </c>
       <c r="C495" t="n">
-        <v>223.0021434308009</v>
+        <v>223.0021280664009</v>
       </c>
       <c r="D495" t="n">
-        <v>220.8820208371711</v>
+        <v>220.8820056188433</v>
       </c>
       <c r="E495" t="n">
-        <v>221.4692840576172</v>
+        <v>221.4692687988281</v>
       </c>
       <c r="F495" t="n">
         <v>36766600</v>
@@ -13387,16 +13387,16 @@
         <v>45553</v>
       </c>
       <c r="B498" t="n">
-        <v>216.5422101240486</v>
+        <v>216.5421950823632</v>
       </c>
       <c r="C498" t="n">
-        <v>221.6783102461687</v>
+        <v>221.6782948477139</v>
       </c>
       <c r="D498" t="n">
-        <v>216.5322467283196</v>
+        <v>216.5322316873262</v>
       </c>
       <c r="E498" t="n">
-        <v>219.6676635742188</v>
+        <v>219.6676483154297</v>
       </c>
       <c r="F498" t="n">
         <v>59894900</v>
@@ -13413,16 +13413,16 @@
         <v>45554</v>
       </c>
       <c r="B499" t="n">
-        <v>223.9477528705163</v>
+        <v>223.9477378704066</v>
       </c>
       <c r="C499" t="n">
-        <v>228.7553800095718</v>
+        <v>228.7553646874453</v>
       </c>
       <c r="D499" t="n">
-        <v>223.5894199412667</v>
+        <v>223.5894049651583</v>
       </c>
       <c r="E499" t="n">
-        <v>227.8097686767578</v>
+        <v>227.8097534179688</v>
       </c>
       <c r="F499" t="n">
         <v>66781300</v>
@@ -13465,16 +13465,16 @@
         <v>45558</v>
       </c>
       <c r="B501" t="n">
-        <v>226.2868480598011</v>
+        <v>226.2868633772075</v>
       </c>
       <c r="C501" t="n">
-        <v>228.3870741318164</v>
+        <v>228.3870895913876</v>
       </c>
       <c r="D501" t="n">
-        <v>224.7639369712135</v>
+        <v>224.7639521855337</v>
       </c>
       <c r="E501" t="n">
-        <v>225.4208831787109</v>
+        <v>225.4208984375</v>
       </c>
       <c r="F501" t="n">
         <v>54146000</v>
@@ -13491,16 +13491,16 @@
         <v>45559</v>
       </c>
       <c r="B502" t="n">
-        <v>227.5907959993953</v>
+        <v>227.5907806547056</v>
       </c>
       <c r="C502" t="n">
-        <v>228.2875654709032</v>
+        <v>228.2875500792357</v>
       </c>
       <c r="D502" t="n">
-        <v>224.6843244256943</v>
+        <v>224.6843092769655</v>
       </c>
       <c r="E502" t="n">
-        <v>226.3167266845703</v>
+        <v>226.3167114257812</v>
       </c>
       <c r="F502" t="n">
         <v>43556100</v>
@@ -13543,16 +13543,16 @@
         <v>45561</v>
       </c>
       <c r="B504" t="n">
-        <v>226.2470518549472</v>
+        <v>226.2470366109127</v>
       </c>
       <c r="C504" t="n">
-        <v>227.4414899021518</v>
+        <v>227.4414745776386</v>
       </c>
       <c r="D504" t="n">
-        <v>224.3658077538716</v>
+        <v>224.3657926365912</v>
       </c>
       <c r="E504" t="n">
-        <v>226.4660339355469</v>
+        <v>226.4660186767578</v>
       </c>
       <c r="F504" t="n">
         <v>36636700</v>
@@ -13569,16 +13569,16 @@
         <v>45562</v>
       </c>
       <c r="B505" t="n">
-        <v>227.4016660612202</v>
+        <v>227.4016813648909</v>
       </c>
       <c r="C505" t="n">
-        <v>228.4567531826477</v>
+        <v>228.4567685573237</v>
       </c>
       <c r="D505" t="n">
-        <v>226.2470361144078</v>
+        <v>226.2470513403743</v>
       </c>
       <c r="E505" t="n">
-        <v>226.7347564697266</v>
+        <v>226.7347717285156</v>
       </c>
       <c r="F505" t="n">
         <v>34026000</v>
@@ -13595,16 +13595,16 @@
         <v>45565</v>
       </c>
       <c r="B506" t="n">
-        <v>228.9743594736852</v>
+        <v>228.9743444087421</v>
       </c>
       <c r="C506" t="n">
-        <v>231.920654296875</v>
+        <v>231.9206390380859</v>
       </c>
       <c r="D506" t="n">
-        <v>228.5861667113562</v>
+        <v>228.5861516719536</v>
       </c>
       <c r="E506" t="n">
-        <v>231.920654296875</v>
+        <v>231.9206390380859</v>
       </c>
       <c r="F506" t="n">
         <v>54541900</v>
@@ -13673,16 +13673,16 @@
         <v>45568</v>
       </c>
       <c r="B509" t="n">
-        <v>224.0970444383932</v>
+        <v>224.0970292154403</v>
       </c>
       <c r="C509" t="n">
-        <v>225.759306386038</v>
+        <v>225.7592910501673</v>
       </c>
       <c r="D509" t="n">
-        <v>222.2854834369283</v>
+        <v>222.285468337035</v>
       </c>
       <c r="E509" t="n">
-        <v>224.6245880126953</v>
+        <v>224.6245727539062</v>
       </c>
       <c r="F509" t="n">
         <v>34044200</v>
@@ -13725,16 +13725,16 @@
         <v>45572</v>
       </c>
       <c r="B511" t="n">
-        <v>223.4600051649579</v>
+        <v>223.4600206171574</v>
       </c>
       <c r="C511" t="n">
-        <v>224.6444949275546</v>
+        <v>224.6445104616612</v>
       </c>
       <c r="D511" t="n">
-        <v>220.3046919925507</v>
+        <v>220.3047072265611</v>
       </c>
       <c r="E511" t="n">
-        <v>220.6630249023438</v>
+        <v>220.6630401611328</v>
       </c>
       <c r="F511" t="n">
         <v>39505400</v>
@@ -13829,16 +13829,16 @@
         <v>45576</v>
       </c>
       <c r="B515" t="n">
-        <v>228.2377886470439</v>
+        <v>228.2377732709054</v>
       </c>
       <c r="C515" t="n">
-        <v>228.3472796881356</v>
+        <v>228.3472643046208</v>
       </c>
       <c r="D515" t="n">
-        <v>226.2868615116203</v>
+        <v>226.2868462669136</v>
       </c>
       <c r="E515" t="n">
-        <v>226.4958953857422</v>
+        <v>226.4958801269531</v>
       </c>
       <c r="F515" t="n">
         <v>31759200</v>
@@ -14037,16 +14037,16 @@
         <v>45588</v>
       </c>
       <c r="B523" t="n">
-        <v>232.9956215872407</v>
+        <v>232.9956370655622</v>
       </c>
       <c r="C523" t="n">
-        <v>234.0507086861539</v>
+        <v>234.0507242345666</v>
       </c>
       <c r="D523" t="n">
-        <v>226.7048918221024</v>
+        <v>226.7049068825192</v>
       </c>
       <c r="E523" t="n">
-        <v>229.6909942626953</v>
+        <v>229.6910095214844</v>
       </c>
       <c r="F523" t="n">
         <v>52287000</v>
@@ -14219,16 +14219,16 @@
         <v>45597</v>
       </c>
       <c r="B530" t="n">
-        <v>219.9463498014659</v>
+        <v>219.9463649274566</v>
       </c>
       <c r="C530" t="n">
-        <v>224.3060641552936</v>
+        <v>224.3060795811073</v>
       </c>
       <c r="D530" t="n">
-        <v>219.2495956140762</v>
+        <v>219.2496106921502</v>
       </c>
       <c r="E530" t="n">
-        <v>221.8773651123047</v>
+        <v>221.8773803710938</v>
       </c>
       <c r="F530" t="n">
         <v>65276700</v>
@@ -14245,16 +14245,16 @@
         <v>45600</v>
       </c>
       <c r="B531" t="n">
-        <v>219.9662729338625</v>
+        <v>219.9662881225475</v>
       </c>
       <c r="C531" t="n">
-        <v>221.7579223130378</v>
+        <v>221.7579376254364</v>
       </c>
       <c r="D531" t="n">
-        <v>218.6922037278208</v>
+        <v>218.6922188285313</v>
       </c>
       <c r="E531" t="n">
-        <v>220.9815368652344</v>
+        <v>220.9815521240234</v>
       </c>
       <c r="F531" t="n">
         <v>44944500</v>
@@ -14271,16 +14271,16 @@
         <v>45601</v>
       </c>
       <c r="B532" t="n">
-        <v>220.7725208689619</v>
+        <v>220.7725057228464</v>
       </c>
       <c r="C532" t="n">
-        <v>222.9125549800929</v>
+        <v>222.9125396871603</v>
       </c>
       <c r="D532" t="n">
-        <v>220.1155746549773</v>
+        <v>220.1155595539316</v>
       </c>
       <c r="E532" t="n">
-        <v>222.4148712158203</v>
+        <v>222.4148559570312</v>
       </c>
       <c r="F532" t="n">
         <v>28111300</v>
@@ -14297,16 +14297,16 @@
         <v>45602</v>
       </c>
       <c r="B533" t="n">
-        <v>221.578756649688</v>
+        <v>221.5787719009408</v>
       </c>
       <c r="C533" t="n">
-        <v>225.0227348337598</v>
+        <v>225.0227503220615</v>
       </c>
       <c r="D533" t="n">
-        <v>220.1653366422443</v>
+        <v>220.1653517962115</v>
       </c>
       <c r="E533" t="n">
-        <v>221.6882476806641</v>
+        <v>221.6882629394531</v>
       </c>
       <c r="F533" t="n">
         <v>54561100</v>
@@ -14323,16 +14323,16 @@
         <v>45603</v>
       </c>
       <c r="B534" t="n">
-        <v>223.5894200604507</v>
+        <v>223.5894049928319</v>
       </c>
       <c r="C534" t="n">
-        <v>226.8243646333076</v>
+        <v>226.8243493476869</v>
       </c>
       <c r="D534" t="n">
-        <v>223.5297004368945</v>
+        <v>223.5296853733002</v>
       </c>
       <c r="E534" t="n">
-        <v>226.4262084960938</v>
+        <v>226.4261932373047</v>
       </c>
       <c r="F534" t="n">
         <v>42137700</v>
@@ -14453,16 +14453,16 @@
         <v>45610</v>
       </c>
       <c r="B539" t="n">
-        <v>224.2240421118748</v>
+        <v>224.2240270670375</v>
       </c>
       <c r="C539" t="n">
-        <v>228.0604144028158</v>
+        <v>228.0603991005682</v>
       </c>
       <c r="D539" t="n">
-        <v>224.204108600429</v>
+        <v>224.2040935569292</v>
       </c>
       <c r="E539" t="n">
-        <v>227.4127197265625</v>
+        <v>227.4127044677734</v>
       </c>
       <c r="F539" t="n">
         <v>44923900</v>
@@ -14531,16 +14531,16 @@
         <v>45615</v>
       </c>
       <c r="B542" t="n">
-        <v>226.1770687689395</v>
+        <v>226.1770839408332</v>
       </c>
       <c r="C542" t="n">
-        <v>229.3458276324582</v>
+        <v>229.3458430169113</v>
       </c>
       <c r="D542" t="n">
-        <v>225.8582086546099</v>
+        <v>225.8582238051146</v>
       </c>
       <c r="E542" t="n">
-        <v>227.4724731445312</v>
+        <v>227.4724884033203</v>
       </c>
       <c r="F542" t="n">
         <v>36211800</v>
@@ -14557,16 +14557,16 @@
         <v>45616</v>
       </c>
       <c r="B543" t="n">
-        <v>227.25327930098</v>
+        <v>227.2532641048254</v>
       </c>
       <c r="C543" t="n">
-        <v>229.1166596710885</v>
+        <v>229.1166443503319</v>
       </c>
       <c r="D543" t="n">
-        <v>225.0909570820506</v>
+        <v>225.0909420304879</v>
       </c>
       <c r="E543" t="n">
-        <v>228.1899566650391</v>
+        <v>228.18994140625</v>
       </c>
       <c r="F543" t="n">
         <v>35169600</v>
@@ -14609,16 +14609,16 @@
         <v>45618</v>
       </c>
       <c r="B545" t="n">
-        <v>227.2532593649619</v>
+        <v>227.2532745036032</v>
       </c>
       <c r="C545" t="n">
-        <v>229.9038535446</v>
+        <v>229.9038688598125</v>
       </c>
       <c r="D545" t="n">
-        <v>227.2532593649619</v>
+        <v>227.2532745036032</v>
       </c>
       <c r="E545" t="n">
-        <v>229.0568542480469</v>
+        <v>229.0568695068359</v>
       </c>
       <c r="F545" t="n">
         <v>38168300</v>
@@ -14661,16 +14661,16 @@
         <v>45622</v>
       </c>
       <c r="B547" t="n">
-        <v>232.5046394422903</v>
+        <v>232.5046242958029</v>
       </c>
       <c r="C547" t="n">
-        <v>234.7367213239591</v>
+        <v>234.7367060320631</v>
       </c>
       <c r="D547" t="n">
-        <v>232.5046394422903</v>
+        <v>232.5046242958029</v>
       </c>
       <c r="E547" t="n">
-        <v>234.228515625</v>
+        <v>234.2285003662109</v>
       </c>
       <c r="F547" t="n">
         <v>45986200</v>
@@ -14713,16 +14713,16 @@
         <v>45625</v>
       </c>
       <c r="B549" t="n">
-        <v>233.9794035198741</v>
+        <v>233.979388423105</v>
       </c>
       <c r="C549" t="n">
-        <v>236.9687916117694</v>
+        <v>236.9687763221197</v>
       </c>
       <c r="D549" t="n">
-        <v>233.1423785032988</v>
+        <v>233.1423634605361</v>
       </c>
       <c r="E549" t="n">
-        <v>236.4904937744141</v>
+        <v>236.490478515625</v>
       </c>
       <c r="F549" t="n">
         <v>28481400</v>
@@ -14791,16 +14791,16 @@
         <v>45630</v>
       </c>
       <c r="B552" t="n">
-        <v>242.0108864578589</v>
+        <v>242.0108712078605</v>
       </c>
       <c r="C552" t="n">
-        <v>243.2465056559754</v>
+        <v>243.2464903281161</v>
       </c>
       <c r="D552" t="n">
-        <v>240.3966217802532</v>
+        <v>240.3966066319756</v>
       </c>
       <c r="E552" t="n">
-        <v>242.150390625</v>
+        <v>242.1503753662109</v>
       </c>
       <c r="F552" t="n">
         <v>44383900</v>
@@ -14895,16 +14895,16 @@
         <v>45636</v>
       </c>
       <c r="B556" t="n">
-        <v>246.0166474866452</v>
+        <v>246.0166626912396</v>
       </c>
       <c r="C556" t="n">
-        <v>247.3319853997438</v>
+        <v>247.3320006856302</v>
       </c>
       <c r="D556" t="n">
-        <v>244.4721274358929</v>
+        <v>244.4721425450312</v>
       </c>
       <c r="E556" t="n">
-        <v>246.8935394287109</v>
+        <v>246.8935546875</v>
       </c>
       <c r="F556" t="n">
         <v>36914800</v>
@@ -14947,16 +14947,16 @@
         <v>45638</v>
       </c>
       <c r="B558" t="n">
-        <v>246.0166482138882</v>
+        <v>246.0166634068319</v>
       </c>
       <c r="C558" t="n">
-        <v>247.8601100871407</v>
+        <v>247.8601253939288</v>
       </c>
       <c r="D558" t="n">
-        <v>244.8109217899835</v>
+        <v>244.8109369084667</v>
       </c>
       <c r="E558" t="n">
-        <v>247.0828704833984</v>
+        <v>247.0828857421875</v>
       </c>
       <c r="F558" t="n">
         <v>32777500</v>
@@ -15129,16 +15129,16 @@
         <v>45649</v>
       </c>
       <c r="B565" t="n">
-        <v>253.8687731097403</v>
+        <v>253.8687883386418</v>
       </c>
       <c r="C565" t="n">
-        <v>254.7456498317001</v>
+        <v>254.7456651132031</v>
       </c>
       <c r="D565" t="n">
-        <v>252.5534352195823</v>
+        <v>252.5534503695802</v>
       </c>
       <c r="E565" t="n">
-        <v>254.3670043945312</v>
+        <v>254.3670196533203</v>
       </c>
       <c r="F565" t="n">
         <v>40858800</v>
@@ -15155,16 +15155,16 @@
         <v>45650</v>
       </c>
       <c r="B566" t="n">
-        <v>254.5862615131284</v>
+        <v>254.5862313158557</v>
       </c>
       <c r="C566" t="n">
-        <v>257.2966260773909</v>
+        <v>257.2965955586333</v>
       </c>
       <c r="D566" t="n">
-        <v>254.386956808638</v>
+        <v>254.3869266350054</v>
       </c>
       <c r="E566" t="n">
-        <v>257.2866821289062</v>
+        <v>257.2866516113281</v>
       </c>
       <c r="F566" t="n">
         <v>23234700</v>
@@ -15233,16 +15233,16 @@
         <v>45656</v>
       </c>
       <c r="B569" t="n">
-        <v>251.3377692499455</v>
+        <v>251.3377539893414</v>
       </c>
       <c r="C569" t="n">
-        <v>252.6032810692575</v>
+        <v>252.6032657318147</v>
       </c>
       <c r="D569" t="n">
-        <v>249.8630087894135</v>
+        <v>249.8629936183532</v>
       </c>
       <c r="E569" t="n">
-        <v>251.3078765869141</v>
+        <v>251.307861328125</v>
       </c>
       <c r="F569" t="n">
         <v>35557500</v>
@@ -15285,16 +15285,16 @@
         <v>45659</v>
       </c>
       <c r="B571" t="n">
-        <v>248.0494437119358</v>
+        <v>248.0494281352692</v>
       </c>
       <c r="C571" t="n">
-        <v>248.2188557450932</v>
+        <v>248.2188401577881</v>
       </c>
       <c r="D571" t="n">
-        <v>240.9646087657824</v>
+        <v>240.9645936340195</v>
       </c>
       <c r="E571" t="n">
-        <v>242.9874267578125</v>
+        <v>242.9874114990234</v>
       </c>
       <c r="F571" t="n">
         <v>55740700</v>
@@ -15311,16 +15311,16 @@
         <v>45660</v>
       </c>
       <c r="B572" t="n">
-        <v>242.4991607666016</v>
+        <v>242.4991455078125</v>
       </c>
       <c r="C572" t="n">
-        <v>243.3162522656288</v>
+        <v>243.3162369554258</v>
       </c>
       <c r="D572" t="n">
-        <v>241.0343593963996</v>
+        <v>241.0343442297803</v>
       </c>
       <c r="E572" t="n">
-        <v>242.4991607666016</v>
+        <v>242.4991455078125</v>
       </c>
       <c r="F572" t="n">
         <v>40244100</v>
@@ -15623,16 +15623,16 @@
         <v>45680</v>
       </c>
       <c r="B584" t="n">
-        <v>223.945016914072</v>
+        <v>223.9450322465422</v>
       </c>
       <c r="C584" t="n">
-        <v>226.2269096463908</v>
+        <v>226.2269251350915</v>
       </c>
       <c r="D584" t="n">
-        <v>221.5136456643827</v>
+        <v>221.5136608303883</v>
       </c>
       <c r="E584" t="n">
-        <v>222.8688354492188</v>
+        <v>222.8688507080078</v>
       </c>
       <c r="F584" t="n">
         <v>60234800</v>
@@ -15701,16 +15701,16 @@
         <v>45685</v>
       </c>
       <c r="B587" t="n">
-        <v>230.033413714279</v>
+        <v>230.0333989300448</v>
       </c>
       <c r="C587" t="n">
-        <v>239.3403714135585</v>
+        <v>239.3403560311667</v>
       </c>
       <c r="D587" t="n">
-        <v>229.9935466927377</v>
+        <v>229.9935319110658</v>
       </c>
       <c r="E587" t="n">
-        <v>237.4171905517578</v>
+        <v>237.4171752929688</v>
       </c>
       <c r="F587" t="n">
         <v>75707600</v>
@@ -15805,16 +15805,16 @@
         <v>45691</v>
       </c>
       <c r="B591" t="n">
-        <v>229.1764524471141</v>
+        <v>229.1764370558195</v>
       </c>
       <c r="C591" t="n">
-        <v>231.0099400907586</v>
+        <v>231.0099245763286</v>
       </c>
       <c r="D591" t="n">
-        <v>224.9016191247495</v>
+        <v>224.9016040205491</v>
       </c>
       <c r="E591" t="n">
-        <v>227.2034454345703</v>
+        <v>227.2034301757812</v>
       </c>
       <c r="F591" t="n">
         <v>73063300</v>
@@ -15857,16 +15857,16 @@
         <v>45693</v>
       </c>
       <c r="B593" t="n">
-        <v>227.7215942679796</v>
+        <v>227.7216092681561</v>
       </c>
       <c r="C593" t="n">
-        <v>231.846948778613</v>
+        <v>231.8469640505294</v>
       </c>
       <c r="D593" t="n">
-        <v>227.4625194685491</v>
+        <v>227.4625344516602</v>
       </c>
       <c r="E593" t="n">
-        <v>231.6476593017578</v>
+        <v>231.6476745605469</v>
       </c>
       <c r="F593" t="n">
         <v>39620300</v>
@@ -15909,16 +15909,16 @@
         <v>45695</v>
       </c>
       <c r="B595" t="n">
-        <v>231.77721918613</v>
+        <v>231.7772347780746</v>
       </c>
       <c r="C595" t="n">
-        <v>233.1722608185033</v>
+        <v>233.1722765042942</v>
       </c>
       <c r="D595" t="n">
-        <v>226.4560970630751</v>
+        <v>226.4561122970612</v>
       </c>
       <c r="E595" t="n">
-        <v>226.8247985839844</v>
+        <v>226.8248138427734</v>
       </c>
       <c r="F595" t="n">
         <v>39707200</v>

--- a/data/raw.xlsx
+++ b/data/raw.xlsx
@@ -491,16 +491,16 @@
         <v>44831</v>
       </c>
       <c r="B2" t="n">
-        <v>150.3664080888261</v>
+        <v>150.3663927315013</v>
       </c>
       <c r="C2" t="n">
-        <v>152.315634453065</v>
+        <v>152.3156188966605</v>
       </c>
       <c r="D2" t="n">
-        <v>147.619756600354</v>
+        <v>147.6197415235521</v>
       </c>
       <c r="E2" t="n">
-        <v>149.4016265869141</v>
+        <v>149.401611328125</v>
       </c>
       <c r="F2" t="n">
         <v>84442700</v>
@@ -517,16 +517,16 @@
         <v>44832</v>
       </c>
       <c r="B3" t="n">
-        <v>145.3456356643798</v>
+        <v>145.3456506991346</v>
       </c>
       <c r="C3" t="n">
-        <v>148.2990148894932</v>
+        <v>148.2990302297496</v>
       </c>
       <c r="D3" t="n">
-        <v>142.5891453832746</v>
+        <v>142.5891601328942</v>
       </c>
       <c r="E3" t="n">
-        <v>147.5114440917969</v>
+        <v>147.5114593505859</v>
       </c>
       <c r="F3" t="n">
         <v>146691400</v>
@@ -543,16 +543,16 @@
         <v>44833</v>
       </c>
       <c r="B4" t="n">
-        <v>143.8295935811918</v>
+        <v>143.8296092276632</v>
       </c>
       <c r="C4" t="n">
-        <v>144.4399538960587</v>
+        <v>144.439969608928</v>
       </c>
       <c r="D4" t="n">
-        <v>138.4938078457463</v>
+        <v>138.4938229117654</v>
       </c>
       <c r="E4" t="n">
-        <v>140.2658386230469</v>
+        <v>140.2658538818359</v>
       </c>
       <c r="F4" t="n">
         <v>128138200</v>
@@ -595,16 +595,16 @@
         <v>44837</v>
       </c>
       <c r="B6" t="n">
-        <v>136.0622420205734</v>
+        <v>136.0622272159586</v>
       </c>
       <c r="C6" t="n">
-        <v>140.8467188829093</v>
+        <v>140.8467035577067</v>
       </c>
       <c r="D6" t="n">
-        <v>135.5503185437314</v>
+        <v>135.5503037948178</v>
       </c>
       <c r="E6" t="n">
-        <v>140.2363433837891</v>
+        <v>140.236328125</v>
       </c>
       <c r="F6" t="n">
         <v>114311700</v>
@@ -621,16 +621,16 @@
         <v>44838</v>
       </c>
       <c r="B7" t="n">
-        <v>142.7761954486443</v>
+        <v>142.7762105956811</v>
       </c>
       <c r="C7" t="n">
-        <v>143.9477049472904</v>
+        <v>143.9477202186119</v>
       </c>
       <c r="D7" t="n">
-        <v>142.018157239815</v>
+        <v>142.0181723064319</v>
       </c>
       <c r="E7" t="n">
-        <v>143.8295745849609</v>
+        <v>143.82958984375</v>
       </c>
       <c r="F7" t="n">
         <v>87830100</v>
@@ -647,16 +647,16 @@
         <v>44839</v>
       </c>
       <c r="B8" t="n">
-        <v>141.8311453524753</v>
+        <v>141.831130336533</v>
       </c>
       <c r="C8" t="n">
-        <v>145.0897052260287</v>
+        <v>145.0896898650963</v>
       </c>
       <c r="D8" t="n">
-        <v>140.7876052377075</v>
+        <v>140.7875903322469</v>
       </c>
       <c r="E8" t="n">
-        <v>144.1249237060547</v>
+        <v>144.1249084472656</v>
       </c>
       <c r="F8" t="n">
         <v>79471000</v>
@@ -673,16 +673,16 @@
         <v>44840</v>
       </c>
       <c r="B9" t="n">
-        <v>143.5440824447642</v>
+        <v>143.5440977434241</v>
       </c>
       <c r="C9" t="n">
-        <v>145.2471937094301</v>
+        <v>145.2472091896044</v>
       </c>
       <c r="D9" t="n">
-        <v>142.9632547622573</v>
+        <v>142.9632699990137</v>
       </c>
       <c r="E9" t="n">
-        <v>143.1699829101562</v>
+        <v>143.1699981689453</v>
       </c>
       <c r="F9" t="n">
         <v>68402200</v>
@@ -699,16 +699,16 @@
         <v>44841</v>
       </c>
       <c r="B10" t="n">
-        <v>140.3249027951489</v>
+        <v>140.3249183207949</v>
       </c>
       <c r="C10" t="n">
-        <v>140.8762129387206</v>
+        <v>140.8762285253639</v>
       </c>
       <c r="D10" t="n">
-        <v>137.2829254121316</v>
+        <v>137.282940601211</v>
       </c>
       <c r="E10" t="n">
-        <v>137.9129791259766</v>
+        <v>137.9129943847656</v>
       </c>
       <c r="F10" t="n">
         <v>85925600</v>
@@ -725,16 +725,16 @@
         <v>44844</v>
       </c>
       <c r="B11" t="n">
-        <v>138.2378845214844</v>
+        <v>138.2378387451172</v>
       </c>
       <c r="C11" t="n">
-        <v>139.6850420606086</v>
+        <v>139.6849958050268</v>
       </c>
       <c r="D11" t="n">
-        <v>136.416642361579</v>
+        <v>136.4165971883016</v>
       </c>
       <c r="E11" t="n">
-        <v>138.2378845214844</v>
+        <v>138.2378387451172</v>
       </c>
       <c r="F11" t="n">
         <v>74899000</v>
@@ -751,16 +751,16 @@
         <v>44845</v>
       </c>
       <c r="B12" t="n">
-        <v>137.7259528944874</v>
+        <v>137.7259068150969</v>
       </c>
       <c r="C12" t="n">
-        <v>139.1534319626407</v>
+        <v>139.1533854056543</v>
       </c>
       <c r="D12" t="n">
-        <v>136.0720672460081</v>
+        <v>136.0720217199632</v>
       </c>
       <c r="E12" t="n">
-        <v>136.8202514648438</v>
+        <v>136.8202056884766</v>
       </c>
       <c r="F12" t="n">
         <v>77033700</v>
@@ -777,16 +777,16 @@
         <v>44846</v>
       </c>
       <c r="B13" t="n">
-        <v>136.9678866257659</v>
+        <v>136.9679019716922</v>
       </c>
       <c r="C13" t="n">
-        <v>138.1787678839218</v>
+        <v>138.1787833655157</v>
       </c>
       <c r="D13" t="n">
-        <v>136.0129594888336</v>
+        <v>136.0129747277696</v>
       </c>
       <c r="E13" t="n">
-        <v>136.1901550292969</v>
+        <v>136.1901702880859</v>
       </c>
       <c r="F13" t="n">
         <v>70433700</v>
@@ -803,16 +803,16 @@
         <v>44847</v>
       </c>
       <c r="B14" t="n">
-        <v>132.8922209232728</v>
+        <v>132.8922497334545</v>
       </c>
       <c r="C14" t="n">
-        <v>141.3585653692948</v>
+        <v>141.3585960149257</v>
       </c>
       <c r="D14" t="n">
-        <v>132.281845691729</v>
+        <v>132.2818743695852</v>
       </c>
       <c r="E14" t="n">
-        <v>140.7678985595703</v>
+        <v>140.7679290771484</v>
       </c>
       <c r="F14" t="n">
         <v>113224000</v>
@@ -829,16 +829,16 @@
         <v>44848</v>
       </c>
       <c r="B15" t="n">
-        <v>142.0674085942848</v>
+        <v>142.0673926816115</v>
       </c>
       <c r="C15" t="n">
-        <v>142.2741517869344</v>
+        <v>142.2741358511042</v>
       </c>
       <c r="D15" t="n">
-        <v>136.0425186932544</v>
+        <v>136.0425034554164</v>
       </c>
       <c r="E15" t="n">
-        <v>136.2295684814453</v>
+        <v>136.2295532226562</v>
       </c>
       <c r="F15" t="n">
         <v>88598000</v>
@@ -855,16 +855,16 @@
         <v>44851</v>
       </c>
       <c r="B16" t="n">
-        <v>138.8777573464222</v>
+        <v>138.8777724616348</v>
       </c>
       <c r="C16" t="n">
-        <v>140.6793056411368</v>
+        <v>140.6793209524268</v>
       </c>
       <c r="D16" t="n">
-        <v>138.0901864672128</v>
+        <v>138.0902014967076</v>
       </c>
       <c r="E16" t="n">
-        <v>140.1969299316406</v>
+        <v>140.1969451904297</v>
       </c>
       <c r="F16" t="n">
         <v>85250900</v>
@@ -907,16 +907,16 @@
         <v>44853</v>
       </c>
       <c r="B18" t="n">
-        <v>139.488143708805</v>
+        <v>139.488098622933</v>
       </c>
       <c r="C18" t="n">
-        <v>142.6974779908585</v>
+        <v>142.6974318676536</v>
       </c>
       <c r="D18" t="n">
-        <v>139.3010939001013</v>
+        <v>139.3010488746882</v>
       </c>
       <c r="E18" t="n">
-        <v>141.6244201660156</v>
+        <v>141.6243743896484</v>
       </c>
       <c r="F18" t="n">
         <v>61758300</v>
@@ -933,16 +933,16 @@
         <v>44854</v>
       </c>
       <c r="B19" t="n">
-        <v>140.7974368304615</v>
+        <v>140.7974520498777</v>
       </c>
       <c r="C19" t="n">
-        <v>143.622831489562</v>
+        <v>143.6228470143876</v>
       </c>
       <c r="D19" t="n">
-        <v>140.4331765103532</v>
+        <v>140.4331916903949</v>
       </c>
       <c r="E19" t="n">
-        <v>141.1616821289062</v>
+        <v>141.1616973876953</v>
       </c>
       <c r="F19" t="n">
         <v>64522000</v>
@@ -959,16 +959,16 @@
         <v>44855</v>
       </c>
       <c r="B20" t="n">
-        <v>140.6497673856839</v>
+        <v>140.6497821885837</v>
       </c>
       <c r="C20" t="n">
-        <v>145.5523880250328</v>
+        <v>145.5524033439164</v>
       </c>
       <c r="D20" t="n">
-        <v>140.4331850270782</v>
+        <v>140.4331998071835</v>
       </c>
       <c r="E20" t="n">
-        <v>144.9813995361328</v>
+        <v>144.9814147949219</v>
       </c>
       <c r="F20" t="n">
         <v>86548600</v>
@@ -985,16 +985,16 @@
         <v>44858</v>
       </c>
       <c r="B21" t="n">
-        <v>144.9026589336822</v>
+        <v>144.9026439056378</v>
       </c>
       <c r="C21" t="n">
-        <v>147.8954104996491</v>
+        <v>147.8953951612225</v>
       </c>
       <c r="D21" t="n">
-        <v>143.7311492180955</v>
+        <v>143.7311343115499</v>
       </c>
       <c r="E21" t="n">
-        <v>147.1275329589844</v>
+        <v>147.1275177001953</v>
       </c>
       <c r="F21" t="n">
         <v>75981900</v>
@@ -1037,16 +1037,16 @@
         <v>44860</v>
       </c>
       <c r="B23" t="n">
-        <v>148.6140796200008</v>
+        <v>148.6140950432804</v>
       </c>
       <c r="C23" t="n">
-        <v>149.6280721596611</v>
+        <v>149.6280876881736</v>
       </c>
       <c r="D23" t="n">
-        <v>145.7394433670804</v>
+        <v>145.7394584920281</v>
       </c>
       <c r="E23" t="n">
-        <v>147.0290985107422</v>
+        <v>147.0291137695312</v>
       </c>
       <c r="F23" t="n">
         <v>88194300</v>
@@ -1063,16 +1063,16 @@
         <v>44861</v>
       </c>
       <c r="B24" t="n">
-        <v>145.7689773475377</v>
+        <v>145.7689617441609</v>
       </c>
       <c r="C24" t="n">
-        <v>146.7337437954485</v>
+        <v>146.7337280888014</v>
       </c>
       <c r="D24" t="n">
-        <v>141.8902031311427</v>
+        <v>141.890187942957</v>
       </c>
       <c r="E24" t="n">
-        <v>142.5497894287109</v>
+        <v>142.5497741699219</v>
       </c>
       <c r="F24" t="n">
         <v>109180200</v>
@@ -1089,16 +1089,16 @@
         <v>44862</v>
       </c>
       <c r="B25" t="n">
-        <v>145.8969284350716</v>
+        <v>145.8969139150227</v>
       </c>
       <c r="C25" t="n">
-        <v>155.0524068941037</v>
+        <v>155.0523914628773</v>
       </c>
       <c r="D25" t="n">
-        <v>145.5228439538041</v>
+        <v>145.5228294709851</v>
       </c>
       <c r="E25" t="n">
-        <v>153.3197631835938</v>
+        <v>153.3197479248047</v>
       </c>
       <c r="F25" t="n">
         <v>164762400</v>
@@ -1115,16 +1115,16 @@
         <v>44865</v>
       </c>
       <c r="B26" t="n">
-        <v>150.7798814552768</v>
+        <v>150.7798509735206</v>
       </c>
       <c r="C26" t="n">
-        <v>151.8430999468169</v>
+        <v>151.8430692501198</v>
       </c>
       <c r="D26" t="n">
-        <v>149.5591457749902</v>
+        <v>149.5591155400187</v>
       </c>
       <c r="E26" t="n">
-        <v>150.9570770263672</v>
+        <v>150.9570465087891</v>
       </c>
       <c r="F26" t="n">
         <v>97943200</v>
@@ -1141,16 +1141,16 @@
         <v>44866</v>
       </c>
       <c r="B27" t="n">
-        <v>152.6700490040681</v>
+        <v>152.6700332965796</v>
       </c>
       <c r="C27" t="n">
-        <v>153.034294374234</v>
+        <v>153.0342786292701</v>
       </c>
       <c r="D27" t="n">
-        <v>146.8125153766711</v>
+        <v>146.8125002718361</v>
       </c>
       <c r="E27" t="n">
-        <v>148.3088836669922</v>
+        <v>148.3088684082031</v>
       </c>
       <c r="F27" t="n">
         <v>80379300</v>
@@ -1245,16 +1245,16 @@
         <v>44872</v>
       </c>
       <c r="B31" t="n">
-        <v>135.2032111952328</v>
+        <v>135.2031961352515</v>
       </c>
       <c r="C31" t="n">
-        <v>137.2148342852633</v>
+        <v>137.2148190012118</v>
       </c>
       <c r="D31" t="n">
-        <v>133.7832348744654</v>
+        <v>133.7832199726521</v>
       </c>
       <c r="E31" t="n">
-        <v>136.988037109375</v>
+        <v>136.9880218505859</v>
       </c>
       <c r="F31" t="n">
         <v>83374600</v>
@@ -1271,16 +1271,16 @@
         <v>44873</v>
       </c>
       <c r="B32" t="n">
-        <v>138.4573305983891</v>
+        <v>138.4572998817349</v>
       </c>
       <c r="C32" t="n">
-        <v>139.4631346891898</v>
+        <v>139.4631037493987</v>
       </c>
       <c r="D32" t="n">
-        <v>135.5779406597828</v>
+        <v>135.5779105819191</v>
       </c>
       <c r="E32" t="n">
-        <v>137.5599822998047</v>
+        <v>137.5599517822266</v>
       </c>
       <c r="F32" t="n">
         <v>89908500</v>
@@ -1349,16 +1349,16 @@
         <v>44876</v>
       </c>
       <c r="B35" t="n">
-        <v>143.7920876986634</v>
+        <v>143.7920728353582</v>
       </c>
       <c r="C35" t="n">
-        <v>147.9238047070131</v>
+        <v>147.9237894166263</v>
       </c>
       <c r="D35" t="n">
-        <v>142.3622408191883</v>
+        <v>142.3622261036816</v>
       </c>
       <c r="E35" t="n">
-        <v>147.6181182861328</v>
+        <v>147.6181030273438</v>
       </c>
       <c r="F35" t="n">
         <v>93979700</v>
@@ -1375,16 +1375,16 @@
         <v>44879</v>
       </c>
       <c r="B36" t="n">
-        <v>146.898256219997</v>
+        <v>146.8982868795848</v>
       </c>
       <c r="C36" t="n">
-        <v>148.1900354737595</v>
+        <v>148.1900664029586</v>
       </c>
       <c r="D36" t="n">
-        <v>145.3796647723285</v>
+        <v>145.3796951149665</v>
       </c>
       <c r="E36" t="n">
-        <v>146.2178497314453</v>
+        <v>146.2178802490234</v>
       </c>
       <c r="F36" t="n">
         <v>73374100</v>
@@ -1401,16 +1401,16 @@
         <v>44880</v>
       </c>
       <c r="B37" t="n">
-        <v>150.1030594439155</v>
+        <v>150.1030749244073</v>
       </c>
       <c r="C37" t="n">
-        <v>151.4540018750282</v>
+        <v>151.454017494846</v>
       </c>
       <c r="D37" t="n">
-        <v>146.4939558908153</v>
+        <v>146.4939709990916</v>
       </c>
       <c r="E37" t="n">
-        <v>147.953369140625</v>
+        <v>147.9533843994141</v>
       </c>
       <c r="F37" t="n">
         <v>89868300</v>
@@ -1427,16 +1427,16 @@
         <v>44881</v>
       </c>
       <c r="B38" t="n">
-        <v>147.0560472002746</v>
+        <v>147.0560319066165</v>
       </c>
       <c r="C38" t="n">
-        <v>147.7857463571914</v>
+        <v>147.7857309876454</v>
       </c>
       <c r="D38" t="n">
-        <v>145.2416247275937</v>
+        <v>145.2416096226334</v>
       </c>
       <c r="E38" t="n">
-        <v>146.7207641601562</v>
+        <v>146.7207489013672</v>
       </c>
       <c r="F38" t="n">
         <v>64218300</v>
@@ -1479,16 +1479,16 @@
         <v>44883</v>
       </c>
       <c r="B40" t="n">
-        <v>150.1918237204073</v>
+        <v>150.1918390820719</v>
       </c>
       <c r="C40" t="n">
-        <v>150.5763993918672</v>
+        <v>150.5764147928662</v>
       </c>
       <c r="D40" t="n">
-        <v>147.8843696916482</v>
+        <v>147.8843848173057</v>
       </c>
       <c r="E40" t="n">
-        <v>149.1860046386719</v>
+        <v>149.1860198974609</v>
       </c>
       <c r="F40" t="n">
         <v>74829600</v>
@@ -1557,16 +1557,16 @@
         <v>44888</v>
       </c>
       <c r="B43" t="n">
-        <v>147.3716198007479</v>
+        <v>147.371574515267</v>
       </c>
       <c r="C43" t="n">
-        <v>149.7185263372214</v>
+        <v>149.718480330565</v>
       </c>
       <c r="D43" t="n">
-        <v>147.263148951249</v>
+        <v>147.2631036990998</v>
       </c>
       <c r="E43" t="n">
-        <v>148.9691009521484</v>
+        <v>148.9690551757812</v>
       </c>
       <c r="F43" t="n">
         <v>58301400</v>
@@ -1583,16 +1583,16 @@
         <v>44890</v>
       </c>
       <c r="B44" t="n">
-        <v>146.2474169615763</v>
+        <v>146.2474322409697</v>
       </c>
       <c r="C44" t="n">
-        <v>146.8094970653349</v>
+        <v>146.8095124034524</v>
       </c>
       <c r="D44" t="n">
-        <v>145.0739641526052</v>
+        <v>145.0739793094005</v>
       </c>
       <c r="E44" t="n">
-        <v>146.0502014160156</v>
+        <v>146.0502166748047</v>
       </c>
       <c r="F44" t="n">
         <v>35195900</v>
@@ -1635,16 +1635,16 @@
         <v>44894</v>
       </c>
       <c r="B46" t="n">
-        <v>142.2833465527571</v>
+        <v>142.2833621487803</v>
       </c>
       <c r="C46" t="n">
-        <v>142.7961191049101</v>
+        <v>142.7961347571396</v>
       </c>
       <c r="D46" t="n">
-        <v>138.3981529301747</v>
+        <v>138.3981681003324</v>
       </c>
       <c r="E46" t="n">
-        <v>139.2067413330078</v>
+        <v>139.2067565917969</v>
       </c>
       <c r="F46" t="n">
         <v>83763800</v>
@@ -1661,16 +1661,16 @@
         <v>44895</v>
       </c>
       <c r="B47" t="n">
-        <v>139.4335135097931</v>
+        <v>139.4335280851677</v>
       </c>
       <c r="C47" t="n">
-        <v>146.6517199043452</v>
+        <v>146.6517352342591</v>
       </c>
       <c r="D47" t="n">
-        <v>138.5953436721187</v>
+        <v>138.595358159877</v>
       </c>
       <c r="E47" t="n">
-        <v>145.9713134765625</v>
+        <v>145.9713287353516</v>
       </c>
       <c r="F47" t="n">
         <v>111380900</v>
@@ -1687,16 +1687,16 @@
         <v>44896</v>
       </c>
       <c r="B48" t="n">
-        <v>146.1488210122578</v>
+        <v>146.1488362607593</v>
       </c>
       <c r="C48" t="n">
-        <v>147.056024585795</v>
+        <v>147.05603992895</v>
       </c>
       <c r="D48" t="n">
-        <v>144.5710665081866</v>
+        <v>144.5710815920725</v>
       </c>
       <c r="E48" t="n">
-        <v>146.2474212646484</v>
+        <v>146.2474365234375</v>
       </c>
       <c r="F48" t="n">
         <v>71250400</v>
@@ -1713,16 +1713,16 @@
         <v>44897</v>
       </c>
       <c r="B49" t="n">
-        <v>143.9301165589326</v>
+        <v>143.9301316267426</v>
       </c>
       <c r="C49" t="n">
-        <v>145.9417393182281</v>
+        <v>145.9417545966316</v>
       </c>
       <c r="D49" t="n">
-        <v>143.6244151415016</v>
+        <v>143.6244301773082</v>
       </c>
       <c r="E49" t="n">
-        <v>145.7543792724609</v>
+        <v>145.75439453125</v>
       </c>
       <c r="F49" t="n">
         <v>65447400</v>
@@ -1739,16 +1739,16 @@
         <v>44900</v>
       </c>
       <c r="B50" t="n">
-        <v>145.7149503447224</v>
+        <v>145.7149657221435</v>
       </c>
       <c r="C50" t="n">
-        <v>148.8211369248222</v>
+        <v>148.8211526300417</v>
       </c>
       <c r="D50" t="n">
-        <v>143.742764567749</v>
+        <v>143.7427797370437</v>
       </c>
       <c r="E50" t="n">
-        <v>144.5908050537109</v>
+        <v>144.5908203125</v>
       </c>
       <c r="F50" t="n">
         <v>68826400</v>
@@ -1791,16 +1791,16 @@
         <v>44902</v>
       </c>
       <c r="B52" t="n">
-        <v>140.2125508081495</v>
+        <v>140.2125662022691</v>
       </c>
       <c r="C52" t="n">
-        <v>141.3761331990733</v>
+        <v>141.3761487209441</v>
       </c>
       <c r="D52" t="n">
-        <v>138.0530049658729</v>
+        <v>138.0530201228931</v>
       </c>
       <c r="E52" t="n">
-        <v>138.9799346923828</v>
+        <v>138.9799499511719</v>
       </c>
       <c r="F52" t="n">
         <v>69721100</v>
@@ -1817,16 +1817,16 @@
         <v>44903</v>
       </c>
       <c r="B53" t="n">
-        <v>140.3801773920301</v>
+        <v>140.380207847569</v>
       </c>
       <c r="C53" t="n">
-        <v>141.5240486983251</v>
+        <v>141.5240794020274</v>
       </c>
       <c r="D53" t="n">
-        <v>139.137705829623</v>
+        <v>139.1377360156072</v>
       </c>
       <c r="E53" t="n">
-        <v>140.6661376953125</v>
+        <v>140.6661682128906</v>
       </c>
       <c r="F53" t="n">
         <v>62128300</v>
@@ -1869,16 +1869,16 @@
         <v>44907</v>
       </c>
       <c r="B55" t="n">
-        <v>140.7154908969355</v>
+        <v>140.7154306179108</v>
       </c>
       <c r="C55" t="n">
-        <v>142.4904615939282</v>
+        <v>142.4904005545501</v>
       </c>
       <c r="D55" t="n">
-        <v>139.0982987166949</v>
+        <v>139.0982391304352</v>
       </c>
       <c r="E55" t="n">
-        <v>142.4806060791016</v>
+        <v>142.4805450439453</v>
       </c>
       <c r="F55" t="n">
         <v>70462700</v>
@@ -1895,16 +1895,16 @@
         <v>44908</v>
       </c>
       <c r="B56" t="n">
-        <v>147.420898645852</v>
+        <v>147.4209143273598</v>
       </c>
       <c r="C56" t="n">
-        <v>147.8843635443182</v>
+        <v>147.8843792751259</v>
       </c>
       <c r="D56" t="n">
-        <v>142.2340550534105</v>
+        <v>142.2340701831816</v>
       </c>
       <c r="E56" t="n">
-        <v>143.4469451904297</v>
+        <v>143.4469604492188</v>
       </c>
       <c r="F56" t="n">
         <v>93886200</v>
@@ -1921,16 +1921,16 @@
         <v>44909</v>
       </c>
       <c r="B57" t="n">
-        <v>143.3286067000526</v>
+        <v>143.3286221868551</v>
       </c>
       <c r="C57" t="n">
-        <v>144.6203859705674</v>
+        <v>144.6204015969479</v>
       </c>
       <c r="D57" t="n">
-        <v>139.1968751088693</v>
+        <v>139.196890149234</v>
       </c>
       <c r="E57" t="n">
-        <v>141.2183685302734</v>
+        <v>141.2183837890625</v>
       </c>
       <c r="F57" t="n">
         <v>82291200</v>
@@ -1947,16 +1947,16 @@
         <v>44910</v>
       </c>
       <c r="B58" t="n">
-        <v>139.1475735668216</v>
+        <v>139.147557792699</v>
       </c>
       <c r="C58" t="n">
-        <v>139.827980094081</v>
+        <v>139.8279642428258</v>
       </c>
       <c r="D58" t="n">
-        <v>134.1382196907759</v>
+        <v>134.1382044845264</v>
       </c>
       <c r="E58" t="n">
-        <v>134.6016845703125</v>
+        <v>134.6016693115234</v>
       </c>
       <c r="F58" t="n">
         <v>98931900</v>
@@ -1999,16 +1999,16 @@
         <v>44914</v>
       </c>
       <c r="B60" t="n">
-        <v>133.2310449107972</v>
+        <v>133.2310293361574</v>
       </c>
       <c r="C60" t="n">
-        <v>133.3197896823252</v>
+        <v>133.3197740973112</v>
       </c>
       <c r="D60" t="n">
-        <v>129.4937585261083</v>
+        <v>129.4937433883553</v>
       </c>
       <c r="E60" t="n">
-        <v>130.5291442871094</v>
+        <v>130.5291290283203</v>
       </c>
       <c r="F60" t="n">
         <v>79592600</v>
@@ -2025,16 +2025,16 @@
         <v>44915</v>
       </c>
       <c r="B61" t="n">
-        <v>129.5627652387026</v>
+        <v>129.5627349310346</v>
       </c>
       <c r="C61" t="n">
-        <v>131.3968989135812</v>
+        <v>131.3968681768677</v>
       </c>
       <c r="D61" t="n">
-        <v>128.0836256636905</v>
+        <v>128.0835957020267</v>
       </c>
       <c r="E61" t="n">
-        <v>130.4601135253906</v>
+        <v>130.4600830078125</v>
       </c>
       <c r="F61" t="n">
         <v>77432800</v>
@@ -2051,16 +2051,16 @@
         <v>44916</v>
       </c>
       <c r="B62" t="n">
-        <v>131.1306484226711</v>
+        <v>131.1306184615969</v>
       </c>
       <c r="C62" t="n">
-        <v>134.9073865765452</v>
+        <v>134.907355752552</v>
       </c>
       <c r="D62" t="n">
-        <v>130.9038512362098</v>
+        <v>130.9038213269548</v>
       </c>
       <c r="E62" t="n">
-        <v>133.5662994384766</v>
+        <v>133.5662689208984</v>
       </c>
       <c r="F62" t="n">
         <v>85928000</v>
@@ -2077,16 +2077,16 @@
         <v>44917</v>
       </c>
       <c r="B63" t="n">
-        <v>132.4815948056217</v>
+        <v>132.4815793021923</v>
       </c>
       <c r="C63" t="n">
-        <v>132.6886659005264</v>
+        <v>132.6886503728649</v>
       </c>
       <c r="D63" t="n">
-        <v>128.4879153200317</v>
+        <v>128.4879002839557</v>
       </c>
       <c r="E63" t="n">
-        <v>130.3910675048828</v>
+        <v>130.3910522460938</v>
       </c>
       <c r="F63" t="n">
         <v>77852100</v>
@@ -2103,16 +2103,16 @@
         <v>44918</v>
       </c>
       <c r="B64" t="n">
-        <v>129.0992848361884</v>
+        <v>129.0992999862007</v>
       </c>
       <c r="C64" t="n">
-        <v>130.5784242340089</v>
+        <v>130.5784395576007</v>
       </c>
       <c r="D64" t="n">
-        <v>127.8370870871082</v>
+        <v>127.8371020889996</v>
       </c>
       <c r="E64" t="n">
-        <v>130.0262145996094</v>
+        <v>130.0262298583984</v>
       </c>
       <c r="F64" t="n">
         <v>63814900</v>
@@ -2129,16 +2129,16 @@
         <v>44922</v>
       </c>
       <c r="B65" t="n">
-        <v>129.5529113402431</v>
+        <v>129.5528805058234</v>
       </c>
       <c r="C65" t="n">
-        <v>129.5824929283853</v>
+        <v>129.582462086925</v>
       </c>
       <c r="D65" t="n">
-        <v>126.9299001833372</v>
+        <v>126.9298699732108</v>
       </c>
       <c r="E65" t="n">
-        <v>128.2216796875</v>
+        <v>128.2216491699219</v>
       </c>
       <c r="F65" t="n">
         <v>69007800</v>
@@ -2155,16 +2155,16 @@
         <v>44923</v>
       </c>
       <c r="B66" t="n">
-        <v>127.8666855160497</v>
+        <v>127.8666698178021</v>
       </c>
       <c r="C66" t="n">
-        <v>129.2077726819406</v>
+        <v>129.2077568190471</v>
       </c>
       <c r="D66" t="n">
-        <v>124.1195363952431</v>
+        <v>124.1195211570346</v>
       </c>
       <c r="E66" t="n">
-        <v>124.2871704101562</v>
+        <v>124.2871551513672</v>
       </c>
       <c r="F66" t="n">
         <v>85438400</v>
@@ -2181,16 +2181,16 @@
         <v>44924</v>
       </c>
       <c r="B67" t="n">
-        <v>126.2100521251047</v>
+        <v>126.2100295230018</v>
       </c>
       <c r="C67" t="n">
-        <v>128.6654218057281</v>
+        <v>128.6653987639097</v>
       </c>
       <c r="D67" t="n">
-        <v>125.953673339202</v>
+        <v>125.9536507830122</v>
       </c>
       <c r="E67" t="n">
-        <v>127.8075256347656</v>
+        <v>127.807502746582</v>
       </c>
       <c r="F67" t="n">
         <v>75703700</v>
@@ -2259,16 +2259,16 @@
         <v>44930</v>
       </c>
       <c r="B70" t="n">
-        <v>125.1253349737568</v>
+        <v>125.1253273123619</v>
       </c>
       <c r="C70" t="n">
-        <v>126.8707237243436</v>
+        <v>126.8707159560789</v>
       </c>
       <c r="D70" t="n">
-        <v>123.3405091253046</v>
+        <v>123.3405015731942</v>
       </c>
       <c r="E70" t="n">
-        <v>124.6027069091797</v>
+        <v>124.6026992797852</v>
       </c>
       <c r="F70" t="n">
         <v>89113600</v>
@@ -2311,16 +2311,16 @@
         <v>44932</v>
       </c>
       <c r="B72" t="n">
-        <v>124.2575936427792</v>
+        <v>124.257571392045</v>
       </c>
       <c r="C72" t="n">
-        <v>128.4780633839376</v>
+        <v>128.4780403774463</v>
       </c>
       <c r="D72" t="n">
-        <v>123.1531666623469</v>
+        <v>123.1531446093818</v>
       </c>
       <c r="E72" t="n">
-        <v>127.8173828125</v>
+        <v>127.8173599243164</v>
       </c>
       <c r="F72" t="n">
         <v>87754700</v>
@@ -2337,16 +2337,16 @@
         <v>44935</v>
       </c>
       <c r="B73" t="n">
-        <v>128.6555686126402</v>
+        <v>128.6555380200268</v>
       </c>
       <c r="C73" t="n">
-        <v>131.5546847487843</v>
+        <v>131.5546534667989</v>
       </c>
       <c r="D73" t="n">
-        <v>128.0836328061518</v>
+        <v>128.0836023495372</v>
       </c>
       <c r="E73" t="n">
-        <v>128.3400115966797</v>
+        <v>128.3399810791016</v>
       </c>
       <c r="F73" t="n">
         <v>70790800</v>
@@ -2363,16 +2363,16 @@
         <v>44936</v>
       </c>
       <c r="B74" t="n">
-        <v>128.4484613824357</v>
+        <v>128.4484765863662</v>
       </c>
       <c r="C74" t="n">
-        <v>129.4345543257736</v>
+        <v>129.4345696464241</v>
       </c>
       <c r="D74" t="n">
-        <v>126.3382230855557</v>
+        <v>126.3382380397058</v>
       </c>
       <c r="E74" t="n">
-        <v>128.9119262695312</v>
+        <v>128.9119415283203</v>
       </c>
       <c r="F74" t="n">
         <v>63896200</v>
@@ -2389,16 +2389,16 @@
         <v>44937</v>
       </c>
       <c r="B75" t="n">
-        <v>129.4247064406399</v>
+        <v>129.4246914378982</v>
       </c>
       <c r="C75" t="n">
-        <v>131.6532712071518</v>
+        <v>131.6532559460779</v>
       </c>
       <c r="D75" t="n">
-        <v>128.6456995899898</v>
+        <v>128.6456846775496</v>
       </c>
       <c r="E75" t="n">
-        <v>131.6335601806641</v>
+        <v>131.633544921875</v>
       </c>
       <c r="F75" t="n">
         <v>69458900</v>
@@ -2415,16 +2415,16 @@
         <v>44938</v>
       </c>
       <c r="B76" t="n">
-        <v>132.0181371602223</v>
+        <v>132.0181218476768</v>
       </c>
       <c r="C76" t="n">
-        <v>132.392842272817</v>
+        <v>132.3928269168101</v>
       </c>
       <c r="D76" t="n">
-        <v>129.6120678053339</v>
+        <v>129.612052771864</v>
       </c>
       <c r="E76" t="n">
-        <v>131.5546722412109</v>
+        <v>131.5546569824219</v>
       </c>
       <c r="F76" t="n">
         <v>71379600</v>
@@ -2441,16 +2441,16 @@
         <v>44939</v>
       </c>
       <c r="B77" t="n">
-        <v>130.1938649462515</v>
+        <v>130.1938798959249</v>
       </c>
       <c r="C77" t="n">
-        <v>133.0436732754904</v>
+        <v>133.0436885523966</v>
       </c>
       <c r="D77" t="n">
-        <v>129.8290153305335</v>
+        <v>129.8290302383126</v>
       </c>
       <c r="E77" t="n">
-        <v>132.8858947753906</v>
+        <v>132.8859100341797</v>
       </c>
       <c r="F77" t="n">
         <v>57809700</v>
@@ -2467,16 +2467,16 @@
         <v>44943</v>
       </c>
       <c r="B78" t="n">
-        <v>132.9549204257575</v>
+        <v>132.9548901573667</v>
       </c>
       <c r="C78" t="n">
-        <v>135.3807007692732</v>
+        <v>135.3806699486315</v>
       </c>
       <c r="D78" t="n">
-        <v>132.2646583380329</v>
+        <v>132.2646282267866</v>
       </c>
       <c r="E78" t="n">
-        <v>134.0494842529297</v>
+        <v>134.0494537353516</v>
       </c>
       <c r="F78" t="n">
         <v>63646600</v>
@@ -2519,16 +2519,16 @@
         <v>44945</v>
       </c>
       <c r="B80" t="n">
-        <v>132.2153560837081</v>
+        <v>132.2153409591543</v>
       </c>
       <c r="C80" t="n">
-        <v>134.3551761664197</v>
+        <v>134.3551607970847</v>
       </c>
       <c r="D80" t="n">
-        <v>131.9096696499759</v>
+        <v>131.9096545603905</v>
       </c>
       <c r="E80" t="n">
-        <v>133.3888092041016</v>
+        <v>133.3887939453125</v>
       </c>
       <c r="F80" t="n">
         <v>58280400</v>
@@ -2571,16 +2571,16 @@
         <v>44949</v>
       </c>
       <c r="B82" t="n">
-        <v>136.1991744739706</v>
+        <v>136.199144603035</v>
       </c>
       <c r="C82" t="n">
-        <v>141.3268706431699</v>
+        <v>141.3268396476381</v>
       </c>
       <c r="D82" t="n">
-        <v>135.982232787739</v>
+        <v>135.9822029643826</v>
       </c>
       <c r="E82" t="n">
-        <v>139.1475982666016</v>
+        <v>139.1475677490234</v>
       </c>
       <c r="F82" t="n">
         <v>81760300</v>
@@ -2597,16 +2597,16 @@
         <v>44950</v>
       </c>
       <c r="B83" t="n">
-        <v>138.3586935843229</v>
+        <v>138.3587236265691</v>
       </c>
       <c r="C83" t="n">
-        <v>141.1690643921843</v>
+        <v>141.1690950446549</v>
       </c>
       <c r="D83" t="n">
-        <v>138.348838072008</v>
+        <v>138.3488681121143</v>
       </c>
       <c r="E83" t="n">
-        <v>140.5478210449219</v>
+        <v>140.5478515625</v>
       </c>
       <c r="F83" t="n">
         <v>66435100</v>
@@ -2623,16 +2623,16 @@
         <v>44951</v>
       </c>
       <c r="B84" t="n">
-        <v>138.9306497886899</v>
+        <v>138.9306346342364</v>
       </c>
       <c r="C84" t="n">
-        <v>140.4492264714887</v>
+        <v>140.44921115139</v>
       </c>
       <c r="D84" t="n">
-        <v>136.8795744305952</v>
+        <v>136.8795594998715</v>
       </c>
       <c r="E84" t="n">
-        <v>139.8871612548828</v>
+        <v>139.8871459960938</v>
       </c>
       <c r="F84" t="n">
         <v>65799300</v>
@@ -2649,16 +2649,16 @@
         <v>44952</v>
       </c>
       <c r="B85" t="n">
-        <v>141.1789249258335</v>
+        <v>141.17890975078</v>
       </c>
       <c r="C85" t="n">
-        <v>142.243907110483</v>
+        <v>142.2438918209566</v>
       </c>
       <c r="D85" t="n">
-        <v>139.9265826744515</v>
+        <v>139.9265676340099</v>
       </c>
       <c r="E85" t="n">
-        <v>141.9579467773438</v>
+        <v>141.9579315185547</v>
       </c>
       <c r="F85" t="n">
         <v>54105100</v>
@@ -2701,16 +2701,16 @@
         <v>44956</v>
       </c>
       <c r="B87" t="n">
-        <v>142.9440248337285</v>
+        <v>142.9440403016597</v>
       </c>
       <c r="C87" t="n">
-        <v>143.5258159986648</v>
+        <v>143.5258315295515</v>
       </c>
       <c r="D87" t="n">
-        <v>140.863368337619</v>
+        <v>140.863383580403</v>
       </c>
       <c r="E87" t="n">
-        <v>141.0112762451172</v>
+        <v>141.0112915039062</v>
       </c>
       <c r="F87" t="n">
         <v>64015300</v>
@@ -2727,16 +2727,16 @@
         <v>44957</v>
       </c>
       <c r="B88" t="n">
-        <v>140.715486507654</v>
+        <v>140.7154563263628</v>
       </c>
       <c r="C88" t="n">
-        <v>142.3326786374501</v>
+        <v>142.3326481092963</v>
       </c>
       <c r="D88" t="n">
-        <v>140.3013291990389</v>
+        <v>140.301299106578</v>
       </c>
       <c r="E88" t="n">
-        <v>142.2833709716797</v>
+        <v>142.2833404541016</v>
       </c>
       <c r="F88" t="n">
         <v>65874500</v>
@@ -2753,16 +2753,16 @@
         <v>44958</v>
       </c>
       <c r="B89" t="n">
-        <v>141.967798726521</v>
+        <v>141.967813832125</v>
       </c>
       <c r="C89" t="n">
-        <v>144.5710834303476</v>
+        <v>144.5710988129453</v>
       </c>
       <c r="D89" t="n">
-        <v>139.3546585102764</v>
+        <v>139.354673337838</v>
       </c>
       <c r="E89" t="n">
-        <v>143.4074859619141</v>
+        <v>143.4075012207031</v>
       </c>
       <c r="F89" t="n">
         <v>77663600</v>
@@ -2805,16 +2805,16 @@
         <v>44960</v>
       </c>
       <c r="B91" t="n">
-        <v>145.9713414047775</v>
+        <v>145.9713267849812</v>
       </c>
       <c r="C91" t="n">
-        <v>155.1913167092961</v>
+        <v>155.1913011660709</v>
       </c>
       <c r="D91" t="n">
-        <v>145.774125819744</v>
+        <v>145.7741112196999</v>
       </c>
       <c r="E91" t="n">
-        <v>152.3513641357422</v>
+        <v>152.3513488769531</v>
       </c>
       <c r="F91" t="n">
         <v>154357300</v>
@@ -2831,16 +2831,16 @@
         <v>44963</v>
       </c>
       <c r="B92" t="n">
-        <v>150.4482178700856</v>
+        <v>150.4482025268204</v>
       </c>
       <c r="C92" t="n">
-        <v>150.9708459620479</v>
+        <v>150.9708305654832</v>
       </c>
       <c r="D92" t="n">
-        <v>148.6831029547836</v>
+        <v>148.6830877915313</v>
       </c>
       <c r="E92" t="n">
-        <v>149.6198883056641</v>
+        <v>149.619873046875</v>
       </c>
       <c r="F92" t="n">
         <v>69858300</v>
@@ -2883,16 +2883,16 @@
         <v>44965</v>
       </c>
       <c r="B94" t="n">
-        <v>151.7399999315323</v>
+        <v>151.7400153871838</v>
       </c>
       <c r="C94" t="n">
-        <v>152.4302620416696</v>
+        <v>152.4302775676285</v>
       </c>
       <c r="D94" t="n">
-        <v>149.0676812057185</v>
+        <v>149.0676963891779</v>
       </c>
       <c r="E94" t="n">
-        <v>149.8072509765625</v>
+        <v>149.8072662353516</v>
       </c>
       <c r="F94" t="n">
         <v>64120100</v>
@@ -2961,16 +2961,16 @@
         <v>44970</v>
       </c>
       <c r="B97" t="n">
-        <v>149.0780171748983</v>
+        <v>149.0779872325639</v>
       </c>
       <c r="C97" t="n">
-        <v>152.3469663823508</v>
+        <v>152.3469357834477</v>
       </c>
       <c r="D97" t="n">
-        <v>149.0483904201738</v>
+        <v>149.04836048379</v>
       </c>
       <c r="E97" t="n">
-        <v>151.9420623779297</v>
+        <v>151.9420318603516</v>
       </c>
       <c r="F97" t="n">
         <v>62199000</v>
@@ -3013,16 +3013,16 @@
         <v>44972</v>
       </c>
       <c r="B99" t="n">
-        <v>151.2112165090948</v>
+        <v>151.2112315498028</v>
       </c>
       <c r="C99" t="n">
-        <v>153.5715764707177</v>
+        <v>153.5715917462065</v>
       </c>
       <c r="D99" t="n">
-        <v>150.9840730591931</v>
+        <v>150.9840880773076</v>
       </c>
       <c r="E99" t="n">
-        <v>153.4036865234375</v>
+        <v>153.4037017822266</v>
       </c>
       <c r="F99" t="n">
         <v>65573800</v>
@@ -3039,16 +3039,16 @@
         <v>44973</v>
       </c>
       <c r="B100" t="n">
-        <v>151.6062402171314</v>
+        <v>151.6062554560653</v>
       </c>
       <c r="C100" t="n">
-        <v>154.3912752188136</v>
+        <v>154.3912907376896</v>
       </c>
       <c r="D100" t="n">
-        <v>151.4482359100917</v>
+        <v>151.4482511331435</v>
       </c>
       <c r="E100" t="n">
-        <v>151.8037719726562</v>
+        <v>151.8037872314453</v>
       </c>
       <c r="F100" t="n">
         <v>68167900</v>
@@ -3065,16 +3065,16 @@
         <v>44974</v>
       </c>
       <c r="B101" t="n">
-        <v>150.4606254196174</v>
+        <v>150.4606558971862</v>
       </c>
       <c r="C101" t="n">
-        <v>151.1025583652421</v>
+        <v>151.1025889728419</v>
       </c>
       <c r="D101" t="n">
-        <v>148.9792277885856</v>
+        <v>148.9792579660799</v>
       </c>
       <c r="E101" t="n">
-        <v>150.6581420898438</v>
+        <v>150.6581726074219</v>
       </c>
       <c r="F101" t="n">
         <v>59144100</v>
@@ -3091,16 +3091,16 @@
         <v>44978</v>
       </c>
       <c r="B102" t="n">
-        <v>148.3373276536547</v>
+        <v>148.3372659114636</v>
       </c>
       <c r="C102" t="n">
-        <v>149.42369229489</v>
+        <v>149.4236301005231</v>
       </c>
       <c r="D102" t="n">
-        <v>146.5695325406201</v>
+        <v>146.5694715342352</v>
       </c>
       <c r="E102" t="n">
-        <v>146.6386566162109</v>
+        <v>146.6385955810547</v>
       </c>
       <c r="F102" t="n">
         <v>58867200</v>
@@ -3117,16 +3117,16 @@
         <v>44979</v>
       </c>
       <c r="B103" t="n">
-        <v>147.0237810788301</v>
+        <v>147.0237963335195</v>
       </c>
       <c r="C103" t="n">
-        <v>148.0903892469081</v>
+        <v>148.0904046122651</v>
       </c>
       <c r="D103" t="n">
-        <v>145.3349961148743</v>
+        <v>145.3350111943411</v>
       </c>
       <c r="E103" t="n">
-        <v>147.0632934570312</v>
+        <v>147.0633087158203</v>
       </c>
       <c r="F103" t="n">
         <v>51011300</v>
@@ -3169,16 +3169,16 @@
         <v>44981</v>
       </c>
       <c r="B105" t="n">
-        <v>145.2856431874803</v>
+        <v>145.2856278870893</v>
       </c>
       <c r="C105" t="n">
-        <v>145.3646528906462</v>
+        <v>145.3646375819345</v>
       </c>
       <c r="D105" t="n">
-        <v>143.9128816177882</v>
+        <v>143.9128664619661</v>
       </c>
       <c r="E105" t="n">
-        <v>144.8906097412109</v>
+        <v>144.8905944824219</v>
       </c>
       <c r="F105" t="n">
         <v>55469600</v>
@@ -3195,16 +3195,16 @@
         <v>44984</v>
       </c>
       <c r="B106" t="n">
-        <v>145.8781840387877</v>
+        <v>145.8781688016605</v>
       </c>
       <c r="C106" t="n">
-        <v>147.3200694392231</v>
+        <v>147.3200540514895</v>
       </c>
       <c r="D106" t="n">
-        <v>145.6213987790375</v>
+        <v>145.6213835687317</v>
       </c>
       <c r="E106" t="n">
-        <v>146.0855712890625</v>
+        <v>146.0855560302734</v>
       </c>
       <c r="F106" t="n">
         <v>44998500</v>
@@ -3221,16 +3221,16 @@
         <v>44985</v>
       </c>
       <c r="B107" t="n">
-        <v>145.2263730908277</v>
+        <v>145.2263883123522</v>
       </c>
       <c r="C107" t="n">
-        <v>147.2311969873109</v>
+        <v>147.2312124189658</v>
       </c>
       <c r="D107" t="n">
-        <v>145.0091001993268</v>
+        <v>145.0091153980784</v>
       </c>
       <c r="E107" t="n">
-        <v>145.5819091796875</v>
+        <v>145.5819244384766</v>
       </c>
       <c r="F107" t="n">
         <v>50547000</v>
@@ -3247,16 +3247,16 @@
         <v>44986</v>
       </c>
       <c r="B108" t="n">
-        <v>145.0090884987679</v>
+        <v>145.0091039171703</v>
       </c>
       <c r="C108" t="n">
-        <v>145.4041218680449</v>
+        <v>145.4041373284501</v>
       </c>
       <c r="D108" t="n">
-        <v>143.2116520085762</v>
+        <v>143.2116672358624</v>
       </c>
       <c r="E108" t="n">
-        <v>143.5079345703125</v>
+        <v>143.5079498291016</v>
       </c>
       <c r="F108" t="n">
         <v>55479000</v>
@@ -3273,16 +3273,16 @@
         <v>44987</v>
       </c>
       <c r="B109" t="n">
-        <v>142.58948505088</v>
+        <v>142.5894699520932</v>
       </c>
       <c r="C109" t="n">
-        <v>144.8905915062189</v>
+        <v>144.8905761637681</v>
       </c>
       <c r="D109" t="n">
-        <v>142.1154268915466</v>
+        <v>142.1154118429578</v>
       </c>
       <c r="E109" t="n">
-        <v>144.1005096435547</v>
+        <v>144.1004943847656</v>
       </c>
       <c r="F109" t="n">
         <v>52238100</v>
@@ -3299,16 +3299,16 @@
         <v>44988</v>
       </c>
       <c r="B110" t="n">
-        <v>146.2040877481828</v>
+        <v>146.2040578347743</v>
       </c>
       <c r="C110" t="n">
-        <v>149.236022634522</v>
+        <v>149.2359921007784</v>
       </c>
       <c r="D110" t="n">
-        <v>145.5029011924791</v>
+        <v>145.5028714225336</v>
       </c>
       <c r="E110" t="n">
-        <v>149.1570129394531</v>
+        <v>149.156982421875</v>
       </c>
       <c r="F110" t="n">
         <v>70732300</v>
@@ -3351,16 +3351,16 @@
         <v>44992</v>
       </c>
       <c r="B112" t="n">
-        <v>151.7938880153904</v>
+        <v>151.793903485547</v>
       </c>
       <c r="C112" t="n">
-        <v>152.1197973321281</v>
+        <v>152.1198128355</v>
       </c>
       <c r="D112" t="n">
-        <v>149.2557676801529</v>
+        <v>149.2557828916356</v>
       </c>
       <c r="E112" t="n">
-        <v>149.7199401855469</v>
+        <v>149.7199554443359</v>
       </c>
       <c r="F112" t="n">
         <v>56182000</v>
@@ -3429,16 +3429,16 @@
         <v>44995</v>
       </c>
       <c r="B115" t="n">
-        <v>148.3471863994858</v>
+        <v>148.3472018339828</v>
       </c>
       <c r="C115" t="n">
-        <v>149.0681291291559</v>
+        <v>149.068144638662</v>
       </c>
       <c r="D115" t="n">
-        <v>145.7794241144287</v>
+        <v>145.7794392817679</v>
       </c>
       <c r="E115" t="n">
-        <v>146.6583862304688</v>
+        <v>146.6584014892578</v>
       </c>
       <c r="F115" t="n">
         <v>68572400</v>
@@ -3455,16 +3455,16 @@
         <v>44998</v>
       </c>
       <c r="B116" t="n">
-        <v>145.9769273262397</v>
+        <v>145.9769423152844</v>
       </c>
       <c r="C116" t="n">
-        <v>151.2408289755998</v>
+        <v>151.2408445051467</v>
       </c>
       <c r="D116" t="n">
-        <v>145.8682908918417</v>
+        <v>145.8683058697316</v>
       </c>
       <c r="E116" t="n">
-        <v>148.6039428710938</v>
+        <v>148.6039581298828</v>
       </c>
       <c r="F116" t="n">
         <v>84457100</v>
@@ -3481,16 +3481,16 @@
         <v>44999</v>
       </c>
       <c r="B117" t="n">
-        <v>149.403925764243</v>
+        <v>149.4038955086608</v>
       </c>
       <c r="C117" t="n">
-        <v>151.4976301247972</v>
+        <v>151.4975994452218</v>
       </c>
       <c r="D117" t="n">
-        <v>148.2385665656885</v>
+        <v>148.2385365461016</v>
       </c>
       <c r="E117" t="n">
-        <v>150.6976776123047</v>
+        <v>150.6976470947266</v>
       </c>
       <c r="F117" t="n">
         <v>73695900</v>
@@ -3507,16 +3507,16 @@
         <v>45000</v>
       </c>
       <c r="B118" t="n">
-        <v>149.3150319418071</v>
+        <v>149.3150168625453</v>
       </c>
       <c r="C118" t="n">
-        <v>151.3494826084818</v>
+        <v>151.3494673237617</v>
       </c>
       <c r="D118" t="n">
-        <v>148.0607775238788</v>
+        <v>148.0607625712835</v>
       </c>
       <c r="E118" t="n">
-        <v>151.0927124023438</v>
+        <v>151.0926971435547</v>
       </c>
       <c r="F118" t="n">
         <v>77167900</v>
@@ -3533,16 +3533,16 @@
         <v>45001</v>
       </c>
       <c r="B119" t="n">
-        <v>150.2729953555065</v>
+        <v>150.272980457994</v>
       </c>
       <c r="C119" t="n">
-        <v>154.5196720318581</v>
+        <v>154.5196567133458</v>
       </c>
       <c r="D119" t="n">
-        <v>149.7594399024329</v>
+        <v>149.7594250558325</v>
       </c>
       <c r="E119" t="n">
-        <v>153.917236328125</v>
+        <v>153.9172210693359</v>
       </c>
       <c r="F119" t="n">
         <v>76161100</v>
@@ -3559,16 +3559,16 @@
         <v>45002</v>
       </c>
       <c r="B120" t="n">
-        <v>154.1443976469308</v>
+        <v>154.1443669167137</v>
       </c>
       <c r="C120" t="n">
-        <v>154.7962163664791</v>
+        <v>154.7961855063155</v>
       </c>
       <c r="D120" t="n">
-        <v>152.3667170797805</v>
+        <v>152.3666867039617</v>
       </c>
       <c r="E120" t="n">
-        <v>153.0777893066406</v>
+        <v>153.0777587890625</v>
       </c>
       <c r="F120" t="n">
         <v>98944600</v>
@@ -3585,16 +3585,16 @@
         <v>45005</v>
       </c>
       <c r="B121" t="n">
-        <v>153.1469068004993</v>
+        <v>153.146921833413</v>
       </c>
       <c r="C121" t="n">
-        <v>155.8628026785515</v>
+        <v>155.8628179780578</v>
       </c>
       <c r="D121" t="n">
-        <v>152.2383029182678</v>
+        <v>152.238317861993</v>
       </c>
       <c r="E121" t="n">
-        <v>155.447998046875</v>
+        <v>155.4480133056641</v>
       </c>
       <c r="F121" t="n">
         <v>73641400</v>
@@ -3611,16 +3611,16 @@
         <v>45006</v>
       </c>
       <c r="B122" t="n">
-        <v>155.3690028835596</v>
+        <v>155.3689878125348</v>
       </c>
       <c r="C122" t="n">
-        <v>157.4231944974596</v>
+        <v>157.4231792271752</v>
       </c>
       <c r="D122" t="n">
-        <v>154.5986621914006</v>
+        <v>154.5986471951001</v>
       </c>
       <c r="E122" t="n">
-        <v>157.3046875</v>
+        <v>157.3046722412109</v>
       </c>
       <c r="F122" t="n">
         <v>73938300</v>
@@ -3637,16 +3637,16 @@
         <v>45007</v>
       </c>
       <c r="B123" t="n">
-        <v>157.3244363345121</v>
+        <v>157.3244517354188</v>
       </c>
       <c r="C123" t="n">
-        <v>160.1292123200188</v>
+        <v>160.1292279954925</v>
       </c>
       <c r="D123" t="n">
-        <v>155.8529092167681</v>
+        <v>155.8529244736231</v>
       </c>
       <c r="E123" t="n">
-        <v>155.8726654052734</v>
+        <v>155.8726806640625</v>
       </c>
       <c r="F123" t="n">
         <v>75701800</v>
@@ -3663,16 +3663,16 @@
         <v>45008</v>
       </c>
       <c r="B124" t="n">
-        <v>156.8602945873959</v>
+        <v>156.8602793382069</v>
       </c>
       <c r="C124" t="n">
-        <v>159.5465641072527</v>
+        <v>159.5465485969178</v>
       </c>
       <c r="D124" t="n">
-        <v>155.7245471039558</v>
+        <v>155.7245319651787</v>
       </c>
       <c r="E124" t="n">
-        <v>156.9590454101562</v>
+        <v>156.9590301513672</v>
       </c>
       <c r="F124" t="n">
         <v>67622100</v>
@@ -3689,16 +3689,16 @@
         <v>45009</v>
       </c>
       <c r="B125" t="n">
-        <v>156.8899185642958</v>
+        <v>156.8898883114254</v>
       </c>
       <c r="C125" t="n">
-        <v>158.35156031349</v>
+        <v>158.3515297787732</v>
       </c>
       <c r="D125" t="n">
-        <v>155.892449375582</v>
+        <v>155.8924193150522</v>
       </c>
       <c r="E125" t="n">
-        <v>158.2626800537109</v>
+        <v>158.2626495361328</v>
       </c>
       <c r="F125" t="n">
         <v>59196500</v>
@@ -3715,16 +3715,16 @@
         <v>45012</v>
       </c>
       <c r="B126" t="n">
-        <v>157.9565254779494</v>
+        <v>157.9565408967691</v>
       </c>
       <c r="C126" t="n">
-        <v>158.7762341397757</v>
+        <v>158.7762496386106</v>
       </c>
       <c r="D126" t="n">
-        <v>155.9121891039564</v>
+        <v>155.9122043232195</v>
       </c>
       <c r="E126" t="n">
-        <v>156.3171081542969</v>
+        <v>156.3171234130859</v>
       </c>
       <c r="F126" t="n">
         <v>52390300</v>
@@ -3741,16 +3741,16 @@
         <v>45013</v>
       </c>
       <c r="B127" t="n">
-        <v>156.0109545619661</v>
+        <v>156.0109239824416</v>
       </c>
       <c r="C127" t="n">
-        <v>156.5245100617194</v>
+        <v>156.5244793815335</v>
       </c>
       <c r="D127" t="n">
-        <v>154.0456278912501</v>
+        <v>154.045597696947</v>
       </c>
       <c r="E127" t="n">
-        <v>155.6949157714844</v>
+        <v>155.6948852539062</v>
       </c>
       <c r="F127" t="n">
         <v>45992200</v>
@@ -3819,16 +3819,16 @@
         <v>45016</v>
       </c>
       <c r="B130" t="n">
-        <v>160.4255267518138</v>
+        <v>160.425541782971</v>
       </c>
       <c r="C130" t="n">
-        <v>162.953776878927</v>
+        <v>162.95379214697</v>
       </c>
       <c r="D130" t="n">
-        <v>159.9021006740705</v>
+        <v>159.902115656185</v>
       </c>
       <c r="E130" t="n">
-        <v>162.8550109863281</v>
+        <v>162.8550262451172</v>
       </c>
       <c r="F130" t="n">
         <v>68749800</v>
@@ -3845,16 +3845,16 @@
         <v>45019</v>
       </c>
       <c r="B131" t="n">
-        <v>162.2328065860621</v>
+        <v>162.2328367547011</v>
       </c>
       <c r="C131" t="n">
-        <v>164.2277446662819</v>
+        <v>164.2277752058974</v>
       </c>
       <c r="D131" t="n">
-        <v>162.1834236481334</v>
+        <v>162.1834538075892</v>
       </c>
       <c r="E131" t="n">
-        <v>164.1092376708984</v>
+        <v>164.1092681884766</v>
       </c>
       <c r="F131" t="n">
         <v>56976200</v>
@@ -3897,16 +3897,16 @@
         <v>45021</v>
       </c>
       <c r="B133" t="n">
-        <v>162.6969987129814</v>
+        <v>162.6969833628771</v>
       </c>
       <c r="C133" t="n">
-        <v>163.0031518677089</v>
+        <v>163.0031364887197</v>
       </c>
       <c r="D133" t="n">
-        <v>159.7934564192093</v>
+        <v>159.7934413430479</v>
       </c>
       <c r="E133" t="n">
-        <v>161.7291412353516</v>
+        <v>161.7291259765625</v>
       </c>
       <c r="F133" t="n">
         <v>51511700</v>
@@ -3923,16 +3923,16 @@
         <v>45022</v>
       </c>
       <c r="B134" t="n">
-        <v>160.4156403912687</v>
+        <v>160.4156253391313</v>
       </c>
       <c r="C134" t="n">
-        <v>162.9142788227101</v>
+        <v>162.9142635361202</v>
       </c>
       <c r="D134" t="n">
-        <v>159.9909802080555</v>
+        <v>159.9909651957649</v>
       </c>
       <c r="E134" t="n">
-        <v>162.6179962158203</v>
+        <v>162.6179809570312</v>
       </c>
       <c r="F134" t="n">
         <v>45390100</v>
@@ -3949,16 +3949,16 @@
         <v>45026</v>
       </c>
       <c r="B135" t="n">
-        <v>159.4181636186627</v>
+        <v>159.418148417319</v>
       </c>
       <c r="C135" t="n">
-        <v>160.0205993652344</v>
+        <v>160.0205841064453</v>
       </c>
       <c r="D135" t="n">
-        <v>158.094785116213</v>
+        <v>158.0947700410602</v>
       </c>
       <c r="E135" t="n">
-        <v>160.0205993652344</v>
+        <v>160.0205841064453</v>
       </c>
       <c r="F135" t="n">
         <v>47716900</v>
@@ -3975,16 +3975,16 @@
         <v>45027</v>
       </c>
       <c r="B136" t="n">
-        <v>160.3366433143631</v>
+        <v>160.3366279084897</v>
       </c>
       <c r="C136" t="n">
-        <v>160.3465138756037</v>
+        <v>160.3464984687819</v>
       </c>
       <c r="D136" t="n">
-        <v>158.5194503856298</v>
+        <v>158.5194351543605</v>
       </c>
       <c r="E136" t="n">
-        <v>158.8058624267578</v>
+        <v>158.8058471679688</v>
       </c>
       <c r="F136" t="n">
         <v>47644200</v>
@@ -4001,16 +4001,16 @@
         <v>45028</v>
       </c>
       <c r="B137" t="n">
-        <v>159.2206533800993</v>
+        <v>159.2206226490325</v>
       </c>
       <c r="C137" t="n">
-        <v>160.0502326180547</v>
+        <v>160.0502017268714</v>
       </c>
       <c r="D137" t="n">
-        <v>157.7985089324277</v>
+        <v>157.798478475848</v>
       </c>
       <c r="E137" t="n">
-        <v>158.1145477294922</v>
+        <v>158.1145172119141</v>
       </c>
       <c r="F137" t="n">
         <v>50133100</v>
@@ -4027,16 +4027,16 @@
         <v>45029</v>
       </c>
       <c r="B138" t="n">
-        <v>159.6255952339963</v>
+        <v>159.6255654408314</v>
       </c>
       <c r="C138" t="n">
-        <v>163.7438803279377</v>
+        <v>163.7438497661195</v>
       </c>
       <c r="D138" t="n">
-        <v>159.4181928601085</v>
+        <v>159.4181631056541</v>
       </c>
       <c r="E138" t="n">
-        <v>163.5068511962891</v>
+        <v>163.5068206787109</v>
       </c>
       <c r="F138" t="n">
         <v>68445600</v>
@@ -4053,16 +4053,16 @@
         <v>45030</v>
       </c>
       <c r="B139" t="n">
-        <v>162.5488267793007</v>
+        <v>162.5488571823505</v>
       </c>
       <c r="C139" t="n">
-        <v>164.2573829637581</v>
+        <v>164.2574136863755</v>
       </c>
       <c r="D139" t="n">
-        <v>161.7883868158149</v>
+        <v>161.7884170766324</v>
       </c>
       <c r="E139" t="n">
-        <v>163.1611480712891</v>
+        <v>163.1611785888672</v>
       </c>
       <c r="F139" t="n">
         <v>49386500</v>
@@ -4079,16 +4079,16 @@
         <v>45033</v>
       </c>
       <c r="B140" t="n">
-        <v>163.0426754972335</v>
+        <v>163.0426297596527</v>
       </c>
       <c r="C140" t="n">
-        <v>163.3389581388287</v>
+        <v>163.3389123181331</v>
       </c>
       <c r="D140" t="n">
-        <v>161.9958232238835</v>
+        <v>161.9957777799711</v>
       </c>
       <c r="E140" t="n">
-        <v>163.1809387207031</v>
+        <v>163.1808929443359</v>
       </c>
       <c r="F140" t="n">
         <v>41516200</v>
@@ -4131,16 +4131,16 @@
         <v>45035</v>
       </c>
       <c r="B142" t="n">
-        <v>163.7438252389654</v>
+        <v>163.7438403311756</v>
       </c>
       <c r="C142" t="n">
-        <v>166.0745581725747</v>
+        <v>166.0745734796078</v>
       </c>
       <c r="D142" t="n">
-        <v>163.4870399986803</v>
+        <v>163.4870550672227</v>
       </c>
       <c r="E142" t="n">
-        <v>165.5511322021484</v>
+        <v>165.5511474609375</v>
       </c>
       <c r="F142" t="n">
         <v>47720200</v>
@@ -4209,16 +4209,16 @@
         <v>45040</v>
       </c>
       <c r="B145" t="n">
-        <v>162.9537537700505</v>
+        <v>162.953784226715</v>
       </c>
       <c r="C145" t="n">
-        <v>163.5463189024918</v>
+        <v>163.5463494699089</v>
       </c>
       <c r="D145" t="n">
-        <v>161.8575188237243</v>
+        <v>161.8575490754983</v>
       </c>
       <c r="E145" t="n">
-        <v>163.2796630859375</v>
+        <v>163.2796936035156</v>
       </c>
       <c r="F145" t="n">
         <v>41949600</v>
@@ -4235,16 +4235,16 @@
         <v>45041</v>
       </c>
       <c r="B146" t="n">
-        <v>163.1414171515646</v>
+        <v>163.1413863693782</v>
       </c>
       <c r="C146" t="n">
-        <v>164.2475227749096</v>
+        <v>164.2474917840186</v>
       </c>
       <c r="D146" t="n">
-        <v>161.6995165472252</v>
+        <v>161.6994860371025</v>
       </c>
       <c r="E146" t="n">
-        <v>161.7390289306641</v>
+        <v>161.7389984130859</v>
       </c>
       <c r="F146" t="n">
         <v>48714100</v>
@@ -4261,16 +4261,16 @@
         <v>45042</v>
       </c>
       <c r="B147" t="n">
-        <v>161.0378252295865</v>
+        <v>161.0378100360216</v>
       </c>
       <c r="C147" t="n">
-        <v>163.2302953261262</v>
+        <v>163.2302799257066</v>
       </c>
       <c r="D147" t="n">
-        <v>160.7810550187477</v>
+        <v>160.7810398494085</v>
       </c>
       <c r="E147" t="n">
-        <v>161.7291412353516</v>
+        <v>161.7291259765625</v>
       </c>
       <c r="F147" t="n">
         <v>45498800</v>
@@ -4287,16 +4287,16 @@
         <v>45043</v>
       </c>
       <c r="B148" t="n">
-        <v>163.1413887265841</v>
+        <v>163.1414186606658</v>
       </c>
       <c r="C148" t="n">
-        <v>166.4695906473679</v>
+        <v>166.4696211921265</v>
       </c>
       <c r="D148" t="n">
-        <v>163.1413887265841</v>
+        <v>163.1414186606658</v>
       </c>
       <c r="E148" t="n">
-        <v>166.3214569091797</v>
+        <v>166.3214874267578</v>
       </c>
       <c r="F148" t="n">
         <v>64902300</v>
@@ -4313,16 +4313,16 @@
         <v>45044</v>
       </c>
       <c r="B149" t="n">
-        <v>166.4004693478227</v>
+        <v>166.4004844995999</v>
       </c>
       <c r="C149" t="n">
-        <v>167.7436038513408</v>
+        <v>167.7436191254186</v>
       </c>
       <c r="D149" t="n">
-        <v>165.7980336866221</v>
+        <v>165.7980487835439</v>
       </c>
       <c r="E149" t="n">
-        <v>167.5756988525391</v>
+        <v>167.5757141113281</v>
       </c>
       <c r="F149" t="n">
         <v>55275900</v>
@@ -4339,16 +4339,16 @@
         <v>45047</v>
       </c>
       <c r="B150" t="n">
-        <v>167.1807089926042</v>
+        <v>167.1806785308099</v>
       </c>
       <c r="C150" t="n">
-        <v>168.3361976788922</v>
+        <v>168.3361670065577</v>
       </c>
       <c r="D150" t="n">
-        <v>166.548646418834</v>
+        <v>166.548616072207</v>
       </c>
       <c r="E150" t="n">
-        <v>167.4868621826172</v>
+        <v>167.4868316650391</v>
       </c>
       <c r="F150" t="n">
         <v>52472900</v>
@@ -4417,16 +4417,16 @@
         <v>45050</v>
       </c>
       <c r="B153" t="n">
-        <v>162.8451151367803</v>
+        <v>162.8451303127368</v>
       </c>
       <c r="C153" t="n">
-        <v>164.9684458718907</v>
+        <v>164.9684612457258</v>
       </c>
       <c r="D153" t="n">
-        <v>162.2723062016887</v>
+        <v>162.2723213242636</v>
       </c>
       <c r="E153" t="n">
-        <v>163.7339477539062</v>
+        <v>163.7339630126953</v>
       </c>
       <c r="F153" t="n">
         <v>81235400</v>
@@ -4443,16 +4443,16 @@
         <v>45051</v>
       </c>
       <c r="B154" t="n">
-        <v>168.8595738460577</v>
+        <v>168.85961893935</v>
       </c>
       <c r="C154" t="n">
-        <v>172.1384078379986</v>
+        <v>172.1384538068908</v>
       </c>
       <c r="D154" t="n">
-        <v>168.642300987818</v>
+        <v>168.6423460230884</v>
       </c>
       <c r="E154" t="n">
-        <v>171.4174652099609</v>
+        <v>171.4175109863281</v>
       </c>
       <c r="F154" t="n">
         <v>113453200</v>
@@ -4573,16 +4573,16 @@
         <v>45058</v>
       </c>
       <c r="B159" t="n">
-        <v>171.7040195971583</v>
+        <v>171.7040349487881</v>
       </c>
       <c r="C159" t="n">
-        <v>172.1391664117347</v>
+        <v>172.1391818022699</v>
       </c>
       <c r="D159" t="n">
-        <v>169.1129373163278</v>
+        <v>169.1129524362954</v>
       </c>
       <c r="E159" t="n">
-        <v>170.6656188964844</v>
+        <v>170.6656341552734</v>
       </c>
       <c r="F159" t="n">
         <v>45533100</v>
@@ -4651,16 +4651,16 @@
         <v>45063</v>
       </c>
       <c r="B162" t="n">
-        <v>169.8151054883472</v>
+        <v>169.8151206605444</v>
       </c>
       <c r="C162" t="n">
-        <v>171.0216283275313</v>
+        <v>171.0216436075257</v>
       </c>
       <c r="D162" t="n">
-        <v>168.5393327985131</v>
+        <v>168.5393478567259</v>
       </c>
       <c r="E162" t="n">
-        <v>170.7842864990234</v>
+        <v>170.7843017578125</v>
       </c>
       <c r="F162" t="n">
         <v>57951600</v>
@@ -4677,16 +4677,16 @@
         <v>45064</v>
       </c>
       <c r="B163" t="n">
-        <v>171.0908751745652</v>
+        <v>171.0908902546592</v>
       </c>
       <c r="C163" t="n">
-        <v>173.3061613030118</v>
+        <v>173.3061765783631</v>
       </c>
       <c r="D163" t="n">
-        <v>170.6755118549318</v>
+        <v>170.6755268984154</v>
       </c>
       <c r="E163" t="n">
-        <v>173.1182556152344</v>
+        <v>173.1182708740234</v>
       </c>
       <c r="F163" t="n">
         <v>65496700</v>
@@ -4703,16 +4703,16 @@
         <v>45065</v>
       </c>
       <c r="B164" t="n">
-        <v>174.4434577029371</v>
+        <v>174.4434730688754</v>
       </c>
       <c r="C164" t="n">
-        <v>174.4434577029371</v>
+        <v>174.4434730688754</v>
       </c>
       <c r="D164" t="n">
-        <v>173.0094621125674</v>
+        <v>173.0094773521914</v>
       </c>
       <c r="E164" t="n">
-        <v>173.2270355224609</v>
+        <v>173.22705078125</v>
       </c>
       <c r="F164" t="n">
         <v>55809500</v>
@@ -4729,16 +4729,16 @@
         <v>45068</v>
       </c>
       <c r="B165" t="n">
-        <v>172.0600450039918</v>
+        <v>172.0600602435102</v>
       </c>
       <c r="C165" t="n">
-        <v>172.781999977239</v>
+        <v>172.7820152807016</v>
       </c>
       <c r="D165" t="n">
-        <v>171.5358950094103</v>
+        <v>171.5359102025042</v>
       </c>
       <c r="E165" t="n">
-        <v>172.2776184082031</v>
+        <v>172.2776336669922</v>
       </c>
       <c r="F165" t="n">
         <v>43570900</v>
@@ -4755,16 +4755,16 @@
         <v>45069</v>
       </c>
       <c r="B166" t="n">
-        <v>171.2194603598222</v>
+        <v>171.2194449613945</v>
       </c>
       <c r="C166" t="n">
-        <v>171.4667015305189</v>
+        <v>171.4666861098558</v>
       </c>
       <c r="D166" t="n">
-        <v>169.3898696605051</v>
+        <v>169.3898544266195</v>
       </c>
       <c r="E166" t="n">
-        <v>169.6667785644531</v>
+        <v>169.6667633056641</v>
       </c>
       <c r="F166" t="n">
         <v>50747300</v>
@@ -4781,16 +4781,16 @@
         <v>45070</v>
       </c>
       <c r="B167" t="n">
-        <v>169.2019411387156</v>
+        <v>169.2019563309073</v>
       </c>
       <c r="C167" t="n">
-        <v>170.5172658002935</v>
+        <v>170.5172811105847</v>
       </c>
       <c r="D167" t="n">
-        <v>168.6382391925545</v>
+        <v>168.6382543341329</v>
       </c>
       <c r="E167" t="n">
-        <v>169.9436645507812</v>
+        <v>169.9436798095703</v>
       </c>
       <c r="F167" t="n">
         <v>45143500</v>
@@ -4833,16 +4833,16 @@
         <v>45072</v>
       </c>
       <c r="B169" t="n">
-        <v>171.4073482946951</v>
+        <v>171.4073332194312</v>
       </c>
       <c r="C169" t="n">
-        <v>173.8303084982607</v>
+        <v>173.8302932098977</v>
       </c>
       <c r="D169" t="n">
-        <v>171.1996590930629</v>
+        <v>171.1996440360653</v>
       </c>
       <c r="E169" t="n">
-        <v>173.4940490722656</v>
+        <v>173.4940338134766</v>
       </c>
       <c r="F169" t="n">
         <v>54835000</v>
@@ -4859,16 +4859,16 @@
         <v>45076</v>
       </c>
       <c r="B170" t="n">
-        <v>175.0071852174359</v>
+        <v>175.0072004469642</v>
       </c>
       <c r="C170" t="n">
-        <v>177.0147821821785</v>
+        <v>177.0147975864125</v>
       </c>
       <c r="D170" t="n">
-        <v>174.6214896205249</v>
+        <v>174.6215048164891</v>
       </c>
       <c r="E170" t="n">
-        <v>175.3434295654297</v>
+        <v>175.3434448242188</v>
       </c>
       <c r="F170" t="n">
         <v>55964400</v>
@@ -4885,16 +4885,16 @@
         <v>45077</v>
       </c>
       <c r="B171" t="n">
-        <v>175.3731100748192</v>
+        <v>175.3730948091431</v>
       </c>
       <c r="C171" t="n">
-        <v>177.3708229714976</v>
+        <v>177.3708075319269</v>
       </c>
       <c r="D171" t="n">
-        <v>174.8093929588125</v>
+        <v>174.8093777422062</v>
       </c>
       <c r="E171" t="n">
-        <v>175.2939910888672</v>
+        <v>175.2939758300781</v>
       </c>
       <c r="F171" t="n">
         <v>99625300</v>
@@ -4911,16 +4911,16 @@
         <v>45078</v>
       </c>
       <c r="B172" t="n">
-        <v>175.7390208887964</v>
+        <v>175.7390058325088</v>
       </c>
       <c r="C172" t="n">
-        <v>178.1323136072369</v>
+        <v>178.1322983459061</v>
       </c>
       <c r="D172" t="n">
-        <v>174.9775138587097</v>
+        <v>174.9774988676636</v>
       </c>
       <c r="E172" t="n">
-        <v>178.1026458740234</v>
+        <v>178.1026306152344</v>
       </c>
       <c r="F172" t="n">
         <v>68901800</v>
@@ -4937,16 +4937,16 @@
         <v>45079</v>
       </c>
       <c r="B173" t="n">
-        <v>179.0322745026893</v>
+        <v>179.032259237154</v>
       </c>
       <c r="C173" t="n">
-        <v>179.773998011403</v>
+        <v>179.7739826826232</v>
       </c>
       <c r="D173" t="n">
-        <v>177.281802796812</v>
+        <v>177.2817876805341</v>
       </c>
       <c r="E173" t="n">
-        <v>178.9531555175781</v>
+        <v>178.9531402587891</v>
       </c>
       <c r="F173" t="n">
         <v>61996900</v>
@@ -4963,16 +4963,16 @@
         <v>45082</v>
       </c>
       <c r="B174" t="n">
-        <v>180.6145806464071</v>
+        <v>180.6146116822985</v>
       </c>
       <c r="C174" t="n">
-        <v>182.9089703019812</v>
+        <v>182.9090017321289</v>
       </c>
       <c r="D174" t="n">
-        <v>176.0752223945776</v>
+        <v>176.0752526504488</v>
       </c>
       <c r="E174" t="n">
-        <v>177.5982360839844</v>
+        <v>177.5982666015625</v>
       </c>
       <c r="F174" t="n">
         <v>121946500</v>
@@ -5041,16 +5041,16 @@
         <v>45085</v>
       </c>
       <c r="B177" t="n">
-        <v>175.936798014529</v>
+        <v>175.9367829813652</v>
       </c>
       <c r="C177" t="n">
-        <v>178.8443563812644</v>
+        <v>178.8443410996604</v>
       </c>
       <c r="D177" t="n">
-        <v>175.5016662622359</v>
+        <v>175.5016512662526</v>
       </c>
       <c r="E177" t="n">
-        <v>178.5773468017578</v>
+        <v>178.5773315429688</v>
       </c>
       <c r="F177" t="n">
         <v>50214900</v>
@@ -5067,16 +5067,16 @@
         <v>45086</v>
       </c>
       <c r="B178" t="n">
-        <v>179.4970621604222</v>
+        <v>179.4970468561002</v>
       </c>
       <c r="C178" t="n">
-        <v>180.2190020418708</v>
+        <v>180.2189866759946</v>
       </c>
       <c r="D178" t="n">
-        <v>178.6366678484163</v>
+        <v>178.6366526174534</v>
       </c>
       <c r="E178" t="n">
-        <v>178.9630279541016</v>
+        <v>178.9630126953125</v>
       </c>
       <c r="F178" t="n">
         <v>48900000</v>
@@ -5093,16 +5093,16 @@
         <v>45089</v>
       </c>
       <c r="B179" t="n">
-        <v>179.2696000969458</v>
+        <v>179.2696151465179</v>
       </c>
       <c r="C179" t="n">
-        <v>181.8606822718443</v>
+        <v>181.8606975389362</v>
       </c>
       <c r="D179" t="n">
-        <v>178.9729077272824</v>
+        <v>178.9729227519474</v>
       </c>
       <c r="E179" t="n">
-        <v>181.7617797851562</v>
+        <v>181.7617950439453</v>
       </c>
       <c r="F179" t="n">
         <v>54274900</v>
@@ -5171,16 +5171,16 @@
         <v>45092</v>
       </c>
       <c r="B182" t="n">
-        <v>181.9299253927313</v>
+        <v>181.9299404833556</v>
       </c>
       <c r="C182" t="n">
-        <v>184.4616722281451</v>
+        <v>184.4616875287714</v>
       </c>
       <c r="D182" t="n">
-        <v>181.7519039265905</v>
+        <v>181.7519190024484</v>
       </c>
       <c r="E182" t="n">
-        <v>183.9572906494141</v>
+        <v>183.9573059082031</v>
       </c>
       <c r="F182" t="n">
         <v>65433200</v>
@@ -5223,16 +5223,16 @@
         <v>45097</v>
       </c>
       <c r="B184" t="n">
-        <v>182.3749682978587</v>
+        <v>182.3749835071632</v>
       </c>
       <c r="C184" t="n">
-        <v>184.0463209118931</v>
+        <v>184.0463362605814</v>
       </c>
       <c r="D184" t="n">
-        <v>182.3749682978587</v>
+        <v>182.3749835071632</v>
       </c>
       <c r="E184" t="n">
-        <v>182.9683380126953</v>
+        <v>182.9683532714844</v>
       </c>
       <c r="F184" t="n">
         <v>49799100</v>
@@ -5249,16 +5249,16 @@
         <v>45098</v>
       </c>
       <c r="B185" t="n">
-        <v>182.859530337545</v>
+        <v>182.8595456743025</v>
       </c>
       <c r="C185" t="n">
-        <v>183.3639118912943</v>
+        <v>183.3639272703552</v>
       </c>
       <c r="D185" t="n">
-        <v>180.575024752965</v>
+        <v>180.5750398981168</v>
       </c>
       <c r="E185" t="n">
-        <v>181.9299163818359</v>
+        <v>181.929931640625</v>
       </c>
       <c r="F185" t="n">
         <v>49515700</v>
@@ -5301,16 +5301,16 @@
         <v>45100</v>
       </c>
       <c r="B187" t="n">
-        <v>183.5023686658594</v>
+        <v>183.5023838322858</v>
       </c>
       <c r="C187" t="n">
-        <v>185.4901819072684</v>
+        <v>185.490197237987</v>
       </c>
       <c r="D187" t="n">
-        <v>182.9683193774565</v>
+        <v>182.9683344997437</v>
       </c>
       <c r="E187" t="n">
-        <v>184.6198883056641</v>
+        <v>184.6199035644531</v>
       </c>
       <c r="F187" t="n">
         <v>53117000</v>
@@ -5327,16 +5327,16 @@
         <v>45103</v>
       </c>
       <c r="B188" t="n">
-        <v>184.7682461293646</v>
+        <v>184.7682307420945</v>
       </c>
       <c r="C188" t="n">
-        <v>185.974784070893</v>
+        <v>185.974768583144</v>
       </c>
       <c r="D188" t="n">
-        <v>183.1858968351105</v>
+        <v>183.1858815796165</v>
       </c>
       <c r="E188" t="n">
-        <v>183.2254638671875</v>
+        <v>183.2254486083984</v>
       </c>
       <c r="F188" t="n">
         <v>48088700</v>
@@ -5405,16 +5405,16 @@
         <v>45106</v>
       </c>
       <c r="B191" t="n">
-        <v>186.9934209820816</v>
+        <v>186.9934514175679</v>
       </c>
       <c r="C191" t="n">
-        <v>187.9725013298976</v>
+        <v>187.9725319247413</v>
       </c>
       <c r="D191" t="n">
-        <v>186.8549665471744</v>
+        <v>186.8549969601255</v>
       </c>
       <c r="E191" t="n">
-        <v>187.4977874755859</v>
+        <v>187.4978179931641</v>
       </c>
       <c r="F191" t="n">
         <v>46347300</v>
@@ -5431,16 +5431,16 @@
         <v>45107</v>
       </c>
       <c r="B192" t="n">
-        <v>189.5152941936858</v>
+        <v>189.5153092683974</v>
       </c>
       <c r="C192" t="n">
-        <v>192.3338342950544</v>
+        <v>192.3338495939626</v>
       </c>
       <c r="D192" t="n">
-        <v>189.1493670242908</v>
+        <v>189.1493820698953</v>
       </c>
       <c r="E192" t="n">
-        <v>191.8294677734375</v>
+        <v>191.8294830322266</v>
       </c>
       <c r="F192" t="n">
         <v>85213200</v>
@@ -5457,16 +5457,16 @@
         <v>45110</v>
       </c>
       <c r="B193" t="n">
-        <v>191.6415766685233</v>
+        <v>191.6415613050814</v>
       </c>
       <c r="C193" t="n">
-        <v>191.7404791738125</v>
+        <v>191.7404638024418</v>
       </c>
       <c r="D193" t="n">
-        <v>189.6438637668297</v>
+        <v>189.6438485635397</v>
       </c>
       <c r="E193" t="n">
-        <v>190.3361511230469</v>
+        <v>190.3361358642578</v>
       </c>
       <c r="F193" t="n">
         <v>31458200</v>
@@ -5483,16 +5483,16 @@
         <v>45112</v>
       </c>
       <c r="B194" t="n">
-        <v>189.455984902862</v>
+        <v>189.4559543470025</v>
       </c>
       <c r="C194" t="n">
-        <v>190.8504137353492</v>
+        <v>190.8503829545932</v>
       </c>
       <c r="D194" t="n">
-        <v>188.5164563155491</v>
+        <v>188.5164259112187</v>
       </c>
       <c r="E194" t="n">
-        <v>189.2186279296875</v>
+        <v>189.2185974121094</v>
       </c>
       <c r="F194" t="n">
         <v>46920300</v>
@@ -5509,16 +5509,16 @@
         <v>45113</v>
       </c>
       <c r="B195" t="n">
-        <v>187.7450519641767</v>
+        <v>187.7450368621044</v>
       </c>
       <c r="C195" t="n">
-        <v>189.9010028220231</v>
+        <v>189.9009875465276</v>
       </c>
       <c r="D195" t="n">
-        <v>187.1121151701161</v>
+        <v>187.1121001189567</v>
       </c>
       <c r="E195" t="n">
-        <v>189.6933135986328</v>
+        <v>189.6932983398438</v>
       </c>
       <c r="F195" t="n">
         <v>45094300</v>
@@ -5535,16 +5535,16 @@
         <v>45114</v>
       </c>
       <c r="B196" t="n">
-        <v>189.2976995828703</v>
+        <v>189.297714900077</v>
       </c>
       <c r="C196" t="n">
-        <v>190.5437894270152</v>
+        <v>190.5438048450505</v>
       </c>
       <c r="D196" t="n">
-        <v>188.140612922507</v>
+        <v>188.140628146087</v>
       </c>
       <c r="E196" t="n">
-        <v>188.5757446289062</v>
+        <v>188.5757598876953</v>
       </c>
       <c r="F196" t="n">
         <v>46815000</v>
@@ -5561,16 +5561,16 @@
         <v>45117</v>
       </c>
       <c r="B197" t="n">
-        <v>187.1714617937421</v>
+        <v>187.1714158596189</v>
       </c>
       <c r="C197" t="n">
-        <v>187.8934169210926</v>
+        <v>187.8933708097929</v>
       </c>
       <c r="D197" t="n">
-        <v>184.9759588574474</v>
+        <v>184.9759134621269</v>
       </c>
       <c r="E197" t="n">
-        <v>186.5286407470703</v>
+        <v>186.5285949707031</v>
       </c>
       <c r="F197" t="n">
         <v>59922200</v>
@@ -5587,16 +5587,16 @@
         <v>45118</v>
       </c>
       <c r="B198" t="n">
-        <v>187.0725697909142</v>
+        <v>187.0725544445054</v>
       </c>
       <c r="C198" t="n">
-        <v>187.2110242479012</v>
+        <v>187.2110088901344</v>
       </c>
       <c r="D198" t="n">
-        <v>184.5408225257786</v>
+        <v>184.5408073870605</v>
       </c>
       <c r="E198" t="n">
-        <v>186.0044860839844</v>
+        <v>186.0044708251953</v>
       </c>
       <c r="F198" t="n">
         <v>46638100</v>
@@ -5613,16 +5613,16 @@
         <v>45119</v>
       </c>
       <c r="B199" t="n">
-        <v>187.5867782355027</v>
+        <v>187.5867934870542</v>
       </c>
       <c r="C199" t="n">
-        <v>189.5844907414315</v>
+        <v>189.584506155405</v>
       </c>
       <c r="D199" t="n">
-        <v>186.3901396467477</v>
+        <v>186.3901548010078</v>
       </c>
       <c r="E199" t="n">
-        <v>187.6757965087891</v>
+        <v>187.6758117675781</v>
       </c>
       <c r="F199" t="n">
         <v>60750200</v>
@@ -5639,16 +5639,16 @@
         <v>45120</v>
       </c>
       <c r="B200" t="n">
-        <v>188.3977191817336</v>
+        <v>188.3977649484926</v>
       </c>
       <c r="C200" t="n">
-        <v>189.0801070357534</v>
+        <v>189.0801529682823</v>
       </c>
       <c r="D200" t="n">
-        <v>187.6856636027912</v>
+        <v>187.6857091965731</v>
       </c>
       <c r="E200" t="n">
-        <v>188.4372711181641</v>
+        <v>188.4373168945312</v>
       </c>
       <c r="F200" t="n">
         <v>41342300</v>
@@ -5665,16 +5665,16 @@
         <v>45121</v>
       </c>
       <c r="B201" t="n">
-        <v>188.1307172619815</v>
+        <v>188.1307477059412</v>
       </c>
       <c r="C201" t="n">
-        <v>189.0702305421347</v>
+        <v>189.0702611381296</v>
       </c>
       <c r="D201" t="n">
-        <v>187.5373476015485</v>
+        <v>187.5373779494871</v>
       </c>
       <c r="E201" t="n">
-        <v>188.5856475830078</v>
+        <v>188.5856781005859</v>
       </c>
       <c r="F201" t="n">
         <v>41616200</v>
@@ -5691,16 +5691,16 @@
         <v>45124</v>
       </c>
       <c r="B202" t="n">
-        <v>189.7823108298618</v>
+        <v>189.7822957354681</v>
       </c>
       <c r="C202" t="n">
-        <v>192.1756185691131</v>
+        <v>192.1756032843669</v>
       </c>
       <c r="D202" t="n">
-        <v>189.6933076328095</v>
+        <v>189.6932925454947</v>
       </c>
       <c r="E202" t="n">
-        <v>191.8492584228516</v>
+        <v>191.8492431640625</v>
       </c>
       <c r="F202" t="n">
         <v>50520200</v>
@@ -5743,16 +5743,16 @@
         <v>45126</v>
       </c>
       <c r="B204" t="n">
-        <v>190.9690467518638</v>
+        <v>190.9690769566016</v>
       </c>
       <c r="C204" t="n">
-        <v>196.0424242629009</v>
+        <v>196.0424552700726</v>
       </c>
       <c r="D204" t="n">
-        <v>190.5240006644111</v>
+        <v>190.5240307987579</v>
       </c>
       <c r="E204" t="n">
-        <v>192.9469757080078</v>
+        <v>192.9470062255859</v>
       </c>
       <c r="F204" t="n">
         <v>80507300</v>
@@ -5769,16 +5769,16 @@
         <v>45127</v>
       </c>
       <c r="B205" t="n">
-        <v>192.9370956401489</v>
+        <v>192.9371110537927</v>
       </c>
       <c r="C205" t="n">
-        <v>194.3018715848771</v>
+        <v>194.3018871075521</v>
       </c>
       <c r="D205" t="n">
-        <v>190.3756810082794</v>
+        <v>190.3756962172931</v>
       </c>
       <c r="E205" t="n">
-        <v>190.9987335205078</v>
+        <v>190.9987487792969</v>
       </c>
       <c r="F205" t="n">
         <v>59581200</v>
@@ -5795,16 +5795,16 @@
         <v>45128</v>
       </c>
       <c r="B206" t="n">
-        <v>191.9580206367083</v>
+        <v>191.9580360672127</v>
       </c>
       <c r="C206" t="n">
-        <v>192.8184149458659</v>
+        <v>192.8184304455329</v>
       </c>
       <c r="D206" t="n">
-        <v>189.1196821840786</v>
+        <v>189.1196973864238</v>
       </c>
       <c r="E206" t="n">
-        <v>189.8218536376953</v>
+        <v>189.8218688964844</v>
       </c>
       <c r="F206" t="n">
         <v>71951700</v>
@@ -5821,16 +5821,16 @@
         <v>45131</v>
       </c>
       <c r="B207" t="n">
-        <v>191.2756603671028</v>
+        <v>191.2756297450281</v>
       </c>
       <c r="C207" t="n">
-        <v>192.7591073714878</v>
+        <v>192.7590765119222</v>
       </c>
       <c r="D207" t="n">
-        <v>190.1284577286816</v>
+        <v>190.1284272902671</v>
       </c>
       <c r="E207" t="n">
-        <v>190.6229400634766</v>
+        <v>190.6229095458984</v>
       </c>
       <c r="F207" t="n">
         <v>45377800</v>
@@ -5847,16 +5847,16 @@
         <v>45132</v>
       </c>
       <c r="B208" t="n">
-        <v>191.1965290476535</v>
+        <v>191.1965442835888</v>
       </c>
       <c r="C208" t="n">
-        <v>192.2942803636932</v>
+        <v>192.2942956871053</v>
       </c>
       <c r="D208" t="n">
-        <v>190.7910499375842</v>
+        <v>190.791065141208</v>
       </c>
       <c r="E208" t="n">
-        <v>191.4833221435547</v>
+        <v>191.4833374023438</v>
       </c>
       <c r="F208" t="n">
         <v>37283200</v>
@@ -5873,16 +5873,16 @@
         <v>45133</v>
       </c>
       <c r="B209" t="n">
-        <v>191.5327647809863</v>
+        <v>191.5327799746606</v>
       </c>
       <c r="C209" t="n">
-        <v>193.4810261740289</v>
+        <v>193.4810415222525</v>
       </c>
       <c r="D209" t="n">
-        <v>191.1866362387635</v>
+        <v>191.1866514049806</v>
       </c>
       <c r="E209" t="n">
-        <v>192.3536071777344</v>
+        <v>192.3536224365234</v>
       </c>
       <c r="F209" t="n">
         <v>47471900</v>
@@ -5899,16 +5899,16 @@
         <v>45134</v>
       </c>
       <c r="B210" t="n">
-        <v>193.8568573689851</v>
+        <v>193.8568264091685</v>
       </c>
       <c r="C210" t="n">
-        <v>195.0238284273441</v>
+        <v>195.023797281157</v>
       </c>
       <c r="D210" t="n">
-        <v>190.4251487828704</v>
+        <v>190.4251183711132</v>
       </c>
       <c r="E210" t="n">
-        <v>191.0877532958984</v>
+        <v>191.0877227783203</v>
       </c>
       <c r="F210" t="n">
         <v>47460200</v>
@@ -5925,16 +5925,16 @@
         <v>45135</v>
       </c>
       <c r="B211" t="n">
-        <v>192.5217275515483</v>
+        <v>192.5217427199515</v>
       </c>
       <c r="C211" t="n">
-        <v>194.4601047134921</v>
+        <v>194.4601200346163</v>
       </c>
       <c r="D211" t="n">
-        <v>191.9975775461535</v>
+        <v>191.99759267326</v>
       </c>
       <c r="E211" t="n">
-        <v>193.6689300537109</v>
+        <v>193.6689453125</v>
       </c>
       <c r="F211" t="n">
         <v>48291400</v>
@@ -5977,16 +5977,16 @@
         <v>45139</v>
       </c>
       <c r="B213" t="n">
-        <v>194.074422779809</v>
+        <v>194.0744074718757</v>
       </c>
       <c r="C213" t="n">
-        <v>194.5590057865465</v>
+        <v>194.5589904403909</v>
       </c>
       <c r="D213" t="n">
-        <v>193.125010103274</v>
+        <v>193.1249948702271</v>
       </c>
       <c r="E213" t="n">
-        <v>193.4513702392578</v>
+        <v>193.4513549804688</v>
       </c>
       <c r="F213" t="n">
         <v>35175100</v>
@@ -6003,16 +6003,16 @@
         <v>45140</v>
       </c>
       <c r="B214" t="n">
-        <v>192.8876633729466</v>
+        <v>192.887632465541</v>
       </c>
       <c r="C214" t="n">
-        <v>193.0261178236875</v>
+        <v>193.0260868940966</v>
       </c>
       <c r="D214" t="n">
-        <v>189.7328787388947</v>
+        <v>189.7328483369969</v>
       </c>
       <c r="E214" t="n">
-        <v>190.4548187255859</v>
+        <v>190.4547882080078</v>
       </c>
       <c r="F214" t="n">
         <v>50389300</v>
@@ -6081,16 +6081,16 @@
         <v>45145</v>
       </c>
       <c r="B217" t="n">
-        <v>180.1201302461886</v>
+        <v>180.1201457848144</v>
       </c>
       <c r="C217" t="n">
-        <v>181.109094861668</v>
+        <v>181.10911048561</v>
       </c>
       <c r="D217" t="n">
-        <v>175.3928805914294</v>
+        <v>175.3928957222442</v>
       </c>
       <c r="E217" t="n">
-        <v>176.8763275146484</v>
+        <v>176.8763427734375</v>
       </c>
       <c r="F217" t="n">
         <v>97576100</v>
@@ -6107,16 +6107,16 @@
         <v>45146</v>
       </c>
       <c r="B218" t="n">
-        <v>177.7070549630004</v>
+        <v>177.7070397135465</v>
       </c>
       <c r="C218" t="n">
-        <v>178.2806562533865</v>
+        <v>178.2806409547106</v>
       </c>
       <c r="D218" t="n">
-        <v>175.6203390114105</v>
+        <v>175.6203239410226</v>
       </c>
       <c r="E218" t="n">
-        <v>177.8158416748047</v>
+        <v>177.8158264160156</v>
       </c>
       <c r="F218" t="n">
         <v>67823000</v>
@@ -6133,16 +6133,16 @@
         <v>45147</v>
       </c>
       <c r="B219" t="n">
-        <v>178.8740201465377</v>
+        <v>178.8740356348203</v>
       </c>
       <c r="C219" t="n">
-        <v>178.9333556073348</v>
+        <v>178.9333711007551</v>
       </c>
       <c r="D219" t="n">
-        <v>175.0566162344388</v>
+        <v>175.0566313921813</v>
       </c>
       <c r="E219" t="n">
-        <v>176.2236022949219</v>
+        <v>176.2236175537109</v>
       </c>
       <c r="F219" t="n">
         <v>60378500</v>
@@ -6159,16 +6159,16 @@
         <v>45148</v>
       </c>
       <c r="B220" t="n">
-        <v>177.4993583024902</v>
+        <v>177.4993736907431</v>
       </c>
       <c r="C220" t="n">
-        <v>178.7553475423464</v>
+        <v>178.755363039487</v>
       </c>
       <c r="D220" t="n">
-        <v>175.6401151566074</v>
+        <v>175.6401303836738</v>
       </c>
       <c r="E220" t="n">
-        <v>176.0060272216797</v>
+        <v>176.0060424804688</v>
       </c>
       <c r="F220" t="n">
         <v>54686900</v>
@@ -6185,16 +6185,16 @@
         <v>45149</v>
       </c>
       <c r="B221" t="n">
-        <v>175.6000025911711</v>
+        <v>175.6000178096238</v>
       </c>
       <c r="C221" t="n">
-        <v>176.8873804976947</v>
+        <v>176.8873958277185</v>
       </c>
       <c r="D221" t="n">
-        <v>174.8374673630278</v>
+        <v>174.837482515395</v>
       </c>
       <c r="E221" t="n">
-        <v>176.0654296875</v>
+        <v>176.0654449462891</v>
       </c>
       <c r="F221" t="n">
         <v>52036700</v>
@@ -6237,16 +6237,16 @@
         <v>45153</v>
       </c>
       <c r="B223" t="n">
-        <v>177.1448814654077</v>
+        <v>177.1448660836534</v>
       </c>
       <c r="C223" t="n">
-        <v>177.7390524413032</v>
+        <v>177.7390370079561</v>
       </c>
       <c r="D223" t="n">
-        <v>175.3326305229056</v>
+        <v>175.3326152985117</v>
       </c>
       <c r="E223" t="n">
-        <v>175.7287445068359</v>
+        <v>175.7287292480469</v>
       </c>
       <c r="F223" t="n">
         <v>43622600</v>
@@ -6315,16 +6315,16 @@
         <v>45156</v>
       </c>
       <c r="B226" t="n">
-        <v>170.6287255207675</v>
+        <v>170.6286953862117</v>
       </c>
       <c r="C226" t="n">
-        <v>173.4015690710498</v>
+        <v>173.4015384467851</v>
       </c>
       <c r="D226" t="n">
-        <v>170.2920270832255</v>
+        <v>170.2919970081336</v>
       </c>
       <c r="E226" t="n">
-        <v>172.7974853515625</v>
+        <v>172.7974548339844</v>
       </c>
       <c r="F226" t="n">
         <v>61172200</v>
@@ -6393,16 +6393,16 @@
         <v>45161</v>
       </c>
       <c r="B229" t="n">
-        <v>176.7883577644994</v>
+        <v>176.7883728042474</v>
       </c>
       <c r="C229" t="n">
-        <v>179.7889655137731</v>
+        <v>179.788980808789</v>
       </c>
       <c r="D229" t="n">
-        <v>176.6001983493999</v>
+        <v>176.6002133731409</v>
       </c>
       <c r="E229" t="n">
-        <v>179.3631286621094</v>
+        <v>179.3631439208984</v>
       </c>
       <c r="F229" t="n">
         <v>52722800</v>
@@ -6445,16 +6445,16 @@
         <v>45163</v>
       </c>
       <c r="B231" t="n">
-        <v>175.6594526964133</v>
+        <v>175.6594223889941</v>
       </c>
       <c r="C231" t="n">
-        <v>177.4122731545347</v>
+        <v>177.4122425446925</v>
       </c>
       <c r="D231" t="n">
-        <v>174.1145868163421</v>
+        <v>174.1145567754665</v>
       </c>
       <c r="E231" t="n">
-        <v>176.8775177001953</v>
+        <v>176.8774871826172</v>
       </c>
       <c r="F231" t="n">
         <v>51449600</v>
@@ -6523,16 +6523,16 @@
         <v>45168</v>
       </c>
       <c r="B234" t="n">
-        <v>183.1460987192674</v>
+        <v>183.1461137576931</v>
       </c>
       <c r="C234" t="n">
-        <v>186.027875570887</v>
+        <v>186.0278908459401</v>
       </c>
       <c r="D234" t="n">
-        <v>182.9480417259573</v>
+        <v>182.9480567481202</v>
       </c>
       <c r="E234" t="n">
-        <v>185.8298034667969</v>
+        <v>185.8298187255859</v>
       </c>
       <c r="F234" t="n">
         <v>60813900</v>
@@ -6549,16 +6549,16 @@
         <v>45169</v>
       </c>
       <c r="B235" t="n">
-        <v>186.0179606639307</v>
+        <v>186.0179454075781</v>
       </c>
       <c r="C235" t="n">
-        <v>187.2855435388197</v>
+        <v>187.2855281785057</v>
       </c>
       <c r="D235" t="n">
-        <v>185.6614520359444</v>
+        <v>185.6614368088311</v>
       </c>
       <c r="E235" t="n">
-        <v>186.0476684570312</v>
+        <v>186.0476531982422</v>
       </c>
       <c r="F235" t="n">
         <v>60794500</v>
@@ -6575,16 +6575,16 @@
         <v>45170</v>
       </c>
       <c r="B236" t="n">
-        <v>187.6519764717001</v>
+        <v>187.6519459492898</v>
       </c>
       <c r="C236" t="n">
-        <v>188.0777982730595</v>
+        <v>188.0777676813875</v>
       </c>
       <c r="D236" t="n">
-        <v>186.4537066694999</v>
+        <v>186.4536763419935</v>
       </c>
       <c r="E236" t="n">
-        <v>187.6222686767578</v>
+        <v>187.6222381591797</v>
       </c>
       <c r="F236" t="n">
         <v>45766500</v>
@@ -6653,16 +6653,16 @@
         <v>45176</v>
       </c>
       <c r="B239" t="n">
-        <v>173.4807730676962</v>
+        <v>173.4807429591741</v>
       </c>
       <c r="C239" t="n">
-        <v>176.4813964248736</v>
+        <v>176.4813657955772</v>
       </c>
       <c r="D239" t="n">
-        <v>171.8566814257167</v>
+        <v>171.8566515990645</v>
       </c>
       <c r="E239" t="n">
-        <v>175.8376922607422</v>
+        <v>175.8376617431641</v>
       </c>
       <c r="F239" t="n">
         <v>112488800</v>
@@ -6705,16 +6705,16 @@
         <v>45180</v>
       </c>
       <c r="B241" t="n">
-        <v>178.3233590278983</v>
+        <v>178.3233437087065</v>
       </c>
       <c r="C241" t="n">
-        <v>178.5511238361875</v>
+        <v>178.5511084974291</v>
       </c>
       <c r="D241" t="n">
-        <v>175.6198286815672</v>
+        <v>175.619813594627</v>
       </c>
       <c r="E241" t="n">
-        <v>177.6202392578125</v>
+        <v>177.6202239990234</v>
       </c>
       <c r="F241" t="n">
         <v>58953100</v>
@@ -6757,16 +6757,16 @@
         <v>45182</v>
       </c>
       <c r="B243" t="n">
-        <v>174.7978500631327</v>
+        <v>174.7978655233742</v>
       </c>
       <c r="C243" t="n">
-        <v>175.5801955363716</v>
+        <v>175.5802110658088</v>
       </c>
       <c r="D243" t="n">
-        <v>172.2923922361182</v>
+        <v>172.2924074747609</v>
       </c>
       <c r="E243" t="n">
-        <v>172.5201721191406</v>
+        <v>172.5201873779297</v>
       </c>
       <c r="F243" t="n">
         <v>84267900</v>
@@ -6783,16 +6783,16 @@
         <v>45183</v>
       </c>
       <c r="B244" t="n">
-        <v>172.3122269053233</v>
+        <v>172.3121966899004</v>
       </c>
       <c r="C244" t="n">
-        <v>174.3918632743552</v>
+        <v>174.3918326942623</v>
       </c>
       <c r="D244" t="n">
-        <v>171.8963026536732</v>
+        <v>171.8962725111838</v>
       </c>
       <c r="E244" t="n">
-        <v>174.0353546142578</v>
+        <v>174.0353240966797</v>
       </c>
       <c r="F244" t="n">
         <v>60895800</v>
@@ -6835,16 +6835,16 @@
         <v>45187</v>
       </c>
       <c r="B246" t="n">
-        <v>174.7681456307464</v>
+        <v>174.7681758928244</v>
       </c>
       <c r="C246" t="n">
-        <v>177.6400247935372</v>
+        <v>177.6400555528971</v>
       </c>
       <c r="D246" t="n">
-        <v>174.4611550381745</v>
+        <v>174.4611852470954</v>
       </c>
       <c r="E246" t="n">
-        <v>176.2436981201172</v>
+        <v>176.2437286376953</v>
       </c>
       <c r="F246" t="n">
         <v>67257600</v>
@@ -6861,16 +6861,16 @@
         <v>45188</v>
       </c>
       <c r="B247" t="n">
-        <v>175.7980702206982</v>
+        <v>175.7980853474095</v>
       </c>
       <c r="C247" t="n">
-        <v>177.8876039438666</v>
+        <v>177.8876192503737</v>
       </c>
       <c r="D247" t="n">
-        <v>175.4118538031827</v>
+        <v>175.4118688966616</v>
       </c>
       <c r="E247" t="n">
-        <v>177.3330383300781</v>
+        <v>177.3330535888672</v>
       </c>
       <c r="F247" t="n">
         <v>51826900</v>
@@ -6939,16 +6939,16 @@
         <v>45191</v>
       </c>
       <c r="B250" t="n">
-        <v>172.9756970351695</v>
+        <v>172.975727531797</v>
       </c>
       <c r="C250" t="n">
-        <v>175.3623236320706</v>
+        <v>175.3623545494743</v>
       </c>
       <c r="D250" t="n">
-        <v>172.3617158782556</v>
+        <v>172.3617462666346</v>
       </c>
       <c r="E250" t="n">
-        <v>173.0945281982422</v>
+        <v>173.0945587158203</v>
       </c>
       <c r="F250" t="n">
         <v>56725400</v>
@@ -6991,16 +6991,16 @@
         <v>45195</v>
       </c>
       <c r="B252" t="n">
-        <v>173.1242662635662</v>
+        <v>173.124281776136</v>
       </c>
       <c r="C252" t="n">
-        <v>173.500570016516</v>
+        <v>173.5005855628041</v>
       </c>
       <c r="D252" t="n">
-        <v>169.9949144018066</v>
+        <v>169.994929633975</v>
       </c>
       <c r="E252" t="n">
-        <v>170.2920074462891</v>
+        <v>170.2920227050781</v>
       </c>
       <c r="F252" t="n">
         <v>64588900</v>
@@ -7017,16 +7017,16 @@
         <v>45196</v>
       </c>
       <c r="B253" t="n">
-        <v>170.9455844100719</v>
+        <v>170.9455998649343</v>
       </c>
       <c r="C253" t="n">
-        <v>171.3615086046751</v>
+        <v>171.3615240971404</v>
       </c>
       <c r="D253" t="n">
-        <v>167.4102212005556</v>
+        <v>167.4102363357926</v>
       </c>
       <c r="E253" t="n">
-        <v>168.7768249511719</v>
+        <v>168.7768402099609</v>
       </c>
       <c r="F253" t="n">
         <v>66921800</v>
@@ -7069,16 +7069,16 @@
         <v>45198</v>
       </c>
       <c r="B255" t="n">
-        <v>170.3514112168</v>
+        <v>170.3514418787573</v>
       </c>
       <c r="C255" t="n">
-        <v>171.3912292449729</v>
+        <v>171.3912600940896</v>
       </c>
       <c r="D255" t="n">
-        <v>168.6876993495675</v>
+        <v>168.6877297120694</v>
       </c>
       <c r="E255" t="n">
-        <v>169.5492706298828</v>
+        <v>169.5493011474609</v>
       </c>
       <c r="F255" t="n">
         <v>51861100</v>
@@ -7095,16 +7095,16 @@
         <v>45201</v>
       </c>
       <c r="B256" t="n">
-        <v>169.5591933124062</v>
+        <v>169.5591782758026</v>
       </c>
       <c r="C256" t="n">
-        <v>172.6093195952649</v>
+        <v>172.6093042881744</v>
       </c>
       <c r="D256" t="n">
-        <v>169.2719978061565</v>
+        <v>169.2719827950215</v>
       </c>
       <c r="E256" t="n">
-        <v>172.0646514892578</v>
+        <v>172.0646362304688</v>
       </c>
       <c r="F256" t="n">
         <v>52164500</v>
@@ -7147,16 +7147,16 @@
         <v>45203</v>
       </c>
       <c r="B258" t="n">
-        <v>169.4304162387641</v>
+        <v>169.4304463047103</v>
       </c>
       <c r="C258" t="n">
-        <v>172.5201623839856</v>
+        <v>172.5201929982168</v>
       </c>
       <c r="D258" t="n">
-        <v>169.3115850792172</v>
+        <v>169.3116151240765</v>
       </c>
       <c r="E258" t="n">
-        <v>171.9754943847656</v>
+        <v>171.9755249023438</v>
       </c>
       <c r="F258" t="n">
         <v>53020300</v>
@@ -7173,16 +7173,16 @@
         <v>45204</v>
       </c>
       <c r="B259" t="n">
-        <v>172.1042326163229</v>
+        <v>172.1042477774046</v>
       </c>
       <c r="C259" t="n">
-        <v>173.7481342645453</v>
+        <v>173.7481495704422</v>
       </c>
       <c r="D259" t="n">
-        <v>171.0049989974247</v>
+        <v>171.0050140616722</v>
       </c>
       <c r="E259" t="n">
-        <v>173.21337890625</v>
+        <v>173.2133941650391</v>
       </c>
       <c r="F259" t="n">
         <v>48527900</v>
@@ -7225,16 +7225,16 @@
         <v>45208</v>
       </c>
       <c r="B261" t="n">
-        <v>175.0949376174271</v>
+        <v>175.0949526903719</v>
       </c>
       <c r="C261" t="n">
-        <v>177.3132150197459</v>
+        <v>177.3132302836497</v>
       </c>
       <c r="D261" t="n">
-        <v>174.0947400742437</v>
+        <v>174.094755061087</v>
       </c>
       <c r="E261" t="n">
-        <v>177.2537994384766</v>
+        <v>177.2538146972656</v>
       </c>
       <c r="F261" t="n">
         <v>42390800</v>
@@ -7251,16 +7251,16 @@
         <v>45209</v>
       </c>
       <c r="B262" t="n">
-        <v>176.3724265977179</v>
+        <v>176.3724722996704</v>
       </c>
       <c r="C262" t="n">
-        <v>177.9767076763426</v>
+        <v>177.9767537939994</v>
       </c>
       <c r="D262" t="n">
-        <v>176.2238725392073</v>
+        <v>176.2239182026662</v>
       </c>
       <c r="E262" t="n">
-        <v>176.6596069335938</v>
+        <v>176.6596527099609</v>
       </c>
       <c r="F262" t="n">
         <v>43698000</v>
@@ -7303,16 +7303,16 @@
         <v>45211</v>
       </c>
       <c r="B264" t="n">
-        <v>178.3233466007442</v>
+        <v>178.3233313959954</v>
       </c>
       <c r="C264" t="n">
-        <v>180.5713169522757</v>
+        <v>180.5713015558535</v>
       </c>
       <c r="D264" t="n">
-        <v>177.3033235938782</v>
+        <v>177.3033084761017</v>
       </c>
       <c r="E264" t="n">
-        <v>178.9571380615234</v>
+        <v>178.9571228027344</v>
       </c>
       <c r="F264" t="n">
         <v>56743100</v>
@@ -7329,16 +7329,16 @@
         <v>45212</v>
       </c>
       <c r="B265" t="n">
-        <v>179.6602366589199</v>
+        <v>179.6602521369707</v>
       </c>
       <c r="C265" t="n">
-        <v>180.1652842541005</v>
+        <v>180.165299775662</v>
       </c>
       <c r="D265" t="n">
-        <v>176.4120536422897</v>
+        <v>176.4120688405038</v>
       </c>
       <c r="E265" t="n">
-        <v>177.1151733398438</v>
+        <v>177.1151885986328</v>
       </c>
       <c r="F265" t="n">
         <v>51427100</v>
@@ -7355,16 +7355,16 @@
         <v>45215</v>
       </c>
       <c r="B266" t="n">
-        <v>175.0355274416581</v>
+        <v>175.035542532252</v>
       </c>
       <c r="C266" t="n">
-        <v>177.3429282871386</v>
+        <v>177.3429435766639</v>
       </c>
       <c r="D266" t="n">
-        <v>174.7978499984623</v>
+        <v>174.797865068565</v>
       </c>
       <c r="E266" t="n">
-        <v>176.9864196777344</v>
+        <v>176.9864349365234</v>
       </c>
       <c r="F266" t="n">
         <v>52517000</v>
@@ -7381,16 +7381,16 @@
         <v>45216</v>
       </c>
       <c r="B267" t="n">
-        <v>174.9365210517317</v>
+        <v>174.93650583601</v>
       </c>
       <c r="C267" t="n">
-        <v>176.6893566043469</v>
+        <v>176.6893412361662</v>
       </c>
       <c r="D267" t="n">
-        <v>173.1044747820688</v>
+        <v>173.1044597256959</v>
       </c>
       <c r="E267" t="n">
-        <v>175.4316711425781</v>
+        <v>175.4316558837891</v>
       </c>
       <c r="F267" t="n">
         <v>57549400</v>
@@ -7433,16 +7433,16 @@
         <v>45218</v>
       </c>
       <c r="B269" t="n">
-        <v>174.3324480012336</v>
+        <v>174.3324326920063</v>
       </c>
       <c r="C269" t="n">
-        <v>176.114991459484</v>
+        <v>176.1149759937203</v>
       </c>
       <c r="D269" t="n">
-        <v>173.49070186177</v>
+        <v>173.4906866264617</v>
       </c>
       <c r="E269" t="n">
-        <v>173.7580871582031</v>
+        <v>173.7580718994141</v>
       </c>
       <c r="F269" t="n">
         <v>59302900</v>
@@ -7485,16 +7485,16 @@
         <v>45222</v>
       </c>
       <c r="B271" t="n">
-        <v>169.2521911221772</v>
+        <v>169.2521760477281</v>
       </c>
       <c r="C271" t="n">
-        <v>172.322112318633</v>
+        <v>172.3220969707614</v>
       </c>
       <c r="D271" t="n">
-        <v>168.2816861592976</v>
+        <v>168.2816711712865</v>
       </c>
       <c r="E271" t="n">
-        <v>171.3219146728516</v>
+        <v>171.3218994140625</v>
       </c>
       <c r="F271" t="n">
         <v>55980100</v>
@@ -7511,16 +7511,16 @@
         <v>45223</v>
       </c>
       <c r="B272" t="n">
-        <v>171.3714282347356</v>
+        <v>171.3714130102576</v>
       </c>
       <c r="C272" t="n">
-        <v>171.9854094358755</v>
+        <v>171.985394156852</v>
       </c>
       <c r="D272" t="n">
-        <v>169.7869420959994</v>
+        <v>169.7869270122857</v>
       </c>
       <c r="E272" t="n">
-        <v>171.7576446533203</v>
+        <v>171.7576293945312</v>
       </c>
       <c r="F272" t="n">
         <v>43816600</v>
@@ -7641,16 +7641,16 @@
         <v>45230</v>
       </c>
       <c r="B277" t="n">
-        <v>167.7073315495603</v>
+        <v>167.7073164176521</v>
       </c>
       <c r="C277" t="n">
-        <v>169.242284648613</v>
+        <v>169.2422693782089</v>
       </c>
       <c r="D277" t="n">
-        <v>166.2713842853667</v>
+        <v>166.2713692830213</v>
       </c>
       <c r="E277" t="n">
-        <v>169.1135559082031</v>
+        <v>169.1135406494141</v>
       </c>
       <c r="F277" t="n">
         <v>44846000</v>
@@ -7719,16 +7719,16 @@
         <v>45233</v>
       </c>
       <c r="B280" t="n">
-        <v>172.5498813500308</v>
+        <v>172.5498964006483</v>
       </c>
       <c r="C280" t="n">
-        <v>175.1048572212225</v>
+        <v>175.1048724946971</v>
       </c>
       <c r="D280" t="n">
-        <v>171.6685149344893</v>
+        <v>171.6685299082299</v>
       </c>
       <c r="E280" t="n">
-        <v>174.9364929199219</v>
+        <v>174.9365081787109</v>
       </c>
       <c r="F280" t="n">
         <v>79829200</v>
@@ -7745,16 +7745,16 @@
         <v>45236</v>
       </c>
       <c r="B281" t="n">
-        <v>174.6691092986896</v>
+        <v>174.6691393309983</v>
       </c>
       <c r="C281" t="n">
-        <v>177.6895120451555</v>
+        <v>177.6895425967872</v>
       </c>
       <c r="D281" t="n">
-        <v>174.5007601211747</v>
+        <v>174.5007901245378</v>
       </c>
       <c r="E281" t="n">
-        <v>177.491455078125</v>
+        <v>177.4914855957031</v>
       </c>
       <c r="F281" t="n">
         <v>63841300</v>
@@ -7771,16 +7771,16 @@
         <v>45237</v>
       </c>
       <c r="B282" t="n">
-        <v>177.4419442386158</v>
+        <v>177.4419592758482</v>
       </c>
       <c r="C282" t="n">
-        <v>180.6703318638797</v>
+        <v>180.6703471747003</v>
       </c>
       <c r="D282" t="n">
-        <v>177.2339897035914</v>
+        <v>177.2340047232009</v>
       </c>
       <c r="E282" t="n">
-        <v>180.0563507080078</v>
+        <v>180.0563659667969</v>
       </c>
       <c r="F282" t="n">
         <v>70530000</v>
@@ -7849,16 +7849,16 @@
         <v>45240</v>
       </c>
       <c r="B285" t="n">
-        <v>182.425536381392</v>
+        <v>182.4255062616545</v>
       </c>
       <c r="C285" t="n">
-        <v>185.0037149152918</v>
+        <v>185.0036843698789</v>
       </c>
       <c r="D285" t="n">
-        <v>181.9892278482069</v>
+        <v>181.989197800507</v>
       </c>
       <c r="E285" t="n">
-        <v>184.8351287841797</v>
+        <v>184.8350982666016</v>
       </c>
       <c r="F285" t="n">
         <v>66133400</v>
@@ -7875,16 +7875,16 @@
         <v>45243</v>
       </c>
       <c r="B286" t="n">
-        <v>184.2600067821775</v>
+        <v>184.2599914391675</v>
       </c>
       <c r="C286" t="n">
-        <v>184.4682353120009</v>
+        <v>184.4682199516521</v>
       </c>
       <c r="D286" t="n">
-        <v>182.6635224872163</v>
+        <v>182.6635072771428</v>
       </c>
       <c r="E286" t="n">
-        <v>183.2485656738281</v>
+        <v>183.2485504150391</v>
       </c>
       <c r="F286" t="n">
         <v>43627500</v>
@@ -7901,16 +7901,16 @@
         <v>45244</v>
       </c>
       <c r="B287" t="n">
-        <v>186.1242211071054</v>
+        <v>186.1242058271512</v>
       </c>
       <c r="C287" t="n">
-        <v>186.5307827134021</v>
+        <v>186.530767400071</v>
       </c>
       <c r="D287" t="n">
-        <v>184.7359804157126</v>
+        <v>184.7359652497266</v>
       </c>
       <c r="E287" t="n">
-        <v>185.8664093017578</v>
+        <v>185.8663940429688</v>
       </c>
       <c r="F287" t="n">
         <v>60108400</v>
@@ -7927,16 +7927,16 @@
         <v>45245</v>
       </c>
       <c r="B288" t="n">
-        <v>186.2729800870119</v>
+        <v>186.2729495954029</v>
       </c>
       <c r="C288" t="n">
-        <v>187.9091220632552</v>
+        <v>187.909091303821</v>
       </c>
       <c r="D288" t="n">
-        <v>186.2035604836771</v>
+        <v>186.2035300034316</v>
       </c>
       <c r="E288" t="n">
-        <v>186.4316253662109</v>
+        <v>186.4315948486328</v>
       </c>
       <c r="F288" t="n">
         <v>53790500</v>
@@ -7953,16 +7953,16 @@
         <v>45246</v>
       </c>
       <c r="B289" t="n">
-        <v>187.9785160308428</v>
+        <v>187.9785312783714</v>
       </c>
       <c r="C289" t="n">
-        <v>189.3568460010633</v>
+        <v>189.3568613603926</v>
       </c>
       <c r="D289" t="n">
-        <v>187.0662263637428</v>
+        <v>187.0662415372727</v>
       </c>
       <c r="E289" t="n">
-        <v>188.1173400878906</v>
+        <v>188.1173553466797</v>
       </c>
       <c r="F289" t="n">
         <v>54412900</v>
@@ -7979,16 +7979,16 @@
         <v>45247</v>
       </c>
       <c r="B290" t="n">
-        <v>188.6528151938572</v>
+        <v>188.6527845861859</v>
       </c>
       <c r="C290" t="n">
-        <v>188.7817286610399</v>
+        <v>188.7816980324533</v>
       </c>
       <c r="D290" t="n">
-        <v>186.986926374981</v>
+        <v>186.9868960375892</v>
       </c>
       <c r="E290" t="n">
-        <v>188.0975189208984</v>
+        <v>188.0974884033203</v>
       </c>
       <c r="F290" t="n">
         <v>50922700</v>
@@ -8031,16 +8031,16 @@
         <v>45251</v>
       </c>
       <c r="B292" t="n">
-        <v>189.8030907635815</v>
+        <v>189.8030601227414</v>
       </c>
       <c r="C292" t="n">
-        <v>189.9121679039146</v>
+        <v>189.9121372454657</v>
       </c>
       <c r="D292" t="n">
-        <v>188.1471124553899</v>
+        <v>188.1470820818824</v>
       </c>
       <c r="E292" t="n">
-        <v>189.03955078125</v>
+        <v>189.0395202636719</v>
       </c>
       <c r="F292" t="n">
         <v>38134500</v>
@@ -8057,16 +8057,16 @@
         <v>45252</v>
       </c>
       <c r="B293" t="n">
-        <v>189.8824151951899</v>
+        <v>189.8823846488971</v>
       </c>
       <c r="C293" t="n">
-        <v>191.310313447014</v>
+        <v>191.3102826710158</v>
       </c>
       <c r="D293" t="n">
-        <v>189.2279523730899</v>
+        <v>189.2279219320802</v>
       </c>
       <c r="E293" t="n">
-        <v>189.7039184570312</v>
+        <v>189.7038879394531</v>
       </c>
       <c r="F293" t="n">
         <v>39617700</v>
@@ -8083,16 +8083,16 @@
         <v>45254</v>
       </c>
       <c r="B294" t="n">
-        <v>189.2675907964973</v>
+        <v>189.2675754654188</v>
       </c>
       <c r="C294" t="n">
-        <v>189.2973377280717</v>
+        <v>189.2973223945837</v>
       </c>
       <c r="D294" t="n">
-        <v>187.6611959687303</v>
+        <v>187.6611807677732</v>
       </c>
       <c r="E294" t="n">
-        <v>188.3751525878906</v>
+        <v>188.3751373291016</v>
       </c>
       <c r="F294" t="n">
         <v>24048300</v>
@@ -8135,16 +8135,16 @@
         <v>45258</v>
       </c>
       <c r="B296" t="n">
-        <v>188.1867540672509</v>
+        <v>188.1867692763531</v>
       </c>
       <c r="C296" t="n">
-        <v>189.4758433082743</v>
+        <v>189.4758586215597</v>
       </c>
       <c r="D296" t="n">
-        <v>187.8099394087718</v>
+        <v>187.8099545874201</v>
       </c>
       <c r="E296" t="n">
-        <v>188.8015441894531</v>
+        <v>188.8015594482422</v>
       </c>
       <c r="F296" t="n">
         <v>38415400</v>
@@ -8161,16 +8161,16 @@
         <v>45259</v>
       </c>
       <c r="B297" t="n">
-        <v>189.2973359031836</v>
+        <v>189.2973205211125</v>
       </c>
       <c r="C297" t="n">
-        <v>190.4773479465503</v>
+        <v>190.4773324685929</v>
       </c>
       <c r="D297" t="n">
-        <v>187.3835460471391</v>
+        <v>187.3835308205802</v>
       </c>
       <c r="E297" t="n">
-        <v>187.7801818847656</v>
+        <v>187.7801666259766</v>
       </c>
       <c r="F297" t="n">
         <v>43014200</v>
@@ -8213,16 +8213,16 @@
         <v>45261</v>
       </c>
       <c r="B299" t="n">
-        <v>188.7321422318045</v>
+        <v>188.7321118594424</v>
       </c>
       <c r="C299" t="n">
-        <v>189.9518118916644</v>
+        <v>189.9517813230228</v>
       </c>
       <c r="D299" t="n">
-        <v>187.6413709062789</v>
+        <v>187.6413407094528</v>
       </c>
       <c r="E299" t="n">
-        <v>189.6345062255859</v>
+        <v>189.6344757080078</v>
       </c>
       <c r="F299" t="n">
         <v>45704800</v>
@@ -8239,16 +8239,16 @@
         <v>45264</v>
       </c>
       <c r="B300" t="n">
-        <v>188.3850615285251</v>
+        <v>188.3850768316175</v>
       </c>
       <c r="C300" t="n">
-        <v>188.4544811220455</v>
+        <v>188.454496430777</v>
       </c>
       <c r="D300" t="n">
-        <v>185.8763027832703</v>
+        <v>185.8763178825686</v>
       </c>
       <c r="E300" t="n">
-        <v>187.8396759033203</v>
+        <v>187.8396911621094</v>
       </c>
       <c r="F300" t="n">
         <v>43389500</v>
@@ -8265,16 +8265,16 @@
         <v>45265</v>
       </c>
       <c r="B301" t="n">
-        <v>188.6131155786076</v>
+        <v>188.6131455897171</v>
       </c>
       <c r="C301" t="n">
-        <v>192.7679260977865</v>
+        <v>192.7679567699872</v>
       </c>
       <c r="D301" t="n">
-        <v>188.5833535206997</v>
+        <v>188.5833835270736</v>
       </c>
       <c r="E301" t="n">
-        <v>191.7961578369141</v>
+        <v>191.7961883544922</v>
       </c>
       <c r="F301" t="n">
         <v>66628400</v>
@@ -8291,16 +8291,16 @@
         <v>45266</v>
       </c>
       <c r="B302" t="n">
-        <v>192.8175522925244</v>
+        <v>192.8175368647406</v>
       </c>
       <c r="C302" t="n">
-        <v>193.1249473627367</v>
+        <v>193.1249319103576</v>
       </c>
       <c r="D302" t="n">
-        <v>190.4972006683192</v>
+        <v>190.4971854261922</v>
       </c>
       <c r="E302" t="n">
-        <v>190.7054443359375</v>
+        <v>190.7054290771484</v>
       </c>
       <c r="F302" t="n">
         <v>41089700</v>
@@ -8317,16 +8317,16 @@
         <v>45267</v>
       </c>
       <c r="B303" t="n">
-        <v>192.0044269286476</v>
+        <v>192.0044117201268</v>
       </c>
       <c r="C303" t="n">
-        <v>193.3629205543118</v>
+        <v>193.3629052381858</v>
       </c>
       <c r="D303" t="n">
-        <v>191.9647542666311</v>
+        <v>191.9647390612527</v>
       </c>
       <c r="E303" t="n">
-        <v>192.6390533447266</v>
+        <v>192.6390380859375</v>
       </c>
       <c r="F303" t="n">
         <v>47477700</v>
@@ -8421,16 +8421,16 @@
         <v>45273</v>
       </c>
       <c r="B307" t="n">
-        <v>193.452164559549</v>
+        <v>193.4521495219808</v>
       </c>
       <c r="C307" t="n">
-        <v>196.3377379763236</v>
+        <v>196.3377227144518</v>
       </c>
       <c r="D307" t="n">
-        <v>193.214189106248</v>
+        <v>193.2141740871783</v>
       </c>
       <c r="E307" t="n">
-        <v>196.2980804443359</v>
+        <v>196.2980651855469</v>
       </c>
       <c r="F307" t="n">
         <v>70404200</v>
@@ -8447,16 +8447,16 @@
         <v>45274</v>
       </c>
       <c r="B308" t="n">
-        <v>196.3575823214872</v>
+        <v>196.3575975733446</v>
       </c>
       <c r="C308" t="n">
-        <v>197.9441408874326</v>
+        <v>197.9441562625242</v>
       </c>
       <c r="D308" t="n">
-        <v>194.5131968296931</v>
+        <v>194.5132119382899</v>
       </c>
       <c r="E308" t="n">
-        <v>196.4468231201172</v>
+        <v>196.4468383789062</v>
       </c>
       <c r="F308" t="n">
         <v>66831600</v>
@@ -8473,16 +8473,16 @@
         <v>45275</v>
       </c>
       <c r="B309" t="n">
-        <v>195.871673774647</v>
+        <v>195.871689030346</v>
       </c>
       <c r="C309" t="n">
-        <v>196.734365015635</v>
+        <v>196.7343803385259</v>
       </c>
       <c r="D309" t="n">
-        <v>195.3461244978741</v>
+        <v>195.3461397126402</v>
       </c>
       <c r="E309" t="n">
-        <v>195.9113464355469</v>
+        <v>195.9113616943359</v>
       </c>
       <c r="F309" t="n">
         <v>128538400</v>
@@ -8525,16 +8525,16 @@
         <v>45279</v>
       </c>
       <c r="B311" t="n">
-        <v>194.5131858799095</v>
+        <v>194.5132010782648</v>
       </c>
       <c r="C311" t="n">
-        <v>195.2965469527107</v>
+        <v>195.2965622122741</v>
       </c>
       <c r="D311" t="n">
-        <v>194.2454483684032</v>
+        <v>194.2454635458387</v>
       </c>
       <c r="E311" t="n">
-        <v>195.2866363525391</v>
+        <v>195.2866516113281</v>
       </c>
       <c r="F311" t="n">
         <v>40714100</v>
@@ -8551,16 +8551,16 @@
         <v>45280</v>
       </c>
       <c r="B312" t="n">
-        <v>195.2469805385831</v>
+        <v>195.2469651176754</v>
       </c>
       <c r="C312" t="n">
-        <v>196.0204310779547</v>
+        <v>196.0204155959587</v>
       </c>
       <c r="D312" t="n">
-        <v>193.1943664550781</v>
+        <v>193.1943511962891</v>
       </c>
       <c r="E312" t="n">
-        <v>193.1943664550781</v>
+        <v>193.1943511962891</v>
       </c>
       <c r="F312" t="n">
         <v>52242800</v>
@@ -8577,16 +8577,16 @@
         <v>45281</v>
       </c>
       <c r="B313" t="n">
-        <v>194.4537006027836</v>
+        <v>194.4536852326955</v>
       </c>
       <c r="C313" t="n">
-        <v>195.4254690365607</v>
+        <v>195.4254535896617</v>
       </c>
       <c r="D313" t="n">
-        <v>191.8755221597317</v>
+        <v>191.875506993429</v>
       </c>
       <c r="E313" t="n">
-        <v>193.0456085205078</v>
+        <v>193.0455932617188</v>
       </c>
       <c r="F313" t="n">
         <v>46482500</v>
@@ -8629,16 +8629,16 @@
         <v>45286</v>
       </c>
       <c r="B315" t="n">
-        <v>191.9845869837648</v>
+        <v>191.984617589868</v>
       </c>
       <c r="C315" t="n">
-        <v>192.262235089905</v>
+        <v>192.2622657402707</v>
       </c>
       <c r="D315" t="n">
-        <v>191.2111365265618</v>
+        <v>191.2111670093618</v>
       </c>
       <c r="E315" t="n">
-        <v>191.4292907714844</v>
+        <v>191.4293212890625</v>
       </c>
       <c r="F315" t="n">
         <v>28919300</v>
@@ -8707,16 +8707,16 @@
         <v>45289</v>
       </c>
       <c r="B318" t="n">
-        <v>192.2721441015654</v>
+        <v>192.2721594689321</v>
       </c>
       <c r="C318" t="n">
-        <v>192.7679464485325</v>
+        <v>192.7679618555263</v>
       </c>
       <c r="D318" t="n">
-        <v>190.1203637314106</v>
+        <v>190.1203789267961</v>
       </c>
       <c r="E318" t="n">
-        <v>190.9136505126953</v>
+        <v>190.9136657714844</v>
       </c>
       <c r="F318" t="n">
         <v>42672100</v>
@@ -8759,16 +8759,16 @@
         <v>45294</v>
       </c>
       <c r="B320" t="n">
-        <v>182.6734543576498</v>
+        <v>182.6734391013451</v>
       </c>
       <c r="C320" t="n">
-        <v>184.3195221092213</v>
+        <v>184.3195067154423</v>
       </c>
       <c r="D320" t="n">
-        <v>181.8900780200281</v>
+        <v>181.8900628291485</v>
       </c>
       <c r="E320" t="n">
-        <v>182.7032012939453</v>
+        <v>182.7031860351562</v>
       </c>
       <c r="F320" t="n">
         <v>58414500</v>
@@ -8785,16 +8785,16 @@
         <v>45295</v>
       </c>
       <c r="B321" t="n">
-        <v>180.6207879415788</v>
+        <v>180.6208032204985</v>
       </c>
       <c r="C321" t="n">
-        <v>181.552898769594</v>
+        <v>181.552914127362</v>
       </c>
       <c r="D321" t="n">
-        <v>179.3614608813928</v>
+        <v>179.3614760537846</v>
       </c>
       <c r="E321" t="n">
-        <v>180.3828125</v>
+        <v>180.3828277587891</v>
       </c>
       <c r="F321" t="n">
         <v>71983600</v>
@@ -8889,16 +8889,16 @@
         <v>45301</v>
       </c>
       <c r="B325" t="n">
-        <v>182.802312752701</v>
+        <v>182.8023278606972</v>
       </c>
       <c r="C325" t="n">
-        <v>184.8350900635901</v>
+        <v>184.8351053395885</v>
       </c>
       <c r="D325" t="n">
-        <v>182.3759149097992</v>
+        <v>182.3759299825551</v>
       </c>
       <c r="E325" t="n">
-        <v>184.6268615722656</v>
+        <v>184.6268768310547</v>
       </c>
       <c r="F325" t="n">
         <v>46792900</v>
@@ -8993,16 +8993,16 @@
         <v>45308</v>
       </c>
       <c r="B329" t="n">
-        <v>179.7481807176754</v>
+        <v>179.7481958586918</v>
       </c>
       <c r="C329" t="n">
-        <v>181.3942329517824</v>
+        <v>181.3942482314533</v>
       </c>
       <c r="D329" t="n">
-        <v>178.7863229882893</v>
+        <v>178.786338048284</v>
       </c>
       <c r="E329" t="n">
-        <v>181.1463317871094</v>
+        <v>181.1463470458984</v>
       </c>
       <c r="F329" t="n">
         <v>47317400</v>
@@ -9071,16 +9071,16 @@
         <v>45313</v>
       </c>
       <c r="B332" t="n">
-        <v>190.6855745499896</v>
+        <v>190.6856048173081</v>
       </c>
       <c r="C332" t="n">
-        <v>193.6901353869465</v>
+        <v>193.6901661311757</v>
       </c>
       <c r="D332" t="n">
-        <v>190.6459018913611</v>
+        <v>190.6459321523824</v>
       </c>
       <c r="E332" t="n">
-        <v>192.2622222900391</v>
+        <v>192.2622528076172</v>
       </c>
       <c r="F332" t="n">
         <v>60133900</v>
@@ -9097,16 +9097,16 @@
         <v>45314</v>
       </c>
       <c r="B333" t="n">
-        <v>193.3827518428589</v>
+        <v>193.3827670891404</v>
       </c>
       <c r="C333" t="n">
-        <v>194.1066190335693</v>
+        <v>194.1066343369205</v>
       </c>
       <c r="D333" t="n">
-        <v>192.2027398349761</v>
+        <v>192.2027549882256</v>
       </c>
       <c r="E333" t="n">
-        <v>193.5413970947266</v>
+        <v>193.5414123535156</v>
       </c>
       <c r="F333" t="n">
         <v>42355600</v>
@@ -9175,16 +9175,16 @@
         <v>45317</v>
       </c>
       <c r="B336" t="n">
-        <v>192.6390709001827</v>
+        <v>192.6390554946892</v>
       </c>
       <c r="C336" t="n">
-        <v>193.1249475740092</v>
+        <v>193.1249321296598</v>
       </c>
       <c r="D336" t="n">
-        <v>190.3286298745028</v>
+        <v>190.3286146537771</v>
       </c>
       <c r="E336" t="n">
-        <v>190.8045959472656</v>
+        <v>190.8045806884766</v>
       </c>
       <c r="F336" t="n">
         <v>44594000</v>
@@ -9201,16 +9201,16 @@
         <v>45320</v>
       </c>
       <c r="B337" t="n">
-        <v>190.3980399906073</v>
+        <v>190.3980094284619</v>
       </c>
       <c r="C337" t="n">
-        <v>190.5864473312257</v>
+        <v>190.5864167388377</v>
       </c>
       <c r="D337" t="n">
-        <v>187.9884474907554</v>
+        <v>187.9884173153908</v>
       </c>
       <c r="E337" t="n">
-        <v>190.1203918457031</v>
+        <v>190.120361328125</v>
       </c>
       <c r="F337" t="n">
         <v>47145600</v>
@@ -9253,16 +9253,16 @@
         <v>45322</v>
       </c>
       <c r="B339" t="n">
-        <v>185.4697339612798</v>
+        <v>185.4697494385244</v>
       </c>
       <c r="C339" t="n">
-        <v>185.5292429522646</v>
+        <v>185.5292584344751</v>
       </c>
       <c r="D339" t="n">
-        <v>182.8023300635688</v>
+        <v>182.8023453182215</v>
       </c>
       <c r="E339" t="n">
-        <v>182.8518981933594</v>
+        <v>182.8519134521484</v>
       </c>
       <c r="F339" t="n">
         <v>55467800</v>
@@ -9279,16 +9279,16 @@
         <v>45323</v>
       </c>
       <c r="B340" t="n">
-        <v>182.4453590429028</v>
+        <v>182.4453440184745</v>
       </c>
       <c r="C340" t="n">
-        <v>185.380500559629</v>
+        <v>185.3804852934909</v>
       </c>
       <c r="D340" t="n">
-        <v>182.2767880551107</v>
+        <v>182.2767730445643</v>
       </c>
       <c r="E340" t="n">
-        <v>185.291259765625</v>
+        <v>185.2912445068359</v>
       </c>
       <c r="F340" t="n">
         <v>64885400</v>
@@ -9383,16 +9383,16 @@
         <v>45329</v>
       </c>
       <c r="B344" t="n">
-        <v>189.0395243124124</v>
+        <v>189.0395396702894</v>
       </c>
       <c r="C344" t="n">
-        <v>189.4460858813363</v>
+        <v>189.446101272243</v>
       </c>
       <c r="D344" t="n">
-        <v>187.0265679295879</v>
+        <v>187.026583123929</v>
       </c>
       <c r="E344" t="n">
-        <v>187.8198547363281</v>
+        <v>187.8198699951172</v>
       </c>
       <c r="F344" t="n">
         <v>53439000</v>
@@ -9409,16 +9409,16 @@
         <v>45330</v>
       </c>
       <c r="B345" t="n">
-        <v>187.8000228857875</v>
+        <v>187.8000382312736</v>
       </c>
       <c r="C345" t="n">
-        <v>187.9487575459241</v>
+        <v>187.9487729035636</v>
       </c>
       <c r="D345" t="n">
-        <v>185.777155854491</v>
+        <v>185.7771710346849</v>
       </c>
       <c r="E345" t="n">
-        <v>186.739013671875</v>
+        <v>186.7390289306641</v>
       </c>
       <c r="F345" t="n">
         <v>40962000</v>
@@ -9435,16 +9435,16 @@
         <v>45331</v>
       </c>
       <c r="B346" t="n">
-        <v>187.3049081546652</v>
+        <v>187.3049233972936</v>
       </c>
       <c r="C346" t="n">
-        <v>188.635365388499</v>
+        <v>188.6353807393983</v>
       </c>
       <c r="D346" t="n">
-        <v>186.6595487535465</v>
+        <v>186.6595639436563</v>
       </c>
       <c r="E346" t="n">
-        <v>187.5034942626953</v>
+        <v>187.5035095214844</v>
       </c>
       <c r="F346" t="n">
         <v>45155200</v>
@@ -9461,16 +9461,16 @@
         <v>45334</v>
       </c>
       <c r="B347" t="n">
-        <v>187.0765772861258</v>
+        <v>187.0765465614547</v>
       </c>
       <c r="C347" t="n">
-        <v>187.3247948043087</v>
+        <v>187.3247640388714</v>
       </c>
       <c r="D347" t="n">
-        <v>185.4581942195746</v>
+        <v>185.4581637606999</v>
       </c>
       <c r="E347" t="n">
-        <v>185.8156280517578</v>
+        <v>185.8155975341797</v>
       </c>
       <c r="F347" t="n">
         <v>41781900</v>
@@ -9513,16 +9513,16 @@
         <v>45336</v>
       </c>
       <c r="B349" t="n">
-        <v>183.9986922104331</v>
+        <v>183.9987075661702</v>
       </c>
       <c r="C349" t="n">
-        <v>184.2071864451767</v>
+        <v>184.2072018183139</v>
       </c>
       <c r="D349" t="n">
-        <v>181.139221505416</v>
+        <v>181.139236622514</v>
       </c>
       <c r="E349" t="n">
-        <v>182.8370208740234</v>
+        <v>182.8370361328125</v>
       </c>
       <c r="F349" t="n">
         <v>54630500</v>
@@ -9539,16 +9539,16 @@
         <v>45337</v>
       </c>
       <c r="B350" t="n">
-        <v>182.2413002337134</v>
+        <v>182.2413154667753</v>
       </c>
       <c r="C350" t="n">
-        <v>183.1746005022862</v>
+        <v>183.1746158133602</v>
       </c>
       <c r="D350" t="n">
-        <v>180.056989159391</v>
+        <v>180.0570042098722</v>
       </c>
       <c r="E350" t="n">
-        <v>182.5490875244141</v>
+        <v>182.5491027832031</v>
       </c>
       <c r="F350" t="n">
         <v>65434500</v>
@@ -9565,16 +9565,16 @@
         <v>45338</v>
       </c>
       <c r="B351" t="n">
-        <v>182.1122335213933</v>
+        <v>182.1122181697006</v>
       </c>
       <c r="C351" t="n">
-        <v>183.5320456548448</v>
+        <v>183.5320301834647</v>
       </c>
       <c r="D351" t="n">
-        <v>180.3747108311527</v>
+        <v>180.3746956259296</v>
       </c>
       <c r="E351" t="n">
-        <v>181.0101470947266</v>
+        <v>181.0101318359375</v>
       </c>
       <c r="F351" t="n">
         <v>49752500</v>
@@ -9617,16 +9617,16 @@
         <v>45343</v>
       </c>
       <c r="B353" t="n">
-        <v>180.6427698603786</v>
+        <v>180.6427850873642</v>
       </c>
       <c r="C353" t="n">
-        <v>181.5859933284812</v>
+        <v>181.5860086349742</v>
       </c>
       <c r="D353" t="n">
-        <v>179.3718974749363</v>
+        <v>179.3719125947957</v>
       </c>
       <c r="E353" t="n">
-        <v>181.0200653076172</v>
+        <v>181.0200805664062</v>
       </c>
       <c r="F353" t="n">
         <v>41371400</v>
@@ -9643,16 +9643,16 @@
         <v>45344</v>
       </c>
       <c r="B354" t="n">
-        <v>182.1717814956972</v>
+        <v>182.1717966808284</v>
       </c>
       <c r="C354" t="n">
-        <v>183.6412399886709</v>
+        <v>183.6412552962904</v>
       </c>
       <c r="D354" t="n">
-        <v>181.1590650140456</v>
+        <v>181.1590801147607</v>
       </c>
       <c r="E354" t="n">
-        <v>183.0554351806641</v>
+        <v>183.0554504394531</v>
       </c>
       <c r="F354" t="n">
         <v>52292200</v>
@@ -9669,16 +9669,16 @@
         <v>45345</v>
       </c>
       <c r="B355" t="n">
-        <v>183.6908953487433</v>
+        <v>183.6908798817894</v>
       </c>
       <c r="C355" t="n">
-        <v>183.7206802403276</v>
+        <v>183.7206647708659</v>
       </c>
       <c r="D355" t="n">
-        <v>180.9307176286224</v>
+        <v>180.9307023940782</v>
       </c>
       <c r="E355" t="n">
-        <v>181.2186584472656</v>
+        <v>181.2186431884766</v>
       </c>
       <c r="F355" t="n">
         <v>45119700</v>
@@ -9747,16 +9747,16 @@
         <v>45350</v>
       </c>
       <c r="B358" t="n">
-        <v>181.2087048057168</v>
+        <v>181.2087355066488</v>
       </c>
       <c r="C358" t="n">
-        <v>181.814356133641</v>
+        <v>181.8143869371843</v>
       </c>
       <c r="D358" t="n">
-        <v>178.8456844221719</v>
+        <v>178.8457147227537</v>
       </c>
       <c r="E358" t="n">
-        <v>180.1264801025391</v>
+        <v>180.1265106201172</v>
       </c>
       <c r="F358" t="n">
         <v>48953900</v>
@@ -9773,16 +9773,16 @@
         <v>45351</v>
       </c>
       <c r="B359" t="n">
-        <v>179.9775545922035</v>
+        <v>179.9775698948909</v>
       </c>
       <c r="C359" t="n">
-        <v>181.2682886612891</v>
+        <v>181.268304073722</v>
       </c>
       <c r="D359" t="n">
-        <v>178.2499552858893</v>
+        <v>178.2499704416867</v>
       </c>
       <c r="E359" t="n">
-        <v>179.4612579345703</v>
+        <v>179.4612731933594</v>
       </c>
       <c r="F359" t="n">
         <v>136682600</v>
@@ -9799,16 +9799,16 @@
         <v>45352</v>
       </c>
       <c r="B360" t="n">
-        <v>178.2698120140162</v>
+        <v>178.2698272634628</v>
       </c>
       <c r="C360" t="n">
-        <v>179.2428203746597</v>
+        <v>179.2428357073387</v>
       </c>
       <c r="D360" t="n">
-        <v>176.1152859261658</v>
+        <v>176.1153009913112</v>
       </c>
       <c r="E360" t="n">
-        <v>178.3790283203125</v>
+        <v>178.3790435791016</v>
       </c>
       <c r="F360" t="n">
         <v>73563100</v>
@@ -9851,16 +9851,16 @@
         <v>45356</v>
       </c>
       <c r="B362" t="n">
-        <v>169.542464349529</v>
+        <v>169.5424796657224</v>
       </c>
       <c r="C362" t="n">
-        <v>170.8133366521028</v>
+        <v>170.8133520831047</v>
       </c>
       <c r="D362" t="n">
-        <v>168.410593231612</v>
+        <v>168.410608445554</v>
       </c>
       <c r="E362" t="n">
-        <v>168.9070281982422</v>
+        <v>168.9070434570312</v>
       </c>
       <c r="F362" t="n">
         <v>95132400</v>
@@ -9877,16 +9877,16 @@
         <v>45357</v>
       </c>
       <c r="B363" t="n">
-        <v>169.840354966589</v>
+        <v>169.8403395327639</v>
       </c>
       <c r="C363" t="n">
-        <v>170.019079460571</v>
+        <v>170.0190640105048</v>
       </c>
       <c r="D363" t="n">
-        <v>167.4773193072401</v>
+        <v>167.4773040881501</v>
       </c>
       <c r="E363" t="n">
-        <v>167.9141845703125</v>
+        <v>167.9141693115234</v>
       </c>
       <c r="F363" t="n">
         <v>68587700</v>
@@ -9929,16 +9929,16 @@
         <v>45359</v>
       </c>
       <c r="B365" t="n">
-        <v>167.7950495135339</v>
+        <v>167.7950344093611</v>
       </c>
       <c r="C365" t="n">
-        <v>172.4615360262189</v>
+        <v>172.4615205019895</v>
       </c>
       <c r="D365" t="n">
-        <v>167.7354797306053</v>
+        <v>167.7354646317948</v>
       </c>
       <c r="E365" t="n">
-        <v>169.5127105712891</v>
+        <v>169.5126953125</v>
       </c>
       <c r="F365" t="n">
         <v>76267000</v>
@@ -9955,16 +9955,16 @@
         <v>45362</v>
       </c>
       <c r="B366" t="n">
-        <v>171.7069582907232</v>
+        <v>171.7069430151515</v>
       </c>
       <c r="C366" t="n">
-        <v>173.1366936651567</v>
+        <v>173.1366782623913</v>
       </c>
       <c r="D366" t="n">
-        <v>170.8233045037464</v>
+        <v>170.8232893067872</v>
       </c>
       <c r="E366" t="n">
-        <v>171.518310546875</v>
+        <v>171.5182952880859</v>
       </c>
       <c r="F366" t="n">
         <v>60139500</v>
@@ -10007,16 +10007,16 @@
         <v>45364</v>
       </c>
       <c r="B368" t="n">
-        <v>171.5381572981787</v>
+        <v>171.5381727031981</v>
       </c>
       <c r="C368" t="n">
-        <v>171.955160887852</v>
+        <v>171.9551763303205</v>
       </c>
       <c r="D368" t="n">
-        <v>169.5424788654635</v>
+        <v>169.5424940912606</v>
       </c>
       <c r="E368" t="n">
-        <v>169.9098510742188</v>
+        <v>169.9098663330078</v>
       </c>
       <c r="F368" t="n">
         <v>52488700</v>
@@ -10059,16 +10059,16 @@
         <v>45366</v>
       </c>
       <c r="B370" t="n">
-        <v>169.9495475350183</v>
+        <v>169.9495626656345</v>
       </c>
       <c r="C370" t="n">
-        <v>171.3892059326172</v>
+        <v>171.3892211914062</v>
       </c>
       <c r="D370" t="n">
-        <v>169.0758171309612</v>
+        <v>169.0758321837892</v>
       </c>
       <c r="E370" t="n">
-        <v>171.3892059326172</v>
+        <v>171.3892211914062</v>
       </c>
       <c r="F370" t="n">
         <v>121752700</v>
@@ -10111,16 +10111,16 @@
         <v>45370</v>
       </c>
       <c r="B372" t="n">
-        <v>173.0969702674684</v>
+        <v>173.0969551594652</v>
       </c>
       <c r="C372" t="n">
-        <v>175.350789645184</v>
+        <v>175.3507743404662</v>
       </c>
       <c r="D372" t="n">
-        <v>171.7963128554373</v>
+        <v>171.7962978609562</v>
       </c>
       <c r="E372" t="n">
-        <v>174.8245697021484</v>
+        <v>174.8245544433594</v>
       </c>
       <c r="F372" t="n">
         <v>55215200</v>
@@ -10137,16 +10137,16 @@
         <v>45371</v>
       </c>
       <c r="B373" t="n">
-        <v>174.4671240680978</v>
+        <v>174.4671090612446</v>
       </c>
       <c r="C373" t="n">
-        <v>177.3960876464844</v>
+        <v>177.3960723876953</v>
       </c>
       <c r="D373" t="n">
-        <v>173.8416110969529</v>
+        <v>173.8415961439034</v>
       </c>
       <c r="E373" t="n">
-        <v>177.3960876464844</v>
+        <v>177.3960723876953</v>
       </c>
       <c r="F373" t="n">
         <v>53423100</v>
@@ -10189,16 +10189,16 @@
         <v>45373</v>
       </c>
       <c r="B375" t="n">
-        <v>170.5353695457136</v>
+        <v>170.5353543329811</v>
       </c>
       <c r="C375" t="n">
-        <v>171.8161805084586</v>
+        <v>171.8161651814705</v>
       </c>
       <c r="D375" t="n">
-        <v>168.8474933401544</v>
+        <v>168.8474782779902</v>
       </c>
       <c r="E375" t="n">
-        <v>171.0516662597656</v>
+        <v>171.0516510009766</v>
       </c>
       <c r="F375" t="n">
         <v>71160100</v>
@@ -10267,16 +10267,16 @@
         <v>45378</v>
       </c>
       <c r="B378" t="n">
-        <v>169.1949631378279</v>
+        <v>169.1949781412918</v>
       </c>
       <c r="C378" t="n">
-        <v>172.3622205398845</v>
+        <v>172.3622358242069</v>
       </c>
       <c r="D378" t="n">
-        <v>168.8970991381061</v>
+        <v>168.8971141151568</v>
       </c>
       <c r="E378" t="n">
-        <v>172.0742797851562</v>
+        <v>172.0742950439453</v>
       </c>
       <c r="F378" t="n">
         <v>60273300</v>
@@ -10371,16 +10371,16 @@
         <v>45385</v>
       </c>
       <c r="B382" t="n">
-        <v>167.5865303145986</v>
+        <v>167.5865151331604</v>
       </c>
       <c r="C382" t="n">
-        <v>169.4630541169958</v>
+        <v>169.4630387655658</v>
       </c>
       <c r="D382" t="n">
-        <v>167.3780360865516</v>
+        <v>167.3780209240005</v>
       </c>
       <c r="E382" t="n">
-        <v>168.4403991699219</v>
+        <v>168.4403839111328</v>
       </c>
       <c r="F382" t="n">
         <v>47691700</v>
@@ -10397,16 +10397,16 @@
         <v>45386</v>
       </c>
       <c r="B383" t="n">
-        <v>169.0758380772312</v>
+        <v>169.0758534688849</v>
       </c>
       <c r="C383" t="n">
-        <v>170.694221144335</v>
+        <v>170.6942366833166</v>
       </c>
       <c r="D383" t="n">
-        <v>167.6163330078125</v>
+        <v>167.6163482666016</v>
       </c>
       <c r="E383" t="n">
-        <v>167.6163330078125</v>
+        <v>167.6163482666016</v>
       </c>
       <c r="F383" t="n">
         <v>53704400</v>
@@ -10449,16 +10449,16 @@
         <v>45390</v>
       </c>
       <c r="B385" t="n">
-        <v>167.8248135569868</v>
+        <v>167.8248288683144</v>
       </c>
       <c r="C385" t="n">
-        <v>167.9935996376489</v>
+        <v>167.9936149643756</v>
       </c>
       <c r="D385" t="n">
-        <v>167.0404529292048</v>
+        <v>167.0404681689721</v>
       </c>
       <c r="E385" t="n">
-        <v>167.2489471435547</v>
+        <v>167.2489624023438</v>
       </c>
       <c r="F385" t="n">
         <v>37425500</v>
@@ -10527,16 +10527,16 @@
         <v>45393</v>
       </c>
       <c r="B388" t="n">
-        <v>167.1397355645765</v>
+        <v>167.1397649140348</v>
       </c>
       <c r="C388" t="n">
-        <v>174.208980410401</v>
+        <v>174.209011001207</v>
       </c>
       <c r="D388" t="n">
-        <v>166.9610262329375</v>
+        <v>166.9610555510148</v>
       </c>
       <c r="E388" t="n">
-        <v>173.7919616699219</v>
+        <v>173.7919921875</v>
       </c>
       <c r="F388" t="n">
         <v>91070300</v>
@@ -10605,16 +10605,16 @@
         <v>45398</v>
       </c>
       <c r="B391" t="n">
-        <v>170.5254453903288</v>
+        <v>170.5254299180361</v>
       </c>
       <c r="C391" t="n">
-        <v>172.5211089042171</v>
+        <v>172.5210932508517</v>
       </c>
       <c r="D391" t="n">
-        <v>167.0702615685236</v>
+        <v>167.0702464097302</v>
       </c>
       <c r="E391" t="n">
-        <v>168.1723480224609</v>
+        <v>168.1723327636719</v>
       </c>
       <c r="F391" t="n">
         <v>73711200</v>
@@ -10631,16 +10631,16 @@
         <v>45399</v>
       </c>
       <c r="B392" t="n">
-        <v>168.4007066047384</v>
+        <v>168.4006911997193</v>
       </c>
       <c r="C392" t="n">
-        <v>169.4332848938648</v>
+        <v>169.433269394387</v>
       </c>
       <c r="D392" t="n">
-        <v>166.8021850585938</v>
+        <v>166.8021697998047</v>
       </c>
       <c r="E392" t="n">
-        <v>166.8021850585938</v>
+        <v>166.8021697998047</v>
       </c>
       <c r="F392" t="n">
         <v>50901200</v>
@@ -10709,16 +10709,16 @@
         <v>45404</v>
       </c>
       <c r="B395" t="n">
-        <v>164.3398517240313</v>
+        <v>164.3398669533782</v>
       </c>
       <c r="C395" t="n">
-        <v>166.0674358814589</v>
+        <v>166.0674512709008</v>
       </c>
       <c r="D395" t="n">
-        <v>163.5951992010038</v>
+        <v>163.5952143613438</v>
       </c>
       <c r="E395" t="n">
-        <v>164.6575622558594</v>
+        <v>164.6575775146484</v>
       </c>
       <c r="F395" t="n">
         <v>48116400</v>
@@ -10761,16 +10761,16 @@
         <v>45406</v>
       </c>
       <c r="B397" t="n">
-        <v>165.3525670633734</v>
+        <v>165.3525820982721</v>
       </c>
       <c r="C397" t="n">
-        <v>168.0928980244896</v>
+        <v>168.0929133085564</v>
       </c>
       <c r="D397" t="n">
-        <v>165.0249332875823</v>
+        <v>165.0249482926904</v>
       </c>
       <c r="E397" t="n">
-        <v>167.8148956298828</v>
+        <v>167.8149108886719</v>
       </c>
       <c r="F397" t="n">
         <v>48251800</v>
@@ -10787,16 +10787,16 @@
         <v>45407</v>
       </c>
       <c r="B398" t="n">
-        <v>168.3212618473153</v>
+        <v>168.32124662086</v>
       </c>
       <c r="C398" t="n">
-        <v>169.3935633415022</v>
+        <v>169.3935480180457</v>
       </c>
       <c r="D398" t="n">
-        <v>166.9510963019663</v>
+        <v>166.951081199457</v>
       </c>
       <c r="E398" t="n">
-        <v>168.6786956787109</v>
+        <v>168.6786804199219</v>
       </c>
       <c r="F398" t="n">
         <v>50558300</v>
@@ -10813,16 +10813,16 @@
         <v>45408</v>
       </c>
       <c r="B399" t="n">
-        <v>168.6687619308746</v>
+        <v>168.6687772419384</v>
       </c>
       <c r="C399" t="n">
-        <v>170.1183436596222</v>
+        <v>170.1183591022732</v>
       </c>
       <c r="D399" t="n">
-        <v>167.9737408047691</v>
+        <v>167.9737560527417</v>
       </c>
       <c r="E399" t="n">
-        <v>168.0928955078125</v>
+        <v>168.0929107666016</v>
       </c>
       <c r="F399" t="n">
         <v>44838400</v>
@@ -10839,16 +10839,16 @@
         <v>45411</v>
       </c>
       <c r="B400" t="n">
-        <v>172.1338767566388</v>
+        <v>172.1338920039943</v>
       </c>
       <c r="C400" t="n">
-        <v>174.7749147415349</v>
+        <v>174.7749302228295</v>
       </c>
       <c r="D400" t="n">
-        <v>171.8658127495214</v>
+        <v>171.8658279731322</v>
       </c>
       <c r="E400" t="n">
-        <v>172.2629547119141</v>
+        <v>172.2629699707031</v>
       </c>
       <c r="F400" t="n">
         <v>68169400</v>
@@ -10891,16 +10891,16 @@
         <v>45413</v>
       </c>
       <c r="B402" t="n">
-        <v>168.3708978982571</v>
+        <v>168.3709131822821</v>
       </c>
       <c r="C402" t="n">
-        <v>171.4785858735768</v>
+        <v>171.4786014397051</v>
       </c>
       <c r="D402" t="n">
-        <v>167.904247782155</v>
+        <v>167.9042630238193</v>
       </c>
       <c r="E402" t="n">
-        <v>168.0928955078125</v>
+        <v>168.0929107666016</v>
       </c>
       <c r="F402" t="n">
         <v>50383100</v>
@@ -10917,16 +10917,16 @@
         <v>45414</v>
       </c>
       <c r="B403" t="n">
-        <v>171.2799833102497</v>
+        <v>171.2799985231818</v>
       </c>
       <c r="C403" t="n">
-        <v>172.183498567461</v>
+        <v>172.1835138606425</v>
       </c>
       <c r="D403" t="n">
-        <v>169.6715388985054</v>
+        <v>169.6715539685769</v>
       </c>
       <c r="E403" t="n">
-        <v>171.7962799072266</v>
+        <v>171.7962951660156</v>
       </c>
       <c r="F403" t="n">
         <v>94214900</v>
@@ -10943,16 +10943,16 @@
         <v>45415</v>
       </c>
       <c r="B404" t="n">
-        <v>185.3191838346203</v>
+        <v>185.3191993655005</v>
       </c>
       <c r="C404" t="n">
-        <v>185.6666944028586</v>
+        <v>185.6667099628623</v>
       </c>
       <c r="D404" t="n">
-        <v>181.3576421366733</v>
+        <v>181.3576573355521</v>
       </c>
       <c r="E404" t="n">
-        <v>182.072509765625</v>
+        <v>182.0725250244141</v>
       </c>
       <c r="F404" t="n">
         <v>163224100</v>
@@ -10995,16 +10995,16 @@
         <v>45419</v>
       </c>
       <c r="B406" t="n">
-        <v>182.1420038655686</v>
+        <v>182.1420192121963</v>
       </c>
       <c r="C406" t="n">
-        <v>183.5816623782166</v>
+        <v>183.5816778461448</v>
       </c>
       <c r="D406" t="n">
-        <v>180.0272010049179</v>
+        <v>180.02721617336</v>
       </c>
       <c r="E406" t="n">
-        <v>181.0994873046875</v>
+        <v>181.0995025634766</v>
       </c>
       <c r="F406" t="n">
         <v>77305800</v>
@@ -11047,16 +11047,16 @@
         <v>45421</v>
       </c>
       <c r="B408" t="n">
-        <v>181.2583649608674</v>
+        <v>181.2583800534848</v>
       </c>
       <c r="C408" t="n">
-        <v>183.3433982530535</v>
+        <v>183.3434135192828</v>
       </c>
       <c r="D408" t="n">
-        <v>180.811576441112</v>
+        <v>180.8115914965271</v>
       </c>
       <c r="E408" t="n">
-        <v>183.2540435791016</v>
+        <v>183.2540588378906</v>
       </c>
       <c r="F408" t="n">
         <v>48983000</v>
@@ -11073,16 +11073,16 @@
         <v>45422</v>
       </c>
       <c r="B409" t="n">
-        <v>183.8306706659433</v>
+        <v>183.830686078945</v>
       </c>
       <c r="C409" t="n">
-        <v>184.01957427538</v>
+        <v>184.01958970422</v>
       </c>
       <c r="D409" t="n">
-        <v>181.0767011963408</v>
+        <v>181.0767163784401</v>
       </c>
       <c r="E409" t="n">
-        <v>181.9913787841797</v>
+        <v>181.9913940429688</v>
       </c>
       <c r="F409" t="n">
         <v>50759500</v>
@@ -11125,16 +11125,16 @@
         <v>45426</v>
       </c>
       <c r="B411" t="n">
-        <v>186.4255779791011</v>
+        <v>186.425547448497</v>
       </c>
       <c r="C411" t="n">
-        <v>187.2110177098357</v>
+        <v>187.2109870506014</v>
       </c>
       <c r="D411" t="n">
-        <v>185.2126323262415</v>
+        <v>185.2126019942795</v>
       </c>
       <c r="E411" t="n">
-        <v>186.3460388183594</v>
+        <v>186.3460083007812</v>
       </c>
       <c r="F411" t="n">
         <v>52393600</v>
@@ -11203,16 +11203,16 @@
         <v>45429</v>
       </c>
       <c r="B414" t="n">
-        <v>188.4140082479681</v>
+        <v>188.4139930181103</v>
       </c>
       <c r="C414" t="n">
-        <v>189.706493039357</v>
+        <v>189.7064777050252</v>
       </c>
       <c r="D414" t="n">
-        <v>188.085914904501</v>
+        <v>188.0858997011636</v>
       </c>
       <c r="E414" t="n">
-        <v>188.7719268798828</v>
+        <v>188.7719116210938</v>
       </c>
       <c r="F414" t="n">
         <v>41282900</v>
@@ -11307,16 +11307,16 @@
         <v>45435</v>
       </c>
       <c r="B418" t="n">
-        <v>189.8755042892658</v>
+        <v>189.8755198828199</v>
       </c>
       <c r="C418" t="n">
-        <v>189.89539287135</v>
+        <v>189.8954084665374</v>
       </c>
       <c r="D418" t="n">
-        <v>185.5506706743646</v>
+        <v>185.5506859127412</v>
       </c>
       <c r="E418" t="n">
-        <v>185.7992248535156</v>
+        <v>185.7992401123047</v>
       </c>
       <c r="F418" t="n">
         <v>51005900</v>
@@ -11333,16 +11333,16 @@
         <v>45436</v>
       </c>
       <c r="B419" t="n">
-        <v>187.7280219308774</v>
+        <v>187.7280067652561</v>
       </c>
       <c r="C419" t="n">
-        <v>189.4778380232483</v>
+        <v>189.4778227162681</v>
       </c>
       <c r="D419" t="n">
-        <v>186.9525188762844</v>
+        <v>186.9525037733123</v>
       </c>
       <c r="E419" t="n">
-        <v>188.8813018798828</v>
+        <v>188.8812866210938</v>
       </c>
       <c r="F419" t="n">
         <v>36327000</v>
@@ -11359,16 +11359,16 @@
         <v>45440</v>
       </c>
       <c r="B420" t="n">
-        <v>190.4024338052286</v>
+        <v>190.4024491860935</v>
       </c>
       <c r="C420" t="n">
-        <v>191.8838221422298</v>
+        <v>191.8838376427625</v>
       </c>
       <c r="D420" t="n">
-        <v>188.0063830998009</v>
+        <v>188.0063982871108</v>
       </c>
       <c r="E420" t="n">
-        <v>188.8912353515625</v>
+        <v>188.8912506103516</v>
       </c>
       <c r="F420" t="n">
         <v>52280100</v>
@@ -11463,16 +11463,16 @@
         <v>45446</v>
       </c>
       <c r="B424" t="n">
-        <v>191.7843976924141</v>
+        <v>191.784412862338</v>
       </c>
       <c r="C424" t="n">
-        <v>193.8623221502784</v>
+        <v>193.8623374845637</v>
       </c>
       <c r="D424" t="n">
-        <v>191.4066056577922</v>
+        <v>191.4066207978332</v>
       </c>
       <c r="E424" t="n">
-        <v>192.9078674316406</v>
+        <v>192.9078826904297</v>
       </c>
       <c r="F424" t="n">
         <v>50080500</v>
@@ -11541,16 +11541,16 @@
         <v>45449</v>
       </c>
       <c r="B427" t="n">
-        <v>194.5582946888103</v>
+        <v>194.5582793350848</v>
       </c>
       <c r="C427" t="n">
-        <v>195.3636078971296</v>
+        <v>195.3635924798522</v>
       </c>
       <c r="D427" t="n">
-        <v>193.047080853253</v>
+        <v>193.0470656187862</v>
       </c>
       <c r="E427" t="n">
-        <v>193.3552856445312</v>
+        <v>193.3552703857422</v>
       </c>
       <c r="F427" t="n">
         <v>41181800</v>
@@ -11567,16 +11567,16 @@
         <v>45450</v>
       </c>
       <c r="B428" t="n">
-        <v>193.5242766218339</v>
+        <v>193.5242615366432</v>
       </c>
       <c r="C428" t="n">
-        <v>195.8010413842798</v>
+        <v>195.8010261216156</v>
       </c>
       <c r="D428" t="n">
-        <v>193.0172315608974</v>
+        <v>193.0172165152307</v>
       </c>
       <c r="E428" t="n">
-        <v>195.7513275146484</v>
+        <v>195.7513122558594</v>
       </c>
       <c r="F428" t="n">
         <v>53103900</v>
@@ -11671,16 +11671,16 @@
         <v>45456</v>
       </c>
       <c r="B432" t="n">
-        <v>213.4981001725771</v>
+        <v>213.4980848781766</v>
       </c>
       <c r="C432" t="n">
-        <v>215.4964702833595</v>
+        <v>215.4964548458014</v>
       </c>
       <c r="D432" t="n">
-        <v>210.37626033331</v>
+        <v>210.3762452625493</v>
       </c>
       <c r="E432" t="n">
-        <v>213.0009918212891</v>
+        <v>213.0009765625</v>
       </c>
       <c r="F432" t="n">
         <v>97862700</v>
@@ -11697,16 +11697,16 @@
         <v>45457</v>
       </c>
       <c r="B433" t="n">
-        <v>212.6132590503739</v>
+        <v>212.613243693924</v>
       </c>
       <c r="C433" t="n">
-        <v>213.9256172778308</v>
+        <v>213.9256018265929</v>
       </c>
       <c r="D433" t="n">
-        <v>210.0780032919047</v>
+        <v>210.077988118569</v>
       </c>
       <c r="E433" t="n">
-        <v>211.2611236572266</v>
+        <v>211.2611083984375</v>
       </c>
       <c r="F433" t="n">
         <v>70122700</v>
@@ -11723,16 +11723,16 @@
         <v>45460</v>
       </c>
       <c r="B434" t="n">
-        <v>212.1360430521221</v>
+        <v>212.1360280257328</v>
       </c>
       <c r="C434" t="n">
-        <v>217.6837748595555</v>
+        <v>217.6837594401996</v>
       </c>
       <c r="D434" t="n">
-        <v>211.4898081720374</v>
+        <v>211.4897931914233</v>
       </c>
       <c r="E434" t="n">
-        <v>215.4169616699219</v>
+        <v>215.4169464111328</v>
       </c>
       <c r="F434" t="n">
         <v>93728300</v>
@@ -11749,16 +11749,16 @@
         <v>45461</v>
       </c>
       <c r="B435" t="n">
-        <v>216.3316078372056</v>
+        <v>216.3316388247455</v>
       </c>
       <c r="C435" t="n">
-        <v>217.3656016993958</v>
+        <v>217.365632835046</v>
       </c>
       <c r="D435" t="n">
-        <v>211.768156830934</v>
+        <v>211.768187164801</v>
       </c>
       <c r="E435" t="n">
-        <v>213.0506896972656</v>
+        <v>213.0507202148438</v>
       </c>
       <c r="F435" t="n">
         <v>79943300</v>
@@ -11775,16 +11775,16 @@
         <v>45463</v>
       </c>
       <c r="B436" t="n">
-        <v>212.6927670816265</v>
+        <v>212.6927826496957</v>
       </c>
       <c r="C436" t="n">
-        <v>213.0009869956984</v>
+        <v>213.0010025863277</v>
       </c>
       <c r="D436" t="n">
-        <v>207.6421596970407</v>
+        <v>207.6421748954302</v>
       </c>
       <c r="E436" t="n">
-        <v>208.4673461914062</v>
+        <v>208.4673614501953</v>
       </c>
       <c r="F436" t="n">
         <v>86172500</v>
@@ -11853,16 +11853,16 @@
         <v>45468</v>
       </c>
       <c r="B439" t="n">
-        <v>207.940440132565</v>
+        <v>207.9404248679382</v>
       </c>
       <c r="C439" t="n">
-        <v>210.1575545458077</v>
+        <v>210.1575391184255</v>
       </c>
       <c r="D439" t="n">
-        <v>207.4035697291995</v>
+        <v>207.4035545039836</v>
       </c>
       <c r="E439" t="n">
-        <v>207.8609161376953</v>
+        <v>207.8609008789062</v>
       </c>
       <c r="F439" t="n">
         <v>55549700</v>
@@ -11931,16 +11931,16 @@
         <v>45471</v>
       </c>
       <c r="B442" t="n">
-        <v>214.5221572432334</v>
+        <v>214.5221259794497</v>
       </c>
       <c r="C442" t="n">
-        <v>214.8204253090827</v>
+        <v>214.8203940018304</v>
       </c>
       <c r="D442" t="n">
-        <v>209.0837902841884</v>
+        <v>209.0837598129752</v>
       </c>
       <c r="E442" t="n">
-        <v>209.4019317626953</v>
+        <v>209.4019012451172</v>
       </c>
       <c r="F442" t="n">
         <v>82542700</v>
@@ -11957,16 +11957,16 @@
         <v>45474</v>
       </c>
       <c r="B443" t="n">
-        <v>210.8634365693964</v>
+        <v>210.8634216386627</v>
       </c>
       <c r="C443" t="n">
-        <v>216.2520897818886</v>
+        <v>216.2520744695974</v>
       </c>
       <c r="D443" t="n">
-        <v>210.6944215345844</v>
+        <v>210.6944066158183</v>
       </c>
       <c r="E443" t="n">
-        <v>215.4964904785156</v>
+        <v>215.4964752197266</v>
       </c>
       <c r="F443" t="n">
         <v>60402900</v>
@@ -12009,16 +12009,16 @@
         <v>45476</v>
       </c>
       <c r="B445" t="n">
-        <v>218.7276683957665</v>
+        <v>218.7276835478024</v>
       </c>
       <c r="C445" t="n">
-        <v>220.2687072753906</v>
+        <v>220.2687225341797</v>
       </c>
       <c r="D445" t="n">
-        <v>217.7632770078327</v>
+        <v>217.7632920930618</v>
       </c>
       <c r="E445" t="n">
-        <v>220.2687072753906</v>
+        <v>220.2687225341797</v>
       </c>
       <c r="F445" t="n">
         <v>37369800</v>
@@ -12035,16 +12035,16 @@
         <v>45478</v>
       </c>
       <c r="B446" t="n">
-        <v>220.3681420180832</v>
+        <v>220.3681569606941</v>
       </c>
       <c r="C446" t="n">
-        <v>225.1403855701899</v>
+        <v>225.1404008363947</v>
       </c>
       <c r="D446" t="n">
-        <v>220.3681420180832</v>
+        <v>220.3681569606941</v>
       </c>
       <c r="E446" t="n">
-        <v>225.0310211181641</v>
+        <v>225.0310363769531</v>
       </c>
       <c r="F446" t="n">
         <v>60412400</v>
@@ -12061,16 +12061,16 @@
         <v>45481</v>
       </c>
       <c r="B447" t="n">
-        <v>225.776697968509</v>
+        <v>225.7766827586142</v>
       </c>
       <c r="C447" t="n">
-        <v>226.5323124740962</v>
+        <v>226.5322972132979</v>
       </c>
       <c r="D447" t="n">
-        <v>221.9589089537516</v>
+        <v>221.9588940010497</v>
       </c>
       <c r="E447" t="n">
-        <v>226.5024871826172</v>
+        <v>226.5024719238281</v>
       </c>
       <c r="F447" t="n">
         <v>59085900</v>
@@ -12243,16 +12243,16 @@
         <v>45490</v>
       </c>
       <c r="B454" t="n">
-        <v>228.1230464069532</v>
+        <v>228.1230311101644</v>
       </c>
       <c r="C454" t="n">
-        <v>230.1214319251083</v>
+        <v>230.1214164943178</v>
       </c>
       <c r="D454" t="n">
-        <v>225.3292995689129</v>
+        <v>225.3292844594588</v>
       </c>
       <c r="E454" t="n">
-        <v>227.5563507080078</v>
+        <v>227.5563354492188</v>
       </c>
       <c r="F454" t="n">
         <v>57345900</v>
@@ -12269,16 +12269,16 @@
         <v>45491</v>
       </c>
       <c r="B455" t="n">
-        <v>228.9482272638944</v>
+        <v>228.9482429378798</v>
       </c>
       <c r="C455" t="n">
-        <v>229.1073055815506</v>
+        <v>229.1073212664266</v>
       </c>
       <c r="D455" t="n">
-        <v>220.9845567217071</v>
+        <v>220.984571850493</v>
       </c>
       <c r="E455" t="n">
-        <v>222.8834991455078</v>
+        <v>222.8835144042969</v>
       </c>
       <c r="F455" t="n">
         <v>66034600</v>
@@ -12295,16 +12295,16 @@
         <v>45492</v>
       </c>
       <c r="B456" t="n">
-        <v>223.5198013048721</v>
+        <v>223.5198165983548</v>
       </c>
       <c r="C456" t="n">
-        <v>225.488346083744</v>
+        <v>225.4883615119168</v>
       </c>
       <c r="D456" t="n">
-        <v>221.9886991219942</v>
+        <v>221.9887143107171</v>
       </c>
       <c r="E456" t="n">
-        <v>223.0127410888672</v>
+        <v>223.0127563476562</v>
       </c>
       <c r="F456" t="n">
         <v>49151500</v>
@@ -12399,16 +12399,16 @@
         <v>45498</v>
       </c>
       <c r="B460" t="n">
-        <v>217.663867640833</v>
+        <v>217.6638522810165</v>
       </c>
       <c r="C460" t="n">
-        <v>219.5727771670938</v>
+        <v>219.5727616725718</v>
       </c>
       <c r="D460" t="n">
-        <v>213.3787958392943</v>
+        <v>213.3787807818611</v>
       </c>
       <c r="E460" t="n">
-        <v>216.2322082519531</v>
+        <v>216.2321929931641</v>
       </c>
       <c r="F460" t="n">
         <v>51391200</v>
@@ -12529,16 +12529,16 @@
         <v>45505</v>
       </c>
       <c r="B465" t="n">
-        <v>223.0724051151817</v>
+        <v>223.0724207939435</v>
       </c>
       <c r="C465" t="n">
-        <v>223.1817695634113</v>
+        <v>223.1817852498598</v>
       </c>
       <c r="D465" t="n">
-        <v>215.7649211779852</v>
+        <v>215.7649363431366</v>
       </c>
       <c r="E465" t="n">
-        <v>217.09716796875</v>
+        <v>217.0971832275391</v>
       </c>
       <c r="F465" t="n">
         <v>62501000</v>
@@ -12581,16 +12581,16 @@
         <v>45509</v>
       </c>
       <c r="B467" t="n">
-        <v>197.9386185328084</v>
+        <v>197.9386040162881</v>
       </c>
       <c r="C467" t="n">
-        <v>212.2652862227801</v>
+        <v>212.2652706555635</v>
       </c>
       <c r="D467" t="n">
-        <v>194.8664922700932</v>
+        <v>194.866477978878</v>
       </c>
       <c r="E467" t="n">
-        <v>208.0597534179688</v>
+        <v>208.0597381591797</v>
       </c>
       <c r="F467" t="n">
         <v>119548600</v>
@@ -12633,16 +12633,16 @@
         <v>45511</v>
       </c>
       <c r="B469" t="n">
-        <v>205.703426053809</v>
+        <v>205.7034411002453</v>
       </c>
       <c r="C469" t="n">
-        <v>212.4044519719587</v>
+        <v>212.4044675085499</v>
       </c>
       <c r="D469" t="n">
-        <v>205.1963810058654</v>
+        <v>205.1963960152132</v>
       </c>
       <c r="E469" t="n">
-        <v>208.6065521240234</v>
+        <v>208.6065673828125</v>
       </c>
       <c r="F469" t="n">
         <v>63516400</v>
@@ -12659,16 +12659,16 @@
         <v>45512</v>
       </c>
       <c r="B470" t="n">
-        <v>211.8775451699831</v>
+        <v>211.8775299255005</v>
       </c>
       <c r="C470" t="n">
-        <v>212.9612378528938</v>
+        <v>212.96122253044</v>
       </c>
       <c r="D470" t="n">
-        <v>207.62229843313</v>
+        <v>207.6222834948103</v>
       </c>
       <c r="E470" t="n">
-        <v>212.0763854980469</v>
+        <v>212.0763702392578</v>
       </c>
       <c r="F470" t="n">
         <v>47161100</v>
@@ -12685,16 +12685,16 @@
         <v>45513</v>
       </c>
       <c r="B471" t="n">
-        <v>210.8733691090516</v>
+        <v>210.8733840757052</v>
       </c>
       <c r="C471" t="n">
-        <v>215.5262960046125</v>
+        <v>215.5263113015057</v>
       </c>
       <c r="D471" t="n">
-        <v>210.7441160828828</v>
+        <v>210.7441310403627</v>
       </c>
       <c r="E471" t="n">
-        <v>214.9894256591797</v>
+        <v>214.9894409179688</v>
       </c>
       <c r="F471" t="n">
         <v>42201600</v>
@@ -12841,16 +12841,16 @@
         <v>45523</v>
       </c>
       <c r="B477" t="n">
-        <v>224.6743714872065</v>
+        <v>224.6743562399008</v>
       </c>
       <c r="C477" t="n">
-        <v>224.9431249866126</v>
+        <v>224.9431097210682</v>
       </c>
       <c r="D477" t="n">
-        <v>222.0067784736323</v>
+        <v>222.0067634073601</v>
       </c>
       <c r="E477" t="n">
-        <v>224.8435821533203</v>
+        <v>224.8435668945312</v>
       </c>
       <c r="F477" t="n">
         <v>40687800</v>
@@ -12919,16 +12919,16 @@
         <v>45526</v>
       </c>
       <c r="B480" t="n">
-        <v>226.7347608131935</v>
+        <v>226.7347762935279</v>
       </c>
       <c r="C480" t="n">
-        <v>227.2822159870921</v>
+        <v>227.2822315048041</v>
       </c>
       <c r="D480" t="n">
-        <v>222.862781765951</v>
+        <v>222.8627969819257</v>
       </c>
       <c r="E480" t="n">
-        <v>223.4898681640625</v>
+        <v>223.4898834228516</v>
       </c>
       <c r="F480" t="n">
         <v>43695300</v>
@@ -12945,16 +12945,16 @@
         <v>45527</v>
       </c>
       <c r="B481" t="n">
-        <v>224.6146277242459</v>
+        <v>224.6146429036607</v>
       </c>
       <c r="C481" t="n">
-        <v>227.1627660264127</v>
+        <v>227.1627813780302</v>
       </c>
       <c r="D481" t="n">
-        <v>223.2907871618651</v>
+        <v>223.290802251815</v>
       </c>
       <c r="E481" t="n">
-        <v>225.7891540527344</v>
+        <v>225.7891693115234</v>
       </c>
       <c r="F481" t="n">
         <v>38677300</v>
@@ -13075,16 +13075,16 @@
         <v>45534</v>
       </c>
       <c r="B486" t="n">
-        <v>229.123652992766</v>
+        <v>229.1236683308476</v>
       </c>
       <c r="C486" t="n">
-        <v>229.3326716676627</v>
+        <v>229.3326870197365</v>
       </c>
       <c r="D486" t="n">
-        <v>226.4262003174517</v>
+        <v>226.4262154749595</v>
       </c>
       <c r="E486" t="n">
-        <v>227.9391632080078</v>
+        <v>227.9391784667969</v>
       </c>
       <c r="F486" t="n">
         <v>52990800</v>
@@ -13205,16 +13205,16 @@
         <v>45544</v>
       </c>
       <c r="B491" t="n">
-        <v>219.7970782769854</v>
+        <v>219.7970630244126</v>
       </c>
       <c r="C491" t="n">
-        <v>220.2449906543814</v>
+        <v>220.2449753707262</v>
       </c>
       <c r="D491" t="n">
-        <v>215.7061168789743</v>
+        <v>215.7061019102892</v>
       </c>
       <c r="E491" t="n">
-        <v>219.8866577148438</v>
+        <v>219.8866424560547</v>
       </c>
       <c r="F491" t="n">
         <v>67180000</v>
@@ -13361,16 +13361,16 @@
         <v>45552</v>
       </c>
       <c r="B497" t="n">
-        <v>214.7505452735021</v>
+        <v>214.7505300879131</v>
       </c>
       <c r="C497" t="n">
-        <v>215.8952118613641</v>
+        <v>215.8951965948326</v>
       </c>
       <c r="D497" t="n">
-        <v>213.5063358570856</v>
+        <v>213.5063207594779</v>
       </c>
       <c r="E497" t="n">
-        <v>215.7857208251953</v>
+        <v>215.7857055664062</v>
       </c>
       <c r="F497" t="n">
         <v>45519300</v>
@@ -13413,16 +13413,16 @@
         <v>45554</v>
       </c>
       <c r="B499" t="n">
-        <v>223.9477378704066</v>
+        <v>223.9477528705163</v>
       </c>
       <c r="C499" t="n">
-        <v>228.7553646874453</v>
+        <v>228.7553800095718</v>
       </c>
       <c r="D499" t="n">
-        <v>223.5894049651583</v>
+        <v>223.5894199412667</v>
       </c>
       <c r="E499" t="n">
-        <v>227.8097534179688</v>
+        <v>227.8097686767578</v>
       </c>
       <c r="F499" t="n">
         <v>66781300</v>
@@ -13439,16 +13439,16 @@
         <v>45555</v>
       </c>
       <c r="B500" t="n">
-        <v>228.9046728284513</v>
+        <v>228.9046574513093</v>
       </c>
       <c r="C500" t="n">
-        <v>232.0102146718883</v>
+        <v>232.0101990861253</v>
       </c>
       <c r="D500" t="n">
-        <v>226.5655530501552</v>
+        <v>226.5655378301485</v>
       </c>
       <c r="E500" t="n">
-        <v>227.1428680419922</v>
+        <v>227.1428527832031</v>
       </c>
       <c r="F500" t="n">
         <v>318679900</v>
@@ -13543,16 +13543,16 @@
         <v>45561</v>
       </c>
       <c r="B504" t="n">
-        <v>226.2470366109127</v>
+        <v>226.2470518549472</v>
       </c>
       <c r="C504" t="n">
-        <v>227.4414745776386</v>
+        <v>227.4414899021518</v>
       </c>
       <c r="D504" t="n">
-        <v>224.3657926365912</v>
+        <v>224.3658077538716</v>
       </c>
       <c r="E504" t="n">
-        <v>226.4660186767578</v>
+        <v>226.4660339355469</v>
       </c>
       <c r="F504" t="n">
         <v>36636700</v>
@@ -13569,16 +13569,16 @@
         <v>45562</v>
       </c>
       <c r="B505" t="n">
-        <v>227.4016813648909</v>
+        <v>227.4016660612202</v>
       </c>
       <c r="C505" t="n">
-        <v>228.4567685573237</v>
+        <v>228.4567531826477</v>
       </c>
       <c r="D505" t="n">
-        <v>226.2470513403743</v>
+        <v>226.2470361144078</v>
       </c>
       <c r="E505" t="n">
-        <v>226.7347717285156</v>
+        <v>226.7347564697266</v>
       </c>
       <c r="F505" t="n">
         <v>34026000</v>
@@ -13673,16 +13673,16 @@
         <v>45568</v>
       </c>
       <c r="B509" t="n">
-        <v>224.0970292154403</v>
+        <v>224.0970444383932</v>
       </c>
       <c r="C509" t="n">
-        <v>225.7592910501673</v>
+        <v>225.759306386038</v>
       </c>
       <c r="D509" t="n">
-        <v>222.285468337035</v>
+        <v>222.2854834369283</v>
       </c>
       <c r="E509" t="n">
-        <v>224.6245727539062</v>
+        <v>224.6245880126953</v>
       </c>
       <c r="F509" t="n">
         <v>34044200</v>
@@ -13725,16 +13725,16 @@
         <v>45572</v>
       </c>
       <c r="B511" t="n">
-        <v>223.4600206171574</v>
+        <v>223.4600051649579</v>
       </c>
       <c r="C511" t="n">
-        <v>224.6445104616612</v>
+        <v>224.6444949275546</v>
       </c>
       <c r="D511" t="n">
-        <v>220.3047072265611</v>
+        <v>220.3046919925507</v>
       </c>
       <c r="E511" t="n">
-        <v>220.6630401611328</v>
+        <v>220.6630249023438</v>
       </c>
       <c r="F511" t="n">
         <v>39505400</v>
@@ -13751,16 +13751,16 @@
         <v>45573</v>
       </c>
       <c r="B512" t="n">
-        <v>223.2609448368007</v>
+        <v>223.2609599962389</v>
       </c>
       <c r="C512" t="n">
-        <v>224.933155033014</v>
+        <v>224.9331703059954</v>
       </c>
       <c r="D512" t="n">
-        <v>222.2158058701156</v>
+        <v>222.2158209585888</v>
       </c>
       <c r="E512" t="n">
-        <v>224.7241363525391</v>
+        <v>224.7241516113281</v>
       </c>
       <c r="F512" t="n">
         <v>31855700</v>
@@ -13829,16 +13829,16 @@
         <v>45576</v>
       </c>
       <c r="B515" t="n">
-        <v>228.2377732709054</v>
+        <v>228.2377886470439</v>
       </c>
       <c r="C515" t="n">
-        <v>228.3472643046208</v>
+        <v>228.3472796881356</v>
       </c>
       <c r="D515" t="n">
-        <v>226.2868462669136</v>
+        <v>226.2868615116203</v>
       </c>
       <c r="E515" t="n">
-        <v>226.4958801269531</v>
+        <v>226.4958953857422</v>
       </c>
       <c r="F515" t="n">
         <v>31759200</v>
@@ -13855,16 +13855,16 @@
         <v>45579</v>
       </c>
       <c r="B516" t="n">
-        <v>227.6405539391785</v>
+        <v>227.6405388519111</v>
       </c>
       <c r="C516" t="n">
-        <v>230.6565163779986</v>
+        <v>230.6565010908431</v>
       </c>
       <c r="D516" t="n">
-        <v>227.5410262977875</v>
+        <v>227.5410112171164</v>
       </c>
       <c r="E516" t="n">
-        <v>230.228515625</v>
+        <v>230.2285003662109</v>
       </c>
       <c r="F516" t="n">
         <v>39882100</v>
@@ -14323,16 +14323,16 @@
         <v>45603</v>
       </c>
       <c r="B534" t="n">
-        <v>223.5894049928319</v>
+        <v>223.5894200604507</v>
       </c>
       <c r="C534" t="n">
-        <v>226.8243493476869</v>
+        <v>226.8243646333076</v>
       </c>
       <c r="D534" t="n">
-        <v>223.5296853733002</v>
+        <v>223.5297004368945</v>
       </c>
       <c r="E534" t="n">
-        <v>226.4261932373047</v>
+        <v>226.4262084960938</v>
       </c>
       <c r="F534" t="n">
         <v>42137700</v>
@@ -14453,16 +14453,16 @@
         <v>45610</v>
       </c>
       <c r="B539" t="n">
-        <v>224.2240270670375</v>
+        <v>224.2240421118748</v>
       </c>
       <c r="C539" t="n">
-        <v>228.0603991005682</v>
+        <v>228.0604144028158</v>
       </c>
       <c r="D539" t="n">
-        <v>224.2040935569292</v>
+        <v>224.204108600429</v>
       </c>
       <c r="E539" t="n">
-        <v>227.4127044677734</v>
+        <v>227.4127197265625</v>
       </c>
       <c r="F539" t="n">
         <v>44923900</v>
@@ -14531,16 +14531,16 @@
         <v>45615</v>
       </c>
       <c r="B542" t="n">
-        <v>226.1770839408332</v>
+        <v>226.1770687689395</v>
       </c>
       <c r="C542" t="n">
-        <v>229.3458430169113</v>
+        <v>229.3458276324582</v>
       </c>
       <c r="D542" t="n">
-        <v>225.8582238051146</v>
+        <v>225.8582086546099</v>
       </c>
       <c r="E542" t="n">
-        <v>227.4724884033203</v>
+        <v>227.4724731445312</v>
       </c>
       <c r="F542" t="n">
         <v>36211800</v>
@@ -14557,16 +14557,16 @@
         <v>45616</v>
       </c>
       <c r="B543" t="n">
-        <v>227.2532641048254</v>
+        <v>227.25327930098</v>
       </c>
       <c r="C543" t="n">
-        <v>229.1166443503319</v>
+        <v>229.1166596710885</v>
       </c>
       <c r="D543" t="n">
-        <v>225.0909420304879</v>
+        <v>225.0909570820506</v>
       </c>
       <c r="E543" t="n">
-        <v>228.18994140625</v>
+        <v>228.1899566650391</v>
       </c>
       <c r="F543" t="n">
         <v>35169600</v>
@@ -14609,16 +14609,16 @@
         <v>45618</v>
       </c>
       <c r="B545" t="n">
-        <v>227.2532745036032</v>
+        <v>227.2532593649619</v>
       </c>
       <c r="C545" t="n">
-        <v>229.9038688598125</v>
+        <v>229.9038535446</v>
       </c>
       <c r="D545" t="n">
-        <v>227.2532745036032</v>
+        <v>227.2532593649619</v>
       </c>
       <c r="E545" t="n">
-        <v>229.0568695068359</v>
+        <v>229.0568542480469</v>
       </c>
       <c r="F545" t="n">
         <v>38168300</v>
@@ -14661,16 +14661,16 @@
         <v>45622</v>
       </c>
       <c r="B547" t="n">
-        <v>232.5046242958029</v>
+        <v>232.5046394422903</v>
       </c>
       <c r="C547" t="n">
-        <v>234.7367060320631</v>
+        <v>234.7367213239591</v>
       </c>
       <c r="D547" t="n">
-        <v>232.5046242958029</v>
+        <v>232.5046394422903</v>
       </c>
       <c r="E547" t="n">
-        <v>234.2285003662109</v>
+        <v>234.228515625</v>
       </c>
       <c r="F547" t="n">
         <v>45986200</v>
@@ -14713,16 +14713,16 @@
         <v>45625</v>
       </c>
       <c r="B549" t="n">
-        <v>233.979388423105</v>
+        <v>233.9794035198741</v>
       </c>
       <c r="C549" t="n">
-        <v>236.9687763221197</v>
+        <v>236.9687916117694</v>
       </c>
       <c r="D549" t="n">
-        <v>233.1423634605361</v>
+        <v>233.1423785032988</v>
       </c>
       <c r="E549" t="n">
-        <v>236.490478515625</v>
+        <v>236.4904937744141</v>
       </c>
       <c r="F549" t="n">
         <v>28481400</v>
@@ -14791,16 +14791,16 @@
         <v>45630</v>
       </c>
       <c r="B552" t="n">
-        <v>242.0108712078605</v>
+        <v>242.0108864578589</v>
       </c>
       <c r="C552" t="n">
-        <v>243.2464903281161</v>
+        <v>243.2465056559754</v>
       </c>
       <c r="D552" t="n">
-        <v>240.3966066319756</v>
+        <v>240.3966217802532</v>
       </c>
       <c r="E552" t="n">
-        <v>242.1503753662109</v>
+        <v>242.150390625</v>
       </c>
       <c r="F552" t="n">
         <v>44383900</v>
@@ -14895,16 +14895,16 @@
         <v>45636</v>
       </c>
       <c r="B556" t="n">
-        <v>246.0166626912396</v>
+        <v>246.0166474866452</v>
       </c>
       <c r="C556" t="n">
-        <v>247.3320006856302</v>
+        <v>247.3319853997438</v>
       </c>
       <c r="D556" t="n">
-        <v>244.4721425450312</v>
+        <v>244.4721274358929</v>
       </c>
       <c r="E556" t="n">
-        <v>246.8935546875</v>
+        <v>246.8935394287109</v>
       </c>
       <c r="F556" t="n">
         <v>36914800</v>
@@ -14947,16 +14947,16 @@
         <v>45638</v>
       </c>
       <c r="B558" t="n">
-        <v>246.0166634068319</v>
+        <v>246.0166482138882</v>
       </c>
       <c r="C558" t="n">
-        <v>247.8601253939288</v>
+        <v>247.8601100871407</v>
       </c>
       <c r="D558" t="n">
-        <v>244.8109369084667</v>
+        <v>244.8109217899835</v>
       </c>
       <c r="E558" t="n">
-        <v>247.0828857421875</v>
+        <v>247.0828704833984</v>
       </c>
       <c r="F558" t="n">
         <v>32777500</v>
@@ -15129,16 +15129,16 @@
         <v>45649</v>
       </c>
       <c r="B565" t="n">
-        <v>253.8687883386418</v>
+        <v>253.8687731097403</v>
       </c>
       <c r="C565" t="n">
-        <v>254.7456651132031</v>
+        <v>254.7456498317001</v>
       </c>
       <c r="D565" t="n">
-        <v>252.5534503695802</v>
+        <v>252.5534352195823</v>
       </c>
       <c r="E565" t="n">
-        <v>254.3670196533203</v>
+        <v>254.3670043945312</v>
       </c>
       <c r="F565" t="n">
         <v>40858800</v>
@@ -15155,16 +15155,16 @@
         <v>45650</v>
       </c>
       <c r="B566" t="n">
-        <v>254.5862313158557</v>
+        <v>254.5862615131284</v>
       </c>
       <c r="C566" t="n">
-        <v>257.2965955586333</v>
+        <v>257.2966260773909</v>
       </c>
       <c r="D566" t="n">
-        <v>254.3869266350054</v>
+        <v>254.386956808638</v>
       </c>
       <c r="E566" t="n">
-        <v>257.2866516113281</v>
+        <v>257.2866821289062</v>
       </c>
       <c r="F566" t="n">
         <v>23234700</v>
@@ -15233,16 +15233,16 @@
         <v>45656</v>
       </c>
       <c r="B569" t="n">
-        <v>251.3377539893414</v>
+        <v>251.3377692499455</v>
       </c>
       <c r="C569" t="n">
-        <v>252.6032657318147</v>
+        <v>252.6032810692575</v>
       </c>
       <c r="D569" t="n">
-        <v>249.8629936183532</v>
+        <v>249.8630087894135</v>
       </c>
       <c r="E569" t="n">
-        <v>251.307861328125</v>
+        <v>251.3078765869141</v>
       </c>
       <c r="F569" t="n">
         <v>35557500</v>
@@ -15285,16 +15285,16 @@
         <v>45659</v>
       </c>
       <c r="B571" t="n">
-        <v>248.0494281352692</v>
+        <v>248.0494437119358</v>
       </c>
       <c r="C571" t="n">
-        <v>248.2188401577881</v>
+        <v>248.2188557450932</v>
       </c>
       <c r="D571" t="n">
-        <v>240.9645936340195</v>
+        <v>240.9646087657824</v>
       </c>
       <c r="E571" t="n">
-        <v>242.9874114990234</v>
+        <v>242.9874267578125</v>
       </c>
       <c r="F571" t="n">
         <v>55740700</v>
@@ -15311,16 +15311,16 @@
         <v>45660</v>
       </c>
       <c r="B572" t="n">
-        <v>242.4991455078125</v>
+        <v>242.4991607666016</v>
       </c>
       <c r="C572" t="n">
-        <v>243.3162369554258</v>
+        <v>243.3162522656288</v>
       </c>
       <c r="D572" t="n">
-        <v>241.0343442297803</v>
+        <v>241.0343593963996</v>
       </c>
       <c r="E572" t="n">
-        <v>242.4991455078125</v>
+        <v>242.4991607666016</v>
       </c>
       <c r="F572" t="n">
         <v>40244100</v>
@@ -15623,16 +15623,16 @@
         <v>45680</v>
       </c>
       <c r="B584" t="n">
-        <v>223.9450322465422</v>
+        <v>223.945016914072</v>
       </c>
       <c r="C584" t="n">
-        <v>226.2269251350915</v>
+        <v>226.2269096463908</v>
       </c>
       <c r="D584" t="n">
-        <v>221.5136608303883</v>
+        <v>221.5136456643827</v>
       </c>
       <c r="E584" t="n">
-        <v>222.8688507080078</v>
+        <v>222.8688354492188</v>
       </c>
       <c r="F584" t="n">
         <v>60234800</v>
@@ -15701,16 +15701,16 @@
         <v>45685</v>
       </c>
       <c r="B587" t="n">
-        <v>230.0333989300448</v>
+        <v>230.033413714279</v>
       </c>
       <c r="C587" t="n">
-        <v>239.3403560311667</v>
+        <v>239.3403714135585</v>
       </c>
       <c r="D587" t="n">
-        <v>229.9935319110658</v>
+        <v>229.9935466927377</v>
       </c>
       <c r="E587" t="n">
-        <v>237.4171752929688</v>
+        <v>237.4171905517578</v>
       </c>
       <c r="F587" t="n">
         <v>75707600</v>
@@ -15805,16 +15805,16 @@
         <v>45691</v>
       </c>
       <c r="B591" t="n">
-        <v>229.1764370558195</v>
+        <v>229.1764524471141</v>
       </c>
       <c r="C591" t="n">
-        <v>231.0099245763286</v>
+        <v>231.0099400907586</v>
       </c>
       <c r="D591" t="n">
-        <v>224.9016040205491</v>
+        <v>224.9016191247495</v>
       </c>
       <c r="E591" t="n">
-        <v>227.2034301757812</v>
+        <v>227.2034454345703</v>
       </c>
       <c r="F591" t="n">
         <v>73063300</v>
@@ -15857,16 +15857,16 @@
         <v>45693</v>
       </c>
       <c r="B593" t="n">
-        <v>227.7216092681561</v>
+        <v>227.7215942679796</v>
       </c>
       <c r="C593" t="n">
-        <v>231.8469640505294</v>
+        <v>231.846948778613</v>
       </c>
       <c r="D593" t="n">
-        <v>227.4625344516602</v>
+        <v>227.4625194685491</v>
       </c>
       <c r="E593" t="n">
-        <v>231.6476745605469</v>
+        <v>231.6476593017578</v>
       </c>
       <c r="F593" t="n">
         <v>39620300</v>
@@ -15909,16 +15909,16 @@
         <v>45695</v>
       </c>
       <c r="B595" t="n">
-        <v>231.7772347780746</v>
+        <v>231.77721918613</v>
       </c>
       <c r="C595" t="n">
-        <v>233.1722765042942</v>
+        <v>233.1722608185033</v>
       </c>
       <c r="D595" t="n">
-        <v>226.4561122970612</v>
+        <v>226.4560970630751</v>
       </c>
       <c r="E595" t="n">
-        <v>226.8248138427734</v>
+        <v>226.8247985839844</v>
       </c>
       <c r="F595" t="n">
         <v>39707200</v>
@@ -20741,247 +20741,247 @@
       </c>
       <c r="EC1" s="1" t="inlineStr">
         <is>
+          <t>marketState</t>
+        </is>
+      </c>
+      <c r="ED1" s="1" t="inlineStr">
+        <is>
+          <t>longName</t>
+        </is>
+      </c>
+      <c r="EE1" s="1" t="inlineStr">
+        <is>
+          <t>cryptoTradeable</t>
+        </is>
+      </c>
+      <c r="EF1" s="1" t="inlineStr">
+        <is>
+          <t>corporateActions</t>
+        </is>
+      </c>
+      <c r="EG1" s="1" t="inlineStr">
+        <is>
+          <t>postMarketTime</t>
+        </is>
+      </c>
+      <c r="EH1" s="1" t="inlineStr">
+        <is>
+          <t>regularMarketTime</t>
+        </is>
+      </c>
+      <c r="EI1" s="1" t="inlineStr">
+        <is>
           <t>exchange</t>
         </is>
       </c>
-      <c r="ED1" s="1" t="inlineStr">
+      <c r="EJ1" s="1" t="inlineStr">
         <is>
           <t>messageBoardId</t>
         </is>
       </c>
-      <c r="EE1" s="1" t="inlineStr">
+      <c r="EK1" s="1" t="inlineStr">
         <is>
           <t>exchangeTimezoneName</t>
         </is>
       </c>
-      <c r="EF1" s="1" t="inlineStr">
+      <c r="EL1" s="1" t="inlineStr">
         <is>
           <t>exchangeTimezoneShortName</t>
         </is>
       </c>
-      <c r="EG1" s="1" t="inlineStr">
+      <c r="EM1" s="1" t="inlineStr">
         <is>
           <t>gmtOffSetMilliseconds</t>
         </is>
       </c>
-      <c r="EH1" s="1" t="inlineStr">
+      <c r="EN1" s="1" t="inlineStr">
         <is>
           <t>market</t>
         </is>
       </c>
-      <c r="EI1" s="1" t="inlineStr">
+      <c r="EO1" s="1" t="inlineStr">
         <is>
           <t>esgPopulated</t>
         </is>
       </c>
-      <c r="EJ1" s="1" t="inlineStr">
+      <c r="EP1" s="1" t="inlineStr">
         <is>
           <t>regularMarketChangePercent</t>
         </is>
       </c>
-      <c r="EK1" s="1" t="inlineStr">
+      <c r="EQ1" s="1" t="inlineStr">
         <is>
           <t>regularMarketPrice</t>
         </is>
       </c>
-      <c r="EL1" s="1" t="inlineStr">
-        <is>
-          <t>marketState</t>
-        </is>
-      </c>
-      <c r="EM1" s="1" t="inlineStr">
-        <is>
-          <t>corporateActions</t>
-        </is>
-      </c>
-      <c r="EN1" s="1" t="inlineStr">
-        <is>
-          <t>postMarketTime</t>
-        </is>
-      </c>
-      <c r="EO1" s="1" t="inlineStr">
-        <is>
-          <t>regularMarketTime</t>
-        </is>
-      </c>
-      <c r="EP1" s="1" t="inlineStr">
+      <c r="ER1" s="1" t="inlineStr">
+        <is>
+          <t>hasPrePostMarketData</t>
+        </is>
+      </c>
+      <c r="ES1" s="1" t="inlineStr">
+        <is>
+          <t>firstTradeDateMilliseconds</t>
+        </is>
+      </c>
+      <c r="ET1" s="1" t="inlineStr">
+        <is>
+          <t>postMarketChangePercent</t>
+        </is>
+      </c>
+      <c r="EU1" s="1" t="inlineStr">
+        <is>
+          <t>postMarketPrice</t>
+        </is>
+      </c>
+      <c r="EV1" s="1" t="inlineStr">
+        <is>
+          <t>postMarketChange</t>
+        </is>
+      </c>
+      <c r="EW1" s="1" t="inlineStr">
+        <is>
+          <t>regularMarketChange</t>
+        </is>
+      </c>
+      <c r="EX1" s="1" t="inlineStr">
+        <is>
+          <t>regularMarketDayRange</t>
+        </is>
+      </c>
+      <c r="EY1" s="1" t="inlineStr">
+        <is>
+          <t>fullExchangeName</t>
+        </is>
+      </c>
+      <c r="EZ1" s="1" t="inlineStr">
         <is>
           <t>averageDailyVolume3Month</t>
         </is>
       </c>
-      <c r="EQ1" s="1" t="inlineStr">
+      <c r="FA1" s="1" t="inlineStr">
         <is>
           <t>fiftyTwoWeekLowChange</t>
         </is>
       </c>
-      <c r="ER1" s="1" t="inlineStr">
+      <c r="FB1" s="1" t="inlineStr">
         <is>
           <t>fiftyTwoWeekLowChangePercent</t>
         </is>
       </c>
-      <c r="ES1" s="1" t="inlineStr">
+      <c r="FC1" s="1" t="inlineStr">
         <is>
           <t>fiftyTwoWeekRange</t>
         </is>
       </c>
-      <c r="ET1" s="1" t="inlineStr">
+      <c r="FD1" s="1" t="inlineStr">
         <is>
           <t>fiftyTwoWeekHighChange</t>
         </is>
       </c>
-      <c r="EU1" s="1" t="inlineStr">
+      <c r="FE1" s="1" t="inlineStr">
         <is>
           <t>fiftyTwoWeekHighChangePercent</t>
         </is>
       </c>
-      <c r="EV1" s="1" t="inlineStr">
+      <c r="FF1" s="1" t="inlineStr">
         <is>
           <t>fiftyTwoWeekChangePercent</t>
         </is>
       </c>
-      <c r="EW1" s="1" t="inlineStr">
+      <c r="FG1" s="1" t="inlineStr">
         <is>
           <t>dividendDate</t>
         </is>
       </c>
-      <c r="EX1" s="1" t="inlineStr">
+      <c r="FH1" s="1" t="inlineStr">
         <is>
           <t>earningsTimestamp</t>
         </is>
       </c>
-      <c r="EY1" s="1" t="inlineStr">
+      <c r="FI1" s="1" t="inlineStr">
         <is>
           <t>earningsTimestampStart</t>
         </is>
       </c>
-      <c r="EZ1" s="1" t="inlineStr">
+      <c r="FJ1" s="1" t="inlineStr">
         <is>
           <t>earningsTimestampEnd</t>
         </is>
       </c>
-      <c r="FA1" s="1" t="inlineStr">
+      <c r="FK1" s="1" t="inlineStr">
         <is>
           <t>earningsCallTimestampStart</t>
         </is>
       </c>
-      <c r="FB1" s="1" t="inlineStr">
+      <c r="FL1" s="1" t="inlineStr">
         <is>
           <t>earningsCallTimestampEnd</t>
         </is>
       </c>
-      <c r="FC1" s="1" t="inlineStr">
+      <c r="FM1" s="1" t="inlineStr">
         <is>
           <t>isEarningsDateEstimate</t>
         </is>
       </c>
-      <c r="FD1" s="1" t="inlineStr">
+      <c r="FN1" s="1" t="inlineStr">
         <is>
           <t>epsTrailingTwelveMonths</t>
         </is>
       </c>
-      <c r="FE1" s="1" t="inlineStr">
+      <c r="FO1" s="1" t="inlineStr">
         <is>
           <t>epsForward</t>
         </is>
       </c>
-      <c r="FF1" s="1" t="inlineStr">
+      <c r="FP1" s="1" t="inlineStr">
         <is>
           <t>epsCurrentYear</t>
         </is>
       </c>
-      <c r="FG1" s="1" t="inlineStr">
+      <c r="FQ1" s="1" t="inlineStr">
         <is>
           <t>priceEpsCurrentYear</t>
         </is>
       </c>
-      <c r="FH1" s="1" t="inlineStr">
+      <c r="FR1" s="1" t="inlineStr">
         <is>
           <t>fiftyDayAverageChange</t>
         </is>
       </c>
-      <c r="FI1" s="1" t="inlineStr">
+      <c r="FS1" s="1" t="inlineStr">
         <is>
           <t>fiftyDayAverageChangePercent</t>
         </is>
       </c>
-      <c r="FJ1" s="1" t="inlineStr">
+      <c r="FT1" s="1" t="inlineStr">
         <is>
           <t>twoHundredDayAverageChange</t>
         </is>
       </c>
-      <c r="FK1" s="1" t="inlineStr">
+      <c r="FU1" s="1" t="inlineStr">
         <is>
           <t>twoHundredDayAverageChangePercent</t>
         </is>
       </c>
-      <c r="FL1" s="1" t="inlineStr">
+      <c r="FV1" s="1" t="inlineStr">
         <is>
           <t>sourceInterval</t>
         </is>
       </c>
-      <c r="FM1" s="1" t="inlineStr">
+      <c r="FW1" s="1" t="inlineStr">
         <is>
           <t>exchangeDataDelayedBy</t>
         </is>
       </c>
-      <c r="FN1" s="1" t="inlineStr">
+      <c r="FX1" s="1" t="inlineStr">
         <is>
           <t>averageAnalystRating</t>
         </is>
       </c>
-      <c r="FO1" s="1" t="inlineStr">
-        <is>
-          <t>cryptoTradeable</t>
-        </is>
-      </c>
-      <c r="FP1" s="1" t="inlineStr">
-        <is>
-          <t>hasPrePostMarketData</t>
-        </is>
-      </c>
-      <c r="FQ1" s="1" t="inlineStr">
-        <is>
-          <t>firstTradeDateMilliseconds</t>
-        </is>
-      </c>
-      <c r="FR1" s="1" t="inlineStr">
-        <is>
-          <t>postMarketChangePercent</t>
-        </is>
-      </c>
-      <c r="FS1" s="1" t="inlineStr">
-        <is>
-          <t>postMarketPrice</t>
-        </is>
-      </c>
-      <c r="FT1" s="1" t="inlineStr">
-        <is>
-          <t>postMarketChange</t>
-        </is>
-      </c>
-      <c r="FU1" s="1" t="inlineStr">
-        <is>
-          <t>regularMarketChange</t>
-        </is>
-      </c>
-      <c r="FV1" s="1" t="inlineStr">
-        <is>
-          <t>regularMarketDayRange</t>
-        </is>
-      </c>
-      <c r="FW1" s="1" t="inlineStr">
-        <is>
-          <t>fullExchangeName</t>
-        </is>
-      </c>
-      <c r="FX1" s="1" t="inlineStr">
+      <c r="FY1" s="1" t="inlineStr">
         <is>
           <t>shortName</t>
-        </is>
-      </c>
-      <c r="FY1" s="1" t="inlineStr">
-        <is>
-          <t>longName</t>
         </is>
       </c>
       <c r="FZ1" s="1" t="inlineStr">
@@ -21450,170 +21450,170 @@
       </c>
       <c r="EC2" t="inlineStr">
         <is>
+          <t>CLOSED</t>
+        </is>
+      </c>
+      <c r="ED2" t="inlineStr">
+        <is>
+          <t>Apple Inc.</t>
+        </is>
+      </c>
+      <c r="EE2" t="b">
+        <v>0</v>
+      </c>
+      <c r="EF2" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="EG2" t="n">
+        <v>1758931161</v>
+      </c>
+      <c r="EH2" t="n">
+        <v>1758916800</v>
+      </c>
+      <c r="EI2" t="inlineStr">
+        <is>
           <t>NMS</t>
         </is>
       </c>
-      <c r="ED2" t="inlineStr">
+      <c r="EJ2" t="inlineStr">
         <is>
           <t>finmb_24937</t>
         </is>
       </c>
-      <c r="EE2" t="inlineStr">
+      <c r="EK2" t="inlineStr">
         <is>
           <t>America/New_York</t>
         </is>
       </c>
-      <c r="EF2" t="inlineStr">
+      <c r="EL2" t="inlineStr">
         <is>
           <t>EDT</t>
         </is>
       </c>
-      <c r="EG2" t="n">
+      <c r="EM2" t="n">
         <v>-14400000</v>
       </c>
-      <c r="EH2" t="inlineStr">
+      <c r="EN2" t="inlineStr">
         <is>
           <t>us_market</t>
         </is>
       </c>
-      <c r="EI2" t="b">
-        <v>0</v>
-      </c>
-      <c r="EJ2" t="n">
+      <c r="EO2" t="b">
+        <v>0</v>
+      </c>
+      <c r="EP2" t="n">
         <v>-0.548911</v>
       </c>
-      <c r="EK2" t="n">
+      <c r="EQ2" t="n">
         <v>255.46</v>
       </c>
-      <c r="EL2" t="inlineStr">
-        <is>
-          <t>CLOSED</t>
-        </is>
-      </c>
-      <c r="EM2" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="EN2" t="n">
-        <v>1758931161</v>
-      </c>
-      <c r="EO2" t="n">
-        <v>1758916800</v>
-      </c>
-      <c r="EP2" t="n">
+      <c r="ER2" t="b">
+        <v>1</v>
+      </c>
+      <c r="ES2" t="n">
+        <v>345479400000</v>
+      </c>
+      <c r="ET2" t="n">
+        <v>0.007824713000000001</v>
+      </c>
+      <c r="EU2" t="n">
+        <v>255.48</v>
+      </c>
+      <c r="EV2" t="n">
+        <v>0.019989014</v>
+      </c>
+      <c r="EW2" t="n">
+        <v>-1.40999</v>
+      </c>
+      <c r="EX2" t="inlineStr">
+        <is>
+          <t>253.78 - 257.36</t>
+        </is>
+      </c>
+      <c r="EY2" t="inlineStr">
+        <is>
+          <t>NasdaqGS</t>
+        </is>
+      </c>
+      <c r="EZ2" t="n">
         <v>56787322</v>
       </c>
-      <c r="EQ2" t="n">
+      <c r="FA2" t="n">
         <v>86.25</v>
       </c>
-      <c r="ER2" t="n">
+      <c r="FB2" t="n">
         <v>0.50972164</v>
       </c>
-      <c r="ES2" t="inlineStr">
+      <c r="FC2" t="inlineStr">
         <is>
           <t>169.21 - 260.1</t>
         </is>
       </c>
-      <c r="ET2" t="n">
+      <c r="FD2" t="n">
         <v>-4.6399994</v>
       </c>
-      <c r="EU2" t="n">
+      <c r="FE2" t="n">
         <v>-0.01783929</v>
       </c>
-      <c r="EV2" t="n">
+      <c r="FF2" t="n">
         <v>9.63949</v>
       </c>
-      <c r="EW2" t="n">
+      <c r="FG2" t="n">
         <v>1755129600</v>
       </c>
-      <c r="EX2" t="n">
+      <c r="FH2" t="n">
         <v>1753992000</v>
       </c>
-      <c r="EY2" t="n">
+      <c r="FI2" t="n">
         <v>1761854400</v>
       </c>
-      <c r="EZ2" t="n">
+      <c r="FJ2" t="n">
         <v>1761854400</v>
       </c>
-      <c r="FA2" t="n">
+      <c r="FK2" t="n">
         <v>1753995600</v>
       </c>
-      <c r="FB2" t="n">
+      <c r="FL2" t="n">
         <v>1753995600</v>
       </c>
-      <c r="FC2" t="b">
+      <c r="FM2" t="b">
         <v>1</v>
       </c>
-      <c r="FD2" t="n">
+      <c r="FN2" t="n">
         <v>6.59</v>
       </c>
-      <c r="FE2" t="n">
+      <c r="FO2" t="n">
         <v>8.31</v>
       </c>
-      <c r="FF2" t="n">
+      <c r="FP2" t="n">
         <v>7.38559</v>
       </c>
-      <c r="FG2" t="n">
+      <c r="FQ2" t="n">
         <v>34.588978</v>
       </c>
-      <c r="FH2" t="n">
+      <c r="FR2" t="n">
         <v>27.0094</v>
       </c>
-      <c r="FI2" t="n">
+      <c r="FS2" t="n">
         <v>0.118228614</v>
       </c>
-      <c r="FJ2" t="n">
+      <c r="FT2" t="n">
         <v>33.486404</v>
       </c>
-      <c r="FK2" t="n">
+      <c r="FU2" t="n">
         <v>0.1508576</v>
       </c>
-      <c r="FL2" t="n">
+      <c r="FV2" t="n">
         <v>15</v>
       </c>
-      <c r="FM2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN2" t="inlineStr">
+      <c r="FW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX2" t="inlineStr">
         <is>
           <t>2.0 - Buy</t>
-        </is>
-      </c>
-      <c r="FO2" t="b">
-        <v>0</v>
-      </c>
-      <c r="FP2" t="b">
-        <v>1</v>
-      </c>
-      <c r="FQ2" t="n">
-        <v>345479400000</v>
-      </c>
-      <c r="FR2" t="n">
-        <v>0.007824713000000001</v>
-      </c>
-      <c r="FS2" t="n">
-        <v>255.48</v>
-      </c>
-      <c r="FT2" t="n">
-        <v>0.019989014</v>
-      </c>
-      <c r="FU2" t="n">
-        <v>-1.40999</v>
-      </c>
-      <c r="FV2" t="inlineStr">
-        <is>
-          <t>253.78 - 257.36</t>
-        </is>
-      </c>
-      <c r="FW2" t="inlineStr">
-        <is>
-          <t>NasdaqGS</t>
-        </is>
-      </c>
-      <c r="FX2" t="inlineStr">
-        <is>
-          <t>Apple Inc.</t>
         </is>
       </c>
       <c r="FY2" t="inlineStr">

--- a/data/raw.xlsx
+++ b/data/raw.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H752"/>
+  <dimension ref="A1:H753"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,16 +491,16 @@
         <v>44851</v>
       </c>
       <c r="B2" t="n">
-        <v>138.8777573464222</v>
+        <v>138.877727115997</v>
       </c>
       <c r="C2" t="n">
-        <v>140.6793056411368</v>
+        <v>140.6792750185568</v>
       </c>
       <c r="D2" t="n">
-        <v>138.0901864672128</v>
+        <v>138.0901564082232</v>
       </c>
       <c r="E2" t="n">
-        <v>140.1969299316406</v>
+        <v>140.1968994140625</v>
       </c>
       <c r="F2" t="n">
         <v>85250900</v>
@@ -517,16 +517,16 @@
         <v>44852</v>
       </c>
       <c r="B3" t="n">
-        <v>143.2290635037147</v>
+        <v>143.229078947202</v>
       </c>
       <c r="C3" t="n">
-        <v>144.420251464502</v>
+        <v>144.4202670364276</v>
       </c>
       <c r="D3" t="n">
-        <v>138.4248948126108</v>
+        <v>138.4249097380949</v>
       </c>
       <c r="E3" t="n">
-        <v>141.5160980224609</v>
+        <v>141.51611328125</v>
       </c>
       <c r="F3" t="n">
         <v>99136600</v>
@@ -543,16 +543,16 @@
         <v>44853</v>
       </c>
       <c r="B4" t="n">
-        <v>139.488113651557</v>
+        <v>139.488128680181</v>
       </c>
       <c r="C4" t="n">
-        <v>142.6974472420552</v>
+        <v>142.6974626164569</v>
       </c>
       <c r="D4" t="n">
-        <v>139.3010638831592</v>
+        <v>139.3010788916303</v>
       </c>
       <c r="E4" t="n">
-        <v>141.6243896484375</v>
+        <v>141.6244049072266</v>
       </c>
       <c r="F4" t="n">
         <v>61758300</v>
@@ -569,16 +569,16 @@
         <v>44854</v>
       </c>
       <c r="B5" t="n">
-        <v>140.7974520498777</v>
+        <v>140.7974672692939</v>
       </c>
       <c r="C5" t="n">
-        <v>143.6228470143876</v>
+        <v>143.6228625392131</v>
       </c>
       <c r="D5" t="n">
-        <v>140.4331916903949</v>
+        <v>140.4332068704366</v>
       </c>
       <c r="E5" t="n">
-        <v>141.1616973876953</v>
+        <v>141.1617126464844</v>
       </c>
       <c r="F5" t="n">
         <v>64522000</v>
@@ -621,16 +621,16 @@
         <v>44858</v>
       </c>
       <c r="B7" t="n">
-        <v>144.9026288775933</v>
+        <v>144.9026739617267</v>
       </c>
       <c r="C7" t="n">
-        <v>147.8953798227958</v>
+        <v>147.8954258380758</v>
       </c>
       <c r="D7" t="n">
-        <v>143.7311194050042</v>
+        <v>143.7311641246412</v>
       </c>
       <c r="E7" t="n">
-        <v>147.1275024414062</v>
+        <v>147.1275482177734</v>
       </c>
       <c r="F7" t="n">
         <v>75981900</v>
@@ -647,16 +647,16 @@
         <v>44859</v>
       </c>
       <c r="B8" t="n">
-        <v>147.7575908367303</v>
+        <v>147.7575607698845</v>
       </c>
       <c r="C8" t="n">
-        <v>150.120303738468</v>
+        <v>150.1202731908393</v>
       </c>
       <c r="D8" t="n">
-        <v>147.0389392766393</v>
+        <v>147.0389093560302</v>
       </c>
       <c r="E8" t="n">
-        <v>149.9726257324219</v>
+        <v>149.9725952148438</v>
       </c>
       <c r="F8" t="n">
         <v>74732300</v>
@@ -699,16 +699,16 @@
         <v>44861</v>
       </c>
       <c r="B10" t="n">
-        <v>145.7690085542913</v>
+        <v>145.7689929509145</v>
       </c>
       <c r="C10" t="n">
-        <v>146.7337752087429</v>
+        <v>146.7337595020957</v>
       </c>
       <c r="D10" t="n">
-        <v>141.8902335075142</v>
+        <v>141.8902183193285</v>
       </c>
       <c r="E10" t="n">
-        <v>142.5498199462891</v>
+        <v>142.5498046875</v>
       </c>
       <c r="F10" t="n">
         <v>109180200</v>
@@ -751,16 +751,16 @@
         <v>44865</v>
       </c>
       <c r="B12" t="n">
-        <v>150.7798509735206</v>
+        <v>150.7798814552768</v>
       </c>
       <c r="C12" t="n">
-        <v>151.8430692501198</v>
+        <v>151.8430999468169</v>
       </c>
       <c r="D12" t="n">
-        <v>149.5591155400187</v>
+        <v>149.5591457749902</v>
       </c>
       <c r="E12" t="n">
-        <v>150.9570465087891</v>
+        <v>150.9570770263672</v>
       </c>
       <c r="F12" t="n">
         <v>97943200</v>
@@ -777,16 +777,16 @@
         <v>44866</v>
       </c>
       <c r="B13" t="n">
-        <v>152.6700175890912</v>
+        <v>152.6700332965796</v>
       </c>
       <c r="C13" t="n">
-        <v>153.0342628843062</v>
+        <v>153.0342786292701</v>
       </c>
       <c r="D13" t="n">
-        <v>146.8124851670013</v>
+        <v>146.8125002718361</v>
       </c>
       <c r="E13" t="n">
-        <v>148.3088531494141</v>
+        <v>148.3088684082031</v>
       </c>
       <c r="F13" t="n">
         <v>80379300</v>
@@ -803,16 +803,16 @@
         <v>44867</v>
       </c>
       <c r="B14" t="n">
-        <v>146.6353111817428</v>
+        <v>146.6352955105258</v>
       </c>
       <c r="C14" t="n">
-        <v>149.8052735226448</v>
+        <v>149.8052575126474</v>
       </c>
       <c r="D14" t="n">
-        <v>142.7466972606986</v>
+        <v>142.7466820050657</v>
       </c>
       <c r="E14" t="n">
-        <v>142.7762298583984</v>
+        <v>142.7762145996094</v>
       </c>
       <c r="F14" t="n">
         <v>93604600</v>
@@ -829,16 +829,16 @@
         <v>44868</v>
       </c>
       <c r="B15" t="n">
-        <v>139.8523771676876</v>
+        <v>139.8523615595117</v>
       </c>
       <c r="C15" t="n">
-        <v>140.5808829336648</v>
+        <v>140.5808672441843</v>
       </c>
       <c r="D15" t="n">
-        <v>136.5938171582264</v>
+        <v>136.5938019137211</v>
       </c>
       <c r="E15" t="n">
-        <v>136.7218017578125</v>
+        <v>136.7217864990234</v>
       </c>
       <c r="F15" t="n">
         <v>97918500</v>
@@ -855,16 +855,16 @@
         <v>44869</v>
       </c>
       <c r="B16" t="n">
-        <v>140.1139476707432</v>
+        <v>140.1139633386229</v>
       </c>
       <c r="C16" t="n">
-        <v>140.685883403728</v>
+        <v>140.6858991355631</v>
       </c>
       <c r="D16" t="n">
-        <v>132.5111792343939</v>
+        <v>132.5111940521138</v>
       </c>
       <c r="E16" t="n">
-        <v>136.4555511474609</v>
+        <v>136.45556640625</v>
       </c>
       <c r="F16" t="n">
         <v>140814800</v>
@@ -907,16 +907,16 @@
         <v>44873</v>
       </c>
       <c r="B18" t="n">
-        <v>138.4572845234078</v>
+        <v>138.4572998817349</v>
       </c>
       <c r="C18" t="n">
-        <v>139.4630882795032</v>
+        <v>139.4631037493987</v>
       </c>
       <c r="D18" t="n">
-        <v>135.5778955429872</v>
+        <v>135.5779105819191</v>
       </c>
       <c r="E18" t="n">
-        <v>137.5599365234375</v>
+        <v>137.5599517822266</v>
       </c>
       <c r="F18" t="n">
         <v>89908500</v>
@@ -959,16 +959,16 @@
         <v>44875</v>
       </c>
       <c r="B20" t="n">
-        <v>139.2757757139631</v>
+        <v>139.2757610400915</v>
       </c>
       <c r="C20" t="n">
-        <v>144.8274688720703</v>
+        <v>144.8274536132812</v>
       </c>
       <c r="D20" t="n">
-        <v>137.5599685390709</v>
+        <v>137.559954045974</v>
       </c>
       <c r="E20" t="n">
-        <v>144.8274688720703</v>
+        <v>144.8274536132812</v>
       </c>
       <c r="F20" t="n">
         <v>118854000</v>
@@ -985,16 +985,16 @@
         <v>44876</v>
       </c>
       <c r="B21" t="n">
-        <v>143.7920728353582</v>
+        <v>143.7921025619685</v>
       </c>
       <c r="C21" t="n">
-        <v>147.9237894166263</v>
+        <v>147.9238199974</v>
       </c>
       <c r="D21" t="n">
-        <v>142.3622261036816</v>
+        <v>142.3622555346949</v>
       </c>
       <c r="E21" t="n">
-        <v>147.6181030273438</v>
+        <v>147.6181335449219</v>
       </c>
       <c r="F21" t="n">
         <v>93979700</v>
@@ -1011,16 +1011,16 @@
         <v>44879</v>
       </c>
       <c r="B22" t="n">
-        <v>146.898256219997</v>
+        <v>146.8982715497909</v>
       </c>
       <c r="C22" t="n">
-        <v>148.1900354737595</v>
+        <v>148.190050938359</v>
       </c>
       <c r="D22" t="n">
-        <v>145.3796647723285</v>
+        <v>145.3796799436475</v>
       </c>
       <c r="E22" t="n">
-        <v>146.2178497314453</v>
+        <v>146.2178649902344</v>
       </c>
       <c r="F22" t="n">
         <v>73374100</v>
@@ -1063,16 +1063,16 @@
         <v>44881</v>
       </c>
       <c r="B24" t="n">
-        <v>147.0560624939327</v>
+        <v>147.0560777875908</v>
       </c>
       <c r="C24" t="n">
-        <v>147.7857617267374</v>
+        <v>147.7857770962833</v>
       </c>
       <c r="D24" t="n">
-        <v>145.241639832554</v>
+        <v>145.2416549375143</v>
       </c>
       <c r="E24" t="n">
-        <v>146.7207794189453</v>
+        <v>146.7207946777344</v>
       </c>
       <c r="F24" t="n">
         <v>64218300</v>
@@ -1089,16 +1089,16 @@
         <v>44882</v>
       </c>
       <c r="B25" t="n">
-        <v>144.3935846673988</v>
+        <v>144.3935698429272</v>
       </c>
       <c r="C25" t="n">
-        <v>149.3733571163338</v>
+        <v>149.3733417806034</v>
       </c>
       <c r="D25" t="n">
-        <v>144.1174798427903</v>
+        <v>144.1174650466656</v>
       </c>
       <c r="E25" t="n">
-        <v>148.6239318847656</v>
+        <v>148.6239166259766</v>
       </c>
       <c r="F25" t="n">
         <v>80389400</v>
@@ -1115,16 +1115,16 @@
         <v>44883</v>
       </c>
       <c r="B26" t="n">
-        <v>150.1918390820719</v>
+        <v>150.1917929970783</v>
       </c>
       <c r="C26" t="n">
-        <v>150.5764147928662</v>
+        <v>150.5763685898691</v>
       </c>
       <c r="D26" t="n">
-        <v>147.8843848173057</v>
+        <v>147.8843394403333</v>
       </c>
       <c r="E26" t="n">
-        <v>149.1860198974609</v>
+        <v>149.1859741210938</v>
       </c>
       <c r="F26" t="n">
         <v>74829600</v>
@@ -1141,16 +1141,16 @@
         <v>44886</v>
       </c>
       <c r="B27" t="n">
-        <v>148.0717232832663</v>
+        <v>148.0717387637062</v>
       </c>
       <c r="C27" t="n">
-        <v>148.2787943798957</v>
+        <v>148.2788098819842</v>
       </c>
       <c r="D27" t="n">
-        <v>145.6656540404379</v>
+        <v>145.6656692693307</v>
       </c>
       <c r="E27" t="n">
-        <v>145.9516143798828</v>
+        <v>145.9516296386719</v>
       </c>
       <c r="F27" t="n">
         <v>58724100</v>
@@ -1167,16 +1167,16 @@
         <v>44887</v>
       </c>
       <c r="B28" t="n">
-        <v>146.0699672226872</v>
+        <v>146.0699371216803</v>
       </c>
       <c r="C28" t="n">
-        <v>148.3281136698585</v>
+        <v>148.3280831035096</v>
       </c>
       <c r="D28" t="n">
-        <v>144.8866435342383</v>
+        <v>144.8866136770819</v>
       </c>
       <c r="E28" t="n">
-        <v>148.0914459228516</v>
+        <v>148.0914154052734</v>
       </c>
       <c r="F28" t="n">
         <v>51804100</v>
@@ -1219,16 +1219,16 @@
         <v>44890</v>
       </c>
       <c r="B30" t="n">
-        <v>146.2474475203631</v>
+        <v>146.2474627997565</v>
       </c>
       <c r="C30" t="n">
-        <v>146.8095277415699</v>
+        <v>146.8095430796873</v>
       </c>
       <c r="D30" t="n">
-        <v>145.0739944661959</v>
+        <v>145.0740096229913</v>
       </c>
       <c r="E30" t="n">
-        <v>146.0502319335938</v>
+        <v>146.0502471923828</v>
       </c>
       <c r="F30" t="n">
         <v>35195900</v>
@@ -1245,16 +1245,16 @@
         <v>44893</v>
       </c>
       <c r="B31" t="n">
-        <v>143.12154400613</v>
+        <v>143.1215286500031</v>
       </c>
       <c r="C31" t="n">
-        <v>144.6006835742159</v>
+        <v>144.6006680593858</v>
       </c>
       <c r="D31" t="n">
-        <v>141.3860256630134</v>
+        <v>141.3860104930978</v>
       </c>
       <c r="E31" t="n">
-        <v>142.2143402099609</v>
+        <v>142.2143249511719</v>
       </c>
       <c r="F31" t="n">
         <v>69246000</v>
@@ -1297,16 +1297,16 @@
         <v>44895</v>
       </c>
       <c r="B33" t="n">
-        <v>139.4335426605422</v>
+        <v>139.4335572359168</v>
       </c>
       <c r="C33" t="n">
-        <v>146.6517505641729</v>
+        <v>146.6517658940868</v>
       </c>
       <c r="D33" t="n">
-        <v>138.5953726476353</v>
+        <v>138.5953871353937</v>
       </c>
       <c r="E33" t="n">
-        <v>145.9713439941406</v>
+        <v>145.9713592529297</v>
       </c>
       <c r="F33" t="n">
         <v>111380900</v>
@@ -1323,16 +1323,16 @@
         <v>44896</v>
       </c>
       <c r="B34" t="n">
-        <v>146.1488210122578</v>
+        <v>146.1488515092609</v>
       </c>
       <c r="C34" t="n">
-        <v>147.056024585795</v>
+        <v>147.0560552721051</v>
       </c>
       <c r="D34" t="n">
-        <v>144.5710665081866</v>
+        <v>144.5710966759583</v>
       </c>
       <c r="E34" t="n">
-        <v>146.2474212646484</v>
+        <v>146.2474517822266</v>
       </c>
       <c r="F34" t="n">
         <v>71250400</v>
@@ -1349,16 +1349,16 @@
         <v>44897</v>
       </c>
       <c r="B35" t="n">
-        <v>143.9301014911227</v>
+        <v>143.9301617623625</v>
       </c>
       <c r="C35" t="n">
-        <v>145.9417240398246</v>
+        <v>145.9417851534385</v>
       </c>
       <c r="D35" t="n">
-        <v>143.624400105695</v>
+        <v>143.6244602489213</v>
       </c>
       <c r="E35" t="n">
-        <v>145.7543640136719</v>
+        <v>145.7544250488281</v>
       </c>
       <c r="F35" t="n">
         <v>65447400</v>
@@ -1401,16 +1401,16 @@
         <v>44901</v>
       </c>
       <c r="B37" t="n">
-        <v>145.0246809463006</v>
+        <v>145.0246966492616</v>
       </c>
       <c r="C37" t="n">
-        <v>145.2514780860589</v>
+        <v>145.251493813577</v>
       </c>
       <c r="D37" t="n">
-        <v>139.9462938012755</v>
+        <v>139.9463089543597</v>
       </c>
       <c r="E37" t="n">
-        <v>140.9225311279297</v>
+        <v>140.9225463867188</v>
       </c>
       <c r="F37" t="n">
         <v>64727200</v>
@@ -1427,16 +1427,16 @@
         <v>44902</v>
       </c>
       <c r="B38" t="n">
-        <v>140.2125815963887</v>
+        <v>140.2125508081495</v>
       </c>
       <c r="C38" t="n">
-        <v>141.376164242815</v>
+        <v>141.3761331990733</v>
       </c>
       <c r="D38" t="n">
-        <v>138.0530352799134</v>
+        <v>138.0530049658729</v>
       </c>
       <c r="E38" t="n">
-        <v>138.9799652099609</v>
+        <v>138.9799346923828</v>
       </c>
       <c r="F38" t="n">
         <v>69721100</v>
@@ -1453,16 +1453,16 @@
         <v>44903</v>
       </c>
       <c r="B39" t="n">
-        <v>140.3801926197995</v>
+        <v>140.380207847569</v>
       </c>
       <c r="C39" t="n">
-        <v>141.5240640501762</v>
+        <v>141.5240794020274</v>
       </c>
       <c r="D39" t="n">
-        <v>139.1377209226151</v>
+        <v>139.1377360156072</v>
       </c>
       <c r="E39" t="n">
-        <v>140.6661529541016</v>
+        <v>140.6661682128906</v>
       </c>
       <c r="F39" t="n">
         <v>62128300</v>
@@ -1505,16 +1505,16 @@
         <v>44907</v>
       </c>
       <c r="B41" t="n">
-        <v>140.7154758271793</v>
+        <v>140.715445687667</v>
       </c>
       <c r="C41" t="n">
-        <v>142.4904463340837</v>
+        <v>142.4904158143947</v>
       </c>
       <c r="D41" t="n">
-        <v>139.09828382013</v>
+        <v>139.0982540270001</v>
       </c>
       <c r="E41" t="n">
-        <v>142.4805908203125</v>
+        <v>142.4805603027344</v>
       </c>
       <c r="F41" t="n">
         <v>70462700</v>
@@ -1531,16 +1531,16 @@
         <v>44908</v>
       </c>
       <c r="B42" t="n">
-        <v>147.4209300088677</v>
+        <v>147.420898645852</v>
       </c>
       <c r="C42" t="n">
-        <v>147.8843950059336</v>
+        <v>147.8843635443182</v>
       </c>
       <c r="D42" t="n">
-        <v>142.2340853129527</v>
+        <v>142.2340550534105</v>
       </c>
       <c r="E42" t="n">
-        <v>143.4469757080078</v>
+        <v>143.4469451904297</v>
       </c>
       <c r="F42" t="n">
         <v>93886200</v>
@@ -1557,16 +1557,16 @@
         <v>44909</v>
       </c>
       <c r="B43" t="n">
-        <v>143.3286067000526</v>
+        <v>143.3286376736575</v>
       </c>
       <c r="C43" t="n">
-        <v>144.6203859705674</v>
+        <v>144.6204172233284</v>
       </c>
       <c r="D43" t="n">
-        <v>139.1968751088693</v>
+        <v>139.1969051895986</v>
       </c>
       <c r="E43" t="n">
-        <v>141.2183685302734</v>
+        <v>141.2183990478516</v>
       </c>
       <c r="F43" t="n">
         <v>82291200</v>
@@ -1661,16 +1661,16 @@
         <v>44915</v>
       </c>
       <c r="B47" t="n">
-        <v>129.5627652387026</v>
+        <v>129.5627500848686</v>
       </c>
       <c r="C47" t="n">
-        <v>131.3968989135812</v>
+        <v>131.3968835452244</v>
       </c>
       <c r="D47" t="n">
-        <v>128.0836256636905</v>
+        <v>128.0836106828586</v>
       </c>
       <c r="E47" t="n">
-        <v>130.4601135253906</v>
+        <v>130.4600982666016</v>
       </c>
       <c r="F47" t="n">
         <v>77432800</v>
@@ -1713,16 +1713,16 @@
         <v>44917</v>
       </c>
       <c r="B49" t="n">
-        <v>132.4816103090511</v>
+        <v>132.4815793021923</v>
       </c>
       <c r="C49" t="n">
-        <v>132.6886814281879</v>
+        <v>132.6886503728649</v>
       </c>
       <c r="D49" t="n">
-        <v>128.4879303561077</v>
+        <v>128.4879002839557</v>
       </c>
       <c r="E49" t="n">
-        <v>130.3910827636719</v>
+        <v>130.3910522460938</v>
       </c>
       <c r="F49" t="n">
         <v>77852100</v>
@@ -1765,16 +1765,16 @@
         <v>44922</v>
       </c>
       <c r="B51" t="n">
-        <v>129.5528959230332</v>
+        <v>129.5529113402431</v>
       </c>
       <c r="C51" t="n">
-        <v>129.5824775076551</v>
+        <v>129.5824929283853</v>
       </c>
       <c r="D51" t="n">
-        <v>126.929885078274</v>
+        <v>126.9299001833372</v>
       </c>
       <c r="E51" t="n">
-        <v>128.2216644287109</v>
+        <v>128.2216796875</v>
       </c>
       <c r="F51" t="n">
         <v>69007800</v>
@@ -1791,16 +1791,16 @@
         <v>44923</v>
       </c>
       <c r="B52" t="n">
-        <v>127.8666776669259</v>
+        <v>127.8666619686782</v>
       </c>
       <c r="C52" t="n">
-        <v>129.2077647504938</v>
+        <v>129.2077488876003</v>
       </c>
       <c r="D52" t="n">
-        <v>124.1195287761389</v>
+        <v>124.1195135379303</v>
       </c>
       <c r="E52" t="n">
-        <v>124.2871627807617</v>
+        <v>124.2871475219727</v>
       </c>
       <c r="F52" t="n">
         <v>85438400</v>
@@ -1817,16 +1817,16 @@
         <v>44924</v>
       </c>
       <c r="B53" t="n">
-        <v>126.2100144549332</v>
+        <v>126.2100521251047</v>
       </c>
       <c r="C53" t="n">
-        <v>128.6653834026974</v>
+        <v>128.6654218057281</v>
       </c>
       <c r="D53" t="n">
-        <v>125.9536357455524</v>
+        <v>125.953673339202</v>
       </c>
       <c r="E53" t="n">
-        <v>127.807487487793</v>
+        <v>127.8075256347656</v>
       </c>
       <c r="F53" t="n">
         <v>75703700</v>
@@ -1843,16 +1843,16 @@
         <v>44925</v>
       </c>
       <c r="B54" t="n">
-        <v>126.6241964584213</v>
+        <v>126.624211538705</v>
       </c>
       <c r="C54" t="n">
-        <v>128.1427729465977</v>
+        <v>128.1427882077361</v>
       </c>
       <c r="D54" t="n">
-        <v>125.657822079017</v>
+        <v>125.6578370442106</v>
       </c>
       <c r="E54" t="n">
-        <v>128.123046875</v>
+        <v>128.1230621337891</v>
       </c>
       <c r="F54" t="n">
         <v>77034200</v>
@@ -1947,16 +1947,16 @@
         <v>44932</v>
       </c>
       <c r="B58" t="n">
-        <v>124.2575788089564</v>
+        <v>124.2575862258678</v>
       </c>
       <c r="C58" t="n">
-        <v>128.4780480462767</v>
+        <v>128.4780557151071</v>
       </c>
       <c r="D58" t="n">
-        <v>123.1531519603702</v>
+        <v>123.1531593113585</v>
       </c>
       <c r="E58" t="n">
-        <v>127.8173675537109</v>
+        <v>127.8173751831055</v>
       </c>
       <c r="F58" t="n">
         <v>87754700</v>
@@ -1973,16 +1973,16 @@
         <v>44935</v>
       </c>
       <c r="B59" t="n">
-        <v>128.6555227237201</v>
+        <v>128.6555380200268</v>
       </c>
       <c r="C59" t="n">
-        <v>131.5546378258062</v>
+        <v>131.5546534667989</v>
       </c>
       <c r="D59" t="n">
-        <v>128.0835871212299</v>
+        <v>128.0836023495372</v>
       </c>
       <c r="E59" t="n">
-        <v>128.3399658203125</v>
+        <v>128.3399810791016</v>
       </c>
       <c r="F59" t="n">
         <v>70790800</v>
@@ -2025,16 +2025,16 @@
         <v>44937</v>
       </c>
       <c r="B61" t="n">
-        <v>129.4247064406399</v>
+        <v>129.4246914378982</v>
       </c>
       <c r="C61" t="n">
-        <v>131.6532712071518</v>
+        <v>131.6532559460779</v>
       </c>
       <c r="D61" t="n">
-        <v>128.6456995899898</v>
+        <v>128.6456846775496</v>
       </c>
       <c r="E61" t="n">
-        <v>131.6335601806641</v>
+        <v>131.633544921875</v>
       </c>
       <c r="F61" t="n">
         <v>69458900</v>
@@ -2077,16 +2077,16 @@
         <v>44939</v>
       </c>
       <c r="B63" t="n">
-        <v>130.1938200972314</v>
+        <v>130.1938499965782</v>
       </c>
       <c r="C63" t="n">
-        <v>133.0436274447719</v>
+        <v>133.0436579985842</v>
       </c>
       <c r="D63" t="n">
-        <v>129.8289706071963</v>
+        <v>129.8290004227544</v>
       </c>
       <c r="E63" t="n">
-        <v>132.8858489990234</v>
+        <v>132.8858795166016</v>
       </c>
       <c r="F63" t="n">
         <v>57809700</v>
@@ -2103,16 +2103,16 @@
         <v>44943</v>
       </c>
       <c r="B64" t="n">
-        <v>132.9549204257575</v>
+        <v>132.9549355599529</v>
       </c>
       <c r="C64" t="n">
-        <v>135.3807007692732</v>
+        <v>135.380716179594</v>
       </c>
       <c r="D64" t="n">
-        <v>132.2646583380329</v>
+        <v>132.2646733936561</v>
       </c>
       <c r="E64" t="n">
-        <v>134.0494842529297</v>
+        <v>134.0494995117188</v>
       </c>
       <c r="F64" t="n">
         <v>63646600</v>
@@ -2155,16 +2155,16 @@
         <v>44945</v>
       </c>
       <c r="B66" t="n">
-        <v>132.2153560837081</v>
+        <v>132.2153409591543</v>
       </c>
       <c r="C66" t="n">
-        <v>134.3551761664197</v>
+        <v>134.3551607970847</v>
       </c>
       <c r="D66" t="n">
-        <v>131.9096696499759</v>
+        <v>131.9096545603905</v>
       </c>
       <c r="E66" t="n">
-        <v>133.3888092041016</v>
+        <v>133.3887939453125</v>
       </c>
       <c r="F66" t="n">
         <v>58280400</v>
@@ -2181,16 +2181,16 @@
         <v>44946</v>
       </c>
       <c r="B67" t="n">
-        <v>133.3986594670003</v>
+        <v>133.3986295227189</v>
       </c>
       <c r="C67" t="n">
-        <v>136.1005596962916</v>
+        <v>136.1005291455089</v>
       </c>
       <c r="D67" t="n">
-        <v>132.3534032973474</v>
+        <v>132.3533735876969</v>
       </c>
       <c r="E67" t="n">
-        <v>135.95263671875</v>
+        <v>135.9526062011719</v>
       </c>
       <c r="F67" t="n">
         <v>80223600</v>
@@ -2207,16 +2207,16 @@
         <v>44949</v>
       </c>
       <c r="B68" t="n">
-        <v>136.1991595385028</v>
+        <v>136.199144603035</v>
       </c>
       <c r="C68" t="n">
-        <v>141.326855145404</v>
+        <v>141.3268396476381</v>
       </c>
       <c r="D68" t="n">
-        <v>135.9822178760608</v>
+        <v>135.9822029643826</v>
       </c>
       <c r="E68" t="n">
-        <v>139.1475830078125</v>
+        <v>139.1475677490234</v>
       </c>
       <c r="F68" t="n">
         <v>81760300</v>
@@ -2233,16 +2233,16 @@
         <v>44950</v>
       </c>
       <c r="B69" t="n">
-        <v>138.3587236265691</v>
+        <v>138.3586785631998</v>
       </c>
       <c r="C69" t="n">
-        <v>141.1690950446549</v>
+        <v>141.169049065949</v>
       </c>
       <c r="D69" t="n">
-        <v>138.3488681121143</v>
+        <v>138.348823051955</v>
       </c>
       <c r="E69" t="n">
-        <v>140.5478515625</v>
+        <v>140.5478057861328</v>
       </c>
       <c r="F69" t="n">
         <v>66435100</v>
@@ -2285,16 +2285,16 @@
         <v>44952</v>
       </c>
       <c r="B71" t="n">
-        <v>141.1789704509939</v>
+        <v>141.17890975078</v>
       </c>
       <c r="C71" t="n">
-        <v>142.2439529790622</v>
+        <v>142.2438918209566</v>
       </c>
       <c r="D71" t="n">
-        <v>139.9266277957763</v>
+        <v>139.9265676340099</v>
       </c>
       <c r="E71" t="n">
-        <v>141.9579925537109</v>
+        <v>141.9579315185547</v>
       </c>
       <c r="F71" t="n">
         <v>54105100</v>
@@ -2311,16 +2311,16 @@
         <v>44953</v>
       </c>
       <c r="B72" t="n">
-        <v>141.1690614873003</v>
+        <v>141.1690764564527</v>
       </c>
       <c r="C72" t="n">
-        <v>145.182451718091</v>
+        <v>145.1824671128115</v>
       </c>
       <c r="D72" t="n">
-        <v>141.0901722506536</v>
+        <v>141.0901872114408</v>
       </c>
       <c r="E72" t="n">
-        <v>143.9005279541016</v>
+        <v>143.9005432128906</v>
       </c>
       <c r="F72" t="n">
         <v>70555800</v>
@@ -2337,16 +2337,16 @@
         <v>44956</v>
       </c>
       <c r="B73" t="n">
-        <v>142.9440403016597</v>
+        <v>142.9440557695909</v>
       </c>
       <c r="C73" t="n">
-        <v>143.5258315295515</v>
+        <v>143.5258470604382</v>
       </c>
       <c r="D73" t="n">
-        <v>140.863383580403</v>
+        <v>140.863398823187</v>
       </c>
       <c r="E73" t="n">
-        <v>141.0112915039062</v>
+        <v>141.0113067626953</v>
       </c>
       <c r="F73" t="n">
         <v>64015300</v>
@@ -2363,16 +2363,16 @@
         <v>44957</v>
       </c>
       <c r="B74" t="n">
-        <v>140.715486507654</v>
+        <v>140.7154563263628</v>
       </c>
       <c r="C74" t="n">
-        <v>142.3326786374501</v>
+        <v>142.3326481092963</v>
       </c>
       <c r="D74" t="n">
-        <v>140.3013291990389</v>
+        <v>140.301299106578</v>
       </c>
       <c r="E74" t="n">
-        <v>142.2833709716797</v>
+        <v>142.2833404541016</v>
       </c>
       <c r="F74" t="n">
         <v>65874500</v>
@@ -2389,16 +2389,16 @@
         <v>44958</v>
       </c>
       <c r="B75" t="n">
-        <v>141.967813832125</v>
+        <v>141.967798726521</v>
       </c>
       <c r="C75" t="n">
-        <v>144.5710988129453</v>
+        <v>144.5710834303476</v>
       </c>
       <c r="D75" t="n">
-        <v>139.354673337838</v>
+        <v>139.3546585102764</v>
       </c>
       <c r="E75" t="n">
-        <v>143.4075012207031</v>
+        <v>143.4074859619141</v>
       </c>
       <c r="F75" t="n">
         <v>77663600</v>
@@ -2441,16 +2441,16 @@
         <v>44960</v>
       </c>
       <c r="B77" t="n">
-        <v>145.971312165185</v>
+        <v>145.9713560245738</v>
       </c>
       <c r="C77" t="n">
-        <v>155.1912856228457</v>
+        <v>155.1913322525213</v>
       </c>
       <c r="D77" t="n">
-        <v>145.7740966196558</v>
+        <v>145.7741404197881</v>
       </c>
       <c r="E77" t="n">
-        <v>152.3513336181641</v>
+        <v>152.3513793945312</v>
       </c>
       <c r="F77" t="n">
         <v>154357300</v>
@@ -2493,16 +2493,16 @@
         <v>44964</v>
       </c>
       <c r="B79" t="n">
-        <v>148.5450402944556</v>
+        <v>148.5450254313191</v>
       </c>
       <c r="C79" t="n">
-        <v>153.0712032905119</v>
+        <v>153.071187974496</v>
       </c>
       <c r="D79" t="n">
-        <v>148.5450402944556</v>
+        <v>148.5450254313191</v>
       </c>
       <c r="E79" t="n">
-        <v>152.499267578125</v>
+        <v>152.4992523193359</v>
       </c>
       <c r="F79" t="n">
         <v>83322600</v>
@@ -2519,16 +2519,16 @@
         <v>44965</v>
       </c>
       <c r="B80" t="n">
-        <v>151.7399690202295</v>
+        <v>151.7399999315323</v>
       </c>
       <c r="C80" t="n">
-        <v>152.4302309897519</v>
+        <v>152.4302620416696</v>
       </c>
       <c r="D80" t="n">
-        <v>149.0676508387999</v>
+        <v>149.0676812057185</v>
       </c>
       <c r="E80" t="n">
-        <v>149.8072204589844</v>
+        <v>149.8072509765625</v>
       </c>
       <c r="F80" t="n">
         <v>64120100</v>
@@ -2545,16 +2545,16 @@
         <v>44966</v>
       </c>
       <c r="B81" t="n">
-        <v>151.6413693606351</v>
+        <v>151.6413538075322</v>
       </c>
       <c r="C81" t="n">
-        <v>152.1837234806971</v>
+        <v>152.1837078719676</v>
       </c>
       <c r="D81" t="n">
-        <v>148.3280965185828</v>
+        <v>148.3280813053058</v>
       </c>
       <c r="E81" t="n">
-        <v>148.7718353271484</v>
+        <v>148.7718200683594</v>
       </c>
       <c r="F81" t="n">
         <v>56007100</v>
@@ -2675,16 +2675,16 @@
         <v>44973</v>
       </c>
       <c r="B86" t="n">
-        <v>151.6062402171314</v>
+        <v>151.6062554560653</v>
       </c>
       <c r="C86" t="n">
-        <v>154.3912752188136</v>
+        <v>154.3912907376896</v>
       </c>
       <c r="D86" t="n">
-        <v>151.4482359100917</v>
+        <v>151.4482511331435</v>
       </c>
       <c r="E86" t="n">
-        <v>151.8037719726562</v>
+        <v>151.8037872314453</v>
       </c>
       <c r="F86" t="n">
         <v>68167900</v>
@@ -2701,16 +2701,16 @@
         <v>44974</v>
       </c>
       <c r="B87" t="n">
-        <v>150.4606558971862</v>
+        <v>150.460610180833</v>
       </c>
       <c r="C87" t="n">
-        <v>151.1025889728419</v>
+        <v>151.1025430614422</v>
       </c>
       <c r="D87" t="n">
-        <v>148.9792579660799</v>
+        <v>148.9792126998385</v>
       </c>
       <c r="E87" t="n">
-        <v>150.6581726074219</v>
+        <v>150.6581268310547</v>
       </c>
       <c r="F87" t="n">
         <v>59144100</v>
@@ -2727,16 +2727,16 @@
         <v>44978</v>
       </c>
       <c r="B88" t="n">
-        <v>148.3373122181069</v>
+        <v>148.3372967825592</v>
       </c>
       <c r="C88" t="n">
-        <v>149.4236767462983</v>
+        <v>149.4236611977066</v>
       </c>
       <c r="D88" t="n">
-        <v>146.5695172890238</v>
+        <v>146.5695020374276</v>
       </c>
       <c r="E88" t="n">
-        <v>146.6386413574219</v>
+        <v>146.6386260986328</v>
       </c>
       <c r="F88" t="n">
         <v>58867200</v>
@@ -2753,16 +2753,16 @@
         <v>44979</v>
       </c>
       <c r="B89" t="n">
-        <v>147.0238115882089</v>
+        <v>147.0237963335195</v>
       </c>
       <c r="C89" t="n">
-        <v>148.0904199776221</v>
+        <v>148.0904046122651</v>
       </c>
       <c r="D89" t="n">
-        <v>145.3350262738079</v>
+        <v>145.3350111943411</v>
       </c>
       <c r="E89" t="n">
-        <v>147.0633239746094</v>
+        <v>147.0633087158203</v>
       </c>
       <c r="F89" t="n">
         <v>51011300</v>
@@ -2779,16 +2779,16 @@
         <v>44980</v>
       </c>
       <c r="B90" t="n">
-        <v>148.2286714025428</v>
+        <v>148.2286560732811</v>
       </c>
       <c r="C90" t="n">
-        <v>148.4755710544504</v>
+        <v>148.4755556996553</v>
       </c>
       <c r="D90" t="n">
-        <v>145.4140244125316</v>
+        <v>145.4140093743504</v>
       </c>
       <c r="E90" t="n">
-        <v>147.5472259521484</v>
+        <v>147.5472106933594</v>
       </c>
       <c r="F90" t="n">
         <v>48394200</v>
@@ -2805,16 +2805,16 @@
         <v>44981</v>
       </c>
       <c r="B91" t="n">
-        <v>145.2856278870893</v>
+        <v>145.2856125866983</v>
       </c>
       <c r="C91" t="n">
-        <v>145.3646375819345</v>
+        <v>145.3646222732227</v>
       </c>
       <c r="D91" t="n">
-        <v>143.9128664619661</v>
+        <v>143.912851306144</v>
       </c>
       <c r="E91" t="n">
-        <v>144.8905944824219</v>
+        <v>144.8905792236328</v>
       </c>
       <c r="F91" t="n">
         <v>55469600</v>
@@ -2857,16 +2857,16 @@
         <v>44985</v>
       </c>
       <c r="B93" t="n">
-        <v>145.2263883123522</v>
+        <v>145.2263578693033</v>
       </c>
       <c r="C93" t="n">
-        <v>147.2312124189658</v>
+        <v>147.2311815556561</v>
       </c>
       <c r="D93" t="n">
-        <v>145.0091153980784</v>
+        <v>145.0090850005753</v>
       </c>
       <c r="E93" t="n">
-        <v>145.5819244384766</v>
+        <v>145.5818939208984</v>
       </c>
       <c r="F93" t="n">
         <v>50547000</v>
@@ -2883,16 +2883,16 @@
         <v>44986</v>
       </c>
       <c r="B94" t="n">
-        <v>145.0090730803654</v>
+        <v>145.0091039171703</v>
       </c>
       <c r="C94" t="n">
-        <v>145.4041064076396</v>
+        <v>145.4041373284501</v>
       </c>
       <c r="D94" t="n">
-        <v>143.21163678129</v>
+        <v>143.2116672358624</v>
       </c>
       <c r="E94" t="n">
-        <v>143.5079193115234</v>
+        <v>143.5079498291016</v>
       </c>
       <c r="F94" t="n">
         <v>55479000</v>
@@ -2909,16 +2909,16 @@
         <v>44987</v>
       </c>
       <c r="B95" t="n">
-        <v>142.5894699520932</v>
+        <v>142.5895001496668</v>
       </c>
       <c r="C95" t="n">
-        <v>144.8905761637681</v>
+        <v>144.8906068486696</v>
       </c>
       <c r="D95" t="n">
-        <v>142.1154118429578</v>
+        <v>142.1154419401355</v>
       </c>
       <c r="E95" t="n">
-        <v>144.1004943847656</v>
+        <v>144.1005249023438</v>
       </c>
       <c r="F95" t="n">
         <v>52238100</v>
@@ -2961,16 +2961,16 @@
         <v>44991</v>
       </c>
       <c r="B97" t="n">
-        <v>151.8827898611123</v>
+        <v>151.8827746062918</v>
       </c>
       <c r="C97" t="n">
-        <v>154.3616721188966</v>
+        <v>154.3616566151018</v>
       </c>
       <c r="D97" t="n">
-        <v>151.5568955675924</v>
+        <v>151.5568803455041</v>
       </c>
       <c r="E97" t="n">
-        <v>151.9223022460938</v>
+        <v>151.9222869873047</v>
       </c>
       <c r="F97" t="n">
         <v>87558000</v>
@@ -3013,16 +3013,16 @@
         <v>44993</v>
       </c>
       <c r="B99" t="n">
-        <v>150.9149438811654</v>
+        <v>150.9149286283649</v>
       </c>
       <c r="C99" t="n">
-        <v>151.5667625921133</v>
+        <v>151.5667472734343</v>
       </c>
       <c r="D99" t="n">
-        <v>149.9471014455379</v>
+        <v>149.9470862905562</v>
       </c>
       <c r="E99" t="n">
-        <v>150.9741973876953</v>
+        <v>150.9741821289062</v>
       </c>
       <c r="F99" t="n">
         <v>47204800</v>
@@ -3039,16 +3039,16 @@
         <v>44994</v>
       </c>
       <c r="B100" t="n">
-        <v>151.6556422628448</v>
+        <v>151.6556578225743</v>
       </c>
       <c r="C100" t="n">
-        <v>152.6234846947129</v>
+        <v>152.6235003537422</v>
       </c>
       <c r="D100" t="n">
-        <v>148.3669370371733</v>
+        <v>148.3669522594847</v>
       </c>
       <c r="E100" t="n">
-        <v>148.7224731445312</v>
+        <v>148.7224884033203</v>
       </c>
       <c r="F100" t="n">
         <v>53833600</v>
@@ -3065,16 +3065,16 @@
         <v>44995</v>
       </c>
       <c r="B101" t="n">
-        <v>148.3471863994858</v>
+        <v>148.3471709649887</v>
       </c>
       <c r="C101" t="n">
-        <v>149.0681291291559</v>
+        <v>149.0681136196498</v>
       </c>
       <c r="D101" t="n">
-        <v>145.7794241144287</v>
+        <v>145.7794089470896</v>
       </c>
       <c r="E101" t="n">
-        <v>146.6583862304688</v>
+        <v>146.6583709716797</v>
       </c>
       <c r="F101" t="n">
         <v>68572400</v>
@@ -3091,16 +3091,16 @@
         <v>44998</v>
       </c>
       <c r="B102" t="n">
-        <v>145.9769573043291</v>
+        <v>145.9769423152844</v>
       </c>
       <c r="C102" t="n">
-        <v>151.2408600346937</v>
+        <v>151.2408445051467</v>
       </c>
       <c r="D102" t="n">
-        <v>145.8683208476214</v>
+        <v>145.8683058697316</v>
       </c>
       <c r="E102" t="n">
-        <v>148.6039733886719</v>
+        <v>148.6039581298828</v>
       </c>
       <c r="F102" t="n">
         <v>84457100</v>
@@ -3169,16 +3169,16 @@
         <v>45001</v>
       </c>
       <c r="B105" t="n">
-        <v>150.2729655604816</v>
+        <v>150.2730102530188</v>
       </c>
       <c r="C105" t="n">
-        <v>154.5196413948335</v>
+        <v>154.5196873503704</v>
       </c>
       <c r="D105" t="n">
-        <v>149.7594102092321</v>
+        <v>149.7594547490333</v>
       </c>
       <c r="E105" t="n">
-        <v>153.9172058105469</v>
+        <v>153.9172515869141</v>
       </c>
       <c r="F105" t="n">
         <v>76161100</v>
@@ -3221,16 +3221,16 @@
         <v>45005</v>
       </c>
       <c r="B107" t="n">
-        <v>153.1469068004993</v>
+        <v>153.1468917675855</v>
       </c>
       <c r="C107" t="n">
-        <v>155.8628026785515</v>
+        <v>155.8627873790452</v>
       </c>
       <c r="D107" t="n">
-        <v>152.2383029182678</v>
+        <v>152.2382879745427</v>
       </c>
       <c r="E107" t="n">
-        <v>155.447998046875</v>
+        <v>155.4479827880859</v>
       </c>
       <c r="F107" t="n">
         <v>73641400</v>
@@ -3247,16 +3247,16 @@
         <v>45006</v>
       </c>
       <c r="B108" t="n">
-        <v>155.3690179545843</v>
+        <v>155.3690028835596</v>
       </c>
       <c r="C108" t="n">
-        <v>157.423209767744</v>
+        <v>157.4231944974596</v>
       </c>
       <c r="D108" t="n">
-        <v>154.5986771877012</v>
+        <v>154.5986621914006</v>
       </c>
       <c r="E108" t="n">
-        <v>157.3047027587891</v>
+        <v>157.3046875</v>
       </c>
       <c r="F108" t="n">
         <v>73938300</v>
@@ -3273,16 +3273,16 @@
         <v>45007</v>
       </c>
       <c r="B109" t="n">
-        <v>157.3244671363256</v>
+        <v>157.3244825372324</v>
       </c>
       <c r="C109" t="n">
-        <v>160.1292436709663</v>
+        <v>160.12925934644</v>
       </c>
       <c r="D109" t="n">
-        <v>155.8529397304782</v>
+        <v>155.8529549873333</v>
       </c>
       <c r="E109" t="n">
-        <v>155.8726959228516</v>
+        <v>155.8727111816406</v>
       </c>
       <c r="F109" t="n">
         <v>75701800</v>
@@ -3299,16 +3299,16 @@
         <v>45008</v>
       </c>
       <c r="B110" t="n">
-        <v>156.8602640890179</v>
+        <v>156.8602945873959</v>
       </c>
       <c r="C110" t="n">
-        <v>159.5465330865828</v>
+        <v>159.5465641072527</v>
       </c>
       <c r="D110" t="n">
-        <v>155.7245168264015</v>
+        <v>155.7245471039558</v>
       </c>
       <c r="E110" t="n">
-        <v>156.9590148925781</v>
+        <v>156.9590454101562</v>
       </c>
       <c r="F110" t="n">
         <v>67622100</v>
@@ -3325,16 +3325,16 @@
         <v>45009</v>
       </c>
       <c r="B111" t="n">
-        <v>156.8899034378606</v>
+        <v>156.8899185642958</v>
       </c>
       <c r="C111" t="n">
-        <v>158.3515450461316</v>
+        <v>158.35156031349</v>
       </c>
       <c r="D111" t="n">
-        <v>155.8924343453171</v>
+        <v>155.892449375582</v>
       </c>
       <c r="E111" t="n">
-        <v>158.2626647949219</v>
+        <v>158.2626800537109</v>
       </c>
       <c r="F111" t="n">
         <v>59196500</v>
@@ -3455,16 +3455,16 @@
         <v>45016</v>
       </c>
       <c r="B116" t="n">
-        <v>160.4255267518138</v>
+        <v>160.425541782971</v>
       </c>
       <c r="C116" t="n">
-        <v>162.953776878927</v>
+        <v>162.95379214697</v>
       </c>
       <c r="D116" t="n">
-        <v>159.9021006740705</v>
+        <v>159.902115656185</v>
       </c>
       <c r="E116" t="n">
-        <v>162.8550109863281</v>
+        <v>162.8550262451172</v>
       </c>
       <c r="F116" t="n">
         <v>68749800</v>
@@ -3481,16 +3481,16 @@
         <v>45019</v>
       </c>
       <c r="B117" t="n">
-        <v>162.2328065860621</v>
+        <v>162.2328216703816</v>
       </c>
       <c r="C117" t="n">
-        <v>164.2277446662819</v>
+        <v>164.2277599360897</v>
       </c>
       <c r="D117" t="n">
-        <v>162.1834236481334</v>
+        <v>162.1834387278613</v>
       </c>
       <c r="E117" t="n">
-        <v>164.1092376708984</v>
+        <v>164.1092529296875</v>
       </c>
       <c r="F117" t="n">
         <v>56976200</v>
@@ -3507,16 +3507,16 @@
         <v>45020</v>
       </c>
       <c r="B118" t="n">
-        <v>164.5339454319251</v>
+        <v>164.5339300837739</v>
       </c>
       <c r="C118" t="n">
-        <v>164.7709594696216</v>
+        <v>164.7709440993611</v>
       </c>
       <c r="D118" t="n">
-        <v>163.0624179798</v>
+        <v>163.0624027689168</v>
       </c>
       <c r="E118" t="n">
-        <v>163.5759735107422</v>
+        <v>163.5759582519531</v>
       </c>
       <c r="F118" t="n">
         <v>46278300</v>
@@ -3533,16 +3533,16 @@
         <v>45021</v>
       </c>
       <c r="B119" t="n">
-        <v>162.6970140630856</v>
+        <v>162.6969987129814</v>
       </c>
       <c r="C119" t="n">
-        <v>163.003167246698</v>
+        <v>163.0031518677089</v>
       </c>
       <c r="D119" t="n">
-        <v>159.7934714953708</v>
+        <v>159.7934564192093</v>
       </c>
       <c r="E119" t="n">
-        <v>161.7291564941406</v>
+        <v>161.7291412353516</v>
       </c>
       <c r="F119" t="n">
         <v>51511700</v>
@@ -3559,16 +3559,16 @@
         <v>45022</v>
       </c>
       <c r="B120" t="n">
-        <v>160.4156253391313</v>
+        <v>160.415655443406</v>
       </c>
       <c r="C120" t="n">
-        <v>162.9142635361202</v>
+        <v>162.9142941093</v>
       </c>
       <c r="D120" t="n">
-        <v>159.9909651957649</v>
+        <v>159.9909952203462</v>
       </c>
       <c r="E120" t="n">
-        <v>162.6179809570312</v>
+        <v>162.6180114746094</v>
       </c>
       <c r="F120" t="n">
         <v>45390100</v>
@@ -3611,16 +3611,16 @@
         <v>45027</v>
       </c>
       <c r="B122" t="n">
-        <v>160.3366433143631</v>
+        <v>160.3366279084897</v>
       </c>
       <c r="C122" t="n">
-        <v>160.3465138756037</v>
+        <v>160.3464984687819</v>
       </c>
       <c r="D122" t="n">
-        <v>158.5194503856298</v>
+        <v>158.5194351543605</v>
       </c>
       <c r="E122" t="n">
-        <v>158.8058624267578</v>
+        <v>158.8058471679688</v>
       </c>
       <c r="F122" t="n">
         <v>47644200</v>
@@ -3637,16 +3637,16 @@
         <v>45028</v>
       </c>
       <c r="B123" t="n">
-        <v>159.2206533800993</v>
+        <v>159.2206226490325</v>
       </c>
       <c r="C123" t="n">
-        <v>160.0502326180547</v>
+        <v>160.0502017268714</v>
       </c>
       <c r="D123" t="n">
-        <v>157.7985089324277</v>
+        <v>157.798478475848</v>
       </c>
       <c r="E123" t="n">
-        <v>158.1145477294922</v>
+        <v>158.1145172119141</v>
       </c>
       <c r="F123" t="n">
         <v>50133100</v>
@@ -3663,16 +3663,16 @@
         <v>45029</v>
       </c>
       <c r="B124" t="n">
-        <v>159.6255803374139</v>
+        <v>159.625550544249</v>
       </c>
       <c r="C124" t="n">
-        <v>163.7438650470286</v>
+        <v>163.7438344852104</v>
       </c>
       <c r="D124" t="n">
-        <v>159.4181779828813</v>
+        <v>159.4181482284268</v>
       </c>
       <c r="E124" t="n">
-        <v>163.5068359375</v>
+        <v>163.5068054199219</v>
       </c>
       <c r="F124" t="n">
         <v>68445600</v>
@@ -3689,16 +3689,16 @@
         <v>45030</v>
       </c>
       <c r="B125" t="n">
-        <v>162.5488419808256</v>
+        <v>162.5488571823505</v>
       </c>
       <c r="C125" t="n">
-        <v>164.2573983250668</v>
+        <v>164.2574136863755</v>
       </c>
       <c r="D125" t="n">
-        <v>161.7884019462236</v>
+        <v>161.7884170766324</v>
       </c>
       <c r="E125" t="n">
-        <v>163.1611633300781</v>
+        <v>163.1611785888672</v>
       </c>
       <c r="F125" t="n">
         <v>49386500</v>
@@ -3715,16 +3715,16 @@
         <v>45033</v>
       </c>
       <c r="B126" t="n">
-        <v>163.042645005513</v>
+        <v>163.0426602513732</v>
       </c>
       <c r="C126" t="n">
-        <v>163.3389275916983</v>
+        <v>163.3389428652635</v>
       </c>
       <c r="D126" t="n">
-        <v>161.9957929279419</v>
+        <v>161.9958080759127</v>
       </c>
       <c r="E126" t="n">
-        <v>163.180908203125</v>
+        <v>163.1809234619141</v>
       </c>
       <c r="F126" t="n">
         <v>41516200</v>
@@ -3741,16 +3741,16 @@
         <v>45034</v>
       </c>
       <c r="B127" t="n">
-        <v>164.0400957436715</v>
+        <v>164.0401109685465</v>
       </c>
       <c r="C127" t="n">
-        <v>165.3338472008615</v>
+        <v>165.3338625458121</v>
       </c>
       <c r="D127" t="n">
-        <v>163.5956644202842</v>
+        <v>163.5956796039106</v>
       </c>
       <c r="E127" t="n">
-        <v>164.4055023193359</v>
+        <v>164.405517578125</v>
       </c>
       <c r="F127" t="n">
         <v>49923000</v>
@@ -3767,16 +3767,16 @@
         <v>45035</v>
       </c>
       <c r="B128" t="n">
-        <v>163.7438403311756</v>
+        <v>163.7438554233859</v>
       </c>
       <c r="C128" t="n">
-        <v>166.0745734796078</v>
+        <v>166.0745887866408</v>
       </c>
       <c r="D128" t="n">
-        <v>163.4870550672227</v>
+        <v>163.4870701357651</v>
       </c>
       <c r="E128" t="n">
-        <v>165.5511474609375</v>
+        <v>165.5511627197266</v>
       </c>
       <c r="F128" t="n">
         <v>47720200</v>
@@ -3793,16 +3793,16 @@
         <v>45036</v>
       </c>
       <c r="B129" t="n">
-        <v>164.0302449344763</v>
+        <v>164.030260141991</v>
       </c>
       <c r="C129" t="n">
-        <v>165.7881692055875</v>
+        <v>165.7881845760822</v>
       </c>
       <c r="D129" t="n">
-        <v>163.5068188913679</v>
+        <v>163.5068340503548</v>
       </c>
       <c r="E129" t="n">
-        <v>164.5832977294922</v>
+        <v>164.5833129882812</v>
       </c>
       <c r="F129" t="n">
         <v>52456400</v>
@@ -3819,16 +3819,16 @@
         <v>45037</v>
       </c>
       <c r="B130" t="n">
-        <v>163.0031374919961</v>
+        <v>163.003152753559</v>
       </c>
       <c r="C130" t="n">
-        <v>164.385769381588</v>
+        <v>164.3857847726032</v>
       </c>
       <c r="D130" t="n">
-        <v>162.4500847361593</v>
+        <v>162.4500999459414</v>
       </c>
       <c r="E130" t="n">
-        <v>162.9735107421875</v>
+        <v>162.9735260009766</v>
       </c>
       <c r="F130" t="n">
         <v>58337300</v>
@@ -3897,16 +3897,16 @@
         <v>45042</v>
       </c>
       <c r="B133" t="n">
-        <v>161.0378404231514</v>
+        <v>161.0378252295865</v>
       </c>
       <c r="C133" t="n">
-        <v>163.2303107265459</v>
+        <v>163.2302953261262</v>
       </c>
       <c r="D133" t="n">
-        <v>160.7810701880869</v>
+        <v>160.7810550187477</v>
       </c>
       <c r="E133" t="n">
-        <v>161.7291564941406</v>
+        <v>161.7291412353516</v>
       </c>
       <c r="F133" t="n">
         <v>45498800</v>
@@ -3923,16 +3923,16 @@
         <v>45043</v>
       </c>
       <c r="B134" t="n">
-        <v>163.1414186606658</v>
+        <v>163.1414036936249</v>
       </c>
       <c r="C134" t="n">
-        <v>166.4696211921265</v>
+        <v>166.4696059197472</v>
       </c>
       <c r="D134" t="n">
-        <v>163.1414186606658</v>
+        <v>163.1414036936249</v>
       </c>
       <c r="E134" t="n">
-        <v>166.3214874267578</v>
+        <v>166.3214721679688</v>
       </c>
       <c r="F134" t="n">
         <v>64902300</v>
@@ -3949,16 +3949,16 @@
         <v>45044</v>
       </c>
       <c r="B135" t="n">
-        <v>166.4004693478227</v>
+        <v>166.4004844995999</v>
       </c>
       <c r="C135" t="n">
-        <v>167.7436038513408</v>
+        <v>167.7436191254186</v>
       </c>
       <c r="D135" t="n">
-        <v>165.7980336866221</v>
+        <v>165.7980487835439</v>
       </c>
       <c r="E135" t="n">
-        <v>167.5756988525391</v>
+        <v>167.5757141113281</v>
       </c>
       <c r="F135" t="n">
         <v>55275900</v>
@@ -4001,16 +4001,16 @@
         <v>45048</v>
       </c>
       <c r="B137" t="n">
-        <v>167.9806096483137</v>
+        <v>167.9806712447888</v>
       </c>
       <c r="C137" t="n">
-        <v>168.2373948789832</v>
+        <v>168.2374565696184</v>
       </c>
       <c r="D137" t="n">
-        <v>165.4622306932786</v>
+        <v>165.4622913662944</v>
       </c>
       <c r="E137" t="n">
-        <v>166.4498291015625</v>
+        <v>166.4498901367188</v>
       </c>
       <c r="F137" t="n">
         <v>48425700</v>
@@ -4027,16 +4027,16 @@
         <v>45049</v>
       </c>
       <c r="B138" t="n">
-        <v>167.3979472668269</v>
+        <v>167.3979627124213</v>
       </c>
       <c r="C138" t="n">
-        <v>168.8003353411873</v>
+        <v>168.8003509161784</v>
       </c>
       <c r="D138" t="n">
-        <v>165.0869703725804</v>
+        <v>165.0869856049439</v>
       </c>
       <c r="E138" t="n">
-        <v>165.3733673095703</v>
+        <v>165.3733825683594</v>
       </c>
       <c r="F138" t="n">
         <v>65136000</v>
@@ -4053,16 +4053,16 @@
         <v>45050</v>
       </c>
       <c r="B139" t="n">
-        <v>162.8451606646497</v>
+        <v>162.8451454886932</v>
       </c>
       <c r="C139" t="n">
-        <v>164.9684919933961</v>
+        <v>164.9684766195609</v>
       </c>
       <c r="D139" t="n">
-        <v>162.2723515694134</v>
+        <v>162.2723364468385</v>
       </c>
       <c r="E139" t="n">
-        <v>163.7339935302734</v>
+        <v>163.7339782714844</v>
       </c>
       <c r="F139" t="n">
         <v>81235400</v>
@@ -4079,16 +4079,16 @@
         <v>45051</v>
       </c>
       <c r="B140" t="n">
-        <v>168.8595888771551</v>
+        <v>168.8596039082526</v>
       </c>
       <c r="C140" t="n">
-        <v>172.1384231609627</v>
+        <v>172.1384384839267</v>
       </c>
       <c r="D140" t="n">
-        <v>168.6423159995748</v>
+        <v>168.6423310113316</v>
       </c>
       <c r="E140" t="n">
-        <v>171.41748046875</v>
+        <v>171.4174957275391</v>
       </c>
       <c r="F140" t="n">
         <v>113453200</v>
@@ -4105,16 +4105,16 @@
         <v>45054</v>
       </c>
       <c r="B141" t="n">
-        <v>170.3409730184566</v>
+        <v>170.3409881875394</v>
       </c>
       <c r="C141" t="n">
-        <v>171.6939931151052</v>
+        <v>171.6940084046762</v>
       </c>
       <c r="D141" t="n">
-        <v>169.9755664215469</v>
+        <v>169.9755815580898</v>
       </c>
       <c r="E141" t="n">
-        <v>171.3483276367188</v>
+        <v>171.3483428955078</v>
       </c>
       <c r="F141" t="n">
         <v>55962800</v>
@@ -4131,16 +4131,16 @@
         <v>45055</v>
       </c>
       <c r="B142" t="n">
-        <v>170.9039566631539</v>
+        <v>170.9039259181643</v>
       </c>
       <c r="C142" t="n">
-        <v>171.3878703777116</v>
+        <v>171.3878395456677</v>
       </c>
       <c r="D142" t="n">
-        <v>169.4719415736773</v>
+        <v>169.471911086302</v>
       </c>
       <c r="E142" t="n">
-        <v>169.6398315429688</v>
+        <v>169.6398010253906</v>
       </c>
       <c r="F142" t="n">
         <v>45326900</v>
@@ -4183,16 +4183,16 @@
         <v>45057</v>
       </c>
       <c r="B144" t="n">
-        <v>171.6940112425966</v>
+        <v>171.6939959750249</v>
       </c>
       <c r="C144" t="n">
-        <v>172.4248245135754</v>
+        <v>172.4248091810175</v>
       </c>
       <c r="D144" t="n">
-        <v>170.0348378685444</v>
+        <v>170.0348227485117</v>
       </c>
       <c r="E144" t="n">
-        <v>171.5952453613281</v>
+        <v>171.5952301025391</v>
       </c>
       <c r="F144" t="n">
         <v>49514700</v>
@@ -4209,16 +4209,16 @@
         <v>45058</v>
       </c>
       <c r="B145" t="n">
-        <v>171.7040195971583</v>
+        <v>171.704050300418</v>
       </c>
       <c r="C145" t="n">
-        <v>172.1391664117347</v>
+        <v>172.1391971928053</v>
       </c>
       <c r="D145" t="n">
-        <v>169.1129373163278</v>
+        <v>169.1129675562631</v>
       </c>
       <c r="E145" t="n">
-        <v>170.6656188964844</v>
+        <v>170.6656494140625</v>
       </c>
       <c r="F145" t="n">
         <v>45533100</v>
@@ -4287,16 +4287,16 @@
         <v>45063</v>
       </c>
       <c r="B148" t="n">
-        <v>169.8151054883472</v>
+        <v>169.8151206605444</v>
       </c>
       <c r="C148" t="n">
-        <v>171.0216283275313</v>
+        <v>171.0216436075257</v>
       </c>
       <c r="D148" t="n">
-        <v>168.5393327985131</v>
+        <v>168.5393478567259</v>
       </c>
       <c r="E148" t="n">
-        <v>170.7842864990234</v>
+        <v>170.7843017578125</v>
       </c>
       <c r="F148" t="n">
         <v>57951600</v>
@@ -4313,16 +4313,16 @@
         <v>45064</v>
       </c>
       <c r="B149" t="n">
-        <v>171.0908751745652</v>
+        <v>171.0908600944711</v>
       </c>
       <c r="C149" t="n">
-        <v>173.3061613030118</v>
+        <v>173.3061460276606</v>
       </c>
       <c r="D149" t="n">
-        <v>170.6755118549318</v>
+        <v>170.6754968114483</v>
       </c>
       <c r="E149" t="n">
-        <v>173.1182556152344</v>
+        <v>173.1182403564453</v>
       </c>
       <c r="F149" t="n">
         <v>65496700</v>
@@ -4391,16 +4391,16 @@
         <v>45069</v>
       </c>
       <c r="B152" t="n">
-        <v>171.2194603598222</v>
+        <v>171.2194449613945</v>
       </c>
       <c r="C152" t="n">
-        <v>171.4667015305189</v>
+        <v>171.4666861098558</v>
       </c>
       <c r="D152" t="n">
-        <v>169.3898696605051</v>
+        <v>169.3898544266195</v>
       </c>
       <c r="E152" t="n">
-        <v>169.6667785644531</v>
+        <v>169.6667633056641</v>
       </c>
       <c r="F152" t="n">
         <v>50747300</v>
@@ -4417,16 +4417,16 @@
         <v>45070</v>
       </c>
       <c r="B153" t="n">
-        <v>169.2019563309073</v>
+        <v>169.2019411387156</v>
       </c>
       <c r="C153" t="n">
-        <v>170.5172811105847</v>
+        <v>170.5172658002935</v>
       </c>
       <c r="D153" t="n">
-        <v>168.6382543341329</v>
+        <v>168.6382391925545</v>
       </c>
       <c r="E153" t="n">
-        <v>169.9436798095703</v>
+        <v>169.9436645507812</v>
       </c>
       <c r="F153" t="n">
         <v>45143500</v>
@@ -4443,16 +4443,16 @@
         <v>45071</v>
       </c>
       <c r="B154" t="n">
-        <v>170.5073923665693</v>
+        <v>170.5074075741986</v>
       </c>
       <c r="C154" t="n">
-        <v>171.9809399805049</v>
+        <v>171.9809553195606</v>
       </c>
       <c r="D154" t="n">
-        <v>169.795336638739</v>
+        <v>169.7953517828598</v>
       </c>
       <c r="E154" t="n">
-        <v>171.0809936523438</v>
+        <v>171.0810089111328</v>
       </c>
       <c r="F154" t="n">
         <v>56058300</v>
@@ -4469,16 +4469,16 @@
         <v>45072</v>
       </c>
       <c r="B155" t="n">
-        <v>171.4073482946951</v>
+        <v>171.4073332194312</v>
       </c>
       <c r="C155" t="n">
-        <v>173.8303084982607</v>
+        <v>173.8302932098977</v>
       </c>
       <c r="D155" t="n">
-        <v>171.1996590930629</v>
+        <v>171.1996440360653</v>
       </c>
       <c r="E155" t="n">
-        <v>173.4940490722656</v>
+        <v>173.4940338134766</v>
       </c>
       <c r="F155" t="n">
         <v>54835000</v>
@@ -4495,16 +4495,16 @@
         <v>45076</v>
       </c>
       <c r="B156" t="n">
-        <v>175.0072004469642</v>
+        <v>175.0071852174359</v>
       </c>
       <c r="C156" t="n">
-        <v>177.0147975864125</v>
+        <v>177.0147821821785</v>
       </c>
       <c r="D156" t="n">
-        <v>174.6215048164891</v>
+        <v>174.6214896205249</v>
       </c>
       <c r="E156" t="n">
-        <v>175.3434448242188</v>
+        <v>175.3434295654297</v>
       </c>
       <c r="F156" t="n">
         <v>55964400</v>
@@ -4521,16 +4521,16 @@
         <v>45077</v>
       </c>
       <c r="B157" t="n">
-        <v>175.3730948091431</v>
+        <v>175.3731100748192</v>
       </c>
       <c r="C157" t="n">
-        <v>177.3708075319269</v>
+        <v>177.3708229714976</v>
       </c>
       <c r="D157" t="n">
-        <v>174.8093777422062</v>
+        <v>174.8093929588125</v>
       </c>
       <c r="E157" t="n">
-        <v>175.2939758300781</v>
+        <v>175.2939910888672</v>
       </c>
       <c r="F157" t="n">
         <v>99625300</v>
@@ -4547,16 +4547,16 @@
         <v>45078</v>
       </c>
       <c r="B158" t="n">
-        <v>175.7390058325088</v>
+        <v>175.7390359450839</v>
       </c>
       <c r="C158" t="n">
-        <v>178.1322983459061</v>
+        <v>178.1323288685677</v>
       </c>
       <c r="D158" t="n">
-        <v>174.9774988676636</v>
+        <v>174.9775288497558</v>
       </c>
       <c r="E158" t="n">
-        <v>178.1026306152344</v>
+        <v>178.1026611328125</v>
       </c>
       <c r="F158" t="n">
         <v>68901800</v>
@@ -4573,16 +4573,16 @@
         <v>45079</v>
       </c>
       <c r="B159" t="n">
-        <v>179.032259237154</v>
+        <v>179.0322287060834</v>
       </c>
       <c r="C159" t="n">
-        <v>179.7739826826232</v>
+        <v>179.7739520250636</v>
       </c>
       <c r="D159" t="n">
-        <v>177.2817876805341</v>
+        <v>177.2817574479783</v>
       </c>
       <c r="E159" t="n">
-        <v>178.9531402587891</v>
+        <v>178.9531097412109</v>
       </c>
       <c r="F159" t="n">
         <v>61996900</v>
@@ -4625,16 +4625,16 @@
         <v>45083</v>
       </c>
       <c r="B161" t="n">
-        <v>177.9839532147194</v>
+        <v>177.983968538218</v>
       </c>
       <c r="C161" t="n">
-        <v>178.132291862679</v>
+        <v>178.1323071989488</v>
       </c>
       <c r="D161" t="n">
-        <v>175.4719747796581</v>
+        <v>175.4719898868883</v>
       </c>
       <c r="E161" t="n">
-        <v>177.2323455810547</v>
+        <v>177.2323608398438</v>
       </c>
       <c r="F161" t="n">
         <v>64848400</v>
@@ -4651,16 +4651,16 @@
         <v>45084</v>
       </c>
       <c r="B162" t="n">
-        <v>176.4708497706318</v>
+        <v>176.4708191466497</v>
       </c>
       <c r="C162" t="n">
-        <v>179.2102860020899</v>
+        <v>179.210254902718</v>
       </c>
       <c r="D162" t="n">
-        <v>175.3632142216245</v>
+        <v>175.3631837898567</v>
       </c>
       <c r="E162" t="n">
-        <v>175.8576965332031</v>
+        <v>175.857666015625</v>
       </c>
       <c r="F162" t="n">
         <v>61944600</v>
@@ -4703,16 +4703,16 @@
         <v>45086</v>
       </c>
       <c r="B164" t="n">
-        <v>179.4970774647442</v>
+        <v>179.4970927690662</v>
       </c>
       <c r="C164" t="n">
-        <v>180.219017407747</v>
+        <v>180.2190327736232</v>
       </c>
       <c r="D164" t="n">
-        <v>178.6366830793792</v>
+        <v>178.636698310342</v>
       </c>
       <c r="E164" t="n">
-        <v>178.9630432128906</v>
+        <v>178.9630584716797</v>
       </c>
       <c r="F164" t="n">
         <v>48900000</v>
@@ -4729,16 +4729,16 @@
         <v>45089</v>
       </c>
       <c r="B165" t="n">
-        <v>179.2696151465179</v>
+        <v>179.26963019609</v>
       </c>
       <c r="C165" t="n">
-        <v>181.8606975389362</v>
+        <v>181.860712806028</v>
       </c>
       <c r="D165" t="n">
-        <v>178.9729227519474</v>
+        <v>178.9729377766124</v>
       </c>
       <c r="E165" t="n">
-        <v>181.7617950439453</v>
+        <v>181.7618103027344</v>
       </c>
       <c r="F165" t="n">
         <v>54274900</v>
@@ -4755,16 +4755,16 @@
         <v>45090</v>
       </c>
       <c r="B166" t="n">
-        <v>180.7827580473798</v>
+        <v>180.7827428310429</v>
       </c>
       <c r="C166" t="n">
-        <v>182.1178513962529</v>
+        <v>182.1178360675422</v>
       </c>
       <c r="D166" t="n">
-        <v>180.4267301362661</v>
+        <v>180.4267149498958</v>
       </c>
       <c r="E166" t="n">
-        <v>181.2871246337891</v>
+        <v>181.287109375</v>
       </c>
       <c r="F166" t="n">
         <v>54929100</v>
@@ -4807,16 +4807,16 @@
         <v>45092</v>
       </c>
       <c r="B168" t="n">
-        <v>181.9299555739799</v>
+        <v>181.9299404833556</v>
       </c>
       <c r="C168" t="n">
-        <v>184.4617028293976</v>
+        <v>184.4616875287714</v>
       </c>
       <c r="D168" t="n">
-        <v>181.7519340783062</v>
+        <v>181.7519190024484</v>
       </c>
       <c r="E168" t="n">
-        <v>183.9573211669922</v>
+        <v>183.9573059082031</v>
       </c>
       <c r="F168" t="n">
         <v>65433200</v>
@@ -4859,16 +4859,16 @@
         <v>45097</v>
       </c>
       <c r="B170" t="n">
-        <v>182.3749530885541</v>
+        <v>182.3749682978587</v>
       </c>
       <c r="C170" t="n">
-        <v>184.0463055632048</v>
+        <v>184.0463209118931</v>
       </c>
       <c r="D170" t="n">
-        <v>182.3749530885541</v>
+        <v>182.3749682978587</v>
       </c>
       <c r="E170" t="n">
-        <v>182.9683227539062</v>
+        <v>182.9683380126953</v>
       </c>
       <c r="F170" t="n">
         <v>49799100</v>
@@ -4937,16 +4937,16 @@
         <v>45100</v>
       </c>
       <c r="B173" t="n">
-        <v>183.5023686658594</v>
+        <v>183.5023989987121</v>
       </c>
       <c r="C173" t="n">
-        <v>185.4901819072684</v>
+        <v>185.4902125687057</v>
       </c>
       <c r="D173" t="n">
-        <v>182.9683193774565</v>
+        <v>182.968349622031</v>
       </c>
       <c r="E173" t="n">
-        <v>184.6198883056641</v>
+        <v>184.6199188232422</v>
       </c>
       <c r="F173" t="n">
         <v>53117000</v>
@@ -4963,16 +4963,16 @@
         <v>45103</v>
       </c>
       <c r="B174" t="n">
-        <v>184.7682461293646</v>
+        <v>184.7682615166346</v>
       </c>
       <c r="C174" t="n">
-        <v>185.974784070893</v>
+        <v>185.974799558642</v>
       </c>
       <c r="D174" t="n">
-        <v>183.1858968351105</v>
+        <v>183.1859120906044</v>
       </c>
       <c r="E174" t="n">
-        <v>183.2254638671875</v>
+        <v>183.2254791259766</v>
       </c>
       <c r="F174" t="n">
         <v>48088700</v>
@@ -4989,16 +4989,16 @@
         <v>45104</v>
       </c>
       <c r="B175" t="n">
-        <v>183.838613722899</v>
+        <v>183.838628805619</v>
       </c>
       <c r="C175" t="n">
-        <v>186.3110250189143</v>
+        <v>186.311040304479</v>
       </c>
       <c r="D175" t="n">
-        <v>183.6210403216176</v>
+        <v>183.6210553864872</v>
       </c>
       <c r="E175" t="n">
-        <v>185.9846649169922</v>
+        <v>185.9846801757812</v>
       </c>
       <c r="F175" t="n">
         <v>50730800</v>
@@ -5015,16 +5015,16 @@
         <v>45105</v>
       </c>
       <c r="B176" t="n">
-        <v>185.8561043245189</v>
+        <v>185.856089172159</v>
       </c>
       <c r="C176" t="n">
-        <v>187.8043657338943</v>
+        <v>187.8043504226978</v>
       </c>
       <c r="D176" t="n">
-        <v>185.5297592960992</v>
+        <v>185.5297441703453</v>
       </c>
       <c r="E176" t="n">
-        <v>187.1615447998047</v>
+        <v>187.1615295410156</v>
       </c>
       <c r="F176" t="n">
         <v>51216800</v>
@@ -5041,16 +5041,16 @@
         <v>45106</v>
       </c>
       <c r="B177" t="n">
-        <v>186.9934361998247</v>
+        <v>186.9934209820816</v>
       </c>
       <c r="C177" t="n">
-        <v>187.9725166273194</v>
+        <v>187.9725013298976</v>
       </c>
       <c r="D177" t="n">
-        <v>186.85498175365</v>
+        <v>186.8549665471744</v>
       </c>
       <c r="E177" t="n">
-        <v>187.497802734375</v>
+        <v>187.4977874755859</v>
       </c>
       <c r="F177" t="n">
         <v>46347300</v>
@@ -5119,16 +5119,16 @@
         <v>45112</v>
       </c>
       <c r="B180" t="n">
-        <v>189.4559543470025</v>
+        <v>189.4559696249322</v>
       </c>
       <c r="C180" t="n">
-        <v>190.8503829545932</v>
+        <v>190.8503983449712</v>
       </c>
       <c r="D180" t="n">
-        <v>188.5164259112187</v>
+        <v>188.5164411133839</v>
       </c>
       <c r="E180" t="n">
-        <v>189.2185974121094</v>
+        <v>189.2186126708984</v>
       </c>
       <c r="F180" t="n">
         <v>46920300</v>
@@ -5223,16 +5223,16 @@
         <v>45118</v>
       </c>
       <c r="B184" t="n">
-        <v>187.0725544445054</v>
+        <v>187.0725084052791</v>
       </c>
       <c r="C184" t="n">
-        <v>187.2110088901344</v>
+        <v>187.2109628168338</v>
       </c>
       <c r="D184" t="n">
-        <v>184.5408073870605</v>
+        <v>184.5407619709061</v>
       </c>
       <c r="E184" t="n">
-        <v>186.0044708251953</v>
+        <v>186.0044250488281</v>
       </c>
       <c r="F184" t="n">
         <v>46638100</v>
@@ -5249,16 +5249,16 @@
         <v>45119</v>
       </c>
       <c r="B185" t="n">
-        <v>187.5867782355027</v>
+        <v>187.5867934870542</v>
       </c>
       <c r="C185" t="n">
-        <v>189.5844907414315</v>
+        <v>189.584506155405</v>
       </c>
       <c r="D185" t="n">
-        <v>186.3901396467477</v>
+        <v>186.3901548010078</v>
       </c>
       <c r="E185" t="n">
-        <v>187.6757965087891</v>
+        <v>187.6758117675781</v>
       </c>
       <c r="F185" t="n">
         <v>60750200</v>
@@ -5327,16 +5327,16 @@
         <v>45124</v>
       </c>
       <c r="B188" t="n">
-        <v>189.7822806410743</v>
+        <v>189.7822957354681</v>
       </c>
       <c r="C188" t="n">
-        <v>192.1755879996207</v>
+        <v>192.1756032843669</v>
       </c>
       <c r="D188" t="n">
-        <v>189.6932774581798</v>
+        <v>189.6932925454947</v>
       </c>
       <c r="E188" t="n">
-        <v>191.8492279052734</v>
+        <v>191.8492431640625</v>
       </c>
       <c r="F188" t="n">
         <v>50520200</v>
@@ -5353,16 +5353,16 @@
         <v>45125</v>
       </c>
       <c r="B189" t="n">
-        <v>191.2163057753995</v>
+        <v>191.2163210042594</v>
       </c>
       <c r="C189" t="n">
-        <v>192.1854868293446</v>
+        <v>192.185502135392</v>
       </c>
       <c r="D189" t="n">
-        <v>190.2965608776665</v>
+        <v>190.296576033276</v>
       </c>
       <c r="E189" t="n">
-        <v>191.5921020507812</v>
+        <v>191.5921173095703</v>
       </c>
       <c r="F189" t="n">
         <v>48288200</v>
@@ -5379,16 +5379,16 @@
         <v>45126</v>
       </c>
       <c r="B190" t="n">
-        <v>190.9690618542327</v>
+        <v>190.9690769566016</v>
       </c>
       <c r="C190" t="n">
-        <v>196.0424397664868</v>
+        <v>196.0424552700726</v>
       </c>
       <c r="D190" t="n">
-        <v>190.5240157315845</v>
+        <v>190.5240307987579</v>
       </c>
       <c r="E190" t="n">
-        <v>192.9469909667969</v>
+        <v>192.9470062255859</v>
       </c>
       <c r="F190" t="n">
         <v>80507300</v>
@@ -5405,16 +5405,16 @@
         <v>45127</v>
       </c>
       <c r="B191" t="n">
-        <v>192.9370956401489</v>
+        <v>192.9371110537927</v>
       </c>
       <c r="C191" t="n">
-        <v>194.3018715848771</v>
+        <v>194.3018871075521</v>
       </c>
       <c r="D191" t="n">
-        <v>190.3756810082794</v>
+        <v>190.3756962172931</v>
       </c>
       <c r="E191" t="n">
-        <v>190.9987335205078</v>
+        <v>190.9987487792969</v>
       </c>
       <c r="F191" t="n">
         <v>59581200</v>
@@ -5431,16 +5431,16 @@
         <v>45128</v>
       </c>
       <c r="B192" t="n">
-        <v>191.9580514977171</v>
+        <v>191.9580360672127</v>
       </c>
       <c r="C192" t="n">
-        <v>192.8184459451999</v>
+        <v>192.8184304455329</v>
       </c>
       <c r="D192" t="n">
-        <v>189.1197125887689</v>
+        <v>189.1196973864238</v>
       </c>
       <c r="E192" t="n">
-        <v>189.8218841552734</v>
+        <v>189.8218688964844</v>
       </c>
       <c r="F192" t="n">
         <v>71951700</v>
@@ -5457,16 +5457,16 @@
         <v>45131</v>
       </c>
       <c r="B193" t="n">
-        <v>191.2756603671028</v>
+        <v>191.2756450560654</v>
       </c>
       <c r="C193" t="n">
-        <v>192.7591073714878</v>
+        <v>192.759091941705</v>
       </c>
       <c r="D193" t="n">
-        <v>190.1284577286816</v>
+        <v>190.1284425094743</v>
       </c>
       <c r="E193" t="n">
-        <v>190.6229400634766</v>
+        <v>190.6229248046875</v>
       </c>
       <c r="F193" t="n">
         <v>45377800</v>
@@ -5483,16 +5483,16 @@
         <v>45132</v>
       </c>
       <c r="B194" t="n">
-        <v>191.1965290476535</v>
+        <v>191.1965442835888</v>
       </c>
       <c r="C194" t="n">
-        <v>192.2942803636932</v>
+        <v>192.2942956871053</v>
       </c>
       <c r="D194" t="n">
-        <v>190.7910499375842</v>
+        <v>190.791065141208</v>
       </c>
       <c r="E194" t="n">
-        <v>191.4833221435547</v>
+        <v>191.4833374023438</v>
       </c>
       <c r="F194" t="n">
         <v>37283200</v>
@@ -5509,16 +5509,16 @@
         <v>45133</v>
       </c>
       <c r="B195" t="n">
-        <v>191.5327799746606</v>
+        <v>191.5327495873121</v>
       </c>
       <c r="C195" t="n">
-        <v>193.4810415222525</v>
+        <v>193.4810108258054</v>
       </c>
       <c r="D195" t="n">
-        <v>191.1866514049806</v>
+        <v>191.1866210725465</v>
       </c>
       <c r="E195" t="n">
-        <v>192.3536224365234</v>
+        <v>192.3535919189453</v>
       </c>
       <c r="F195" t="n">
         <v>47471900</v>
@@ -5535,16 +5535,16 @@
         <v>45134</v>
       </c>
       <c r="B196" t="n">
-        <v>193.8568573689851</v>
+        <v>193.8568418890768</v>
       </c>
       <c r="C196" t="n">
-        <v>195.0238284273441</v>
+        <v>195.0238128542506</v>
       </c>
       <c r="D196" t="n">
-        <v>190.4251487828704</v>
+        <v>190.4251335769918</v>
       </c>
       <c r="E196" t="n">
-        <v>191.0877532958984</v>
+        <v>191.0877380371094</v>
       </c>
       <c r="F196" t="n">
         <v>47460200</v>
@@ -5561,16 +5561,16 @@
         <v>45135</v>
       </c>
       <c r="B197" t="n">
-        <v>192.5217427199515</v>
+        <v>192.5217275515483</v>
       </c>
       <c r="C197" t="n">
-        <v>194.4601200346163</v>
+        <v>194.4601047134921</v>
       </c>
       <c r="D197" t="n">
-        <v>191.99759267326</v>
+        <v>191.9975775461535</v>
       </c>
       <c r="E197" t="n">
-        <v>193.6689453125</v>
+        <v>193.6689300537109</v>
       </c>
       <c r="F197" t="n">
         <v>48291400</v>
@@ -5587,16 +5587,16 @@
         <v>45138</v>
       </c>
       <c r="B198" t="n">
-        <v>193.8963936498011</v>
+        <v>193.8964088782979</v>
       </c>
       <c r="C198" t="n">
-        <v>194.3216562673275</v>
+        <v>194.3216715292241</v>
       </c>
       <c r="D198" t="n">
-        <v>193.1052189656419</v>
+        <v>193.1052341320003</v>
       </c>
       <c r="E198" t="n">
-        <v>194.2820892333984</v>
+        <v>194.2821044921875</v>
       </c>
       <c r="F198" t="n">
         <v>38824100</v>
@@ -5613,16 +5613,16 @@
         <v>45139</v>
       </c>
       <c r="B199" t="n">
-        <v>194.0744380877424</v>
+        <v>194.0744074718757</v>
       </c>
       <c r="C199" t="n">
-        <v>194.5590211327022</v>
+        <v>194.5589904403909</v>
       </c>
       <c r="D199" t="n">
-        <v>193.1250253363209</v>
+        <v>193.1249948702271</v>
       </c>
       <c r="E199" t="n">
-        <v>193.4513854980469</v>
+        <v>193.4513549804688</v>
       </c>
       <c r="F199" t="n">
         <v>35175100</v>
@@ -5639,16 +5639,16 @@
         <v>45140</v>
       </c>
       <c r="B200" t="n">
-        <v>192.8876479192438</v>
+        <v>192.887632465541</v>
       </c>
       <c r="C200" t="n">
-        <v>193.026102358892</v>
+        <v>193.0260868940966</v>
       </c>
       <c r="D200" t="n">
-        <v>189.7328635379458</v>
+        <v>189.7328483369969</v>
       </c>
       <c r="E200" t="n">
-        <v>190.4548034667969</v>
+        <v>190.4547882080078</v>
       </c>
       <c r="F200" t="n">
         <v>50389300</v>
@@ -5717,16 +5717,16 @@
         <v>45145</v>
       </c>
       <c r="B203" t="n">
-        <v>180.1201457848144</v>
+        <v>180.1201147075628</v>
       </c>
       <c r="C203" t="n">
-        <v>181.10911048561</v>
+        <v>181.109079237726</v>
       </c>
       <c r="D203" t="n">
-        <v>175.3928957222442</v>
+        <v>175.3928654606145</v>
       </c>
       <c r="E203" t="n">
-        <v>176.8763427734375</v>
+        <v>176.8763122558594</v>
       </c>
       <c r="F203" t="n">
         <v>97576100</v>
@@ -5743,16 +5743,16 @@
         <v>45146</v>
       </c>
       <c r="B204" t="n">
-        <v>177.7070549630004</v>
+        <v>177.7070244640927</v>
       </c>
       <c r="C204" t="n">
-        <v>178.2806562533865</v>
+        <v>178.2806256560347</v>
       </c>
       <c r="D204" t="n">
-        <v>175.6203390114105</v>
+        <v>175.6203088706347</v>
       </c>
       <c r="E204" t="n">
-        <v>177.8158416748047</v>
+        <v>177.8158111572266</v>
       </c>
       <c r="F204" t="n">
         <v>67823000</v>
@@ -5769,16 +5769,16 @@
         <v>45147</v>
       </c>
       <c r="B205" t="n">
-        <v>178.8740046582552</v>
+        <v>178.8740201465377</v>
       </c>
       <c r="C205" t="n">
-        <v>178.9333401139145</v>
+        <v>178.9333556073348</v>
       </c>
       <c r="D205" t="n">
-        <v>175.0566010766963</v>
+        <v>175.0566162344388</v>
       </c>
       <c r="E205" t="n">
-        <v>176.2235870361328</v>
+        <v>176.2236022949219</v>
       </c>
       <c r="F205" t="n">
         <v>60378500</v>
@@ -5821,16 +5821,16 @@
         <v>45149</v>
       </c>
       <c r="B207" t="n">
-        <v>175.6000025911711</v>
+        <v>175.6000330280764</v>
       </c>
       <c r="C207" t="n">
-        <v>176.8873804976947</v>
+        <v>176.8874111577423</v>
       </c>
       <c r="D207" t="n">
-        <v>174.8374673630278</v>
+        <v>174.8374976677621</v>
       </c>
       <c r="E207" t="n">
-        <v>176.0654296875</v>
+        <v>176.0654602050781</v>
       </c>
       <c r="F207" t="n">
         <v>52036700</v>
@@ -5847,16 +5847,16 @@
         <v>45152</v>
       </c>
       <c r="B208" t="n">
-        <v>176.2437312905361</v>
+        <v>176.2437010263368</v>
       </c>
       <c r="C208" t="n">
-        <v>177.9470488771055</v>
+        <v>177.9470183204161</v>
       </c>
       <c r="D208" t="n">
-        <v>175.5901295190144</v>
+        <v>175.5900993670502</v>
       </c>
       <c r="E208" t="n">
-        <v>177.7192840576172</v>
+        <v>177.7192535400391</v>
       </c>
       <c r="F208" t="n">
         <v>43675600</v>
@@ -5873,16 +5873,16 @@
         <v>45153</v>
       </c>
       <c r="B209" t="n">
-        <v>177.1448968471621</v>
+        <v>177.1448814654077</v>
       </c>
       <c r="C209" t="n">
-        <v>177.7390678746503</v>
+        <v>177.7390524413032</v>
       </c>
       <c r="D209" t="n">
-        <v>175.3326457472995</v>
+        <v>175.3326305229056</v>
       </c>
       <c r="E209" t="n">
-        <v>175.728759765625</v>
+        <v>175.7287445068359</v>
       </c>
       <c r="F209" t="n">
         <v>43622600</v>
@@ -5899,16 +5899,16 @@
         <v>45154</v>
       </c>
       <c r="B210" t="n">
-        <v>175.4118654553142</v>
+        <v>175.4118348409486</v>
       </c>
       <c r="C210" t="n">
-        <v>176.8081771432205</v>
+        <v>176.8081462851588</v>
       </c>
       <c r="D210" t="n">
-        <v>174.7879715429688</v>
+        <v>174.7879410374905</v>
       </c>
       <c r="E210" t="n">
-        <v>174.8572998046875</v>
+        <v>174.8572692871094</v>
       </c>
       <c r="F210" t="n">
         <v>46964900</v>
@@ -5925,16 +5925,16 @@
         <v>45155</v>
       </c>
       <c r="B211" t="n">
-        <v>175.4217516605343</v>
+        <v>175.4217671946831</v>
       </c>
       <c r="C211" t="n">
-        <v>175.7881578465257</v>
+        <v>175.7881734131209</v>
       </c>
       <c r="D211" t="n">
-        <v>171.7972498218564</v>
+        <v>171.7972650350441</v>
       </c>
       <c r="E211" t="n">
-        <v>172.3122100830078</v>
+        <v>172.3122253417969</v>
       </c>
       <c r="F211" t="n">
         <v>66062900</v>
@@ -5951,16 +5951,16 @@
         <v>45156</v>
       </c>
       <c r="B212" t="n">
-        <v>170.6287255207675</v>
+        <v>170.6287104534896</v>
       </c>
       <c r="C212" t="n">
-        <v>173.4015690710498</v>
+        <v>173.4015537589174</v>
       </c>
       <c r="D212" t="n">
-        <v>170.2920270832255</v>
+        <v>170.2920120456795</v>
       </c>
       <c r="E212" t="n">
-        <v>172.7974853515625</v>
+        <v>172.7974700927734</v>
       </c>
       <c r="F212" t="n">
         <v>61172200</v>
@@ -6003,16 +6003,16 @@
         <v>45160</v>
       </c>
       <c r="B214" t="n">
-        <v>175.3425455599021</v>
+        <v>175.3425150715963</v>
       </c>
       <c r="C214" t="n">
-        <v>175.9565268294228</v>
+        <v>175.9564962343588</v>
       </c>
       <c r="D214" t="n">
-        <v>174.5404048404878</v>
+        <v>174.5403744916571</v>
       </c>
       <c r="E214" t="n">
-        <v>175.5108947753906</v>
+        <v>175.5108642578125</v>
       </c>
       <c r="F214" t="n">
         <v>42038900</v>
@@ -6029,16 +6029,16 @@
         <v>45161</v>
       </c>
       <c r="B215" t="n">
-        <v>176.7884028837435</v>
+        <v>176.7883878439955</v>
       </c>
       <c r="C215" t="n">
-        <v>179.7890113988208</v>
+        <v>179.7889961038049</v>
       </c>
       <c r="D215" t="n">
-        <v>176.6002434206227</v>
+        <v>176.6002283968818</v>
       </c>
       <c r="E215" t="n">
-        <v>179.3631744384766</v>
+        <v>179.3631591796875</v>
       </c>
       <c r="F215" t="n">
         <v>52722800</v>
@@ -6081,16 +6081,16 @@
         <v>45163</v>
       </c>
       <c r="B217" t="n">
-        <v>175.6594375427037</v>
+        <v>175.6594223889941</v>
       </c>
       <c r="C217" t="n">
-        <v>177.4122578496136</v>
+        <v>177.4122425446925</v>
       </c>
       <c r="D217" t="n">
-        <v>174.1145717959043</v>
+        <v>174.1145567754665</v>
       </c>
       <c r="E217" t="n">
-        <v>176.8775024414062</v>
+        <v>176.8774871826172</v>
       </c>
       <c r="F217" t="n">
         <v>51449600</v>
@@ -6107,16 +6107,16 @@
         <v>45166</v>
       </c>
       <c r="B218" t="n">
-        <v>178.3431483900386</v>
+        <v>178.3431331397182</v>
       </c>
       <c r="C218" t="n">
-        <v>178.8382984594946</v>
+        <v>178.8382831668333</v>
       </c>
       <c r="D218" t="n">
-        <v>176.8180928248581</v>
+        <v>176.8180777049469</v>
       </c>
       <c r="E218" t="n">
-        <v>178.4421844482422</v>
+        <v>178.4421691894531</v>
       </c>
       <c r="F218" t="n">
         <v>43820700</v>
@@ -6133,16 +6133,16 @@
         <v>45167</v>
       </c>
       <c r="B219" t="n">
-        <v>177.9569059889832</v>
+        <v>177.9569208814686</v>
       </c>
       <c r="C219" t="n">
-        <v>183.1064629382127</v>
+        <v>183.1064782616435</v>
       </c>
       <c r="D219" t="n">
-        <v>177.7588490122395</v>
+        <v>177.7588638881504</v>
       </c>
       <c r="E219" t="n">
-        <v>182.3340301513672</v>
+        <v>182.3340454101562</v>
       </c>
       <c r="F219" t="n">
         <v>53003900</v>
@@ -6159,16 +6159,16 @@
         <v>45168</v>
       </c>
       <c r="B220" t="n">
-        <v>183.1460987192674</v>
+        <v>183.1460836808417</v>
       </c>
       <c r="C220" t="n">
-        <v>186.027875570887</v>
+        <v>186.0278602958339</v>
       </c>
       <c r="D220" t="n">
-        <v>182.9480417259573</v>
+        <v>182.9480267037944</v>
       </c>
       <c r="E220" t="n">
-        <v>185.8298034667969</v>
+        <v>185.8297882080078</v>
       </c>
       <c r="F220" t="n">
         <v>60813900</v>
@@ -6185,16 +6185,16 @@
         <v>45169</v>
       </c>
       <c r="B221" t="n">
-        <v>186.0179759202833</v>
+        <v>186.0179606639307</v>
       </c>
       <c r="C221" t="n">
-        <v>187.2855588991337</v>
+        <v>187.2855435388197</v>
       </c>
       <c r="D221" t="n">
-        <v>185.6614672630578</v>
+        <v>185.6614520359444</v>
       </c>
       <c r="E221" t="n">
-        <v>186.0476837158203</v>
+        <v>186.0476684570312</v>
       </c>
       <c r="F221" t="n">
         <v>60794500</v>
@@ -6211,16 +6211,16 @@
         <v>45170</v>
       </c>
       <c r="B222" t="n">
-        <v>187.6519459492898</v>
+        <v>187.651961210495</v>
       </c>
       <c r="C222" t="n">
-        <v>188.0777676813875</v>
+        <v>188.0777829772235</v>
       </c>
       <c r="D222" t="n">
-        <v>186.4536763419935</v>
+        <v>186.4536915057467</v>
       </c>
       <c r="E222" t="n">
-        <v>187.6222381591797</v>
+        <v>187.6222534179688</v>
       </c>
       <c r="F222" t="n">
         <v>45766500</v>
@@ -6237,16 +6237,16 @@
         <v>45174</v>
       </c>
       <c r="B223" t="n">
-        <v>186.453699999912</v>
+        <v>186.453669710773</v>
       </c>
       <c r="C223" t="n">
-        <v>188.1372071331358</v>
+        <v>188.1371765705135</v>
       </c>
       <c r="D223" t="n">
-        <v>185.7902007519677</v>
+        <v>185.7901705706132</v>
       </c>
       <c r="E223" t="n">
-        <v>187.8599243164062</v>
+        <v>187.8598937988281</v>
       </c>
       <c r="F223" t="n">
         <v>45280000</v>
@@ -6263,16 +6263,16 @@
         <v>45175</v>
       </c>
       <c r="B224" t="n">
-        <v>186.5725413500311</v>
+        <v>186.5725256332539</v>
       </c>
       <c r="C224" t="n">
-        <v>187.0181885040882</v>
+        <v>187.01817274977</v>
       </c>
       <c r="D224" t="n">
-        <v>179.7097685955478</v>
+        <v>179.7097534568871</v>
       </c>
       <c r="E224" t="n">
-        <v>181.1358032226562</v>
+        <v>181.1357879638672</v>
       </c>
       <c r="F224" t="n">
         <v>81755800</v>
@@ -6289,16 +6289,16 @@
         <v>45176</v>
       </c>
       <c r="B225" t="n">
-        <v>173.4807429591741</v>
+        <v>173.4807580134351</v>
       </c>
       <c r="C225" t="n">
-        <v>176.4813657955772</v>
+        <v>176.4813811102254</v>
       </c>
       <c r="D225" t="n">
-        <v>171.8566515990645</v>
+        <v>171.8566665123906</v>
       </c>
       <c r="E225" t="n">
-        <v>175.8376617431641</v>
+        <v>175.8376770019531</v>
       </c>
       <c r="F225" t="n">
         <v>112488800</v>
@@ -6315,16 +6315,16 @@
         <v>45177</v>
       </c>
       <c r="B226" t="n">
-        <v>176.6200091931817</v>
+        <v>176.6200244665302</v>
       </c>
       <c r="C226" t="n">
-        <v>178.4916755691339</v>
+        <v>178.4916910043361</v>
       </c>
       <c r="D226" t="n">
-        <v>176.06542850594</v>
+        <v>176.0654437313307</v>
       </c>
       <c r="E226" t="n">
-        <v>176.4516448974609</v>
+        <v>176.45166015625</v>
       </c>
       <c r="F226" t="n">
         <v>65551300</v>
@@ -6341,16 +6341,16 @@
         <v>45180</v>
       </c>
       <c r="B227" t="n">
-        <v>178.3233130703228</v>
+        <v>178.3233590278983</v>
       </c>
       <c r="C227" t="n">
-        <v>178.5510778199123</v>
+        <v>178.5511238361875</v>
       </c>
       <c r="D227" t="n">
-        <v>175.6197834207467</v>
+        <v>175.6198286815672</v>
       </c>
       <c r="E227" t="n">
-        <v>177.6201934814453</v>
+        <v>177.6202392578125</v>
       </c>
       <c r="F227" t="n">
         <v>58953100</v>
@@ -6419,16 +6419,16 @@
         <v>45183</v>
       </c>
       <c r="B230" t="n">
-        <v>172.3121966899004</v>
+        <v>172.3122269053233</v>
       </c>
       <c r="C230" t="n">
-        <v>174.3918326942623</v>
+        <v>174.3918632743552</v>
       </c>
       <c r="D230" t="n">
-        <v>171.8962725111838</v>
+        <v>171.8963026536732</v>
       </c>
       <c r="E230" t="n">
-        <v>174.0353240966797</v>
+        <v>174.0353546142578</v>
       </c>
       <c r="F230" t="n">
         <v>60895800</v>
@@ -6471,16 +6471,16 @@
         <v>45187</v>
       </c>
       <c r="B232" t="n">
-        <v>174.7681304997074</v>
+        <v>174.7681456307464</v>
       </c>
       <c r="C232" t="n">
-        <v>177.6400094138573</v>
+        <v>177.6400247935372</v>
       </c>
       <c r="D232" t="n">
-        <v>174.4611399337141</v>
+        <v>174.4611550381745</v>
       </c>
       <c r="E232" t="n">
-        <v>176.2436828613281</v>
+        <v>176.2436981201172</v>
       </c>
       <c r="F232" t="n">
         <v>67257600</v>
@@ -6497,16 +6497,16 @@
         <v>45188</v>
       </c>
       <c r="B233" t="n">
-        <v>175.7980550939869</v>
+        <v>175.7980702206982</v>
       </c>
       <c r="C233" t="n">
-        <v>177.8875886373594</v>
+        <v>177.8876039438666</v>
       </c>
       <c r="D233" t="n">
-        <v>175.4118387097038</v>
+        <v>175.4118538031827</v>
       </c>
       <c r="E233" t="n">
-        <v>177.3330230712891</v>
+        <v>177.3330383300781</v>
       </c>
       <c r="F233" t="n">
         <v>51826900</v>
@@ -6523,16 +6523,16 @@
         <v>45189</v>
       </c>
       <c r="B234" t="n">
-        <v>177.5211859037977</v>
+        <v>177.5212014903859</v>
       </c>
       <c r="C234" t="n">
-        <v>177.9569203542751</v>
+        <v>177.9569359791213</v>
       </c>
       <c r="D234" t="n">
-        <v>173.6986270120375</v>
+        <v>173.6986422630001</v>
       </c>
       <c r="E234" t="n">
-        <v>173.7877655029297</v>
+        <v>173.7877807617188</v>
       </c>
       <c r="F234" t="n">
         <v>58436200</v>
@@ -6549,16 +6549,16 @@
         <v>45190</v>
       </c>
       <c r="B235" t="n">
-        <v>172.856870429388</v>
+        <v>172.8569010557525</v>
       </c>
       <c r="C235" t="n">
-        <v>174.5898954535224</v>
+        <v>174.5899263869401</v>
       </c>
       <c r="D235" t="n">
-        <v>172.1735610021475</v>
+        <v>172.1735915074449</v>
       </c>
       <c r="E235" t="n">
-        <v>172.2428741455078</v>
+        <v>172.2429046630859</v>
       </c>
       <c r="F235" t="n">
         <v>63149100</v>
@@ -6679,16 +6679,16 @@
         <v>45197</v>
       </c>
       <c r="B240" t="n">
-        <v>167.6973907740841</v>
+        <v>167.6974210502953</v>
       </c>
       <c r="C240" t="n">
-        <v>170.3613000710917</v>
+        <v>170.3613308282471</v>
       </c>
       <c r="D240" t="n">
-        <v>165.9940736424088</v>
+        <v>165.9941036111019</v>
       </c>
       <c r="E240" t="n">
-        <v>169.0343017578125</v>
+        <v>169.0343322753906</v>
       </c>
       <c r="F240" t="n">
         <v>56294400</v>
@@ -6705,16 +6705,16 @@
         <v>45198</v>
       </c>
       <c r="B241" t="n">
-        <v>170.3513958858213</v>
+        <v>170.3514112168</v>
       </c>
       <c r="C241" t="n">
-        <v>171.3912138204146</v>
+        <v>171.3912292449729</v>
       </c>
       <c r="D241" t="n">
-        <v>168.6876841683166</v>
+        <v>168.6876993495675</v>
       </c>
       <c r="E241" t="n">
-        <v>169.5492553710938</v>
+        <v>169.5492706298828</v>
       </c>
       <c r="F241" t="n">
         <v>51861100</v>
@@ -6731,16 +6731,16 @@
         <v>45201</v>
       </c>
       <c r="B242" t="n">
-        <v>169.5591782758026</v>
+        <v>169.5591632391989</v>
       </c>
       <c r="C242" t="n">
-        <v>172.6093042881744</v>
+        <v>172.6092889810839</v>
       </c>
       <c r="D242" t="n">
-        <v>169.2719827950215</v>
+        <v>169.2719677838865</v>
       </c>
       <c r="E242" t="n">
-        <v>172.0646362304688</v>
+        <v>172.0646209716797</v>
       </c>
       <c r="F242" t="n">
         <v>52164500</v>
@@ -6757,16 +6757,16 @@
         <v>45202</v>
       </c>
       <c r="B243" t="n">
-        <v>170.589096012129</v>
+        <v>170.589080765731</v>
       </c>
       <c r="C243" t="n">
-        <v>171.9458174739761</v>
+        <v>171.9458021063211</v>
       </c>
       <c r="D243" t="n">
-        <v>169.1630765091389</v>
+        <v>169.1630613901914</v>
       </c>
       <c r="E243" t="n">
-        <v>170.7277374267578</v>
+        <v>170.7277221679688</v>
       </c>
       <c r="F243" t="n">
         <v>49594600</v>
@@ -6783,16 +6783,16 @@
         <v>45203</v>
       </c>
       <c r="B244" t="n">
-        <v>169.4304312717371</v>
+        <v>169.4304463047103</v>
       </c>
       <c r="C244" t="n">
-        <v>172.5201776911012</v>
+        <v>172.5201929982168</v>
       </c>
       <c r="D244" t="n">
-        <v>169.3116001016468</v>
+        <v>169.3116151240765</v>
       </c>
       <c r="E244" t="n">
-        <v>171.9755096435547</v>
+        <v>171.9755249023438</v>
       </c>
       <c r="F244" t="n">
         <v>53020300</v>
@@ -6809,16 +6809,16 @@
         <v>45204</v>
       </c>
       <c r="B245" t="n">
-        <v>172.1042629384862</v>
+        <v>172.1042477774046</v>
       </c>
       <c r="C245" t="n">
-        <v>173.7481648763392</v>
+        <v>173.7481495704422</v>
       </c>
       <c r="D245" t="n">
-        <v>171.0050291259197</v>
+        <v>171.0050140616722</v>
       </c>
       <c r="E245" t="n">
-        <v>173.2134094238281</v>
+        <v>173.2133941650391</v>
       </c>
       <c r="F245" t="n">
         <v>48527900</v>
@@ -6835,16 +6835,16 @@
         <v>45205</v>
       </c>
       <c r="B246" t="n">
-        <v>172.1141617663429</v>
+        <v>172.1141468247828</v>
       </c>
       <c r="C246" t="n">
-        <v>176.2635216359558</v>
+        <v>176.2635063341819</v>
       </c>
       <c r="D246" t="n">
-        <v>171.5001654241457</v>
+        <v>171.5001505358878</v>
       </c>
       <c r="E246" t="n">
-        <v>175.7683715820312</v>
+        <v>175.7683563232422</v>
       </c>
       <c r="F246" t="n">
         <v>57266700</v>
@@ -6861,16 +6861,16 @@
         <v>45208</v>
       </c>
       <c r="B247" t="n">
-        <v>175.0949376174271</v>
+        <v>175.0949677633166</v>
       </c>
       <c r="C247" t="n">
-        <v>177.3132150197459</v>
+        <v>177.3132455475535</v>
       </c>
       <c r="D247" t="n">
-        <v>174.0947400742437</v>
+        <v>174.0947700479303</v>
       </c>
       <c r="E247" t="n">
-        <v>177.2537994384766</v>
+        <v>177.2538299560547</v>
       </c>
       <c r="F247" t="n">
         <v>42390800</v>
@@ -6939,16 +6939,16 @@
         <v>45211</v>
       </c>
       <c r="B250" t="n">
-        <v>178.3233313959954</v>
+        <v>178.3233466007442</v>
       </c>
       <c r="C250" t="n">
-        <v>180.5713015558535</v>
+        <v>180.5713169522757</v>
       </c>
       <c r="D250" t="n">
-        <v>177.3033084761017</v>
+        <v>177.3033235938782</v>
       </c>
       <c r="E250" t="n">
-        <v>178.9571228027344</v>
+        <v>178.9571380615234</v>
       </c>
       <c r="F250" t="n">
         <v>56743100</v>
@@ -7017,16 +7017,16 @@
         <v>45216</v>
       </c>
       <c r="B253" t="n">
-        <v>174.9364906202884</v>
+        <v>174.93650583601</v>
       </c>
       <c r="C253" t="n">
-        <v>176.6893258679855</v>
+        <v>176.6893412361662</v>
       </c>
       <c r="D253" t="n">
-        <v>173.104444669323</v>
+        <v>173.1044597256959</v>
       </c>
       <c r="E253" t="n">
-        <v>175.431640625</v>
+        <v>175.4316558837891</v>
       </c>
       <c r="F253" t="n">
         <v>57549400</v>
@@ -7069,16 +7069,16 @@
         <v>45218</v>
       </c>
       <c r="B255" t="n">
-        <v>174.3324020735517</v>
+        <v>174.3324326920063</v>
       </c>
       <c r="C255" t="n">
-        <v>176.1149450621931</v>
+        <v>176.1149759937203</v>
       </c>
       <c r="D255" t="n">
-        <v>173.4906561558451</v>
+        <v>173.4906866264617</v>
       </c>
       <c r="E255" t="n">
-        <v>173.7580413818359</v>
+        <v>173.7580718994141</v>
       </c>
       <c r="F255" t="n">
         <v>59302900</v>
@@ -7095,16 +7095,16 @@
         <v>45219</v>
       </c>
       <c r="B256" t="n">
-        <v>173.6095165897406</v>
+        <v>173.6095011164748</v>
       </c>
       <c r="C256" t="n">
-        <v>173.7184502104905</v>
+        <v>173.7184347275158</v>
       </c>
       <c r="D256" t="n">
-        <v>170.9654170069364</v>
+        <v>170.9654017693308</v>
       </c>
       <c r="E256" t="n">
-        <v>171.2030944824219</v>
+        <v>171.2030792236328</v>
       </c>
       <c r="F256" t="n">
         <v>64244000</v>
@@ -7121,16 +7121,16 @@
         <v>45222</v>
       </c>
       <c r="B257" t="n">
-        <v>169.252160973279</v>
+        <v>169.2521760477281</v>
       </c>
       <c r="C257" t="n">
-        <v>172.3220816228897</v>
+        <v>172.3220969707614</v>
       </c>
       <c r="D257" t="n">
-        <v>168.2816561832755</v>
+        <v>168.2816711712865</v>
       </c>
       <c r="E257" t="n">
-        <v>171.3218841552734</v>
+        <v>171.3218994140625</v>
       </c>
       <c r="F257" t="n">
         <v>55980100</v>
@@ -7173,16 +7173,16 @@
         <v>45224</v>
       </c>
       <c r="B259" t="n">
-        <v>170.2127709354331</v>
+        <v>170.2127862637829</v>
       </c>
       <c r="C259" t="n">
-        <v>171.3813176966761</v>
+        <v>171.3813331302583</v>
       </c>
       <c r="D259" t="n">
-        <v>168.9946910406445</v>
+        <v>168.9947062593012</v>
       </c>
       <c r="E259" t="n">
-        <v>169.4403381347656</v>
+        <v>169.4403533935547</v>
       </c>
       <c r="F259" t="n">
         <v>57157000</v>
@@ -7199,16 +7199,16 @@
         <v>45225</v>
       </c>
       <c r="B260" t="n">
-        <v>168.717403658217</v>
+        <v>168.7174192351828</v>
       </c>
       <c r="C260" t="n">
-        <v>169.717616314257</v>
+        <v>169.7176319835683</v>
       </c>
       <c r="D260" t="n">
-        <v>164.062996749515</v>
+        <v>164.0630118967591</v>
       </c>
       <c r="E260" t="n">
-        <v>165.2711639404297</v>
+        <v>165.2711791992188</v>
       </c>
       <c r="F260" t="n">
         <v>70625300</v>
@@ -7225,16 +7225,16 @@
         <v>45226</v>
       </c>
       <c r="B261" t="n">
-        <v>165.2909966143656</v>
+        <v>165.290981474403</v>
       </c>
       <c r="C261" t="n">
-        <v>167.321114882013</v>
+        <v>167.3210995561</v>
       </c>
       <c r="D261" t="n">
-        <v>165.2117707914918</v>
+        <v>165.2117556587859</v>
       </c>
       <c r="E261" t="n">
-        <v>166.5882873535156</v>
+        <v>166.5882720947266</v>
       </c>
       <c r="F261" t="n">
         <v>58499100</v>
@@ -7251,16 +7251,16 @@
         <v>45229</v>
       </c>
       <c r="B262" t="n">
-        <v>167.3805134493289</v>
+        <v>167.3805285943209</v>
       </c>
       <c r="C262" t="n">
-        <v>169.5096524459554</v>
+        <v>169.5096677835971</v>
       </c>
       <c r="D262" t="n">
-        <v>167.2319593800053</v>
+        <v>167.2319745115558</v>
       </c>
       <c r="E262" t="n">
-        <v>168.63818359375</v>
+        <v>168.6381988525391</v>
       </c>
       <c r="F262" t="n">
         <v>51131000</v>
@@ -7277,16 +7277,16 @@
         <v>45230</v>
       </c>
       <c r="B263" t="n">
-        <v>167.7073315495603</v>
+        <v>167.7073466814684</v>
       </c>
       <c r="C263" t="n">
-        <v>169.242284648613</v>
+        <v>169.2422999190169</v>
       </c>
       <c r="D263" t="n">
-        <v>166.2713842853667</v>
+        <v>166.2713992877122</v>
       </c>
       <c r="E263" t="n">
-        <v>169.1135559082031</v>
+        <v>169.1135711669922</v>
       </c>
       <c r="F263" t="n">
         <v>44846000</v>
@@ -7303,16 +7303,16 @@
         <v>45231</v>
       </c>
       <c r="B264" t="n">
-        <v>169.3413088579914</v>
+        <v>169.3413238562837</v>
       </c>
       <c r="C264" t="n">
-        <v>172.5399737942907</v>
+        <v>172.5399890758838</v>
       </c>
       <c r="D264" t="n">
-        <v>168.469839976957</v>
+        <v>168.4698548980647</v>
       </c>
       <c r="E264" t="n">
-        <v>172.2825012207031</v>
+        <v>172.2825164794922</v>
       </c>
       <c r="F264" t="n">
         <v>56934900</v>
@@ -7329,16 +7329,16 @@
         <v>45232</v>
       </c>
       <c r="B265" t="n">
-        <v>173.8175071621296</v>
+        <v>173.8174619142396</v>
       </c>
       <c r="C265" t="n">
-        <v>176.0555803265339</v>
+        <v>176.0555344960324</v>
       </c>
       <c r="D265" t="n">
-        <v>173.7580915638119</v>
+        <v>173.7580463313888</v>
       </c>
       <c r="E265" t="n">
-        <v>175.8476257324219</v>
+        <v>175.8475799560547</v>
       </c>
       <c r="F265" t="n">
         <v>77334800</v>
@@ -7381,16 +7381,16 @@
         <v>45236</v>
       </c>
       <c r="B267" t="n">
-        <v>174.6691543471528</v>
+        <v>174.669124314844</v>
       </c>
       <c r="C267" t="n">
-        <v>177.6895578726031</v>
+        <v>177.6895273209714</v>
       </c>
       <c r="D267" t="n">
-        <v>174.5008051262194</v>
+        <v>174.5007751228563</v>
       </c>
       <c r="E267" t="n">
-        <v>177.4915008544922</v>
+        <v>177.4914703369141</v>
       </c>
       <c r="F267" t="n">
         <v>63841300</v>
@@ -7459,16 +7459,16 @@
         <v>45239</v>
       </c>
       <c r="B270" t="n">
-        <v>181.1853389316435</v>
+        <v>181.1852930172513</v>
       </c>
       <c r="C270" t="n">
-        <v>182.3340757282105</v>
+        <v>182.3340295227155</v>
       </c>
       <c r="D270" t="n">
-        <v>180.0464845868326</v>
+        <v>180.0464389610389</v>
       </c>
       <c r="E270" t="n">
-        <v>180.6406707763672</v>
+        <v>180.640625</v>
       </c>
       <c r="F270" t="n">
         <v>53763500</v>
@@ -7537,16 +7537,16 @@
         <v>45244</v>
       </c>
       <c r="B273" t="n">
-        <v>186.1242211071054</v>
+        <v>186.1241905471969</v>
       </c>
       <c r="C273" t="n">
-        <v>186.5307827134021</v>
+        <v>186.5307520867399</v>
       </c>
       <c r="D273" t="n">
-        <v>184.7359804157126</v>
+        <v>184.7359500837406</v>
       </c>
       <c r="E273" t="n">
-        <v>185.8664093017578</v>
+        <v>185.8663787841797</v>
       </c>
       <c r="F273" t="n">
         <v>60108400</v>
@@ -7563,16 +7563,16 @@
         <v>45245</v>
       </c>
       <c r="B274" t="n">
-        <v>186.2729495954029</v>
+        <v>186.2729343495984</v>
       </c>
       <c r="C274" t="n">
-        <v>187.909091303821</v>
+        <v>187.9090759241039</v>
       </c>
       <c r="D274" t="n">
-        <v>186.2035300034316</v>
+        <v>186.2035147633089</v>
       </c>
       <c r="E274" t="n">
-        <v>186.4315948486328</v>
+        <v>186.4315795898438</v>
       </c>
       <c r="F274" t="n">
         <v>53790500</v>
@@ -7589,16 +7589,16 @@
         <v>45246</v>
       </c>
       <c r="B275" t="n">
-        <v>187.9785007833142</v>
+        <v>187.9785160308428</v>
       </c>
       <c r="C275" t="n">
-        <v>189.356830641734</v>
+        <v>189.3568460010633</v>
       </c>
       <c r="D275" t="n">
-        <v>187.0662111902129</v>
+        <v>187.0662263637428</v>
       </c>
       <c r="E275" t="n">
-        <v>188.1173248291016</v>
+        <v>188.1173400878906</v>
       </c>
       <c r="F275" t="n">
         <v>54412900</v>
@@ -7615,16 +7615,16 @@
         <v>45247</v>
       </c>
       <c r="B276" t="n">
-        <v>188.6528151938572</v>
+        <v>188.6527998900215</v>
       </c>
       <c r="C276" t="n">
-        <v>188.7817286610399</v>
+        <v>188.7817133467466</v>
       </c>
       <c r="D276" t="n">
-        <v>186.986926374981</v>
+        <v>186.9869112062851</v>
       </c>
       <c r="E276" t="n">
-        <v>188.0975189208984</v>
+        <v>188.0975036621094</v>
       </c>
       <c r="F276" t="n">
         <v>50922700</v>
@@ -7641,16 +7641,16 @@
         <v>45250</v>
       </c>
       <c r="B277" t="n">
-        <v>188.2958266614519</v>
+        <v>188.2958417959073</v>
       </c>
       <c r="C277" t="n">
-        <v>190.2988725067584</v>
+        <v>190.2988878022106</v>
       </c>
       <c r="D277" t="n">
-        <v>188.2859160609316</v>
+        <v>188.2859311945905</v>
       </c>
       <c r="E277" t="n">
-        <v>189.8427276611328</v>
+        <v>189.8427429199219</v>
       </c>
       <c r="F277" t="n">
         <v>46505100</v>
@@ -7667,16 +7667,16 @@
         <v>45251</v>
       </c>
       <c r="B278" t="n">
-        <v>189.8030601227414</v>
+        <v>189.8030754431615</v>
       </c>
       <c r="C278" t="n">
-        <v>189.9121372454657</v>
+        <v>189.9121525746901</v>
       </c>
       <c r="D278" t="n">
-        <v>188.1470820818824</v>
+        <v>188.1470972686361</v>
       </c>
       <c r="E278" t="n">
-        <v>189.0395202636719</v>
+        <v>189.0395355224609</v>
       </c>
       <c r="F278" t="n">
         <v>38134500</v>
@@ -7693,16 +7693,16 @@
         <v>45252</v>
       </c>
       <c r="B279" t="n">
-        <v>189.8824151951899</v>
+        <v>189.8823999220435</v>
       </c>
       <c r="C279" t="n">
-        <v>191.310313447014</v>
+        <v>191.3102980590149</v>
       </c>
       <c r="D279" t="n">
-        <v>189.2279523730899</v>
+        <v>189.2279371525851</v>
       </c>
       <c r="E279" t="n">
-        <v>189.7039184570312</v>
+        <v>189.7039031982422</v>
       </c>
       <c r="F279" t="n">
         <v>39617700</v>
@@ -7719,16 +7719,16 @@
         <v>45254</v>
       </c>
       <c r="B280" t="n">
-        <v>189.2676061275758</v>
+        <v>189.2675907964973</v>
       </c>
       <c r="C280" t="n">
-        <v>189.2973530615597</v>
+        <v>189.2973377280717</v>
       </c>
       <c r="D280" t="n">
-        <v>187.6612111696873</v>
+        <v>187.6611959687303</v>
       </c>
       <c r="E280" t="n">
-        <v>188.3751678466797</v>
+        <v>188.3751525878906</v>
       </c>
       <c r="F280" t="n">
         <v>24048300</v>
@@ -7745,16 +7745,16 @@
         <v>45257</v>
       </c>
       <c r="B281" t="n">
-        <v>188.3255687303111</v>
+        <v>188.3255839995523</v>
       </c>
       <c r="C281" t="n">
-        <v>189.0692722786972</v>
+        <v>189.0692876082371</v>
       </c>
       <c r="D281" t="n">
-        <v>187.3141276679135</v>
+        <v>187.3141428551481</v>
       </c>
       <c r="E281" t="n">
-        <v>188.1966552734375</v>
+        <v>188.1966705322266</v>
       </c>
       <c r="F281" t="n">
         <v>40552600</v>
@@ -7771,16 +7771,16 @@
         <v>45258</v>
       </c>
       <c r="B282" t="n">
-        <v>188.1867540672509</v>
+        <v>188.1867236490465</v>
       </c>
       <c r="C282" t="n">
-        <v>189.4758433082743</v>
+        <v>189.4758126817036</v>
       </c>
       <c r="D282" t="n">
-        <v>187.8099394087718</v>
+        <v>187.809909051475</v>
       </c>
       <c r="E282" t="n">
-        <v>188.8015441894531</v>
+        <v>188.801513671875</v>
       </c>
       <c r="F282" t="n">
         <v>38415400</v>
@@ -7797,16 +7797,16 @@
         <v>45259</v>
       </c>
       <c r="B283" t="n">
-        <v>189.2973512852548</v>
+        <v>189.2973359031836</v>
       </c>
       <c r="C283" t="n">
-        <v>190.4773634245078</v>
+        <v>190.4773479465503</v>
       </c>
       <c r="D283" t="n">
-        <v>187.3835612736981</v>
+        <v>187.3835460471391</v>
       </c>
       <c r="E283" t="n">
-        <v>187.7801971435547</v>
+        <v>187.7801818847656</v>
       </c>
       <c r="F283" t="n">
         <v>43014200</v>
@@ -7823,16 +7823,16 @@
         <v>45260</v>
       </c>
       <c r="B284" t="n">
-        <v>188.2462542861148</v>
+        <v>188.2462390361622</v>
       </c>
       <c r="C284" t="n">
-        <v>188.7222354910008</v>
+        <v>188.7222202024886</v>
       </c>
       <c r="D284" t="n">
-        <v>186.6101123950494</v>
+        <v>186.6100972776417</v>
       </c>
       <c r="E284" t="n">
-        <v>188.3553314208984</v>
+        <v>188.3553161621094</v>
       </c>
       <c r="F284" t="n">
         <v>48794400</v>
@@ -7849,16 +7849,16 @@
         <v>45261</v>
       </c>
       <c r="B285" t="n">
-        <v>188.7321422318045</v>
+        <v>188.7321270456235</v>
       </c>
       <c r="C285" t="n">
-        <v>189.9518118916644</v>
+        <v>189.9517966073436</v>
       </c>
       <c r="D285" t="n">
-        <v>187.6413709062789</v>
+        <v>187.6413558078658</v>
       </c>
       <c r="E285" t="n">
-        <v>189.6345062255859</v>
+        <v>189.6344909667969</v>
       </c>
       <c r="F285" t="n">
         <v>45704800</v>
@@ -7875,16 +7875,16 @@
         <v>45264</v>
       </c>
       <c r="B286" t="n">
-        <v>188.3850615285251</v>
+        <v>188.3850768316175</v>
       </c>
       <c r="C286" t="n">
-        <v>188.4544811220455</v>
+        <v>188.454496430777</v>
       </c>
       <c r="D286" t="n">
-        <v>185.8763027832703</v>
+        <v>185.8763178825686</v>
       </c>
       <c r="E286" t="n">
-        <v>187.8396759033203</v>
+        <v>187.8396911621094</v>
       </c>
       <c r="F286" t="n">
         <v>43389500</v>
@@ -7927,16 +7927,16 @@
         <v>45266</v>
       </c>
       <c r="B288" t="n">
-        <v>192.8175214369568</v>
+        <v>192.8175368647406</v>
       </c>
       <c r="C288" t="n">
-        <v>193.1249164579784</v>
+        <v>193.1249319103576</v>
       </c>
       <c r="D288" t="n">
-        <v>190.4971701840652</v>
+        <v>190.4971854261922</v>
       </c>
       <c r="E288" t="n">
-        <v>190.7054138183594</v>
+        <v>190.7054290771484</v>
       </c>
       <c r="F288" t="n">
         <v>41089700</v>
@@ -7953,16 +7953,16 @@
         <v>45267</v>
       </c>
       <c r="B289" t="n">
-        <v>192.0044117201268</v>
+        <v>192.0044421371684</v>
       </c>
       <c r="C289" t="n">
-        <v>193.3629052381858</v>
+        <v>193.3629358704378</v>
       </c>
       <c r="D289" t="n">
-        <v>191.9647390612527</v>
+        <v>191.9647694720094</v>
       </c>
       <c r="E289" t="n">
-        <v>192.6390380859375</v>
+        <v>192.6390686035156</v>
       </c>
       <c r="F289" t="n">
         <v>47477700</v>
@@ -7979,16 +7979,16 @@
         <v>45268</v>
       </c>
       <c r="B290" t="n">
-        <v>192.5696228392207</v>
+        <v>192.569653121339</v>
       </c>
       <c r="C290" t="n">
-        <v>194.3446036620394</v>
+        <v>194.3446342232785</v>
       </c>
       <c r="D290" t="n">
-        <v>192.0440735774375</v>
+        <v>192.0441037769117</v>
       </c>
       <c r="E290" t="n">
-        <v>194.0669555664062</v>
+        <v>194.0669860839844</v>
       </c>
       <c r="F290" t="n">
         <v>53406400</v>
@@ -8005,16 +8005,16 @@
         <v>45271</v>
       </c>
       <c r="B291" t="n">
-        <v>191.4888078106811</v>
+        <v>191.48877730416</v>
       </c>
       <c r="C291" t="n">
-        <v>191.8656224849186</v>
+        <v>191.8655919183663</v>
       </c>
       <c r="D291" t="n">
-        <v>189.8129932403368</v>
+        <v>189.8129630007935</v>
       </c>
       <c r="E291" t="n">
-        <v>191.5582122802734</v>
+        <v>191.5581817626953</v>
       </c>
       <c r="F291" t="n">
         <v>60943700</v>
@@ -8083,16 +8083,16 @@
         <v>45274</v>
       </c>
       <c r="B294" t="n">
-        <v>196.3575823214872</v>
+        <v>196.3575975733446</v>
       </c>
       <c r="C294" t="n">
-        <v>197.9441408874326</v>
+        <v>197.9441562625242</v>
       </c>
       <c r="D294" t="n">
-        <v>194.5131968296931</v>
+        <v>194.5132119382899</v>
       </c>
       <c r="E294" t="n">
-        <v>196.4468231201172</v>
+        <v>196.4468383789062</v>
       </c>
       <c r="F294" t="n">
         <v>66831600</v>
@@ -8109,16 +8109,16 @@
         <v>45275</v>
       </c>
       <c r="B295" t="n">
-        <v>195.8717042860451</v>
+        <v>195.871673774647</v>
       </c>
       <c r="C295" t="n">
-        <v>196.7343956614167</v>
+        <v>196.734365015635</v>
       </c>
       <c r="D295" t="n">
-        <v>195.3461549274062</v>
+        <v>195.3461244978741</v>
       </c>
       <c r="E295" t="n">
-        <v>195.911376953125</v>
+        <v>195.9113464355469</v>
       </c>
       <c r="F295" t="n">
         <v>128538400</v>
@@ -8135,16 +8135,16 @@
         <v>45278</v>
       </c>
       <c r="B296" t="n">
-        <v>194.4437708037096</v>
+        <v>194.4437860780774</v>
       </c>
       <c r="C296" t="n">
-        <v>194.9792458391617</v>
+        <v>194.9792611555933</v>
       </c>
       <c r="D296" t="n">
-        <v>192.758045763451</v>
+        <v>192.758060905398</v>
       </c>
       <c r="E296" t="n">
-        <v>194.2454528808594</v>
+        <v>194.2454681396484</v>
       </c>
       <c r="F296" t="n">
         <v>55751900</v>
@@ -8161,16 +8161,16 @@
         <v>45279</v>
       </c>
       <c r="B297" t="n">
-        <v>194.5132010782648</v>
+        <v>194.5131706815543</v>
       </c>
       <c r="C297" t="n">
-        <v>195.2965622122741</v>
+        <v>195.2965316931472</v>
       </c>
       <c r="D297" t="n">
-        <v>194.2454635458387</v>
+        <v>194.2454331909677</v>
       </c>
       <c r="E297" t="n">
-        <v>195.2866516113281</v>
+        <v>195.28662109375</v>
       </c>
       <c r="F297" t="n">
         <v>40714100</v>
@@ -8187,16 +8187,16 @@
         <v>45280</v>
       </c>
       <c r="B298" t="n">
-        <v>195.2469496967677</v>
+        <v>195.2469651176754</v>
       </c>
       <c r="C298" t="n">
-        <v>196.0204001139627</v>
+        <v>196.0204155959587</v>
       </c>
       <c r="D298" t="n">
-        <v>193.1943359375</v>
+        <v>193.1943511962891</v>
       </c>
       <c r="E298" t="n">
-        <v>193.1943359375</v>
+        <v>193.1943511962891</v>
       </c>
       <c r="F298" t="n">
         <v>52242800</v>
@@ -8239,16 +8239,16 @@
         <v>45282</v>
       </c>
       <c r="B300" t="n">
-        <v>193.5414078590762</v>
+        <v>193.5413924757588</v>
       </c>
       <c r="C300" t="n">
-        <v>193.7694878456911</v>
+        <v>193.7694724442452</v>
       </c>
       <c r="D300" t="n">
-        <v>191.349969834571</v>
+        <v>191.3499546254364</v>
       </c>
       <c r="E300" t="n">
-        <v>191.9746856689453</v>
+        <v>191.9746704101562</v>
       </c>
       <c r="F300" t="n">
         <v>37149600</v>
@@ -8291,16 +8291,16 @@
         <v>45287</v>
       </c>
       <c r="B302" t="n">
-        <v>190.8740099846318</v>
+        <v>190.8739947779816</v>
       </c>
       <c r="C302" t="n">
-        <v>191.8755253676685</v>
+        <v>191.8755100812291</v>
       </c>
       <c r="D302" t="n">
-        <v>189.4857542110523</v>
+        <v>189.4857391150024</v>
       </c>
       <c r="E302" t="n">
-        <v>191.5284576416016</v>
+        <v>191.5284423828125</v>
       </c>
       <c r="F302" t="n">
         <v>48087700</v>
@@ -8343,16 +8343,16 @@
         <v>45289</v>
       </c>
       <c r="B304" t="n">
-        <v>192.2721441015654</v>
+        <v>192.2721594689321</v>
       </c>
       <c r="C304" t="n">
-        <v>192.7679464485325</v>
+        <v>192.7679618555263</v>
       </c>
       <c r="D304" t="n">
-        <v>190.1203637314106</v>
+        <v>190.1203789267961</v>
       </c>
       <c r="E304" t="n">
-        <v>190.9136505126953</v>
+        <v>190.9136657714844</v>
       </c>
       <c r="F304" t="n">
         <v>42672100</v>
@@ -8369,16 +8369,16 @@
         <v>45293</v>
       </c>
       <c r="B305" t="n">
-        <v>185.5787994699213</v>
+        <v>185.5788456186331</v>
       </c>
       <c r="C305" t="n">
-        <v>186.8579779090344</v>
+        <v>186.8580243758453</v>
       </c>
       <c r="D305" t="n">
-        <v>182.3461738402791</v>
+        <v>182.3462191851194</v>
       </c>
       <c r="E305" t="n">
-        <v>184.0814819335938</v>
+        <v>184.0815277099609</v>
       </c>
       <c r="F305" t="n">
         <v>82488700</v>
@@ -8473,16 +8473,16 @@
         <v>45299</v>
       </c>
       <c r="B309" t="n">
-        <v>180.5612972092007</v>
+        <v>180.561312182648</v>
       </c>
       <c r="C309" t="n">
-        <v>184.0418394094552</v>
+        <v>184.0418546715341</v>
       </c>
       <c r="D309" t="n">
-        <v>179.9762540642685</v>
+        <v>179.9762689891998</v>
       </c>
       <c r="E309" t="n">
-        <v>184.0021667480469</v>
+        <v>184.0021820068359</v>
       </c>
       <c r="F309" t="n">
         <v>59144500</v>
@@ -8525,16 +8525,16 @@
         <v>45301</v>
       </c>
       <c r="B311" t="n">
-        <v>182.8023278606972</v>
+        <v>182.8023429686935</v>
       </c>
       <c r="C311" t="n">
-        <v>184.8351053395885</v>
+        <v>184.835120615587</v>
       </c>
       <c r="D311" t="n">
-        <v>182.3759299825551</v>
+        <v>182.375945055311</v>
       </c>
       <c r="E311" t="n">
-        <v>184.6268768310547</v>
+        <v>184.6268920898438</v>
       </c>
       <c r="F311" t="n">
         <v>46792900</v>
@@ -8551,16 +8551,16 @@
         <v>45302</v>
       </c>
       <c r="B312" t="n">
-        <v>184.9739428703456</v>
+        <v>184.97392753345</v>
       </c>
       <c r="C312" t="n">
-        <v>185.4796709750172</v>
+        <v>185.4796555961897</v>
       </c>
       <c r="D312" t="n">
-        <v>182.0784588244365</v>
+        <v>182.0784437276164</v>
       </c>
       <c r="E312" t="n">
-        <v>184.0319213867188</v>
+        <v>184.0319061279297</v>
       </c>
       <c r="F312" t="n">
         <v>49128400</v>
@@ -8577,16 +8577,16 @@
         <v>45303</v>
       </c>
       <c r="B313" t="n">
-        <v>184.4979701725253</v>
+        <v>184.4979549022462</v>
       </c>
       <c r="C313" t="n">
-        <v>185.1722692441994</v>
+        <v>185.1722539181108</v>
       </c>
       <c r="D313" t="n">
-        <v>183.6352789154723</v>
+        <v>183.6352637165953</v>
       </c>
       <c r="E313" t="n">
-        <v>184.3591461181641</v>
+        <v>184.359130859375</v>
       </c>
       <c r="F313" t="n">
         <v>40477800</v>
@@ -8603,16 +8603,16 @@
         <v>45307</v>
       </c>
       <c r="B314" t="n">
-        <v>180.6307490360296</v>
+        <v>180.6307187627519</v>
       </c>
       <c r="C314" t="n">
-        <v>182.7131102109634</v>
+        <v>182.7130795886869</v>
       </c>
       <c r="D314" t="n">
-        <v>179.4110641364009</v>
+        <v>179.4110340675394</v>
       </c>
       <c r="E314" t="n">
-        <v>182.0884094238281</v>
+        <v>182.08837890625</v>
       </c>
       <c r="F314" t="n">
         <v>65603000</v>
@@ -8629,16 +8629,16 @@
         <v>45308</v>
       </c>
       <c r="B315" t="n">
-        <v>179.7481807176754</v>
+        <v>179.7482109997081</v>
       </c>
       <c r="C315" t="n">
-        <v>181.3942329517824</v>
+        <v>181.3942635111242</v>
       </c>
       <c r="D315" t="n">
-        <v>178.7863229882893</v>
+        <v>178.7863531082786</v>
       </c>
       <c r="E315" t="n">
-        <v>181.1463317871094</v>
+        <v>181.1463623046875</v>
       </c>
       <c r="F315" t="n">
         <v>47317400</v>
@@ -8655,16 +8655,16 @@
         <v>45309</v>
       </c>
       <c r="B316" t="n">
-        <v>184.5277325850053</v>
+        <v>184.5277175316843</v>
       </c>
       <c r="C316" t="n">
-        <v>187.5521302344969</v>
+        <v>187.552114934453</v>
       </c>
       <c r="D316" t="n">
-        <v>184.2699207854721</v>
+        <v>184.2699057531828</v>
       </c>
       <c r="E316" t="n">
-        <v>187.0464172363281</v>
+        <v>187.0464019775391</v>
       </c>
       <c r="F316" t="n">
         <v>78005800</v>
@@ -8681,16 +8681,16 @@
         <v>45310</v>
       </c>
       <c r="B317" t="n">
-        <v>187.7405081181772</v>
+        <v>187.7405382804929</v>
       </c>
       <c r="C317" t="n">
-        <v>190.3385074305463</v>
+        <v>190.3385380102556</v>
       </c>
       <c r="D317" t="n">
-        <v>187.2347951993325</v>
+        <v>187.2348252804006</v>
       </c>
       <c r="E317" t="n">
-        <v>189.9517822265625</v>
+        <v>189.9518127441406</v>
       </c>
       <c r="F317" t="n">
         <v>68903000</v>
@@ -8707,16 +8707,16 @@
         <v>45313</v>
       </c>
       <c r="B318" t="n">
-        <v>190.6855896836489</v>
+        <v>190.6856048173081</v>
       </c>
       <c r="C318" t="n">
-        <v>193.6901507590611</v>
+        <v>193.6901661311757</v>
       </c>
       <c r="D318" t="n">
-        <v>190.6459170218718</v>
+        <v>190.6459321523824</v>
       </c>
       <c r="E318" t="n">
-        <v>192.2622375488281</v>
+        <v>192.2622528076172</v>
       </c>
       <c r="F318" t="n">
         <v>60133900</v>
@@ -8759,16 +8759,16 @@
         <v>45315</v>
       </c>
       <c r="B320" t="n">
-        <v>193.7794010314114</v>
+        <v>193.7793857004472</v>
       </c>
       <c r="C320" t="n">
-        <v>194.7313482616968</v>
+        <v>194.7313328554188</v>
       </c>
       <c r="D320" t="n">
-        <v>192.7084660713482</v>
+        <v>192.7084508251116</v>
       </c>
       <c r="E320" t="n">
-        <v>192.8671264648438</v>
+        <v>192.8671112060547</v>
       </c>
       <c r="F320" t="n">
         <v>53631300</v>
@@ -8785,16 +8785,16 @@
         <v>45316</v>
       </c>
       <c r="B321" t="n">
-        <v>193.5810897970112</v>
+        <v>193.581074455708</v>
       </c>
       <c r="C321" t="n">
-        <v>194.622277860624</v>
+        <v>194.6222624368066</v>
       </c>
       <c r="D321" t="n">
-        <v>191.4888030688575</v>
+        <v>191.4887878933681</v>
       </c>
       <c r="E321" t="n">
-        <v>192.5399017333984</v>
+        <v>192.5398864746094</v>
       </c>
       <c r="F321" t="n">
         <v>54822100</v>
@@ -8837,16 +8837,16 @@
         <v>45320</v>
       </c>
       <c r="B323" t="n">
-        <v>190.3980094284619</v>
+        <v>190.3980247095346</v>
       </c>
       <c r="C323" t="n">
-        <v>190.5864167388377</v>
+        <v>190.5864320350317</v>
       </c>
       <c r="D323" t="n">
-        <v>187.9884173153908</v>
+        <v>187.9884324030731</v>
       </c>
       <c r="E323" t="n">
-        <v>190.120361328125</v>
+        <v>190.1203765869141</v>
       </c>
       <c r="F323" t="n">
         <v>47145600</v>
@@ -8863,16 +8863,16 @@
         <v>45321</v>
       </c>
       <c r="B324" t="n">
-        <v>189.3370278187127</v>
+        <v>189.337012324598</v>
       </c>
       <c r="C324" t="n">
-        <v>190.1898085739461</v>
+        <v>190.1897930100453</v>
       </c>
       <c r="D324" t="n">
-        <v>185.8961578634667</v>
+        <v>185.8961426509305</v>
       </c>
       <c r="E324" t="n">
-        <v>186.4613647460938</v>
+        <v>186.4613494873047</v>
       </c>
       <c r="F324" t="n">
         <v>55859400</v>
@@ -8889,16 +8889,16 @@
         <v>45322</v>
       </c>
       <c r="B325" t="n">
-        <v>185.4697649157689</v>
+        <v>185.4697339612798</v>
       </c>
       <c r="C325" t="n">
-        <v>185.5292739166856</v>
+        <v>185.5292429522646</v>
       </c>
       <c r="D325" t="n">
-        <v>182.8023605728742</v>
+        <v>182.8023300635688</v>
       </c>
       <c r="E325" t="n">
-        <v>182.8519287109375</v>
+        <v>182.8518981933594</v>
       </c>
       <c r="F325" t="n">
         <v>55467800</v>
@@ -8941,16 +8941,16 @@
         <v>45324</v>
       </c>
       <c r="B327" t="n">
-        <v>178.3500312361064</v>
+        <v>178.350016469113</v>
       </c>
       <c r="C327" t="n">
-        <v>185.7573199413499</v>
+        <v>185.7573045610492</v>
       </c>
       <c r="D327" t="n">
-        <v>177.7451517323754</v>
+        <v>177.7451370154647</v>
       </c>
       <c r="E327" t="n">
-        <v>184.2897491455078</v>
+        <v>184.2897338867188</v>
       </c>
       <c r="F327" t="n">
         <v>102551700</v>
@@ -8967,16 +8967,16 @@
         <v>45327</v>
       </c>
       <c r="B328" t="n">
-        <v>186.5704408518845</v>
+        <v>186.5704255548833</v>
       </c>
       <c r="C328" t="n">
-        <v>187.6612122062837</v>
+        <v>187.6611968198497</v>
       </c>
       <c r="D328" t="n">
-        <v>184.2798361383349</v>
+        <v>184.2798210291415</v>
       </c>
       <c r="E328" t="n">
-        <v>186.1043853759766</v>
+        <v>186.1043701171875</v>
       </c>
       <c r="F328" t="n">
         <v>69668800</v>
@@ -8993,16 +8993,16 @@
         <v>45328</v>
       </c>
       <c r="B329" t="n">
-        <v>185.291266866256</v>
+        <v>185.2912819283653</v>
       </c>
       <c r="C329" t="n">
-        <v>187.7206955127049</v>
+        <v>187.7207107722996</v>
       </c>
       <c r="D329" t="n">
-        <v>185.2020260688322</v>
+        <v>185.2020411236872</v>
       </c>
       <c r="E329" t="n">
-        <v>187.7107849121094</v>
+        <v>187.7108001708984</v>
       </c>
       <c r="F329" t="n">
         <v>43490800</v>
@@ -9097,16 +9097,16 @@
         <v>45334</v>
       </c>
       <c r="B333" t="n">
-        <v>187.0765926484614</v>
+        <v>187.0765772861258</v>
       </c>
       <c r="C333" t="n">
-        <v>187.3248101870274</v>
+        <v>187.3247948043087</v>
       </c>
       <c r="D333" t="n">
-        <v>185.4582094490119</v>
+        <v>185.4581942195746</v>
       </c>
       <c r="E333" t="n">
-        <v>185.8156433105469</v>
+        <v>185.8156280517578</v>
       </c>
       <c r="F333" t="n">
         <v>41781900</v>
@@ -9123,16 +9123,16 @@
         <v>45335</v>
       </c>
       <c r="B334" t="n">
-        <v>184.44546335353</v>
+        <v>184.4454786725173</v>
       </c>
       <c r="C334" t="n">
-        <v>184.8823285756615</v>
+        <v>184.8823439309324</v>
       </c>
       <c r="D334" t="n">
-        <v>182.2015674671262</v>
+        <v>182.2015825997483</v>
       </c>
       <c r="E334" t="n">
-        <v>183.7206573486328</v>
+        <v>183.7206726074219</v>
       </c>
       <c r="F334" t="n">
         <v>56529500</v>
@@ -9149,16 +9149,16 @@
         <v>45336</v>
       </c>
       <c r="B335" t="n">
-        <v>183.9986922104331</v>
+        <v>183.9987075661702</v>
       </c>
       <c r="C335" t="n">
-        <v>184.2071864451767</v>
+        <v>184.2072018183139</v>
       </c>
       <c r="D335" t="n">
-        <v>181.139221505416</v>
+        <v>181.139236622514</v>
       </c>
       <c r="E335" t="n">
-        <v>182.8370208740234</v>
+        <v>182.8370361328125</v>
       </c>
       <c r="F335" t="n">
         <v>54630500</v>
@@ -9175,16 +9175,16 @@
         <v>45337</v>
       </c>
       <c r="B336" t="n">
-        <v>182.2412850006514</v>
+        <v>182.2413002337134</v>
       </c>
       <c r="C336" t="n">
-        <v>183.1745851912121</v>
+        <v>183.1746005022862</v>
       </c>
       <c r="D336" t="n">
-        <v>180.0569741089098</v>
+        <v>180.056989159391</v>
       </c>
       <c r="E336" t="n">
-        <v>182.549072265625</v>
+        <v>182.5490875244141</v>
       </c>
       <c r="F336" t="n">
         <v>65434500</v>
@@ -9227,16 +9227,16 @@
         <v>45342</v>
       </c>
       <c r="B338" t="n">
-        <v>180.4938435452351</v>
+        <v>180.4938282671166</v>
       </c>
       <c r="C338" t="n">
-        <v>181.1292797846899</v>
+        <v>181.1292644527841</v>
       </c>
       <c r="D338" t="n">
-        <v>178.7166127841021</v>
+        <v>178.7165976564194</v>
       </c>
       <c r="E338" t="n">
-        <v>180.2654876708984</v>
+        <v>180.2654724121094</v>
       </c>
       <c r="F338" t="n">
         <v>53665600</v>
@@ -9383,16 +9383,16 @@
         <v>45350</v>
       </c>
       <c r="B344" t="n">
-        <v>181.2087048057168</v>
+        <v>181.2087355066488</v>
       </c>
       <c r="C344" t="n">
-        <v>181.814356133641</v>
+        <v>181.8143869371843</v>
       </c>
       <c r="D344" t="n">
-        <v>178.8456844221719</v>
+        <v>178.8457147227537</v>
       </c>
       <c r="E344" t="n">
-        <v>180.1264801025391</v>
+        <v>180.1265106201172</v>
       </c>
       <c r="F344" t="n">
         <v>48953900</v>
@@ -9409,16 +9409,16 @@
         <v>45351</v>
       </c>
       <c r="B345" t="n">
-        <v>179.9775545922035</v>
+        <v>179.9775851975784</v>
       </c>
       <c r="C345" t="n">
-        <v>181.2682886612891</v>
+        <v>181.2683194861548</v>
       </c>
       <c r="D345" t="n">
-        <v>178.2499552858893</v>
+        <v>178.2499855974841</v>
       </c>
       <c r="E345" t="n">
-        <v>179.4612579345703</v>
+        <v>179.4612884521484</v>
       </c>
       <c r="F345" t="n">
         <v>136682600</v>
@@ -9435,16 +9435,16 @@
         <v>45352</v>
       </c>
       <c r="B346" t="n">
-        <v>178.2698425129093</v>
+        <v>178.2698272634628</v>
       </c>
       <c r="C346" t="n">
-        <v>179.2428510400178</v>
+        <v>179.2428357073387</v>
       </c>
       <c r="D346" t="n">
-        <v>176.1153160564566</v>
+        <v>176.1153009913112</v>
       </c>
       <c r="E346" t="n">
-        <v>178.3790588378906</v>
+        <v>178.3790435791016</v>
       </c>
       <c r="F346" t="n">
         <v>73563100</v>
@@ -9487,16 +9487,16 @@
         <v>45356</v>
       </c>
       <c r="B348" t="n">
-        <v>169.542464349529</v>
+        <v>169.5424949819158</v>
       </c>
       <c r="C348" t="n">
-        <v>170.8133366521028</v>
+        <v>170.8133675141066</v>
       </c>
       <c r="D348" t="n">
-        <v>168.410593231612</v>
+        <v>168.4106236594959</v>
       </c>
       <c r="E348" t="n">
-        <v>168.9070281982422</v>
+        <v>168.9070587158203</v>
       </c>
       <c r="F348" t="n">
         <v>95132400</v>
@@ -9513,16 +9513,16 @@
         <v>45357</v>
       </c>
       <c r="B349" t="n">
-        <v>169.8403240989388</v>
+        <v>169.840354966589</v>
       </c>
       <c r="C349" t="n">
-        <v>170.0190485604385</v>
+        <v>170.019079460571</v>
       </c>
       <c r="D349" t="n">
-        <v>167.4772888690601</v>
+        <v>167.4773193072401</v>
       </c>
       <c r="E349" t="n">
-        <v>167.9141540527344</v>
+        <v>167.9141845703125</v>
       </c>
       <c r="F349" t="n">
         <v>68587700</v>
@@ -9565,16 +9565,16 @@
         <v>45359</v>
       </c>
       <c r="B351" t="n">
-        <v>167.7950344093611</v>
+        <v>167.7950495135339</v>
       </c>
       <c r="C351" t="n">
-        <v>172.4615205019895</v>
+        <v>172.4615360262189</v>
       </c>
       <c r="D351" t="n">
-        <v>167.7354646317948</v>
+        <v>167.7354797306053</v>
       </c>
       <c r="E351" t="n">
-        <v>169.5126953125</v>
+        <v>169.5127105712891</v>
       </c>
       <c r="F351" t="n">
         <v>76267000</v>
@@ -9591,16 +9591,16 @@
         <v>45362</v>
       </c>
       <c r="B352" t="n">
-        <v>171.7069430151515</v>
+        <v>171.7069582907232</v>
       </c>
       <c r="C352" t="n">
-        <v>173.1366782623913</v>
+        <v>173.1366936651567</v>
       </c>
       <c r="D352" t="n">
-        <v>170.8232893067872</v>
+        <v>170.8233045037464</v>
       </c>
       <c r="E352" t="n">
-        <v>171.5182952880859</v>
+        <v>171.518310546875</v>
       </c>
       <c r="F352" t="n">
         <v>60139500</v>
@@ -9669,16 +9669,16 @@
         <v>45365</v>
       </c>
       <c r="B355" t="n">
-        <v>171.6771553457591</v>
+        <v>171.6771705966104</v>
       </c>
       <c r="C355" t="n">
-        <v>173.0671672858406</v>
+        <v>173.0671826601728</v>
       </c>
       <c r="D355" t="n">
-        <v>170.8232865397108</v>
+        <v>170.8233017147091</v>
       </c>
       <c r="E355" t="n">
-        <v>171.7665100097656</v>
+        <v>171.7665252685547</v>
       </c>
       <c r="F355" t="n">
         <v>72913500</v>
@@ -9721,16 +9721,16 @@
         <v>45369</v>
       </c>
       <c r="B357" t="n">
-        <v>174.3181999083229</v>
+        <v>174.3182153296083</v>
       </c>
       <c r="C357" t="n">
-        <v>176.4429411844313</v>
+        <v>176.4429567936847</v>
       </c>
       <c r="D357" t="n">
-        <v>172.282813299669</v>
+        <v>172.2828285408912</v>
       </c>
       <c r="E357" t="n">
-        <v>172.4813842773438</v>
+        <v>172.4813995361328</v>
       </c>
       <c r="F357" t="n">
         <v>75604200</v>
@@ -9747,16 +9747,16 @@
         <v>45370</v>
       </c>
       <c r="B358" t="n">
-        <v>173.0969551594652</v>
+        <v>173.0969400514621</v>
       </c>
       <c r="C358" t="n">
-        <v>175.3507743404662</v>
+        <v>175.3507590357483</v>
       </c>
       <c r="D358" t="n">
-        <v>171.7962978609562</v>
+        <v>171.7962828664752</v>
       </c>
       <c r="E358" t="n">
-        <v>174.8245544433594</v>
+        <v>174.8245391845703</v>
       </c>
       <c r="F358" t="n">
         <v>55215200</v>
@@ -9799,16 +9799,16 @@
         <v>45372</v>
       </c>
       <c r="B360" t="n">
-        <v>175.7876262124245</v>
+        <v>175.7876577414988</v>
       </c>
       <c r="C360" t="n">
-        <v>176.2244914107824</v>
+        <v>176.2245230182124</v>
       </c>
       <c r="D360" t="n">
-        <v>169.6218972083148</v>
+        <v>169.6219276315107</v>
       </c>
       <c r="E360" t="n">
-        <v>170.1481170654297</v>
+        <v>170.1481475830078</v>
       </c>
       <c r="F360" t="n">
         <v>106181300</v>
@@ -9877,16 +9877,16 @@
         <v>45377</v>
       </c>
       <c r="B363" t="n">
-        <v>168.787925677805</v>
+        <v>168.7878951080797</v>
       </c>
       <c r="C363" t="n">
-        <v>170.1977994742906</v>
+        <v>170.1977686492186</v>
       </c>
       <c r="D363" t="n">
-        <v>168.3709220323653</v>
+        <v>168.3708915381648</v>
       </c>
       <c r="E363" t="n">
-        <v>168.5</v>
+        <v>168.4999694824219</v>
       </c>
       <c r="F363" t="n">
         <v>57388400</v>
@@ -9903,16 +9903,16 @@
         <v>45378</v>
       </c>
       <c r="B364" t="n">
-        <v>169.1949931447558</v>
+        <v>169.1949781412918</v>
       </c>
       <c r="C364" t="n">
-        <v>172.3622511085293</v>
+        <v>172.3622358242069</v>
       </c>
       <c r="D364" t="n">
-        <v>168.8971290922075</v>
+        <v>168.8971141151568</v>
       </c>
       <c r="E364" t="n">
-        <v>172.0743103027344</v>
+        <v>172.0742950439453</v>
       </c>
       <c r="F364" t="n">
         <v>60273300</v>
@@ -9981,16 +9981,16 @@
         <v>45384</v>
       </c>
       <c r="B367" t="n">
-        <v>167.8744636908178</v>
+        <v>167.8744942517765</v>
       </c>
       <c r="C367" t="n">
-        <v>168.1326044403149</v>
+        <v>168.1326350482672</v>
       </c>
       <c r="D367" t="n">
-        <v>167.0305181193942</v>
+        <v>167.0305485267156</v>
       </c>
       <c r="E367" t="n">
-        <v>167.6361694335938</v>
+        <v>167.6361999511719</v>
       </c>
       <c r="F367" t="n">
         <v>49329500</v>
@@ -10007,16 +10007,16 @@
         <v>45385</v>
       </c>
       <c r="B368" t="n">
-        <v>167.5865454960368</v>
+        <v>167.5865303145986</v>
       </c>
       <c r="C368" t="n">
-        <v>169.4630694684258</v>
+        <v>169.4630541169958</v>
       </c>
       <c r="D368" t="n">
-        <v>167.3780512491026</v>
+        <v>167.3780360865516</v>
       </c>
       <c r="E368" t="n">
-        <v>168.4404144287109</v>
+        <v>168.4403991699219</v>
       </c>
       <c r="F368" t="n">
         <v>47691700</v>
@@ -10033,16 +10033,16 @@
         <v>45386</v>
       </c>
       <c r="B369" t="n">
-        <v>169.0758380772312</v>
+        <v>169.0758226855775</v>
       </c>
       <c r="C369" t="n">
-        <v>170.694221144335</v>
+        <v>170.6942056053534</v>
       </c>
       <c r="D369" t="n">
-        <v>167.6163330078125</v>
+        <v>167.6163177490234</v>
       </c>
       <c r="E369" t="n">
-        <v>167.6163330078125</v>
+        <v>167.6163177490234</v>
       </c>
       <c r="F369" t="n">
         <v>53704400</v>
@@ -10085,16 +10085,16 @@
         <v>45390</v>
       </c>
       <c r="B371" t="n">
-        <v>167.8248441796421</v>
+        <v>167.8248288683144</v>
       </c>
       <c r="C371" t="n">
-        <v>167.9936302911022</v>
+        <v>167.9936149643756</v>
       </c>
       <c r="D371" t="n">
-        <v>167.0404834087394</v>
+        <v>167.0404681689721</v>
       </c>
       <c r="E371" t="n">
-        <v>167.2489776611328</v>
+        <v>167.2489624023438</v>
       </c>
       <c r="F371" t="n">
         <v>37425500</v>
@@ -10111,16 +10111,16 @@
         <v>45391</v>
       </c>
       <c r="B372" t="n">
-        <v>167.4971960869028</v>
+        <v>167.4971809153481</v>
       </c>
       <c r="C372" t="n">
-        <v>168.8673617812641</v>
+        <v>168.8673464856025</v>
       </c>
       <c r="D372" t="n">
-        <v>167.1497006144176</v>
+        <v>167.1496854743383</v>
       </c>
       <c r="E372" t="n">
-        <v>168.4602813720703</v>
+        <v>168.4602661132812</v>
       </c>
       <c r="F372" t="n">
         <v>42373800</v>
@@ -10267,16 +10267,16 @@
         <v>45399</v>
       </c>
       <c r="B378" t="n">
-        <v>168.4006757947001</v>
+        <v>168.4006911997193</v>
       </c>
       <c r="C378" t="n">
-        <v>169.4332538949093</v>
+        <v>169.433269394387</v>
       </c>
       <c r="D378" t="n">
-        <v>166.8021545410156</v>
+        <v>166.8021697998047</v>
       </c>
       <c r="E378" t="n">
-        <v>166.8021545410156</v>
+        <v>166.8021697998047</v>
       </c>
       <c r="F378" t="n">
         <v>50901200</v>
@@ -10293,16 +10293,16 @@
         <v>45400</v>
       </c>
       <c r="B379" t="n">
-        <v>166.8319457827068</v>
+        <v>166.831961131931</v>
       </c>
       <c r="C379" t="n">
-        <v>167.4375970919546</v>
+        <v>167.4376124969012</v>
       </c>
       <c r="D379" t="n">
-        <v>165.3625024168246</v>
+        <v>165.3625176308539</v>
       </c>
       <c r="E379" t="n">
-        <v>165.8489990234375</v>
+        <v>165.8490142822266</v>
       </c>
       <c r="F379" t="n">
         <v>43122900</v>
@@ -10319,16 +10319,16 @@
         <v>45401</v>
       </c>
       <c r="B380" t="n">
-        <v>165.02494208063</v>
+        <v>165.0249267099425</v>
       </c>
       <c r="C380" t="n">
-        <v>165.2135746691686</v>
+        <v>165.2135592809116</v>
       </c>
       <c r="D380" t="n">
-        <v>162.9101239696921</v>
+        <v>162.9101087959822</v>
       </c>
       <c r="E380" t="n">
-        <v>163.8235626220703</v>
+        <v>163.8235473632812</v>
       </c>
       <c r="F380" t="n">
         <v>68149400</v>
@@ -10397,16 +10397,16 @@
         <v>45406</v>
       </c>
       <c r="B383" t="n">
-        <v>165.3525820982721</v>
+        <v>165.3525670633734</v>
       </c>
       <c r="C383" t="n">
-        <v>168.0929133085564</v>
+        <v>168.0928980244896</v>
       </c>
       <c r="D383" t="n">
-        <v>165.0249482926904</v>
+        <v>165.0249332875823</v>
       </c>
       <c r="E383" t="n">
-        <v>167.8149108886719</v>
+        <v>167.8148956298828</v>
       </c>
       <c r="F383" t="n">
         <v>48251800</v>
@@ -10423,16 +10423,16 @@
         <v>45407</v>
       </c>
       <c r="B384" t="n">
-        <v>168.3212618473153</v>
+        <v>168.32124662086</v>
       </c>
       <c r="C384" t="n">
-        <v>169.3935633415022</v>
+        <v>169.3935480180457</v>
       </c>
       <c r="D384" t="n">
-        <v>166.9510963019663</v>
+        <v>166.951081199457</v>
       </c>
       <c r="E384" t="n">
-        <v>168.6786956787109</v>
+        <v>168.6786804199219</v>
       </c>
       <c r="F384" t="n">
         <v>50558300</v>
@@ -10475,16 +10475,16 @@
         <v>45411</v>
       </c>
       <c r="B386" t="n">
-        <v>172.1338767566388</v>
+        <v>172.1338920039943</v>
       </c>
       <c r="C386" t="n">
-        <v>174.7749147415349</v>
+        <v>174.7749302228295</v>
       </c>
       <c r="D386" t="n">
-        <v>171.8658127495214</v>
+        <v>171.8658279731322</v>
       </c>
       <c r="E386" t="n">
-        <v>172.2629547119141</v>
+        <v>172.2629699707031</v>
       </c>
       <c r="F386" t="n">
         <v>68169400</v>
@@ -10553,16 +10553,16 @@
         <v>45414</v>
       </c>
       <c r="B389" t="n">
-        <v>171.2800137361139</v>
+        <v>171.2799985231818</v>
       </c>
       <c r="C389" t="n">
-        <v>172.183529153824</v>
+        <v>172.1835138606425</v>
       </c>
       <c r="D389" t="n">
-        <v>169.6715690386484</v>
+        <v>169.6715539685769</v>
       </c>
       <c r="E389" t="n">
-        <v>171.7963104248047</v>
+        <v>171.7962951660156</v>
       </c>
       <c r="F389" t="n">
         <v>94214900</v>
@@ -10579,16 +10579,16 @@
         <v>45415</v>
       </c>
       <c r="B390" t="n">
-        <v>185.3191838346203</v>
+        <v>185.3192148963807</v>
       </c>
       <c r="C390" t="n">
-        <v>185.6666944028586</v>
+        <v>185.666725522866</v>
       </c>
       <c r="D390" t="n">
-        <v>181.3576421366733</v>
+        <v>181.3576725344308</v>
       </c>
       <c r="E390" t="n">
-        <v>182.072509765625</v>
+        <v>182.0725402832031</v>
       </c>
       <c r="F390" t="n">
         <v>163224100</v>
@@ -10657,16 +10657,16 @@
         <v>45420</v>
       </c>
       <c r="B393" t="n">
-        <v>181.546319597961</v>
+        <v>181.5463043299869</v>
       </c>
       <c r="C393" t="n">
-        <v>181.7647522509143</v>
+        <v>181.7647369645701</v>
       </c>
       <c r="D393" t="n">
-        <v>180.1562922473496</v>
+        <v>180.1562770962763</v>
       </c>
       <c r="E393" t="n">
-        <v>181.4371032714844</v>
+        <v>181.4370880126953</v>
       </c>
       <c r="F393" t="n">
         <v>45057100</v>
@@ -10683,16 +10683,16 @@
         <v>45421</v>
       </c>
       <c r="B394" t="n">
-        <v>181.2583649608674</v>
+        <v>181.2583800534848</v>
       </c>
       <c r="C394" t="n">
-        <v>183.3433982530535</v>
+        <v>183.3434135192828</v>
       </c>
       <c r="D394" t="n">
-        <v>180.811576441112</v>
+        <v>180.8115914965271</v>
       </c>
       <c r="E394" t="n">
-        <v>183.2540435791016</v>
+        <v>183.2540588378906</v>
       </c>
       <c r="F394" t="n">
         <v>48983000</v>
@@ -10787,16 +10787,16 @@
         <v>45427</v>
       </c>
       <c r="B398" t="n">
-        <v>186.8232879601364</v>
+        <v>186.8232728469217</v>
       </c>
       <c r="C398" t="n">
-        <v>189.5474323621825</v>
+        <v>189.5474170285961</v>
       </c>
       <c r="D398" t="n">
-        <v>186.2864023770235</v>
+        <v>186.2863873072406</v>
       </c>
       <c r="E398" t="n">
-        <v>188.6228179931641</v>
+        <v>188.622802734375</v>
       </c>
       <c r="F398" t="n">
         <v>70400000</v>
@@ -10839,16 +10839,16 @@
         <v>45429</v>
       </c>
       <c r="B400" t="n">
-        <v>188.4139930181103</v>
+        <v>188.4140082479681</v>
       </c>
       <c r="C400" t="n">
-        <v>189.7064777050252</v>
+        <v>189.706493039357</v>
       </c>
       <c r="D400" t="n">
-        <v>188.0858997011636</v>
+        <v>188.085914904501</v>
       </c>
       <c r="E400" t="n">
-        <v>188.7719116210938</v>
+        <v>188.7719268798828</v>
       </c>
       <c r="F400" t="n">
         <v>41282900</v>
@@ -10891,16 +10891,16 @@
         <v>45433</v>
       </c>
       <c r="B402" t="n">
-        <v>189.9848566532984</v>
+        <v>189.984871812133</v>
       </c>
       <c r="C402" t="n">
-        <v>191.6153713580185</v>
+        <v>191.6153866469515</v>
       </c>
       <c r="D402" t="n">
-        <v>189.815841642689</v>
+        <v>189.815856788038</v>
       </c>
       <c r="E402" t="n">
-        <v>191.2375793457031</v>
+        <v>191.2375946044922</v>
       </c>
       <c r="F402" t="n">
         <v>42309400</v>
@@ -10969,16 +10969,16 @@
         <v>45436</v>
       </c>
       <c r="B405" t="n">
-        <v>187.7280067652561</v>
+        <v>187.7280219308774</v>
       </c>
       <c r="C405" t="n">
-        <v>189.4778227162681</v>
+        <v>189.4778380232483</v>
       </c>
       <c r="D405" t="n">
-        <v>186.9525037733123</v>
+        <v>186.9525188762844</v>
       </c>
       <c r="E405" t="n">
-        <v>188.8812866210938</v>
+        <v>188.8813018798828</v>
       </c>
       <c r="F405" t="n">
         <v>36327000</v>
@@ -11047,16 +11047,16 @@
         <v>45442</v>
       </c>
       <c r="B408" t="n">
-        <v>189.6567821553814</v>
+        <v>189.6567973718936</v>
       </c>
       <c r="C408" t="n">
-        <v>191.0685681227953</v>
+        <v>191.0685834525777</v>
       </c>
       <c r="D408" t="n">
-        <v>189.5275442935875</v>
+        <v>189.5275594997307</v>
       </c>
       <c r="E408" t="n">
-        <v>190.1837158203125</v>
+        <v>190.1837310791016</v>
       </c>
       <c r="F408" t="n">
         <v>49889100</v>
@@ -11073,16 +11073,16 @@
         <v>45443</v>
       </c>
       <c r="B409" t="n">
-        <v>190.3328552025531</v>
+        <v>190.3328703970531</v>
       </c>
       <c r="C409" t="n">
-        <v>191.4563249737383</v>
+        <v>191.4563402579262</v>
       </c>
       <c r="D409" t="n">
-        <v>188.8117048034399</v>
+        <v>188.8117198765045</v>
       </c>
       <c r="E409" t="n">
-        <v>191.1381683349609</v>
+        <v>191.13818359375</v>
       </c>
       <c r="F409" t="n">
         <v>75158300</v>
@@ -11125,16 +11125,16 @@
         <v>45447</v>
       </c>
       <c r="B411" t="n">
-        <v>193.5143446203846</v>
+        <v>193.5143293388277</v>
       </c>
       <c r="C411" t="n">
-        <v>194.1904198886115</v>
+        <v>194.1904045536658</v>
       </c>
       <c r="D411" t="n">
-        <v>191.9136550708184</v>
+        <v>191.9136399156656</v>
       </c>
       <c r="E411" t="n">
-        <v>193.2260284423828</v>
+        <v>193.2260131835938</v>
       </c>
       <c r="F411" t="n">
         <v>47471400</v>
@@ -11177,16 +11177,16 @@
         <v>45449</v>
       </c>
       <c r="B413" t="n">
-        <v>194.5582639813593</v>
+        <v>194.5582793350848</v>
       </c>
       <c r="C413" t="n">
-        <v>195.3635770625748</v>
+        <v>195.3635924798522</v>
       </c>
       <c r="D413" t="n">
-        <v>193.0470503843193</v>
+        <v>193.0470656187862</v>
       </c>
       <c r="E413" t="n">
-        <v>193.3552551269531</v>
+        <v>193.3552703857422</v>
       </c>
       <c r="F413" t="n">
         <v>41181800</v>
@@ -11203,16 +11203,16 @@
         <v>45450</v>
       </c>
       <c r="B414" t="n">
-        <v>193.5242917070246</v>
+        <v>193.5242766218339</v>
       </c>
       <c r="C414" t="n">
-        <v>195.801056646944</v>
+        <v>195.8010413842798</v>
       </c>
       <c r="D414" t="n">
-        <v>193.017246606564</v>
+        <v>193.0172315608974</v>
       </c>
       <c r="E414" t="n">
-        <v>195.7513427734375</v>
+        <v>195.7513275146484</v>
       </c>
       <c r="F414" t="n">
         <v>53103900</v>
@@ -11255,16 +11255,16 @@
         <v>45454</v>
       </c>
       <c r="B416" t="n">
-        <v>192.5300553197752</v>
+        <v>192.5300695841464</v>
       </c>
       <c r="C416" t="n">
-        <v>205.9619324668351</v>
+        <v>205.9619477263615</v>
       </c>
       <c r="D416" t="n">
-        <v>192.510181908831</v>
+        <v>192.5101961717298</v>
       </c>
       <c r="E416" t="n">
-        <v>205.9519805908203</v>
+        <v>205.9519958496094</v>
       </c>
       <c r="F416" t="n">
         <v>172373300</v>
@@ -11281,16 +11281,16 @@
         <v>45455</v>
       </c>
       <c r="B417" t="n">
-        <v>206.1707209873844</v>
+        <v>206.1707358379729</v>
       </c>
       <c r="C417" t="n">
-        <v>218.9265236110146</v>
+        <v>218.9265393804105</v>
       </c>
       <c r="D417" t="n">
-        <v>205.7034379048798</v>
+        <v>205.7034527218097</v>
       </c>
       <c r="E417" t="n">
-        <v>211.8377685546875</v>
+        <v>211.8377838134766</v>
       </c>
       <c r="F417" t="n">
         <v>198134300</v>
@@ -11307,16 +11307,16 @@
         <v>45456</v>
       </c>
       <c r="B418" t="n">
-        <v>213.4981001725771</v>
+        <v>213.4981154669776</v>
       </c>
       <c r="C418" t="n">
-        <v>215.4964702833595</v>
+        <v>215.4964857209176</v>
       </c>
       <c r="D418" t="n">
-        <v>210.37626033331</v>
+        <v>210.3762754040707</v>
       </c>
       <c r="E418" t="n">
-        <v>213.0009918212891</v>
+        <v>213.0010070800781</v>
       </c>
       <c r="F418" t="n">
         <v>97862700</v>
@@ -11333,16 +11333,16 @@
         <v>45457</v>
       </c>
       <c r="B419" t="n">
-        <v>212.6132590503739</v>
+        <v>212.613243693924</v>
       </c>
       <c r="C419" t="n">
-        <v>213.9256172778308</v>
+        <v>213.9256018265929</v>
       </c>
       <c r="D419" t="n">
-        <v>210.0780032919047</v>
+        <v>210.077988118569</v>
       </c>
       <c r="E419" t="n">
-        <v>211.2611236572266</v>
+        <v>211.2611083984375</v>
       </c>
       <c r="F419" t="n">
         <v>70122700</v>
@@ -11437,16 +11437,16 @@
         <v>45464</v>
       </c>
       <c r="B423" t="n">
-        <v>209.1732615712896</v>
+        <v>209.1732770433439</v>
       </c>
       <c r="C423" t="n">
-        <v>210.6645866973278</v>
+        <v>210.6646022796918</v>
       </c>
       <c r="D423" t="n">
-        <v>205.912231842663</v>
+        <v>205.9122470735066</v>
       </c>
       <c r="E423" t="n">
-        <v>206.2900390625</v>
+        <v>206.2900543212891</v>
       </c>
       <c r="F423" t="n">
         <v>241805100</v>
@@ -11515,16 +11515,16 @@
         <v>45469</v>
       </c>
       <c r="B426" t="n">
-        <v>210.2768291728298</v>
+        <v>210.2768443064002</v>
       </c>
       <c r="C426" t="n">
-        <v>213.6173978459433</v>
+        <v>213.6174132199336</v>
       </c>
       <c r="D426" t="n">
-        <v>209.4218022157072</v>
+        <v>209.4218172877416</v>
       </c>
       <c r="E426" t="n">
-        <v>212.0167083740234</v>
+        <v>212.0167236328125</v>
       </c>
       <c r="F426" t="n">
         <v>66213200</v>
@@ -11541,16 +11541,16 @@
         <v>45470</v>
       </c>
       <c r="B427" t="n">
-        <v>213.4483853584538</v>
+        <v>213.4484006592916</v>
       </c>
       <c r="C427" t="n">
-        <v>214.492315925646</v>
+        <v>214.4923313013169</v>
       </c>
       <c r="D427" t="n">
-        <v>211.1219219256549</v>
+        <v>211.1219370597224</v>
       </c>
       <c r="E427" t="n">
-        <v>212.8618011474609</v>
+        <v>212.86181640625</v>
       </c>
       <c r="F427" t="n">
         <v>49772700</v>
@@ -11619,16 +11619,16 @@
         <v>45475</v>
       </c>
       <c r="B430" t="n">
-        <v>214.8999559805068</v>
+        <v>214.8999410071237</v>
       </c>
       <c r="C430" t="n">
-        <v>219.1055039815598</v>
+        <v>219.1054887151507</v>
       </c>
       <c r="D430" t="n">
-        <v>213.8560404734025</v>
+        <v>213.8560255727553</v>
       </c>
       <c r="E430" t="n">
-        <v>218.9961395263672</v>
+        <v>218.9961242675781</v>
       </c>
       <c r="F430" t="n">
         <v>58046200</v>
@@ -11697,16 +11697,16 @@
         <v>45481</v>
       </c>
       <c r="B433" t="n">
-        <v>225.7766675487194</v>
+        <v>225.7766827586142</v>
       </c>
       <c r="C433" t="n">
-        <v>226.5322819524995</v>
+        <v>226.5322972132979</v>
       </c>
       <c r="D433" t="n">
-        <v>221.9588790483477</v>
+        <v>221.9588940010497</v>
       </c>
       <c r="E433" t="n">
-        <v>226.5024566650391</v>
+        <v>226.5024719238281</v>
       </c>
       <c r="F433" t="n">
         <v>59085900</v>
@@ -11723,16 +11723,16 @@
         <v>45482</v>
       </c>
       <c r="B434" t="n">
-        <v>226.6118051264419</v>
+        <v>226.6118203351868</v>
       </c>
       <c r="C434" t="n">
-        <v>228.0733048889389</v>
+        <v>228.0733201957704</v>
       </c>
       <c r="D434" t="n">
-        <v>225.0608295018841</v>
+        <v>225.0608446065374</v>
       </c>
       <c r="E434" t="n">
-        <v>227.3574676513672</v>
+        <v>227.3574829101562</v>
       </c>
       <c r="F434" t="n">
         <v>48076100</v>
@@ -11749,16 +11749,16 @@
         <v>45483</v>
       </c>
       <c r="B435" t="n">
-        <v>227.9738887603291</v>
+        <v>227.9739037781008</v>
       </c>
       <c r="C435" t="n">
-        <v>231.7320266136073</v>
+        <v>231.7320418789461</v>
       </c>
       <c r="D435" t="n">
-        <v>227.9241748920021</v>
+        <v>227.9241899064988</v>
       </c>
       <c r="E435" t="n">
-        <v>231.6325988769531</v>
+        <v>231.6326141357422</v>
       </c>
       <c r="F435" t="n">
         <v>62627700</v>
@@ -11801,16 +11801,16 @@
         <v>45485</v>
       </c>
       <c r="B437" t="n">
-        <v>227.5960846197104</v>
+        <v>227.5960997712765</v>
       </c>
       <c r="C437" t="n">
-        <v>231.2945719488415</v>
+        <v>231.294587346624</v>
       </c>
       <c r="D437" t="n">
-        <v>227.3574671508641</v>
+        <v>227.357482286545</v>
       </c>
       <c r="E437" t="n">
-        <v>229.2067108154297</v>
+        <v>229.2067260742188</v>
       </c>
       <c r="F437" t="n">
         <v>53046500</v>
@@ -11853,16 +11853,16 @@
         <v>45489</v>
       </c>
       <c r="B439" t="n">
-        <v>233.6409268235753</v>
+        <v>233.6409420940605</v>
       </c>
       <c r="C439" t="n">
-        <v>234.9035862928846</v>
+        <v>234.9036016458956</v>
       </c>
       <c r="D439" t="n">
-        <v>230.9863700286407</v>
+        <v>230.9863851256273</v>
       </c>
       <c r="E439" t="n">
-        <v>233.4619750976562</v>
+        <v>233.4619903564453</v>
       </c>
       <c r="F439" t="n">
         <v>43234300</v>
@@ -11879,16 +11879,16 @@
         <v>45490</v>
       </c>
       <c r="B440" t="n">
-        <v>228.1230311101644</v>
+        <v>228.1230464069532</v>
       </c>
       <c r="C440" t="n">
-        <v>230.1214164943178</v>
+        <v>230.1214319251083</v>
       </c>
       <c r="D440" t="n">
-        <v>225.3292844594588</v>
+        <v>225.3292995689129</v>
       </c>
       <c r="E440" t="n">
-        <v>227.5563354492188</v>
+        <v>227.5563507080078</v>
       </c>
       <c r="F440" t="n">
         <v>57345900</v>
@@ -11905,16 +11905,16 @@
         <v>45491</v>
       </c>
       <c r="B441" t="n">
-        <v>228.9482272638944</v>
+        <v>228.9482429378798</v>
       </c>
       <c r="C441" t="n">
-        <v>229.1073055815506</v>
+        <v>229.1073212664266</v>
       </c>
       <c r="D441" t="n">
-        <v>220.9845567217071</v>
+        <v>220.984571850493</v>
       </c>
       <c r="E441" t="n">
-        <v>222.8834991455078</v>
+        <v>222.8835144042969</v>
       </c>
       <c r="F441" t="n">
         <v>66034600</v>
@@ -11931,16 +11931,16 @@
         <v>45492</v>
       </c>
       <c r="B442" t="n">
-        <v>223.5198318918375</v>
+        <v>223.5198013048721</v>
       </c>
       <c r="C442" t="n">
-        <v>225.4883769400896</v>
+        <v>225.488346083744</v>
       </c>
       <c r="D442" t="n">
-        <v>221.98872949944</v>
+        <v>221.9886991219942</v>
       </c>
       <c r="E442" t="n">
-        <v>223.0127716064453</v>
+        <v>223.0127410888672</v>
       </c>
       <c r="F442" t="n">
         <v>49151500</v>
@@ -11983,16 +11983,16 @@
         <v>45496</v>
       </c>
       <c r="B444" t="n">
-        <v>223.0724115914999</v>
+        <v>223.0723963761116</v>
       </c>
       <c r="C444" t="n">
-        <v>225.6275559695254</v>
+        <v>225.6275405798551</v>
       </c>
       <c r="D444" t="n">
-        <v>221.3921828247117</v>
+        <v>221.392167723929</v>
       </c>
       <c r="E444" t="n">
-        <v>223.7087097167969</v>
+        <v>223.7086944580078</v>
       </c>
       <c r="F444" t="n">
         <v>39960300</v>
@@ -12035,16 +12035,16 @@
         <v>45498</v>
       </c>
       <c r="B446" t="n">
-        <v>217.663867640833</v>
+        <v>217.6638522810165</v>
       </c>
       <c r="C446" t="n">
-        <v>219.5727771670938</v>
+        <v>219.5727616725718</v>
       </c>
       <c r="D446" t="n">
-        <v>213.3787958392943</v>
+        <v>213.3787807818611</v>
       </c>
       <c r="E446" t="n">
-        <v>216.2322082519531</v>
+        <v>216.2321929931641</v>
       </c>
       <c r="F446" t="n">
         <v>51391200</v>
@@ -12061,16 +12061,16 @@
         <v>45499</v>
       </c>
       <c r="B447" t="n">
-        <v>217.4352041073067</v>
+        <v>217.4351887967129</v>
       </c>
       <c r="C447" t="n">
-        <v>218.2206438494584</v>
+        <v>218.2206284835583</v>
       </c>
       <c r="D447" t="n">
-        <v>214.7607585743479</v>
+        <v>214.7607434520739</v>
       </c>
       <c r="E447" t="n">
-        <v>216.6994934082031</v>
+        <v>216.6994781494141</v>
       </c>
       <c r="F447" t="n">
         <v>41601300</v>
@@ -12113,16 +12113,16 @@
         <v>45503</v>
       </c>
       <c r="B449" t="n">
-        <v>217.9223813938138</v>
+        <v>217.9223661078267</v>
       </c>
       <c r="C449" t="n">
-        <v>219.0557879315782</v>
+        <v>219.0557725660892</v>
       </c>
       <c r="D449" t="n">
-        <v>214.8701285559178</v>
+        <v>214.8701134840286</v>
       </c>
       <c r="E449" t="n">
-        <v>217.5346374511719</v>
+        <v>217.5346221923828</v>
       </c>
       <c r="F449" t="n">
         <v>41643800</v>
@@ -12139,16 +12139,16 @@
         <v>45504</v>
       </c>
       <c r="B450" t="n">
-        <v>220.1593561933901</v>
+        <v>220.1593409785744</v>
       </c>
       <c r="C450" t="n">
-        <v>222.5255968769169</v>
+        <v>222.5255814985746</v>
       </c>
       <c r="D450" t="n">
-        <v>219.3540430654452</v>
+        <v>219.3540279062832</v>
       </c>
       <c r="E450" t="n">
-        <v>220.795654296875</v>
+        <v>220.7956390380859</v>
       </c>
       <c r="F450" t="n">
         <v>50036300</v>
@@ -12165,16 +12165,16 @@
         <v>45505</v>
       </c>
       <c r="B451" t="n">
-        <v>223.0724051151817</v>
+        <v>223.0724207939435</v>
       </c>
       <c r="C451" t="n">
-        <v>223.1817695634113</v>
+        <v>223.1817852498598</v>
       </c>
       <c r="D451" t="n">
-        <v>215.7649211779852</v>
+        <v>215.7649363431366</v>
       </c>
       <c r="E451" t="n">
-        <v>217.09716796875</v>
+        <v>217.0971832275391</v>
       </c>
       <c r="F451" t="n">
         <v>62501000</v>
@@ -12191,16 +12191,16 @@
         <v>45506</v>
       </c>
       <c r="B452" t="n">
-        <v>217.8825851810554</v>
+        <v>217.8826003905683</v>
       </c>
       <c r="C452" t="n">
-        <v>224.2952950749975</v>
+        <v>224.2953107321561</v>
       </c>
       <c r="D452" t="n">
-        <v>216.4509258668214</v>
+        <v>216.450940976396</v>
       </c>
       <c r="E452" t="n">
-        <v>218.5884857177734</v>
+        <v>218.5885009765625</v>
       </c>
       <c r="F452" t="n">
         <v>105568600</v>
@@ -12347,16 +12347,16 @@
         <v>45516</v>
       </c>
       <c r="B458" t="n">
-        <v>215.0690650325273</v>
+        <v>215.0690801889043</v>
       </c>
       <c r="C458" t="n">
-        <v>218.4931165066369</v>
+        <v>218.4931319043141</v>
       </c>
       <c r="D458" t="n">
-        <v>214.6012410880911</v>
+        <v>214.6012562114996</v>
       </c>
       <c r="E458" t="n">
-        <v>216.5222930908203</v>
+        <v>216.5223083496094</v>
       </c>
       <c r="F458" t="n">
         <v>38028100</v>
@@ -12451,16 +12451,16 @@
         <v>45520</v>
       </c>
       <c r="B462" t="n">
-        <v>222.8827155041281</v>
+        <v>222.8827003891183</v>
       </c>
       <c r="C462" t="n">
-        <v>225.7792389216058</v>
+        <v>225.7792236101654</v>
       </c>
       <c r="D462" t="n">
-        <v>222.6139619942321</v>
+        <v>222.6139468974481</v>
       </c>
       <c r="E462" t="n">
-        <v>225.0028533935547</v>
+        <v>225.0028381347656</v>
       </c>
       <c r="F462" t="n">
         <v>44340200</v>
@@ -12529,16 +12529,16 @@
         <v>45525</v>
       </c>
       <c r="B465" t="n">
-        <v>225.4706812509204</v>
+        <v>225.4706659840429</v>
       </c>
       <c r="C465" t="n">
-        <v>226.9239094947316</v>
+        <v>226.9238941294544</v>
       </c>
       <c r="D465" t="n">
-        <v>224.007489610358</v>
+        <v>224.0074744425549</v>
       </c>
       <c r="E465" t="n">
-        <v>225.3512268066406</v>
+        <v>225.3512115478516</v>
       </c>
       <c r="F465" t="n">
         <v>34765500</v>
@@ -12685,16 +12685,16 @@
         <v>45533</v>
       </c>
       <c r="B471" t="n">
-        <v>229.0340863515214</v>
+        <v>229.0340710721464</v>
       </c>
       <c r="C471" t="n">
-        <v>231.8410150307569</v>
+        <v>231.8409995641255</v>
       </c>
       <c r="D471" t="n">
-        <v>227.8197366882459</v>
+        <v>227.819721489883</v>
       </c>
       <c r="E471" t="n">
-        <v>228.7255096435547</v>
+        <v>228.7254943847656</v>
       </c>
       <c r="F471" t="n">
         <v>51906300</v>
@@ -12737,16 +12737,16 @@
         <v>45538</v>
       </c>
       <c r="B473" t="n">
-        <v>227.4912604304481</v>
+        <v>227.4912447757539</v>
       </c>
       <c r="C473" t="n">
-        <v>227.9391727978887</v>
+        <v>227.9391571123717</v>
       </c>
       <c r="D473" t="n">
-        <v>220.1454429272487</v>
+        <v>220.1454277780532</v>
       </c>
       <c r="E473" t="n">
-        <v>221.738037109375</v>
+        <v>221.7380218505859</v>
       </c>
       <c r="F473" t="n">
         <v>50190600</v>
@@ -12815,16 +12815,16 @@
         <v>45541</v>
       </c>
       <c r="B476" t="n">
-        <v>222.9125635200513</v>
+        <v>222.9125480449781</v>
       </c>
       <c r="C476" t="n">
-        <v>224.1965961864048</v>
+        <v>224.1965806221913</v>
       </c>
       <c r="D476" t="n">
-        <v>218.7519343816246</v>
+        <v>218.7519191953913</v>
       </c>
       <c r="E476" t="n">
-        <v>219.7970733642578</v>
+        <v>219.7970581054688</v>
       </c>
       <c r="F476" t="n">
         <v>48423000</v>
@@ -12841,16 +12841,16 @@
         <v>45544</v>
       </c>
       <c r="B477" t="n">
-        <v>219.7970782769854</v>
+        <v>219.7970630244126</v>
       </c>
       <c r="C477" t="n">
-        <v>220.2449906543814</v>
+        <v>220.2449753707262</v>
       </c>
       <c r="D477" t="n">
-        <v>215.7061168789743</v>
+        <v>215.7061019102892</v>
       </c>
       <c r="E477" t="n">
-        <v>219.8866577148438</v>
+        <v>219.8866424560547</v>
       </c>
       <c r="F477" t="n">
         <v>67180000</v>
@@ -12919,16 +12919,16 @@
         <v>45547</v>
       </c>
       <c r="B480" t="n">
-        <v>221.4692836136691</v>
+        <v>221.4692683733742</v>
       </c>
       <c r="C480" t="n">
-        <v>222.5144225964331</v>
+        <v>222.5144072842174</v>
       </c>
       <c r="D480" t="n">
-        <v>218.8017058249269</v>
+        <v>218.8016907682</v>
       </c>
       <c r="E480" t="n">
-        <v>221.738037109375</v>
+        <v>221.7380218505859</v>
       </c>
       <c r="F480" t="n">
         <v>37455600</v>
@@ -12945,16 +12945,16 @@
         <v>45548</v>
       </c>
       <c r="B481" t="n">
-        <v>222.5442675216374</v>
+        <v>222.5442828544918</v>
       </c>
       <c r="C481" t="n">
-        <v>223.0021280664009</v>
+        <v>223.0021434308009</v>
       </c>
       <c r="D481" t="n">
-        <v>220.8820056188433</v>
+        <v>220.8820208371711</v>
       </c>
       <c r="E481" t="n">
-        <v>221.4692687988281</v>
+        <v>221.4692840576172</v>
       </c>
       <c r="F481" t="n">
         <v>36766600</v>
@@ -12997,16 +12997,16 @@
         <v>45552</v>
       </c>
       <c r="B483" t="n">
-        <v>214.7505452735021</v>
+        <v>214.7505300879131</v>
       </c>
       <c r="C483" t="n">
-        <v>215.8952118613641</v>
+        <v>215.8951965948326</v>
       </c>
       <c r="D483" t="n">
-        <v>213.5063358570856</v>
+        <v>213.5063207594779</v>
       </c>
       <c r="E483" t="n">
-        <v>215.7857208251953</v>
+        <v>215.7857055664062</v>
       </c>
       <c r="F483" t="n">
         <v>45519300</v>
@@ -13023,16 +13023,16 @@
         <v>45553</v>
       </c>
       <c r="B484" t="n">
-        <v>216.5421950823632</v>
+        <v>216.5422251657341</v>
       </c>
       <c r="C484" t="n">
-        <v>221.6782948477139</v>
+        <v>221.6783256446234</v>
       </c>
       <c r="D484" t="n">
-        <v>216.5322316873262</v>
+        <v>216.532261769313</v>
       </c>
       <c r="E484" t="n">
-        <v>219.6676483154297</v>
+        <v>219.6676788330078</v>
       </c>
       <c r="F484" t="n">
         <v>59894900</v>
@@ -13049,16 +13049,16 @@
         <v>45554</v>
       </c>
       <c r="B485" t="n">
-        <v>223.9477378704066</v>
+        <v>223.9477528705163</v>
       </c>
       <c r="C485" t="n">
-        <v>228.7553646874453</v>
+        <v>228.7553800095718</v>
       </c>
       <c r="D485" t="n">
-        <v>223.5894049651583</v>
+        <v>223.5894199412667</v>
       </c>
       <c r="E485" t="n">
-        <v>227.8097534179688</v>
+        <v>227.8097686767578</v>
       </c>
       <c r="F485" t="n">
         <v>66781300</v>
@@ -13101,16 +13101,16 @@
         <v>45558</v>
       </c>
       <c r="B487" t="n">
-        <v>226.2868480598011</v>
+        <v>226.2868633772075</v>
       </c>
       <c r="C487" t="n">
-        <v>228.3870741318164</v>
+        <v>228.3870895913876</v>
       </c>
       <c r="D487" t="n">
-        <v>224.7639369712135</v>
+        <v>224.7639521855337</v>
       </c>
       <c r="E487" t="n">
-        <v>225.4208831787109</v>
+        <v>225.4208984375</v>
       </c>
       <c r="F487" t="n">
         <v>54146000</v>
@@ -13127,16 +13127,16 @@
         <v>45559</v>
       </c>
       <c r="B488" t="n">
-        <v>227.5907959993953</v>
+        <v>227.5907653100159</v>
       </c>
       <c r="C488" t="n">
-        <v>228.2875654709032</v>
+        <v>228.2875346875682</v>
       </c>
       <c r="D488" t="n">
-        <v>224.6843244256943</v>
+        <v>224.6842941282367</v>
       </c>
       <c r="E488" t="n">
-        <v>226.3167266845703</v>
+        <v>226.3166961669922</v>
       </c>
       <c r="F488" t="n">
         <v>43556100</v>
@@ -13153,16 +13153,16 @@
         <v>45560</v>
       </c>
       <c r="B489" t="n">
-        <v>223.888018378611</v>
+        <v>223.8880032168873</v>
       </c>
       <c r="C489" t="n">
-        <v>226.2370864319121</v>
+        <v>226.2370711111093</v>
       </c>
       <c r="D489" t="n">
-        <v>222.9822454403592</v>
+        <v>222.9822303399746</v>
       </c>
       <c r="E489" t="n">
-        <v>225.3213500976562</v>
+        <v>225.3213348388672</v>
       </c>
       <c r="F489" t="n">
         <v>42308700</v>
@@ -13283,16 +13283,16 @@
         <v>45567</v>
       </c>
       <c r="B494" t="n">
-        <v>224.8435547212975</v>
+        <v>224.8435699202034</v>
       </c>
       <c r="C494" t="n">
-        <v>226.3166943080492</v>
+        <v>226.3167096065359</v>
       </c>
       <c r="D494" t="n">
-        <v>221.9868549739656</v>
+        <v>221.9868699797652</v>
       </c>
       <c r="E494" t="n">
-        <v>225.7294311523438</v>
+        <v>225.7294464111328</v>
       </c>
       <c r="F494" t="n">
         <v>32880600</v>
@@ -13335,16 +13335,16 @@
         <v>45569</v>
       </c>
       <c r="B496" t="n">
-        <v>226.8442696351952</v>
+        <v>226.8442389696054</v>
       </c>
       <c r="C496" t="n">
-        <v>226.9438124702923</v>
+        <v>226.9437817912459</v>
       </c>
       <c r="D496" t="n">
-        <v>223.091744724082</v>
+        <v>223.0917145657714</v>
       </c>
       <c r="E496" t="n">
-        <v>225.7493743896484</v>
+        <v>225.7493438720703</v>
       </c>
       <c r="F496" t="n">
         <v>37245100</v>
@@ -13387,16 +13387,16 @@
         <v>45573</v>
       </c>
       <c r="B498" t="n">
-        <v>223.2609448368007</v>
+        <v>223.2609599962389</v>
       </c>
       <c r="C498" t="n">
-        <v>224.933155033014</v>
+        <v>224.9331703059954</v>
       </c>
       <c r="D498" t="n">
-        <v>222.2158058701156</v>
+        <v>222.2158209585888</v>
       </c>
       <c r="E498" t="n">
-        <v>224.7241363525391</v>
+        <v>224.7241516113281</v>
       </c>
       <c r="F498" t="n">
         <v>31855700</v>
@@ -13413,16 +13413,16 @@
         <v>45574</v>
       </c>
       <c r="B499" t="n">
-        <v>224.1866374402548</v>
+        <v>224.186622467975</v>
       </c>
       <c r="C499" t="n">
-        <v>228.6857031876272</v>
+        <v>228.6856879148778</v>
       </c>
       <c r="D499" t="n">
-        <v>223.7884964805669</v>
+        <v>223.788481534877</v>
       </c>
       <c r="E499" t="n">
-        <v>228.4766693115234</v>
+        <v>228.4766540527344</v>
       </c>
       <c r="F499" t="n">
         <v>33591100</v>
@@ -13465,16 +13465,16 @@
         <v>45576</v>
       </c>
       <c r="B501" t="n">
-        <v>228.2377732709054</v>
+        <v>228.2377886470439</v>
       </c>
       <c r="C501" t="n">
-        <v>228.3472643046208</v>
+        <v>228.3472796881356</v>
       </c>
       <c r="D501" t="n">
-        <v>226.2868462669136</v>
+        <v>226.2868615116203</v>
       </c>
       <c r="E501" t="n">
-        <v>226.4958801269531</v>
+        <v>226.4958953857422</v>
       </c>
       <c r="F501" t="n">
         <v>31759200</v>
@@ -13517,16 +13517,16 @@
         <v>45580</v>
       </c>
       <c r="B503" t="n">
-        <v>232.5278146935557</v>
+        <v>232.527799450427</v>
       </c>
       <c r="C503" t="n">
-        <v>236.3898456598821</v>
+        <v>236.3898301635819</v>
       </c>
       <c r="D503" t="n">
-        <v>231.2935534599607</v>
+        <v>231.2935382977429</v>
       </c>
       <c r="E503" t="n">
-        <v>232.7667083740234</v>
+        <v>232.7666931152344</v>
       </c>
       <c r="F503" t="n">
         <v>64751400</v>
@@ -13543,16 +13543,16 @@
         <v>45581</v>
       </c>
       <c r="B504" t="n">
-        <v>230.5271094583102</v>
+        <v>230.5271247052497</v>
       </c>
       <c r="C504" t="n">
-        <v>231.0446896012842</v>
+        <v>231.0447048824563</v>
       </c>
       <c r="D504" t="n">
-        <v>228.7752530110069</v>
+        <v>228.7752681420796</v>
       </c>
       <c r="E504" t="n">
-        <v>230.7062683105469</v>
+        <v>230.7062835693359</v>
       </c>
       <c r="F504" t="n">
         <v>34082200</v>
@@ -13647,16 +13647,16 @@
         <v>45587</v>
       </c>
       <c r="B508" t="n">
-        <v>232.8065348283382</v>
+        <v>232.8065196969969</v>
       </c>
       <c r="C508" t="n">
-        <v>235.1257432333451</v>
+        <v>235.125727951266</v>
       </c>
       <c r="D508" t="n">
-        <v>231.5225172658939</v>
+        <v>231.5225022180078</v>
       </c>
       <c r="E508" t="n">
-        <v>234.7674102783203</v>
+        <v>234.7673950195312</v>
       </c>
       <c r="F508" t="n">
         <v>38846600</v>
@@ -13751,16 +13751,16 @@
         <v>45593</v>
       </c>
       <c r="B512" t="n">
-        <v>232.2391553268284</v>
+        <v>232.2391705803882</v>
       </c>
       <c r="C512" t="n">
-        <v>233.6426119766163</v>
+        <v>233.6426273223557</v>
       </c>
       <c r="D512" t="n">
-        <v>231.4727180894684</v>
+        <v>231.4727332926884</v>
       </c>
       <c r="E512" t="n">
-        <v>232.3187713623047</v>
+        <v>232.3187866210938</v>
       </c>
       <c r="F512" t="n">
         <v>36087100</v>
@@ -13777,16 +13777,16 @@
         <v>45594</v>
       </c>
       <c r="B513" t="n">
-        <v>232.0201728307493</v>
+        <v>232.0201880523175</v>
       </c>
       <c r="C513" t="n">
-        <v>233.2444706163013</v>
+        <v>233.244485918189</v>
       </c>
       <c r="D513" t="n">
-        <v>231.2437873874136</v>
+        <v>231.2438025580474</v>
       </c>
       <c r="E513" t="n">
-        <v>232.5875244140625</v>
+        <v>232.5875396728516</v>
       </c>
       <c r="F513" t="n">
         <v>35417200</v>
@@ -13829,16 +13829,16 @@
         <v>45596</v>
       </c>
       <c r="B515" t="n">
-        <v>228.2775984008336</v>
+        <v>228.2775829103703</v>
       </c>
       <c r="C515" t="n">
-        <v>228.7653339854192</v>
+        <v>228.7653184618591</v>
       </c>
       <c r="D515" t="n">
-        <v>224.3259878715683</v>
+        <v>224.3259726492534</v>
       </c>
       <c r="E515" t="n">
-        <v>224.8634948730469</v>
+        <v>224.8634796142578</v>
       </c>
       <c r="F515" t="n">
         <v>64370100</v>
@@ -13855,16 +13855,16 @@
         <v>45597</v>
       </c>
       <c r="B516" t="n">
-        <v>219.9463800534473</v>
+        <v>219.9463498014659</v>
       </c>
       <c r="C516" t="n">
-        <v>224.3060950069211</v>
+        <v>224.3060641552936</v>
       </c>
       <c r="D516" t="n">
-        <v>219.2496257702242</v>
+        <v>219.2495956140762</v>
       </c>
       <c r="E516" t="n">
-        <v>221.8773956298828</v>
+        <v>221.8773651123047</v>
       </c>
       <c r="F516" t="n">
         <v>65276700</v>
@@ -13907,16 +13907,16 @@
         <v>45601</v>
       </c>
       <c r="B518" t="n">
-        <v>220.7725057228464</v>
+        <v>220.7725208689619</v>
       </c>
       <c r="C518" t="n">
-        <v>222.9125396871603</v>
+        <v>222.9125549800929</v>
       </c>
       <c r="D518" t="n">
-        <v>220.1155595539316</v>
+        <v>220.1155746549773</v>
       </c>
       <c r="E518" t="n">
-        <v>222.4148559570312</v>
+        <v>222.4148712158203</v>
       </c>
       <c r="F518" t="n">
         <v>28111300</v>
@@ -13933,16 +13933,16 @@
         <v>45602</v>
       </c>
       <c r="B519" t="n">
-        <v>221.5787719009408</v>
+        <v>221.578756649688</v>
       </c>
       <c r="C519" t="n">
-        <v>225.0227503220615</v>
+        <v>225.0227348337598</v>
       </c>
       <c r="D519" t="n">
-        <v>220.1653517962115</v>
+        <v>220.1653366422443</v>
       </c>
       <c r="E519" t="n">
-        <v>221.6882629394531</v>
+        <v>221.6882476806641</v>
       </c>
       <c r="F519" t="n">
         <v>54561100</v>
@@ -13959,16 +13959,16 @@
         <v>45603</v>
       </c>
       <c r="B520" t="n">
-        <v>223.5894049928319</v>
+        <v>223.5894200604507</v>
       </c>
       <c r="C520" t="n">
-        <v>226.8243493476869</v>
+        <v>226.8243646333076</v>
       </c>
       <c r="D520" t="n">
-        <v>223.5296853733002</v>
+        <v>223.5297004368945</v>
       </c>
       <c r="E520" t="n">
-        <v>226.4261932373047</v>
+        <v>226.4262084960938</v>
       </c>
       <c r="F520" t="n">
         <v>42137700</v>
@@ -14011,16 +14011,16 @@
         <v>45607</v>
       </c>
       <c r="B522" t="n">
-        <v>224.204109155294</v>
+        <v>224.2040938441064</v>
       </c>
       <c r="C522" t="n">
-        <v>224.901630009481</v>
+        <v>224.9016146506588</v>
       </c>
       <c r="D522" t="n">
-        <v>220.716489679545</v>
+        <v>220.7164746065314</v>
       </c>
       <c r="E522" t="n">
-        <v>223.4368286132812</v>
+        <v>223.4368133544922</v>
       </c>
       <c r="F522" t="n">
         <v>42005600</v>
@@ -14037,16 +14037,16 @@
         <v>45608</v>
       </c>
       <c r="B523" t="n">
-        <v>223.7557039779463</v>
+        <v>223.7556886973808</v>
       </c>
       <c r="C523" t="n">
-        <v>224.7920185034792</v>
+        <v>224.7920031521424</v>
       </c>
       <c r="D523" t="n">
-        <v>222.5699109234214</v>
+        <v>222.5698957238352</v>
       </c>
       <c r="E523" t="n">
-        <v>223.4368286132812</v>
+        <v>223.4368133544922</v>
       </c>
       <c r="F523" t="n">
         <v>40398300</v>
@@ -14063,16 +14063,16 @@
         <v>45609</v>
       </c>
       <c r="B524" t="n">
-        <v>223.2175952714209</v>
+        <v>223.2175800878685</v>
       </c>
       <c r="C524" t="n">
-        <v>225.8482560889112</v>
+        <v>225.8482407264178</v>
       </c>
       <c r="D524" t="n">
-        <v>221.9720169448666</v>
+        <v>221.97200184604</v>
       </c>
       <c r="E524" t="n">
-        <v>224.3236694335938</v>
+        <v>224.3236541748047</v>
       </c>
       <c r="F524" t="n">
         <v>48566200</v>
@@ -14141,16 +14141,16 @@
         <v>45614</v>
       </c>
       <c r="B527" t="n">
-        <v>224.4532037266457</v>
+        <v>224.4531886532215</v>
       </c>
       <c r="C527" t="n">
-        <v>228.9273263357063</v>
+        <v>228.9273109618171</v>
       </c>
       <c r="D527" t="n">
-        <v>224.3734848929754</v>
+        <v>224.3734698249049</v>
       </c>
       <c r="E527" t="n">
-        <v>227.2134094238281</v>
+        <v>227.2133941650391</v>
       </c>
       <c r="F527" t="n">
         <v>44633700</v>
@@ -14245,16 +14245,16 @@
         <v>45618</v>
       </c>
       <c r="B531" t="n">
-        <v>227.2532745036032</v>
+        <v>227.2532593649619</v>
       </c>
       <c r="C531" t="n">
-        <v>229.9038688598125</v>
+        <v>229.9038535446</v>
       </c>
       <c r="D531" t="n">
-        <v>227.2532745036032</v>
+        <v>227.2532593649619</v>
       </c>
       <c r="E531" t="n">
-        <v>229.0568695068359</v>
+        <v>229.0568542480469</v>
       </c>
       <c r="F531" t="n">
         <v>38168300</v>
@@ -14323,16 +14323,16 @@
         <v>45623</v>
       </c>
       <c r="B534" t="n">
-        <v>233.640604190904</v>
+        <v>233.6405889619916</v>
       </c>
       <c r="C534" t="n">
-        <v>234.8562898685375</v>
+        <v>234.8562745603856</v>
       </c>
       <c r="D534" t="n">
-        <v>232.9829351774668</v>
+        <v>232.9829199914219</v>
       </c>
       <c r="E534" t="n">
-        <v>234.0989685058594</v>
+        <v>234.0989532470703</v>
       </c>
       <c r="F534" t="n">
         <v>33498400</v>
@@ -14349,16 +14349,16 @@
         <v>45625</v>
       </c>
       <c r="B535" t="n">
-        <v>233.979388423105</v>
+        <v>233.979373326336</v>
       </c>
       <c r="C535" t="n">
-        <v>236.9687763221197</v>
+        <v>236.96876103247</v>
       </c>
       <c r="D535" t="n">
-        <v>233.1423634605361</v>
+        <v>233.1423484177734</v>
       </c>
       <c r="E535" t="n">
-        <v>236.490478515625</v>
+        <v>236.4904632568359</v>
       </c>
       <c r="F535" t="n">
         <v>28481400</v>
@@ -14427,16 +14427,16 @@
         <v>45630</v>
       </c>
       <c r="B538" t="n">
-        <v>242.0108712078605</v>
+        <v>242.0108864578589</v>
       </c>
       <c r="C538" t="n">
-        <v>243.2464903281161</v>
+        <v>243.2465056559754</v>
       </c>
       <c r="D538" t="n">
-        <v>240.3966066319756</v>
+        <v>240.3966217802532</v>
       </c>
       <c r="E538" t="n">
-        <v>242.1503753662109</v>
+        <v>242.150390625</v>
       </c>
       <c r="F538" t="n">
         <v>44383900</v>
@@ -14453,16 +14453,16 @@
         <v>45631</v>
       </c>
       <c r="B539" t="n">
-        <v>243.1269343008096</v>
+        <v>243.1269189823759</v>
       </c>
       <c r="C539" t="n">
-        <v>243.6749766099078</v>
+        <v>243.6749612569442</v>
       </c>
       <c r="D539" t="n">
-        <v>241.2735131113704</v>
+        <v>241.2734979097132</v>
       </c>
       <c r="E539" t="n">
-        <v>242.1802825927734</v>
+        <v>242.1802673339844</v>
       </c>
       <c r="F539" t="n">
         <v>40033900</v>
@@ -14479,16 +14479,16 @@
         <v>45632</v>
       </c>
       <c r="B540" t="n">
-        <v>242.0507472330053</v>
+        <v>242.0507319698173</v>
       </c>
       <c r="C540" t="n">
-        <v>243.7646642163996</v>
+        <v>243.7646488451358</v>
       </c>
       <c r="D540" t="n">
-        <v>241.2236814045801</v>
+        <v>241.2236661935451</v>
       </c>
       <c r="E540" t="n">
-        <v>241.9809875488281</v>
+        <v>241.9809722900391</v>
       </c>
       <c r="F540" t="n">
         <v>36870600</v>
@@ -14557,16 +14557,16 @@
         <v>45637</v>
       </c>
       <c r="B543" t="n">
-        <v>247.0828737526952</v>
+        <v>247.0828891024836</v>
       </c>
       <c r="C543" t="n">
-        <v>249.9128238963201</v>
+        <v>249.9128394219165</v>
       </c>
       <c r="D543" t="n">
-        <v>245.3888751635895</v>
+        <v>245.3888904081398</v>
       </c>
       <c r="E543" t="n">
-        <v>245.6180725097656</v>
+        <v>245.6180877685547</v>
       </c>
       <c r="F543" t="n">
         <v>45205800</v>
@@ -14583,16 +14583,16 @@
         <v>45638</v>
       </c>
       <c r="B544" t="n">
-        <v>246.0166785997756</v>
+        <v>246.0166634068319</v>
       </c>
       <c r="C544" t="n">
-        <v>247.8601407007169</v>
+        <v>247.8601253939288</v>
       </c>
       <c r="D544" t="n">
-        <v>244.8109520269498</v>
+        <v>244.8109369084667</v>
       </c>
       <c r="E544" t="n">
-        <v>247.0829010009766</v>
+        <v>247.0828857421875</v>
       </c>
       <c r="F544" t="n">
         <v>32777500</v>
@@ -14739,16 +14739,16 @@
         <v>45646</v>
       </c>
       <c r="B550" t="n">
-        <v>247.1625865233097</v>
+        <v>247.1626013953669</v>
       </c>
       <c r="C550" t="n">
-        <v>254.097973187486</v>
+        <v>254.0979884768534</v>
       </c>
       <c r="D550" t="n">
-        <v>244.820908442313</v>
+        <v>244.8209231734688</v>
       </c>
       <c r="E550" t="n">
-        <v>253.5897827148438</v>
+        <v>253.5897979736328</v>
       </c>
       <c r="F550" t="n">
         <v>147495300</v>
@@ -14791,16 +14791,16 @@
         <v>45650</v>
       </c>
       <c r="B552" t="n">
-        <v>254.5862313158557</v>
+        <v>254.5862615131284</v>
       </c>
       <c r="C552" t="n">
-        <v>257.2965955586333</v>
+        <v>257.2966260773909</v>
       </c>
       <c r="D552" t="n">
-        <v>254.3869266350054</v>
+        <v>254.386956808638</v>
       </c>
       <c r="E552" t="n">
-        <v>257.2866516113281</v>
+        <v>257.2866821289062</v>
       </c>
       <c r="F552" t="n">
         <v>23234700</v>
@@ -14869,16 +14869,16 @@
         <v>45656</v>
       </c>
       <c r="B555" t="n">
-        <v>251.3377692499455</v>
+        <v>251.3377539893414</v>
       </c>
       <c r="C555" t="n">
-        <v>252.6032810692575</v>
+        <v>252.6032657318147</v>
       </c>
       <c r="D555" t="n">
-        <v>249.8630087894135</v>
+        <v>249.8629936183532</v>
       </c>
       <c r="E555" t="n">
-        <v>251.3078765869141</v>
+        <v>251.307861328125</v>
       </c>
       <c r="F555" t="n">
         <v>35557500</v>
@@ -14895,16 +14895,16 @@
         <v>45657</v>
       </c>
       <c r="B556" t="n">
-        <v>251.5470385357527</v>
+        <v>251.5470231538791</v>
       </c>
       <c r="C556" t="n">
-        <v>252.3840635283598</v>
+        <v>252.384048095303</v>
       </c>
       <c r="D556" t="n">
-        <v>248.5476761716899</v>
+        <v>248.5476609732247</v>
       </c>
       <c r="E556" t="n">
-        <v>249.5341796875</v>
+        <v>249.5341644287109</v>
       </c>
       <c r="F556" t="n">
         <v>39480700</v>
@@ -14947,16 +14947,16 @@
         <v>45660</v>
       </c>
       <c r="B558" t="n">
-        <v>242.4991455078125</v>
+        <v>242.4991607666016</v>
       </c>
       <c r="C558" t="n">
-        <v>243.3162369554258</v>
+        <v>243.3162522656288</v>
       </c>
       <c r="D558" t="n">
-        <v>241.0343442297803</v>
+        <v>241.0343593963996</v>
       </c>
       <c r="E558" t="n">
-        <v>242.4991455078125</v>
+        <v>242.4991607666016</v>
       </c>
       <c r="F558" t="n">
         <v>40244100</v>
@@ -15051,16 +15051,16 @@
         <v>45667</v>
       </c>
       <c r="B562" t="n">
-        <v>239.1609868223346</v>
+        <v>239.1610022847023</v>
       </c>
       <c r="C562" t="n">
-        <v>239.3104653375161</v>
+        <v>239.3104808095479</v>
       </c>
       <c r="D562" t="n">
-        <v>232.1757893628752</v>
+        <v>232.175804373632</v>
       </c>
       <c r="E562" t="n">
-        <v>236.0121765136719</v>
+        <v>236.0121917724609</v>
       </c>
       <c r="F562" t="n">
         <v>61710900</v>
@@ -15129,16 +15129,16 @@
         <v>45672</v>
       </c>
       <c r="B565" t="n">
-        <v>233.8099943677675</v>
+        <v>233.8099793161749</v>
       </c>
       <c r="C565" t="n">
-        <v>238.1147202916155</v>
+        <v>238.1147049629049</v>
       </c>
       <c r="D565" t="n">
-        <v>233.6007305222416</v>
+        <v>233.6007154841204</v>
       </c>
       <c r="E565" t="n">
-        <v>237.028564453125</v>
+        <v>237.0285491943359</v>
       </c>
       <c r="F565" t="n">
         <v>39832000</v>
@@ -15155,16 +15155,16 @@
         <v>45673</v>
       </c>
       <c r="B566" t="n">
-        <v>236.5104333915357</v>
+        <v>236.510417525095</v>
       </c>
       <c r="C566" t="n">
-        <v>237.1680872330721</v>
+        <v>237.1680713225123</v>
       </c>
       <c r="D566" t="n">
-        <v>227.2233935146464</v>
+        <v>227.2233782712322</v>
       </c>
       <c r="E566" t="n">
-        <v>227.4525756835938</v>
+        <v>227.4525604248047</v>
       </c>
       <c r="F566" t="n">
         <v>71759100</v>
@@ -15207,16 +15207,16 @@
         <v>45678</v>
       </c>
       <c r="B568" t="n">
-        <v>223.2076373446938</v>
+        <v>223.2076219926961</v>
       </c>
       <c r="C568" t="n">
-        <v>223.6261498401375</v>
+        <v>223.6261344593549</v>
       </c>
       <c r="D568" t="n">
-        <v>218.6039846899999</v>
+        <v>218.6039696546368</v>
       </c>
       <c r="E568" t="n">
-        <v>221.8524475097656</v>
+        <v>221.8524322509766</v>
       </c>
       <c r="F568" t="n">
         <v>98070400</v>
@@ -15233,16 +15233,16 @@
         <v>45679</v>
       </c>
       <c r="B569" t="n">
-        <v>219.0125058897086</v>
+        <v>219.0125208730849</v>
       </c>
       <c r="C569" t="n">
-        <v>223.3271907274834</v>
+        <v>223.3272060060417</v>
       </c>
       <c r="D569" t="n">
-        <v>219.0125058897086</v>
+        <v>219.0125208730849</v>
       </c>
       <c r="E569" t="n">
-        <v>223.0382232666016</v>
+        <v>223.0382385253906</v>
       </c>
       <c r="F569" t="n">
         <v>64126500</v>
@@ -15337,16 +15337,16 @@
         <v>45685</v>
       </c>
       <c r="B573" t="n">
-        <v>230.0333989300448</v>
+        <v>230.033413714279</v>
       </c>
       <c r="C573" t="n">
-        <v>239.3403560311667</v>
+        <v>239.3403714135585</v>
       </c>
       <c r="D573" t="n">
-        <v>229.9935319110658</v>
+        <v>229.9935466927377</v>
       </c>
       <c r="E573" t="n">
-        <v>237.4171752929688</v>
+        <v>237.4171905517578</v>
       </c>
       <c r="F573" t="n">
         <v>75707600</v>
@@ -15363,16 +15363,16 @@
         <v>45686</v>
       </c>
       <c r="B574" t="n">
-        <v>233.2918357915463</v>
+        <v>233.2918208667986</v>
       </c>
       <c r="C574" t="n">
-        <v>239.0115369998243</v>
+        <v>239.0115217091611</v>
       </c>
       <c r="D574" t="n">
-        <v>233.1822242894862</v>
+        <v>233.1822093717508</v>
       </c>
       <c r="E574" t="n">
-        <v>238.5133056640625</v>
+        <v>238.5132904052734</v>
       </c>
       <c r="F574" t="n">
         <v>45486100</v>
@@ -15389,16 +15389,16 @@
         <v>45687</v>
       </c>
       <c r="B575" t="n">
-        <v>237.8257389822892</v>
+        <v>237.825723654139</v>
       </c>
       <c r="C575" t="n">
-        <v>239.9382349359158</v>
+        <v>239.9382194716127</v>
       </c>
       <c r="D575" t="n">
-        <v>236.3709120271811</v>
+        <v>236.3708967927962</v>
       </c>
       <c r="E575" t="n">
-        <v>236.7495574951172</v>
+        <v>236.7495422363281</v>
       </c>
       <c r="F575" t="n">
         <v>55658300</v>
@@ -15441,16 +15441,16 @@
         <v>45691</v>
       </c>
       <c r="B577" t="n">
-        <v>229.1764524471141</v>
+        <v>229.1764370558195</v>
       </c>
       <c r="C577" t="n">
-        <v>231.0099400907586</v>
+        <v>231.0099245763286</v>
       </c>
       <c r="D577" t="n">
-        <v>224.9016191247495</v>
+        <v>224.9016040205491</v>
       </c>
       <c r="E577" t="n">
-        <v>227.2034454345703</v>
+        <v>227.2034301757812</v>
       </c>
       <c r="F577" t="n">
         <v>73063300</v>
@@ -15467,16 +15467,16 @@
         <v>45692</v>
       </c>
       <c r="B578" t="n">
-        <v>226.4461457662662</v>
+        <v>226.44613087125</v>
       </c>
       <c r="C578" t="n">
-        <v>232.3053512351318</v>
+        <v>232.3053359547129</v>
       </c>
       <c r="D578" t="n">
-        <v>225.8482620717564</v>
+        <v>225.8482472160674</v>
       </c>
       <c r="E578" t="n">
-        <v>231.9765167236328</v>
+        <v>231.9765014648438</v>
       </c>
       <c r="F578" t="n">
         <v>45067300</v>
@@ -15493,16 +15493,16 @@
         <v>45693</v>
       </c>
       <c r="B579" t="n">
-        <v>227.7216092681561</v>
+        <v>227.7216242683326</v>
       </c>
       <c r="C579" t="n">
-        <v>231.8469640505294</v>
+        <v>231.8469793224458</v>
       </c>
       <c r="D579" t="n">
-        <v>227.4625344516602</v>
+        <v>227.4625494347713</v>
       </c>
       <c r="E579" t="n">
-        <v>231.6476745605469</v>
+        <v>231.6476898193359</v>
       </c>
       <c r="F579" t="n">
         <v>39620300</v>
@@ -15545,16 +15545,16 @@
         <v>45695</v>
       </c>
       <c r="B581" t="n">
-        <v>231.77721918613</v>
+        <v>231.7772035941854</v>
       </c>
       <c r="C581" t="n">
-        <v>233.1722608185033</v>
+        <v>233.1722451327125</v>
       </c>
       <c r="D581" t="n">
-        <v>226.4560970630751</v>
+        <v>226.4560818290891</v>
       </c>
       <c r="E581" t="n">
-        <v>226.8247985839844</v>
+        <v>226.8247833251953</v>
       </c>
       <c r="F581" t="n">
         <v>39707200</v>
@@ -15597,16 +15597,16 @@
         <v>45699</v>
       </c>
       <c r="B583" t="n">
-        <v>227.6427812183734</v>
+        <v>227.6427961872311</v>
       </c>
       <c r="C583" t="n">
-        <v>234.6556142397685</v>
+        <v>234.6556296697615</v>
       </c>
       <c r="D583" t="n">
-        <v>227.5729600586419</v>
+        <v>227.5729750229086</v>
       </c>
       <c r="E583" t="n">
-        <v>232.0519866943359</v>
+        <v>232.052001953125</v>
       </c>
       <c r="F583" t="n">
         <v>53718400</v>
@@ -15649,16 +15649,16 @@
         <v>45701</v>
       </c>
       <c r="B585" t="n">
-        <v>236.3315173006641</v>
+        <v>236.3315322675825</v>
       </c>
       <c r="C585" t="n">
-        <v>241.7482510314573</v>
+        <v>241.7482663414184</v>
       </c>
       <c r="D585" t="n">
-        <v>234.9947929630853</v>
+        <v>234.9948078453487</v>
       </c>
       <c r="E585" t="n">
-        <v>240.9402313232422</v>
+        <v>240.9402465820312</v>
       </c>
       <c r="F585" t="n">
         <v>53614100</v>
@@ -15753,16 +15753,16 @@
         <v>45708</v>
       </c>
       <c r="B589" t="n">
-        <v>244.3419253345839</v>
+        <v>244.3419101310375</v>
       </c>
       <c r="C589" t="n">
-        <v>246.1774289000594</v>
+        <v>246.1774135823035</v>
       </c>
       <c r="D589" t="n">
-        <v>243.6935033255141</v>
+        <v>243.6934881623141</v>
       </c>
       <c r="E589" t="n">
-        <v>245.2297515869141</v>
+        <v>245.229736328125</v>
       </c>
       <c r="F589" t="n">
         <v>32316900</v>
@@ -15857,16 +15857,16 @@
         <v>45714</v>
       </c>
       <c r="B593" t="n">
-        <v>243.7334092806253</v>
+        <v>243.7333937698084</v>
       </c>
       <c r="C593" t="n">
-        <v>244.3818160551289</v>
+        <v>244.3818005030484</v>
       </c>
       <c r="D593" t="n">
-        <v>238.5461094200037</v>
+        <v>238.5460942392985</v>
       </c>
       <c r="E593" t="n">
-        <v>239.7731018066406</v>
+        <v>239.7730865478516</v>
       </c>
       <c r="F593" t="n">
         <v>44433600</v>
@@ -16091,16 +16091,16 @@
         <v>45727</v>
       </c>
       <c r="B602" t="n">
-        <v>223.2634998242848</v>
+        <v>223.2635152882841</v>
       </c>
       <c r="C602" t="n">
-        <v>225.2885417663285</v>
+        <v>225.2885573705892</v>
       </c>
       <c r="D602" t="n">
-        <v>216.9190290202944</v>
+        <v>216.9190440448537</v>
       </c>
       <c r="E602" t="n">
-        <v>220.3007507324219</v>
+        <v>220.3007659912109</v>
       </c>
       <c r="F602" t="n">
         <v>76137400</v>
@@ -16143,16 +16143,16 @@
         <v>45729</v>
       </c>
       <c r="B604" t="n">
-        <v>215.4226935392329</v>
+        <v>215.4227092543014</v>
       </c>
       <c r="C604" t="n">
-        <v>216.3105197419454</v>
+        <v>216.3105355217808</v>
       </c>
       <c r="D604" t="n">
-        <v>207.9110813961123</v>
+        <v>207.9110965632093</v>
       </c>
       <c r="E604" t="n">
-        <v>209.1679992675781</v>
+        <v>209.1680145263672</v>
       </c>
       <c r="F604" t="n">
         <v>61368300</v>
@@ -16169,16 +16169,16 @@
         <v>45730</v>
       </c>
       <c r="B605" t="n">
-        <v>210.7341683902996</v>
+        <v>210.7341834889886</v>
       </c>
       <c r="C605" t="n">
-        <v>213.4275724686152</v>
+        <v>213.4275877602813</v>
       </c>
       <c r="D605" t="n">
-        <v>209.0682480336321</v>
+        <v>209.0682630129612</v>
       </c>
       <c r="E605" t="n">
-        <v>212.9687042236328</v>
+        <v>212.9687194824219</v>
       </c>
       <c r="F605" t="n">
         <v>60107600</v>
@@ -16221,16 +16221,16 @@
         <v>45734</v>
       </c>
       <c r="B607" t="n">
-        <v>213.6370814211214</v>
+        <v>213.6370660568716</v>
       </c>
       <c r="C607" t="n">
-        <v>214.624654360469</v>
+        <v>214.6246389251954</v>
       </c>
       <c r="D607" t="n">
-        <v>210.973602683452</v>
+        <v>210.9735875107531</v>
       </c>
       <c r="E607" t="n">
-        <v>212.1706695556641</v>
+        <v>212.170654296875</v>
       </c>
       <c r="F607" t="n">
         <v>42432400</v>
@@ -16299,16 +16299,16 @@
         <v>45737</v>
       </c>
       <c r="B610" t="n">
-        <v>211.0434226778215</v>
+        <v>211.0434078881146</v>
       </c>
       <c r="C610" t="n">
-        <v>218.3056455800866</v>
+        <v>218.3056302814506</v>
       </c>
       <c r="D610" t="n">
-        <v>210.7641075832368</v>
+        <v>210.764092813104</v>
       </c>
       <c r="E610" t="n">
-        <v>217.7370452880859</v>
+        <v>217.7370300292969</v>
       </c>
       <c r="F610" t="n">
         <v>94127800</v>
@@ -16377,16 +16377,16 @@
         <v>45742</v>
       </c>
       <c r="B613" t="n">
-        <v>222.9642357514217</v>
+        <v>222.9642203562523</v>
       </c>
       <c r="C613" t="n">
-        <v>224.4705584289048</v>
+        <v>224.4705429297273</v>
       </c>
       <c r="D613" t="n">
-        <v>219.9316654127771</v>
+        <v>219.9316502269997</v>
       </c>
       <c r="E613" t="n">
-        <v>220.9890747070312</v>
+        <v>220.9890594482422</v>
       </c>
       <c r="F613" t="n">
         <v>34466100</v>
@@ -16403,16 +16403,16 @@
         <v>45743</v>
       </c>
       <c r="B614" t="n">
-        <v>220.8494210206779</v>
+        <v>220.8494059295757</v>
       </c>
       <c r="C614" t="n">
-        <v>224.4406368200556</v>
+        <v>224.4406214835582</v>
       </c>
       <c r="D614" t="n">
-        <v>220.0214458441122</v>
+        <v>220.0214308095873</v>
       </c>
       <c r="E614" t="n">
-        <v>223.3034210205078</v>
+        <v>223.3034057617188</v>
       </c>
       <c r="F614" t="n">
         <v>37094800</v>
@@ -16481,16 +16481,16 @@
         <v>45748</v>
       </c>
       <c r="B617" t="n">
-        <v>219.273282935151</v>
+        <v>219.2732679074421</v>
       </c>
       <c r="C617" t="n">
-        <v>223.1338286051108</v>
+        <v>223.1338133128227</v>
       </c>
       <c r="D617" t="n">
-        <v>218.3655012478301</v>
+        <v>218.3654862823353</v>
       </c>
       <c r="E617" t="n">
-        <v>222.6450347900391</v>
+        <v>222.64501953125</v>
       </c>
       <c r="F617" t="n">
         <v>36412700</v>
@@ -16507,16 +16507,16 @@
         <v>45749</v>
       </c>
       <c r="B618" t="n">
-        <v>220.7796058888877</v>
+        <v>220.7795908052514</v>
       </c>
       <c r="C618" t="n">
-        <v>224.6401515625236</v>
+        <v>224.6401362151353</v>
       </c>
       <c r="D618" t="n">
-        <v>220.4803353605096</v>
+        <v>220.4803202973195</v>
       </c>
       <c r="E618" t="n">
-        <v>223.3433227539062</v>
+        <v>223.3433074951172</v>
       </c>
       <c r="F618" t="n">
         <v>35905900</v>
@@ -16533,16 +16533,16 @@
         <v>45750</v>
       </c>
       <c r="B619" t="n">
-        <v>205.0381002304481</v>
+        <v>205.0381156657125</v>
       </c>
       <c r="C619" t="n">
-        <v>206.9833508454915</v>
+        <v>206.9833664271943</v>
       </c>
       <c r="D619" t="n">
-        <v>200.758582364718</v>
+        <v>200.7585974778203</v>
       </c>
       <c r="E619" t="n">
-        <v>202.69384765625</v>
+        <v>202.6938629150391</v>
       </c>
       <c r="F619" t="n">
         <v>103419000</v>
@@ -16611,16 +16611,16 @@
         <v>45755</v>
       </c>
       <c r="B622" t="n">
-        <v>186.2441070957976</v>
+        <v>186.244123618335</v>
       </c>
       <c r="C622" t="n">
-        <v>189.8752182218586</v>
+        <v>189.8752350665279</v>
       </c>
       <c r="D622" t="n">
-        <v>168.7968244629091</v>
+        <v>168.7968394376211</v>
       </c>
       <c r="E622" t="n">
-        <v>171.9989776611328</v>
+        <v>171.9989929199219</v>
       </c>
       <c r="F622" t="n">
         <v>120859500</v>
@@ -16663,16 +16663,16 @@
         <v>45757</v>
       </c>
       <c r="B624" t="n">
-        <v>188.6083378992774</v>
+        <v>188.6083530498886</v>
       </c>
       <c r="C624" t="n">
-        <v>194.3043867491332</v>
+        <v>194.3044023572991</v>
       </c>
       <c r="D624" t="n">
-        <v>182.553152263757</v>
+        <v>182.5531669279647</v>
       </c>
       <c r="E624" t="n">
-        <v>189.9550323486328</v>
+        <v>189.9550476074219</v>
       </c>
       <c r="F624" t="n">
         <v>121880000</v>
@@ -16741,16 +16741,16 @@
         <v>45762</v>
       </c>
       <c r="B627" t="n">
-        <v>201.3670930108916</v>
+        <v>201.3671082485446</v>
       </c>
       <c r="C627" t="n">
-        <v>203.0130579044621</v>
+        <v>203.013073266667</v>
       </c>
       <c r="D627" t="n">
-        <v>199.3121256140358</v>
+        <v>199.3121406961873</v>
       </c>
       <c r="E627" t="n">
-        <v>201.6464080810547</v>
+        <v>201.6464233398438</v>
       </c>
       <c r="F627" t="n">
         <v>51343900</v>
@@ -16819,16 +16819,16 @@
         <v>45768</v>
       </c>
       <c r="B630" t="n">
-        <v>192.7980865081325</v>
+        <v>192.7980712406539</v>
       </c>
       <c r="C630" t="n">
-        <v>193.3267911609043</v>
+        <v>193.3267758515581</v>
       </c>
       <c r="D630" t="n">
-        <v>189.3465282787526</v>
+        <v>189.3465132845993</v>
       </c>
       <c r="E630" t="n">
-        <v>192.6883544921875</v>
+        <v>192.6883392333984</v>
       </c>
       <c r="F630" t="n">
         <v>46742500</v>
@@ -16871,16 +16871,16 @@
         <v>45770</v>
       </c>
       <c r="B632" t="n">
-        <v>205.4969935115097</v>
+        <v>205.4970088747083</v>
       </c>
       <c r="C632" t="n">
-        <v>207.492109953369</v>
+        <v>207.4921254657249</v>
       </c>
       <c r="D632" t="n">
-        <v>202.3048102488409</v>
+        <v>202.3048253733881</v>
       </c>
       <c r="E632" t="n">
-        <v>204.1004180908203</v>
+        <v>204.1004333496094</v>
       </c>
       <c r="F632" t="n">
         <v>52929200</v>
@@ -16975,16 +16975,16 @@
         <v>45776</v>
       </c>
       <c r="B636" t="n">
-        <v>208.1804390437069</v>
+        <v>208.1804239669747</v>
       </c>
       <c r="C636" t="n">
-        <v>211.7217739676401</v>
+        <v>211.7217586344391</v>
       </c>
       <c r="D636" t="n">
-        <v>207.8612130890675</v>
+        <v>207.8611980354541</v>
       </c>
       <c r="E636" t="n">
-        <v>210.6942901611328</v>
+        <v>210.6942749023438</v>
       </c>
       <c r="F636" t="n">
         <v>36827600</v>
@@ -17105,16 +17105,16 @@
         <v>45783</v>
       </c>
       <c r="B641" t="n">
-        <v>197.7260285140605</v>
+        <v>197.7260132783305</v>
       </c>
       <c r="C641" t="n">
-        <v>200.1600578713198</v>
+        <v>200.1600424480363</v>
       </c>
       <c r="D641" t="n">
-        <v>196.538931754607</v>
+        <v>196.5389166103485</v>
       </c>
       <c r="E641" t="n">
-        <v>198.0252838134766</v>
+        <v>198.0252685546875</v>
       </c>
       <c r="F641" t="n">
         <v>51216500</v>
@@ -20003,12 +20003,38 @@
         <v>247.7700042724609</v>
       </c>
       <c r="F752" t="n">
-        <v>35447900</v>
+        <v>35478000</v>
       </c>
       <c r="G752" t="n">
         <v>0</v>
       </c>
       <c r="H752" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" s="2" t="n">
+        <v>45945</v>
+      </c>
+      <c r="B753" t="n">
+        <v>249.3800048828125</v>
+      </c>
+      <c r="C753" t="n">
+        <v>251.8200073242188</v>
+      </c>
+      <c r="D753" t="n">
+        <v>247.4799957275391</v>
+      </c>
+      <c r="E753" t="n">
+        <v>249.3399963378906</v>
+      </c>
+      <c r="F753" t="n">
+        <v>31761708</v>
+      </c>
+      <c r="G753" t="n">
+        <v>0</v>
+      </c>
+      <c r="H753" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20689,237 +20715,237 @@
       </c>
       <c r="EC1" s="1" t="inlineStr">
         <is>
+          <t>corporateActions</t>
+        </is>
+      </c>
+      <c r="ED1" s="1" t="inlineStr">
+        <is>
+          <t>postMarketTime</t>
+        </is>
+      </c>
+      <c r="EE1" s="1" t="inlineStr">
+        <is>
+          <t>regularMarketTime</t>
+        </is>
+      </c>
+      <c r="EF1" s="1" t="inlineStr">
+        <is>
+          <t>shortName</t>
+        </is>
+      </c>
+      <c r="EG1" s="1" t="inlineStr">
+        <is>
+          <t>regularMarketChangePercent</t>
+        </is>
+      </c>
+      <c r="EH1" s="1" t="inlineStr">
+        <is>
+          <t>exchange</t>
+        </is>
+      </c>
+      <c r="EI1" s="1" t="inlineStr">
+        <is>
+          <t>messageBoardId</t>
+        </is>
+      </c>
+      <c r="EJ1" s="1" t="inlineStr">
+        <is>
+          <t>exchangeTimezoneName</t>
+        </is>
+      </c>
+      <c r="EK1" s="1" t="inlineStr">
+        <is>
+          <t>exchangeTimezoneShortName</t>
+        </is>
+      </c>
+      <c r="EL1" s="1" t="inlineStr">
+        <is>
+          <t>gmtOffSetMilliseconds</t>
+        </is>
+      </c>
+      <c r="EM1" s="1" t="inlineStr">
+        <is>
+          <t>market</t>
+        </is>
+      </c>
+      <c r="EN1" s="1" t="inlineStr">
+        <is>
+          <t>esgPopulated</t>
+        </is>
+      </c>
+      <c r="EO1" s="1" t="inlineStr">
+        <is>
+          <t>regularMarketPrice</t>
+        </is>
+      </c>
+      <c r="EP1" s="1" t="inlineStr">
+        <is>
           <t>marketState</t>
         </is>
       </c>
-      <c r="ED1" s="1" t="inlineStr">
-        <is>
-          <t>shortName</t>
-        </is>
-      </c>
-      <c r="EE1" s="1" t="inlineStr">
+      <c r="EQ1" s="1" t="inlineStr">
         <is>
           <t>longName</t>
         </is>
       </c>
-      <c r="EF1" s="1" t="inlineStr">
-        <is>
-          <t>regularMarketChangePercent</t>
-        </is>
-      </c>
-      <c r="EG1" s="1" t="inlineStr">
-        <is>
-          <t>regularMarketPrice</t>
-        </is>
-      </c>
-      <c r="EH1" s="1" t="inlineStr">
+      <c r="ER1" s="1" t="inlineStr">
+        <is>
+          <t>postMarketChangePercent</t>
+        </is>
+      </c>
+      <c r="ES1" s="1" t="inlineStr">
+        <is>
+          <t>postMarketPrice</t>
+        </is>
+      </c>
+      <c r="ET1" s="1" t="inlineStr">
+        <is>
+          <t>postMarketChange</t>
+        </is>
+      </c>
+      <c r="EU1" s="1" t="inlineStr">
+        <is>
+          <t>regularMarketChange</t>
+        </is>
+      </c>
+      <c r="EV1" s="1" t="inlineStr">
+        <is>
+          <t>regularMarketDayRange</t>
+        </is>
+      </c>
+      <c r="EW1" s="1" t="inlineStr">
+        <is>
+          <t>fullExchangeName</t>
+        </is>
+      </c>
+      <c r="EX1" s="1" t="inlineStr">
+        <is>
+          <t>averageDailyVolume3Month</t>
+        </is>
+      </c>
+      <c r="EY1" s="1" t="inlineStr">
+        <is>
+          <t>fiftyTwoWeekLowChange</t>
+        </is>
+      </c>
+      <c r="EZ1" s="1" t="inlineStr">
+        <is>
+          <t>fiftyTwoWeekLowChangePercent</t>
+        </is>
+      </c>
+      <c r="FA1" s="1" t="inlineStr">
+        <is>
+          <t>fiftyTwoWeekRange</t>
+        </is>
+      </c>
+      <c r="FB1" s="1" t="inlineStr">
+        <is>
+          <t>fiftyTwoWeekHighChange</t>
+        </is>
+      </c>
+      <c r="FC1" s="1" t="inlineStr">
+        <is>
+          <t>fiftyTwoWeekHighChangePercent</t>
+        </is>
+      </c>
+      <c r="FD1" s="1" t="inlineStr">
+        <is>
+          <t>fiftyTwoWeekChangePercent</t>
+        </is>
+      </c>
+      <c r="FE1" s="1" t="inlineStr">
+        <is>
+          <t>dividendDate</t>
+        </is>
+      </c>
+      <c r="FF1" s="1" t="inlineStr">
+        <is>
+          <t>earningsTimestamp</t>
+        </is>
+      </c>
+      <c r="FG1" s="1" t="inlineStr">
+        <is>
+          <t>earningsTimestampStart</t>
+        </is>
+      </c>
+      <c r="FH1" s="1" t="inlineStr">
+        <is>
+          <t>earningsTimestampEnd</t>
+        </is>
+      </c>
+      <c r="FI1" s="1" t="inlineStr">
         <is>
           <t>earningsCallTimestampStart</t>
         </is>
       </c>
-      <c r="EI1" s="1" t="inlineStr">
+      <c r="FJ1" s="1" t="inlineStr">
         <is>
           <t>earningsCallTimestampEnd</t>
         </is>
       </c>
-      <c r="EJ1" s="1" t="inlineStr">
+      <c r="FK1" s="1" t="inlineStr">
         <is>
           <t>isEarningsDateEstimate</t>
         </is>
       </c>
-      <c r="EK1" s="1" t="inlineStr">
+      <c r="FL1" s="1" t="inlineStr">
         <is>
           <t>epsTrailingTwelveMonths</t>
         </is>
       </c>
-      <c r="EL1" s="1" t="inlineStr">
+      <c r="FM1" s="1" t="inlineStr">
         <is>
           <t>epsForward</t>
         </is>
       </c>
-      <c r="EM1" s="1" t="inlineStr">
+      <c r="FN1" s="1" t="inlineStr">
         <is>
           <t>epsCurrentYear</t>
         </is>
       </c>
-      <c r="EN1" s="1" t="inlineStr">
+      <c r="FO1" s="1" t="inlineStr">
         <is>
           <t>priceEpsCurrentYear</t>
         </is>
       </c>
-      <c r="EO1" s="1" t="inlineStr">
+      <c r="FP1" s="1" t="inlineStr">
         <is>
           <t>fiftyDayAverageChange</t>
         </is>
       </c>
-      <c r="EP1" s="1" t="inlineStr">
+      <c r="FQ1" s="1" t="inlineStr">
         <is>
           <t>fiftyDayAverageChangePercent</t>
         </is>
       </c>
-      <c r="EQ1" s="1" t="inlineStr">
+      <c r="FR1" s="1" t="inlineStr">
         <is>
           <t>twoHundredDayAverageChange</t>
         </is>
       </c>
-      <c r="ER1" s="1" t="inlineStr">
+      <c r="FS1" s="1" t="inlineStr">
         <is>
           <t>twoHundredDayAverageChangePercent</t>
         </is>
       </c>
-      <c r="ES1" s="1" t="inlineStr">
+      <c r="FT1" s="1" t="inlineStr">
         <is>
           <t>sourceInterval</t>
         </is>
       </c>
-      <c r="ET1" s="1" t="inlineStr">
+      <c r="FU1" s="1" t="inlineStr">
         <is>
           <t>exchangeDataDelayedBy</t>
         </is>
       </c>
-      <c r="EU1" s="1" t="inlineStr">
+      <c r="FV1" s="1" t="inlineStr">
         <is>
           <t>averageAnalystRating</t>
         </is>
       </c>
-      <c r="EV1" s="1" t="inlineStr">
+      <c r="FW1" s="1" t="inlineStr">
         <is>
           <t>cryptoTradeable</t>
-        </is>
-      </c>
-      <c r="EW1" s="1" t="inlineStr">
-        <is>
-          <t>preMarketChange</t>
-        </is>
-      </c>
-      <c r="EX1" s="1" t="inlineStr">
-        <is>
-          <t>preMarketChangePercent</t>
-        </is>
-      </c>
-      <c r="EY1" s="1" t="inlineStr">
-        <is>
-          <t>preMarketPrice</t>
-        </is>
-      </c>
-      <c r="EZ1" s="1" t="inlineStr">
-        <is>
-          <t>regularMarketChange</t>
-        </is>
-      </c>
-      <c r="FA1" s="1" t="inlineStr">
-        <is>
-          <t>regularMarketDayRange</t>
-        </is>
-      </c>
-      <c r="FB1" s="1" t="inlineStr">
-        <is>
-          <t>fullExchangeName</t>
-        </is>
-      </c>
-      <c r="FC1" s="1" t="inlineStr">
-        <is>
-          <t>averageDailyVolume3Month</t>
-        </is>
-      </c>
-      <c r="FD1" s="1" t="inlineStr">
-        <is>
-          <t>fiftyTwoWeekLowChange</t>
-        </is>
-      </c>
-      <c r="FE1" s="1" t="inlineStr">
-        <is>
-          <t>fiftyTwoWeekLowChangePercent</t>
-        </is>
-      </c>
-      <c r="FF1" s="1" t="inlineStr">
-        <is>
-          <t>fiftyTwoWeekRange</t>
-        </is>
-      </c>
-      <c r="FG1" s="1" t="inlineStr">
-        <is>
-          <t>fiftyTwoWeekHighChange</t>
-        </is>
-      </c>
-      <c r="FH1" s="1" t="inlineStr">
-        <is>
-          <t>fiftyTwoWeekHighChangePercent</t>
-        </is>
-      </c>
-      <c r="FI1" s="1" t="inlineStr">
-        <is>
-          <t>fiftyTwoWeekChangePercent</t>
-        </is>
-      </c>
-      <c r="FJ1" s="1" t="inlineStr">
-        <is>
-          <t>dividendDate</t>
-        </is>
-      </c>
-      <c r="FK1" s="1" t="inlineStr">
-        <is>
-          <t>earningsTimestamp</t>
-        </is>
-      </c>
-      <c r="FL1" s="1" t="inlineStr">
-        <is>
-          <t>earningsTimestampStart</t>
-        </is>
-      </c>
-      <c r="FM1" s="1" t="inlineStr">
-        <is>
-          <t>earningsTimestampEnd</t>
-        </is>
-      </c>
-      <c r="FN1" s="1" t="inlineStr">
-        <is>
-          <t>corporateActions</t>
-        </is>
-      </c>
-      <c r="FO1" s="1" t="inlineStr">
-        <is>
-          <t>preMarketTime</t>
-        </is>
-      </c>
-      <c r="FP1" s="1" t="inlineStr">
-        <is>
-          <t>regularMarketTime</t>
-        </is>
-      </c>
-      <c r="FQ1" s="1" t="inlineStr">
-        <is>
-          <t>exchange</t>
-        </is>
-      </c>
-      <c r="FR1" s="1" t="inlineStr">
-        <is>
-          <t>messageBoardId</t>
-        </is>
-      </c>
-      <c r="FS1" s="1" t="inlineStr">
-        <is>
-          <t>exchangeTimezoneName</t>
-        </is>
-      </c>
-      <c r="FT1" s="1" t="inlineStr">
-        <is>
-          <t>exchangeTimezoneShortName</t>
-        </is>
-      </c>
-      <c r="FU1" s="1" t="inlineStr">
-        <is>
-          <t>gmtOffSetMilliseconds</t>
-        </is>
-      </c>
-      <c r="FV1" s="1" t="inlineStr">
-        <is>
-          <t>market</t>
-        </is>
-      </c>
-      <c r="FW1" s="1" t="inlineStr">
-        <is>
-          <t>esgPopulated</t>
         </is>
       </c>
       <c r="FX1" s="1" t="inlineStr">
@@ -21063,28 +21089,28 @@
         <v>2</v>
       </c>
       <c r="AC2" t="n">
-        <v>247.66</v>
+        <v>247.77</v>
       </c>
       <c r="AD2" t="n">
-        <v>246.615</v>
+        <v>249.38</v>
       </c>
       <c r="AE2" t="n">
-        <v>244.7</v>
+        <v>247.48</v>
       </c>
       <c r="AF2" t="n">
-        <v>248.845</v>
+        <v>251.82</v>
       </c>
       <c r="AG2" t="n">
-        <v>247.66</v>
+        <v>247.77</v>
       </c>
       <c r="AH2" t="n">
-        <v>246.615</v>
+        <v>249.38</v>
       </c>
       <c r="AI2" t="n">
-        <v>244.7</v>
+        <v>247.48</v>
       </c>
       <c r="AJ2" t="n">
-        <v>248.845</v>
+        <v>251.82</v>
       </c>
       <c r="AK2" t="n">
         <v>1.04</v>
@@ -21105,16 +21131,16 @@
         <v>1.094</v>
       </c>
       <c r="AQ2" t="n">
-        <v>37.597874</v>
+        <v>37.836113</v>
       </c>
       <c r="AR2" t="n">
-        <v>29.815884</v>
+        <v>30.004812</v>
       </c>
       <c r="AS2" t="n">
-        <v>35410253</v>
+        <v>31755739</v>
       </c>
       <c r="AT2" t="n">
-        <v>35410253</v>
+        <v>31761708</v>
       </c>
       <c r="AU2" t="n">
         <v>54722185</v>
@@ -21126,10 +21152,10 @@
         <v>42752840</v>
       </c>
       <c r="AX2" t="n">
-        <v>247.61</v>
+        <v>249.16</v>
       </c>
       <c r="AY2" t="n">
-        <v>259.04</v>
+        <v>249.57</v>
       </c>
       <c r="AZ2" t="n">
         <v>1</v>
@@ -21138,7 +21164,7 @@
         <v>1</v>
       </c>
       <c r="BB2" t="n">
-        <v>3677003448320</v>
+        <v>3700302807040</v>
       </c>
       <c r="BC2" t="n">
         <v>169.21</v>
@@ -21153,7 +21179,7 @@
         <v>0.049107</v>
       </c>
       <c r="BG2" t="n">
-        <v>8.998479</v>
+        <v>9.055498</v>
       </c>
       <c r="BH2" t="n">
         <v>238.8128</v>
@@ -21165,7 +21191,7 @@
         <v>1.01</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.0040781717</v>
+        <v>0.004076361</v>
       </c>
       <c r="BL2" t="inlineStr">
         <is>
@@ -21176,7 +21202,7 @@
         <v>0</v>
       </c>
       <c r="BN2" t="n">
-        <v>3723329536000</v>
+        <v>3746628894720</v>
       </c>
       <c r="BO2" t="n">
         <v>0.24295999</v>
@@ -21221,7 +21247,7 @@
         <v>4.431</v>
       </c>
       <c r="CC2" t="n">
-        <v>55.917397</v>
+        <v>56.271717</v>
       </c>
       <c r="CD2" t="n">
         <v>1727481600</v>
@@ -21253,10 +21279,10 @@
         <v>1598832000</v>
       </c>
       <c r="CM2" t="n">
-        <v>9.112</v>
+        <v>9.169</v>
       </c>
       <c r="CN2" t="n">
-        <v>26.277</v>
+        <v>26.441</v>
       </c>
       <c r="CO2" t="n">
         <v>0.06898785</v>
@@ -21276,7 +21302,7 @@
         </is>
       </c>
       <c r="CT2" t="n">
-        <v>247.77</v>
+        <v>249.34</v>
       </c>
       <c r="CU2" t="n">
         <v>310</v>
@@ -21398,166 +21424,166 @@
       </c>
       <c r="EC2" t="inlineStr">
         <is>
-          <t>PRE</t>
-        </is>
-      </c>
-      <c r="ED2" t="inlineStr">
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="ED2" t="n">
+        <v>1760569551</v>
+      </c>
+      <c r="EE2" t="n">
+        <v>1760558402</v>
+      </c>
+      <c r="EF2" t="inlineStr">
         <is>
           <t>Apple Inc.</t>
         </is>
       </c>
-      <c r="EE2" t="inlineStr">
+      <c r="EG2" t="n">
+        <v>0.633649</v>
+      </c>
+      <c r="EH2" t="inlineStr">
+        <is>
+          <t>NMS</t>
+        </is>
+      </c>
+      <c r="EI2" t="inlineStr">
+        <is>
+          <t>finmb_24937</t>
+        </is>
+      </c>
+      <c r="EJ2" t="inlineStr">
+        <is>
+          <t>America/New_York</t>
+        </is>
+      </c>
+      <c r="EK2" t="inlineStr">
+        <is>
+          <t>EDT</t>
+        </is>
+      </c>
+      <c r="EL2" t="n">
+        <v>-14400000</v>
+      </c>
+      <c r="EM2" t="inlineStr">
+        <is>
+          <t>us_market</t>
+        </is>
+      </c>
+      <c r="EN2" t="b">
+        <v>0</v>
+      </c>
+      <c r="EO2" t="n">
+        <v>249.34</v>
+      </c>
+      <c r="EP2" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="EQ2" t="inlineStr">
         <is>
           <t>Apple Inc.</t>
         </is>
       </c>
-      <c r="EF2" t="n">
-        <v>0.044416</v>
-      </c>
-      <c r="EG2" t="n">
-        <v>247.77</v>
-      </c>
-      <c r="EH2" t="n">
+      <c r="ER2" t="n">
+        <v>0.02406255</v>
+      </c>
+      <c r="ES2" t="n">
+        <v>249.4</v>
+      </c>
+      <c r="ET2" t="n">
+        <v>0.05999756</v>
+      </c>
+      <c r="EU2" t="n">
+        <v>1.5699921</v>
+      </c>
+      <c r="EV2" t="inlineStr">
+        <is>
+          <t>247.48 - 251.82</t>
+        </is>
+      </c>
+      <c r="EW2" t="inlineStr">
+        <is>
+          <t>NasdaqGS</t>
+        </is>
+      </c>
+      <c r="EX2" t="n">
+        <v>54722185</v>
+      </c>
+      <c r="EY2" t="n">
+        <v>80.12999000000001</v>
+      </c>
+      <c r="EZ2" t="n">
+        <v>0.47355348</v>
+      </c>
+      <c r="FA2" t="inlineStr">
+        <is>
+          <t>169.21 - 260.1</t>
+        </is>
+      </c>
+      <c r="FB2" t="n">
+        <v>-10.76001</v>
+      </c>
+      <c r="FC2" t="n">
+        <v>-0.04136874</v>
+      </c>
+      <c r="FD2" t="n">
+        <v>6.8987846</v>
+      </c>
+      <c r="FE2" t="n">
+        <v>1755129600</v>
+      </c>
+      <c r="FF2" t="n">
+        <v>1761854400</v>
+      </c>
+      <c r="FG2" t="n">
+        <v>1761854400</v>
+      </c>
+      <c r="FH2" t="n">
+        <v>1761854400</v>
+      </c>
+      <c r="FI2" t="n">
         <v>1761858000</v>
       </c>
-      <c r="EI2" t="n">
+      <c r="FJ2" t="n">
         <v>1761858000</v>
       </c>
-      <c r="EJ2" t="b">
-        <v>0</v>
-      </c>
-      <c r="EK2" t="n">
+      <c r="FK2" t="b">
+        <v>0</v>
+      </c>
+      <c r="FL2" t="n">
         <v>6.59</v>
       </c>
-      <c r="EL2" t="n">
+      <c r="FM2" t="n">
         <v>8.31</v>
       </c>
-      <c r="EM2" t="n">
+      <c r="FN2" t="n">
         <v>7.41093</v>
       </c>
-      <c r="EN2" t="n">
-        <v>33.433052</v>
-      </c>
-      <c r="EO2" t="n">
-        <v>8.957198999999999</v>
-      </c>
-      <c r="EP2" t="n">
-        <v>0.0375072</v>
-      </c>
-      <c r="EQ2" t="n">
-        <v>25.605347</v>
-      </c>
-      <c r="ER2" t="n">
-        <v>0.11525392</v>
-      </c>
-      <c r="ES2" t="n">
+      <c r="FO2" t="n">
+        <v>33.644897</v>
+      </c>
+      <c r="FP2" t="n">
+        <v>10.527191</v>
+      </c>
+      <c r="FQ2" t="n">
+        <v>0.044081353</v>
+      </c>
+      <c r="FR2" t="n">
+        <v>27.175339</v>
+      </c>
+      <c r="FS2" t="n">
+        <v>0.12232071</v>
+      </c>
+      <c r="FT2" t="n">
         <v>15</v>
       </c>
-      <c r="ET2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU2" t="inlineStr">
+      <c r="FU2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FV2" t="inlineStr">
         <is>
           <t>2.1 - Buy</t>
-        </is>
-      </c>
-      <c r="EV2" t="b">
-        <v>0</v>
-      </c>
-      <c r="EW2" t="n">
-        <v>2.2299957</v>
-      </c>
-      <c r="EX2" t="n">
-        <v>0.9000265</v>
-      </c>
-      <c r="EY2" t="n">
-        <v>250</v>
-      </c>
-      <c r="EZ2" t="n">
-        <v>0.110001</v>
-      </c>
-      <c r="FA2" t="inlineStr">
-        <is>
-          <t>244.7 - 248.845</t>
-        </is>
-      </c>
-      <c r="FB2" t="inlineStr">
-        <is>
-          <t>NasdaqGS</t>
-        </is>
-      </c>
-      <c r="FC2" t="n">
-        <v>54722185</v>
-      </c>
-      <c r="FD2" t="n">
-        <v>78.56</v>
-      </c>
-      <c r="FE2" t="n">
-        <v>0.46427512</v>
-      </c>
-      <c r="FF2" t="inlineStr">
-        <is>
-          <t>169.21 - 260.1</t>
-        </is>
-      </c>
-      <c r="FG2" t="n">
-        <v>-12.330002</v>
-      </c>
-      <c r="FH2" t="n">
-        <v>-0.04740485</v>
-      </c>
-      <c r="FI2" t="n">
-        <v>6.8987846</v>
-      </c>
-      <c r="FJ2" t="n">
-        <v>1755129600</v>
-      </c>
-      <c r="FK2" t="n">
-        <v>1761854400</v>
-      </c>
-      <c r="FL2" t="n">
-        <v>1761854400</v>
-      </c>
-      <c r="FM2" t="n">
-        <v>1761854400</v>
-      </c>
-      <c r="FN2" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="FO2" t="n">
-        <v>1760532415</v>
-      </c>
-      <c r="FP2" t="n">
-        <v>1760472001</v>
-      </c>
-      <c r="FQ2" t="inlineStr">
-        <is>
-          <t>NMS</t>
-        </is>
-      </c>
-      <c r="FR2" t="inlineStr">
-        <is>
-          <t>finmb_24937</t>
-        </is>
-      </c>
-      <c r="FS2" t="inlineStr">
-        <is>
-          <t>America/New_York</t>
-        </is>
-      </c>
-      <c r="FT2" t="inlineStr">
-        <is>
-          <t>EDT</t>
-        </is>
-      </c>
-      <c r="FU2" t="n">
-        <v>-14400000</v>
-      </c>
-      <c r="FV2" t="inlineStr">
-        <is>
-          <t>us_market</t>
         </is>
       </c>
       <c r="FW2" t="b">
@@ -21629,7 +21655,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>247.77</v>
+        <v>249.34</v>
       </c>
       <c r="C2" t="n">
         <v>310</v>

--- a/data/raw.xlsx
+++ b/data/raw.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H753"/>
+  <dimension ref="A1:H754"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,16 +491,16 @@
         <v>44851</v>
       </c>
       <c r="B2" t="n">
-        <v>138.877727115997</v>
+        <v>138.8777573464222</v>
       </c>
       <c r="C2" t="n">
-        <v>140.6792750185568</v>
+        <v>140.6793056411368</v>
       </c>
       <c r="D2" t="n">
-        <v>138.0901564082232</v>
+        <v>138.0901864672128</v>
       </c>
       <c r="E2" t="n">
-        <v>140.1968994140625</v>
+        <v>140.1969299316406</v>
       </c>
       <c r="F2" t="n">
         <v>85250900</v>
@@ -543,16 +543,16 @@
         <v>44853</v>
       </c>
       <c r="B4" t="n">
-        <v>139.488128680181</v>
+        <v>139.488113651557</v>
       </c>
       <c r="C4" t="n">
-        <v>142.6974626164569</v>
+        <v>142.6974472420552</v>
       </c>
       <c r="D4" t="n">
-        <v>139.3010788916303</v>
+        <v>139.3010638831592</v>
       </c>
       <c r="E4" t="n">
-        <v>141.6244049072266</v>
+        <v>141.6243896484375</v>
       </c>
       <c r="F4" t="n">
         <v>61758300</v>
@@ -569,16 +569,16 @@
         <v>44854</v>
       </c>
       <c r="B5" t="n">
-        <v>140.7974672692939</v>
+        <v>140.7974520498777</v>
       </c>
       <c r="C5" t="n">
-        <v>143.6228625392131</v>
+        <v>143.6228470143876</v>
       </c>
       <c r="D5" t="n">
-        <v>140.4332068704366</v>
+        <v>140.4331916903949</v>
       </c>
       <c r="E5" t="n">
-        <v>141.1617126464844</v>
+        <v>141.1616973876953</v>
       </c>
       <c r="F5" t="n">
         <v>64522000</v>
@@ -595,16 +595,16 @@
         <v>44855</v>
       </c>
       <c r="B6" t="n">
-        <v>140.6497821885837</v>
+        <v>140.6497969914835</v>
       </c>
       <c r="C6" t="n">
-        <v>145.5524033439164</v>
+        <v>145.5524186628001</v>
       </c>
       <c r="D6" t="n">
-        <v>140.4331998071835</v>
+        <v>140.4332145872888</v>
       </c>
       <c r="E6" t="n">
-        <v>144.9814147949219</v>
+        <v>144.9814300537109</v>
       </c>
       <c r="F6" t="n">
         <v>86548600</v>
@@ -621,16 +621,16 @@
         <v>44858</v>
       </c>
       <c r="B7" t="n">
-        <v>144.9026739617267</v>
+        <v>144.9026589336822</v>
       </c>
       <c r="C7" t="n">
-        <v>147.8954258380758</v>
+        <v>147.8954104996491</v>
       </c>
       <c r="D7" t="n">
-        <v>143.7311641246412</v>
+        <v>143.7311492180955</v>
       </c>
       <c r="E7" t="n">
-        <v>147.1275482177734</v>
+        <v>147.1275329589844</v>
       </c>
       <c r="F7" t="n">
         <v>75981900</v>
@@ -699,16 +699,16 @@
         <v>44861</v>
       </c>
       <c r="B10" t="n">
-        <v>145.7689929509145</v>
+        <v>145.7689773475377</v>
       </c>
       <c r="C10" t="n">
-        <v>146.7337595020957</v>
+        <v>146.7337437954485</v>
       </c>
       <c r="D10" t="n">
-        <v>141.8902183193285</v>
+        <v>141.8902031311427</v>
       </c>
       <c r="E10" t="n">
-        <v>142.5498046875</v>
+        <v>142.5497894287109</v>
       </c>
       <c r="F10" t="n">
         <v>109180200</v>
@@ -725,16 +725,16 @@
         <v>44862</v>
       </c>
       <c r="B11" t="n">
-        <v>145.8969284350716</v>
+        <v>145.8969429551204</v>
       </c>
       <c r="C11" t="n">
-        <v>155.0524068941037</v>
+        <v>155.05242232533</v>
       </c>
       <c r="D11" t="n">
-        <v>145.5228439538041</v>
+        <v>145.5228584366232</v>
       </c>
       <c r="E11" t="n">
-        <v>153.3197631835938</v>
+        <v>153.3197784423828</v>
       </c>
       <c r="F11" t="n">
         <v>164762400</v>
@@ -777,16 +777,16 @@
         <v>44866</v>
       </c>
       <c r="B13" t="n">
-        <v>152.6700332965796</v>
+        <v>152.6700490040681</v>
       </c>
       <c r="C13" t="n">
-        <v>153.0342786292701</v>
+        <v>153.034294374234</v>
       </c>
       <c r="D13" t="n">
-        <v>146.8125002718361</v>
+        <v>146.8125153766711</v>
       </c>
       <c r="E13" t="n">
-        <v>148.3088684082031</v>
+        <v>148.3088836669922</v>
       </c>
       <c r="F13" t="n">
         <v>80379300</v>
@@ -803,16 +803,16 @@
         <v>44867</v>
       </c>
       <c r="B14" t="n">
-        <v>146.6352955105258</v>
+        <v>146.6352798393088</v>
       </c>
       <c r="C14" t="n">
-        <v>149.8052575126474</v>
+        <v>149.80524150265</v>
       </c>
       <c r="D14" t="n">
-        <v>142.7466820050657</v>
+        <v>142.7466667494328</v>
       </c>
       <c r="E14" t="n">
-        <v>142.7762145996094</v>
+        <v>142.7761993408203</v>
       </c>
       <c r="F14" t="n">
         <v>93604600</v>
@@ -855,16 +855,16 @@
         <v>44869</v>
       </c>
       <c r="B16" t="n">
-        <v>140.1139633386229</v>
+        <v>140.1139476707432</v>
       </c>
       <c r="C16" t="n">
-        <v>140.6858991355631</v>
+        <v>140.685883403728</v>
       </c>
       <c r="D16" t="n">
-        <v>132.5111940521138</v>
+        <v>132.5111792343939</v>
       </c>
       <c r="E16" t="n">
-        <v>136.45556640625</v>
+        <v>136.4555511474609</v>
       </c>
       <c r="F16" t="n">
         <v>140814800</v>
@@ -881,16 +881,16 @@
         <v>44872</v>
       </c>
       <c r="B17" t="n">
-        <v>135.2032111952328</v>
+        <v>135.2032262552141</v>
       </c>
       <c r="C17" t="n">
-        <v>137.2148342852633</v>
+        <v>137.2148495693147</v>
       </c>
       <c r="D17" t="n">
-        <v>133.7832348744654</v>
+        <v>133.7832497762788</v>
       </c>
       <c r="E17" t="n">
-        <v>136.988037109375</v>
+        <v>136.9880523681641</v>
       </c>
       <c r="F17" t="n">
         <v>83374600</v>
@@ -907,16 +907,16 @@
         <v>44873</v>
       </c>
       <c r="B18" t="n">
-        <v>138.4572998817349</v>
+        <v>138.4573305983891</v>
       </c>
       <c r="C18" t="n">
-        <v>139.4631037493987</v>
+        <v>139.4631346891898</v>
       </c>
       <c r="D18" t="n">
-        <v>135.5779105819191</v>
+        <v>135.5779406597828</v>
       </c>
       <c r="E18" t="n">
-        <v>137.5599517822266</v>
+        <v>137.5599822998047</v>
       </c>
       <c r="F18" t="n">
         <v>89908500</v>
@@ -985,16 +985,16 @@
         <v>44876</v>
       </c>
       <c r="B21" t="n">
-        <v>143.7921025619685</v>
+        <v>143.7920728353582</v>
       </c>
       <c r="C21" t="n">
-        <v>147.9238199974</v>
+        <v>147.9237894166263</v>
       </c>
       <c r="D21" t="n">
-        <v>142.3622555346949</v>
+        <v>142.3622261036816</v>
       </c>
       <c r="E21" t="n">
-        <v>147.6181335449219</v>
+        <v>147.6181030273438</v>
       </c>
       <c r="F21" t="n">
         <v>93979700</v>
@@ -1063,16 +1063,16 @@
         <v>44881</v>
       </c>
       <c r="B24" t="n">
-        <v>147.0560777875908</v>
+        <v>147.0560472002746</v>
       </c>
       <c r="C24" t="n">
-        <v>147.7857770962833</v>
+        <v>147.7857463571914</v>
       </c>
       <c r="D24" t="n">
-        <v>145.2416549375143</v>
+        <v>145.2416247275937</v>
       </c>
       <c r="E24" t="n">
-        <v>146.7207946777344</v>
+        <v>146.7207641601562</v>
       </c>
       <c r="F24" t="n">
         <v>64218300</v>
@@ -1089,16 +1089,16 @@
         <v>44882</v>
       </c>
       <c r="B25" t="n">
-        <v>144.3935698429272</v>
+        <v>144.3935846673988</v>
       </c>
       <c r="C25" t="n">
-        <v>149.3733417806034</v>
+        <v>149.3733571163338</v>
       </c>
       <c r="D25" t="n">
-        <v>144.1174650466656</v>
+        <v>144.1174798427903</v>
       </c>
       <c r="E25" t="n">
-        <v>148.6239166259766</v>
+        <v>148.6239318847656</v>
       </c>
       <c r="F25" t="n">
         <v>80389400</v>
@@ -1115,16 +1115,16 @@
         <v>44883</v>
       </c>
       <c r="B26" t="n">
-        <v>150.1917929970783</v>
+        <v>150.1918083587428</v>
       </c>
       <c r="C26" t="n">
-        <v>150.5763685898691</v>
+        <v>150.5763839908681</v>
       </c>
       <c r="D26" t="n">
-        <v>147.8843394403333</v>
+        <v>147.8843545659908</v>
       </c>
       <c r="E26" t="n">
-        <v>149.1859741210938</v>
+        <v>149.1859893798828</v>
       </c>
       <c r="F26" t="n">
         <v>74829600</v>
@@ -1141,16 +1141,16 @@
         <v>44886</v>
       </c>
       <c r="B27" t="n">
-        <v>148.0717387637062</v>
+        <v>148.0717232832663</v>
       </c>
       <c r="C27" t="n">
-        <v>148.2788098819842</v>
+        <v>148.2787943798957</v>
       </c>
       <c r="D27" t="n">
-        <v>145.6656692693307</v>
+        <v>145.6656540404379</v>
       </c>
       <c r="E27" t="n">
-        <v>145.9516296386719</v>
+        <v>145.9516143798828</v>
       </c>
       <c r="F27" t="n">
         <v>58724100</v>
@@ -1167,16 +1167,16 @@
         <v>44887</v>
       </c>
       <c r="B28" t="n">
-        <v>146.0699371216803</v>
+        <v>146.0699521721837</v>
       </c>
       <c r="C28" t="n">
-        <v>148.3280831035096</v>
+        <v>148.3280983866841</v>
       </c>
       <c r="D28" t="n">
-        <v>144.8866136770819</v>
+        <v>144.8866286056601</v>
       </c>
       <c r="E28" t="n">
-        <v>148.0914154052734</v>
+        <v>148.0914306640625</v>
       </c>
       <c r="F28" t="n">
         <v>51804100</v>
@@ -1219,16 +1219,16 @@
         <v>44890</v>
       </c>
       <c r="B30" t="n">
-        <v>146.2474627997565</v>
+        <v>146.2474322409697</v>
       </c>
       <c r="C30" t="n">
-        <v>146.8095430796873</v>
+        <v>146.8095124034524</v>
       </c>
       <c r="D30" t="n">
-        <v>145.0740096229913</v>
+        <v>145.0739793094005</v>
       </c>
       <c r="E30" t="n">
-        <v>146.0502471923828</v>
+        <v>146.0502166748047</v>
       </c>
       <c r="F30" t="n">
         <v>35195900</v>
@@ -1245,16 +1245,16 @@
         <v>44893</v>
       </c>
       <c r="B31" t="n">
-        <v>143.1215286500031</v>
+        <v>143.1215132938763</v>
       </c>
       <c r="C31" t="n">
-        <v>144.6006680593858</v>
+        <v>144.6006525445557</v>
       </c>
       <c r="D31" t="n">
-        <v>141.3860104930978</v>
+        <v>141.3859953231822</v>
       </c>
       <c r="E31" t="n">
-        <v>142.2143249511719</v>
+        <v>142.2143096923828</v>
       </c>
       <c r="F31" t="n">
         <v>69246000</v>
@@ -1271,16 +1271,16 @@
         <v>44894</v>
       </c>
       <c r="B32" t="n">
-        <v>142.2833621487803</v>
+        <v>142.2833777448035</v>
       </c>
       <c r="C32" t="n">
-        <v>142.7961347571396</v>
+        <v>142.796150409369</v>
       </c>
       <c r="D32" t="n">
-        <v>138.3981681003324</v>
+        <v>138.3981832704901</v>
       </c>
       <c r="E32" t="n">
-        <v>139.2067565917969</v>
+        <v>139.2067718505859</v>
       </c>
       <c r="F32" t="n">
         <v>83763800</v>
@@ -1297,16 +1297,16 @@
         <v>44895</v>
       </c>
       <c r="B33" t="n">
-        <v>139.4335572359168</v>
+        <v>139.4335280851677</v>
       </c>
       <c r="C33" t="n">
-        <v>146.6517658940868</v>
+        <v>146.6517352342591</v>
       </c>
       <c r="D33" t="n">
-        <v>138.5953871353937</v>
+        <v>138.595358159877</v>
       </c>
       <c r="E33" t="n">
-        <v>145.9713592529297</v>
+        <v>145.9713287353516</v>
       </c>
       <c r="F33" t="n">
         <v>111380900</v>
@@ -1323,16 +1323,16 @@
         <v>44896</v>
       </c>
       <c r="B34" t="n">
-        <v>146.1488515092609</v>
+        <v>146.1488362607593</v>
       </c>
       <c r="C34" t="n">
-        <v>147.0560552721051</v>
+        <v>147.05603992895</v>
       </c>
       <c r="D34" t="n">
-        <v>144.5710966759583</v>
+        <v>144.5710815920725</v>
       </c>
       <c r="E34" t="n">
-        <v>146.2474517822266</v>
+        <v>146.2474365234375</v>
       </c>
       <c r="F34" t="n">
         <v>71250400</v>
@@ -1349,16 +1349,16 @@
         <v>44897</v>
       </c>
       <c r="B35" t="n">
-        <v>143.9301617623625</v>
+        <v>143.9301466945525</v>
       </c>
       <c r="C35" t="n">
-        <v>145.9417851534385</v>
+        <v>145.941769875035</v>
       </c>
       <c r="D35" t="n">
-        <v>143.6244602489213</v>
+        <v>143.6244452131147</v>
       </c>
       <c r="E35" t="n">
-        <v>145.7544250488281</v>
+        <v>145.7544097900391</v>
       </c>
       <c r="F35" t="n">
         <v>65447400</v>
@@ -1427,16 +1427,16 @@
         <v>44902</v>
       </c>
       <c r="B38" t="n">
-        <v>140.2125508081495</v>
+        <v>140.2125662022691</v>
       </c>
       <c r="C38" t="n">
-        <v>141.3761331990733</v>
+        <v>141.3761487209441</v>
       </c>
       <c r="D38" t="n">
-        <v>138.0530049658729</v>
+        <v>138.0530201228931</v>
       </c>
       <c r="E38" t="n">
-        <v>138.9799346923828</v>
+        <v>138.9799499511719</v>
       </c>
       <c r="F38" t="n">
         <v>69721100</v>
@@ -1479,16 +1479,16 @@
         <v>44904</v>
       </c>
       <c r="B40" t="n">
-        <v>140.3604729146931</v>
+        <v>140.3604881928017</v>
       </c>
       <c r="C40" t="n">
-        <v>143.5455641134062</v>
+        <v>143.5455797382091</v>
       </c>
       <c r="D40" t="n">
-        <v>138.9404965983084</v>
+        <v>138.9405117218539</v>
       </c>
       <c r="E40" t="n">
-        <v>140.1829833984375</v>
+        <v>140.1829986572266</v>
       </c>
       <c r="F40" t="n">
         <v>76097000</v>
@@ -1505,16 +1505,16 @@
         <v>44907</v>
       </c>
       <c r="B41" t="n">
-        <v>140.715445687667</v>
+        <v>140.7154607574232</v>
       </c>
       <c r="C41" t="n">
-        <v>142.4904158143947</v>
+        <v>142.4904310742392</v>
       </c>
       <c r="D41" t="n">
-        <v>139.0982540270001</v>
+        <v>139.0982689235651</v>
       </c>
       <c r="E41" t="n">
-        <v>142.4805603027344</v>
+        <v>142.4805755615234</v>
       </c>
       <c r="F41" t="n">
         <v>70462700</v>
@@ -1531,16 +1531,16 @@
         <v>44908</v>
       </c>
       <c r="B42" t="n">
-        <v>147.420898645852</v>
+        <v>147.4209300088677</v>
       </c>
       <c r="C42" t="n">
-        <v>147.8843635443182</v>
+        <v>147.8843950059336</v>
       </c>
       <c r="D42" t="n">
-        <v>142.2340550534105</v>
+        <v>142.2340853129527</v>
       </c>
       <c r="E42" t="n">
-        <v>143.4469451904297</v>
+        <v>143.4469757080078</v>
       </c>
       <c r="F42" t="n">
         <v>93886200</v>
@@ -1557,16 +1557,16 @@
         <v>44909</v>
       </c>
       <c r="B43" t="n">
-        <v>143.3286376736575</v>
+        <v>143.3286221868551</v>
       </c>
       <c r="C43" t="n">
-        <v>144.6204172233284</v>
+        <v>144.6204015969479</v>
       </c>
       <c r="D43" t="n">
-        <v>139.1969051895986</v>
+        <v>139.196890149234</v>
       </c>
       <c r="E43" t="n">
-        <v>141.2183990478516</v>
+        <v>141.2183837890625</v>
       </c>
       <c r="F43" t="n">
         <v>82291200</v>
@@ -1583,16 +1583,16 @@
         <v>44910</v>
       </c>
       <c r="B44" t="n">
-        <v>139.147557792699</v>
+        <v>139.1475735668216</v>
       </c>
       <c r="C44" t="n">
-        <v>139.8279642428258</v>
+        <v>139.827980094081</v>
       </c>
       <c r="D44" t="n">
-        <v>134.1382044845264</v>
+        <v>134.1382196907759</v>
       </c>
       <c r="E44" t="n">
-        <v>134.6016693115234</v>
+        <v>134.6016845703125</v>
       </c>
       <c r="F44" t="n">
         <v>98931900</v>
@@ -1635,16 +1635,16 @@
         <v>44914</v>
       </c>
       <c r="B46" t="n">
-        <v>133.2310293361574</v>
+        <v>133.2310137615175</v>
       </c>
       <c r="C46" t="n">
-        <v>133.3197740973112</v>
+        <v>133.3197585122971</v>
       </c>
       <c r="D46" t="n">
-        <v>129.4937433883553</v>
+        <v>129.4937282506023</v>
       </c>
       <c r="E46" t="n">
-        <v>130.5291290283203</v>
+        <v>130.5291137695312</v>
       </c>
       <c r="F46" t="n">
         <v>79592600</v>
@@ -1661,16 +1661,16 @@
         <v>44915</v>
       </c>
       <c r="B47" t="n">
-        <v>129.5627500848686</v>
+        <v>129.5627349310346</v>
       </c>
       <c r="C47" t="n">
-        <v>131.3968835452244</v>
+        <v>131.3968681768677</v>
       </c>
       <c r="D47" t="n">
-        <v>128.0836106828586</v>
+        <v>128.0835957020267</v>
       </c>
       <c r="E47" t="n">
-        <v>130.4600982666016</v>
+        <v>130.4600830078125</v>
       </c>
       <c r="F47" t="n">
         <v>77432800</v>
@@ -1687,16 +1687,16 @@
         <v>44916</v>
       </c>
       <c r="B48" t="n">
-        <v>131.130633442134</v>
+        <v>131.1306184615969</v>
       </c>
       <c r="C48" t="n">
-        <v>134.9073711645486</v>
+        <v>134.907355752552</v>
       </c>
       <c r="D48" t="n">
-        <v>130.9038362815823</v>
+        <v>130.9038213269548</v>
       </c>
       <c r="E48" t="n">
-        <v>133.5662841796875</v>
+        <v>133.5662689208984</v>
       </c>
       <c r="F48" t="n">
         <v>85928000</v>
@@ -1791,16 +1791,16 @@
         <v>44923</v>
       </c>
       <c r="B52" t="n">
-        <v>127.8666619686782</v>
+        <v>127.8666698178021</v>
       </c>
       <c r="C52" t="n">
-        <v>129.2077488876003</v>
+        <v>129.2077568190471</v>
       </c>
       <c r="D52" t="n">
-        <v>124.1195135379303</v>
+        <v>124.1195211570346</v>
       </c>
       <c r="E52" t="n">
-        <v>124.2871475219727</v>
+        <v>124.2871551513672</v>
       </c>
       <c r="F52" t="n">
         <v>85438400</v>
@@ -1817,16 +1817,16 @@
         <v>44924</v>
       </c>
       <c r="B53" t="n">
-        <v>126.2100521251047</v>
+        <v>126.2100219889675</v>
       </c>
       <c r="C53" t="n">
-        <v>128.6654218057281</v>
+        <v>128.6653910833035</v>
       </c>
       <c r="D53" t="n">
-        <v>125.953673339202</v>
+        <v>125.9536432642823</v>
       </c>
       <c r="E53" t="n">
-        <v>127.8075256347656</v>
+        <v>127.8074951171875</v>
       </c>
       <c r="F53" t="n">
         <v>75703700</v>
@@ -1869,16 +1869,16 @@
         <v>44929</v>
       </c>
       <c r="B55" t="n">
-        <v>128.4681939201586</v>
+        <v>128.4681859729489</v>
       </c>
       <c r="C55" t="n">
-        <v>129.0795667608916</v>
+        <v>129.0795587758616</v>
       </c>
       <c r="D55" t="n">
-        <v>122.44316513126</v>
+        <v>122.4431575567665</v>
       </c>
       <c r="E55" t="n">
-        <v>123.3306503295898</v>
+        <v>123.3306427001953</v>
       </c>
       <c r="F55" t="n">
         <v>112117500</v>
@@ -1895,16 +1895,16 @@
         <v>44930</v>
       </c>
       <c r="B56" t="n">
-        <v>125.1253426351517</v>
+        <v>125.1253349737568</v>
       </c>
       <c r="C56" t="n">
-        <v>126.8707314926083</v>
+        <v>126.8707237243436</v>
       </c>
       <c r="D56" t="n">
-        <v>123.3405166774151</v>
+        <v>123.3405091253046</v>
       </c>
       <c r="E56" t="n">
-        <v>124.6027145385742</v>
+        <v>124.6027069091797</v>
       </c>
       <c r="F56" t="n">
         <v>89113600</v>
@@ -1921,16 +1921,16 @@
         <v>44931</v>
       </c>
       <c r="B57" t="n">
-        <v>125.3619905927354</v>
+        <v>125.3619983508935</v>
       </c>
       <c r="C57" t="n">
-        <v>125.9930894615927</v>
+        <v>125.993097258807</v>
       </c>
       <c r="D57" t="n">
-        <v>123.0249551801298</v>
+        <v>123.024962793658</v>
       </c>
       <c r="E57" t="n">
-        <v>123.2813339233398</v>
+        <v>123.2813415527344</v>
       </c>
       <c r="F57" t="n">
         <v>80962700</v>
@@ -1947,16 +1947,16 @@
         <v>44932</v>
       </c>
       <c r="B58" t="n">
-        <v>124.2575862258678</v>
+        <v>124.2575565582222</v>
       </c>
       <c r="C58" t="n">
-        <v>128.4780557151071</v>
+        <v>128.4780250397854</v>
       </c>
       <c r="D58" t="n">
-        <v>123.1531593113585</v>
+        <v>123.153129907405</v>
       </c>
       <c r="E58" t="n">
-        <v>127.8173751831055</v>
+        <v>127.8173446655273</v>
       </c>
       <c r="F58" t="n">
         <v>87754700</v>
@@ -1999,16 +1999,16 @@
         <v>44936</v>
       </c>
       <c r="B60" t="n">
-        <v>128.4484765863662</v>
+        <v>128.4484613824357</v>
       </c>
       <c r="C60" t="n">
-        <v>129.4345696464241</v>
+        <v>129.4345543257736</v>
       </c>
       <c r="D60" t="n">
-        <v>126.3382380397058</v>
+        <v>126.3382230855557</v>
       </c>
       <c r="E60" t="n">
-        <v>128.9119415283203</v>
+        <v>128.9119262695312</v>
       </c>
       <c r="F60" t="n">
         <v>63896200</v>
@@ -2025,16 +2025,16 @@
         <v>44937</v>
       </c>
       <c r="B61" t="n">
-        <v>129.4246914378982</v>
+        <v>129.4246614324149</v>
       </c>
       <c r="C61" t="n">
-        <v>131.6532559460779</v>
+        <v>131.65322542393</v>
       </c>
       <c r="D61" t="n">
-        <v>128.6456846775496</v>
+        <v>128.6456548526692</v>
       </c>
       <c r="E61" t="n">
-        <v>131.633544921875</v>
+        <v>131.6335144042969</v>
       </c>
       <c r="F61" t="n">
         <v>69458900</v>
@@ -2051,16 +2051,16 @@
         <v>44938</v>
       </c>
       <c r="B62" t="n">
-        <v>132.0181371602223</v>
+        <v>132.0181065351313</v>
       </c>
       <c r="C62" t="n">
-        <v>132.392842272817</v>
+        <v>132.3928115608032</v>
       </c>
       <c r="D62" t="n">
-        <v>129.6120678053339</v>
+        <v>129.6120377383942</v>
       </c>
       <c r="E62" t="n">
-        <v>131.5546722412109</v>
+        <v>131.5546417236328</v>
       </c>
       <c r="F62" t="n">
         <v>71379600</v>
@@ -2103,16 +2103,16 @@
         <v>44943</v>
       </c>
       <c r="B64" t="n">
-        <v>132.9549355599529</v>
+        <v>132.9549204257575</v>
       </c>
       <c r="C64" t="n">
-        <v>135.380716179594</v>
+        <v>135.3807007692732</v>
       </c>
       <c r="D64" t="n">
-        <v>132.2646733936561</v>
+        <v>132.2646583380329</v>
       </c>
       <c r="E64" t="n">
-        <v>134.0494995117188</v>
+        <v>134.0494842529297</v>
       </c>
       <c r="F64" t="n">
         <v>63646600</v>
@@ -2155,16 +2155,16 @@
         <v>44945</v>
       </c>
       <c r="B66" t="n">
-        <v>132.2153409591543</v>
+        <v>132.215371208262</v>
       </c>
       <c r="C66" t="n">
-        <v>134.3551607970847</v>
+        <v>134.3551915357547</v>
       </c>
       <c r="D66" t="n">
-        <v>131.9096545603905</v>
+        <v>131.9096847395612</v>
       </c>
       <c r="E66" t="n">
-        <v>133.3887939453125</v>
+        <v>133.3888244628906</v>
       </c>
       <c r="F66" t="n">
         <v>58280400</v>
@@ -2207,16 +2207,16 @@
         <v>44949</v>
       </c>
       <c r="B68" t="n">
-        <v>136.199144603035</v>
+        <v>136.1991744739706</v>
       </c>
       <c r="C68" t="n">
-        <v>141.3268396476381</v>
+        <v>141.3268706431699</v>
       </c>
       <c r="D68" t="n">
-        <v>135.9822029643826</v>
+        <v>135.982232787739</v>
       </c>
       <c r="E68" t="n">
-        <v>139.1475677490234</v>
+        <v>139.1475982666016</v>
       </c>
       <c r="F68" t="n">
         <v>81760300</v>
@@ -2233,16 +2233,16 @@
         <v>44950</v>
       </c>
       <c r="B69" t="n">
-        <v>138.3586785631998</v>
+        <v>138.3586935843229</v>
       </c>
       <c r="C69" t="n">
-        <v>141.169049065949</v>
+        <v>141.1690643921843</v>
       </c>
       <c r="D69" t="n">
-        <v>138.348823051955</v>
+        <v>138.348838072008</v>
       </c>
       <c r="E69" t="n">
-        <v>140.5478057861328</v>
+        <v>140.5478210449219</v>
       </c>
       <c r="F69" t="n">
         <v>66435100</v>
@@ -2259,16 +2259,16 @@
         <v>44951</v>
       </c>
       <c r="B70" t="n">
-        <v>138.930619479783</v>
+        <v>138.9306497886899</v>
       </c>
       <c r="C70" t="n">
-        <v>140.4491958312912</v>
+        <v>140.4492264714887</v>
       </c>
       <c r="D70" t="n">
-        <v>136.8795445691478</v>
+        <v>136.8795744305952</v>
       </c>
       <c r="E70" t="n">
-        <v>139.8871307373047</v>
+        <v>139.8871612548828</v>
       </c>
       <c r="F70" t="n">
         <v>65799300</v>
@@ -2285,16 +2285,16 @@
         <v>44952</v>
       </c>
       <c r="B71" t="n">
-        <v>141.17890975078</v>
+        <v>141.1788945757265</v>
       </c>
       <c r="C71" t="n">
-        <v>142.2438918209566</v>
+        <v>142.2438765314302</v>
       </c>
       <c r="D71" t="n">
-        <v>139.9265676340099</v>
+        <v>139.9265525935683</v>
       </c>
       <c r="E71" t="n">
-        <v>141.9579315185547</v>
+        <v>141.9579162597656</v>
       </c>
       <c r="F71" t="n">
         <v>54105100</v>
@@ -2337,16 +2337,16 @@
         <v>44956</v>
       </c>
       <c r="B73" t="n">
-        <v>142.9440557695909</v>
+        <v>142.9440403016597</v>
       </c>
       <c r="C73" t="n">
-        <v>143.5258470604382</v>
+        <v>143.5258315295515</v>
       </c>
       <c r="D73" t="n">
-        <v>140.863398823187</v>
+        <v>140.863383580403</v>
       </c>
       <c r="E73" t="n">
-        <v>141.0113067626953</v>
+        <v>141.0112915039062</v>
       </c>
       <c r="F73" t="n">
         <v>64015300</v>
@@ -2363,16 +2363,16 @@
         <v>44957</v>
       </c>
       <c r="B74" t="n">
-        <v>140.7154563263628</v>
+        <v>140.7154412357172</v>
       </c>
       <c r="C74" t="n">
-        <v>142.3326481092963</v>
+        <v>142.3326328452193</v>
       </c>
       <c r="D74" t="n">
-        <v>140.301299106578</v>
+        <v>140.3012840603476</v>
       </c>
       <c r="E74" t="n">
-        <v>142.2833404541016</v>
+        <v>142.2833251953125</v>
       </c>
       <c r="F74" t="n">
         <v>65874500</v>
@@ -2441,16 +2441,16 @@
         <v>44960</v>
       </c>
       <c r="B77" t="n">
-        <v>145.9713560245738</v>
+        <v>145.9713414047775</v>
       </c>
       <c r="C77" t="n">
-        <v>155.1913322525213</v>
+        <v>155.1913167092961</v>
       </c>
       <c r="D77" t="n">
-        <v>145.7741404197881</v>
+        <v>145.774125819744</v>
       </c>
       <c r="E77" t="n">
-        <v>152.3513793945312</v>
+        <v>152.3513641357422</v>
       </c>
       <c r="F77" t="n">
         <v>154357300</v>
@@ -2467,16 +2467,16 @@
         <v>44963</v>
       </c>
       <c r="B78" t="n">
-        <v>150.4482025268204</v>
+        <v>150.4481871835553</v>
       </c>
       <c r="C78" t="n">
-        <v>150.9708305654832</v>
+        <v>150.9708151689185</v>
       </c>
       <c r="D78" t="n">
-        <v>148.6830877915313</v>
+        <v>148.6830726282791</v>
       </c>
       <c r="E78" t="n">
-        <v>149.619873046875</v>
+        <v>149.6198577880859</v>
       </c>
       <c r="F78" t="n">
         <v>69858300</v>
@@ -2493,16 +2493,16 @@
         <v>44964</v>
       </c>
       <c r="B79" t="n">
-        <v>148.5450254313191</v>
+        <v>148.5450551575921</v>
       </c>
       <c r="C79" t="n">
-        <v>153.071187974496</v>
+        <v>153.0712186065277</v>
       </c>
       <c r="D79" t="n">
-        <v>148.5450254313191</v>
+        <v>148.5450551575921</v>
       </c>
       <c r="E79" t="n">
-        <v>152.4992523193359</v>
+        <v>152.4992828369141</v>
       </c>
       <c r="F79" t="n">
         <v>83322600</v>
@@ -2519,16 +2519,16 @@
         <v>44965</v>
       </c>
       <c r="B80" t="n">
-        <v>151.7399999315323</v>
+        <v>151.7399844758809</v>
       </c>
       <c r="C80" t="n">
-        <v>152.4302620416696</v>
+        <v>152.4302465157107</v>
       </c>
       <c r="D80" t="n">
-        <v>149.0676812057185</v>
+        <v>149.0676660222592</v>
       </c>
       <c r="E80" t="n">
-        <v>149.8072509765625</v>
+        <v>149.8072357177734</v>
       </c>
       <c r="F80" t="n">
         <v>64120100</v>
@@ -2545,16 +2545,16 @@
         <v>44966</v>
       </c>
       <c r="B81" t="n">
-        <v>151.6413538075322</v>
+        <v>151.6413693606351</v>
       </c>
       <c r="C81" t="n">
-        <v>152.1837078719676</v>
+        <v>152.1837234806971</v>
       </c>
       <c r="D81" t="n">
-        <v>148.3280813053058</v>
+        <v>148.3280965185828</v>
       </c>
       <c r="E81" t="n">
-        <v>148.7718200683594</v>
+        <v>148.7718353271484</v>
       </c>
       <c r="F81" t="n">
         <v>56007100</v>
@@ -2571,16 +2571,16 @@
         <v>44967</v>
       </c>
       <c r="B82" t="n">
-        <v>147.6064870984758</v>
+        <v>147.606471996305</v>
       </c>
       <c r="C82" t="n">
-        <v>149.4631621400803</v>
+        <v>149.4631468479462</v>
       </c>
       <c r="D82" t="n">
-        <v>147.3694580195322</v>
+        <v>147.3694429416128</v>
       </c>
       <c r="E82" t="n">
-        <v>149.1372528076172</v>
+        <v>149.1372375488281</v>
       </c>
       <c r="F82" t="n">
         <v>57450700</v>
@@ -2597,16 +2597,16 @@
         <v>44970</v>
       </c>
       <c r="B83" t="n">
-        <v>149.0779872325639</v>
+        <v>149.0780171748983</v>
       </c>
       <c r="C83" t="n">
-        <v>152.3469357834477</v>
+        <v>152.3469663823508</v>
       </c>
       <c r="D83" t="n">
-        <v>149.04836048379</v>
+        <v>149.0483904201738</v>
       </c>
       <c r="E83" t="n">
-        <v>151.9420318603516</v>
+        <v>151.9420623779297</v>
       </c>
       <c r="F83" t="n">
         <v>62199000</v>
@@ -2649,16 +2649,16 @@
         <v>44972</v>
       </c>
       <c r="B85" t="n">
-        <v>151.2112014683867</v>
+        <v>151.2111864276787</v>
       </c>
       <c r="C85" t="n">
-        <v>153.5715611952289</v>
+        <v>153.5715459197401</v>
       </c>
       <c r="D85" t="n">
-        <v>150.9840580410787</v>
+        <v>150.9840430229642</v>
       </c>
       <c r="E85" t="n">
-        <v>153.4036712646484</v>
+        <v>153.4036560058594</v>
       </c>
       <c r="F85" t="n">
         <v>65573800</v>
@@ -2675,16 +2675,16 @@
         <v>44973</v>
       </c>
       <c r="B86" t="n">
-        <v>151.6062554560653</v>
+        <v>151.6062402171314</v>
       </c>
       <c r="C86" t="n">
-        <v>154.3912907376896</v>
+        <v>154.3912752188136</v>
       </c>
       <c r="D86" t="n">
-        <v>151.4482511331435</v>
+        <v>151.4482359100917</v>
       </c>
       <c r="E86" t="n">
-        <v>151.8037872314453</v>
+        <v>151.8037719726562</v>
       </c>
       <c r="F86" t="n">
         <v>68167900</v>
@@ -2701,16 +2701,16 @@
         <v>44974</v>
       </c>
       <c r="B87" t="n">
-        <v>150.460610180833</v>
+        <v>150.4606406584018</v>
       </c>
       <c r="C87" t="n">
-        <v>151.1025430614422</v>
+        <v>151.102573669042</v>
       </c>
       <c r="D87" t="n">
-        <v>148.9792126998385</v>
+        <v>148.9792428773327</v>
       </c>
       <c r="E87" t="n">
-        <v>150.6581268310547</v>
+        <v>150.6581573486328</v>
       </c>
       <c r="F87" t="n">
         <v>59144100</v>
@@ -2805,16 +2805,16 @@
         <v>44981</v>
       </c>
       <c r="B91" t="n">
-        <v>145.2856125866983</v>
+        <v>145.2855972863073</v>
       </c>
       <c r="C91" t="n">
-        <v>145.3646222732227</v>
+        <v>145.364606964511</v>
       </c>
       <c r="D91" t="n">
-        <v>143.912851306144</v>
+        <v>143.9128361503219</v>
       </c>
       <c r="E91" t="n">
-        <v>144.8905792236328</v>
+        <v>144.8905639648438</v>
       </c>
       <c r="F91" t="n">
         <v>55469600</v>
@@ -2909,16 +2909,16 @@
         <v>44987</v>
       </c>
       <c r="B95" t="n">
-        <v>142.5895001496668</v>
+        <v>142.58948505088</v>
       </c>
       <c r="C95" t="n">
-        <v>144.8906068486696</v>
+        <v>144.8905915062189</v>
       </c>
       <c r="D95" t="n">
-        <v>142.1154419401355</v>
+        <v>142.1154268915466</v>
       </c>
       <c r="E95" t="n">
-        <v>144.1005249023438</v>
+        <v>144.1005096435547</v>
       </c>
       <c r="F95" t="n">
         <v>52238100</v>
@@ -2935,16 +2935,16 @@
         <v>44988</v>
       </c>
       <c r="B96" t="n">
-        <v>146.2040727914785</v>
+        <v>146.2041027048871</v>
       </c>
       <c r="C96" t="n">
-        <v>149.2360073676502</v>
+        <v>149.2360379013938</v>
       </c>
       <c r="D96" t="n">
-        <v>145.5028863075063</v>
+        <v>145.5029160774519</v>
       </c>
       <c r="E96" t="n">
-        <v>149.1569976806641</v>
+        <v>149.1570281982422</v>
       </c>
       <c r="F96" t="n">
         <v>70732300</v>
@@ -2961,16 +2961,16 @@
         <v>44991</v>
       </c>
       <c r="B97" t="n">
-        <v>151.8827746062918</v>
+        <v>151.8827898611123</v>
       </c>
       <c r="C97" t="n">
-        <v>154.3616566151018</v>
+        <v>154.3616721188966</v>
       </c>
       <c r="D97" t="n">
-        <v>151.5568803455041</v>
+        <v>151.5568955675924</v>
       </c>
       <c r="E97" t="n">
-        <v>151.9222869873047</v>
+        <v>151.9223022460938</v>
       </c>
       <c r="F97" t="n">
         <v>87558000</v>
@@ -2987,16 +2987,16 @@
         <v>44992</v>
       </c>
       <c r="B98" t="n">
-        <v>151.7938880153904</v>
+        <v>151.793903485547</v>
       </c>
       <c r="C98" t="n">
-        <v>152.1197973321281</v>
+        <v>152.1198128355</v>
       </c>
       <c r="D98" t="n">
-        <v>149.2557676801529</v>
+        <v>149.2557828916356</v>
       </c>
       <c r="E98" t="n">
-        <v>149.7199401855469</v>
+        <v>149.7199554443359</v>
       </c>
       <c r="F98" t="n">
         <v>56182000</v>
@@ -3013,16 +3013,16 @@
         <v>44993</v>
       </c>
       <c r="B99" t="n">
-        <v>150.9149286283649</v>
+        <v>150.9149591339657</v>
       </c>
       <c r="C99" t="n">
-        <v>151.5667472734343</v>
+        <v>151.5667779107922</v>
       </c>
       <c r="D99" t="n">
-        <v>149.9470862905562</v>
+        <v>149.9471166005195</v>
       </c>
       <c r="E99" t="n">
-        <v>150.9741821289062</v>
+        <v>150.9742126464844</v>
       </c>
       <c r="F99" t="n">
         <v>47204800</v>
@@ -3039,16 +3039,16 @@
         <v>44994</v>
       </c>
       <c r="B100" t="n">
-        <v>151.6556578225743</v>
+        <v>151.6556422628448</v>
       </c>
       <c r="C100" t="n">
-        <v>152.6235003537422</v>
+        <v>152.6234846947129</v>
       </c>
       <c r="D100" t="n">
-        <v>148.3669522594847</v>
+        <v>148.3669370371733</v>
       </c>
       <c r="E100" t="n">
-        <v>148.7224884033203</v>
+        <v>148.7224731445312</v>
       </c>
       <c r="F100" t="n">
         <v>53833600</v>
@@ -3065,16 +3065,16 @@
         <v>44995</v>
       </c>
       <c r="B101" t="n">
-        <v>148.3471709649887</v>
+        <v>148.3472018339828</v>
       </c>
       <c r="C101" t="n">
-        <v>149.0681136196498</v>
+        <v>149.068144638662</v>
       </c>
       <c r="D101" t="n">
-        <v>145.7794089470896</v>
+        <v>145.7794392817679</v>
       </c>
       <c r="E101" t="n">
-        <v>146.6583709716797</v>
+        <v>146.6584014892578</v>
       </c>
       <c r="F101" t="n">
         <v>68572400</v>
@@ -3091,16 +3091,16 @@
         <v>44998</v>
       </c>
       <c r="B102" t="n">
-        <v>145.9769423152844</v>
+        <v>145.9769573043291</v>
       </c>
       <c r="C102" t="n">
-        <v>151.2408445051467</v>
+        <v>151.2408600346937</v>
       </c>
       <c r="D102" t="n">
-        <v>145.8683058697316</v>
+        <v>145.8683208476214</v>
       </c>
       <c r="E102" t="n">
-        <v>148.6039581298828</v>
+        <v>148.6039733886719</v>
       </c>
       <c r="F102" t="n">
         <v>84457100</v>
@@ -3169,16 +3169,16 @@
         <v>45001</v>
       </c>
       <c r="B105" t="n">
-        <v>150.2730102530188</v>
+        <v>150.2729953555065</v>
       </c>
       <c r="C105" t="n">
-        <v>154.5196873503704</v>
+        <v>154.5196720318581</v>
       </c>
       <c r="D105" t="n">
-        <v>149.7594547490333</v>
+        <v>149.7594399024329</v>
       </c>
       <c r="E105" t="n">
-        <v>153.9172515869141</v>
+        <v>153.917236328125</v>
       </c>
       <c r="F105" t="n">
         <v>76161100</v>
@@ -3221,16 +3221,16 @@
         <v>45005</v>
       </c>
       <c r="B107" t="n">
-        <v>153.1468917675855</v>
+        <v>153.1469068004993</v>
       </c>
       <c r="C107" t="n">
-        <v>155.8627873790452</v>
+        <v>155.8628026785515</v>
       </c>
       <c r="D107" t="n">
-        <v>152.2382879745427</v>
+        <v>152.2383029182678</v>
       </c>
       <c r="E107" t="n">
-        <v>155.4479827880859</v>
+        <v>155.447998046875</v>
       </c>
       <c r="F107" t="n">
         <v>73641400</v>
@@ -3273,16 +3273,16 @@
         <v>45007</v>
       </c>
       <c r="B109" t="n">
-        <v>157.3244825372324</v>
+        <v>157.3244517354188</v>
       </c>
       <c r="C109" t="n">
-        <v>160.12925934644</v>
+        <v>160.1292279954925</v>
       </c>
       <c r="D109" t="n">
-        <v>155.8529549873333</v>
+        <v>155.8529244736231</v>
       </c>
       <c r="E109" t="n">
-        <v>155.8727111816406</v>
+        <v>155.8726806640625</v>
       </c>
       <c r="F109" t="n">
         <v>75701800</v>
@@ -3299,16 +3299,16 @@
         <v>45008</v>
       </c>
       <c r="B110" t="n">
-        <v>156.8602945873959</v>
+        <v>156.8602793382069</v>
       </c>
       <c r="C110" t="n">
-        <v>159.5465641072527</v>
+        <v>159.5465485969178</v>
       </c>
       <c r="D110" t="n">
-        <v>155.7245471039558</v>
+        <v>155.7245319651787</v>
       </c>
       <c r="E110" t="n">
-        <v>156.9590454101562</v>
+        <v>156.9590301513672</v>
       </c>
       <c r="F110" t="n">
         <v>67622100</v>
@@ -3325,16 +3325,16 @@
         <v>45009</v>
       </c>
       <c r="B111" t="n">
-        <v>156.8899185642958</v>
+        <v>156.8898883114254</v>
       </c>
       <c r="C111" t="n">
-        <v>158.35156031349</v>
+        <v>158.3515297787732</v>
       </c>
       <c r="D111" t="n">
-        <v>155.892449375582</v>
+        <v>155.8924193150522</v>
       </c>
       <c r="E111" t="n">
-        <v>158.2626800537109</v>
+        <v>158.2626495361328</v>
       </c>
       <c r="F111" t="n">
         <v>59196500</v>
@@ -3351,16 +3351,16 @@
         <v>45012</v>
       </c>
       <c r="B112" t="n">
-        <v>157.9565254779494</v>
+        <v>157.9564792214904</v>
       </c>
       <c r="C112" t="n">
-        <v>158.7762341397757</v>
+        <v>158.7761876432707</v>
       </c>
       <c r="D112" t="n">
-        <v>155.9121891039564</v>
+        <v>155.9121434461669</v>
       </c>
       <c r="E112" t="n">
-        <v>156.3171081542969</v>
+        <v>156.3170623779297</v>
       </c>
       <c r="F112" t="n">
         <v>52390300</v>
@@ -3377,16 +3377,16 @@
         <v>45013</v>
       </c>
       <c r="B113" t="n">
-        <v>156.0109698517284</v>
+        <v>156.0109545619661</v>
       </c>
       <c r="C113" t="n">
-        <v>156.5245254018124</v>
+        <v>156.5245100617194</v>
       </c>
       <c r="D113" t="n">
-        <v>154.0456429884017</v>
+        <v>154.0456278912501</v>
       </c>
       <c r="E113" t="n">
-        <v>155.6949310302734</v>
+        <v>155.6949157714844</v>
       </c>
       <c r="F113" t="n">
         <v>45992200</v>
@@ -3403,16 +3403,16 @@
         <v>45014</v>
       </c>
       <c r="B114" t="n">
-        <v>157.3935676619232</v>
+        <v>157.3935525360099</v>
       </c>
       <c r="C114" t="n">
-        <v>159.0527409732352</v>
+        <v>159.0527256878713</v>
       </c>
       <c r="D114" t="n">
-        <v>157.3738265420621</v>
+        <v>157.3738114180461</v>
       </c>
       <c r="E114" t="n">
-        <v>158.7762145996094</v>
+        <v>158.7761993408203</v>
       </c>
       <c r="F114" t="n">
         <v>51305700</v>
@@ -3455,16 +3455,16 @@
         <v>45016</v>
       </c>
       <c r="B116" t="n">
-        <v>160.425541782971</v>
+        <v>160.4254966894993</v>
       </c>
       <c r="C116" t="n">
-        <v>162.95379214697</v>
+        <v>162.953746342841</v>
       </c>
       <c r="D116" t="n">
-        <v>159.902115656185</v>
+        <v>159.9020707098414</v>
       </c>
       <c r="E116" t="n">
-        <v>162.8550262451172</v>
+        <v>162.85498046875</v>
       </c>
       <c r="F116" t="n">
         <v>68749800</v>
@@ -3507,16 +3507,16 @@
         <v>45020</v>
       </c>
       <c r="B118" t="n">
-        <v>164.5339300837739</v>
+        <v>164.5339454319251</v>
       </c>
       <c r="C118" t="n">
-        <v>164.7709440993611</v>
+        <v>164.7709594696216</v>
       </c>
       <c r="D118" t="n">
-        <v>163.0624027689168</v>
+        <v>163.0624179798</v>
       </c>
       <c r="E118" t="n">
-        <v>163.5759582519531</v>
+        <v>163.5759735107422</v>
       </c>
       <c r="F118" t="n">
         <v>46278300</v>
@@ -3533,16 +3533,16 @@
         <v>45021</v>
       </c>
       <c r="B119" t="n">
-        <v>162.6969987129814</v>
+        <v>162.6969833628771</v>
       </c>
       <c r="C119" t="n">
-        <v>163.0031518677089</v>
+        <v>163.0031364887197</v>
       </c>
       <c r="D119" t="n">
-        <v>159.7934564192093</v>
+        <v>159.7934413430479</v>
       </c>
       <c r="E119" t="n">
-        <v>161.7291412353516</v>
+        <v>161.7291259765625</v>
       </c>
       <c r="F119" t="n">
         <v>51511700</v>
@@ -3559,16 +3559,16 @@
         <v>45022</v>
       </c>
       <c r="B120" t="n">
-        <v>160.415655443406</v>
+        <v>160.4156253391313</v>
       </c>
       <c r="C120" t="n">
-        <v>162.9142941093</v>
+        <v>162.9142635361202</v>
       </c>
       <c r="D120" t="n">
-        <v>159.9909952203462</v>
+        <v>159.9909651957649</v>
       </c>
       <c r="E120" t="n">
-        <v>162.6180114746094</v>
+        <v>162.6179809570312</v>
       </c>
       <c r="F120" t="n">
         <v>45390100</v>
@@ -3611,16 +3611,16 @@
         <v>45027</v>
       </c>
       <c r="B122" t="n">
-        <v>160.3366279084897</v>
+        <v>160.3366587202366</v>
       </c>
       <c r="C122" t="n">
-        <v>160.3464984687819</v>
+        <v>160.3465292824256</v>
       </c>
       <c r="D122" t="n">
-        <v>158.5194351543605</v>
+        <v>158.5194656168991</v>
       </c>
       <c r="E122" t="n">
-        <v>158.8058471679688</v>
+        <v>158.8058776855469</v>
       </c>
       <c r="F122" t="n">
         <v>47644200</v>
@@ -3637,16 +3637,16 @@
         <v>45028</v>
       </c>
       <c r="B123" t="n">
-        <v>159.2206226490325</v>
+        <v>159.220638014566</v>
       </c>
       <c r="C123" t="n">
-        <v>160.0502017268714</v>
+        <v>160.0502171724631</v>
       </c>
       <c r="D123" t="n">
-        <v>157.798478475848</v>
+        <v>157.7984937041379</v>
       </c>
       <c r="E123" t="n">
-        <v>158.1145172119141</v>
+        <v>158.1145324707031</v>
       </c>
       <c r="F123" t="n">
         <v>50133100</v>
@@ -3663,16 +3663,16 @@
         <v>45029</v>
       </c>
       <c r="B124" t="n">
-        <v>159.625550544249</v>
+        <v>159.6255803374139</v>
       </c>
       <c r="C124" t="n">
-        <v>163.7438344852104</v>
+        <v>163.7438650470286</v>
       </c>
       <c r="D124" t="n">
-        <v>159.4181482284268</v>
+        <v>159.4181779828813</v>
       </c>
       <c r="E124" t="n">
-        <v>163.5068054199219</v>
+        <v>163.5068359375</v>
       </c>
       <c r="F124" t="n">
         <v>68445600</v>
@@ -3689,16 +3689,16 @@
         <v>45030</v>
       </c>
       <c r="B125" t="n">
-        <v>162.5488571823505</v>
+        <v>162.5488267793007</v>
       </c>
       <c r="C125" t="n">
-        <v>164.2574136863755</v>
+        <v>164.2573829637581</v>
       </c>
       <c r="D125" t="n">
-        <v>161.7884170766324</v>
+        <v>161.7883868158149</v>
       </c>
       <c r="E125" t="n">
-        <v>163.1611785888672</v>
+        <v>163.1611480712891</v>
       </c>
       <c r="F125" t="n">
         <v>49386500</v>
@@ -3741,16 +3741,16 @@
         <v>45034</v>
       </c>
       <c r="B127" t="n">
-        <v>164.0401109685465</v>
+        <v>164.0401261934215</v>
       </c>
       <c r="C127" t="n">
-        <v>165.3338625458121</v>
+        <v>165.3338778907626</v>
       </c>
       <c r="D127" t="n">
-        <v>163.5956796039106</v>
+        <v>163.5956947875371</v>
       </c>
       <c r="E127" t="n">
-        <v>164.405517578125</v>
+        <v>164.4055328369141</v>
       </c>
       <c r="F127" t="n">
         <v>49923000</v>
@@ -3767,16 +3767,16 @@
         <v>45035</v>
       </c>
       <c r="B128" t="n">
-        <v>163.7438554233859</v>
+        <v>163.7438403311756</v>
       </c>
       <c r="C128" t="n">
-        <v>166.0745887866408</v>
+        <v>166.0745734796078</v>
       </c>
       <c r="D128" t="n">
-        <v>163.4870701357651</v>
+        <v>163.4870550672227</v>
       </c>
       <c r="E128" t="n">
-        <v>165.5511627197266</v>
+        <v>165.5511474609375</v>
       </c>
       <c r="F128" t="n">
         <v>47720200</v>
@@ -3871,16 +3871,16 @@
         <v>45041</v>
       </c>
       <c r="B132" t="n">
-        <v>163.1414017604714</v>
+        <v>163.1414171515646</v>
       </c>
       <c r="C132" t="n">
-        <v>164.2475072794641</v>
+        <v>164.2475227749096</v>
       </c>
       <c r="D132" t="n">
-        <v>161.6995012921638</v>
+        <v>161.6995165472252</v>
       </c>
       <c r="E132" t="n">
-        <v>161.739013671875</v>
+        <v>161.7390289306641</v>
       </c>
       <c r="F132" t="n">
         <v>48714100</v>
@@ -3897,16 +3897,16 @@
         <v>45042</v>
       </c>
       <c r="B133" t="n">
-        <v>161.0378252295865</v>
+        <v>161.0378100360216</v>
       </c>
       <c r="C133" t="n">
-        <v>163.2302953261262</v>
+        <v>163.2302799257066</v>
       </c>
       <c r="D133" t="n">
-        <v>160.7810550187477</v>
+        <v>160.7810398494085</v>
       </c>
       <c r="E133" t="n">
-        <v>161.7291412353516</v>
+        <v>161.7291259765625</v>
       </c>
       <c r="F133" t="n">
         <v>45498800</v>
@@ -3923,16 +3923,16 @@
         <v>45043</v>
       </c>
       <c r="B134" t="n">
-        <v>163.1414036936249</v>
+        <v>163.1414186606658</v>
       </c>
       <c r="C134" t="n">
-        <v>166.4696059197472</v>
+        <v>166.4696211921265</v>
       </c>
       <c r="D134" t="n">
-        <v>163.1414036936249</v>
+        <v>163.1414186606658</v>
       </c>
       <c r="E134" t="n">
-        <v>166.3214721679688</v>
+        <v>166.3214874267578</v>
       </c>
       <c r="F134" t="n">
         <v>64902300</v>
@@ -3975,16 +3975,16 @@
         <v>45047</v>
       </c>
       <c r="B136" t="n">
-        <v>167.1806632999127</v>
+        <v>167.180693761707</v>
       </c>
       <c r="C136" t="n">
-        <v>168.3361516703904</v>
+        <v>168.3361823427249</v>
       </c>
       <c r="D136" t="n">
-        <v>166.5486008988935</v>
+        <v>166.5486312455205</v>
       </c>
       <c r="E136" t="n">
-        <v>167.48681640625</v>
+        <v>167.4868469238281</v>
       </c>
       <c r="F136" t="n">
         <v>52472900</v>
@@ -4001,16 +4001,16 @@
         <v>45048</v>
       </c>
       <c r="B137" t="n">
-        <v>167.9806712447888</v>
+        <v>167.9806250474325</v>
       </c>
       <c r="C137" t="n">
-        <v>168.2374565696184</v>
+        <v>168.237410301642</v>
       </c>
       <c r="D137" t="n">
-        <v>165.4622913662944</v>
+        <v>165.4622458615326</v>
       </c>
       <c r="E137" t="n">
-        <v>166.4498901367188</v>
+        <v>166.4498443603516</v>
       </c>
       <c r="F137" t="n">
         <v>48425700</v>
@@ -4053,16 +4053,16 @@
         <v>45050</v>
       </c>
       <c r="B139" t="n">
-        <v>162.8451454886932</v>
+        <v>162.8451303127368</v>
       </c>
       <c r="C139" t="n">
-        <v>164.9684766195609</v>
+        <v>164.9684612457258</v>
       </c>
       <c r="D139" t="n">
-        <v>162.2723364468385</v>
+        <v>162.2723213242636</v>
       </c>
       <c r="E139" t="n">
-        <v>163.7339782714844</v>
+        <v>163.7339630126953</v>
       </c>
       <c r="F139" t="n">
         <v>81235400</v>
@@ -4105,16 +4105,16 @@
         <v>45054</v>
       </c>
       <c r="B141" t="n">
-        <v>170.3409881875394</v>
+        <v>170.3410033566223</v>
       </c>
       <c r="C141" t="n">
-        <v>171.6940084046762</v>
+        <v>171.6940236942472</v>
       </c>
       <c r="D141" t="n">
-        <v>169.9755815580898</v>
+        <v>169.9755966946327</v>
       </c>
       <c r="E141" t="n">
-        <v>171.3483428955078</v>
+        <v>171.3483581542969</v>
       </c>
       <c r="F141" t="n">
         <v>55962800</v>
@@ -4157,16 +4157,16 @@
         <v>45056</v>
       </c>
       <c r="B143" t="n">
-        <v>170.8743266381514</v>
+        <v>170.8742962155219</v>
       </c>
       <c r="C143" t="n">
-        <v>171.8717958729345</v>
+        <v>171.8717652727146</v>
       </c>
       <c r="D143" t="n">
-        <v>169.7682058769857</v>
+        <v>169.768175651291</v>
       </c>
       <c r="E143" t="n">
-        <v>171.4076232910156</v>
+        <v>171.4075927734375</v>
       </c>
       <c r="F143" t="n">
         <v>53724500</v>
@@ -4209,16 +4209,16 @@
         <v>45058</v>
       </c>
       <c r="B145" t="n">
-        <v>171.704050300418</v>
+        <v>171.7040349487881</v>
       </c>
       <c r="C145" t="n">
-        <v>172.1391971928053</v>
+        <v>172.1391818022699</v>
       </c>
       <c r="D145" t="n">
-        <v>169.1129675562631</v>
+        <v>169.1129524362954</v>
       </c>
       <c r="E145" t="n">
-        <v>170.6656494140625</v>
+        <v>170.6656341552734</v>
       </c>
       <c r="F145" t="n">
         <v>45533100</v>
@@ -4235,16 +4235,16 @@
         <v>45061</v>
       </c>
       <c r="B146" t="n">
-        <v>171.2490949935239</v>
+        <v>171.2491410598665</v>
       </c>
       <c r="C146" t="n">
-        <v>171.2985462361859</v>
+        <v>171.2985923158309</v>
       </c>
       <c r="D146" t="n">
-        <v>169.5777425881936</v>
+        <v>169.5777882049392</v>
       </c>
       <c r="E146" t="n">
-        <v>170.1711273193359</v>
+        <v>170.1711730957031</v>
       </c>
       <c r="F146" t="n">
         <v>37266700</v>
@@ -4261,16 +4261,16 @@
         <v>45062</v>
       </c>
       <c r="B147" t="n">
-        <v>170.0920083491569</v>
+        <v>170.092054104241</v>
       </c>
       <c r="C147" t="n">
-        <v>171.229311478379</v>
+        <v>171.2293575393998</v>
       </c>
       <c r="D147" t="n">
-        <v>169.9041026812818</v>
+        <v>169.9041483858189</v>
       </c>
       <c r="E147" t="n">
-        <v>170.1711273193359</v>
+        <v>170.1711730957031</v>
       </c>
       <c r="F147" t="n">
         <v>42110300</v>
@@ -4391,16 +4391,16 @@
         <v>45069</v>
       </c>
       <c r="B152" t="n">
-        <v>171.2194449613945</v>
+        <v>171.2194295629667</v>
       </c>
       <c r="C152" t="n">
-        <v>171.4666861098558</v>
+        <v>171.4666706891927</v>
       </c>
       <c r="D152" t="n">
-        <v>169.3898544266195</v>
+        <v>169.3898391927339</v>
       </c>
       <c r="E152" t="n">
-        <v>169.6667633056641</v>
+        <v>169.666748046875</v>
       </c>
       <c r="F152" t="n">
         <v>50747300</v>
@@ -4443,16 +4443,16 @@
         <v>45071</v>
       </c>
       <c r="B154" t="n">
-        <v>170.5074075741986</v>
+        <v>170.5073923665693</v>
       </c>
       <c r="C154" t="n">
-        <v>171.9809553195606</v>
+        <v>171.9809399805049</v>
       </c>
       <c r="D154" t="n">
-        <v>169.7953517828598</v>
+        <v>169.795336638739</v>
       </c>
       <c r="E154" t="n">
-        <v>171.0810089111328</v>
+        <v>171.0809936523438</v>
       </c>
       <c r="F154" t="n">
         <v>56058300</v>
@@ -4469,16 +4469,16 @@
         <v>45072</v>
       </c>
       <c r="B155" t="n">
-        <v>171.4073332194312</v>
+        <v>171.407363369959</v>
       </c>
       <c r="C155" t="n">
-        <v>173.8302932098977</v>
+        <v>173.8303237866238</v>
       </c>
       <c r="D155" t="n">
-        <v>171.1996440360653</v>
+        <v>171.1996741500605</v>
       </c>
       <c r="E155" t="n">
-        <v>173.4940338134766</v>
+        <v>173.4940643310547</v>
       </c>
       <c r="F155" t="n">
         <v>54835000</v>
@@ -4521,16 +4521,16 @@
         <v>45077</v>
       </c>
       <c r="B157" t="n">
-        <v>175.3731100748192</v>
+        <v>175.373079543467</v>
       </c>
       <c r="C157" t="n">
-        <v>177.3708229714976</v>
+        <v>177.3707920923561</v>
       </c>
       <c r="D157" t="n">
-        <v>174.8093929588125</v>
+        <v>174.8093625255998</v>
       </c>
       <c r="E157" t="n">
-        <v>175.2939910888672</v>
+        <v>175.2939605712891</v>
       </c>
       <c r="F157" t="n">
         <v>99625300</v>
@@ -4547,16 +4547,16 @@
         <v>45078</v>
       </c>
       <c r="B158" t="n">
-        <v>175.7390359450839</v>
+        <v>175.7389907762213</v>
       </c>
       <c r="C158" t="n">
-        <v>178.1323288685677</v>
+        <v>178.1322830845752</v>
       </c>
       <c r="D158" t="n">
-        <v>174.9775288497558</v>
+        <v>174.9774838766175</v>
       </c>
       <c r="E158" t="n">
-        <v>178.1026611328125</v>
+        <v>178.1026153564453</v>
       </c>
       <c r="F158" t="n">
         <v>68901800</v>
@@ -4573,16 +4573,16 @@
         <v>45079</v>
       </c>
       <c r="B159" t="n">
-        <v>179.0322287060834</v>
+        <v>179.032259237154</v>
       </c>
       <c r="C159" t="n">
-        <v>179.7739520250636</v>
+        <v>179.7739826826232</v>
       </c>
       <c r="D159" t="n">
-        <v>177.2817574479783</v>
+        <v>177.2817876805341</v>
       </c>
       <c r="E159" t="n">
-        <v>178.9531097412109</v>
+        <v>178.9531402587891</v>
       </c>
       <c r="F159" t="n">
         <v>61996900</v>
@@ -4625,16 +4625,16 @@
         <v>45083</v>
       </c>
       <c r="B161" t="n">
-        <v>177.983968538218</v>
+        <v>177.9839532147194</v>
       </c>
       <c r="C161" t="n">
-        <v>178.1323071989488</v>
+        <v>178.132291862679</v>
       </c>
       <c r="D161" t="n">
-        <v>175.4719898868883</v>
+        <v>175.4719747796581</v>
       </c>
       <c r="E161" t="n">
-        <v>177.2323608398438</v>
+        <v>177.2323455810547</v>
       </c>
       <c r="F161" t="n">
         <v>64848400</v>
@@ -4651,16 +4651,16 @@
         <v>45084</v>
       </c>
       <c r="B162" t="n">
-        <v>176.4708191466497</v>
+        <v>176.4708497706318</v>
       </c>
       <c r="C162" t="n">
-        <v>179.210254902718</v>
+        <v>179.2102860020899</v>
       </c>
       <c r="D162" t="n">
-        <v>175.3631837898567</v>
+        <v>175.3632142216245</v>
       </c>
       <c r="E162" t="n">
-        <v>175.857666015625</v>
+        <v>175.8576965332031</v>
       </c>
       <c r="F162" t="n">
         <v>61944600</v>
@@ -4677,16 +4677,16 @@
         <v>45085</v>
       </c>
       <c r="B163" t="n">
-        <v>175.9367829813652</v>
+        <v>175.936798014529</v>
       </c>
       <c r="C163" t="n">
-        <v>178.8443410996604</v>
+        <v>178.8443563812644</v>
       </c>
       <c r="D163" t="n">
-        <v>175.5016512662526</v>
+        <v>175.5016662622359</v>
       </c>
       <c r="E163" t="n">
-        <v>178.5773315429688</v>
+        <v>178.5773468017578</v>
       </c>
       <c r="F163" t="n">
         <v>50214900</v>
@@ -4703,16 +4703,16 @@
         <v>45086</v>
       </c>
       <c r="B164" t="n">
-        <v>179.4970927690662</v>
+        <v>179.4970621604222</v>
       </c>
       <c r="C164" t="n">
-        <v>180.2190327736232</v>
+        <v>180.2190020418708</v>
       </c>
       <c r="D164" t="n">
-        <v>178.636698310342</v>
+        <v>178.6366678484163</v>
       </c>
       <c r="E164" t="n">
-        <v>178.9630584716797</v>
+        <v>178.9630279541016</v>
       </c>
       <c r="F164" t="n">
         <v>48900000</v>
@@ -4729,16 +4729,16 @@
         <v>45089</v>
       </c>
       <c r="B165" t="n">
-        <v>179.26963019609</v>
+        <v>179.2696000969458</v>
       </c>
       <c r="C165" t="n">
-        <v>181.860712806028</v>
+        <v>181.8606822718443</v>
       </c>
       <c r="D165" t="n">
-        <v>178.9729377766124</v>
+        <v>178.9729077272824</v>
       </c>
       <c r="E165" t="n">
-        <v>181.7618103027344</v>
+        <v>181.7617797851562</v>
       </c>
       <c r="F165" t="n">
         <v>54274900</v>
@@ -4755,16 +4755,16 @@
         <v>45090</v>
       </c>
       <c r="B166" t="n">
-        <v>180.7827428310429</v>
+        <v>180.7827276147059</v>
       </c>
       <c r="C166" t="n">
-        <v>182.1178360675422</v>
+        <v>182.1178207388316</v>
       </c>
       <c r="D166" t="n">
-        <v>180.4267149498958</v>
+        <v>180.4266997635254</v>
       </c>
       <c r="E166" t="n">
-        <v>181.287109375</v>
+        <v>181.2870941162109</v>
       </c>
       <c r="F166" t="n">
         <v>54929100</v>
@@ -4781,16 +4781,16 @@
         <v>45091</v>
       </c>
       <c r="B167" t="n">
-        <v>181.3464274280608</v>
+        <v>181.3464426387383</v>
       </c>
       <c r="C167" t="n">
-        <v>182.3551755095228</v>
+        <v>182.3551908048104</v>
       </c>
       <c r="D167" t="n">
-        <v>180.0113343197511</v>
+        <v>180.0113494184458</v>
       </c>
       <c r="E167" t="n">
-        <v>181.9200286865234</v>
+        <v>181.9200439453125</v>
       </c>
       <c r="F167" t="n">
         <v>57462900</v>
@@ -4859,16 +4859,16 @@
         <v>45097</v>
       </c>
       <c r="B170" t="n">
-        <v>182.3749682978587</v>
+        <v>182.3749378792496</v>
       </c>
       <c r="C170" t="n">
-        <v>184.0463209118931</v>
+        <v>184.0462902145165</v>
       </c>
       <c r="D170" t="n">
-        <v>182.3749682978587</v>
+        <v>182.3749378792496</v>
       </c>
       <c r="E170" t="n">
-        <v>182.9683380126953</v>
+        <v>182.9683074951172</v>
       </c>
       <c r="F170" t="n">
         <v>49799100</v>
@@ -4911,16 +4911,16 @@
         <v>45099</v>
       </c>
       <c r="B172" t="n">
-        <v>181.7123518491607</v>
+        <v>181.71233685638</v>
       </c>
       <c r="C172" t="n">
-        <v>184.9858220951895</v>
+        <v>184.9858068323204</v>
       </c>
       <c r="D172" t="n">
-        <v>181.6431170872681</v>
+        <v>181.6431021001999</v>
       </c>
       <c r="E172" t="n">
-        <v>184.9363708496094</v>
+        <v>184.9363555908203</v>
       </c>
       <c r="F172" t="n">
         <v>51245300</v>
@@ -5015,16 +5015,16 @@
         <v>45105</v>
       </c>
       <c r="B176" t="n">
-        <v>185.856089172159</v>
+        <v>185.8561043245189</v>
       </c>
       <c r="C176" t="n">
-        <v>187.8043504226978</v>
+        <v>187.8043657338943</v>
       </c>
       <c r="D176" t="n">
-        <v>185.5297441703453</v>
+        <v>185.5297592960992</v>
       </c>
       <c r="E176" t="n">
-        <v>187.1615295410156</v>
+        <v>187.1615447998047</v>
       </c>
       <c r="F176" t="n">
         <v>51216800</v>
@@ -5041,16 +5041,16 @@
         <v>45106</v>
       </c>
       <c r="B177" t="n">
-        <v>186.9934209820816</v>
+        <v>186.9933905465954</v>
       </c>
       <c r="C177" t="n">
-        <v>187.9725013298976</v>
+        <v>187.9724707350539</v>
       </c>
       <c r="D177" t="n">
-        <v>186.8549665471744</v>
+        <v>186.8549361342234</v>
       </c>
       <c r="E177" t="n">
-        <v>187.4977874755859</v>
+        <v>187.4977569580078</v>
       </c>
       <c r="F177" t="n">
         <v>46347300</v>
@@ -5067,16 +5067,16 @@
         <v>45107</v>
       </c>
       <c r="B178" t="n">
-        <v>189.5152941936858</v>
+        <v>189.5152791189743</v>
       </c>
       <c r="C178" t="n">
-        <v>192.3338342950544</v>
+        <v>192.3338189961463</v>
       </c>
       <c r="D178" t="n">
-        <v>189.1493670242908</v>
+        <v>189.1493519786864</v>
       </c>
       <c r="E178" t="n">
-        <v>191.8294677734375</v>
+        <v>191.8294525146484</v>
       </c>
       <c r="F178" t="n">
         <v>85213200</v>
@@ -5093,16 +5093,16 @@
         <v>45110</v>
       </c>
       <c r="B179" t="n">
-        <v>191.6415459416396</v>
+        <v>191.6415766685233</v>
       </c>
       <c r="C179" t="n">
-        <v>191.7404484310712</v>
+        <v>191.7404791738125</v>
       </c>
       <c r="D179" t="n">
-        <v>189.6438333602496</v>
+        <v>189.6438637668297</v>
       </c>
       <c r="E179" t="n">
-        <v>190.3361206054688</v>
+        <v>190.3361511230469</v>
       </c>
       <c r="F179" t="n">
         <v>31458200</v>
@@ -5119,16 +5119,16 @@
         <v>45112</v>
       </c>
       <c r="B180" t="n">
-        <v>189.4559696249322</v>
+        <v>189.4559543470025</v>
       </c>
       <c r="C180" t="n">
-        <v>190.8503983449712</v>
+        <v>190.8503829545932</v>
       </c>
       <c r="D180" t="n">
-        <v>188.5164411133839</v>
+        <v>188.5164259112187</v>
       </c>
       <c r="E180" t="n">
-        <v>189.2186126708984</v>
+        <v>189.2185974121094</v>
       </c>
       <c r="F180" t="n">
         <v>46920300</v>
@@ -5145,16 +5145,16 @@
         <v>45113</v>
       </c>
       <c r="B181" t="n">
-        <v>187.7450368621044</v>
+        <v>187.745021760032</v>
       </c>
       <c r="C181" t="n">
-        <v>189.9009875465276</v>
+        <v>189.9009722710322</v>
       </c>
       <c r="D181" t="n">
-        <v>187.1121001189567</v>
+        <v>187.1120850677973</v>
       </c>
       <c r="E181" t="n">
-        <v>189.6932983398438</v>
+        <v>189.6932830810547</v>
       </c>
       <c r="F181" t="n">
         <v>45094300</v>
@@ -5197,16 +5197,16 @@
         <v>45117</v>
       </c>
       <c r="B183" t="n">
-        <v>187.1714158596189</v>
+        <v>187.1714464823678</v>
       </c>
       <c r="C183" t="n">
-        <v>187.8933708097929</v>
+        <v>187.8934015506594</v>
       </c>
       <c r="D183" t="n">
-        <v>184.9759134621269</v>
+        <v>184.9759437256739</v>
       </c>
       <c r="E183" t="n">
-        <v>186.5285949707031</v>
+        <v>186.5286254882812</v>
       </c>
       <c r="F183" t="n">
         <v>59922200</v>
@@ -5223,16 +5223,16 @@
         <v>45118</v>
       </c>
       <c r="B184" t="n">
-        <v>187.0725084052791</v>
+        <v>187.0725390980967</v>
       </c>
       <c r="C184" t="n">
-        <v>187.2109628168338</v>
+        <v>187.2109935323676</v>
       </c>
       <c r="D184" t="n">
-        <v>184.5407619709061</v>
+        <v>184.5407922483423</v>
       </c>
       <c r="E184" t="n">
-        <v>186.0044250488281</v>
+        <v>186.0044555664062</v>
       </c>
       <c r="F184" t="n">
         <v>46638100</v>
@@ -5275,16 +5275,16 @@
         <v>45120</v>
       </c>
       <c r="B186" t="n">
-        <v>188.3977496929062</v>
+        <v>188.3977649484926</v>
       </c>
       <c r="C186" t="n">
-        <v>189.0801376574393</v>
+        <v>189.0801529682823</v>
       </c>
       <c r="D186" t="n">
-        <v>187.6856939986458</v>
+        <v>187.6857091965731</v>
       </c>
       <c r="E186" t="n">
-        <v>188.4373016357422</v>
+        <v>188.4373168945312</v>
       </c>
       <c r="F186" t="n">
         <v>41342300</v>
@@ -5301,16 +5301,16 @@
         <v>45121</v>
       </c>
       <c r="B187" t="n">
-        <v>188.1307172619815</v>
+        <v>188.1307324839614</v>
       </c>
       <c r="C187" t="n">
-        <v>189.0702305421347</v>
+        <v>189.0702458401321</v>
       </c>
       <c r="D187" t="n">
-        <v>187.5373476015485</v>
+        <v>187.5373627755177</v>
       </c>
       <c r="E187" t="n">
-        <v>188.5856475830078</v>
+        <v>188.5856628417969</v>
       </c>
       <c r="F187" t="n">
         <v>41616200</v>
@@ -5327,16 +5327,16 @@
         <v>45124</v>
       </c>
       <c r="B188" t="n">
-        <v>189.7822957354681</v>
+        <v>189.7822806410743</v>
       </c>
       <c r="C188" t="n">
-        <v>192.1756032843669</v>
+        <v>192.1755879996207</v>
       </c>
       <c r="D188" t="n">
-        <v>189.6932925454947</v>
+        <v>189.6932774581798</v>
       </c>
       <c r="E188" t="n">
-        <v>191.8492431640625</v>
+        <v>191.8492279052734</v>
       </c>
       <c r="F188" t="n">
         <v>50520200</v>
@@ -5353,16 +5353,16 @@
         <v>45125</v>
       </c>
       <c r="B189" t="n">
-        <v>191.2163210042594</v>
+        <v>191.2163057753995</v>
       </c>
       <c r="C189" t="n">
-        <v>192.185502135392</v>
+        <v>192.1854868293446</v>
       </c>
       <c r="D189" t="n">
-        <v>190.296576033276</v>
+        <v>190.2965608776665</v>
       </c>
       <c r="E189" t="n">
-        <v>191.5921173095703</v>
+        <v>191.5921020507812</v>
       </c>
       <c r="F189" t="n">
         <v>48288200</v>
@@ -5483,16 +5483,16 @@
         <v>45132</v>
       </c>
       <c r="B194" t="n">
-        <v>191.1965442835888</v>
+        <v>191.1965290476535</v>
       </c>
       <c r="C194" t="n">
-        <v>192.2942956871053</v>
+        <v>192.2942803636932</v>
       </c>
       <c r="D194" t="n">
-        <v>190.791065141208</v>
+        <v>190.7910499375842</v>
       </c>
       <c r="E194" t="n">
-        <v>191.4833374023438</v>
+        <v>191.4833221435547</v>
       </c>
       <c r="F194" t="n">
         <v>37283200</v>
@@ -5509,16 +5509,16 @@
         <v>45133</v>
       </c>
       <c r="B195" t="n">
-        <v>191.5327495873121</v>
+        <v>191.5327647809863</v>
       </c>
       <c r="C195" t="n">
-        <v>193.4810108258054</v>
+        <v>193.4810261740289</v>
       </c>
       <c r="D195" t="n">
-        <v>191.1866210725465</v>
+        <v>191.1866362387635</v>
       </c>
       <c r="E195" t="n">
-        <v>192.3535919189453</v>
+        <v>192.3536071777344</v>
       </c>
       <c r="F195" t="n">
         <v>47471900</v>
@@ -5561,16 +5561,16 @@
         <v>45135</v>
       </c>
       <c r="B197" t="n">
-        <v>192.5217275515483</v>
+        <v>192.5217427199515</v>
       </c>
       <c r="C197" t="n">
-        <v>194.4601047134921</v>
+        <v>194.4601200346163</v>
       </c>
       <c r="D197" t="n">
-        <v>191.9975775461535</v>
+        <v>191.99759267326</v>
       </c>
       <c r="E197" t="n">
-        <v>193.6689300537109</v>
+        <v>193.6689453125</v>
       </c>
       <c r="F197" t="n">
         <v>48291400</v>
@@ -5587,16 +5587,16 @@
         <v>45138</v>
       </c>
       <c r="B198" t="n">
-        <v>193.8964088782979</v>
+        <v>193.8964241067947</v>
       </c>
       <c r="C198" t="n">
-        <v>194.3216715292241</v>
+        <v>194.3216867911207</v>
       </c>
       <c r="D198" t="n">
-        <v>193.1052341320003</v>
+        <v>193.1052492983588</v>
       </c>
       <c r="E198" t="n">
-        <v>194.2821044921875</v>
+        <v>194.2821197509766</v>
       </c>
       <c r="F198" t="n">
         <v>38824100</v>
@@ -5691,16 +5691,16 @@
         <v>45142</v>
       </c>
       <c r="B202" t="n">
-        <v>183.4727180485309</v>
+        <v>183.4727336032895</v>
       </c>
       <c r="C202" t="n">
-        <v>185.312192820491</v>
+        <v>185.3122085311998</v>
       </c>
       <c r="D202" t="n">
-        <v>179.9124394284783</v>
+        <v>179.9124546813976</v>
       </c>
       <c r="E202" t="n">
-        <v>179.9816741943359</v>
+        <v>179.981689453125</v>
       </c>
       <c r="F202" t="n">
         <v>115956800</v>
@@ -5717,16 +5717,16 @@
         <v>45145</v>
       </c>
       <c r="B203" t="n">
-        <v>180.1201147075628</v>
+        <v>180.1201302461886</v>
       </c>
       <c r="C203" t="n">
-        <v>181.109079237726</v>
+        <v>181.109094861668</v>
       </c>
       <c r="D203" t="n">
-        <v>175.3928654606145</v>
+        <v>175.3928805914294</v>
       </c>
       <c r="E203" t="n">
-        <v>176.8763122558594</v>
+        <v>176.8763275146484</v>
       </c>
       <c r="F203" t="n">
         <v>97576100</v>
@@ -5743,16 +5743,16 @@
         <v>45146</v>
       </c>
       <c r="B204" t="n">
-        <v>177.7070244640927</v>
+        <v>177.7070549630004</v>
       </c>
       <c r="C204" t="n">
-        <v>178.2806256560347</v>
+        <v>178.2806562533865</v>
       </c>
       <c r="D204" t="n">
-        <v>175.6203088706347</v>
+        <v>175.6203390114105</v>
       </c>
       <c r="E204" t="n">
-        <v>177.8158111572266</v>
+        <v>177.8158416748047</v>
       </c>
       <c r="F204" t="n">
         <v>67823000</v>
@@ -5821,16 +5821,16 @@
         <v>45149</v>
       </c>
       <c r="B207" t="n">
-        <v>175.6000330280764</v>
+        <v>175.6000178096238</v>
       </c>
       <c r="C207" t="n">
-        <v>176.8874111577423</v>
+        <v>176.8873958277185</v>
       </c>
       <c r="D207" t="n">
-        <v>174.8374976677621</v>
+        <v>174.837482515395</v>
       </c>
       <c r="E207" t="n">
-        <v>176.0654602050781</v>
+        <v>176.0654449462891</v>
       </c>
       <c r="F207" t="n">
         <v>52036700</v>
@@ -5899,16 +5899,16 @@
         <v>45154</v>
       </c>
       <c r="B210" t="n">
-        <v>175.4118348409486</v>
+        <v>175.4118501481314</v>
       </c>
       <c r="C210" t="n">
-        <v>176.8081462851588</v>
+        <v>176.8081617141897</v>
       </c>
       <c r="D210" t="n">
-        <v>174.7879410374905</v>
+        <v>174.7879562902296</v>
       </c>
       <c r="E210" t="n">
-        <v>174.8572692871094</v>
+        <v>174.8572845458984</v>
       </c>
       <c r="F210" t="n">
         <v>46964900</v>
@@ -5951,16 +5951,16 @@
         <v>45156</v>
       </c>
       <c r="B212" t="n">
-        <v>170.6287104534896</v>
+        <v>170.6286953862117</v>
       </c>
       <c r="C212" t="n">
-        <v>173.4015537589174</v>
+        <v>173.4015384467851</v>
       </c>
       <c r="D212" t="n">
-        <v>170.2920120456795</v>
+        <v>170.2919970081336</v>
       </c>
       <c r="E212" t="n">
-        <v>172.7974700927734</v>
+        <v>172.7974548339844</v>
       </c>
       <c r="F212" t="n">
         <v>61172200</v>
@@ -6003,16 +6003,16 @@
         <v>45160</v>
       </c>
       <c r="B214" t="n">
-        <v>175.3425150715963</v>
+        <v>175.3425303157492</v>
       </c>
       <c r="C214" t="n">
-        <v>175.9564962343588</v>
+        <v>175.9565115318908</v>
       </c>
       <c r="D214" t="n">
-        <v>174.5403744916571</v>
+        <v>174.5403896660725</v>
       </c>
       <c r="E214" t="n">
-        <v>175.5108642578125</v>
+        <v>175.5108795166016</v>
       </c>
       <c r="F214" t="n">
         <v>42038900</v>
@@ -6055,16 +6055,16 @@
         <v>45162</v>
       </c>
       <c r="B216" t="n">
-        <v>178.9175090022964</v>
+        <v>178.9174933723762</v>
       </c>
       <c r="C216" t="n">
-        <v>179.3433458832632</v>
+        <v>179.3433302161427</v>
       </c>
       <c r="D216" t="n">
-        <v>174.3027071225369</v>
+        <v>174.3026918957578</v>
       </c>
       <c r="E216" t="n">
-        <v>174.6691284179688</v>
+        <v>174.6691131591797</v>
       </c>
       <c r="F216" t="n">
         <v>54945800</v>
@@ -6081,16 +6081,16 @@
         <v>45163</v>
       </c>
       <c r="B217" t="n">
-        <v>175.6594223889941</v>
+        <v>175.6594375427037</v>
       </c>
       <c r="C217" t="n">
-        <v>177.4122425446925</v>
+        <v>177.4122578496136</v>
       </c>
       <c r="D217" t="n">
-        <v>174.1145567754665</v>
+        <v>174.1145717959043</v>
       </c>
       <c r="E217" t="n">
-        <v>176.8774871826172</v>
+        <v>176.8775024414062</v>
       </c>
       <c r="F217" t="n">
         <v>51449600</v>
@@ -6107,16 +6107,16 @@
         <v>45166</v>
       </c>
       <c r="B218" t="n">
-        <v>178.3431331397182</v>
+        <v>178.3431483900386</v>
       </c>
       <c r="C218" t="n">
-        <v>178.8382831668333</v>
+        <v>178.8382984594946</v>
       </c>
       <c r="D218" t="n">
-        <v>176.8180777049469</v>
+        <v>176.8180928248581</v>
       </c>
       <c r="E218" t="n">
-        <v>178.4421691894531</v>
+        <v>178.4421844482422</v>
       </c>
       <c r="F218" t="n">
         <v>43820700</v>
@@ -6159,16 +6159,16 @@
         <v>45168</v>
       </c>
       <c r="B220" t="n">
-        <v>183.1460836808417</v>
+        <v>183.1460987192674</v>
       </c>
       <c r="C220" t="n">
-        <v>186.0278602958339</v>
+        <v>186.027875570887</v>
       </c>
       <c r="D220" t="n">
-        <v>182.9480267037944</v>
+        <v>182.9480417259573</v>
       </c>
       <c r="E220" t="n">
-        <v>185.8297882080078</v>
+        <v>185.8298034667969</v>
       </c>
       <c r="F220" t="n">
         <v>60813900</v>
@@ -6185,16 +6185,16 @@
         <v>45169</v>
       </c>
       <c r="B221" t="n">
-        <v>186.0179606639307</v>
+        <v>186.0179759202833</v>
       </c>
       <c r="C221" t="n">
-        <v>187.2855435388197</v>
+        <v>187.2855588991337</v>
       </c>
       <c r="D221" t="n">
-        <v>185.6614520359444</v>
+        <v>185.6614672630578</v>
       </c>
       <c r="E221" t="n">
-        <v>186.0476684570312</v>
+        <v>186.0476837158203</v>
       </c>
       <c r="F221" t="n">
         <v>60794500</v>
@@ -6237,16 +6237,16 @@
         <v>45174</v>
       </c>
       <c r="B223" t="n">
-        <v>186.453669710773</v>
+        <v>186.453699999912</v>
       </c>
       <c r="C223" t="n">
-        <v>188.1371765705135</v>
+        <v>188.1372071331358</v>
       </c>
       <c r="D223" t="n">
-        <v>185.7901705706132</v>
+        <v>185.7902007519677</v>
       </c>
       <c r="E223" t="n">
-        <v>187.8598937988281</v>
+        <v>187.8599243164062</v>
       </c>
       <c r="F223" t="n">
         <v>45280000</v>
@@ -6263,16 +6263,16 @@
         <v>45175</v>
       </c>
       <c r="B224" t="n">
-        <v>186.5725256332539</v>
+        <v>186.5725099164767</v>
       </c>
       <c r="C224" t="n">
-        <v>187.01817274977</v>
+        <v>187.0181569954517</v>
       </c>
       <c r="D224" t="n">
-        <v>179.7097534568871</v>
+        <v>179.7097383182265</v>
       </c>
       <c r="E224" t="n">
-        <v>181.1357879638672</v>
+        <v>181.1357727050781</v>
       </c>
       <c r="F224" t="n">
         <v>81755800</v>
@@ -6341,16 +6341,16 @@
         <v>45180</v>
       </c>
       <c r="B227" t="n">
-        <v>178.3233590278983</v>
+        <v>178.3233130703228</v>
       </c>
       <c r="C227" t="n">
-        <v>178.5511238361875</v>
+        <v>178.5510778199123</v>
       </c>
       <c r="D227" t="n">
-        <v>175.6198286815672</v>
+        <v>175.6197834207467</v>
       </c>
       <c r="E227" t="n">
-        <v>177.6202392578125</v>
+        <v>177.6201934814453</v>
       </c>
       <c r="F227" t="n">
         <v>58953100</v>
@@ -6393,16 +6393,16 @@
         <v>45182</v>
       </c>
       <c r="B229" t="n">
-        <v>174.7978655233742</v>
+        <v>174.7978500631327</v>
       </c>
       <c r="C229" t="n">
-        <v>175.5802110658088</v>
+        <v>175.5801955363716</v>
       </c>
       <c r="D229" t="n">
-        <v>172.2924074747609</v>
+        <v>172.2923922361182</v>
       </c>
       <c r="E229" t="n">
-        <v>172.5201873779297</v>
+        <v>172.5201721191406</v>
       </c>
       <c r="F229" t="n">
         <v>84267900</v>
@@ -6445,16 +6445,16 @@
         <v>45184</v>
       </c>
       <c r="B231" t="n">
-        <v>174.7681353606191</v>
+        <v>174.7681507475748</v>
       </c>
       <c r="C231" t="n">
-        <v>174.7879455911375</v>
+        <v>174.7879609798373</v>
       </c>
       <c r="D231" t="n">
-        <v>172.1339489112559</v>
+        <v>172.1339640662923</v>
       </c>
       <c r="E231" t="n">
-        <v>173.3123931884766</v>
+        <v>173.3124084472656</v>
       </c>
       <c r="F231" t="n">
         <v>109259500</v>
@@ -6471,16 +6471,16 @@
         <v>45187</v>
       </c>
       <c r="B232" t="n">
-        <v>174.7681456307464</v>
+        <v>174.7681153686684</v>
       </c>
       <c r="C232" t="n">
-        <v>177.6400247935372</v>
+        <v>177.6399940341774</v>
       </c>
       <c r="D232" t="n">
-        <v>174.4611550381745</v>
+        <v>174.4611248292537</v>
       </c>
       <c r="E232" t="n">
-        <v>176.2436981201172</v>
+        <v>176.2436676025391</v>
       </c>
       <c r="F232" t="n">
         <v>67257600</v>
@@ -6523,16 +6523,16 @@
         <v>45189</v>
       </c>
       <c r="B234" t="n">
-        <v>177.5212014903859</v>
+        <v>177.5211859037977</v>
       </c>
       <c r="C234" t="n">
-        <v>177.9569359791213</v>
+        <v>177.9569203542751</v>
       </c>
       <c r="D234" t="n">
-        <v>173.6986422630001</v>
+        <v>173.6986270120375</v>
       </c>
       <c r="E234" t="n">
-        <v>173.7877807617188</v>
+        <v>173.7877655029297</v>
       </c>
       <c r="F234" t="n">
         <v>58436200</v>
@@ -6601,16 +6601,16 @@
         <v>45194</v>
       </c>
       <c r="B237" t="n">
-        <v>172.5102708101909</v>
+        <v>172.5102557143198</v>
       </c>
       <c r="C237" t="n">
-        <v>175.2534062611611</v>
+        <v>175.2533909252462</v>
       </c>
       <c r="D237" t="n">
-        <v>172.4607527840647</v>
+        <v>172.4607376925267</v>
       </c>
       <c r="E237" t="n">
-        <v>174.3720397949219</v>
+        <v>174.3720245361328</v>
       </c>
       <c r="F237" t="n">
         <v>46172700</v>
@@ -6627,16 +6627,16 @@
         <v>45195</v>
       </c>
       <c r="B238" t="n">
-        <v>173.1242662635662</v>
+        <v>173.1242507509963</v>
       </c>
       <c r="C238" t="n">
-        <v>173.500570016516</v>
+        <v>173.500554470228</v>
       </c>
       <c r="D238" t="n">
-        <v>169.9949144018066</v>
+        <v>169.9948991696381</v>
       </c>
       <c r="E238" t="n">
-        <v>170.2920074462891</v>
+        <v>170.2919921875</v>
       </c>
       <c r="F238" t="n">
         <v>64588900</v>
@@ -6731,16 +6731,16 @@
         <v>45201</v>
       </c>
       <c r="B242" t="n">
-        <v>169.5591632391989</v>
+        <v>169.5591782758026</v>
       </c>
       <c r="C242" t="n">
-        <v>172.6092889810839</v>
+        <v>172.6093042881744</v>
       </c>
       <c r="D242" t="n">
-        <v>169.2719677838865</v>
+        <v>169.2719827950215</v>
       </c>
       <c r="E242" t="n">
-        <v>172.0646209716797</v>
+        <v>172.0646362304688</v>
       </c>
       <c r="F242" t="n">
         <v>52164500</v>
@@ -6783,16 +6783,16 @@
         <v>45203</v>
       </c>
       <c r="B244" t="n">
-        <v>169.4304463047103</v>
+        <v>169.4304312717371</v>
       </c>
       <c r="C244" t="n">
-        <v>172.5201929982168</v>
+        <v>172.5201776911012</v>
       </c>
       <c r="D244" t="n">
-        <v>169.3116151240765</v>
+        <v>169.3116001016468</v>
       </c>
       <c r="E244" t="n">
-        <v>171.9755249023438</v>
+        <v>171.9755096435547</v>
       </c>
       <c r="F244" t="n">
         <v>53020300</v>
@@ -6861,16 +6861,16 @@
         <v>45208</v>
       </c>
       <c r="B247" t="n">
-        <v>175.0949677633166</v>
+        <v>175.0949376174271</v>
       </c>
       <c r="C247" t="n">
-        <v>177.3132455475535</v>
+        <v>177.3132150197459</v>
       </c>
       <c r="D247" t="n">
-        <v>174.0947700479303</v>
+        <v>174.0947400742437</v>
       </c>
       <c r="E247" t="n">
-        <v>177.2538299560547</v>
+        <v>177.2537994384766</v>
       </c>
       <c r="F247" t="n">
         <v>42390800</v>
@@ -6887,16 +6887,16 @@
         <v>45209</v>
       </c>
       <c r="B248" t="n">
-        <v>176.3724418317021</v>
+        <v>176.3724570656863</v>
       </c>
       <c r="C248" t="n">
-        <v>177.9767230488949</v>
+        <v>177.9767384214472</v>
       </c>
       <c r="D248" t="n">
-        <v>176.2238877603602</v>
+        <v>176.2239029815132</v>
       </c>
       <c r="E248" t="n">
-        <v>176.6596221923828</v>
+        <v>176.6596374511719</v>
       </c>
       <c r="F248" t="n">
         <v>43698000</v>
@@ -6913,16 +6913,16 @@
         <v>45210</v>
       </c>
       <c r="B249" t="n">
-        <v>176.4714678376734</v>
+        <v>176.4714527146694</v>
       </c>
       <c r="C249" t="n">
-        <v>178.1054720046952</v>
+        <v>178.1054567416626</v>
       </c>
       <c r="D249" t="n">
-        <v>175.8772968675762</v>
+        <v>175.8772817954906</v>
       </c>
       <c r="E249" t="n">
-        <v>178.0559539794922</v>
+        <v>178.0559387207031</v>
       </c>
       <c r="F249" t="n">
         <v>47551100</v>
@@ -6939,16 +6939,16 @@
         <v>45211</v>
       </c>
       <c r="B250" t="n">
-        <v>178.3233466007442</v>
+        <v>178.323361805493</v>
       </c>
       <c r="C250" t="n">
-        <v>180.5713169522757</v>
+        <v>180.5713323486978</v>
       </c>
       <c r="D250" t="n">
-        <v>177.3033235938782</v>
+        <v>177.3033387116547</v>
       </c>
       <c r="E250" t="n">
-        <v>178.9571380615234</v>
+        <v>178.9571533203125</v>
       </c>
       <c r="F250" t="n">
         <v>56743100</v>
@@ -6991,16 +6991,16 @@
         <v>45215</v>
       </c>
       <c r="B252" t="n">
-        <v>175.0355274416581</v>
+        <v>175.035557622846</v>
       </c>
       <c r="C252" t="n">
-        <v>177.3429282871386</v>
+        <v>177.3429588661892</v>
       </c>
       <c r="D252" t="n">
-        <v>174.7978499984623</v>
+        <v>174.7978801386677</v>
       </c>
       <c r="E252" t="n">
-        <v>176.9864196777344</v>
+        <v>176.9864501953125</v>
       </c>
       <c r="F252" t="n">
         <v>52517000</v>
@@ -7017,16 +7017,16 @@
         <v>45216</v>
       </c>
       <c r="B253" t="n">
-        <v>174.93650583601</v>
+        <v>174.9364906202884</v>
       </c>
       <c r="C253" t="n">
-        <v>176.6893412361662</v>
+        <v>176.6893258679855</v>
       </c>
       <c r="D253" t="n">
-        <v>173.1044597256959</v>
+        <v>173.104444669323</v>
       </c>
       <c r="E253" t="n">
-        <v>175.4316558837891</v>
+        <v>175.431640625</v>
       </c>
       <c r="F253" t="n">
         <v>57549400</v>
@@ -7095,16 +7095,16 @@
         <v>45219</v>
       </c>
       <c r="B256" t="n">
-        <v>173.6095011164748</v>
+        <v>173.6095165897406</v>
       </c>
       <c r="C256" t="n">
-        <v>173.7184347275158</v>
+        <v>173.7184502104905</v>
       </c>
       <c r="D256" t="n">
-        <v>170.9654017693308</v>
+        <v>170.9654170069364</v>
       </c>
       <c r="E256" t="n">
-        <v>171.2030792236328</v>
+        <v>171.2030944824219</v>
       </c>
       <c r="F256" t="n">
         <v>64244000</v>
@@ -7121,16 +7121,16 @@
         <v>45222</v>
       </c>
       <c r="B257" t="n">
-        <v>169.2521760477281</v>
+        <v>169.2521911221772</v>
       </c>
       <c r="C257" t="n">
-        <v>172.3220969707614</v>
+        <v>172.322112318633</v>
       </c>
       <c r="D257" t="n">
-        <v>168.2816711712865</v>
+        <v>168.2816861592976</v>
       </c>
       <c r="E257" t="n">
-        <v>171.3218994140625</v>
+        <v>171.3219146728516</v>
       </c>
       <c r="F257" t="n">
         <v>55980100</v>
@@ -7147,16 +7147,16 @@
         <v>45223</v>
       </c>
       <c r="B258" t="n">
-        <v>171.3714282347356</v>
+        <v>171.3714434592135</v>
       </c>
       <c r="C258" t="n">
-        <v>171.9854094358755</v>
+        <v>171.985424714899</v>
       </c>
       <c r="D258" t="n">
-        <v>169.7869420959994</v>
+        <v>169.7869571797131</v>
       </c>
       <c r="E258" t="n">
-        <v>171.7576446533203</v>
+        <v>171.7576599121094</v>
       </c>
       <c r="F258" t="n">
         <v>43816600</v>
@@ -7199,16 +7199,16 @@
         <v>45225</v>
       </c>
       <c r="B260" t="n">
-        <v>168.7174192351828</v>
+        <v>168.7174348121486</v>
       </c>
       <c r="C260" t="n">
-        <v>169.7176319835683</v>
+        <v>169.7176476528795</v>
       </c>
       <c r="D260" t="n">
-        <v>164.0630118967591</v>
+        <v>164.0630270440031</v>
       </c>
       <c r="E260" t="n">
-        <v>165.2711791992188</v>
+        <v>165.2711944580078</v>
       </c>
       <c r="F260" t="n">
         <v>70625300</v>
@@ -7251,16 +7251,16 @@
         <v>45229</v>
       </c>
       <c r="B262" t="n">
-        <v>167.3805285943209</v>
+        <v>167.3804983043368</v>
       </c>
       <c r="C262" t="n">
-        <v>169.5096677835971</v>
+        <v>169.5096371083137</v>
       </c>
       <c r="D262" t="n">
-        <v>167.2319745115558</v>
+        <v>167.2319442484547</v>
       </c>
       <c r="E262" t="n">
-        <v>168.6381988525391</v>
+        <v>168.6381683349609</v>
       </c>
       <c r="F262" t="n">
         <v>51131000</v>
@@ -7277,16 +7277,16 @@
         <v>45230</v>
       </c>
       <c r="B263" t="n">
-        <v>167.7073466814684</v>
+        <v>167.7073315495603</v>
       </c>
       <c r="C263" t="n">
-        <v>169.2422999190169</v>
+        <v>169.242284648613</v>
       </c>
       <c r="D263" t="n">
-        <v>166.2713992877122</v>
+        <v>166.2713842853667</v>
       </c>
       <c r="E263" t="n">
-        <v>169.1135711669922</v>
+        <v>169.1135559082031</v>
       </c>
       <c r="F263" t="n">
         <v>44846000</v>
@@ -7329,16 +7329,16 @@
         <v>45232</v>
       </c>
       <c r="B265" t="n">
-        <v>173.8174619142396</v>
+        <v>173.8174769968696</v>
       </c>
       <c r="C265" t="n">
-        <v>176.0555344960324</v>
+        <v>176.0555497728662</v>
       </c>
       <c r="D265" t="n">
-        <v>173.7580463313888</v>
+        <v>173.7580614088632</v>
       </c>
       <c r="E265" t="n">
-        <v>175.8475799560547</v>
+        <v>175.8475952148438</v>
       </c>
       <c r="F265" t="n">
         <v>77334800</v>
@@ -7355,16 +7355,16 @@
         <v>45233</v>
       </c>
       <c r="B266" t="n">
-        <v>172.5498964006483</v>
+        <v>172.5498813500308</v>
       </c>
       <c r="C266" t="n">
-        <v>175.1048724946971</v>
+        <v>175.1048572212225</v>
       </c>
       <c r="D266" t="n">
-        <v>171.6685299082299</v>
+        <v>171.6685149344893</v>
       </c>
       <c r="E266" t="n">
-        <v>174.9365081787109</v>
+        <v>174.9364929199219</v>
       </c>
       <c r="F266" t="n">
         <v>79829200</v>
@@ -7407,16 +7407,16 @@
         <v>45237</v>
       </c>
       <c r="B268" t="n">
-        <v>177.4419743130807</v>
+        <v>177.4419442386158</v>
       </c>
       <c r="C268" t="n">
-        <v>180.6703624855209</v>
+        <v>180.6703318638797</v>
       </c>
       <c r="D268" t="n">
-        <v>177.2340197428103</v>
+        <v>177.2339897035914</v>
       </c>
       <c r="E268" t="n">
-        <v>180.0563812255859</v>
+        <v>180.0563507080078</v>
       </c>
       <c r="F268" t="n">
         <v>70530000</v>
@@ -7459,16 +7459,16 @@
         <v>45239</v>
       </c>
       <c r="B270" t="n">
-        <v>181.1852930172513</v>
+        <v>181.1853083220487</v>
       </c>
       <c r="C270" t="n">
-        <v>182.3340295227155</v>
+        <v>182.3340449245472</v>
       </c>
       <c r="D270" t="n">
-        <v>180.0464389610389</v>
+        <v>180.0464541696368</v>
       </c>
       <c r="E270" t="n">
-        <v>180.640625</v>
+        <v>180.6406402587891</v>
       </c>
       <c r="F270" t="n">
         <v>53763500</v>
@@ -7511,16 +7511,16 @@
         <v>45243</v>
       </c>
       <c r="B272" t="n">
-        <v>184.2600067821775</v>
+        <v>184.2599914391675</v>
       </c>
       <c r="C272" t="n">
-        <v>184.4682353120009</v>
+        <v>184.4682199516521</v>
       </c>
       <c r="D272" t="n">
-        <v>182.6635224872163</v>
+        <v>182.6635072771428</v>
       </c>
       <c r="E272" t="n">
-        <v>183.2485656738281</v>
+        <v>183.2485504150391</v>
       </c>
       <c r="F272" t="n">
         <v>43627500</v>
@@ -7537,16 +7537,16 @@
         <v>45244</v>
       </c>
       <c r="B273" t="n">
-        <v>186.1241905471969</v>
+        <v>186.1242058271512</v>
       </c>
       <c r="C273" t="n">
-        <v>186.5307520867399</v>
+        <v>186.530767400071</v>
       </c>
       <c r="D273" t="n">
-        <v>184.7359500837406</v>
+        <v>184.7359652497266</v>
       </c>
       <c r="E273" t="n">
-        <v>185.8663787841797</v>
+        <v>185.8663940429688</v>
       </c>
       <c r="F273" t="n">
         <v>60108400</v>
@@ -7563,16 +7563,16 @@
         <v>45245</v>
       </c>
       <c r="B274" t="n">
-        <v>186.2729343495984</v>
+        <v>186.2729495954029</v>
       </c>
       <c r="C274" t="n">
-        <v>187.9090759241039</v>
+        <v>187.909091303821</v>
       </c>
       <c r="D274" t="n">
-        <v>186.2035147633089</v>
+        <v>186.2035300034316</v>
       </c>
       <c r="E274" t="n">
-        <v>186.4315795898438</v>
+        <v>186.4315948486328</v>
       </c>
       <c r="F274" t="n">
         <v>53790500</v>
@@ -7615,16 +7615,16 @@
         <v>45247</v>
       </c>
       <c r="B276" t="n">
-        <v>188.6527998900215</v>
+        <v>188.6527845861859</v>
       </c>
       <c r="C276" t="n">
-        <v>188.7817133467466</v>
+        <v>188.7816980324533</v>
       </c>
       <c r="D276" t="n">
-        <v>186.9869112062851</v>
+        <v>186.9868960375892</v>
       </c>
       <c r="E276" t="n">
-        <v>188.0975036621094</v>
+        <v>188.0974884033203</v>
       </c>
       <c r="F276" t="n">
         <v>50922700</v>
@@ -7641,16 +7641,16 @@
         <v>45250</v>
       </c>
       <c r="B277" t="n">
-        <v>188.2958417959073</v>
+        <v>188.2958115269965</v>
       </c>
       <c r="C277" t="n">
-        <v>190.2988878022106</v>
+        <v>190.2988572113063</v>
       </c>
       <c r="D277" t="n">
-        <v>188.2859311945905</v>
+        <v>188.2859009272728</v>
       </c>
       <c r="E277" t="n">
-        <v>189.8427429199219</v>
+        <v>189.8427124023438</v>
       </c>
       <c r="F277" t="n">
         <v>46505100</v>
@@ -7667,16 +7667,16 @@
         <v>45251</v>
       </c>
       <c r="B278" t="n">
-        <v>189.8030754431615</v>
+        <v>189.8030601227414</v>
       </c>
       <c r="C278" t="n">
-        <v>189.9121525746901</v>
+        <v>189.9121372454657</v>
       </c>
       <c r="D278" t="n">
-        <v>188.1470972686361</v>
+        <v>188.1470820818824</v>
       </c>
       <c r="E278" t="n">
-        <v>189.0395355224609</v>
+        <v>189.0395202636719</v>
       </c>
       <c r="F278" t="n">
         <v>38134500</v>
@@ -7693,16 +7693,16 @@
         <v>45252</v>
       </c>
       <c r="B279" t="n">
-        <v>189.8823999220435</v>
+        <v>189.8823846488971</v>
       </c>
       <c r="C279" t="n">
-        <v>191.3102980590149</v>
+        <v>191.3102826710158</v>
       </c>
       <c r="D279" t="n">
-        <v>189.2279371525851</v>
+        <v>189.2279219320802</v>
       </c>
       <c r="E279" t="n">
-        <v>189.7039031982422</v>
+        <v>189.7038879394531</v>
       </c>
       <c r="F279" t="n">
         <v>39617700</v>
@@ -7745,16 +7745,16 @@
         <v>45257</v>
       </c>
       <c r="B281" t="n">
-        <v>188.3255839995523</v>
+        <v>188.3255687303111</v>
       </c>
       <c r="C281" t="n">
-        <v>189.0692876082371</v>
+        <v>189.0692722786972</v>
       </c>
       <c r="D281" t="n">
-        <v>187.3141428551481</v>
+        <v>187.3141276679135</v>
       </c>
       <c r="E281" t="n">
-        <v>188.1966705322266</v>
+        <v>188.1966552734375</v>
       </c>
       <c r="F281" t="n">
         <v>40552600</v>
@@ -7771,16 +7771,16 @@
         <v>45258</v>
       </c>
       <c r="B282" t="n">
-        <v>188.1867236490465</v>
+        <v>188.1867388581487</v>
       </c>
       <c r="C282" t="n">
-        <v>189.4758126817036</v>
+        <v>189.4758279949889</v>
       </c>
       <c r="D282" t="n">
-        <v>187.809909051475</v>
+        <v>187.8099242301234</v>
       </c>
       <c r="E282" t="n">
-        <v>188.801513671875</v>
+        <v>188.8015289306641</v>
       </c>
       <c r="F282" t="n">
         <v>38415400</v>
@@ -7797,16 +7797,16 @@
         <v>45259</v>
       </c>
       <c r="B283" t="n">
-        <v>189.2973359031836</v>
+        <v>189.2973512852548</v>
       </c>
       <c r="C283" t="n">
-        <v>190.4773479465503</v>
+        <v>190.4773634245078</v>
       </c>
       <c r="D283" t="n">
-        <v>187.3835460471391</v>
+        <v>187.3835612736981</v>
       </c>
       <c r="E283" t="n">
-        <v>187.7801818847656</v>
+        <v>187.7801971435547</v>
       </c>
       <c r="F283" t="n">
         <v>43014200</v>
@@ -7901,16 +7901,16 @@
         <v>45265</v>
       </c>
       <c r="B287" t="n">
-        <v>188.6131305841623</v>
+        <v>188.6131455897171</v>
       </c>
       <c r="C287" t="n">
-        <v>192.7679414338868</v>
+        <v>192.7679567699872</v>
       </c>
       <c r="D287" t="n">
-        <v>188.5833685238866</v>
+        <v>188.5833835270736</v>
       </c>
       <c r="E287" t="n">
-        <v>191.7961730957031</v>
+        <v>191.7961883544922</v>
       </c>
       <c r="F287" t="n">
         <v>66628400</v>
@@ -7979,16 +7979,16 @@
         <v>45268</v>
       </c>
       <c r="B290" t="n">
-        <v>192.569653121339</v>
+        <v>192.5696379802798</v>
       </c>
       <c r="C290" t="n">
-        <v>194.3446342232785</v>
+        <v>194.3446189426589</v>
       </c>
       <c r="D290" t="n">
-        <v>192.0441037769117</v>
+        <v>192.0440886771746</v>
       </c>
       <c r="E290" t="n">
-        <v>194.0669860839844</v>
+        <v>194.0669708251953</v>
       </c>
       <c r="F290" t="n">
         <v>53406400</v>
@@ -8005,16 +8005,16 @@
         <v>45271</v>
       </c>
       <c r="B291" t="n">
-        <v>191.48877730416</v>
+        <v>191.4888078106811</v>
       </c>
       <c r="C291" t="n">
-        <v>191.8655919183663</v>
+        <v>191.8656224849186</v>
       </c>
       <c r="D291" t="n">
-        <v>189.8129630007935</v>
+        <v>189.8129932403368</v>
       </c>
       <c r="E291" t="n">
-        <v>191.5581817626953</v>
+        <v>191.5582122802734</v>
       </c>
       <c r="F291" t="n">
         <v>60943700</v>
@@ -8031,16 +8031,16 @@
         <v>45272</v>
       </c>
       <c r="B292" t="n">
-        <v>191.4590426114497</v>
+        <v>191.4590577425006</v>
       </c>
       <c r="C292" t="n">
-        <v>193.0852737594078</v>
+        <v>193.08528901898</v>
       </c>
       <c r="D292" t="n">
-        <v>190.1104595767513</v>
+        <v>190.1104746012234</v>
       </c>
       <c r="E292" t="n">
-        <v>193.0753631591797</v>
+        <v>193.0753784179688</v>
       </c>
       <c r="F292" t="n">
         <v>52696900</v>
@@ -8057,16 +8057,16 @@
         <v>45273</v>
       </c>
       <c r="B293" t="n">
-        <v>193.4521495219808</v>
+        <v>193.452164559549</v>
       </c>
       <c r="C293" t="n">
-        <v>196.3377227144518</v>
+        <v>196.3377379763236</v>
       </c>
       <c r="D293" t="n">
-        <v>193.2141740871783</v>
+        <v>193.214189106248</v>
       </c>
       <c r="E293" t="n">
-        <v>196.2980651855469</v>
+        <v>196.2980804443359</v>
       </c>
       <c r="F293" t="n">
         <v>70404200</v>
@@ -8083,16 +8083,16 @@
         <v>45274</v>
       </c>
       <c r="B294" t="n">
-        <v>196.3575975733446</v>
+        <v>196.3575823214872</v>
       </c>
       <c r="C294" t="n">
-        <v>197.9441562625242</v>
+        <v>197.9441408874326</v>
       </c>
       <c r="D294" t="n">
-        <v>194.5132119382899</v>
+        <v>194.5131968296931</v>
       </c>
       <c r="E294" t="n">
-        <v>196.4468383789062</v>
+        <v>196.4468231201172</v>
       </c>
       <c r="F294" t="n">
         <v>66831600</v>
@@ -8109,16 +8109,16 @@
         <v>45275</v>
       </c>
       <c r="B295" t="n">
-        <v>195.871673774647</v>
+        <v>195.871689030346</v>
       </c>
       <c r="C295" t="n">
-        <v>196.734365015635</v>
+        <v>196.7343803385259</v>
       </c>
       <c r="D295" t="n">
-        <v>195.3461244978741</v>
+        <v>195.3461397126402</v>
       </c>
       <c r="E295" t="n">
-        <v>195.9113464355469</v>
+        <v>195.9113616943359</v>
       </c>
       <c r="F295" t="n">
         <v>128538400</v>
@@ -8135,16 +8135,16 @@
         <v>45278</v>
       </c>
       <c r="B296" t="n">
-        <v>194.4437860780774</v>
+        <v>194.4437708037096</v>
       </c>
       <c r="C296" t="n">
-        <v>194.9792611555933</v>
+        <v>194.9792458391617</v>
       </c>
       <c r="D296" t="n">
-        <v>192.758060905398</v>
+        <v>192.758045763451</v>
       </c>
       <c r="E296" t="n">
-        <v>194.2454681396484</v>
+        <v>194.2454528808594</v>
       </c>
       <c r="F296" t="n">
         <v>55751900</v>
@@ -8161,16 +8161,16 @@
         <v>45279</v>
       </c>
       <c r="B297" t="n">
-        <v>194.5131706815543</v>
+        <v>194.5132010782648</v>
       </c>
       <c r="C297" t="n">
-        <v>195.2965316931472</v>
+        <v>195.2965622122741</v>
       </c>
       <c r="D297" t="n">
-        <v>194.2454331909677</v>
+        <v>194.2454635458387</v>
       </c>
       <c r="E297" t="n">
-        <v>195.28662109375</v>
+        <v>195.2866516113281</v>
       </c>
       <c r="F297" t="n">
         <v>40714100</v>
@@ -8213,16 +8213,16 @@
         <v>45281</v>
       </c>
       <c r="B299" t="n">
-        <v>194.4536852326955</v>
+        <v>194.4536698626075</v>
       </c>
       <c r="C299" t="n">
-        <v>195.4254535896617</v>
+        <v>195.4254381427627</v>
       </c>
       <c r="D299" t="n">
-        <v>191.875506993429</v>
+        <v>191.8754918271264</v>
       </c>
       <c r="E299" t="n">
-        <v>193.0455932617188</v>
+        <v>193.0455780029297</v>
       </c>
       <c r="F299" t="n">
         <v>46482500</v>
@@ -8265,16 +8265,16 @@
         <v>45286</v>
       </c>
       <c r="B301" t="n">
-        <v>191.9846022868164</v>
+        <v>191.9845869837648</v>
       </c>
       <c r="C301" t="n">
-        <v>192.2622504150879</v>
+        <v>192.262235089905</v>
       </c>
       <c r="D301" t="n">
-        <v>191.2111517679618</v>
+        <v>191.2111365265618</v>
       </c>
       <c r="E301" t="n">
-        <v>191.4293060302734</v>
+        <v>191.4292907714844</v>
       </c>
       <c r="F301" t="n">
         <v>28919300</v>
@@ -8291,16 +8291,16 @@
         <v>45287</v>
       </c>
       <c r="B302" t="n">
-        <v>190.8739947779816</v>
+        <v>190.8740099846318</v>
       </c>
       <c r="C302" t="n">
-        <v>191.8755100812291</v>
+        <v>191.8755253676685</v>
       </c>
       <c r="D302" t="n">
-        <v>189.4857391150024</v>
+        <v>189.4857542110523</v>
       </c>
       <c r="E302" t="n">
-        <v>191.5284423828125</v>
+        <v>191.5284576416016</v>
       </c>
       <c r="F302" t="n">
         <v>48087700</v>
@@ -8369,16 +8369,16 @@
         <v>45293</v>
       </c>
       <c r="B305" t="n">
-        <v>185.5788456186331</v>
+        <v>185.5788302357291</v>
       </c>
       <c r="C305" t="n">
-        <v>186.8580243758453</v>
+        <v>186.8580088869083</v>
       </c>
       <c r="D305" t="n">
-        <v>182.3462191851194</v>
+        <v>182.3462040701726</v>
       </c>
       <c r="E305" t="n">
-        <v>184.0815277099609</v>
+        <v>184.0815124511719</v>
       </c>
       <c r="F305" t="n">
         <v>82488700</v>
@@ -8395,16 +8395,16 @@
         <v>45294</v>
       </c>
       <c r="B306" t="n">
-        <v>182.6734238450404</v>
+        <v>182.6734085887357</v>
       </c>
       <c r="C306" t="n">
-        <v>184.3194913216633</v>
+        <v>184.3194759278842</v>
       </c>
       <c r="D306" t="n">
-        <v>181.8900476382689</v>
+        <v>181.8900324473893</v>
       </c>
       <c r="E306" t="n">
-        <v>182.7031707763672</v>
+        <v>182.7031555175781</v>
       </c>
       <c r="F306" t="n">
         <v>58414500</v>
@@ -8421,16 +8421,16 @@
         <v>45295</v>
       </c>
       <c r="B307" t="n">
-        <v>180.6207879415788</v>
+        <v>180.6208032204985</v>
       </c>
       <c r="C307" t="n">
-        <v>181.552898769594</v>
+        <v>181.552914127362</v>
       </c>
       <c r="D307" t="n">
-        <v>179.3614608813928</v>
+        <v>179.3614760537846</v>
       </c>
       <c r="E307" t="n">
-        <v>180.3828125</v>
+        <v>180.3828277587891</v>
       </c>
       <c r="F307" t="n">
         <v>71983600</v>
@@ -8473,16 +8473,16 @@
         <v>45299</v>
       </c>
       <c r="B309" t="n">
-        <v>180.561312182648</v>
+        <v>180.5613271560953</v>
       </c>
       <c r="C309" t="n">
-        <v>184.0418546715341</v>
+        <v>184.0418699336132</v>
       </c>
       <c r="D309" t="n">
-        <v>179.9762689891998</v>
+        <v>179.9762839141311</v>
       </c>
       <c r="E309" t="n">
-        <v>184.0021820068359</v>
+        <v>184.002197265625</v>
       </c>
       <c r="F309" t="n">
         <v>59144500</v>
@@ -8525,16 +8525,16 @@
         <v>45301</v>
       </c>
       <c r="B311" t="n">
-        <v>182.8023429686935</v>
+        <v>182.8023278606972</v>
       </c>
       <c r="C311" t="n">
-        <v>184.835120615587</v>
+        <v>184.8351053395885</v>
       </c>
       <c r="D311" t="n">
-        <v>182.375945055311</v>
+        <v>182.3759299825551</v>
       </c>
       <c r="E311" t="n">
-        <v>184.6268920898438</v>
+        <v>184.6268768310547</v>
       </c>
       <c r="F311" t="n">
         <v>46792900</v>
@@ -8551,16 +8551,16 @@
         <v>45302</v>
       </c>
       <c r="B312" t="n">
-        <v>184.97392753345</v>
+        <v>184.9739428703456</v>
       </c>
       <c r="C312" t="n">
-        <v>185.4796555961897</v>
+        <v>185.4796709750172</v>
       </c>
       <c r="D312" t="n">
-        <v>182.0784437276164</v>
+        <v>182.0784588244365</v>
       </c>
       <c r="E312" t="n">
-        <v>184.0319061279297</v>
+        <v>184.0319213867188</v>
       </c>
       <c r="F312" t="n">
         <v>49128400</v>
@@ -8577,16 +8577,16 @@
         <v>45303</v>
       </c>
       <c r="B313" t="n">
-        <v>184.4979549022462</v>
+        <v>184.4979701725253</v>
       </c>
       <c r="C313" t="n">
-        <v>185.1722539181108</v>
+        <v>185.1722692441994</v>
       </c>
       <c r="D313" t="n">
-        <v>183.6352637165953</v>
+        <v>183.6352789154723</v>
       </c>
       <c r="E313" t="n">
-        <v>184.359130859375</v>
+        <v>184.3591461181641</v>
       </c>
       <c r="F313" t="n">
         <v>40477800</v>
@@ -8629,16 +8629,16 @@
         <v>45308</v>
       </c>
       <c r="B315" t="n">
-        <v>179.7482109997081</v>
+        <v>179.7481958586918</v>
       </c>
       <c r="C315" t="n">
-        <v>181.3942635111242</v>
+        <v>181.3942482314533</v>
       </c>
       <c r="D315" t="n">
-        <v>178.7863531082786</v>
+        <v>178.786338048284</v>
       </c>
       <c r="E315" t="n">
-        <v>181.1463623046875</v>
+        <v>181.1463470458984</v>
       </c>
       <c r="F315" t="n">
         <v>47317400</v>
@@ -8681,16 +8681,16 @@
         <v>45310</v>
       </c>
       <c r="B317" t="n">
-        <v>187.7405382804929</v>
+        <v>187.7405231993351</v>
       </c>
       <c r="C317" t="n">
-        <v>190.3385380102556</v>
+        <v>190.338522720401</v>
       </c>
       <c r="D317" t="n">
-        <v>187.2348252804006</v>
+        <v>187.2348102398665</v>
       </c>
       <c r="E317" t="n">
-        <v>189.9518127441406</v>
+        <v>189.9517974853516</v>
       </c>
       <c r="F317" t="n">
         <v>68903000</v>
@@ -8733,16 +8733,16 @@
         <v>45314</v>
       </c>
       <c r="B319" t="n">
-        <v>193.3827518428589</v>
+        <v>193.3827365965774</v>
       </c>
       <c r="C319" t="n">
-        <v>194.1066190335693</v>
+        <v>194.1066037302182</v>
       </c>
       <c r="D319" t="n">
-        <v>192.2027398349761</v>
+        <v>192.2027246817267</v>
       </c>
       <c r="E319" t="n">
-        <v>193.5413970947266</v>
+        <v>193.5413818359375</v>
       </c>
       <c r="F319" t="n">
         <v>42355600</v>
@@ -8785,16 +8785,16 @@
         <v>45316</v>
       </c>
       <c r="B321" t="n">
-        <v>193.581074455708</v>
+        <v>193.5811051383144</v>
       </c>
       <c r="C321" t="n">
-        <v>194.6222624368066</v>
+        <v>194.6222932844414</v>
       </c>
       <c r="D321" t="n">
-        <v>191.4887878933681</v>
+        <v>191.488818244347</v>
       </c>
       <c r="E321" t="n">
-        <v>192.5398864746094</v>
+        <v>192.5399169921875</v>
       </c>
       <c r="F321" t="n">
         <v>54822100</v>
@@ -8811,16 +8811,16 @@
         <v>45317</v>
       </c>
       <c r="B322" t="n">
-        <v>192.6390554946892</v>
+        <v>192.6390709001827</v>
       </c>
       <c r="C322" t="n">
-        <v>193.1249321296598</v>
+        <v>193.1249475740092</v>
       </c>
       <c r="D322" t="n">
-        <v>190.3286146537771</v>
+        <v>190.3286298745028</v>
       </c>
       <c r="E322" t="n">
-        <v>190.8045806884766</v>
+        <v>190.8045959472656</v>
       </c>
       <c r="F322" t="n">
         <v>44594000</v>
@@ -8837,16 +8837,16 @@
         <v>45320</v>
       </c>
       <c r="B323" t="n">
-        <v>190.3980247095346</v>
+        <v>190.3980094284619</v>
       </c>
       <c r="C323" t="n">
-        <v>190.5864320350317</v>
+        <v>190.5864167388377</v>
       </c>
       <c r="D323" t="n">
-        <v>187.9884324030731</v>
+        <v>187.9884173153908</v>
       </c>
       <c r="E323" t="n">
-        <v>190.1203765869141</v>
+        <v>190.120361328125</v>
       </c>
       <c r="F323" t="n">
         <v>47145600</v>
@@ -8863,16 +8863,16 @@
         <v>45321</v>
       </c>
       <c r="B324" t="n">
-        <v>189.337012324598</v>
+        <v>189.3369968304834</v>
       </c>
       <c r="C324" t="n">
-        <v>190.1897930100453</v>
+        <v>190.1897774461446</v>
       </c>
       <c r="D324" t="n">
-        <v>185.8961426509305</v>
+        <v>185.8961274383943</v>
       </c>
       <c r="E324" t="n">
-        <v>186.4613494873047</v>
+        <v>186.4613342285156</v>
       </c>
       <c r="F324" t="n">
         <v>55859400</v>
@@ -8889,16 +8889,16 @@
         <v>45322</v>
       </c>
       <c r="B325" t="n">
-        <v>185.4697339612798</v>
+        <v>185.4697494385244</v>
       </c>
       <c r="C325" t="n">
-        <v>185.5292429522646</v>
+        <v>185.5292584344751</v>
       </c>
       <c r="D325" t="n">
-        <v>182.8023300635688</v>
+        <v>182.8023453182215</v>
       </c>
       <c r="E325" t="n">
-        <v>182.8518981933594</v>
+        <v>182.8519134521484</v>
       </c>
       <c r="F325" t="n">
         <v>55467800</v>
@@ -8915,16 +8915,16 @@
         <v>45323</v>
       </c>
       <c r="B326" t="n">
-        <v>182.4453440184745</v>
+        <v>182.4453590429028</v>
       </c>
       <c r="C326" t="n">
-        <v>185.3804852934909</v>
+        <v>185.380500559629</v>
       </c>
       <c r="D326" t="n">
-        <v>182.2767730445643</v>
+        <v>182.2767880551107</v>
       </c>
       <c r="E326" t="n">
-        <v>185.2912445068359</v>
+        <v>185.291259765625</v>
       </c>
       <c r="F326" t="n">
         <v>64885400</v>
@@ -8941,16 +8941,16 @@
         <v>45324</v>
       </c>
       <c r="B327" t="n">
-        <v>178.350016469113</v>
+        <v>178.3500312361064</v>
       </c>
       <c r="C327" t="n">
-        <v>185.7573045610492</v>
+        <v>185.7573199413499</v>
       </c>
       <c r="D327" t="n">
-        <v>177.7451370154647</v>
+        <v>177.7451517323754</v>
       </c>
       <c r="E327" t="n">
-        <v>184.2897338867188</v>
+        <v>184.2897491455078</v>
       </c>
       <c r="F327" t="n">
         <v>102551700</v>
@@ -8967,16 +8967,16 @@
         <v>45327</v>
       </c>
       <c r="B328" t="n">
-        <v>186.5704255548833</v>
+        <v>186.5704408518845</v>
       </c>
       <c r="C328" t="n">
-        <v>187.6611968198497</v>
+        <v>187.6612122062837</v>
       </c>
       <c r="D328" t="n">
-        <v>184.2798210291415</v>
+        <v>184.2798361383349</v>
       </c>
       <c r="E328" t="n">
-        <v>186.1043701171875</v>
+        <v>186.1043853759766</v>
       </c>
       <c r="F328" t="n">
         <v>69668800</v>
@@ -8993,16 +8993,16 @@
         <v>45328</v>
       </c>
       <c r="B329" t="n">
-        <v>185.2912819283653</v>
+        <v>185.2912518041467</v>
       </c>
       <c r="C329" t="n">
-        <v>187.7207107722996</v>
+        <v>187.7206802531103</v>
       </c>
       <c r="D329" t="n">
-        <v>185.2020411236872</v>
+        <v>185.2020110139772</v>
       </c>
       <c r="E329" t="n">
-        <v>187.7108001708984</v>
+        <v>187.7107696533203</v>
       </c>
       <c r="F329" t="n">
         <v>43490800</v>
@@ -9019,16 +9019,16 @@
         <v>45329</v>
       </c>
       <c r="B330" t="n">
-        <v>189.0395396702894</v>
+        <v>189.0395089545354</v>
       </c>
       <c r="C330" t="n">
-        <v>189.446101272243</v>
+        <v>189.4460704904296</v>
       </c>
       <c r="D330" t="n">
-        <v>187.026583123929</v>
+        <v>187.0265527352467</v>
       </c>
       <c r="E330" t="n">
-        <v>187.8198699951172</v>
+        <v>187.8198394775391</v>
       </c>
       <c r="F330" t="n">
         <v>53439000</v>
@@ -9045,16 +9045,16 @@
         <v>45330</v>
       </c>
       <c r="B331" t="n">
-        <v>187.8000228857875</v>
+        <v>187.8000075403015</v>
       </c>
       <c r="C331" t="n">
-        <v>187.9487575459241</v>
+        <v>187.9487421882847</v>
       </c>
       <c r="D331" t="n">
-        <v>185.777155854491</v>
+        <v>185.7771406742971</v>
       </c>
       <c r="E331" t="n">
-        <v>186.739013671875</v>
+        <v>186.7389984130859</v>
       </c>
       <c r="F331" t="n">
         <v>40962000</v>
@@ -9071,16 +9071,16 @@
         <v>45331</v>
       </c>
       <c r="B332" t="n">
-        <v>187.304938639922</v>
+        <v>187.3049233972936</v>
       </c>
       <c r="C332" t="n">
-        <v>188.6353960902975</v>
+        <v>188.6353807393983</v>
       </c>
       <c r="D332" t="n">
-        <v>186.6595791337662</v>
+        <v>186.6595639436563</v>
       </c>
       <c r="E332" t="n">
-        <v>187.5035247802734</v>
+        <v>187.5035095214844</v>
       </c>
       <c r="F332" t="n">
         <v>45155200</v>
@@ -9149,16 +9149,16 @@
         <v>45336</v>
       </c>
       <c r="B335" t="n">
-        <v>183.9987075661702</v>
+        <v>183.9986922104331</v>
       </c>
       <c r="C335" t="n">
-        <v>184.2072018183139</v>
+        <v>184.2071864451767</v>
       </c>
       <c r="D335" t="n">
-        <v>181.139236622514</v>
+        <v>181.139221505416</v>
       </c>
       <c r="E335" t="n">
-        <v>182.8370361328125</v>
+        <v>182.8370208740234</v>
       </c>
       <c r="F335" t="n">
         <v>54630500</v>
@@ -9201,16 +9201,16 @@
         <v>45338</v>
       </c>
       <c r="B337" t="n">
-        <v>182.112248873086</v>
+        <v>182.1122181697006</v>
       </c>
       <c r="C337" t="n">
-        <v>183.5320611262248</v>
+        <v>183.5320301834647</v>
       </c>
       <c r="D337" t="n">
-        <v>180.3747260363757</v>
+        <v>180.3746956259296</v>
       </c>
       <c r="E337" t="n">
-        <v>181.0101623535156</v>
+        <v>181.0101318359375</v>
       </c>
       <c r="F337" t="n">
         <v>49752500</v>
@@ -9227,16 +9227,16 @@
         <v>45342</v>
       </c>
       <c r="B338" t="n">
-        <v>180.4938282671166</v>
+        <v>180.4938588233536</v>
       </c>
       <c r="C338" t="n">
-        <v>181.1292644527841</v>
+        <v>181.1292951165957</v>
       </c>
       <c r="D338" t="n">
-        <v>178.7165976564194</v>
+        <v>178.7166279117848</v>
       </c>
       <c r="E338" t="n">
-        <v>180.2654724121094</v>
+        <v>180.2655029296875</v>
       </c>
       <c r="F338" t="n">
         <v>53665600</v>
@@ -9253,16 +9253,16 @@
         <v>45343</v>
       </c>
       <c r="B339" t="n">
-        <v>180.6427850873642</v>
+        <v>180.6427698603786</v>
       </c>
       <c r="C339" t="n">
-        <v>181.5860086349742</v>
+        <v>181.5859933284812</v>
       </c>
       <c r="D339" t="n">
-        <v>179.3719125947957</v>
+        <v>179.3718974749363</v>
       </c>
       <c r="E339" t="n">
-        <v>181.0200805664062</v>
+        <v>181.0200653076172</v>
       </c>
       <c r="F339" t="n">
         <v>41371400</v>
@@ -9305,16 +9305,16 @@
         <v>45345</v>
       </c>
       <c r="B341" t="n">
-        <v>183.6908953487433</v>
+        <v>183.6908798817894</v>
       </c>
       <c r="C341" t="n">
-        <v>183.7206802403276</v>
+        <v>183.7206647708659</v>
       </c>
       <c r="D341" t="n">
-        <v>180.9307176286224</v>
+        <v>180.9307023940782</v>
       </c>
       <c r="E341" t="n">
-        <v>181.2186584472656</v>
+        <v>181.2186431884766</v>
       </c>
       <c r="F341" t="n">
         <v>45119700</v>
@@ -9357,16 +9357,16 @@
         <v>45349</v>
       </c>
       <c r="B343" t="n">
-        <v>179.8087756065873</v>
+        <v>179.8087604756301</v>
       </c>
       <c r="C343" t="n">
-        <v>182.6086613239592</v>
+        <v>182.6086459573909</v>
       </c>
       <c r="D343" t="n">
-        <v>178.2797472158991</v>
+        <v>178.27973221361</v>
       </c>
       <c r="E343" t="n">
-        <v>181.3278656005859</v>
+        <v>181.3278503417969</v>
       </c>
       <c r="F343" t="n">
         <v>54318900</v>
@@ -9383,16 +9383,16 @@
         <v>45350</v>
       </c>
       <c r="B344" t="n">
-        <v>181.2087355066488</v>
+        <v>181.2087048057168</v>
       </c>
       <c r="C344" t="n">
-        <v>181.8143869371843</v>
+        <v>181.814356133641</v>
       </c>
       <c r="D344" t="n">
-        <v>178.8457147227537</v>
+        <v>178.8456844221719</v>
       </c>
       <c r="E344" t="n">
-        <v>180.1265106201172</v>
+        <v>180.1264801025391</v>
       </c>
       <c r="F344" t="n">
         <v>48953900</v>
@@ -9409,16 +9409,16 @@
         <v>45351</v>
       </c>
       <c r="B345" t="n">
-        <v>179.9775851975784</v>
+        <v>179.9775698948909</v>
       </c>
       <c r="C345" t="n">
-        <v>181.2683194861548</v>
+        <v>181.268304073722</v>
       </c>
       <c r="D345" t="n">
-        <v>178.2499855974841</v>
+        <v>178.2499704416867</v>
       </c>
       <c r="E345" t="n">
-        <v>179.4612884521484</v>
+        <v>179.4612731933594</v>
       </c>
       <c r="F345" t="n">
         <v>136682600</v>
@@ -9487,16 +9487,16 @@
         <v>45356</v>
       </c>
       <c r="B348" t="n">
-        <v>169.5424949819158</v>
+        <v>169.5424796657224</v>
       </c>
       <c r="C348" t="n">
-        <v>170.8133675141066</v>
+        <v>170.8133520831047</v>
       </c>
       <c r="D348" t="n">
-        <v>168.4106236594959</v>
+        <v>168.410608445554</v>
       </c>
       <c r="E348" t="n">
-        <v>168.9070587158203</v>
+        <v>168.9070434570312</v>
       </c>
       <c r="F348" t="n">
         <v>95132400</v>
@@ -9539,16 +9539,16 @@
         <v>45358</v>
       </c>
       <c r="B350" t="n">
-        <v>167.9439683976919</v>
+        <v>167.9439531253601</v>
       </c>
       <c r="C350" t="n">
-        <v>169.5127049460677</v>
+        <v>169.5126895310795</v>
       </c>
       <c r="D350" t="n">
-        <v>167.2886856572273</v>
+        <v>167.2886704444849</v>
       </c>
       <c r="E350" t="n">
-        <v>167.7950439453125</v>
+        <v>167.7950286865234</v>
       </c>
       <c r="F350" t="n">
         <v>71765100</v>
@@ -9565,16 +9565,16 @@
         <v>45359</v>
       </c>
       <c r="B351" t="n">
-        <v>167.7950495135339</v>
+        <v>167.7950344093611</v>
       </c>
       <c r="C351" t="n">
-        <v>172.4615360262189</v>
+        <v>172.4615205019895</v>
       </c>
       <c r="D351" t="n">
-        <v>167.7354797306053</v>
+        <v>167.7354646317948</v>
       </c>
       <c r="E351" t="n">
-        <v>169.5127105712891</v>
+        <v>169.5126953125</v>
       </c>
       <c r="F351" t="n">
         <v>76267000</v>
@@ -9591,16 +9591,16 @@
         <v>45362</v>
       </c>
       <c r="B352" t="n">
-        <v>171.7069582907232</v>
+        <v>171.7069430151515</v>
       </c>
       <c r="C352" t="n">
-        <v>173.1366936651567</v>
+        <v>173.1366782623913</v>
       </c>
       <c r="D352" t="n">
-        <v>170.8233045037464</v>
+        <v>170.8232893067872</v>
       </c>
       <c r="E352" t="n">
-        <v>171.518310546875</v>
+        <v>171.5182952880859</v>
       </c>
       <c r="F352" t="n">
         <v>60139500</v>
@@ -9617,16 +9617,16 @@
         <v>45363</v>
       </c>
       <c r="B353" t="n">
-        <v>171.9154416255557</v>
+        <v>171.9154263738136</v>
       </c>
       <c r="C353" t="n">
-        <v>172.7891721100731</v>
+        <v>172.7891567808166</v>
       </c>
       <c r="D353" t="n">
-        <v>169.7907003427476</v>
+        <v>169.7906852795051</v>
       </c>
       <c r="E353" t="n">
-        <v>171.994873046875</v>
+        <v>171.9948577880859</v>
       </c>
       <c r="F353" t="n">
         <v>59825400</v>
@@ -9643,16 +9643,16 @@
         <v>45364</v>
       </c>
       <c r="B354" t="n">
-        <v>171.5381727031981</v>
+        <v>171.5381572981787</v>
       </c>
       <c r="C354" t="n">
-        <v>171.9551763303205</v>
+        <v>171.955160887852</v>
       </c>
       <c r="D354" t="n">
-        <v>169.5424940912606</v>
+        <v>169.5424788654635</v>
       </c>
       <c r="E354" t="n">
-        <v>169.9098663330078</v>
+        <v>169.9098510742188</v>
       </c>
       <c r="F354" t="n">
         <v>52488700</v>
@@ -9721,16 +9721,16 @@
         <v>45369</v>
       </c>
       <c r="B357" t="n">
-        <v>174.3182153296083</v>
+        <v>174.3181999083229</v>
       </c>
       <c r="C357" t="n">
-        <v>176.4429567936847</v>
+        <v>176.4429411844313</v>
       </c>
       <c r="D357" t="n">
-        <v>172.2828285408912</v>
+        <v>172.282813299669</v>
       </c>
       <c r="E357" t="n">
-        <v>172.4813995361328</v>
+        <v>172.4813842773438</v>
       </c>
       <c r="F357" t="n">
         <v>75604200</v>
@@ -9747,16 +9747,16 @@
         <v>45370</v>
       </c>
       <c r="B358" t="n">
-        <v>173.0969400514621</v>
+        <v>173.0969551594652</v>
       </c>
       <c r="C358" t="n">
-        <v>175.3507590357483</v>
+        <v>175.3507743404662</v>
       </c>
       <c r="D358" t="n">
-        <v>171.7962828664752</v>
+        <v>171.7962978609562</v>
       </c>
       <c r="E358" t="n">
-        <v>174.8245391845703</v>
+        <v>174.8245544433594</v>
       </c>
       <c r="F358" t="n">
         <v>55215200</v>
@@ -9773,16 +9773,16 @@
         <v>45371</v>
       </c>
       <c r="B359" t="n">
-        <v>174.4671240680978</v>
+        <v>174.4671540818042</v>
       </c>
       <c r="C359" t="n">
-        <v>177.3960876464844</v>
+        <v>177.3961181640625</v>
       </c>
       <c r="D359" t="n">
-        <v>173.8416110969529</v>
+        <v>173.8416410030518</v>
       </c>
       <c r="E359" t="n">
-        <v>177.3960876464844</v>
+        <v>177.3961181640625</v>
       </c>
       <c r="F359" t="n">
         <v>53423100</v>
@@ -9825,16 +9825,16 @@
         <v>45373</v>
       </c>
       <c r="B361" t="n">
-        <v>170.5353543329811</v>
+        <v>170.5353695457136</v>
       </c>
       <c r="C361" t="n">
-        <v>171.8161651814705</v>
+        <v>171.8161805084586</v>
       </c>
       <c r="D361" t="n">
-        <v>168.8474782779902</v>
+        <v>168.8474933401544</v>
       </c>
       <c r="E361" t="n">
-        <v>171.0516510009766</v>
+        <v>171.0516662597656</v>
       </c>
       <c r="F361" t="n">
         <v>71160100</v>
@@ -9877,16 +9877,16 @@
         <v>45377</v>
       </c>
       <c r="B363" t="n">
-        <v>168.7878951080797</v>
+        <v>168.7879103929424</v>
       </c>
       <c r="C363" t="n">
-        <v>170.1977686492186</v>
+        <v>170.1977840617546</v>
       </c>
       <c r="D363" t="n">
-        <v>168.3708915381648</v>
+        <v>168.370906785265</v>
       </c>
       <c r="E363" t="n">
-        <v>168.4999694824219</v>
+        <v>168.4999847412109</v>
       </c>
       <c r="F363" t="n">
         <v>57388400</v>
@@ -9903,16 +9903,16 @@
         <v>45378</v>
       </c>
       <c r="B364" t="n">
-        <v>169.1949781412918</v>
+        <v>169.1949931447558</v>
       </c>
       <c r="C364" t="n">
-        <v>172.3622358242069</v>
+        <v>172.3622511085293</v>
       </c>
       <c r="D364" t="n">
-        <v>168.8971141151568</v>
+        <v>168.8971290922075</v>
       </c>
       <c r="E364" t="n">
-        <v>172.0742950439453</v>
+        <v>172.0743103027344</v>
       </c>
       <c r="F364" t="n">
         <v>60273300</v>
@@ -9981,16 +9981,16 @@
         <v>45384</v>
       </c>
       <c r="B367" t="n">
-        <v>167.8744942517765</v>
+        <v>167.8744636908178</v>
       </c>
       <c r="C367" t="n">
-        <v>168.1326350482672</v>
+        <v>168.1326044403149</v>
       </c>
       <c r="D367" t="n">
-        <v>167.0305485267156</v>
+        <v>167.0305181193942</v>
       </c>
       <c r="E367" t="n">
-        <v>167.6361999511719</v>
+        <v>167.6361694335938</v>
       </c>
       <c r="F367" t="n">
         <v>49329500</v>
@@ -10059,16 +10059,16 @@
         <v>45387</v>
       </c>
       <c r="B370" t="n">
-        <v>168.3808338913719</v>
+        <v>168.3808186316836</v>
       </c>
       <c r="C370" t="n">
-        <v>169.1751329884852</v>
+        <v>169.1751176568126</v>
       </c>
       <c r="D370" t="n">
-        <v>167.7453976436804</v>
+        <v>167.7453824415791</v>
       </c>
       <c r="E370" t="n">
-        <v>168.3709106445312</v>
+        <v>168.3708953857422</v>
       </c>
       <c r="F370" t="n">
         <v>42104800</v>
@@ -10111,16 +10111,16 @@
         <v>45391</v>
       </c>
       <c r="B372" t="n">
-        <v>167.4971809153481</v>
+        <v>167.4971505722386</v>
       </c>
       <c r="C372" t="n">
-        <v>168.8673464856025</v>
+        <v>168.8673158942794</v>
       </c>
       <c r="D372" t="n">
-        <v>167.1496854743383</v>
+        <v>167.1496551941796</v>
       </c>
       <c r="E372" t="n">
-        <v>168.4602661132812</v>
+        <v>168.4602355957031</v>
       </c>
       <c r="F372" t="n">
         <v>42373800</v>
@@ -10163,16 +10163,16 @@
         <v>45393</v>
       </c>
       <c r="B374" t="n">
-        <v>167.1397502393056</v>
+        <v>167.1397355645765</v>
       </c>
       <c r="C374" t="n">
-        <v>174.208995705804</v>
+        <v>174.208980410401</v>
       </c>
       <c r="D374" t="n">
-        <v>166.9610408919762</v>
+        <v>166.9610262329375</v>
       </c>
       <c r="E374" t="n">
-        <v>173.7919769287109</v>
+        <v>173.7919616699219</v>
       </c>
       <c r="F374" t="n">
         <v>91070300</v>
@@ -10241,16 +10241,16 @@
         <v>45398</v>
       </c>
       <c r="B377" t="n">
-        <v>170.5254299180361</v>
+        <v>170.5254144457433</v>
       </c>
       <c r="C377" t="n">
-        <v>172.5210932508517</v>
+        <v>172.5210775974863</v>
       </c>
       <c r="D377" t="n">
-        <v>167.0702464097302</v>
+        <v>167.0702312509368</v>
       </c>
       <c r="E377" t="n">
-        <v>168.1723327636719</v>
+        <v>168.1723175048828</v>
       </c>
       <c r="F377" t="n">
         <v>73711200</v>
@@ -10319,16 +10319,16 @@
         <v>45401</v>
       </c>
       <c r="B380" t="n">
-        <v>165.0249267099425</v>
+        <v>165.02494208063</v>
       </c>
       <c r="C380" t="n">
-        <v>165.2135592809116</v>
+        <v>165.2135746691686</v>
       </c>
       <c r="D380" t="n">
-        <v>162.9101087959822</v>
+        <v>162.9101239696921</v>
       </c>
       <c r="E380" t="n">
-        <v>163.8235473632812</v>
+        <v>163.8235626220703</v>
       </c>
       <c r="F380" t="n">
         <v>68149400</v>
@@ -10345,16 +10345,16 @@
         <v>45404</v>
       </c>
       <c r="B381" t="n">
-        <v>164.3398669533782</v>
+        <v>164.3398364946844</v>
       </c>
       <c r="C381" t="n">
-        <v>166.0674512709008</v>
+        <v>166.0674204920171</v>
       </c>
       <c r="D381" t="n">
-        <v>163.5952143613438</v>
+        <v>163.5951840406637</v>
       </c>
       <c r="E381" t="n">
-        <v>164.6575775146484</v>
+        <v>164.6575469970703</v>
       </c>
       <c r="F381" t="n">
         <v>48116400</v>
@@ -10371,16 +10371,16 @@
         <v>45405</v>
       </c>
       <c r="B382" t="n">
-        <v>164.1710702430931</v>
+        <v>164.1710551260113</v>
       </c>
       <c r="C382" t="n">
-        <v>165.8589463126482</v>
+        <v>165.8589310401446</v>
       </c>
       <c r="D382" t="n">
-        <v>163.7441282399145</v>
+        <v>163.7441131621461</v>
       </c>
       <c r="E382" t="n">
-        <v>165.7100067138672</v>
+        <v>165.7099914550781</v>
       </c>
       <c r="F382" t="n">
         <v>49537800</v>
@@ -10423,16 +10423,16 @@
         <v>45407</v>
       </c>
       <c r="B384" t="n">
-        <v>168.32124662086</v>
+        <v>168.3212618473153</v>
       </c>
       <c r="C384" t="n">
-        <v>169.3935480180457</v>
+        <v>169.3935633415022</v>
       </c>
       <c r="D384" t="n">
-        <v>166.951081199457</v>
+        <v>166.9510963019663</v>
       </c>
       <c r="E384" t="n">
-        <v>168.6786804199219</v>
+        <v>168.6786956787109</v>
       </c>
       <c r="F384" t="n">
         <v>50558300</v>
@@ -10475,16 +10475,16 @@
         <v>45411</v>
       </c>
       <c r="B386" t="n">
-        <v>172.1338920039943</v>
+        <v>172.1338615092833</v>
       </c>
       <c r="C386" t="n">
-        <v>174.7749302228295</v>
+        <v>174.7748992602403</v>
       </c>
       <c r="D386" t="n">
-        <v>171.8658279731322</v>
+        <v>171.8657975259106</v>
       </c>
       <c r="E386" t="n">
-        <v>172.2629699707031</v>
+        <v>172.262939453125</v>
       </c>
       <c r="F386" t="n">
         <v>68169400</v>
@@ -10553,16 +10553,16 @@
         <v>45414</v>
       </c>
       <c r="B389" t="n">
-        <v>171.2799985231818</v>
+        <v>171.2800137361139</v>
       </c>
       <c r="C389" t="n">
-        <v>172.1835138606425</v>
+        <v>172.183529153824</v>
       </c>
       <c r="D389" t="n">
-        <v>169.6715539685769</v>
+        <v>169.6715690386484</v>
       </c>
       <c r="E389" t="n">
-        <v>171.7962951660156</v>
+        <v>171.7963104248047</v>
       </c>
       <c r="F389" t="n">
         <v>94214900</v>
@@ -10579,16 +10579,16 @@
         <v>45415</v>
       </c>
       <c r="B390" t="n">
-        <v>185.3192148963807</v>
+        <v>185.3191838346203</v>
       </c>
       <c r="C390" t="n">
-        <v>185.666725522866</v>
+        <v>185.6666944028586</v>
       </c>
       <c r="D390" t="n">
-        <v>181.3576725344308</v>
+        <v>181.3576421366733</v>
       </c>
       <c r="E390" t="n">
-        <v>182.0725402832031</v>
+        <v>182.072509765625</v>
       </c>
       <c r="F390" t="n">
         <v>163224100</v>
@@ -10657,16 +10657,16 @@
         <v>45420</v>
       </c>
       <c r="B393" t="n">
-        <v>181.5463043299869</v>
+        <v>181.5462737940387</v>
       </c>
       <c r="C393" t="n">
-        <v>181.7647369645701</v>
+        <v>181.7647063918816</v>
       </c>
       <c r="D393" t="n">
-        <v>180.1562770962763</v>
+        <v>180.1562467941296</v>
       </c>
       <c r="E393" t="n">
-        <v>181.4370880126953</v>
+        <v>181.4370574951172</v>
       </c>
       <c r="F393" t="n">
         <v>45057100</v>
@@ -10683,16 +10683,16 @@
         <v>45421</v>
       </c>
       <c r="B394" t="n">
-        <v>181.2583800534848</v>
+        <v>181.2583649608674</v>
       </c>
       <c r="C394" t="n">
-        <v>183.3434135192828</v>
+        <v>183.3433982530535</v>
       </c>
       <c r="D394" t="n">
-        <v>180.8115914965271</v>
+        <v>180.811576441112</v>
       </c>
       <c r="E394" t="n">
-        <v>183.2540588378906</v>
+        <v>183.2540435791016</v>
       </c>
       <c r="F394" t="n">
         <v>48983000</v>
@@ -10709,16 +10709,16 @@
         <v>45422</v>
       </c>
       <c r="B395" t="n">
-        <v>183.830686078945</v>
+        <v>183.8306552529416</v>
       </c>
       <c r="C395" t="n">
-        <v>184.01958970422</v>
+        <v>184.01955884654</v>
       </c>
       <c r="D395" t="n">
-        <v>181.0767163784401</v>
+        <v>181.0766860142415</v>
       </c>
       <c r="E395" t="n">
-        <v>181.9913940429688</v>
+        <v>181.9913635253906</v>
       </c>
       <c r="F395" t="n">
         <v>50759500</v>
@@ -10761,16 +10761,16 @@
         <v>45426</v>
       </c>
       <c r="B397" t="n">
-        <v>186.425562713799</v>
+        <v>186.4255779791011</v>
       </c>
       <c r="C397" t="n">
-        <v>187.2110023802185</v>
+        <v>187.2110177098357</v>
       </c>
       <c r="D397" t="n">
-        <v>185.2126171602605</v>
+        <v>185.2126323262415</v>
       </c>
       <c r="E397" t="n">
-        <v>186.3460235595703</v>
+        <v>186.3460388183594</v>
       </c>
       <c r="F397" t="n">
         <v>52393600</v>
@@ -10865,16 +10865,16 @@
         <v>45432</v>
       </c>
       <c r="B401" t="n">
-        <v>188.2350632210391</v>
+        <v>188.2350480988308</v>
       </c>
       <c r="C401" t="n">
-        <v>190.8100810190114</v>
+        <v>190.8100656899344</v>
       </c>
       <c r="D401" t="n">
-        <v>187.9169065722093</v>
+        <v>187.9168914755607</v>
       </c>
       <c r="E401" t="n">
-        <v>189.9351654052734</v>
+        <v>189.9351501464844</v>
       </c>
       <c r="F401" t="n">
         <v>44361300</v>
@@ -10917,16 +10917,16 @@
         <v>45434</v>
       </c>
       <c r="B403" t="n">
-        <v>191.1580620180571</v>
+        <v>191.158046649762</v>
       </c>
       <c r="C403" t="n">
-        <v>191.7048842739564</v>
+        <v>191.7048688616991</v>
       </c>
       <c r="D403" t="n">
-        <v>189.1696284842733</v>
+        <v>189.1696132758398</v>
       </c>
       <c r="E403" t="n">
-        <v>189.7959747314453</v>
+        <v>189.7959594726562</v>
       </c>
       <c r="F403" t="n">
         <v>34648500</v>
@@ -10943,16 +10943,16 @@
         <v>45435</v>
       </c>
       <c r="B404" t="n">
-        <v>189.8755042892658</v>
+        <v>189.8755198828199</v>
       </c>
       <c r="C404" t="n">
-        <v>189.89539287135</v>
+        <v>189.8954084665374</v>
       </c>
       <c r="D404" t="n">
-        <v>185.5506706743646</v>
+        <v>185.5506859127412</v>
       </c>
       <c r="E404" t="n">
-        <v>185.7992248535156</v>
+        <v>185.7992401123047</v>
       </c>
       <c r="F404" t="n">
         <v>51005900</v>
@@ -10969,16 +10969,16 @@
         <v>45436</v>
       </c>
       <c r="B405" t="n">
-        <v>187.7280219308774</v>
+        <v>187.7280067652561</v>
       </c>
       <c r="C405" t="n">
-        <v>189.4778380232483</v>
+        <v>189.4778227162681</v>
       </c>
       <c r="D405" t="n">
-        <v>186.9525188762844</v>
+        <v>186.9525037733123</v>
       </c>
       <c r="E405" t="n">
-        <v>188.8813018798828</v>
+        <v>188.8812866210938</v>
       </c>
       <c r="F405" t="n">
         <v>36327000</v>
@@ -11047,16 +11047,16 @@
         <v>45442</v>
       </c>
       <c r="B408" t="n">
-        <v>189.6567973718936</v>
+        <v>189.6567669388692</v>
       </c>
       <c r="C408" t="n">
-        <v>191.0685834525777</v>
+        <v>191.0685527930129</v>
       </c>
       <c r="D408" t="n">
-        <v>189.5275594997307</v>
+        <v>189.5275290874443</v>
       </c>
       <c r="E408" t="n">
-        <v>190.1837310791016</v>
+        <v>190.1837005615234</v>
       </c>
       <c r="F408" t="n">
         <v>49889100</v>
@@ -11073,16 +11073,16 @@
         <v>45443</v>
       </c>
       <c r="B409" t="n">
-        <v>190.3328703970531</v>
+        <v>190.3328400080532</v>
       </c>
       <c r="C409" t="n">
-        <v>191.4563402579262</v>
+        <v>191.4563096895504</v>
       </c>
       <c r="D409" t="n">
-        <v>188.8117198765045</v>
+        <v>188.8116897303752</v>
       </c>
       <c r="E409" t="n">
-        <v>191.13818359375</v>
+        <v>191.1381530761719</v>
       </c>
       <c r="F409" t="n">
         <v>75158300</v>
@@ -11099,16 +11099,16 @@
         <v>45446</v>
       </c>
       <c r="B410" t="n">
-        <v>191.784412862338</v>
+        <v>191.7843976924141</v>
       </c>
       <c r="C410" t="n">
-        <v>193.8623374845637</v>
+        <v>193.8623221502784</v>
       </c>
       <c r="D410" t="n">
-        <v>191.4066207978332</v>
+        <v>191.4066056577922</v>
       </c>
       <c r="E410" t="n">
-        <v>192.9078826904297</v>
+        <v>192.9078674316406</v>
       </c>
       <c r="F410" t="n">
         <v>50080500</v>
@@ -11125,16 +11125,16 @@
         <v>45447</v>
       </c>
       <c r="B411" t="n">
-        <v>193.5143293388277</v>
+        <v>193.5143446203846</v>
       </c>
       <c r="C411" t="n">
-        <v>194.1904045536658</v>
+        <v>194.1904198886115</v>
       </c>
       <c r="D411" t="n">
-        <v>191.9136399156656</v>
+        <v>191.9136550708184</v>
       </c>
       <c r="E411" t="n">
-        <v>193.2260131835938</v>
+        <v>193.2260284423828</v>
       </c>
       <c r="F411" t="n">
         <v>47471400</v>
@@ -11177,16 +11177,16 @@
         <v>45449</v>
       </c>
       <c r="B413" t="n">
-        <v>194.5582793350848</v>
+        <v>194.5582946888103</v>
       </c>
       <c r="C413" t="n">
-        <v>195.3635924798522</v>
+        <v>195.3636078971296</v>
       </c>
       <c r="D413" t="n">
-        <v>193.0470656187862</v>
+        <v>193.047080853253</v>
       </c>
       <c r="E413" t="n">
-        <v>193.3552703857422</v>
+        <v>193.3552856445312</v>
       </c>
       <c r="F413" t="n">
         <v>41181800</v>
@@ -11229,16 +11229,16 @@
         <v>45453</v>
       </c>
       <c r="B415" t="n">
-        <v>195.7612660385386</v>
+        <v>195.7612815959928</v>
       </c>
       <c r="C415" t="n">
-        <v>196.1589618287401</v>
+        <v>196.1589774177998</v>
       </c>
       <c r="D415" t="n">
-        <v>191.0387366200161</v>
+        <v>191.0387518021634</v>
       </c>
       <c r="E415" t="n">
-        <v>192.0031280517578</v>
+        <v>192.0031433105469</v>
       </c>
       <c r="F415" t="n">
         <v>97010200</v>
@@ -11255,16 +11255,16 @@
         <v>45454</v>
       </c>
       <c r="B416" t="n">
-        <v>192.5300695841464</v>
+        <v>192.5300553197752</v>
       </c>
       <c r="C416" t="n">
-        <v>205.9619477263615</v>
+        <v>205.9619324668351</v>
       </c>
       <c r="D416" t="n">
-        <v>192.5101961717298</v>
+        <v>192.510181908831</v>
       </c>
       <c r="E416" t="n">
-        <v>205.9519958496094</v>
+        <v>205.9519805908203</v>
       </c>
       <c r="F416" t="n">
         <v>172373300</v>
@@ -11281,16 +11281,16 @@
         <v>45455</v>
       </c>
       <c r="B417" t="n">
-        <v>206.1707358379729</v>
+        <v>206.1707209873844</v>
       </c>
       <c r="C417" t="n">
-        <v>218.9265393804105</v>
+        <v>218.9265236110146</v>
       </c>
       <c r="D417" t="n">
-        <v>205.7034527218097</v>
+        <v>205.7034379048798</v>
       </c>
       <c r="E417" t="n">
-        <v>211.8377838134766</v>
+        <v>211.8377685546875</v>
       </c>
       <c r="F417" t="n">
         <v>198134300</v>
@@ -11307,16 +11307,16 @@
         <v>45456</v>
       </c>
       <c r="B418" t="n">
-        <v>213.4981154669776</v>
+        <v>213.4980848781766</v>
       </c>
       <c r="C418" t="n">
-        <v>215.4964857209176</v>
+        <v>215.4964548458014</v>
       </c>
       <c r="D418" t="n">
-        <v>210.3762754040707</v>
+        <v>210.3762452625493</v>
       </c>
       <c r="E418" t="n">
-        <v>213.0010070800781</v>
+        <v>213.0009765625</v>
       </c>
       <c r="F418" t="n">
         <v>97862700</v>
@@ -11411,16 +11411,16 @@
         <v>45463</v>
       </c>
       <c r="B422" t="n">
-        <v>212.6927826496957</v>
+        <v>212.6927670816265</v>
       </c>
       <c r="C422" t="n">
-        <v>213.0010025863277</v>
+        <v>213.0009869956984</v>
       </c>
       <c r="D422" t="n">
-        <v>207.6421748954302</v>
+        <v>207.6421596970407</v>
       </c>
       <c r="E422" t="n">
-        <v>208.4673614501953</v>
+        <v>208.4673461914062</v>
       </c>
       <c r="F422" t="n">
         <v>86172500</v>
@@ -11515,16 +11515,16 @@
         <v>45469</v>
       </c>
       <c r="B426" t="n">
-        <v>210.2768443064002</v>
+        <v>210.2768291728298</v>
       </c>
       <c r="C426" t="n">
-        <v>213.6174132199336</v>
+        <v>213.6173978459433</v>
       </c>
       <c r="D426" t="n">
-        <v>209.4218172877416</v>
+        <v>209.4218022157072</v>
       </c>
       <c r="E426" t="n">
-        <v>212.0167236328125</v>
+        <v>212.0167083740234</v>
       </c>
       <c r="F426" t="n">
         <v>66213200</v>
@@ -11541,16 +11541,16 @@
         <v>45470</v>
       </c>
       <c r="B427" t="n">
-        <v>213.4484006592916</v>
+        <v>213.4483853584538</v>
       </c>
       <c r="C427" t="n">
-        <v>214.4923313013169</v>
+        <v>214.492315925646</v>
       </c>
       <c r="D427" t="n">
-        <v>211.1219370597224</v>
+        <v>211.1219219256549</v>
       </c>
       <c r="E427" t="n">
-        <v>212.86181640625</v>
+        <v>212.8618011474609</v>
       </c>
       <c r="F427" t="n">
         <v>49772700</v>
@@ -11593,16 +11593,16 @@
         <v>45474</v>
       </c>
       <c r="B429" t="n">
-        <v>210.8634216386627</v>
+        <v>210.8634365693964</v>
       </c>
       <c r="C429" t="n">
-        <v>216.2520744695974</v>
+        <v>216.2520897818886</v>
       </c>
       <c r="D429" t="n">
-        <v>210.6944066158183</v>
+        <v>210.6944215345844</v>
       </c>
       <c r="E429" t="n">
-        <v>215.4964752197266</v>
+        <v>215.4964904785156</v>
       </c>
       <c r="F429" t="n">
         <v>60402900</v>
@@ -11619,16 +11619,16 @@
         <v>45475</v>
       </c>
       <c r="B430" t="n">
-        <v>214.8999410071237</v>
+        <v>214.8999260337406</v>
       </c>
       <c r="C430" t="n">
-        <v>219.1054887151507</v>
+        <v>219.1054734487415</v>
       </c>
       <c r="D430" t="n">
-        <v>213.8560255727553</v>
+        <v>213.8560106721081</v>
       </c>
       <c r="E430" t="n">
-        <v>218.9961242675781</v>
+        <v>218.9961090087891</v>
       </c>
       <c r="F430" t="n">
         <v>58046200</v>
@@ -11645,16 +11645,16 @@
         <v>45476</v>
       </c>
       <c r="B431" t="n">
-        <v>218.7276835478024</v>
+        <v>218.7276683957665</v>
       </c>
       <c r="C431" t="n">
-        <v>220.2687225341797</v>
+        <v>220.2687072753906</v>
       </c>
       <c r="D431" t="n">
-        <v>217.7632920930618</v>
+        <v>217.7632770078327</v>
       </c>
       <c r="E431" t="n">
-        <v>220.2687225341797</v>
+        <v>220.2687072753906</v>
       </c>
       <c r="F431" t="n">
         <v>37369800</v>
@@ -11775,16 +11775,16 @@
         <v>45484</v>
       </c>
       <c r="B436" t="n">
-        <v>230.0518217466028</v>
+        <v>230.0518062316796</v>
       </c>
       <c r="C436" t="n">
-        <v>231.0460385336438</v>
+        <v>231.0460229516697</v>
       </c>
       <c r="D436" t="n">
-        <v>224.4643282580064</v>
+        <v>224.4643131199093</v>
       </c>
       <c r="E436" t="n">
-        <v>226.2539215087891</v>
+        <v>226.25390625</v>
       </c>
       <c r="F436" t="n">
         <v>64710600</v>
@@ -11801,16 +11801,16 @@
         <v>45485</v>
       </c>
       <c r="B437" t="n">
-        <v>227.5960997712765</v>
+        <v>227.5960846197104</v>
       </c>
       <c r="C437" t="n">
-        <v>231.294587346624</v>
+        <v>231.2945719488415</v>
       </c>
       <c r="D437" t="n">
-        <v>227.357482286545</v>
+        <v>227.3574671508641</v>
       </c>
       <c r="E437" t="n">
-        <v>229.2067260742188</v>
+        <v>229.2067108154297</v>
       </c>
       <c r="F437" t="n">
         <v>53046500</v>
@@ -11879,16 +11879,16 @@
         <v>45490</v>
       </c>
       <c r="B440" t="n">
-        <v>228.1230464069532</v>
+        <v>228.1230311101644</v>
       </c>
       <c r="C440" t="n">
-        <v>230.1214319251083</v>
+        <v>230.1214164943178</v>
       </c>
       <c r="D440" t="n">
-        <v>225.3292995689129</v>
+        <v>225.3292844594588</v>
       </c>
       <c r="E440" t="n">
-        <v>227.5563507080078</v>
+        <v>227.5563354492188</v>
       </c>
       <c r="F440" t="n">
         <v>57345900</v>
@@ -11905,16 +11905,16 @@
         <v>45491</v>
       </c>
       <c r="B441" t="n">
-        <v>228.9482429378798</v>
+        <v>228.9482272638944</v>
       </c>
       <c r="C441" t="n">
-        <v>229.1073212664266</v>
+        <v>229.1073055815506</v>
       </c>
       <c r="D441" t="n">
-        <v>220.984571850493</v>
+        <v>220.9845567217071</v>
       </c>
       <c r="E441" t="n">
-        <v>222.8835144042969</v>
+        <v>222.8834991455078</v>
       </c>
       <c r="F441" t="n">
         <v>66034600</v>
@@ -11931,16 +11931,16 @@
         <v>45492</v>
       </c>
       <c r="B442" t="n">
-        <v>223.5198013048721</v>
+        <v>223.5198165983548</v>
       </c>
       <c r="C442" t="n">
-        <v>225.488346083744</v>
+        <v>225.4883615119168</v>
       </c>
       <c r="D442" t="n">
-        <v>221.9886991219942</v>
+        <v>221.9887143107171</v>
       </c>
       <c r="E442" t="n">
-        <v>223.0127410888672</v>
+        <v>223.0127563476562</v>
       </c>
       <c r="F442" t="n">
         <v>49151500</v>
@@ -12061,16 +12061,16 @@
         <v>45499</v>
       </c>
       <c r="B447" t="n">
-        <v>217.4351887967129</v>
+        <v>217.4352041073067</v>
       </c>
       <c r="C447" t="n">
-        <v>218.2206284835583</v>
+        <v>218.2206438494584</v>
       </c>
       <c r="D447" t="n">
-        <v>214.7607434520739</v>
+        <v>214.7607585743479</v>
       </c>
       <c r="E447" t="n">
-        <v>216.6994781494141</v>
+        <v>216.6994934082031</v>
       </c>
       <c r="F447" t="n">
         <v>41601300</v>
@@ -12087,16 +12087,16 @@
         <v>45502</v>
       </c>
       <c r="B448" t="n">
-        <v>215.7052784956351</v>
+        <v>215.7052633263403</v>
       </c>
       <c r="C448" t="n">
-        <v>218.0317421116191</v>
+        <v>218.0317267787177</v>
       </c>
       <c r="D448" t="n">
-        <v>214.50226952108</v>
+        <v>214.5022544363858</v>
       </c>
       <c r="E448" t="n">
-        <v>216.9778747558594</v>
+        <v>216.9778594970703</v>
       </c>
       <c r="F448" t="n">
         <v>36311800</v>
@@ -12139,16 +12139,16 @@
         <v>45504</v>
       </c>
       <c r="B450" t="n">
-        <v>220.1593409785744</v>
+        <v>220.1593561933901</v>
       </c>
       <c r="C450" t="n">
-        <v>222.5255814985746</v>
+        <v>222.5255968769169</v>
       </c>
       <c r="D450" t="n">
-        <v>219.3540279062832</v>
+        <v>219.3540430654452</v>
       </c>
       <c r="E450" t="n">
-        <v>220.7956390380859</v>
+        <v>220.795654296875</v>
       </c>
       <c r="F450" t="n">
         <v>50036300</v>
@@ -12165,16 +12165,16 @@
         <v>45505</v>
       </c>
       <c r="B451" t="n">
-        <v>223.0724207939435</v>
+        <v>223.0724051151817</v>
       </c>
       <c r="C451" t="n">
-        <v>223.1817852498598</v>
+        <v>223.1817695634113</v>
       </c>
       <c r="D451" t="n">
-        <v>215.7649363431366</v>
+        <v>215.7649211779852</v>
       </c>
       <c r="E451" t="n">
-        <v>217.0971832275391</v>
+        <v>217.09716796875</v>
       </c>
       <c r="F451" t="n">
         <v>62501000</v>
@@ -12191,16 +12191,16 @@
         <v>45506</v>
       </c>
       <c r="B452" t="n">
-        <v>217.8826003905683</v>
+        <v>217.8825851810554</v>
       </c>
       <c r="C452" t="n">
-        <v>224.2953107321561</v>
+        <v>224.2952950749975</v>
       </c>
       <c r="D452" t="n">
-        <v>216.450940976396</v>
+        <v>216.4509258668214</v>
       </c>
       <c r="E452" t="n">
-        <v>218.5885009765625</v>
+        <v>218.5884857177734</v>
       </c>
       <c r="F452" t="n">
         <v>105568600</v>
@@ -12217,16 +12217,16 @@
         <v>45509</v>
       </c>
       <c r="B453" t="n">
-        <v>197.9386040162881</v>
+        <v>197.9386185328084</v>
       </c>
       <c r="C453" t="n">
-        <v>212.2652706555635</v>
+        <v>212.2652862227801</v>
       </c>
       <c r="D453" t="n">
-        <v>194.866477978878</v>
+        <v>194.8664922700932</v>
       </c>
       <c r="E453" t="n">
-        <v>208.0597381591797</v>
+        <v>208.0597534179688</v>
       </c>
       <c r="F453" t="n">
         <v>119548600</v>
@@ -12295,16 +12295,16 @@
         <v>45512</v>
       </c>
       <c r="B456" t="n">
-        <v>211.8775299255005</v>
+        <v>211.8775451699831</v>
       </c>
       <c r="C456" t="n">
-        <v>212.96122253044</v>
+        <v>212.9612378528938</v>
       </c>
       <c r="D456" t="n">
-        <v>207.6222834948103</v>
+        <v>207.62229843313</v>
       </c>
       <c r="E456" t="n">
-        <v>212.0763702392578</v>
+        <v>212.0763854980469</v>
       </c>
       <c r="F456" t="n">
         <v>47161100</v>
@@ -12321,16 +12321,16 @@
         <v>45513</v>
       </c>
       <c r="B457" t="n">
-        <v>210.8733840757052</v>
+        <v>210.8733691090516</v>
       </c>
       <c r="C457" t="n">
-        <v>215.5263113015057</v>
+        <v>215.5262960046125</v>
       </c>
       <c r="D457" t="n">
-        <v>210.7441310403627</v>
+        <v>210.7441160828828</v>
       </c>
       <c r="E457" t="n">
-        <v>214.9894409179688</v>
+        <v>214.9894256591797</v>
       </c>
       <c r="F457" t="n">
         <v>42201600</v>
@@ -12347,16 +12347,16 @@
         <v>45516</v>
       </c>
       <c r="B458" t="n">
-        <v>215.0690801889043</v>
+        <v>215.0690650325273</v>
       </c>
       <c r="C458" t="n">
-        <v>218.4931319043141</v>
+        <v>218.4931165066369</v>
       </c>
       <c r="D458" t="n">
-        <v>214.6012562114996</v>
+        <v>214.6012410880911</v>
       </c>
       <c r="E458" t="n">
-        <v>216.5223083496094</v>
+        <v>216.5222930908203</v>
       </c>
       <c r="F458" t="n">
         <v>38028100</v>
@@ -12373,16 +12373,16 @@
         <v>45517</v>
       </c>
       <c r="B459" t="n">
-        <v>217.9954394973066</v>
+        <v>217.9954243943679</v>
       </c>
       <c r="C459" t="n">
-        <v>220.8621028730892</v>
+        <v>220.8620875715453</v>
       </c>
       <c r="D459" t="n">
-        <v>217.9954394973066</v>
+        <v>217.9954243943679</v>
       </c>
       <c r="E459" t="n">
-        <v>220.2449798583984</v>
+        <v>220.2449645996094</v>
       </c>
       <c r="F459" t="n">
         <v>44155300</v>
@@ -12399,16 +12399,16 @@
         <v>45518</v>
       </c>
       <c r="B460" t="n">
-        <v>219.5482197870256</v>
+        <v>219.548234966672</v>
       </c>
       <c r="C460" t="n">
-        <v>221.9968153653892</v>
+        <v>221.9968307143324</v>
       </c>
       <c r="D460" t="n">
-        <v>218.6822397221969</v>
+        <v>218.6822548419691</v>
       </c>
       <c r="E460" t="n">
-        <v>220.6928863525391</v>
+        <v>220.6929016113281</v>
       </c>
       <c r="F460" t="n">
         <v>41960600</v>
@@ -12425,16 +12425,16 @@
         <v>45519</v>
       </c>
       <c r="B461" t="n">
-        <v>223.5595463560131</v>
+        <v>223.5595616066544</v>
       </c>
       <c r="C461" t="n">
-        <v>224.3060719802811</v>
+        <v>224.3060872818483</v>
       </c>
       <c r="D461" t="n">
-        <v>221.7280586148511</v>
+        <v>221.728073740553</v>
       </c>
       <c r="E461" t="n">
-        <v>223.6789855957031</v>
+        <v>223.6790008544922</v>
       </c>
       <c r="F461" t="n">
         <v>46414000</v>
@@ -12477,16 +12477,16 @@
         <v>45523</v>
       </c>
       <c r="B463" t="n">
-        <v>224.6743562399008</v>
+        <v>224.6743714872065</v>
       </c>
       <c r="C463" t="n">
-        <v>224.9431097210682</v>
+        <v>224.9431249866126</v>
       </c>
       <c r="D463" t="n">
-        <v>222.0067634073601</v>
+        <v>222.0067784736323</v>
       </c>
       <c r="E463" t="n">
-        <v>224.8435668945312</v>
+        <v>224.8435821533203</v>
       </c>
       <c r="F463" t="n">
         <v>40687800</v>
@@ -12503,16 +12503,16 @@
         <v>45524</v>
       </c>
       <c r="B464" t="n">
-        <v>224.7241311088456</v>
+        <v>224.7241158999058</v>
       </c>
       <c r="C464" t="n">
-        <v>226.117639573174</v>
+        <v>226.117624269924</v>
       </c>
       <c r="D464" t="n">
-        <v>224.4056062095116</v>
+        <v>224.405591022129</v>
       </c>
       <c r="E464" t="n">
-        <v>225.460693359375</v>
+        <v>225.4606781005859</v>
       </c>
       <c r="F464" t="n">
         <v>30299000</v>
@@ -12529,16 +12529,16 @@
         <v>45525</v>
       </c>
       <c r="B465" t="n">
-        <v>225.4706659840429</v>
+        <v>225.4706507171655</v>
       </c>
       <c r="C465" t="n">
-        <v>226.9238941294544</v>
+        <v>226.9238787641772</v>
       </c>
       <c r="D465" t="n">
-        <v>224.0074744425549</v>
+        <v>224.0074592747518</v>
       </c>
       <c r="E465" t="n">
-        <v>225.3512115478516</v>
+        <v>225.3511962890625</v>
       </c>
       <c r="F465" t="n">
         <v>34765500</v>
@@ -12607,16 +12607,16 @@
         <v>45530</v>
       </c>
       <c r="B468" t="n">
-        <v>225.7095414433551</v>
+        <v>225.7095262127757</v>
       </c>
       <c r="C468" t="n">
-        <v>226.2271368249435</v>
+        <v>226.2271215594374</v>
       </c>
       <c r="D468" t="n">
-        <v>222.8528414189355</v>
+        <v>222.8528263811224</v>
       </c>
       <c r="E468" t="n">
-        <v>226.1275939941406</v>
+        <v>226.1275787353516</v>
       </c>
       <c r="F468" t="n">
         <v>30602200</v>
@@ -12633,16 +12633,16 @@
         <v>45531</v>
       </c>
       <c r="B469" t="n">
-        <v>224.9530683997657</v>
+        <v>224.9530532768154</v>
       </c>
       <c r="C469" t="n">
-        <v>227.7898720189865</v>
+        <v>227.7898567053261</v>
       </c>
       <c r="D469" t="n">
-        <v>223.8482098014285</v>
+        <v>223.8481947527548</v>
       </c>
       <c r="E469" t="n">
-        <v>226.9736633300781</v>
+        <v>226.9736480712891</v>
       </c>
       <c r="F469" t="n">
         <v>35934600</v>
@@ -12737,16 +12737,16 @@
         <v>45538</v>
       </c>
       <c r="B473" t="n">
-        <v>227.4912447757539</v>
+        <v>227.4912760851423</v>
       </c>
       <c r="C473" t="n">
-        <v>227.9391571123717</v>
+        <v>227.9391884834057</v>
       </c>
       <c r="D473" t="n">
-        <v>220.1454277780532</v>
+        <v>220.1454580764442</v>
       </c>
       <c r="E473" t="n">
-        <v>221.7380218505859</v>
+        <v>221.7380523681641</v>
       </c>
       <c r="F473" t="n">
         <v>50190600</v>
@@ -12815,16 +12815,16 @@
         <v>45541</v>
       </c>
       <c r="B476" t="n">
-        <v>222.9125480449781</v>
+        <v>222.9125635200513</v>
       </c>
       <c r="C476" t="n">
-        <v>224.1965806221913</v>
+        <v>224.1965961864048</v>
       </c>
       <c r="D476" t="n">
-        <v>218.7519191953913</v>
+        <v>218.7519343816246</v>
       </c>
       <c r="E476" t="n">
-        <v>219.7970581054688</v>
+        <v>219.7970733642578</v>
       </c>
       <c r="F476" t="n">
         <v>48423000</v>
@@ -12893,16 +12893,16 @@
         <v>45546</v>
       </c>
       <c r="B479" t="n">
-        <v>220.4341020290199</v>
+        <v>220.4340868524661</v>
       </c>
       <c r="C479" t="n">
-        <v>222.0565407908522</v>
+        <v>222.056525502596</v>
       </c>
       <c r="D479" t="n">
-        <v>216.8806326219321</v>
+        <v>216.8806176900293</v>
       </c>
       <c r="E479" t="n">
-        <v>221.6285400390625</v>
+        <v>221.6285247802734</v>
       </c>
       <c r="F479" t="n">
         <v>44587100</v>
@@ -12919,16 +12919,16 @@
         <v>45547</v>
       </c>
       <c r="B480" t="n">
-        <v>221.4692683733742</v>
+        <v>221.4692988539641</v>
       </c>
       <c r="C480" t="n">
-        <v>222.5144072842174</v>
+        <v>222.5144379086487</v>
       </c>
       <c r="D480" t="n">
-        <v>218.8016907682</v>
+        <v>218.8017208816538</v>
       </c>
       <c r="E480" t="n">
-        <v>221.7380218505859</v>
+        <v>221.7380523681641</v>
       </c>
       <c r="F480" t="n">
         <v>37455600</v>
@@ -12997,16 +12997,16 @@
         <v>45552</v>
       </c>
       <c r="B483" t="n">
-        <v>214.7505300879131</v>
+        <v>214.7505452735021</v>
       </c>
       <c r="C483" t="n">
-        <v>215.8951965948326</v>
+        <v>215.8952118613641</v>
       </c>
       <c r="D483" t="n">
-        <v>213.5063207594779</v>
+        <v>213.5063358570856</v>
       </c>
       <c r="E483" t="n">
-        <v>215.7857055664062</v>
+        <v>215.7857208251953</v>
       </c>
       <c r="F483" t="n">
         <v>45519300</v>
@@ -13023,16 +13023,16 @@
         <v>45553</v>
       </c>
       <c r="B484" t="n">
-        <v>216.5422251657341</v>
+        <v>216.5422101240486</v>
       </c>
       <c r="C484" t="n">
-        <v>221.6783256446234</v>
+        <v>221.6783102461687</v>
       </c>
       <c r="D484" t="n">
-        <v>216.532261769313</v>
+        <v>216.5322467283196</v>
       </c>
       <c r="E484" t="n">
-        <v>219.6676788330078</v>
+        <v>219.6676635742188</v>
       </c>
       <c r="F484" t="n">
         <v>59894900</v>
@@ -13101,16 +13101,16 @@
         <v>45558</v>
       </c>
       <c r="B487" t="n">
-        <v>226.2868633772075</v>
+        <v>226.2868480598011</v>
       </c>
       <c r="C487" t="n">
-        <v>228.3870895913876</v>
+        <v>228.3870741318164</v>
       </c>
       <c r="D487" t="n">
-        <v>224.7639521855337</v>
+        <v>224.7639369712135</v>
       </c>
       <c r="E487" t="n">
-        <v>225.4208984375</v>
+        <v>225.4208831787109</v>
       </c>
       <c r="F487" t="n">
         <v>54146000</v>
@@ -13127,16 +13127,16 @@
         <v>45559</v>
       </c>
       <c r="B488" t="n">
-        <v>227.5907653100159</v>
+        <v>227.5907959993953</v>
       </c>
       <c r="C488" t="n">
-        <v>228.2875346875682</v>
+        <v>228.2875654709032</v>
       </c>
       <c r="D488" t="n">
-        <v>224.6842941282367</v>
+        <v>224.6843244256943</v>
       </c>
       <c r="E488" t="n">
-        <v>226.3166961669922</v>
+        <v>226.3167266845703</v>
       </c>
       <c r="F488" t="n">
         <v>43556100</v>
@@ -13179,16 +13179,16 @@
         <v>45561</v>
       </c>
       <c r="B490" t="n">
-        <v>226.2470366109127</v>
+        <v>226.2470518549472</v>
       </c>
       <c r="C490" t="n">
-        <v>227.4414745776386</v>
+        <v>227.4414899021518</v>
       </c>
       <c r="D490" t="n">
-        <v>224.3657926365912</v>
+        <v>224.3658077538716</v>
       </c>
       <c r="E490" t="n">
-        <v>226.4660186767578</v>
+        <v>226.4660339355469</v>
       </c>
       <c r="F490" t="n">
         <v>36636700</v>
@@ -13231,16 +13231,16 @@
         <v>45565</v>
       </c>
       <c r="B492" t="n">
-        <v>228.9743444087421</v>
+        <v>228.9743594736852</v>
       </c>
       <c r="C492" t="n">
-        <v>231.9206390380859</v>
+        <v>231.920654296875</v>
       </c>
       <c r="D492" t="n">
-        <v>228.5861516719536</v>
+        <v>228.5861667113562</v>
       </c>
       <c r="E492" t="n">
-        <v>231.9206390380859</v>
+        <v>231.920654296875</v>
       </c>
       <c r="F492" t="n">
         <v>54541900</v>
@@ -13335,16 +13335,16 @@
         <v>45569</v>
       </c>
       <c r="B496" t="n">
-        <v>226.8442389696054</v>
+        <v>226.8442543024003</v>
       </c>
       <c r="C496" t="n">
-        <v>226.9437817912459</v>
+        <v>226.9437971307691</v>
       </c>
       <c r="D496" t="n">
-        <v>223.0917145657714</v>
+        <v>223.0917296449267</v>
       </c>
       <c r="E496" t="n">
-        <v>225.7493438720703</v>
+        <v>225.7493591308594</v>
       </c>
       <c r="F496" t="n">
         <v>37245100</v>
@@ -13361,16 +13361,16 @@
         <v>45572</v>
       </c>
       <c r="B497" t="n">
-        <v>223.4600206171574</v>
+        <v>223.4600051649579</v>
       </c>
       <c r="C497" t="n">
-        <v>224.6445104616612</v>
+        <v>224.6444949275546</v>
       </c>
       <c r="D497" t="n">
-        <v>220.3047072265611</v>
+        <v>220.3046919925507</v>
       </c>
       <c r="E497" t="n">
-        <v>220.6630401611328</v>
+        <v>220.6630249023438</v>
       </c>
       <c r="F497" t="n">
         <v>39505400</v>
@@ -13387,16 +13387,16 @@
         <v>45573</v>
       </c>
       <c r="B498" t="n">
-        <v>223.2609599962389</v>
+        <v>223.2609448368007</v>
       </c>
       <c r="C498" t="n">
-        <v>224.9331703059954</v>
+        <v>224.933155033014</v>
       </c>
       <c r="D498" t="n">
-        <v>222.2158209585888</v>
+        <v>222.2158058701156</v>
       </c>
       <c r="E498" t="n">
-        <v>224.7241516113281</v>
+        <v>224.7241363525391</v>
       </c>
       <c r="F498" t="n">
         <v>31855700</v>
@@ -13517,16 +13517,16 @@
         <v>45580</v>
       </c>
       <c r="B503" t="n">
-        <v>232.527799450427</v>
+        <v>232.5278146935557</v>
       </c>
       <c r="C503" t="n">
-        <v>236.3898301635819</v>
+        <v>236.3898456598821</v>
       </c>
       <c r="D503" t="n">
-        <v>231.2935382977429</v>
+        <v>231.2935534599607</v>
       </c>
       <c r="E503" t="n">
-        <v>232.7666931152344</v>
+        <v>232.7667083740234</v>
       </c>
       <c r="F503" t="n">
         <v>64751400</v>
@@ -13543,16 +13543,16 @@
         <v>45581</v>
       </c>
       <c r="B504" t="n">
-        <v>230.5271247052497</v>
+        <v>230.5271094583102</v>
       </c>
       <c r="C504" t="n">
-        <v>231.0447048824563</v>
+        <v>231.0446896012842</v>
       </c>
       <c r="D504" t="n">
-        <v>228.7752681420796</v>
+        <v>228.7752530110069</v>
       </c>
       <c r="E504" t="n">
-        <v>230.7062835693359</v>
+        <v>230.7062683105469</v>
       </c>
       <c r="F504" t="n">
         <v>34082200</v>
@@ -13673,16 +13673,16 @@
         <v>45588</v>
       </c>
       <c r="B509" t="n">
-        <v>232.9956370655622</v>
+        <v>232.9956215872407</v>
       </c>
       <c r="C509" t="n">
-        <v>234.0507242345666</v>
+        <v>234.0507086861539</v>
       </c>
       <c r="D509" t="n">
-        <v>226.7049068825192</v>
+        <v>226.7048918221024</v>
       </c>
       <c r="E509" t="n">
-        <v>229.6910095214844</v>
+        <v>229.6909942626953</v>
       </c>
       <c r="F509" t="n">
         <v>52287000</v>
@@ -13751,16 +13751,16 @@
         <v>45593</v>
       </c>
       <c r="B512" t="n">
-        <v>232.2391705803882</v>
+        <v>232.2391553268284</v>
       </c>
       <c r="C512" t="n">
-        <v>233.6426273223557</v>
+        <v>233.6426119766163</v>
       </c>
       <c r="D512" t="n">
-        <v>231.4727332926884</v>
+        <v>231.4727180894684</v>
       </c>
       <c r="E512" t="n">
-        <v>232.3187866210938</v>
+        <v>232.3187713623047</v>
       </c>
       <c r="F512" t="n">
         <v>36087100</v>
@@ -13777,16 +13777,16 @@
         <v>45594</v>
       </c>
       <c r="B513" t="n">
-        <v>232.0201880523175</v>
+        <v>232.0201728307493</v>
       </c>
       <c r="C513" t="n">
-        <v>233.244485918189</v>
+        <v>233.2444706163013</v>
       </c>
       <c r="D513" t="n">
-        <v>231.2438025580474</v>
+        <v>231.2437873874136</v>
       </c>
       <c r="E513" t="n">
-        <v>232.5875396728516</v>
+        <v>232.5875244140625</v>
       </c>
       <c r="F513" t="n">
         <v>35417200</v>
@@ -14089,16 +14089,16 @@
         <v>45610</v>
       </c>
       <c r="B525" t="n">
-        <v>224.2240270670375</v>
+        <v>224.2240421118748</v>
       </c>
       <c r="C525" t="n">
-        <v>228.0603991005682</v>
+        <v>228.0604144028158</v>
       </c>
       <c r="D525" t="n">
-        <v>224.2040935569292</v>
+        <v>224.204108600429</v>
       </c>
       <c r="E525" t="n">
-        <v>227.4127044677734</v>
+        <v>227.4127197265625</v>
       </c>
       <c r="F525" t="n">
         <v>44923900</v>
@@ -14115,16 +14115,16 @@
         <v>45611</v>
       </c>
       <c r="B526" t="n">
-        <v>225.5991278698978</v>
+        <v>225.5991432236301</v>
       </c>
       <c r="C526" t="n">
-        <v>226.1172926822584</v>
+        <v>226.1173080712557</v>
       </c>
       <c r="D526" t="n">
-        <v>223.4766728588287</v>
+        <v>223.4766880681117</v>
       </c>
       <c r="E526" t="n">
-        <v>224.2040863037109</v>
+        <v>224.2041015625</v>
       </c>
       <c r="F526" t="n">
         <v>47923700</v>
@@ -14141,16 +14141,16 @@
         <v>45614</v>
       </c>
       <c r="B527" t="n">
-        <v>224.4531886532215</v>
+        <v>224.4532188000698</v>
       </c>
       <c r="C527" t="n">
-        <v>228.9273109618171</v>
+        <v>228.9273417095955</v>
       </c>
       <c r="D527" t="n">
-        <v>224.3734698249049</v>
+        <v>224.3734999610459</v>
       </c>
       <c r="E527" t="n">
-        <v>227.2133941650391</v>
+        <v>227.2134246826172</v>
       </c>
       <c r="F527" t="n">
         <v>44633700</v>
@@ -14167,16 +14167,16 @@
         <v>45615</v>
       </c>
       <c r="B528" t="n">
-        <v>226.1770839408332</v>
+        <v>226.1770687689395</v>
       </c>
       <c r="C528" t="n">
-        <v>229.3458430169113</v>
+        <v>229.3458276324582</v>
       </c>
       <c r="D528" t="n">
-        <v>225.8582238051146</v>
+        <v>225.8582086546099</v>
       </c>
       <c r="E528" t="n">
-        <v>227.4724884033203</v>
+        <v>227.4724731445312</v>
       </c>
       <c r="F528" t="n">
         <v>36211800</v>
@@ -14193,16 +14193,16 @@
         <v>45616</v>
       </c>
       <c r="B529" t="n">
-        <v>227.2532641048254</v>
+        <v>227.25327930098</v>
       </c>
       <c r="C529" t="n">
-        <v>229.1166443503319</v>
+        <v>229.1166596710885</v>
       </c>
       <c r="D529" t="n">
-        <v>225.0909420304879</v>
+        <v>225.0909570820506</v>
       </c>
       <c r="E529" t="n">
-        <v>228.18994140625</v>
+        <v>228.1899566650391</v>
       </c>
       <c r="F529" t="n">
         <v>35169600</v>
@@ -14219,16 +14219,16 @@
         <v>45617</v>
       </c>
       <c r="B530" t="n">
-        <v>228.0703665513171</v>
+        <v>228.0703818341442</v>
       </c>
       <c r="C530" t="n">
-        <v>229.345837472986</v>
+        <v>229.3458528412815</v>
       </c>
       <c r="D530" t="n">
-        <v>224.9115819089953</v>
+        <v>224.9115969801546</v>
       </c>
       <c r="E530" t="n">
-        <v>227.7116394042969</v>
+        <v>227.7116546630859</v>
       </c>
       <c r="F530" t="n">
         <v>42108300</v>
@@ -14297,16 +14297,16 @@
         <v>45622</v>
       </c>
       <c r="B533" t="n">
-        <v>232.5046242958029</v>
+        <v>232.5046394422903</v>
       </c>
       <c r="C533" t="n">
-        <v>234.7367060320631</v>
+        <v>234.7367213239591</v>
       </c>
       <c r="D533" t="n">
-        <v>232.5046242958029</v>
+        <v>232.5046394422903</v>
       </c>
       <c r="E533" t="n">
-        <v>234.2285003662109</v>
+        <v>234.228515625</v>
       </c>
       <c r="F533" t="n">
         <v>45986200</v>
@@ -14349,16 +14349,16 @@
         <v>45625</v>
       </c>
       <c r="B535" t="n">
-        <v>233.979373326336</v>
+        <v>233.9794035198741</v>
       </c>
       <c r="C535" t="n">
-        <v>236.96876103247</v>
+        <v>236.9687916117694</v>
       </c>
       <c r="D535" t="n">
-        <v>233.1423484177734</v>
+        <v>233.1423785032988</v>
       </c>
       <c r="E535" t="n">
-        <v>236.4904632568359</v>
+        <v>236.4904937744141</v>
       </c>
       <c r="F535" t="n">
         <v>28481400</v>
@@ -14453,16 +14453,16 @@
         <v>45631</v>
       </c>
       <c r="B539" t="n">
-        <v>243.1269189823759</v>
+        <v>243.1269343008096</v>
       </c>
       <c r="C539" t="n">
-        <v>243.6749612569442</v>
+        <v>243.6749766099078</v>
       </c>
       <c r="D539" t="n">
-        <v>241.2734979097132</v>
+        <v>241.2735131113704</v>
       </c>
       <c r="E539" t="n">
-        <v>242.1802673339844</v>
+        <v>242.1802825927734</v>
       </c>
       <c r="F539" t="n">
         <v>40033900</v>
@@ -14479,16 +14479,16 @@
         <v>45632</v>
       </c>
       <c r="B540" t="n">
-        <v>242.0507319698173</v>
+        <v>242.0507472330053</v>
       </c>
       <c r="C540" t="n">
-        <v>243.7646488451358</v>
+        <v>243.7646642163996</v>
       </c>
       <c r="D540" t="n">
-        <v>241.2236661935451</v>
+        <v>241.2236814045801</v>
       </c>
       <c r="E540" t="n">
-        <v>241.9809722900391</v>
+        <v>241.9809875488281</v>
       </c>
       <c r="F540" t="n">
         <v>36870600</v>
@@ -14531,16 +14531,16 @@
         <v>45636</v>
       </c>
       <c r="B542" t="n">
-        <v>246.0166626912396</v>
+        <v>246.0166474866452</v>
       </c>
       <c r="C542" t="n">
-        <v>247.3320006856302</v>
+        <v>247.3319853997438</v>
       </c>
       <c r="D542" t="n">
-        <v>244.4721425450312</v>
+        <v>244.4721274358929</v>
       </c>
       <c r="E542" t="n">
-        <v>246.8935546875</v>
+        <v>246.8935394287109</v>
       </c>
       <c r="F542" t="n">
         <v>36914800</v>
@@ -14583,16 +14583,16 @@
         <v>45638</v>
       </c>
       <c r="B544" t="n">
-        <v>246.0166634068319</v>
+        <v>246.0166482138882</v>
       </c>
       <c r="C544" t="n">
-        <v>247.8601253939288</v>
+        <v>247.8601100871407</v>
       </c>
       <c r="D544" t="n">
-        <v>244.8109369084667</v>
+        <v>244.8109217899835</v>
       </c>
       <c r="E544" t="n">
-        <v>247.0828857421875</v>
+        <v>247.0828704833984</v>
       </c>
       <c r="F544" t="n">
         <v>32777500</v>
@@ -14609,16 +14609,16 @@
         <v>45639</v>
       </c>
       <c r="B545" t="n">
-        <v>246.9433725816478</v>
+        <v>246.9433878213735</v>
       </c>
       <c r="C545" t="n">
-        <v>248.4081586374719</v>
+        <v>248.4081739675946</v>
       </c>
       <c r="D545" t="n">
-        <v>245.3689598251532</v>
+        <v>245.3689749677165</v>
       </c>
       <c r="E545" t="n">
-        <v>247.2522735595703</v>
+        <v>247.2522888183594</v>
       </c>
       <c r="F545" t="n">
         <v>33155300</v>
@@ -14635,16 +14635,16 @@
         <v>45642</v>
       </c>
       <c r="B546" t="n">
-        <v>247.1127786134494</v>
+        <v>247.1127635400456</v>
       </c>
       <c r="C546" t="n">
-        <v>250.490786396497</v>
+        <v>250.4907711170412</v>
       </c>
       <c r="D546" t="n">
-        <v>246.7739697560149</v>
+        <v>246.7739547032778</v>
       </c>
       <c r="E546" t="n">
-        <v>250.1519775390625</v>
+        <v>250.1519622802734</v>
       </c>
       <c r="F546" t="n">
         <v>51694800</v>
@@ -14713,16 +14713,16 @@
         <v>45645</v>
       </c>
       <c r="B549" t="n">
-        <v>246.6245097734382</v>
+        <v>246.6244946545368</v>
       </c>
       <c r="C549" t="n">
-        <v>251.1085917693189</v>
+        <v>251.1085763755283</v>
       </c>
       <c r="D549" t="n">
-        <v>246.2159564313249</v>
+        <v>246.2159413374691</v>
       </c>
       <c r="E549" t="n">
-        <v>248.9064025878906</v>
+        <v>248.9063873291016</v>
       </c>
       <c r="F549" t="n">
         <v>60882300</v>
@@ -14739,16 +14739,16 @@
         <v>45646</v>
       </c>
       <c r="B550" t="n">
-        <v>247.1626013953669</v>
+        <v>247.1625716512524</v>
       </c>
       <c r="C550" t="n">
-        <v>254.0979884768534</v>
+        <v>254.0979578981185</v>
       </c>
       <c r="D550" t="n">
-        <v>244.8209231734688</v>
+        <v>244.8208937111572</v>
       </c>
       <c r="E550" t="n">
-        <v>253.5897979736328</v>
+        <v>253.5897674560547</v>
       </c>
       <c r="F550" t="n">
         <v>147495300</v>
@@ -14765,16 +14765,16 @@
         <v>45649</v>
       </c>
       <c r="B551" t="n">
-        <v>253.8688035675433</v>
+        <v>253.8687731097403</v>
       </c>
       <c r="C551" t="n">
-        <v>254.7456803947061</v>
+        <v>254.7456498317001</v>
       </c>
       <c r="D551" t="n">
-        <v>252.5534655195782</v>
+        <v>252.5534352195823</v>
       </c>
       <c r="E551" t="n">
-        <v>254.3670349121094</v>
+        <v>254.3670043945312</v>
       </c>
       <c r="F551" t="n">
         <v>40858800</v>
@@ -14843,16 +14843,16 @@
         <v>45653</v>
       </c>
       <c r="B554" t="n">
-        <v>256.917949151404</v>
+        <v>256.9179337588869</v>
       </c>
       <c r="C554" t="n">
-        <v>257.7848971924942</v>
+        <v>257.7848817480364</v>
       </c>
       <c r="D554" t="n">
-        <v>252.1648333049514</v>
+        <v>252.1648181972039</v>
       </c>
       <c r="E554" t="n">
-        <v>254.6858825683594</v>
+        <v>254.6858673095703</v>
       </c>
       <c r="F554" t="n">
         <v>42355300</v>
@@ -14869,16 +14869,16 @@
         <v>45656</v>
       </c>
       <c r="B555" t="n">
-        <v>251.3377539893414</v>
+        <v>251.3377692499455</v>
       </c>
       <c r="C555" t="n">
-        <v>252.6032657318147</v>
+        <v>252.6032810692575</v>
       </c>
       <c r="D555" t="n">
-        <v>249.8629936183532</v>
+        <v>249.8630087894135</v>
       </c>
       <c r="E555" t="n">
-        <v>251.307861328125</v>
+        <v>251.3078765869141</v>
       </c>
       <c r="F555" t="n">
         <v>35557500</v>
@@ -14895,16 +14895,16 @@
         <v>45657</v>
       </c>
       <c r="B556" t="n">
-        <v>251.5470231538791</v>
+        <v>251.5470385357527</v>
       </c>
       <c r="C556" t="n">
-        <v>252.384048095303</v>
+        <v>252.3840635283598</v>
       </c>
       <c r="D556" t="n">
-        <v>248.5476609732247</v>
+        <v>248.5476761716899</v>
       </c>
       <c r="E556" t="n">
-        <v>249.5341644287109</v>
+        <v>249.5341796875</v>
       </c>
       <c r="F556" t="n">
         <v>39480700</v>
@@ -14999,16 +14999,16 @@
         <v>45664</v>
       </c>
       <c r="B560" t="n">
-        <v>242.1204910028268</v>
+        <v>242.1204756955299</v>
       </c>
       <c r="C560" t="n">
-        <v>244.681407317594</v>
+        <v>244.6813918483913</v>
       </c>
       <c r="D560" t="n">
-        <v>240.496267218822</v>
+        <v>240.4962520142114</v>
       </c>
       <c r="E560" t="n">
-        <v>241.3532257080078</v>
+        <v>241.3532104492188</v>
       </c>
       <c r="F560" t="n">
         <v>40856000</v>
@@ -15129,16 +15129,16 @@
         <v>45672</v>
       </c>
       <c r="B565" t="n">
-        <v>233.8099793161749</v>
+        <v>233.8099943677675</v>
       </c>
       <c r="C565" t="n">
-        <v>238.1147049629049</v>
+        <v>238.1147202916155</v>
       </c>
       <c r="D565" t="n">
-        <v>233.6007154841204</v>
+        <v>233.6007305222416</v>
       </c>
       <c r="E565" t="n">
-        <v>237.0285491943359</v>
+        <v>237.028564453125</v>
       </c>
       <c r="F565" t="n">
         <v>39832000</v>
@@ -15259,16 +15259,16 @@
         <v>45680</v>
       </c>
       <c r="B570" t="n">
-        <v>223.9450322465422</v>
+        <v>223.945016914072</v>
       </c>
       <c r="C570" t="n">
-        <v>226.2269251350915</v>
+        <v>226.2269096463908</v>
       </c>
       <c r="D570" t="n">
-        <v>221.5136608303883</v>
+        <v>221.5136456643827</v>
       </c>
       <c r="E570" t="n">
-        <v>222.8688507080078</v>
+        <v>222.8688354492188</v>
       </c>
       <c r="F570" t="n">
         <v>60234800</v>
@@ -15389,16 +15389,16 @@
         <v>45687</v>
       </c>
       <c r="B575" t="n">
-        <v>237.825723654139</v>
+        <v>237.8257389822892</v>
       </c>
       <c r="C575" t="n">
-        <v>239.9382194716127</v>
+        <v>239.9382349359158</v>
       </c>
       <c r="D575" t="n">
-        <v>236.3708967927962</v>
+        <v>236.3709120271811</v>
       </c>
       <c r="E575" t="n">
-        <v>236.7495422363281</v>
+        <v>236.7495574951172</v>
       </c>
       <c r="F575" t="n">
         <v>55658300</v>
@@ -15441,16 +15441,16 @@
         <v>45691</v>
       </c>
       <c r="B577" t="n">
-        <v>229.1764370558195</v>
+        <v>229.1764524471141</v>
       </c>
       <c r="C577" t="n">
-        <v>231.0099245763286</v>
+        <v>231.0099400907586</v>
       </c>
       <c r="D577" t="n">
-        <v>224.9016040205491</v>
+        <v>224.9016191247495</v>
       </c>
       <c r="E577" t="n">
-        <v>227.2034301757812</v>
+        <v>227.2034454345703</v>
       </c>
       <c r="F577" t="n">
         <v>73063300</v>
@@ -15467,16 +15467,16 @@
         <v>45692</v>
       </c>
       <c r="B578" t="n">
-        <v>226.44613087125</v>
+        <v>226.4461457662662</v>
       </c>
       <c r="C578" t="n">
-        <v>232.3053359547129</v>
+        <v>232.3053512351318</v>
       </c>
       <c r="D578" t="n">
-        <v>225.8482472160674</v>
+        <v>225.8482620717564</v>
       </c>
       <c r="E578" t="n">
-        <v>231.9765014648438</v>
+        <v>231.9765167236328</v>
       </c>
       <c r="F578" t="n">
         <v>45067300</v>
@@ -15493,16 +15493,16 @@
         <v>45693</v>
       </c>
       <c r="B579" t="n">
-        <v>227.7216242683326</v>
+        <v>227.7215942679796</v>
       </c>
       <c r="C579" t="n">
-        <v>231.8469793224458</v>
+        <v>231.846948778613</v>
       </c>
       <c r="D579" t="n">
-        <v>227.4625494347713</v>
+        <v>227.4625194685491</v>
       </c>
       <c r="E579" t="n">
-        <v>231.6476898193359</v>
+        <v>231.6476593017578</v>
       </c>
       <c r="F579" t="n">
         <v>39620300</v>
@@ -15545,16 +15545,16 @@
         <v>45695</v>
       </c>
       <c r="B581" t="n">
-        <v>231.7772035941854</v>
+        <v>231.77721918613</v>
       </c>
       <c r="C581" t="n">
-        <v>233.1722451327125</v>
+        <v>233.1722608185033</v>
       </c>
       <c r="D581" t="n">
-        <v>226.4560818290891</v>
+        <v>226.4560970630751</v>
       </c>
       <c r="E581" t="n">
-        <v>226.8247833251953</v>
+        <v>226.8247985839844</v>
       </c>
       <c r="F581" t="n">
         <v>39707200</v>
@@ -15597,16 +15597,16 @@
         <v>45699</v>
       </c>
       <c r="B583" t="n">
-        <v>227.6427961872311</v>
+        <v>227.6427812183734</v>
       </c>
       <c r="C583" t="n">
-        <v>234.6556296697615</v>
+        <v>234.6556142397685</v>
       </c>
       <c r="D583" t="n">
-        <v>227.5729750229086</v>
+        <v>227.5729600586419</v>
       </c>
       <c r="E583" t="n">
-        <v>232.052001953125</v>
+        <v>232.0519866943359</v>
       </c>
       <c r="F583" t="n">
         <v>53718400</v>
@@ -15649,16 +15649,16 @@
         <v>45701</v>
       </c>
       <c r="B585" t="n">
-        <v>236.3315322675825</v>
+        <v>236.3315173006641</v>
       </c>
       <c r="C585" t="n">
-        <v>241.7482663414184</v>
+        <v>241.7482510314573</v>
       </c>
       <c r="D585" t="n">
-        <v>234.9948078453487</v>
+        <v>234.9947929630853</v>
       </c>
       <c r="E585" t="n">
-        <v>240.9402465820312</v>
+        <v>240.9402313232422</v>
       </c>
       <c r="F585" t="n">
         <v>53614100</v>
@@ -15753,16 +15753,16 @@
         <v>45708</v>
       </c>
       <c r="B589" t="n">
-        <v>244.3419101310375</v>
+        <v>244.3419253345839</v>
       </c>
       <c r="C589" t="n">
-        <v>246.1774135823035</v>
+        <v>246.1774289000594</v>
       </c>
       <c r="D589" t="n">
-        <v>243.6934881623141</v>
+        <v>243.6935033255141</v>
       </c>
       <c r="E589" t="n">
-        <v>245.229736328125</v>
+        <v>245.2297515869141</v>
       </c>
       <c r="F589" t="n">
         <v>32316900</v>
@@ -15857,16 +15857,16 @@
         <v>45714</v>
       </c>
       <c r="B593" t="n">
-        <v>243.7333937698084</v>
+        <v>243.7334092806253</v>
       </c>
       <c r="C593" t="n">
-        <v>244.3818005030484</v>
+        <v>244.3818160551289</v>
       </c>
       <c r="D593" t="n">
-        <v>238.5460942392985</v>
+        <v>238.5461094200037</v>
       </c>
       <c r="E593" t="n">
-        <v>239.7730865478516</v>
+        <v>239.7731018066406</v>
       </c>
       <c r="F593" t="n">
         <v>44433600</v>
@@ -16091,16 +16091,16 @@
         <v>45727</v>
       </c>
       <c r="B602" t="n">
-        <v>223.2635152882841</v>
+        <v>223.2634998242848</v>
       </c>
       <c r="C602" t="n">
-        <v>225.2885573705892</v>
+        <v>225.2885417663285</v>
       </c>
       <c r="D602" t="n">
-        <v>216.9190440448537</v>
+        <v>216.9190290202944</v>
       </c>
       <c r="E602" t="n">
-        <v>220.3007659912109</v>
+        <v>220.3007507324219</v>
       </c>
       <c r="F602" t="n">
         <v>76137400</v>
@@ -16143,16 +16143,16 @@
         <v>45729</v>
       </c>
       <c r="B604" t="n">
-        <v>215.4227092543014</v>
+        <v>215.4226935392329</v>
       </c>
       <c r="C604" t="n">
-        <v>216.3105355217808</v>
+        <v>216.3105197419454</v>
       </c>
       <c r="D604" t="n">
-        <v>207.9110965632093</v>
+        <v>207.9110813961123</v>
       </c>
       <c r="E604" t="n">
-        <v>209.1680145263672</v>
+        <v>209.1679992675781</v>
       </c>
       <c r="F604" t="n">
         <v>61368300</v>
@@ -16169,16 +16169,16 @@
         <v>45730</v>
       </c>
       <c r="B605" t="n">
-        <v>210.7341834889886</v>
+        <v>210.7341683902996</v>
       </c>
       <c r="C605" t="n">
-        <v>213.4275877602813</v>
+        <v>213.4275724686152</v>
       </c>
       <c r="D605" t="n">
-        <v>209.0682630129612</v>
+        <v>209.0682480336321</v>
       </c>
       <c r="E605" t="n">
-        <v>212.9687194824219</v>
+        <v>212.9687042236328</v>
       </c>
       <c r="F605" t="n">
         <v>60107600</v>
@@ -16221,16 +16221,16 @@
         <v>45734</v>
       </c>
       <c r="B607" t="n">
-        <v>213.6370660568716</v>
+        <v>213.6370814211214</v>
       </c>
       <c r="C607" t="n">
-        <v>214.6246389251954</v>
+        <v>214.624654360469</v>
       </c>
       <c r="D607" t="n">
-        <v>210.9735875107531</v>
+        <v>210.973602683452</v>
       </c>
       <c r="E607" t="n">
-        <v>212.170654296875</v>
+        <v>212.1706695556641</v>
       </c>
       <c r="F607" t="n">
         <v>42432400</v>
@@ -16299,16 +16299,16 @@
         <v>45737</v>
       </c>
       <c r="B610" t="n">
-        <v>211.0434078881146</v>
+        <v>211.0434226778215</v>
       </c>
       <c r="C610" t="n">
-        <v>218.3056302814506</v>
+        <v>218.3056455800866</v>
       </c>
       <c r="D610" t="n">
-        <v>210.764092813104</v>
+        <v>210.7641075832368</v>
       </c>
       <c r="E610" t="n">
-        <v>217.7370300292969</v>
+        <v>217.7370452880859</v>
       </c>
       <c r="F610" t="n">
         <v>94127800</v>
@@ -16377,16 +16377,16 @@
         <v>45742</v>
       </c>
       <c r="B613" t="n">
-        <v>222.9642203562523</v>
+        <v>222.9642357514217</v>
       </c>
       <c r="C613" t="n">
-        <v>224.4705429297273</v>
+        <v>224.4705584289048</v>
       </c>
       <c r="D613" t="n">
-        <v>219.9316502269997</v>
+        <v>219.9316654127771</v>
       </c>
       <c r="E613" t="n">
-        <v>220.9890594482422</v>
+        <v>220.9890747070312</v>
       </c>
       <c r="F613" t="n">
         <v>34466100</v>
@@ -16403,16 +16403,16 @@
         <v>45743</v>
       </c>
       <c r="B614" t="n">
-        <v>220.8494059295757</v>
+        <v>220.8494210206779</v>
       </c>
       <c r="C614" t="n">
-        <v>224.4406214835582</v>
+        <v>224.4406368200556</v>
       </c>
       <c r="D614" t="n">
-        <v>220.0214308095873</v>
+        <v>220.0214458441122</v>
       </c>
       <c r="E614" t="n">
-        <v>223.3034057617188</v>
+        <v>223.3034210205078</v>
       </c>
       <c r="F614" t="n">
         <v>37094800</v>
@@ -16481,16 +16481,16 @@
         <v>45748</v>
       </c>
       <c r="B617" t="n">
-        <v>219.2732679074421</v>
+        <v>219.273282935151</v>
       </c>
       <c r="C617" t="n">
-        <v>223.1338133128227</v>
+        <v>223.1338286051108</v>
       </c>
       <c r="D617" t="n">
-        <v>218.3654862823353</v>
+        <v>218.3655012478301</v>
       </c>
       <c r="E617" t="n">
-        <v>222.64501953125</v>
+        <v>222.6450347900391</v>
       </c>
       <c r="F617" t="n">
         <v>36412700</v>
@@ -16507,16 +16507,16 @@
         <v>45749</v>
       </c>
       <c r="B618" t="n">
-        <v>220.7795908052514</v>
+        <v>220.7796058888877</v>
       </c>
       <c r="C618" t="n">
-        <v>224.6401362151353</v>
+        <v>224.6401515625236</v>
       </c>
       <c r="D618" t="n">
-        <v>220.4803202973195</v>
+        <v>220.4803353605096</v>
       </c>
       <c r="E618" t="n">
-        <v>223.3433074951172</v>
+        <v>223.3433227539062</v>
       </c>
       <c r="F618" t="n">
         <v>35905900</v>
@@ -16533,16 +16533,16 @@
         <v>45750</v>
       </c>
       <c r="B619" t="n">
-        <v>205.0381156657125</v>
+        <v>205.0381002304481</v>
       </c>
       <c r="C619" t="n">
-        <v>206.9833664271943</v>
+        <v>206.9833508454915</v>
       </c>
       <c r="D619" t="n">
-        <v>200.7585974778203</v>
+        <v>200.758582364718</v>
       </c>
       <c r="E619" t="n">
-        <v>202.6938629150391</v>
+        <v>202.69384765625</v>
       </c>
       <c r="F619" t="n">
         <v>103419000</v>
@@ -16611,16 +16611,16 @@
         <v>45755</v>
       </c>
       <c r="B622" t="n">
-        <v>186.244123618335</v>
+        <v>186.2441070957976</v>
       </c>
       <c r="C622" t="n">
-        <v>189.8752350665279</v>
+        <v>189.8752182218586</v>
       </c>
       <c r="D622" t="n">
-        <v>168.7968394376211</v>
+        <v>168.7968244629091</v>
       </c>
       <c r="E622" t="n">
-        <v>171.9989929199219</v>
+        <v>171.9989776611328</v>
       </c>
       <c r="F622" t="n">
         <v>120859500</v>
@@ -16663,16 +16663,16 @@
         <v>45757</v>
       </c>
       <c r="B624" t="n">
-        <v>188.6083530498886</v>
+        <v>188.6083378992774</v>
       </c>
       <c r="C624" t="n">
-        <v>194.3044023572991</v>
+        <v>194.3043867491332</v>
       </c>
       <c r="D624" t="n">
-        <v>182.5531669279647</v>
+        <v>182.553152263757</v>
       </c>
       <c r="E624" t="n">
-        <v>189.9550476074219</v>
+        <v>189.9550323486328</v>
       </c>
       <c r="F624" t="n">
         <v>121880000</v>
@@ -16741,16 +16741,16 @@
         <v>45762</v>
       </c>
       <c r="B627" t="n">
-        <v>201.3671082485446</v>
+        <v>201.3670930108916</v>
       </c>
       <c r="C627" t="n">
-        <v>203.013073266667</v>
+        <v>203.0130579044621</v>
       </c>
       <c r="D627" t="n">
-        <v>199.3121406961873</v>
+        <v>199.3121256140358</v>
       </c>
       <c r="E627" t="n">
-        <v>201.6464233398438</v>
+        <v>201.6464080810547</v>
       </c>
       <c r="F627" t="n">
         <v>51343900</v>
@@ -16819,16 +16819,16 @@
         <v>45768</v>
       </c>
       <c r="B630" t="n">
-        <v>192.7980712406539</v>
+        <v>192.7980865081325</v>
       </c>
       <c r="C630" t="n">
-        <v>193.3267758515581</v>
+        <v>193.3267911609043</v>
       </c>
       <c r="D630" t="n">
-        <v>189.3465132845993</v>
+        <v>189.3465282787526</v>
       </c>
       <c r="E630" t="n">
-        <v>192.6883392333984</v>
+        <v>192.6883544921875</v>
       </c>
       <c r="F630" t="n">
         <v>46742500</v>
@@ -16871,16 +16871,16 @@
         <v>45770</v>
       </c>
       <c r="B632" t="n">
-        <v>205.4970088747083</v>
+        <v>205.4969935115097</v>
       </c>
       <c r="C632" t="n">
-        <v>207.4921254657249</v>
+        <v>207.492109953369</v>
       </c>
       <c r="D632" t="n">
-        <v>202.3048253733881</v>
+        <v>202.3048102488409</v>
       </c>
       <c r="E632" t="n">
-        <v>204.1004333496094</v>
+        <v>204.1004180908203</v>
       </c>
       <c r="F632" t="n">
         <v>52929200</v>
@@ -16975,16 +16975,16 @@
         <v>45776</v>
       </c>
       <c r="B636" t="n">
-        <v>208.1804239669747</v>
+        <v>208.1804390437069</v>
       </c>
       <c r="C636" t="n">
-        <v>211.7217586344391</v>
+        <v>211.7217739676401</v>
       </c>
       <c r="D636" t="n">
-        <v>207.8611980354541</v>
+        <v>207.8612130890675</v>
       </c>
       <c r="E636" t="n">
-        <v>210.6942749023438</v>
+        <v>210.6942901611328</v>
       </c>
       <c r="F636" t="n">
         <v>36827600</v>
@@ -17105,16 +17105,16 @@
         <v>45783</v>
       </c>
       <c r="B641" t="n">
-        <v>197.7260132783305</v>
+        <v>197.7260285140605</v>
       </c>
       <c r="C641" t="n">
-        <v>200.1600424480363</v>
+        <v>200.1600578713198</v>
       </c>
       <c r="D641" t="n">
-        <v>196.5389166103485</v>
+        <v>196.538931754607</v>
       </c>
       <c r="E641" t="n">
-        <v>198.0252685546875</v>
+        <v>198.0252838134766</v>
       </c>
       <c r="F641" t="n">
         <v>51216500</v>
@@ -20017,24 +20017,50 @@
         <v>45945</v>
       </c>
       <c r="B753" t="n">
-        <v>249.3800048828125</v>
+        <v>249.4900054931641</v>
       </c>
       <c r="C753" t="n">
         <v>251.8200073242188</v>
       </c>
       <c r="D753" t="n">
-        <v>247.4799957275391</v>
+        <v>247.4700012207031</v>
       </c>
       <c r="E753" t="n">
         <v>249.3399963378906</v>
       </c>
       <c r="F753" t="n">
-        <v>31761708</v>
+        <v>33839800</v>
       </c>
       <c r="G753" t="n">
         <v>0</v>
       </c>
       <c r="H753" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" s="2" t="n">
+        <v>45946</v>
+      </c>
+      <c r="B754" t="n">
+        <v>248.2700042724609</v>
+      </c>
+      <c r="C754" t="n">
+        <v>249.0399932861328</v>
+      </c>
+      <c r="D754" t="n">
+        <v>246.1799926757812</v>
+      </c>
+      <c r="E754" t="n">
+        <v>248.1300964355469</v>
+      </c>
+      <c r="F754" t="n">
+        <v>14586968</v>
+      </c>
+      <c r="G754" t="n">
+        <v>0</v>
+      </c>
+      <c r="H754" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20049,7 +20075,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GA2"/>
+  <dimension ref="A1:FW2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20715,255 +20741,235 @@
       </c>
       <c r="EC1" s="1" t="inlineStr">
         <is>
+          <t>marketState</t>
+        </is>
+      </c>
+      <c r="ED1" s="1" t="inlineStr">
+        <is>
+          <t>longName</t>
+        </is>
+      </c>
+      <c r="EE1" s="1" t="inlineStr">
+        <is>
+          <t>exchange</t>
+        </is>
+      </c>
+      <c r="EF1" s="1" t="inlineStr">
+        <is>
+          <t>messageBoardId</t>
+        </is>
+      </c>
+      <c r="EG1" s="1" t="inlineStr">
+        <is>
+          <t>exchangeTimezoneName</t>
+        </is>
+      </c>
+      <c r="EH1" s="1" t="inlineStr">
+        <is>
+          <t>exchangeTimezoneShortName</t>
+        </is>
+      </c>
+      <c r="EI1" s="1" t="inlineStr">
+        <is>
+          <t>gmtOffSetMilliseconds</t>
+        </is>
+      </c>
+      <c r="EJ1" s="1" t="inlineStr">
+        <is>
+          <t>market</t>
+        </is>
+      </c>
+      <c r="EK1" s="1" t="inlineStr">
+        <is>
+          <t>esgPopulated</t>
+        </is>
+      </c>
+      <c r="EL1" s="1" t="inlineStr">
+        <is>
+          <t>regularMarketChangePercent</t>
+        </is>
+      </c>
+      <c r="EM1" s="1" t="inlineStr">
+        <is>
+          <t>regularMarketPrice</t>
+        </is>
+      </c>
+      <c r="EN1" s="1" t="inlineStr">
+        <is>
+          <t>priceEpsCurrentYear</t>
+        </is>
+      </c>
+      <c r="EO1" s="1" t="inlineStr">
+        <is>
+          <t>fiftyDayAverageChange</t>
+        </is>
+      </c>
+      <c r="EP1" s="1" t="inlineStr">
+        <is>
+          <t>fiftyDayAverageChangePercent</t>
+        </is>
+      </c>
+      <c r="EQ1" s="1" t="inlineStr">
+        <is>
+          <t>twoHundredDayAverageChange</t>
+        </is>
+      </c>
+      <c r="ER1" s="1" t="inlineStr">
+        <is>
+          <t>twoHundredDayAverageChangePercent</t>
+        </is>
+      </c>
+      <c r="ES1" s="1" t="inlineStr">
+        <is>
+          <t>sourceInterval</t>
+        </is>
+      </c>
+      <c r="ET1" s="1" t="inlineStr">
+        <is>
+          <t>exchangeDataDelayedBy</t>
+        </is>
+      </c>
+      <c r="EU1" s="1" t="inlineStr">
+        <is>
+          <t>averageAnalystRating</t>
+        </is>
+      </c>
+      <c r="EV1" s="1" t="inlineStr">
+        <is>
+          <t>cryptoTradeable</t>
+        </is>
+      </c>
+      <c r="EW1" s="1" t="inlineStr">
+        <is>
+          <t>hasPrePostMarketData</t>
+        </is>
+      </c>
+      <c r="EX1" s="1" t="inlineStr">
+        <is>
+          <t>firstTradeDateMilliseconds</t>
+        </is>
+      </c>
+      <c r="EY1" s="1" t="inlineStr">
+        <is>
+          <t>regularMarketChange</t>
+        </is>
+      </c>
+      <c r="EZ1" s="1" t="inlineStr">
+        <is>
+          <t>regularMarketDayRange</t>
+        </is>
+      </c>
+      <c r="FA1" s="1" t="inlineStr">
+        <is>
+          <t>fullExchangeName</t>
+        </is>
+      </c>
+      <c r="FB1" s="1" t="inlineStr">
+        <is>
+          <t>averageDailyVolume3Month</t>
+        </is>
+      </c>
+      <c r="FC1" s="1" t="inlineStr">
+        <is>
+          <t>fiftyTwoWeekLowChange</t>
+        </is>
+      </c>
+      <c r="FD1" s="1" t="inlineStr">
+        <is>
+          <t>fiftyTwoWeekLowChangePercent</t>
+        </is>
+      </c>
+      <c r="FE1" s="1" t="inlineStr">
+        <is>
+          <t>shortName</t>
+        </is>
+      </c>
+      <c r="FF1" s="1" t="inlineStr">
+        <is>
           <t>corporateActions</t>
         </is>
       </c>
-      <c r="ED1" s="1" t="inlineStr">
-        <is>
-          <t>postMarketTime</t>
-        </is>
-      </c>
-      <c r="EE1" s="1" t="inlineStr">
+      <c r="FG1" s="1" t="inlineStr">
         <is>
           <t>regularMarketTime</t>
         </is>
       </c>
-      <c r="EF1" s="1" t="inlineStr">
-        <is>
-          <t>shortName</t>
-        </is>
-      </c>
-      <c r="EG1" s="1" t="inlineStr">
-        <is>
-          <t>regularMarketChangePercent</t>
-        </is>
-      </c>
-      <c r="EH1" s="1" t="inlineStr">
-        <is>
-          <t>exchange</t>
-        </is>
-      </c>
-      <c r="EI1" s="1" t="inlineStr">
-        <is>
-          <t>messageBoardId</t>
-        </is>
-      </c>
-      <c r="EJ1" s="1" t="inlineStr">
-        <is>
-          <t>exchangeTimezoneName</t>
-        </is>
-      </c>
-      <c r="EK1" s="1" t="inlineStr">
-        <is>
-          <t>exchangeTimezoneShortName</t>
-        </is>
-      </c>
-      <c r="EL1" s="1" t="inlineStr">
-        <is>
-          <t>gmtOffSetMilliseconds</t>
-        </is>
-      </c>
-      <c r="EM1" s="1" t="inlineStr">
-        <is>
-          <t>market</t>
-        </is>
-      </c>
-      <c r="EN1" s="1" t="inlineStr">
-        <is>
-          <t>esgPopulated</t>
-        </is>
-      </c>
-      <c r="EO1" s="1" t="inlineStr">
-        <is>
-          <t>regularMarketPrice</t>
-        </is>
-      </c>
-      <c r="EP1" s="1" t="inlineStr">
-        <is>
-          <t>marketState</t>
-        </is>
-      </c>
-      <c r="EQ1" s="1" t="inlineStr">
-        <is>
-          <t>longName</t>
-        </is>
-      </c>
-      <c r="ER1" s="1" t="inlineStr">
-        <is>
-          <t>postMarketChangePercent</t>
-        </is>
-      </c>
-      <c r="ES1" s="1" t="inlineStr">
-        <is>
-          <t>postMarketPrice</t>
-        </is>
-      </c>
-      <c r="ET1" s="1" t="inlineStr">
-        <is>
-          <t>postMarketChange</t>
-        </is>
-      </c>
-      <c r="EU1" s="1" t="inlineStr">
-        <is>
-          <t>regularMarketChange</t>
-        </is>
-      </c>
-      <c r="EV1" s="1" t="inlineStr">
-        <is>
-          <t>regularMarketDayRange</t>
-        </is>
-      </c>
-      <c r="EW1" s="1" t="inlineStr">
-        <is>
-          <t>fullExchangeName</t>
-        </is>
-      </c>
-      <c r="EX1" s="1" t="inlineStr">
-        <is>
-          <t>averageDailyVolume3Month</t>
-        </is>
-      </c>
-      <c r="EY1" s="1" t="inlineStr">
-        <is>
-          <t>fiftyTwoWeekLowChange</t>
-        </is>
-      </c>
-      <c r="EZ1" s="1" t="inlineStr">
-        <is>
-          <t>fiftyTwoWeekLowChangePercent</t>
-        </is>
-      </c>
-      <c r="FA1" s="1" t="inlineStr">
+      <c r="FH1" s="1" t="inlineStr">
         <is>
           <t>fiftyTwoWeekRange</t>
         </is>
       </c>
-      <c r="FB1" s="1" t="inlineStr">
+      <c r="FI1" s="1" t="inlineStr">
         <is>
           <t>fiftyTwoWeekHighChange</t>
         </is>
       </c>
-      <c r="FC1" s="1" t="inlineStr">
+      <c r="FJ1" s="1" t="inlineStr">
         <is>
           <t>fiftyTwoWeekHighChangePercent</t>
         </is>
       </c>
-      <c r="FD1" s="1" t="inlineStr">
+      <c r="FK1" s="1" t="inlineStr">
         <is>
           <t>fiftyTwoWeekChangePercent</t>
         </is>
       </c>
-      <c r="FE1" s="1" t="inlineStr">
+      <c r="FL1" s="1" t="inlineStr">
         <is>
           <t>dividendDate</t>
         </is>
       </c>
-      <c r="FF1" s="1" t="inlineStr">
+      <c r="FM1" s="1" t="inlineStr">
         <is>
           <t>earningsTimestamp</t>
         </is>
       </c>
-      <c r="FG1" s="1" t="inlineStr">
+      <c r="FN1" s="1" t="inlineStr">
         <is>
           <t>earningsTimestampStart</t>
         </is>
       </c>
-      <c r="FH1" s="1" t="inlineStr">
+      <c r="FO1" s="1" t="inlineStr">
         <is>
           <t>earningsTimestampEnd</t>
         </is>
       </c>
-      <c r="FI1" s="1" t="inlineStr">
+      <c r="FP1" s="1" t="inlineStr">
         <is>
           <t>earningsCallTimestampStart</t>
         </is>
       </c>
-      <c r="FJ1" s="1" t="inlineStr">
+      <c r="FQ1" s="1" t="inlineStr">
         <is>
           <t>earningsCallTimestampEnd</t>
         </is>
       </c>
-      <c r="FK1" s="1" t="inlineStr">
+      <c r="FR1" s="1" t="inlineStr">
         <is>
           <t>isEarningsDateEstimate</t>
         </is>
       </c>
-      <c r="FL1" s="1" t="inlineStr">
+      <c r="FS1" s="1" t="inlineStr">
         <is>
           <t>epsTrailingTwelveMonths</t>
         </is>
       </c>
-      <c r="FM1" s="1" t="inlineStr">
+      <c r="FT1" s="1" t="inlineStr">
         <is>
           <t>epsForward</t>
         </is>
       </c>
-      <c r="FN1" s="1" t="inlineStr">
+      <c r="FU1" s="1" t="inlineStr">
         <is>
           <t>epsCurrentYear</t>
         </is>
       </c>
-      <c r="FO1" s="1" t="inlineStr">
-        <is>
-          <t>priceEpsCurrentYear</t>
-        </is>
-      </c>
-      <c r="FP1" s="1" t="inlineStr">
-        <is>
-          <t>fiftyDayAverageChange</t>
-        </is>
-      </c>
-      <c r="FQ1" s="1" t="inlineStr">
-        <is>
-          <t>fiftyDayAverageChangePercent</t>
-        </is>
-      </c>
-      <c r="FR1" s="1" t="inlineStr">
-        <is>
-          <t>twoHundredDayAverageChange</t>
-        </is>
-      </c>
-      <c r="FS1" s="1" t="inlineStr">
-        <is>
-          <t>twoHundredDayAverageChangePercent</t>
-        </is>
-      </c>
-      <c r="FT1" s="1" t="inlineStr">
-        <is>
-          <t>sourceInterval</t>
-        </is>
-      </c>
-      <c r="FU1" s="1" t="inlineStr">
-        <is>
-          <t>exchangeDataDelayedBy</t>
-        </is>
-      </c>
       <c r="FV1" s="1" t="inlineStr">
         <is>
-          <t>averageAnalystRating</t>
+          <t>displayName</t>
         </is>
       </c>
       <c r="FW1" s="1" t="inlineStr">
-        <is>
-          <t>cryptoTradeable</t>
-        </is>
-      </c>
-      <c r="FX1" s="1" t="inlineStr">
-        <is>
-          <t>hasPrePostMarketData</t>
-        </is>
-      </c>
-      <c r="FY1" s="1" t="inlineStr">
-        <is>
-          <t>firstTradeDateMilliseconds</t>
-        </is>
-      </c>
-      <c r="FZ1" s="1" t="inlineStr">
-        <is>
-          <t>displayName</t>
-        </is>
-      </c>
-      <c r="GA1" s="1" t="inlineStr">
         <is>
           <t>trailingPegRatio</t>
         </is>
@@ -21089,28 +21095,28 @@
         <v>2</v>
       </c>
       <c r="AC2" t="n">
-        <v>247.77</v>
+        <v>249.34</v>
       </c>
       <c r="AD2" t="n">
-        <v>249.38</v>
+        <v>248.27</v>
       </c>
       <c r="AE2" t="n">
-        <v>247.48</v>
+        <v>246.18</v>
       </c>
       <c r="AF2" t="n">
-        <v>251.82</v>
+        <v>249.01</v>
       </c>
       <c r="AG2" t="n">
-        <v>247.77</v>
+        <v>249.34</v>
       </c>
       <c r="AH2" t="n">
-        <v>249.38</v>
+        <v>248.27</v>
       </c>
       <c r="AI2" t="n">
-        <v>247.48</v>
+        <v>246.18</v>
       </c>
       <c r="AJ2" t="n">
-        <v>251.82</v>
+        <v>249.01</v>
       </c>
       <c r="AK2" t="n">
         <v>1.04</v>
@@ -21131,40 +21137,40 @@
         <v>1.094</v>
       </c>
       <c r="AQ2" t="n">
-        <v>37.836113</v>
+        <v>37.704422</v>
       </c>
       <c r="AR2" t="n">
-        <v>30.004812</v>
+        <v>29.855003</v>
       </c>
       <c r="AS2" t="n">
-        <v>31755739</v>
+        <v>14588287</v>
       </c>
       <c r="AT2" t="n">
-        <v>31761708</v>
+        <v>14588287</v>
       </c>
       <c r="AU2" t="n">
-        <v>54722185</v>
+        <v>54509364</v>
       </c>
       <c r="AV2" t="n">
-        <v>42752840</v>
+        <v>41268440</v>
       </c>
       <c r="AW2" t="n">
-        <v>42752840</v>
+        <v>41268440</v>
       </c>
       <c r="AX2" t="n">
-        <v>249.16</v>
+        <v>246.21</v>
       </c>
       <c r="AY2" t="n">
-        <v>249.57</v>
+        <v>252.97</v>
       </c>
       <c r="AZ2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BA2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BB2" t="n">
-        <v>3700302807040</v>
+        <v>3681827946496</v>
       </c>
       <c r="BC2" t="n">
         <v>169.21</v>
@@ -21179,19 +21185,19 @@
         <v>0.049107</v>
       </c>
       <c r="BG2" t="n">
-        <v>9.055498</v>
+        <v>9.010285</v>
       </c>
       <c r="BH2" t="n">
-        <v>238.8128</v>
+        <v>239.7412</v>
       </c>
       <c r="BI2" t="n">
-        <v>222.16466</v>
+        <v>222.11626</v>
       </c>
       <c r="BJ2" t="n">
         <v>1.01</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.004076361</v>
+        <v>0.004050694</v>
       </c>
       <c r="BL2" t="inlineStr">
         <is>
@@ -21232,7 +21238,7 @@
         <v>0.0197</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.63604</v>
+        <v>0.63611</v>
       </c>
       <c r="BY2" t="n">
         <v>1.84</v>
@@ -21247,7 +21253,7 @@
         <v>4.431</v>
       </c>
       <c r="CC2" t="n">
-        <v>56.271717</v>
+        <v>55.990765</v>
       </c>
       <c r="CD2" t="n">
         <v>1727481600</v>
@@ -21265,7 +21271,7 @@
         <v>99280003072</v>
       </c>
       <c r="CI2" t="n">
-        <v>6.59</v>
+        <v>6.58</v>
       </c>
       <c r="CJ2" t="n">
         <v>8.31</v>
@@ -21285,10 +21291,10 @@
         <v>26.441</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.06898785</v>
+        <v>0.07404697</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.13724327</v>
+        <v>0.14201736</v>
       </c>
       <c r="CQ2" t="n">
         <v>0.26</v>
@@ -21302,7 +21308,7 @@
         </is>
       </c>
       <c r="CT2" t="n">
-        <v>249.34</v>
+        <v>248.0951</v>
       </c>
       <c r="CU2" t="n">
         <v>310</v>
@@ -21424,183 +21430,171 @@
       </c>
       <c r="EC2" t="inlineStr">
         <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
+      <c r="ED2" t="inlineStr">
+        <is>
+          <t>Apple Inc.</t>
+        </is>
+      </c>
+      <c r="EE2" t="inlineStr">
+        <is>
+          <t>NMS</t>
+        </is>
+      </c>
+      <c r="EF2" t="inlineStr">
+        <is>
+          <t>finmb_24937</t>
+        </is>
+      </c>
+      <c r="EG2" t="inlineStr">
+        <is>
+          <t>America/New_York</t>
+        </is>
+      </c>
+      <c r="EH2" t="inlineStr">
+        <is>
+          <t>EDT</t>
+        </is>
+      </c>
+      <c r="EI2" t="n">
+        <v>-14400000</v>
+      </c>
+      <c r="EJ2" t="inlineStr">
+        <is>
+          <t>us_market</t>
+        </is>
+      </c>
+      <c r="EK2" t="b">
+        <v>0</v>
+      </c>
+      <c r="EL2" t="n">
+        <v>-0.49927953</v>
+      </c>
+      <c r="EM2" t="n">
+        <v>248.0951</v>
+      </c>
+      <c r="EN2" t="n">
+        <v>33.477505</v>
+      </c>
+      <c r="EO2" t="n">
+        <v>8.353897</v>
+      </c>
+      <c r="EP2" t="n">
+        <v>0.03484548</v>
+      </c>
+      <c r="EQ2" t="n">
+        <v>25.978836</v>
+      </c>
+      <c r="ER2" t="n">
+        <v>0.11696053</v>
+      </c>
+      <c r="ES2" t="n">
+        <v>15</v>
+      </c>
+      <c r="ET2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU2" t="inlineStr">
+        <is>
+          <t>2.1 - Buy</t>
+        </is>
+      </c>
+      <c r="EV2" t="b">
+        <v>0</v>
+      </c>
+      <c r="EW2" t="b">
+        <v>1</v>
+      </c>
+      <c r="EX2" t="n">
+        <v>345479400000</v>
+      </c>
+      <c r="EY2" t="n">
+        <v>-1.2449036</v>
+      </c>
+      <c r="EZ2" t="inlineStr">
+        <is>
+          <t>246.18 - 249.01</t>
+        </is>
+      </c>
+      <c r="FA2" t="inlineStr">
+        <is>
+          <t>NasdaqGS</t>
+        </is>
+      </c>
+      <c r="FB2" t="n">
+        <v>54509364</v>
+      </c>
+      <c r="FC2" t="n">
+        <v>78.885086</v>
+      </c>
+      <c r="FD2" t="n">
+        <v>0.46619633</v>
+      </c>
+      <c r="FE2" t="inlineStr">
+        <is>
+          <t>Apple Inc.</t>
+        </is>
+      </c>
+      <c r="FF2" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="ED2" t="n">
-        <v>1760569551</v>
-      </c>
-      <c r="EE2" t="n">
-        <v>1760558402</v>
-      </c>
-      <c r="EF2" t="inlineStr">
-        <is>
-          <t>Apple Inc.</t>
-        </is>
-      </c>
-      <c r="EG2" t="n">
-        <v>0.633649</v>
-      </c>
-      <c r="EH2" t="inlineStr">
-        <is>
-          <t>NMS</t>
-        </is>
-      </c>
-      <c r="EI2" t="inlineStr">
-        <is>
-          <t>finmb_24937</t>
-        </is>
-      </c>
-      <c r="EJ2" t="inlineStr">
-        <is>
-          <t>America/New_York</t>
-        </is>
-      </c>
-      <c r="EK2" t="inlineStr">
-        <is>
-          <t>EDT</t>
-        </is>
-      </c>
-      <c r="EL2" t="n">
-        <v>-14400000</v>
-      </c>
-      <c r="EM2" t="inlineStr">
-        <is>
-          <t>us_market</t>
-        </is>
-      </c>
-      <c r="EN2" t="b">
-        <v>0</v>
-      </c>
-      <c r="EO2" t="n">
-        <v>249.34</v>
-      </c>
-      <c r="EP2" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="EQ2" t="inlineStr">
-        <is>
-          <t>Apple Inc.</t>
-        </is>
-      </c>
-      <c r="ER2" t="n">
-        <v>0.02406255</v>
-      </c>
-      <c r="ES2" t="n">
-        <v>249.4</v>
-      </c>
-      <c r="ET2" t="n">
-        <v>0.05999756</v>
-      </c>
-      <c r="EU2" t="n">
-        <v>1.5699921</v>
-      </c>
-      <c r="EV2" t="inlineStr">
-        <is>
-          <t>247.48 - 251.82</t>
-        </is>
-      </c>
-      <c r="EW2" t="inlineStr">
-        <is>
-          <t>NasdaqGS</t>
-        </is>
-      </c>
-      <c r="EX2" t="n">
-        <v>54722185</v>
-      </c>
-      <c r="EY2" t="n">
-        <v>80.12999000000001</v>
-      </c>
-      <c r="EZ2" t="n">
-        <v>0.47355348</v>
-      </c>
-      <c r="FA2" t="inlineStr">
+      <c r="FG2" t="n">
+        <v>1760628794</v>
+      </c>
+      <c r="FH2" t="inlineStr">
         <is>
           <t>169.21 - 260.1</t>
         </is>
       </c>
-      <c r="FB2" t="n">
-        <v>-10.76001</v>
-      </c>
-      <c r="FC2" t="n">
-        <v>-0.04136874</v>
-      </c>
-      <c r="FD2" t="n">
-        <v>6.8987846</v>
-      </c>
-      <c r="FE2" t="n">
+      <c r="FI2" t="n">
+        <v>-12.004913</v>
+      </c>
+      <c r="FJ2" t="n">
+        <v>-0.04615499</v>
+      </c>
+      <c r="FK2" t="n">
+        <v>7.404697</v>
+      </c>
+      <c r="FL2" t="n">
         <v>1755129600</v>
       </c>
-      <c r="FF2" t="n">
+      <c r="FM2" t="n">
         <v>1761854400</v>
       </c>
-      <c r="FG2" t="n">
+      <c r="FN2" t="n">
         <v>1761854400</v>
       </c>
-      <c r="FH2" t="n">
+      <c r="FO2" t="n">
         <v>1761854400</v>
       </c>
-      <c r="FI2" t="n">
+      <c r="FP2" t="n">
         <v>1761858000</v>
       </c>
-      <c r="FJ2" t="n">
+      <c r="FQ2" t="n">
         <v>1761858000</v>
       </c>
-      <c r="FK2" t="b">
-        <v>0</v>
-      </c>
-      <c r="FL2" t="n">
-        <v>6.59</v>
-      </c>
-      <c r="FM2" t="n">
+      <c r="FR2" t="b">
+        <v>0</v>
+      </c>
+      <c r="FS2" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="FT2" t="n">
         <v>8.31</v>
       </c>
-      <c r="FN2" t="n">
-        <v>7.41093</v>
-      </c>
-      <c r="FO2" t="n">
-        <v>33.644897</v>
-      </c>
-      <c r="FP2" t="n">
-        <v>10.527191</v>
-      </c>
-      <c r="FQ2" t="n">
-        <v>0.044081353</v>
-      </c>
-      <c r="FR2" t="n">
-        <v>27.175339</v>
-      </c>
-      <c r="FS2" t="n">
-        <v>0.12232071</v>
-      </c>
-      <c r="FT2" t="n">
-        <v>15</v>
-      </c>
       <c r="FU2" t="n">
-        <v>0</v>
+        <v>7.4108</v>
       </c>
       <c r="FV2" t="inlineStr">
         <is>
-          <t>2.1 - Buy</t>
-        </is>
-      </c>
-      <c r="FW2" t="b">
-        <v>0</v>
-      </c>
-      <c r="FX2" t="b">
-        <v>1</v>
-      </c>
-      <c r="FY2" t="n">
-        <v>345479400000</v>
-      </c>
-      <c r="FZ2" t="inlineStr">
-        <is>
           <t>Apple</t>
         </is>
       </c>
-      <c r="GA2" t="n">
+      <c r="FW2" t="n">
         <v>2.4662</v>
       </c>
     </row>
@@ -21655,7 +21649,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>249.34</v>
+        <v>248.1068</v>
       </c>
       <c r="C2" t="n">
         <v>310</v>

--- a/data/raw.xlsx
+++ b/data/raw.xlsx
@@ -477,16 +477,16 @@
         <v>44984</v>
       </c>
       <c r="B2" t="n">
-        <v>145.6006702401899</v>
+        <v>145.6006854773172</v>
       </c>
       <c r="C2" t="n">
-        <v>147.039812645864</v>
+        <v>147.0398280335977</v>
       </c>
       <c r="D2" t="n">
-        <v>145.3443734801652</v>
+        <v>145.344388690471</v>
       </c>
       <c r="E2" t="n">
-        <v>145.8076629638672</v>
+        <v>145.8076782226562</v>
       </c>
       <c r="F2" t="n">
         <v>44998500</v>
@@ -503,16 +503,16 @@
         <v>44985</v>
       </c>
       <c r="B3" t="n">
-        <v>144.9501024216552</v>
+        <v>144.9500415355573</v>
       </c>
       <c r="C3" t="n">
-        <v>146.9511124513616</v>
+        <v>146.9510507247421</v>
       </c>
       <c r="D3" t="n">
-        <v>144.7332428581598</v>
+        <v>144.7331820631535</v>
       </c>
       <c r="E3" t="n">
-        <v>145.3049621582031</v>
+        <v>145.3049011230469</v>
       </c>
       <c r="F3" t="n">
         <v>50547000</v>
@@ -555,16 +555,16 @@
         <v>44987</v>
       </c>
       <c r="B5" t="n">
-        <v>142.3182353457634</v>
+        <v>142.3182202469766</v>
       </c>
       <c r="C5" t="n">
-        <v>144.6149643784106</v>
+        <v>144.6149490359599</v>
       </c>
       <c r="D5" t="n">
-        <v>141.8450789930105</v>
+        <v>141.8450639444217</v>
       </c>
       <c r="E5" t="n">
-        <v>143.8263854980469</v>
+        <v>143.8263702392578</v>
       </c>
       <c r="F5" t="n">
         <v>52238100</v>
@@ -581,16 +581,16 @@
         <v>44988</v>
       </c>
       <c r="B6" t="n">
-        <v>145.9259379185379</v>
+        <v>145.9259678319465</v>
       </c>
       <c r="C6" t="n">
-        <v>148.9521046202448</v>
+        <v>148.9521351539883</v>
       </c>
       <c r="D6" t="n">
-        <v>145.2260853537234</v>
+        <v>145.226115123669</v>
       </c>
       <c r="E6" t="n">
-        <v>148.8732452392578</v>
+        <v>148.8732757568359</v>
       </c>
       <c r="F6" t="n">
         <v>70732300</v>
@@ -659,16 +659,16 @@
         <v>44993</v>
       </c>
       <c r="B9" t="n">
-        <v>150.6278556724409</v>
+        <v>150.6278404196405</v>
       </c>
       <c r="C9" t="n">
-        <v>151.2784344169459</v>
+        <v>151.278419098267</v>
       </c>
       <c r="D9" t="n">
-        <v>149.6618543808646</v>
+        <v>149.661839225883</v>
       </c>
       <c r="E9" t="n">
-        <v>150.6869964599609</v>
+        <v>150.6869812011719</v>
       </c>
       <c r="F9" t="n">
         <v>47204800</v>
@@ -685,16 +685,16 @@
         <v>44994</v>
       </c>
       <c r="B10" t="n">
-        <v>151.3671493178453</v>
+        <v>151.3671026386568</v>
       </c>
       <c r="C10" t="n">
-        <v>152.3331506331596</v>
+        <v>152.3331036560718</v>
       </c>
       <c r="D10" t="n">
-        <v>148.0847001617907</v>
+        <v>148.0846544948566</v>
       </c>
       <c r="E10" t="n">
-        <v>148.4395599365234</v>
+        <v>148.4395141601562</v>
       </c>
       <c r="F10" t="n">
         <v>53833600</v>
@@ -711,16 +711,16 @@
         <v>44995</v>
       </c>
       <c r="B11" t="n">
-        <v>148.0649820559655</v>
+        <v>148.0649511869715</v>
       </c>
       <c r="C11" t="n">
-        <v>148.7845533193161</v>
+        <v>148.7845223003039</v>
       </c>
       <c r="D11" t="n">
-        <v>145.5021044855266</v>
+        <v>145.5020741508484</v>
       </c>
       <c r="E11" t="n">
-        <v>146.37939453125</v>
+        <v>146.3793640136719</v>
       </c>
       <c r="F11" t="n">
         <v>68572400</v>
@@ -737,16 +737,16 @@
         <v>44998</v>
       </c>
       <c r="B12" t="n">
-        <v>145.6992552732006</v>
+        <v>145.6992402841559</v>
       </c>
       <c r="C12" t="n">
-        <v>150.9531441184502</v>
+        <v>150.9531285889032</v>
       </c>
       <c r="D12" t="n">
-        <v>145.5908254831151</v>
+        <v>145.5908105052252</v>
       </c>
       <c r="E12" t="n">
-        <v>148.3212738037109</v>
+        <v>148.3212585449219</v>
       </c>
       <c r="F12" t="n">
         <v>84457100</v>
@@ -841,16 +841,16 @@
         <v>45002</v>
       </c>
       <c r="B16" t="n">
-        <v>153.8511391851991</v>
+        <v>153.8511545503076</v>
       </c>
       <c r="C16" t="n">
-        <v>154.5017178249395</v>
+        <v>154.5017332550213</v>
       </c>
       <c r="D16" t="n">
-        <v>152.0768406408569</v>
+        <v>152.0768558287663</v>
       </c>
       <c r="E16" t="n">
-        <v>152.7865600585938</v>
+        <v>152.7865753173828</v>
       </c>
       <c r="F16" t="n">
         <v>98944600</v>
@@ -893,16 +893,16 @@
         <v>45006</v>
       </c>
       <c r="B18" t="n">
-        <v>155.0734299457577</v>
+        <v>155.0734450167824</v>
       </c>
       <c r="C18" t="n">
-        <v>157.1237136794573</v>
+        <v>157.1237289497417</v>
       </c>
       <c r="D18" t="n">
-        <v>154.3045547445091</v>
+        <v>154.3045697408097</v>
       </c>
       <c r="E18" t="n">
-        <v>157.0054321289062</v>
+        <v>157.0054473876953</v>
       </c>
       <c r="F18" t="n">
         <v>73938300</v>
@@ -945,16 +945,16 @@
         <v>45008</v>
       </c>
       <c r="B20" t="n">
-        <v>156.5618527096425</v>
+        <v>156.5618832080205</v>
       </c>
       <c r="C20" t="n">
-        <v>159.2430113419942</v>
+        <v>159.2430423626641</v>
       </c>
       <c r="D20" t="n">
-        <v>155.4282660956086</v>
+        <v>155.428296373163</v>
       </c>
       <c r="E20" t="n">
-        <v>156.6604156494141</v>
+        <v>156.6604461669922</v>
       </c>
       <c r="F20" t="n">
         <v>67622100</v>
@@ -997,16 +997,16 @@
         <v>45012</v>
       </c>
       <c r="B22" t="n">
-        <v>157.6559972635935</v>
+        <v>157.6560435200526</v>
       </c>
       <c r="C22" t="n">
-        <v>158.4741463470505</v>
+        <v>158.4741928435554</v>
       </c>
       <c r="D22" t="n">
-        <v>155.615550445655</v>
+        <v>155.6155961034445</v>
       </c>
       <c r="E22" t="n">
-        <v>156.0196990966797</v>
+        <v>156.0197448730469</v>
       </c>
       <c r="F22" t="n">
         <v>52390300</v>
@@ -1023,16 +1023,16 @@
         <v>45013</v>
       </c>
       <c r="B23" t="n">
-        <v>155.7141344072297</v>
+        <v>155.714149696992</v>
       </c>
       <c r="C23" t="n">
-        <v>156.2267128369861</v>
+        <v>156.2267281770791</v>
       </c>
       <c r="D23" t="n">
-        <v>153.7525468878326</v>
+        <v>153.7525619849842</v>
       </c>
       <c r="E23" t="n">
-        <v>155.3986968994141</v>
+        <v>155.3987121582031</v>
       </c>
       <c r="F23" t="n">
         <v>45992200</v>
@@ -1049,16 +1049,16 @@
         <v>45014</v>
       </c>
       <c r="B24" t="n">
-        <v>157.0941350831575</v>
+        <v>157.094165334984</v>
       </c>
       <c r="C24" t="n">
-        <v>158.7501519087846</v>
+        <v>158.7501824795125</v>
       </c>
       <c r="D24" t="n">
-        <v>157.0744315196879</v>
+        <v>157.0744617677201</v>
       </c>
       <c r="E24" t="n">
-        <v>158.4741516113281</v>
+        <v>158.4741821289062</v>
       </c>
       <c r="F24" t="n">
         <v>51305700</v>
@@ -1101,16 +1101,16 @@
         <v>45016</v>
       </c>
       <c r="B26" t="n">
-        <v>160.120319104618</v>
+        <v>160.1203040734608</v>
       </c>
       <c r="C26" t="n">
-        <v>162.6437592660828</v>
+        <v>162.6437439980398</v>
       </c>
       <c r="D26" t="n">
-        <v>159.5978888387315</v>
+        <v>159.597873856617</v>
       </c>
       <c r="E26" t="n">
-        <v>162.5451812744141</v>
+        <v>162.545166015625</v>
       </c>
       <c r="F26" t="n">
         <v>68749800</v>
@@ -1127,16 +1127,16 @@
         <v>45019</v>
       </c>
       <c r="B27" t="n">
-        <v>161.9241814089942</v>
+        <v>161.9241964933137</v>
       </c>
       <c r="C27" t="n">
-        <v>163.9153243991135</v>
+        <v>163.9153396689213</v>
       </c>
       <c r="D27" t="n">
-        <v>161.8748924151837</v>
+        <v>161.8749074949116</v>
       </c>
       <c r="E27" t="n">
-        <v>163.7970428466797</v>
+        <v>163.7970581054688</v>
       </c>
       <c r="F27" t="n">
         <v>56976200</v>
@@ -1153,16 +1153,16 @@
         <v>45020</v>
       </c>
       <c r="B28" t="n">
-        <v>164.2209198890943</v>
+        <v>164.2209045409431</v>
       </c>
       <c r="C28" t="n">
-        <v>164.4574830079994</v>
+        <v>164.4574676377389</v>
       </c>
       <c r="D28" t="n">
-        <v>162.7521920153679</v>
+        <v>162.7521768044847</v>
       </c>
       <c r="E28" t="n">
-        <v>163.2647705078125</v>
+        <v>163.2647552490234</v>
       </c>
       <c r="F28" t="n">
         <v>46278300</v>
@@ -1179,16 +1179,16 @@
         <v>45021</v>
       </c>
       <c r="B29" t="n">
-        <v>162.3874638600024</v>
+        <v>162.3874792101067</v>
       </c>
       <c r="C29" t="n">
-        <v>162.6930345511781</v>
+        <v>162.6930499301672</v>
       </c>
       <c r="D29" t="n">
-        <v>159.489445623491</v>
+        <v>159.4894606996525</v>
       </c>
       <c r="E29" t="n">
-        <v>161.4214477539062</v>
+        <v>161.4214630126953</v>
       </c>
       <c r="F29" t="n">
         <v>51511700</v>
@@ -1231,16 +1231,16 @@
         <v>45026</v>
       </c>
       <c r="B31" t="n">
-        <v>159.1148512076473</v>
+        <v>159.1148816103347</v>
       </c>
       <c r="C31" t="n">
-        <v>159.7161407470703</v>
+        <v>159.7161712646484</v>
       </c>
       <c r="D31" t="n">
-        <v>157.793990593468</v>
+        <v>157.7940207437735</v>
       </c>
       <c r="E31" t="n">
-        <v>159.7161407470703</v>
+        <v>159.7161712646484</v>
       </c>
       <c r="F31" t="n">
         <v>47716900</v>
@@ -1283,16 +1283,16 @@
         <v>45028</v>
       </c>
       <c r="B33" t="n">
-        <v>158.9177526201656</v>
+        <v>158.9177218890988</v>
       </c>
       <c r="C33" t="n">
-        <v>159.7457536697625</v>
+        <v>159.7457227785791</v>
       </c>
       <c r="D33" t="n">
-        <v>157.4983136546333</v>
+        <v>157.4982831980536</v>
       </c>
       <c r="E33" t="n">
-        <v>157.8137512207031</v>
+        <v>157.813720703125</v>
       </c>
       <c r="F33" t="n">
         <v>50133100</v>
@@ -1335,16 +1335,16 @@
         <v>45030</v>
       </c>
       <c r="B35" t="n">
-        <v>162.2396277622034</v>
+        <v>162.2396125606785</v>
       </c>
       <c r="C35" t="n">
-        <v>163.9449339453944</v>
+        <v>163.9449185840858</v>
       </c>
       <c r="D35" t="n">
-        <v>161.4806343012481</v>
+        <v>161.4806191708393</v>
       </c>
       <c r="E35" t="n">
-        <v>162.8507843017578</v>
+        <v>162.8507690429688</v>
       </c>
       <c r="F35" t="n">
         <v>49386500</v>
@@ -1387,16 +1387,16 @@
         <v>45034</v>
       </c>
       <c r="B37" t="n">
-        <v>163.7280771558427</v>
+        <v>163.7280619309677</v>
       </c>
       <c r="C37" t="n">
-        <v>165.019367784777</v>
+        <v>165.0193524398265</v>
       </c>
       <c r="D37" t="n">
-        <v>163.2844911796449</v>
+        <v>163.2844759960185</v>
       </c>
       <c r="E37" t="n">
-        <v>164.0927886962891</v>
+        <v>164.0927734375</v>
       </c>
       <c r="F37" t="n">
         <v>49923000</v>
@@ -1413,16 +1413,16 @@
         <v>45035</v>
       </c>
       <c r="B38" t="n">
-        <v>163.4323522044133</v>
+        <v>163.4323220199929</v>
       </c>
       <c r="C38" t="n">
-        <v>165.7586516245238</v>
+        <v>165.7586210104577</v>
       </c>
       <c r="D38" t="n">
-        <v>163.1760554202755</v>
+        <v>163.1760252831907</v>
       </c>
       <c r="E38" t="n">
-        <v>165.2362213134766</v>
+        <v>165.2361907958984</v>
       </c>
       <c r="F38" t="n">
         <v>47720200</v>
@@ -1465,16 +1465,16 @@
         <v>45037</v>
       </c>
       <c r="B40" t="n">
-        <v>162.6930377946467</v>
+        <v>162.6930530562097</v>
       </c>
       <c r="C40" t="n">
-        <v>164.0730393438838</v>
+        <v>164.073054734899</v>
       </c>
       <c r="D40" t="n">
-        <v>162.1410371749519</v>
+        <v>162.1410523847339</v>
       </c>
       <c r="E40" t="n">
-        <v>162.6634674072266</v>
+        <v>162.6634826660156</v>
       </c>
       <c r="F40" t="n">
         <v>58337300</v>
@@ -1491,16 +1491,16 @@
         <v>45040</v>
       </c>
       <c r="B41" t="n">
-        <v>162.643765839196</v>
+        <v>162.6437506108638</v>
       </c>
       <c r="C41" t="n">
-        <v>163.2352037313311</v>
+        <v>163.2351884476225</v>
       </c>
       <c r="D41" t="n">
-        <v>161.5496162673694</v>
+        <v>161.5496011414824</v>
       </c>
       <c r="E41" t="n">
-        <v>162.9690551757812</v>
+        <v>162.9690399169922</v>
       </c>
       <c r="F41" t="n">
         <v>41949600</v>
@@ -1517,16 +1517,16 @@
         <v>45041</v>
       </c>
       <c r="B42" t="n">
-        <v>162.831040365679</v>
+        <v>162.8310557567723</v>
       </c>
       <c r="C42" t="n">
-        <v>163.93504162145</v>
+        <v>163.9350571168955</v>
       </c>
       <c r="D42" t="n">
-        <v>161.3918829793584</v>
+        <v>161.3918982344198</v>
       </c>
       <c r="E42" t="n">
-        <v>161.4313201904297</v>
+        <v>161.4313354492188</v>
       </c>
       <c r="F42" t="n">
         <v>48714100</v>
@@ -1543,16 +1543,16 @@
         <v>45042</v>
       </c>
       <c r="B43" t="n">
-        <v>160.7314469930437</v>
+        <v>160.7314621866086</v>
       </c>
       <c r="C43" t="n">
-        <v>162.9197458638425</v>
+        <v>162.9197612642622</v>
       </c>
       <c r="D43" t="n">
-        <v>160.4751652935486</v>
+        <v>160.4751804628878</v>
       </c>
       <c r="E43" t="n">
-        <v>161.4214477539062</v>
+        <v>161.4214630126953</v>
       </c>
       <c r="F43" t="n">
         <v>45498800</v>
@@ -1569,16 +1569,16 @@
         <v>45043</v>
       </c>
       <c r="B44" t="n">
-        <v>162.8310621018307</v>
+        <v>162.8310172007082</v>
       </c>
       <c r="C44" t="n">
-        <v>166.1529331357891</v>
+        <v>166.1528873186513</v>
       </c>
       <c r="D44" t="n">
-        <v>162.8310621018307</v>
+        <v>162.8310172007082</v>
       </c>
       <c r="E44" t="n">
-        <v>166.0050811767578</v>
+        <v>166.0050354003906</v>
       </c>
       <c r="F44" t="n">
         <v>64902300</v>
@@ -1621,16 +1621,16 @@
         <v>45047</v>
       </c>
       <c r="B46" t="n">
-        <v>166.8626573980738</v>
+        <v>166.8626421671766</v>
       </c>
       <c r="C46" t="n">
-        <v>168.0159478342087</v>
+        <v>168.0159324980415</v>
       </c>
       <c r="D46" t="n">
-        <v>166.2317972866609</v>
+        <v>166.2317821133474</v>
       </c>
       <c r="E46" t="n">
-        <v>167.1682281494141</v>
+        <v>167.168212890625</v>
       </c>
       <c r="F46" t="n">
         <v>52472900</v>
@@ -1647,16 +1647,16 @@
         <v>45048</v>
       </c>
       <c r="B47" t="n">
-        <v>167.6610625345139</v>
+        <v>167.6610933327514</v>
       </c>
       <c r="C47" t="n">
-        <v>167.9173592863078</v>
+        <v>167.9173901316254</v>
       </c>
       <c r="D47" t="n">
-        <v>165.1474742557849</v>
+        <v>165.1475045922928</v>
       </c>
       <c r="E47" t="n">
-        <v>166.1331939697266</v>
+        <v>166.1332244873047</v>
       </c>
       <c r="F47" t="n">
         <v>48425700</v>
@@ -1673,16 +1673,16 @@
         <v>45049</v>
       </c>
       <c r="B48" t="n">
-        <v>167.079474554545</v>
+        <v>167.0795208913283</v>
       </c>
       <c r="C48" t="n">
-        <v>168.4791946013638</v>
+        <v>168.4792413263369</v>
       </c>
       <c r="D48" t="n">
-        <v>164.7728942678528</v>
+        <v>164.7729399649435</v>
       </c>
       <c r="E48" t="n">
-        <v>165.0587463378906</v>
+        <v>165.0587921142578</v>
       </c>
       <c r="F48" t="n">
         <v>65136000</v>
@@ -1699,16 +1699,16 @@
         <v>45050</v>
       </c>
       <c r="B49" t="n">
-        <v>162.535328337613</v>
+        <v>162.5353435135694</v>
       </c>
       <c r="C49" t="n">
-        <v>164.654619775435</v>
+        <v>164.6546351492701</v>
       </c>
       <c r="D49" t="n">
-        <v>161.9636090799513</v>
+        <v>161.9636242025262</v>
       </c>
       <c r="E49" t="n">
-        <v>163.4224700927734</v>
+        <v>163.4224853515625</v>
       </c>
       <c r="F49" t="n">
         <v>81235400</v>
@@ -1777,16 +1777,16 @@
         <v>45055</v>
       </c>
       <c r="B52" t="n">
-        <v>170.5788283985824</v>
+        <v>170.5788130260876</v>
       </c>
       <c r="C52" t="n">
-        <v>171.0618215140545</v>
+        <v>171.0618060980326</v>
       </c>
       <c r="D52" t="n">
-        <v>169.1495375794502</v>
+        <v>169.1495223357626</v>
       </c>
       <c r="E52" t="n">
-        <v>169.3171081542969</v>
+        <v>169.3170928955078</v>
       </c>
       <c r="F52" t="n">
         <v>45326900</v>
@@ -1803,16 +1803,16 @@
         <v>45056</v>
       </c>
       <c r="B53" t="n">
-        <v>170.5492608422008</v>
+        <v>170.549245630886</v>
       </c>
       <c r="C53" t="n">
-        <v>171.5448325237521</v>
+        <v>171.5448172236422</v>
       </c>
       <c r="D53" t="n">
-        <v>169.4452443294188</v>
+        <v>169.4452292165715</v>
       </c>
       <c r="E53" t="n">
-        <v>171.08154296875</v>
+        <v>171.0815277099609</v>
       </c>
       <c r="F53" t="n">
         <v>53724500</v>
@@ -1855,16 +1855,16 @@
         <v>45058</v>
       </c>
       <c r="B55" t="n">
-        <v>171.3773829679925</v>
+        <v>171.3773522647327</v>
       </c>
       <c r="C55" t="n">
-        <v>171.8117019924622</v>
+        <v>171.8116712113916</v>
       </c>
       <c r="D55" t="n">
-        <v>168.7912297644433</v>
+        <v>168.791199524508</v>
       </c>
       <c r="E55" t="n">
-        <v>170.3409576416016</v>
+        <v>170.3409271240234</v>
       </c>
       <c r="F55" t="n">
         <v>45533100</v>
@@ -1881,16 +1881,16 @@
         <v>45061</v>
       </c>
       <c r="B56" t="n">
-        <v>170.9233445295007</v>
+        <v>170.9233291740532</v>
       </c>
       <c r="C56" t="n">
-        <v>170.9727017058831</v>
+        <v>170.9726863460014</v>
       </c>
       <c r="D56" t="n">
-        <v>169.2551713749664</v>
+        <v>169.2551561693846</v>
       </c>
       <c r="E56" t="n">
-        <v>169.8474273681641</v>
+        <v>169.847412109375</v>
       </c>
       <c r="F56" t="n">
         <v>37266700</v>
@@ -1907,16 +1907,16 @@
         <v>45062</v>
       </c>
       <c r="B57" t="n">
-        <v>169.7684588982913</v>
+        <v>169.7684436465967</v>
       </c>
       <c r="C57" t="n">
-        <v>170.9035986466086</v>
+        <v>170.903583292935</v>
       </c>
       <c r="D57" t="n">
-        <v>169.5809106650556</v>
+        <v>169.5808954302099</v>
       </c>
       <c r="E57" t="n">
-        <v>169.8474273681641</v>
+        <v>169.847412109375</v>
       </c>
       <c r="F57" t="n">
         <v>42110300</v>
@@ -1933,16 +1933,16 @@
         <v>45063</v>
       </c>
       <c r="B58" t="n">
-        <v>169.4920438932618</v>
+        <v>169.492059065459</v>
       </c>
       <c r="C58" t="n">
-        <v>170.6962714054677</v>
+        <v>170.6962866854622</v>
       </c>
       <c r="D58" t="n">
-        <v>168.2186982734988</v>
+        <v>168.2187133317116</v>
       </c>
       <c r="E58" t="n">
-        <v>170.4593811035156</v>
+        <v>170.4593963623047</v>
       </c>
       <c r="F58" t="n">
         <v>57951600</v>
@@ -1959,16 +1959,16 @@
         <v>45064</v>
       </c>
       <c r="B59" t="n">
-        <v>170.7653864247947</v>
+        <v>170.7653713447007</v>
       </c>
       <c r="C59" t="n">
-        <v>172.9764581221001</v>
+        <v>172.9764428467489</v>
       </c>
       <c r="D59" t="n">
-        <v>170.3508133056175</v>
+        <v>170.350798262134</v>
       </c>
       <c r="E59" t="n">
-        <v>172.7889099121094</v>
+        <v>172.7888946533203</v>
       </c>
       <c r="F59" t="n">
         <v>65496700</v>
@@ -1985,16 +1985,16 @@
         <v>45065</v>
       </c>
       <c r="B60" t="n">
-        <v>174.1115688035041</v>
+        <v>174.1115995353805</v>
       </c>
       <c r="C60" t="n">
-        <v>174.1115688035041</v>
+        <v>174.1115995353805</v>
       </c>
       <c r="D60" t="n">
-        <v>172.6803014737671</v>
+        <v>172.6803319530151</v>
       </c>
       <c r="E60" t="n">
-        <v>172.8974609375</v>
+        <v>172.8974914550781</v>
       </c>
       <c r="F60" t="n">
         <v>55809500</v>
@@ -2011,16 +2011,16 @@
         <v>45068</v>
       </c>
       <c r="B61" t="n">
-        <v>171.7327306281506</v>
+        <v>171.732745867669</v>
       </c>
       <c r="C61" t="n">
-        <v>172.4533122073513</v>
+        <v>172.4533275108139</v>
       </c>
       <c r="D61" t="n">
-        <v>171.2095777379714</v>
+        <v>171.2095929310653</v>
       </c>
       <c r="E61" t="n">
-        <v>171.9498901367188</v>
+        <v>171.9499053955078</v>
       </c>
       <c r="F61" t="n">
         <v>43570900</v>
@@ -2037,16 +2037,16 @@
         <v>45069</v>
       </c>
       <c r="B62" t="n">
-        <v>170.8937220194823</v>
+        <v>170.8937528163378</v>
       </c>
       <c r="C62" t="n">
-        <v>171.140492823502</v>
+        <v>171.1405236648282</v>
       </c>
       <c r="D62" t="n">
-        <v>169.0676120450585</v>
+        <v>169.0676425128296</v>
       </c>
       <c r="E62" t="n">
-        <v>169.343994140625</v>
+        <v>169.3440246582031</v>
       </c>
       <c r="F62" t="n">
         <v>50747300</v>
@@ -2141,16 +2141,16 @@
         <v>45076</v>
       </c>
       <c r="B66" t="n">
-        <v>174.6742220401047</v>
+        <v>174.6742677286896</v>
       </c>
       <c r="C66" t="n">
-        <v>176.6779994138781</v>
+        <v>176.6780456265802</v>
       </c>
       <c r="D66" t="n">
-        <v>174.2892602555298</v>
+        <v>174.2893058434223</v>
       </c>
       <c r="E66" t="n">
-        <v>175.0098266601562</v>
+        <v>175.0098724365234</v>
       </c>
       <c r="F66" t="n">
         <v>55964400</v>
@@ -2167,16 +2167,16 @@
         <v>45077</v>
       </c>
       <c r="B67" t="n">
-        <v>175.0394481918492</v>
+        <v>175.0394787232015</v>
       </c>
       <c r="C67" t="n">
-        <v>177.0333602741014</v>
+        <v>177.0333911532428</v>
       </c>
       <c r="D67" t="n">
-        <v>174.4768035943963</v>
+        <v>174.4768340276089</v>
       </c>
       <c r="E67" t="n">
-        <v>174.9604797363281</v>
+        <v>174.9605102539062</v>
       </c>
       <c r="F67" t="n">
         <v>99625300</v>
@@ -2193,16 +2193,16 @@
         <v>45078</v>
       </c>
       <c r="B68" t="n">
-        <v>175.4046960237365</v>
+        <v>175.4046809674489</v>
       </c>
       <c r="C68" t="n">
-        <v>177.7934357563854</v>
+        <v>177.7934204950546</v>
       </c>
       <c r="D68" t="n">
-        <v>174.6446376800814</v>
+        <v>174.6446226890353</v>
       </c>
       <c r="E68" t="n">
-        <v>177.7638244628906</v>
+        <v>177.7638092041016</v>
       </c>
       <c r="F68" t="n">
         <v>68901800</v>
@@ -2219,16 +2219,16 @@
         <v>45079</v>
       </c>
       <c r="B69" t="n">
-        <v>178.6916546136132</v>
+        <v>178.6916851446838</v>
       </c>
       <c r="C69" t="n">
-        <v>179.4319669478336</v>
+        <v>179.4319976053932</v>
       </c>
       <c r="D69" t="n">
-        <v>176.9445132875791</v>
+        <v>176.944543520135</v>
       </c>
       <c r="E69" t="n">
-        <v>178.6126861572266</v>
+        <v>178.6127166748047</v>
       </c>
       <c r="F69" t="n">
         <v>61996900</v>
@@ -2245,16 +2245,16 @@
         <v>45082</v>
       </c>
       <c r="B70" t="n">
-        <v>180.2710133281443</v>
+        <v>180.2709978101985</v>
       </c>
       <c r="C70" t="n">
-        <v>182.5610385669687</v>
+        <v>182.5610228518948</v>
       </c>
       <c r="D70" t="n">
-        <v>175.740289900456</v>
+        <v>175.7402747725204</v>
       </c>
       <c r="E70" t="n">
-        <v>177.2604064941406</v>
+        <v>177.2603912353516</v>
       </c>
       <c r="F70" t="n">
         <v>121946500</v>
@@ -2271,16 +2271,16 @@
         <v>45083</v>
       </c>
       <c r="B71" t="n">
-        <v>177.6453805132487</v>
+        <v>177.6453498662516</v>
       </c>
       <c r="C71" t="n">
-        <v>177.7934369817429</v>
+        <v>177.7934063092034</v>
       </c>
       <c r="D71" t="n">
-        <v>175.1381805276456</v>
+        <v>175.1381503131851</v>
       </c>
       <c r="E71" t="n">
-        <v>176.8952026367188</v>
+        <v>176.8951721191406</v>
       </c>
       <c r="F71" t="n">
         <v>64848400</v>
@@ -2323,16 +2323,16 @@
         <v>45085</v>
       </c>
       <c r="B73" t="n">
-        <v>175.6021297240335</v>
+        <v>175.6020996577061</v>
       </c>
       <c r="C73" t="n">
-        <v>178.5041573115398</v>
+        <v>178.5041267483316</v>
       </c>
       <c r="D73" t="n">
-        <v>175.1678256826078</v>
+        <v>175.1677956906412</v>
       </c>
       <c r="E73" t="n">
-        <v>178.2376556396484</v>
+        <v>178.2376251220703</v>
       </c>
       <c r="F73" t="n">
         <v>50214900</v>
@@ -2401,16 +2401,16 @@
         <v>45090</v>
       </c>
       <c r="B76" t="n">
-        <v>180.4388231835412</v>
+        <v>180.4387927508673</v>
       </c>
       <c r="C76" t="n">
-        <v>181.7713765493201</v>
+        <v>181.7713458918988</v>
       </c>
       <c r="D76" t="n">
-        <v>180.0834726069944</v>
+        <v>180.0834422342537</v>
       </c>
       <c r="E76" t="n">
-        <v>180.9422302246094</v>
+        <v>180.9421997070312</v>
       </c>
       <c r="F76" t="n">
         <v>54929100</v>
@@ -2427,16 +2427,16 @@
         <v>45091</v>
       </c>
       <c r="B77" t="n">
-        <v>181.0014340521544</v>
+        <v>181.0014492628319</v>
       </c>
       <c r="C77" t="n">
-        <v>182.0082630916424</v>
+        <v>182.00827838693</v>
       </c>
       <c r="D77" t="n">
-        <v>179.668880824476</v>
+        <v>179.6688959231707</v>
       </c>
       <c r="E77" t="n">
-        <v>181.5739440917969</v>
+        <v>181.5739593505859</v>
       </c>
       <c r="F77" t="n">
         <v>57462900</v>
@@ -2505,16 +2505,16 @@
         <v>45097</v>
       </c>
       <c r="B80" t="n">
-        <v>182.0279984336963</v>
+        <v>182.0280288523053</v>
       </c>
       <c r="C80" t="n">
-        <v>183.6961712857554</v>
+        <v>183.6962019831319</v>
       </c>
       <c r="D80" t="n">
-        <v>182.0279984336963</v>
+        <v>182.0280288523053</v>
       </c>
       <c r="E80" t="n">
-        <v>182.6202392578125</v>
+        <v>182.6202697753906</v>
       </c>
       <c r="F80" t="n">
         <v>49799100</v>
@@ -2557,16 +2557,16 @@
         <v>45099</v>
       </c>
       <c r="B82" t="n">
-        <v>181.3666633051449</v>
+        <v>181.3666782979256</v>
       </c>
       <c r="C82" t="n">
-        <v>184.6339061200073</v>
+        <v>184.6339213828765</v>
       </c>
       <c r="D82" t="n">
-        <v>181.2975602550694</v>
+        <v>181.2975752421376</v>
       </c>
       <c r="E82" t="n">
-        <v>184.5845489501953</v>
+        <v>184.5845642089844</v>
       </c>
       <c r="F82" t="n">
         <v>51245300</v>
@@ -2583,16 +2583,16 @@
         <v>45100</v>
       </c>
       <c r="B83" t="n">
-        <v>183.1533133637622</v>
+        <v>183.1532526980569</v>
       </c>
       <c r="C83" t="n">
-        <v>185.1373454182768</v>
+        <v>185.1372840954023</v>
       </c>
       <c r="D83" t="n">
-        <v>182.6202799354653</v>
+        <v>182.6202194463161</v>
       </c>
       <c r="E83" t="n">
-        <v>184.2687072753906</v>
+        <v>184.2686462402344</v>
       </c>
       <c r="F83" t="n">
         <v>53117000</v>
@@ -2609,16 +2609,16 @@
         <v>45103</v>
       </c>
       <c r="B84" t="n">
-        <v>184.4167393322707</v>
+        <v>184.4167547195407</v>
       </c>
       <c r="C84" t="n">
-        <v>185.6209819319518</v>
+        <v>185.6209974197008</v>
       </c>
       <c r="D84" t="n">
-        <v>182.8374003308778</v>
+        <v>182.8374155863718</v>
       </c>
       <c r="E84" t="n">
-        <v>182.8768920898438</v>
+        <v>182.8769073486328</v>
       </c>
       <c r="F84" t="n">
         <v>48088700</v>
@@ -2635,16 +2635,16 @@
         <v>45104</v>
       </c>
       <c r="B85" t="n">
-        <v>183.4888906938721</v>
+        <v>183.4889057765921</v>
       </c>
       <c r="C85" t="n">
-        <v>185.9565986299679</v>
+        <v>185.9566139155326</v>
       </c>
       <c r="D85" t="n">
-        <v>183.2717311905602</v>
+        <v>183.2717462554297</v>
       </c>
       <c r="E85" t="n">
-        <v>185.630859375</v>
+        <v>185.6308746337891</v>
       </c>
       <c r="F85" t="n">
         <v>50730800</v>
@@ -2687,16 +2687,16 @@
         <v>45106</v>
       </c>
       <c r="B87" t="n">
-        <v>186.6377062364685</v>
+        <v>186.6376910187253</v>
       </c>
       <c r="C87" t="n">
-        <v>187.6149240946042</v>
+        <v>187.6149087971824</v>
       </c>
       <c r="D87" t="n">
-        <v>186.4995151813307</v>
+        <v>186.4994999748551</v>
       </c>
       <c r="E87" t="n">
-        <v>187.14111328125</v>
+        <v>187.1410980224609</v>
       </c>
       <c r="F87" t="n">
         <v>46347300</v>
@@ -2739,16 +2739,16 @@
         <v>45110</v>
       </c>
       <c r="B89" t="n">
-        <v>191.2769714660082</v>
+        <v>191.2770175563338</v>
       </c>
       <c r="C89" t="n">
-        <v>191.3756858056154</v>
+        <v>191.3757319197273</v>
       </c>
       <c r="D89" t="n">
-        <v>189.2830592871522</v>
+        <v>189.2831048970224</v>
       </c>
       <c r="E89" t="n">
-        <v>189.9740295410156</v>
+        <v>189.9740753173828</v>
       </c>
       <c r="F89" t="n">
         <v>31458200</v>
@@ -2765,16 +2765,16 @@
         <v>45112</v>
       </c>
       <c r="B90" t="n">
-        <v>189.0955632614615</v>
+        <v>189.095532705602</v>
       </c>
       <c r="C90" t="n">
-        <v>190.4873393283003</v>
+        <v>190.4873085475444</v>
       </c>
       <c r="D90" t="n">
-        <v>188.1578220361882</v>
+        <v>188.1577916318577</v>
       </c>
       <c r="E90" t="n">
-        <v>188.8586578369141</v>
+        <v>188.8586273193359</v>
       </c>
       <c r="F90" t="n">
         <v>46920300</v>
@@ -2791,16 +2791,16 @@
         <v>45113</v>
       </c>
       <c r="B91" t="n">
-        <v>187.3878879532025</v>
+        <v>187.3878577490578</v>
       </c>
       <c r="C91" t="n">
-        <v>189.5397373551234</v>
+        <v>189.5397068041325</v>
       </c>
       <c r="D91" t="n">
-        <v>186.7561552507634</v>
+        <v>186.7561251484447</v>
       </c>
       <c r="E91" t="n">
-        <v>189.3324432373047</v>
+        <v>189.3324127197266</v>
       </c>
       <c r="F91" t="n">
         <v>45094300</v>
@@ -2817,16 +2817,16 @@
         <v>45114</v>
       </c>
       <c r="B92" t="n">
-        <v>188.9375920522482</v>
+        <v>188.937607369455</v>
       </c>
       <c r="C92" t="n">
-        <v>190.1813114167851</v>
+        <v>190.1813268348204</v>
       </c>
       <c r="D92" t="n">
-        <v>187.7827065576724</v>
+        <v>187.7827217812524</v>
       </c>
       <c r="E92" t="n">
-        <v>188.2170104980469</v>
+        <v>188.2170257568359</v>
       </c>
       <c r="F92" t="n">
         <v>46815000</v>
@@ -2869,16 +2869,16 @@
         <v>45118</v>
       </c>
       <c r="B94" t="n">
-        <v>186.716655878057</v>
+        <v>186.7166251852394</v>
       </c>
       <c r="C94" t="n">
-        <v>186.8548469192605</v>
+        <v>186.8548162037268</v>
       </c>
       <c r="D94" t="n">
-        <v>184.1897253750821</v>
+        <v>184.1896950976459</v>
       </c>
       <c r="E94" t="n">
-        <v>185.6506042480469</v>
+        <v>185.6505737304688</v>
       </c>
       <c r="F94" t="n">
         <v>46638100</v>
@@ -2895,16 +2895,16 @@
         <v>45119</v>
       </c>
       <c r="B95" t="n">
-        <v>187.2299529360786</v>
+        <v>187.2299224329755</v>
       </c>
       <c r="C95" t="n">
-        <v>189.2238654174545</v>
+        <v>189.2238345895075</v>
       </c>
       <c r="D95" t="n">
-        <v>186.0355905787657</v>
+        <v>186.0355602702456</v>
       </c>
       <c r="E95" t="n">
-        <v>187.3188018798828</v>
+        <v>187.3187713623047</v>
       </c>
       <c r="F95" t="n">
         <v>60750200</v>
@@ -2921,16 +2921,16 @@
         <v>45120</v>
       </c>
       <c r="B96" t="n">
-        <v>188.039365458902</v>
+        <v>188.0393502033157</v>
       </c>
       <c r="C96" t="n">
-        <v>188.720455334215</v>
+        <v>188.7204400233721</v>
       </c>
       <c r="D96" t="n">
-        <v>187.3286642900272</v>
+        <v>187.3286490920999</v>
       </c>
       <c r="E96" t="n">
-        <v>188.0788421630859</v>
+        <v>188.0788269042969</v>
       </c>
       <c r="F96" t="n">
         <v>41342300</v>
@@ -2999,16 +2999,16 @@
         <v>45125</v>
       </c>
       <c r="B99" t="n">
-        <v>190.852549228444</v>
+        <v>190.8525339995842</v>
       </c>
       <c r="C99" t="n">
-        <v>191.8198865800326</v>
+        <v>191.8198712739852</v>
       </c>
       <c r="D99" t="n">
-        <v>189.9345539891762</v>
+        <v>189.9345388335667</v>
       </c>
       <c r="E99" t="n">
-        <v>191.2276306152344</v>
+        <v>191.2276153564453</v>
       </c>
       <c r="F99" t="n">
         <v>48288200</v>
@@ -3025,16 +3025,16 @@
         <v>45126</v>
       </c>
       <c r="B100" t="n">
-        <v>190.6057592684017</v>
+        <v>190.6057743707706</v>
       </c>
       <c r="C100" t="n">
-        <v>195.6694855056854</v>
+        <v>195.6695010092712</v>
       </c>
       <c r="D100" t="n">
-        <v>190.1615598085878</v>
+        <v>190.1615748757612</v>
       </c>
       <c r="E100" t="n">
-        <v>192.5799255371094</v>
+        <v>192.5799407958984</v>
       </c>
       <c r="F100" t="n">
         <v>80507300</v>
@@ -3077,16 +3077,16 @@
         <v>45128</v>
       </c>
       <c r="B102" t="n">
-        <v>191.59284231983</v>
+        <v>191.5928268893256</v>
       </c>
       <c r="C102" t="n">
-        <v>192.4515998266043</v>
+        <v>192.4515843269373</v>
       </c>
       <c r="D102" t="n">
-        <v>188.7599034835092</v>
+        <v>188.7598882811641</v>
       </c>
       <c r="E102" t="n">
-        <v>189.4607391357422</v>
+        <v>189.4607238769531</v>
       </c>
       <c r="F102" t="n">
         <v>71951700</v>
@@ -3129,16 +3129,16 @@
         <v>45132</v>
       </c>
       <c r="B104" t="n">
-        <v>190.8328015643597</v>
+        <v>190.832816800295</v>
       </c>
       <c r="C104" t="n">
-        <v>191.928464545818</v>
+        <v>191.9284798692301</v>
       </c>
       <c r="D104" t="n">
-        <v>190.4280938275836</v>
+        <v>190.4281090312073</v>
       </c>
       <c r="E104" t="n">
-        <v>191.1190490722656</v>
+        <v>191.1190643310547</v>
       </c>
       <c r="F104" t="n">
         <v>37283200</v>
@@ -3155,16 +3155,16 @@
         <v>45133</v>
       </c>
       <c r="B105" t="n">
-        <v>191.1683900841155</v>
+        <v>191.1684204714641</v>
       </c>
       <c r="C105" t="n">
-        <v>193.112945076557</v>
+        <v>193.1129757730041</v>
       </c>
       <c r="D105" t="n">
-        <v>190.8229200218285</v>
+        <v>190.8229503542625</v>
       </c>
       <c r="E105" t="n">
-        <v>191.9876708984375</v>
+        <v>191.9877014160156</v>
       </c>
       <c r="F105" t="n">
         <v>47471900</v>
@@ -3259,16 +3259,16 @@
         <v>45139</v>
       </c>
       <c r="B109" t="n">
-        <v>193.7052107356477</v>
+        <v>193.7051954277144</v>
       </c>
       <c r="C109" t="n">
-        <v>194.1888718595327</v>
+        <v>194.1888565133771</v>
       </c>
       <c r="D109" t="n">
-        <v>192.7576042455747</v>
+        <v>192.7575890125279</v>
       </c>
       <c r="E109" t="n">
-        <v>193.0833435058594</v>
+        <v>193.0833282470703</v>
       </c>
       <c r="F109" t="n">
         <v>35175100</v>
@@ -3311,16 +3311,16 @@
         <v>45141</v>
       </c>
       <c r="B111" t="n">
-        <v>189.0955258899619</v>
+        <v>189.0955411806789</v>
       </c>
       <c r="C111" t="n">
-        <v>189.8851803589987</v>
+        <v>189.885195713569</v>
       </c>
       <c r="D111" t="n">
-        <v>188.2268878999892</v>
+        <v>188.226903120466</v>
       </c>
       <c r="E111" t="n">
-        <v>188.70068359375</v>
+        <v>188.7006988525391</v>
       </c>
       <c r="F111" t="n">
         <v>61235200</v>
@@ -3337,16 +3337,16 @@
         <v>45142</v>
       </c>
       <c r="B112" t="n">
-        <v>183.1236692644361</v>
+        <v>183.1236537096774</v>
       </c>
       <c r="C112" t="n">
-        <v>184.9596445164711</v>
+        <v>184.9596288057623</v>
       </c>
       <c r="D112" t="n">
-        <v>179.5701639180156</v>
+        <v>179.5701486650962</v>
       </c>
       <c r="E112" t="n">
-        <v>179.6392669677734</v>
+        <v>179.6392517089844</v>
       </c>
       <c r="F112" t="n">
         <v>115956800</v>
@@ -3363,16 +3363,16 @@
         <v>45145</v>
       </c>
       <c r="B113" t="n">
-        <v>179.7774724691483</v>
+        <v>179.7774880077742</v>
       </c>
       <c r="C113" t="n">
-        <v>180.7645556934903</v>
+        <v>180.7645713174323</v>
       </c>
       <c r="D113" t="n">
-        <v>175.0592158617292</v>
+        <v>175.0592309925441</v>
       </c>
       <c r="E113" t="n">
-        <v>176.5398406982422</v>
+        <v>176.5398559570312</v>
       </c>
       <c r="F113" t="n">
         <v>97576100</v>
@@ -3389,16 +3389,16 @@
         <v>45146</v>
       </c>
       <c r="B114" t="n">
-        <v>177.3689593222931</v>
+        <v>177.3689898212007</v>
       </c>
       <c r="C114" t="n">
-        <v>177.9414693105031</v>
+        <v>177.9414999078548</v>
       </c>
       <c r="D114" t="n">
-        <v>175.2862134413724</v>
+        <v>175.2862435821482</v>
       </c>
       <c r="E114" t="n">
-        <v>177.4775390625</v>
+        <v>177.4775695800781</v>
       </c>
       <c r="F114" t="n">
         <v>67823000</v>
@@ -3415,16 +3415,16 @@
         <v>45147</v>
       </c>
       <c r="B115" t="n">
-        <v>178.5337425791817</v>
+        <v>178.5337580674642</v>
       </c>
       <c r="C115" t="n">
-        <v>178.592965164301</v>
+        <v>178.5929806577213</v>
       </c>
       <c r="D115" t="n">
-        <v>174.7236006323237</v>
+        <v>174.7236157900662</v>
       </c>
       <c r="E115" t="n">
-        <v>175.8883666992188</v>
+        <v>175.8883819580078</v>
       </c>
       <c r="F115" t="n">
         <v>60378500</v>
@@ -3467,16 +3467,16 @@
         <v>45149</v>
       </c>
       <c r="B117" t="n">
-        <v>175.2659727747152</v>
+        <v>175.2659575562626</v>
       </c>
       <c r="C117" t="n">
-        <v>176.5509018053876</v>
+        <v>176.5508864753638</v>
       </c>
       <c r="D117" t="n">
-        <v>174.5048880562447</v>
+        <v>174.5048729038775</v>
       </c>
       <c r="E117" t="n">
-        <v>175.7305145263672</v>
+        <v>175.7304992675781</v>
       </c>
       <c r="F117" t="n">
         <v>52036700</v>
@@ -3493,16 +3493,16 @@
         <v>45152</v>
       </c>
       <c r="B118" t="n">
-        <v>175.9084342260845</v>
+        <v>175.9084039618852</v>
       </c>
       <c r="C118" t="n">
-        <v>177.6085113150633</v>
+        <v>177.6084807583738</v>
       </c>
       <c r="D118" t="n">
-        <v>175.2560759073296</v>
+        <v>175.2560457553654</v>
       </c>
       <c r="E118" t="n">
-        <v>177.3811798095703</v>
+        <v>177.3811492919922</v>
       </c>
       <c r="F118" t="n">
         <v>43675600</v>
@@ -3519,16 +3519,16 @@
         <v>45153</v>
       </c>
       <c r="B119" t="n">
-        <v>176.8078979911647</v>
+        <v>176.807867227656</v>
       </c>
       <c r="C119" t="n">
-        <v>177.4009386730428</v>
+        <v>177.4009078063486</v>
       </c>
       <c r="D119" t="n">
-        <v>174.9990945014693</v>
+        <v>174.9990640526815</v>
       </c>
       <c r="E119" t="n">
-        <v>175.3944549560547</v>
+        <v>175.3944244384766</v>
       </c>
       <c r="F119" t="n">
         <v>43622600</v>
@@ -3545,16 +3545,16 @@
         <v>45154</v>
       </c>
       <c r="B120" t="n">
-        <v>175.0781535628399</v>
+        <v>175.0781688700227</v>
       </c>
       <c r="C120" t="n">
-        <v>176.4718088408469</v>
+        <v>176.4718242698778</v>
       </c>
       <c r="D120" t="n">
-        <v>174.4554465760064</v>
+        <v>174.4554618287455</v>
       </c>
       <c r="E120" t="n">
-        <v>174.5246429443359</v>
+        <v>174.524658203125</v>
       </c>
       <c r="F120" t="n">
         <v>46964900</v>
@@ -3597,16 +3597,16 @@
         <v>45156</v>
       </c>
       <c r="B122" t="n">
-        <v>170.3041010185975</v>
+        <v>170.3041160858754</v>
       </c>
       <c r="C122" t="n">
-        <v>173.0716691795552</v>
+        <v>173.0716844916875</v>
       </c>
       <c r="D122" t="n">
-        <v>169.9680431564472</v>
+        <v>169.9680581939931</v>
       </c>
       <c r="E122" t="n">
-        <v>172.4687347412109</v>
+        <v>172.46875</v>
       </c>
       <c r="F122" t="n">
         <v>61172200</v>
@@ -3623,16 +3623,16 @@
         <v>45159</v>
       </c>
       <c r="B123" t="n">
-        <v>173.04200058882</v>
+        <v>173.0420309727642</v>
       </c>
       <c r="C123" t="n">
-        <v>174.0897191613031</v>
+        <v>174.0897497292131</v>
       </c>
       <c r="D123" t="n">
-        <v>171.7274054668453</v>
+        <v>171.7274356199635</v>
       </c>
       <c r="E123" t="n">
-        <v>173.8030700683594</v>
+        <v>173.8031005859375</v>
       </c>
       <c r="F123" t="n">
         <v>46311900</v>
@@ -3649,16 +3649,16 @@
         <v>45160</v>
       </c>
       <c r="B124" t="n">
-        <v>175.0089730060435</v>
+        <v>175.0089577618906</v>
       </c>
       <c r="C124" t="n">
-        <v>175.6217862344625</v>
+        <v>175.6217709369305</v>
       </c>
       <c r="D124" t="n">
-        <v>174.2083582832291</v>
+        <v>174.2083431088137</v>
       </c>
       <c r="E124" t="n">
-        <v>175.177001953125</v>
+        <v>175.1769866943359</v>
       </c>
       <c r="F124" t="n">
         <v>42038900</v>
@@ -3675,16 +3675,16 @@
         <v>45161</v>
       </c>
       <c r="B125" t="n">
-        <v>176.4520539589397</v>
+        <v>176.4520238794437</v>
       </c>
       <c r="C125" t="n">
-        <v>179.4469536637595</v>
+        <v>179.4469230737277</v>
       </c>
       <c r="D125" t="n">
-        <v>176.264252478764</v>
+        <v>176.2642224312822</v>
       </c>
       <c r="E125" t="n">
-        <v>179.0219268798828</v>
+        <v>179.0218963623047</v>
       </c>
       <c r="F125" t="n">
         <v>52722800</v>
@@ -3701,16 +3701,16 @@
         <v>45162</v>
       </c>
       <c r="B126" t="n">
-        <v>178.5771206013182</v>
+        <v>178.5771518611585</v>
       </c>
       <c r="C126" t="n">
-        <v>179.0021473327597</v>
+        <v>179.0021786670007</v>
       </c>
       <c r="D126" t="n">
-        <v>173.9710983264249</v>
+        <v>173.9711287799832</v>
       </c>
       <c r="E126" t="n">
-        <v>174.3368225097656</v>
+        <v>174.3368530273438</v>
       </c>
       <c r="F126" t="n">
         <v>54945800</v>
@@ -3727,16 +3727,16 @@
         <v>45163</v>
       </c>
       <c r="B127" t="n">
-        <v>175.3252224777835</v>
+        <v>175.3252527852027</v>
       </c>
       <c r="C127" t="n">
-        <v>177.0747078147034</v>
+        <v>177.0747384245456</v>
       </c>
       <c r="D127" t="n">
-        <v>173.7832960402127</v>
+        <v>173.7833260810883</v>
       </c>
       <c r="E127" t="n">
-        <v>176.5409698486328</v>
+        <v>176.5410003662109</v>
       </c>
       <c r="F127" t="n">
         <v>51449600</v>
@@ -3753,16 +3753,16 @@
         <v>45166</v>
       </c>
       <c r="B128" t="n">
-        <v>178.0038440119186</v>
+        <v>178.0038745125593</v>
       </c>
       <c r="C128" t="n">
-        <v>178.4980520402145</v>
+        <v>178.4980826255369</v>
       </c>
       <c r="D128" t="n">
-        <v>176.4816899208615</v>
+        <v>176.4817201606838</v>
       </c>
       <c r="E128" t="n">
-        <v>178.1026916503906</v>
+        <v>178.1027221679688</v>
       </c>
       <c r="F128" t="n">
         <v>43820700</v>
@@ -3831,16 +3831,16 @@
         <v>45169</v>
       </c>
       <c r="B131" t="n">
-        <v>185.6640743098665</v>
+        <v>185.6640895662191</v>
       </c>
       <c r="C131" t="n">
-        <v>186.9292456956689</v>
+        <v>186.9292610559829</v>
       </c>
       <c r="D131" t="n">
-        <v>185.3082439149826</v>
+        <v>185.3082591420959</v>
       </c>
       <c r="E131" t="n">
-        <v>185.6937255859375</v>
+        <v>185.6937408447266</v>
       </c>
       <c r="F131" t="n">
         <v>60794500</v>
@@ -3857,16 +3857,16 @@
         <v>45170</v>
       </c>
       <c r="B132" t="n">
-        <v>187.2949711004791</v>
+        <v>187.294955839274</v>
       </c>
       <c r="C132" t="n">
-        <v>187.7199827815663</v>
+        <v>187.7199674857303</v>
       </c>
       <c r="D132" t="n">
-        <v>186.0989809905241</v>
+        <v>186.0989658267709</v>
       </c>
       <c r="E132" t="n">
-        <v>187.2653198242188</v>
+        <v>187.2653045654297</v>
       </c>
       <c r="F132" t="n">
         <v>45766500</v>
@@ -3909,16 +3909,16 @@
         <v>45175</v>
       </c>
       <c r="B134" t="n">
-        <v>186.2176093716304</v>
+        <v>186.2175936548533</v>
       </c>
       <c r="C134" t="n">
-        <v>186.6624087351986</v>
+        <v>186.6623929808804</v>
       </c>
       <c r="D134" t="n">
-        <v>179.3678922227225</v>
+        <v>179.3678770840619</v>
       </c>
       <c r="E134" t="n">
-        <v>180.7912139892578</v>
+        <v>180.7911987304688</v>
       </c>
       <c r="F134" t="n">
         <v>81755800</v>
@@ -3935,16 +3935,16 @@
         <v>45176</v>
       </c>
       <c r="B135" t="n">
-        <v>173.1507385025828</v>
+        <v>173.1507234483217</v>
       </c>
       <c r="C135" t="n">
-        <v>176.1456533918577</v>
+        <v>176.1456380772095</v>
       </c>
       <c r="D135" t="n">
-        <v>171.5297365769406</v>
+        <v>171.5297216636145</v>
       </c>
       <c r="E135" t="n">
-        <v>175.503173828125</v>
+        <v>175.5031585693359</v>
       </c>
       <c r="F135" t="n">
         <v>112488800</v>
@@ -3961,16 +3961,16 @@
         <v>45177</v>
       </c>
       <c r="B136" t="n">
-        <v>176.2839955263589</v>
+        <v>176.2840107997074</v>
       </c>
       <c r="C136" t="n">
-        <v>178.152101119561</v>
+        <v>178.1521165547633</v>
       </c>
       <c r="D136" t="n">
-        <v>175.7304699103468</v>
+        <v>175.7304851357375</v>
       </c>
       <c r="E136" t="n">
-        <v>176.1159515380859</v>
+        <v>176.115966796875</v>
       </c>
       <c r="F136" t="n">
         <v>65551300</v>
@@ -4013,16 +4013,16 @@
         <v>45181</v>
       </c>
       <c r="B138" t="n">
-        <v>177.4108010563609</v>
+        <v>177.4108165912451</v>
       </c>
       <c r="C138" t="n">
-        <v>178.0433867208448</v>
+        <v>178.043402311121</v>
       </c>
       <c r="D138" t="n">
-        <v>172.7948999436057</v>
+        <v>172.7949150743009</v>
       </c>
       <c r="E138" t="n">
-        <v>174.2577514648438</v>
+        <v>174.2577667236328</v>
       </c>
       <c r="F138" t="n">
         <v>90370200</v>
@@ -4039,16 +4039,16 @@
         <v>45182</v>
       </c>
       <c r="B139" t="n">
-        <v>174.4653157289451</v>
+        <v>174.4653466494281</v>
       </c>
       <c r="C139" t="n">
-        <v>175.2461728730601</v>
+        <v>175.2462039319343</v>
       </c>
       <c r="D139" t="n">
-        <v>171.9646242691944</v>
+        <v>171.9646547464799</v>
       </c>
       <c r="E139" t="n">
-        <v>172.1919708251953</v>
+        <v>172.1920013427734</v>
       </c>
       <c r="F139" t="n">
         <v>84267900</v>
@@ -4065,16 +4065,16 @@
         <v>45183</v>
       </c>
       <c r="B140" t="n">
-        <v>171.984419781829</v>
+        <v>171.9844348895405</v>
       </c>
       <c r="C140" t="n">
-        <v>174.0600998464924</v>
+        <v>174.0601151365389</v>
       </c>
       <c r="D140" t="n">
-        <v>171.5692867853032</v>
+        <v>171.569301856548</v>
       </c>
       <c r="E140" t="n">
-        <v>173.7042694091797</v>
+        <v>173.7042846679688</v>
       </c>
       <c r="F140" t="n">
         <v>60895800</v>
@@ -4117,16 +4117,16 @@
         <v>45187</v>
       </c>
       <c r="B142" t="n">
-        <v>174.4356713108912</v>
+        <v>174.4356864419302</v>
       </c>
       <c r="C142" t="n">
-        <v>177.3020870863587</v>
+        <v>177.3021024660386</v>
       </c>
       <c r="D142" t="n">
-        <v>174.1292647291417</v>
+        <v>174.1292798336021</v>
       </c>
       <c r="E142" t="n">
-        <v>175.9084167480469</v>
+        <v>175.9084320068359</v>
       </c>
       <c r="F142" t="n">
         <v>67257600</v>
@@ -4143,16 +4143,16 @@
         <v>45188</v>
       </c>
       <c r="B143" t="n">
-        <v>175.4636488877364</v>
+        <v>175.4636186343139</v>
       </c>
       <c r="C143" t="n">
-        <v>177.5492076830111</v>
+        <v>177.5491770699967</v>
       </c>
       <c r="D143" t="n">
-        <v>175.0781671711707</v>
+        <v>175.0781369842128</v>
       </c>
       <c r="E143" t="n">
-        <v>176.9956970214844</v>
+        <v>176.9956665039062</v>
       </c>
       <c r="F143" t="n">
         <v>51826900</v>
@@ -4169,16 +4169,16 @@
         <v>45189</v>
       </c>
       <c r="B144" t="n">
-        <v>177.1834868845125</v>
+        <v>177.1834712979243</v>
       </c>
       <c r="C144" t="n">
-        <v>177.6183924361976</v>
+        <v>177.6183768113514</v>
       </c>
       <c r="D144" t="n">
-        <v>173.3681996565953</v>
+        <v>173.3681844056327</v>
       </c>
       <c r="E144" t="n">
-        <v>173.4571685791016</v>
+        <v>173.4571533203125</v>
       </c>
       <c r="F144" t="n">
         <v>58436200</v>
@@ -4195,16 +4195,16 @@
         <v>45190</v>
       </c>
       <c r="B145" t="n">
-        <v>172.5280351536478</v>
+        <v>172.5280657800123</v>
       </c>
       <c r="C145" t="n">
-        <v>174.2577633475187</v>
+        <v>174.2577942809365</v>
       </c>
       <c r="D145" t="n">
-        <v>171.846025624082</v>
+        <v>171.8460561293794</v>
       </c>
       <c r="E145" t="n">
-        <v>171.9152069091797</v>
+        <v>171.9152374267578</v>
       </c>
       <c r="F145" t="n">
         <v>63149100</v>
@@ -4247,16 +4247,16 @@
         <v>45194</v>
       </c>
       <c r="B147" t="n">
-        <v>172.1821016686947</v>
+        <v>172.1820714769525</v>
       </c>
       <c r="C147" t="n">
-        <v>174.9200188077248</v>
+        <v>174.9199881358951</v>
       </c>
       <c r="D147" t="n">
-        <v>172.1326778415286</v>
+        <v>172.1326476584528</v>
       </c>
       <c r="E147" t="n">
-        <v>174.0403289794922</v>
+        <v>174.0402984619141</v>
       </c>
       <c r="F147" t="n">
         <v>46172700</v>
@@ -4273,16 +4273,16 @@
         <v>45195</v>
       </c>
       <c r="B148" t="n">
-        <v>172.7949188930673</v>
+        <v>172.7949344056372</v>
       </c>
       <c r="C148" t="n">
-        <v>173.1705067749598</v>
+        <v>173.1705223212479</v>
       </c>
       <c r="D148" t="n">
-        <v>169.6715202337633</v>
+        <v>169.6715354659317</v>
       </c>
       <c r="E148" t="n">
-        <v>169.9680480957031</v>
+        <v>169.9680633544922</v>
       </c>
       <c r="F148" t="n">
         <v>64588900</v>
@@ -4299,16 +4299,16 @@
         <v>45196</v>
       </c>
       <c r="B149" t="n">
-        <v>170.6203831944849</v>
+        <v>170.6204141042098</v>
       </c>
       <c r="C149" t="n">
-        <v>171.0355161486817</v>
+        <v>171.0355471336124</v>
       </c>
       <c r="D149" t="n">
-        <v>167.0917455427959</v>
+        <v>167.0917758132699</v>
       </c>
       <c r="E149" t="n">
-        <v>168.4557495117188</v>
+        <v>168.4557800292969</v>
       </c>
       <c r="F149" t="n">
         <v>66921800</v>
@@ -4351,16 +4351,16 @@
         <v>45198</v>
       </c>
       <c r="B151" t="n">
-        <v>170.027329658855</v>
+        <v>170.0273603208123</v>
       </c>
       <c r="C151" t="n">
-        <v>171.0651695064884</v>
+        <v>171.0652003556051</v>
       </c>
       <c r="D151" t="n">
-        <v>168.3667828862352</v>
+        <v>168.3668132487371</v>
       </c>
       <c r="E151" t="n">
-        <v>169.2267150878906</v>
+        <v>169.2267456054688</v>
       </c>
       <c r="F151" t="n">
         <v>51861100</v>
@@ -4377,16 +4377,16 @@
         <v>45201</v>
       </c>
       <c r="B152" t="n">
-        <v>169.2365980179806</v>
+        <v>169.2366130545842</v>
       </c>
       <c r="C152" t="n">
-        <v>172.2809212749636</v>
+        <v>172.2809365820542</v>
       </c>
       <c r="D152" t="n">
-        <v>168.9499489163055</v>
+        <v>168.9499639274405</v>
       </c>
       <c r="E152" t="n">
-        <v>171.7372894287109</v>
+        <v>171.7373046875</v>
       </c>
       <c r="F152" t="n">
         <v>52164500</v>
@@ -4481,16 +4481,16 @@
         <v>45205</v>
       </c>
       <c r="B156" t="n">
-        <v>171.7867623012585</v>
+        <v>171.7867324181383</v>
       </c>
       <c r="C156" t="n">
-        <v>175.9282291643471</v>
+        <v>175.9281985607991</v>
       </c>
       <c r="D156" t="n">
-        <v>171.1739339168396</v>
+        <v>171.1739041403238</v>
       </c>
       <c r="E156" t="n">
-        <v>175.4340209960938</v>
+        <v>175.4339904785156</v>
       </c>
       <c r="F156" t="n">
         <v>57266700</v>
@@ -4559,16 +4559,16 @@
         <v>45210</v>
       </c>
       <c r="B159" t="n">
-        <v>176.1357673950024</v>
+        <v>176.1357371489945</v>
       </c>
       <c r="C159" t="n">
-        <v>177.7666632072918</v>
+        <v>177.7666326812266</v>
       </c>
       <c r="D159" t="n">
-        <v>175.5427267121983</v>
+        <v>175.5426965680271</v>
       </c>
       <c r="E159" t="n">
-        <v>177.7172393798828</v>
+        <v>177.7172088623047</v>
       </c>
       <c r="F159" t="n">
         <v>47551100</v>
@@ -4585,16 +4585,16 @@
         <v>45211</v>
       </c>
       <c r="B160" t="n">
-        <v>177.9841134502041</v>
+        <v>177.9840982454553</v>
       </c>
       <c r="C160" t="n">
-        <v>180.2278073787141</v>
+        <v>180.227791982292</v>
       </c>
       <c r="D160" t="n">
-        <v>176.9660308825731</v>
+        <v>176.9660157647966</v>
       </c>
       <c r="E160" t="n">
-        <v>178.61669921875</v>
+        <v>178.6166839599609</v>
       </c>
       <c r="F160" t="n">
         <v>56743100</v>
@@ -4637,16 +4637,16 @@
         <v>45215</v>
       </c>
       <c r="B162" t="n">
-        <v>174.7025534864437</v>
+        <v>174.7025383958498</v>
       </c>
       <c r="C162" t="n">
-        <v>177.0055649122618</v>
+        <v>177.0055496227365</v>
       </c>
       <c r="D162" t="n">
-        <v>174.4653281823049</v>
+        <v>174.4653131122022</v>
       </c>
       <c r="E162" t="n">
-        <v>176.6497344970703</v>
+        <v>176.6497192382812</v>
       </c>
       <c r="F162" t="n">
         <v>52517000</v>
@@ -4663,16 +4663,16 @@
         <v>45216</v>
       </c>
       <c r="B163" t="n">
-        <v>174.6037227881325</v>
+        <v>174.6037075724109</v>
       </c>
       <c r="C163" t="n">
-        <v>176.3532237561523</v>
+        <v>176.3532083879715</v>
       </c>
       <c r="D163" t="n">
-        <v>172.7751617930922</v>
+        <v>172.7751467367193</v>
       </c>
       <c r="E163" t="n">
-        <v>175.0979309082031</v>
+        <v>175.0979156494141</v>
       </c>
       <c r="F163" t="n">
         <v>57549400</v>
@@ -4689,16 +4689,16 @@
         <v>45217</v>
       </c>
       <c r="B164" t="n">
-        <v>173.5460873316095</v>
+        <v>173.5461178040648</v>
       </c>
       <c r="C164" t="n">
-        <v>175.5229193799267</v>
+        <v>175.5229501994882</v>
       </c>
       <c r="D164" t="n">
-        <v>173.0815305936925</v>
+        <v>173.0815609845775</v>
       </c>
       <c r="E164" t="n">
-        <v>173.8030700683594</v>
+        <v>173.8031005859375</v>
       </c>
       <c r="F164" t="n">
         <v>54764400</v>
@@ -4741,16 +4741,16 @@
         <v>45219</v>
       </c>
       <c r="B166" t="n">
-        <v>173.2792552037354</v>
+        <v>173.2792087839379</v>
       </c>
       <c r="C166" t="n">
-        <v>173.3879815975471</v>
+        <v>173.3879351486228</v>
       </c>
       <c r="D166" t="n">
-        <v>170.6401855525277</v>
+        <v>170.6401398397108</v>
       </c>
       <c r="E166" t="n">
-        <v>170.8774108886719</v>
+        <v>170.8773651123047</v>
       </c>
       <c r="F166" t="n">
         <v>64244000</v>
@@ -4767,16 +4767,16 @@
         <v>45222</v>
       </c>
       <c r="B167" t="n">
-        <v>168.9302008893702</v>
+        <v>168.9301858149211</v>
       </c>
       <c r="C167" t="n">
-        <v>171.9942817795104</v>
+        <v>171.9942664316387</v>
       </c>
       <c r="D167" t="n">
-        <v>167.9615422430249</v>
+        <v>167.9615272550138</v>
       </c>
       <c r="E167" t="n">
-        <v>170.9959869384766</v>
+        <v>170.9959716796875</v>
       </c>
       <c r="F167" t="n">
         <v>55980100</v>
@@ -4793,16 +4793,16 @@
         <v>45223</v>
       </c>
       <c r="B168" t="n">
-        <v>171.0454264882669</v>
+        <v>171.0454417127449</v>
       </c>
       <c r="C168" t="n">
-        <v>171.6582397062376</v>
+        <v>171.6582549852611</v>
       </c>
       <c r="D168" t="n">
-        <v>169.4639545348813</v>
+        <v>169.463969618595</v>
       </c>
       <c r="E168" t="n">
-        <v>171.430908203125</v>
+        <v>171.4309234619141</v>
       </c>
       <c r="F168" t="n">
         <v>43816600</v>
@@ -4819,16 +4819,16 @@
         <v>45224</v>
       </c>
       <c r="B169" t="n">
-        <v>169.8889595466204</v>
+        <v>169.8889748749701</v>
       </c>
       <c r="C169" t="n">
-        <v>171.0552832740242</v>
+        <v>171.0552987076063</v>
       </c>
       <c r="D169" t="n">
-        <v>168.6731969171006</v>
+        <v>168.6732121357573</v>
       </c>
       <c r="E169" t="n">
-        <v>169.1179962158203</v>
+        <v>169.1180114746094</v>
       </c>
       <c r="F169" t="n">
         <v>57157000</v>
@@ -4845,16 +4845,16 @@
         <v>45225</v>
       </c>
       <c r="B170" t="n">
-        <v>168.3964558542296</v>
+        <v>168.3964402772638</v>
       </c>
       <c r="C170" t="n">
-        <v>169.3947658253746</v>
+        <v>169.3947501560633</v>
       </c>
       <c r="D170" t="n">
-        <v>163.7509029323945</v>
+        <v>163.7508877851504</v>
       </c>
       <c r="E170" t="n">
-        <v>164.9567718505859</v>
+        <v>164.9567565917969</v>
       </c>
       <c r="F170" t="n">
         <v>70625300</v>
@@ -4871,16 +4871,16 @@
         <v>45226</v>
       </c>
       <c r="B171" t="n">
-        <v>164.9765244498122</v>
+        <v>164.9765395897749</v>
       </c>
       <c r="C171" t="n">
-        <v>167.0027803432287</v>
+        <v>167.0027956691416</v>
       </c>
       <c r="D171" t="n">
-        <v>164.8974493569631</v>
+        <v>164.897464489669</v>
       </c>
       <c r="E171" t="n">
-        <v>166.2713470458984</v>
+        <v>166.2713623046875</v>
       </c>
       <c r="F171" t="n">
         <v>58499100</v>
@@ -4897,16 +4897,16 @@
         <v>45229</v>
       </c>
       <c r="B172" t="n">
-        <v>167.0620899917217</v>
+        <v>167.0621202817057</v>
       </c>
       <c r="C172" t="n">
-        <v>169.187178529982</v>
+        <v>169.1872092052654</v>
       </c>
       <c r="D172" t="n">
-        <v>166.9138185305669</v>
+        <v>166.9138487936679</v>
       </c>
       <c r="E172" t="n">
-        <v>168.3173675537109</v>
+        <v>168.3173980712891</v>
       </c>
       <c r="F172" t="n">
         <v>51131000</v>
@@ -4923,16 +4923,16 @@
         <v>45230</v>
       </c>
       <c r="B173" t="n">
-        <v>167.3882601341315</v>
+        <v>167.3882752660396</v>
       </c>
       <c r="C173" t="n">
-        <v>168.9202929097051</v>
+        <v>168.9203081801091</v>
       </c>
       <c r="D173" t="n">
-        <v>165.9550448299652</v>
+        <v>165.9550598323106</v>
       </c>
       <c r="E173" t="n">
-        <v>168.7918090820312</v>
+        <v>168.7918243408203</v>
       </c>
       <c r="F173" t="n">
         <v>44846000</v>
@@ -4949,16 +4949,16 @@
         <v>45231</v>
       </c>
       <c r="B174" t="n">
-        <v>169.0191755359785</v>
+        <v>169.0191455393939</v>
       </c>
       <c r="C174" t="n">
-        <v>172.2117557397994</v>
+        <v>172.2117251766134</v>
       </c>
       <c r="D174" t="n">
-        <v>168.1493644262673</v>
+        <v>168.149334584052</v>
       </c>
       <c r="E174" t="n">
-        <v>171.9547729492188</v>
+        <v>171.9547424316406</v>
       </c>
       <c r="F174" t="n">
         <v>56934900</v>
@@ -5001,16 +5001,16 @@
         <v>45233</v>
       </c>
       <c r="B176" t="n">
-        <v>172.2216123316697</v>
+        <v>172.2216424329047</v>
       </c>
       <c r="C176" t="n">
-        <v>174.771727466855</v>
+        <v>174.7717580138042</v>
       </c>
       <c r="D176" t="n">
-        <v>171.3419226793098</v>
+        <v>171.341952626791</v>
       </c>
       <c r="E176" t="n">
-        <v>174.6036834716797</v>
+        <v>174.6037139892578</v>
       </c>
       <c r="F176" t="n">
         <v>79829200</v>
@@ -5027,16 +5027,16 @@
         <v>45236</v>
       </c>
       <c r="B177" t="n">
-        <v>174.3368318340778</v>
+        <v>174.3368468502322</v>
       </c>
       <c r="C177" t="n">
-        <v>177.3514887920026</v>
+        <v>177.3515040678184</v>
       </c>
       <c r="D177" t="n">
-        <v>174.1688029114615</v>
+        <v>174.168817913143</v>
       </c>
       <c r="E177" t="n">
-        <v>177.15380859375</v>
+        <v>177.1538238525391</v>
       </c>
       <c r="F177" t="n">
         <v>63841300</v>
@@ -5105,16 +5105,16 @@
         <v>45239</v>
       </c>
       <c r="B180" t="n">
-        <v>180.8405983702654</v>
+        <v>180.8406136750628</v>
       </c>
       <c r="C180" t="n">
-        <v>181.987149470294</v>
+        <v>181.9871648721256</v>
       </c>
       <c r="D180" t="n">
-        <v>179.7039109186948</v>
+        <v>179.7039261272927</v>
       </c>
       <c r="E180" t="n">
-        <v>180.2969665527344</v>
+        <v>180.2969818115234</v>
       </c>
       <c r="F180" t="n">
         <v>53763500</v>
@@ -5131,16 +5131,16 @@
         <v>45240</v>
       </c>
       <c r="B181" t="n">
-        <v>182.0784967659945</v>
+        <v>182.0784666462571</v>
       </c>
       <c r="C181" t="n">
-        <v>184.6517706680945</v>
+        <v>184.6517401226816</v>
       </c>
       <c r="D181" t="n">
-        <v>181.6430182500788</v>
+        <v>181.6429882023789</v>
       </c>
       <c r="E181" t="n">
-        <v>184.4835052490234</v>
+        <v>184.4834747314453</v>
       </c>
       <c r="F181" t="n">
         <v>66133400</v>
@@ -5209,16 +5209,16 @@
         <v>45245</v>
       </c>
       <c r="B184" t="n">
-        <v>185.9186218532377</v>
+        <v>185.9185913616288</v>
       </c>
       <c r="C184" t="n">
-        <v>187.5516512987177</v>
+        <v>187.5516205392835</v>
       </c>
       <c r="D184" t="n">
-        <v>185.8493343109674</v>
+        <v>185.8493038307219</v>
       </c>
       <c r="E184" t="n">
-        <v>186.0769653320312</v>
+        <v>186.0769348144531</v>
       </c>
       <c r="F184" t="n">
         <v>53790500</v>
@@ -5235,16 +5235,16 @@
         <v>45246</v>
       </c>
       <c r="B185" t="n">
-        <v>187.6209004949025</v>
+        <v>187.6209157424311</v>
       </c>
       <c r="C185" t="n">
-        <v>188.9966082920076</v>
+        <v>188.9966236513369</v>
       </c>
       <c r="D185" t="n">
-        <v>186.7103463929358</v>
+        <v>186.7103615664657</v>
       </c>
       <c r="E185" t="n">
-        <v>187.7594604492188</v>
+        <v>187.7594757080078</v>
       </c>
       <c r="F185" t="n">
         <v>54412900</v>
@@ -5261,16 +5261,16 @@
         <v>45247</v>
       </c>
       <c r="B186" t="n">
-        <v>188.2939096405235</v>
+        <v>188.2938790328523</v>
       </c>
       <c r="C186" t="n">
-        <v>188.4225778542272</v>
+        <v>188.4225472256406</v>
       </c>
       <c r="D186" t="n">
-        <v>186.6311901183669</v>
+        <v>186.6311597809751</v>
       </c>
       <c r="E186" t="n">
-        <v>187.7396697998047</v>
+        <v>187.7396392822266</v>
       </c>
       <c r="F186" t="n">
         <v>50922700</v>
@@ -5313,16 +5313,16 @@
         <v>45251</v>
       </c>
       <c r="B188" t="n">
-        <v>189.4419731424159</v>
+        <v>189.441988462836</v>
       </c>
       <c r="C188" t="n">
-        <v>189.5508427535814</v>
+        <v>189.5508580828059</v>
       </c>
       <c r="D188" t="n">
-        <v>187.7891454833783</v>
+        <v>187.789160670132</v>
       </c>
       <c r="E188" t="n">
-        <v>188.6798858642578</v>
+        <v>188.6799011230469</v>
       </c>
       <c r="F188" t="n">
         <v>38134500</v>
@@ -5339,16 +5339,16 @@
         <v>45252</v>
       </c>
       <c r="B189" t="n">
-        <v>189.5211594632793</v>
+        <v>189.5211747364257</v>
       </c>
       <c r="C189" t="n">
-        <v>190.9463411053134</v>
+        <v>190.9463564933125</v>
       </c>
       <c r="D189" t="n">
-        <v>188.8679417719912</v>
+        <v>188.8679569924961</v>
       </c>
       <c r="E189" t="n">
-        <v>189.3430023193359</v>
+        <v>189.343017578125</v>
       </c>
       <c r="F189" t="n">
         <v>39617700</v>
@@ -5365,16 +5365,16 @@
         <v>45254</v>
       </c>
       <c r="B190" t="n">
-        <v>188.9075557499312</v>
+        <v>188.9075250877743</v>
       </c>
       <c r="C190" t="n">
-        <v>188.9372460952837</v>
+        <v>188.9372154283076</v>
       </c>
       <c r="D190" t="n">
-        <v>187.3042166932774</v>
+        <v>187.3041862913633</v>
       </c>
       <c r="E190" t="n">
-        <v>188.0168151855469</v>
+        <v>188.0167846679688</v>
       </c>
       <c r="F190" t="n">
         <v>24048300</v>
@@ -5417,16 +5417,16 @@
         <v>45258</v>
       </c>
       <c r="B192" t="n">
-        <v>187.8287470101196</v>
+        <v>187.8287622192218</v>
       </c>
       <c r="C192" t="n">
-        <v>189.1153838838239</v>
+        <v>189.1153991971093</v>
       </c>
       <c r="D192" t="n">
-        <v>187.4526492050005</v>
+        <v>187.4526643836489</v>
       </c>
       <c r="E192" t="n">
-        <v>188.4423675537109</v>
+        <v>188.4423828125</v>
       </c>
       <c r="F192" t="n">
         <v>38415400</v>
@@ -5443,16 +5443,16 @@
         <v>45259</v>
       </c>
       <c r="B193" t="n">
-        <v>188.9372416175212</v>
+        <v>188.93722623545</v>
       </c>
       <c r="C193" t="n">
-        <v>190.1150089616067</v>
+        <v>190.1149934836492</v>
       </c>
       <c r="D193" t="n">
-        <v>187.0270923028918</v>
+        <v>187.0270770763328</v>
       </c>
       <c r="E193" t="n">
-        <v>187.4229736328125</v>
+        <v>187.4229583740234</v>
       </c>
       <c r="F193" t="n">
         <v>43014200</v>
@@ -5469,16 +5469,16 @@
         <v>45260</v>
       </c>
       <c r="B194" t="n">
-        <v>187.888109148078</v>
+        <v>187.8880938981253</v>
       </c>
       <c r="C194" t="n">
-        <v>188.3631847819343</v>
+        <v>188.363169493422</v>
       </c>
       <c r="D194" t="n">
-        <v>186.2550800746654</v>
+        <v>186.2550649572576</v>
       </c>
       <c r="E194" t="n">
-        <v>187.9969787597656</v>
+        <v>187.9969635009766</v>
       </c>
       <c r="F194" t="n">
         <v>48794400</v>
@@ -5495,16 +5495,16 @@
         <v>45261</v>
       </c>
       <c r="B195" t="n">
-        <v>188.3730649805332</v>
+        <v>188.3730801667143</v>
       </c>
       <c r="C195" t="n">
-        <v>189.5904141261248</v>
+        <v>189.5904294104457</v>
       </c>
       <c r="D195" t="n">
-        <v>187.2843689303936</v>
+        <v>187.2843840288066</v>
       </c>
       <c r="E195" t="n">
-        <v>189.2737121582031</v>
+        <v>189.2737274169922</v>
       </c>
       <c r="F195" t="n">
         <v>45704800</v>
@@ -5573,16 +5573,16 @@
         <v>45266</v>
       </c>
       <c r="B198" t="n">
-        <v>192.4506950223819</v>
+        <v>192.4507413057332</v>
       </c>
       <c r="C198" t="n">
-        <v>192.7575052385965</v>
+        <v>192.7575515957339</v>
       </c>
       <c r="D198" t="n">
-        <v>190.1347581304068</v>
+        <v>190.1348038567878</v>
       </c>
       <c r="E198" t="n">
-        <v>190.3426055908203</v>
+        <v>190.3426513671875</v>
       </c>
       <c r="F198" t="n">
         <v>41089700</v>
@@ -5599,16 +5599,16 @@
         <v>45267</v>
       </c>
       <c r="B199" t="n">
-        <v>191.6391790931291</v>
+        <v>191.6391486760876</v>
       </c>
       <c r="C199" t="n">
-        <v>192.9950884718347</v>
+        <v>192.9950578395827</v>
       </c>
       <c r="D199" t="n">
-        <v>191.5995818999659</v>
+        <v>191.5995514892092</v>
       </c>
       <c r="E199" t="n">
-        <v>192.2725982666016</v>
+        <v>192.2725677490234</v>
       </c>
       <c r="F199" t="n">
         <v>47477700</v>
@@ -5651,16 +5651,16 @@
         <v>45271</v>
       </c>
       <c r="B201" t="n">
-        <v>191.1245294417511</v>
+        <v>191.1244989352299</v>
       </c>
       <c r="C201" t="n">
-        <v>191.5006272833106</v>
+        <v>191.5005967167582</v>
       </c>
       <c r="D201" t="n">
-        <v>189.4519028540638</v>
+        <v>189.4518726145205</v>
       </c>
       <c r="E201" t="n">
-        <v>191.1938018798828</v>
+        <v>191.1937713623047</v>
       </c>
       <c r="F201" t="n">
         <v>60943700</v>
@@ -5729,16 +5729,16 @@
         <v>45274</v>
       </c>
       <c r="B204" t="n">
-        <v>195.9840185786185</v>
+        <v>195.9840338304759</v>
       </c>
       <c r="C204" t="n">
-        <v>197.5675587698765</v>
+        <v>197.567574144968</v>
       </c>
       <c r="D204" t="n">
-        <v>194.143141968628</v>
+        <v>194.1431570772248</v>
       </c>
       <c r="E204" t="n">
-        <v>196.0730895996094</v>
+        <v>196.0731048583984</v>
       </c>
       <c r="F204" t="n">
         <v>66831600</v>
@@ -5781,16 +5781,16 @@
         <v>45278</v>
       </c>
       <c r="B206" t="n">
-        <v>194.0738561652729</v>
+        <v>194.0738714396407</v>
       </c>
       <c r="C206" t="n">
-        <v>194.6083124997745</v>
+        <v>194.6083278162061</v>
       </c>
       <c r="D206" t="n">
-        <v>192.3913380900211</v>
+        <v>192.3913532319682</v>
       </c>
       <c r="E206" t="n">
-        <v>193.8759155273438</v>
+        <v>193.8759307861328</v>
       </c>
       <c r="F206" t="n">
         <v>55751900</v>
@@ -5833,16 +5833,16 @@
         <v>45280</v>
       </c>
       <c r="B208" t="n">
-        <v>194.8755371350795</v>
+        <v>194.8755217141718</v>
       </c>
       <c r="C208" t="n">
-        <v>195.6475162401682</v>
+        <v>195.6475007581722</v>
       </c>
       <c r="D208" t="n">
-        <v>192.8268280029297</v>
+        <v>192.8268127441406</v>
       </c>
       <c r="E208" t="n">
-        <v>192.8268280029297</v>
+        <v>192.8268127441406</v>
       </c>
       <c r="F208" t="n">
         <v>52242800</v>
@@ -5885,16 +5885,16 @@
         <v>45282</v>
       </c>
       <c r="B210" t="n">
-        <v>193.1732081577343</v>
+        <v>193.1732235410516</v>
       </c>
       <c r="C210" t="n">
-        <v>193.4008542372909</v>
+        <v>193.4008696387368</v>
       </c>
       <c r="D210" t="n">
-        <v>190.9859391988314</v>
+        <v>190.985954407966</v>
       </c>
       <c r="E210" t="n">
-        <v>191.6094665527344</v>
+        <v>191.6094818115234</v>
       </c>
       <c r="F210" t="n">
         <v>37149600</v>
@@ -5911,16 +5911,16 @@
         <v>45286</v>
       </c>
       <c r="B211" t="n">
-        <v>191.6193796571302</v>
+        <v>191.6193643540786</v>
       </c>
       <c r="C211" t="n">
-        <v>191.8964996004414</v>
+        <v>191.8964842752585</v>
       </c>
       <c r="D211" t="n">
-        <v>190.847400514777</v>
+        <v>190.8473852733769</v>
       </c>
       <c r="E211" t="n">
-        <v>191.0651397705078</v>
+        <v>191.0651245117188</v>
       </c>
       <c r="F211" t="n">
         <v>28919300</v>
@@ -5937,16 +5937,16 @@
         <v>45287</v>
       </c>
       <c r="B212" t="n">
-        <v>190.5109055915093</v>
+        <v>190.5108599715587</v>
       </c>
       <c r="C212" t="n">
-        <v>191.5105157668365</v>
+        <v>191.5104699075182</v>
       </c>
       <c r="D212" t="n">
-        <v>189.1252907315366</v>
+        <v>189.1252454433869</v>
       </c>
       <c r="E212" t="n">
-        <v>191.1641082763672</v>
+        <v>191.1640625</v>
       </c>
       <c r="F212" t="n">
         <v>48087700</v>
@@ -5989,16 +5989,16 @@
         <v>45289</v>
       </c>
       <c r="B214" t="n">
-        <v>191.9063546702627</v>
+        <v>191.9063700376295</v>
       </c>
       <c r="C214" t="n">
-        <v>192.4012137747264</v>
+        <v>192.4012291817203</v>
       </c>
       <c r="D214" t="n">
-        <v>189.7586679691184</v>
+        <v>189.758683164504</v>
       </c>
       <c r="E214" t="n">
-        <v>190.5504455566406</v>
+        <v>190.5504608154297</v>
       </c>
       <c r="F214" t="n">
         <v>42672100</v>
@@ -6015,16 +6015,16 @@
         <v>45293</v>
       </c>
       <c r="B215" t="n">
-        <v>185.2258079729774</v>
+        <v>185.2257772071695</v>
       </c>
       <c r="C215" t="n">
-        <v>186.5025532725651</v>
+        <v>186.5025222946912</v>
       </c>
       <c r="D215" t="n">
-        <v>181.9993311564719</v>
+        <v>181.9993009265784</v>
       </c>
       <c r="E215" t="n">
-        <v>183.7313385009766</v>
+        <v>183.7313079833984</v>
       </c>
       <c r="F215" t="n">
         <v>82488700</v>
@@ -6041,16 +6041,16 @@
         <v>45294</v>
       </c>
       <c r="B216" t="n">
-        <v>182.3258852241296</v>
+        <v>182.3259157367389</v>
       </c>
       <c r="C216" t="n">
-        <v>183.968821035463</v>
+        <v>183.9688518230211</v>
       </c>
       <c r="D216" t="n">
-        <v>181.543999401021</v>
+        <v>181.5440297827802</v>
       </c>
       <c r="E216" t="n">
-        <v>182.3555755615234</v>
+        <v>182.3556060791016</v>
       </c>
       <c r="F216" t="n">
         <v>58414500</v>
@@ -6093,16 +6093,16 @@
         <v>45296</v>
       </c>
       <c r="B218" t="n">
-        <v>180.1188384374096</v>
+        <v>180.1188537644171</v>
       </c>
       <c r="C218" t="n">
-        <v>180.8809106532784</v>
+        <v>180.8809260451335</v>
       </c>
       <c r="D218" t="n">
-        <v>178.3175438866593</v>
+        <v>178.3175590603877</v>
       </c>
       <c r="E218" t="n">
-        <v>179.3171539306641</v>
+        <v>179.3171691894531</v>
       </c>
       <c r="F218" t="n">
         <v>62379700</v>
@@ -6145,16 +6145,16 @@
         <v>45300</v>
       </c>
       <c r="B220" t="n">
-        <v>182.0289774717032</v>
+        <v>182.0289926299427</v>
       </c>
       <c r="C220" t="n">
-        <v>183.2463266822704</v>
+        <v>183.2463419418833</v>
       </c>
       <c r="D220" t="n">
-        <v>180.8512103460259</v>
+        <v>180.8512254061883</v>
       </c>
       <c r="E220" t="n">
-        <v>183.2364349365234</v>
+        <v>183.2364501953125</v>
       </c>
       <c r="F220" t="n">
         <v>42841800</v>
@@ -6171,16 +6171,16 @@
         <v>45301</v>
       </c>
       <c r="B221" t="n">
-        <v>182.4545720032457</v>
+        <v>182.4545568952494</v>
       </c>
       <c r="C221" t="n">
-        <v>184.4834824073384</v>
+        <v>184.48346713134</v>
       </c>
       <c r="D221" t="n">
-        <v>182.0289852874201</v>
+        <v>182.0289702146642</v>
       </c>
       <c r="E221" t="n">
-        <v>184.2756500244141</v>
+        <v>184.275634765625</v>
       </c>
       <c r="F221" t="n">
         <v>46792900</v>
@@ -6197,16 +6197,16 @@
         <v>45302</v>
       </c>
       <c r="B222" t="n">
-        <v>184.6220377994394</v>
+        <v>184.6220071256481</v>
       </c>
       <c r="C222" t="n">
-        <v>185.1268037778689</v>
+        <v>185.1267730202138</v>
       </c>
       <c r="D222" t="n">
-        <v>181.7320622889632</v>
+        <v>181.7320320953232</v>
       </c>
       <c r="E222" t="n">
-        <v>183.6818084716797</v>
+        <v>183.6817779541016</v>
       </c>
       <c r="F222" t="n">
         <v>49128400</v>
@@ -6249,16 +6249,16 @@
         <v>45307</v>
       </c>
       <c r="B224" t="n">
-        <v>180.2870867868906</v>
+        <v>180.2871170601684</v>
       </c>
       <c r="C224" t="n">
-        <v>182.3654861284781</v>
+        <v>182.3655167507545</v>
       </c>
       <c r="D224" t="n">
-        <v>179.0697224204938</v>
+        <v>179.0697524893553</v>
       </c>
       <c r="E224" t="n">
-        <v>181.7419738769531</v>
+        <v>181.7420043945312</v>
       </c>
       <c r="F224" t="n">
         <v>65603000</v>
@@ -6275,16 +6275,16 @@
         <v>45308</v>
       </c>
       <c r="B225" t="n">
-        <v>179.4062360041018</v>
+        <v>179.4062662861346</v>
       </c>
       <c r="C225" t="n">
-        <v>181.0491568637633</v>
+        <v>181.0491874231052</v>
       </c>
       <c r="D225" t="n">
-        <v>178.4462080688448</v>
+        <v>178.4462381888341</v>
       </c>
       <c r="E225" t="n">
-        <v>180.8017272949219</v>
+        <v>180.8017578125</v>
       </c>
       <c r="F225" t="n">
         <v>47317400</v>
@@ -6301,16 +6301,16 @@
         <v>45309</v>
       </c>
       <c r="B226" t="n">
-        <v>184.176659034247</v>
+        <v>184.1766891408889</v>
       </c>
       <c r="C226" t="n">
-        <v>187.1953026108584</v>
+        <v>187.1953332109462</v>
       </c>
       <c r="D226" t="n">
-        <v>183.9193377349905</v>
+        <v>183.9193677995691</v>
       </c>
       <c r="E226" t="n">
-        <v>186.6905517578125</v>
+        <v>186.6905822753906</v>
       </c>
       <c r="F226" t="n">
         <v>78005800</v>
@@ -6327,16 +6327,16 @@
         <v>45310</v>
       </c>
       <c r="B227" t="n">
-        <v>187.3833712191047</v>
+        <v>187.3833561379468</v>
       </c>
       <c r="C227" t="n">
-        <v>189.9764283832528</v>
+        <v>189.9764130933981</v>
       </c>
       <c r="D227" t="n">
-        <v>186.8786203129096</v>
+        <v>186.8786052723756</v>
       </c>
       <c r="E227" t="n">
-        <v>189.5904388427734</v>
+        <v>189.5904235839844</v>
       </c>
       <c r="F227" t="n">
         <v>68903000</v>
@@ -6405,16 +6405,16 @@
         <v>45315</v>
       </c>
       <c r="B230" t="n">
-        <v>193.410722005102</v>
+        <v>193.4107679979945</v>
       </c>
       <c r="C230" t="n">
-        <v>194.3608580884024</v>
+        <v>194.3609043072363</v>
       </c>
       <c r="D230" t="n">
-        <v>192.3418245746019</v>
+        <v>192.3418703133116</v>
       </c>
       <c r="E230" t="n">
-        <v>192.5001831054688</v>
+        <v>192.5002288818359</v>
       </c>
       <c r="F230" t="n">
         <v>53631300</v>
@@ -6431,16 +6431,16 @@
         <v>45316</v>
       </c>
       <c r="B231" t="n">
-        <v>193.212821813058</v>
+        <v>193.2128064717547</v>
       </c>
       <c r="C231" t="n">
-        <v>194.2520291241628</v>
+        <v>194.2520137003454</v>
       </c>
       <c r="D231" t="n">
-        <v>191.1245154438125</v>
+        <v>191.124500268323</v>
       </c>
       <c r="E231" t="n">
-        <v>192.1736145019531</v>
+        <v>192.1735992431641</v>
       </c>
       <c r="F231" t="n">
         <v>54822100</v>
@@ -6457,16 +6457,16 @@
         <v>45317</v>
       </c>
       <c r="B232" t="n">
-        <v>192.2725896171282</v>
+        <v>192.2726050226216</v>
       </c>
       <c r="C232" t="n">
-        <v>192.7575419472792</v>
+        <v>192.7575573916286</v>
       </c>
       <c r="D232" t="n">
-        <v>189.9665440310004</v>
+        <v>189.9665592517261</v>
       </c>
       <c r="E232" t="n">
-        <v>190.4416046142578</v>
+        <v>190.4416198730469</v>
       </c>
       <c r="F232" t="n">
         <v>44594000</v>
@@ -6483,16 +6483,16 @@
         <v>45320</v>
       </c>
       <c r="B233" t="n">
-        <v>190.0357868811084</v>
+        <v>190.0358021621811</v>
       </c>
       <c r="C233" t="n">
-        <v>190.2238357561407</v>
+        <v>190.2238510523347</v>
       </c>
       <c r="D233" t="n">
-        <v>187.6307788947091</v>
+        <v>187.6307939823914</v>
       </c>
       <c r="E233" t="n">
-        <v>189.7586669921875</v>
+        <v>189.7586822509766</v>
       </c>
       <c r="F233" t="n">
         <v>47145600</v>
@@ -6535,16 +6535,16 @@
         <v>45322</v>
       </c>
       <c r="B235" t="n">
-        <v>185.1169146941162</v>
+        <v>185.1168992168716</v>
       </c>
       <c r="C235" t="n">
-        <v>185.1763104810857</v>
+        <v>185.1762949988752</v>
       </c>
       <c r="D235" t="n">
-        <v>182.4545850016048</v>
+        <v>182.4545697469521</v>
       </c>
       <c r="E235" t="n">
-        <v>182.5040588378906</v>
+        <v>182.5040435791016</v>
       </c>
       <c r="F235" t="n">
         <v>55467800</v>
@@ -6587,16 +6587,16 @@
         <v>45324</v>
       </c>
       <c r="B237" t="n">
-        <v>178.0107152621848</v>
+        <v>178.0107300291781</v>
       </c>
       <c r="C237" t="n">
-        <v>185.4039113913647</v>
+        <v>185.4039267716655</v>
       </c>
       <c r="D237" t="n">
-        <v>177.4069865588012</v>
+        <v>177.4070012757119</v>
       </c>
       <c r="E237" t="n">
-        <v>183.9391326904297</v>
+        <v>183.9391479492188</v>
       </c>
       <c r="F237" t="n">
         <v>102551700</v>
@@ -6613,16 +6613,16 @@
         <v>45327</v>
       </c>
       <c r="B238" t="n">
-        <v>186.215489236559</v>
+        <v>186.2155198305614</v>
       </c>
       <c r="C238" t="n">
-        <v>187.3041853905544</v>
+        <v>187.3042161634226</v>
       </c>
       <c r="D238" t="n">
-        <v>183.9292424150712</v>
+        <v>183.929272633458</v>
       </c>
       <c r="E238" t="n">
-        <v>185.7503204345703</v>
+        <v>185.7503509521484</v>
       </c>
       <c r="F238" t="n">
         <v>69668800</v>
@@ -6665,16 +6665,16 @@
         <v>45329</v>
       </c>
       <c r="B240" t="n">
-        <v>188.679904264735</v>
+        <v>188.679888906858</v>
       </c>
       <c r="C240" t="n">
-        <v>189.0856924097343</v>
+        <v>189.0856770188276</v>
       </c>
       <c r="D240" t="n">
-        <v>186.6707772370308</v>
+        <v>186.6707620426896</v>
       </c>
       <c r="E240" t="n">
-        <v>187.4625549316406</v>
+        <v>187.4625396728516</v>
       </c>
       <c r="F240" t="n">
         <v>53439000</v>
@@ -6691,16 +6691,16 @@
         <v>45330</v>
       </c>
       <c r="B241" t="n">
-        <v>187.4427492788415</v>
+        <v>187.4427339333554</v>
       </c>
       <c r="C241" t="n">
-        <v>187.5912009839088</v>
+        <v>187.5911856262693</v>
       </c>
       <c r="D241" t="n">
-        <v>185.4237305804128</v>
+        <v>185.4237154002189</v>
       </c>
       <c r="E241" t="n">
-        <v>186.3837585449219</v>
+        <v>186.3837432861328</v>
       </c>
       <c r="F241" t="n">
         <v>40962000</v>
@@ -6717,16 +6717,16 @@
         <v>45331</v>
       </c>
       <c r="B242" t="n">
-        <v>186.9485812309131</v>
+        <v>186.9486117161699</v>
       </c>
       <c r="C242" t="n">
-        <v>188.2765074166394</v>
+        <v>188.2765381184379</v>
       </c>
       <c r="D242" t="n">
-        <v>186.3044495548571</v>
+        <v>186.3044799350768</v>
       </c>
       <c r="E242" t="n">
-        <v>187.1467895507812</v>
+        <v>187.1468200683594</v>
       </c>
       <c r="F242" t="n">
         <v>45155200</v>
@@ -6821,16 +6821,16 @@
         <v>45337</v>
       </c>
       <c r="B246" t="n">
-        <v>181.8946262099093</v>
+        <v>181.8946109768474</v>
       </c>
       <c r="C246" t="n">
-        <v>182.826151079826</v>
+        <v>182.826135768752</v>
       </c>
       <c r="D246" t="n">
-        <v>179.7144703073751</v>
+        <v>179.7144552568939</v>
       </c>
       <c r="E246" t="n">
-        <v>182.2018280029297</v>
+        <v>182.2018127441406</v>
       </c>
       <c r="F246" t="n">
         <v>65434500</v>
@@ -6847,16 +6847,16 @@
         <v>45338</v>
       </c>
       <c r="B247" t="n">
-        <v>181.7657611684451</v>
+        <v>181.7657765201378</v>
       </c>
       <c r="C247" t="n">
-        <v>183.1828720794629</v>
+        <v>183.1828875508429</v>
       </c>
       <c r="D247" t="n">
-        <v>180.0315441516518</v>
+        <v>180.0315593568749</v>
       </c>
       <c r="E247" t="n">
-        <v>180.665771484375</v>
+        <v>180.6657867431641</v>
       </c>
       <c r="F247" t="n">
         <v>49752500</v>
@@ -6899,16 +6899,16 @@
         <v>45343</v>
       </c>
       <c r="B249" t="n">
-        <v>180.2991120232181</v>
+        <v>180.2991424771893</v>
       </c>
       <c r="C249" t="n">
-        <v>181.2405410871646</v>
+        <v>181.2405717001507</v>
       </c>
       <c r="D249" t="n">
-        <v>179.0306573667313</v>
+        <v>179.0306876064502</v>
       </c>
       <c r="E249" t="n">
-        <v>180.6756896972656</v>
+        <v>180.6757202148438</v>
       </c>
       <c r="F249" t="n">
         <v>41371400</v>
@@ -6977,16 +6977,16 @@
         <v>45348</v>
       </c>
       <c r="B252" t="n">
-        <v>180.5964150496176</v>
+        <v>180.5964303993733</v>
       </c>
       <c r="C252" t="n">
-        <v>181.1117143741551</v>
+        <v>181.1117297677085</v>
       </c>
       <c r="D252" t="n">
-        <v>179.0207434868858</v>
+        <v>179.0207587027176</v>
       </c>
       <c r="E252" t="n">
-        <v>179.5261535644531</v>
+        <v>179.5261688232422</v>
       </c>
       <c r="F252" t="n">
         <v>40867400</v>
@@ -7003,16 +7003,16 @@
         <v>45349</v>
       </c>
       <c r="B253" t="n">
-        <v>179.4666949255866</v>
+        <v>179.4667100565438</v>
       </c>
       <c r="C253" t="n">
-        <v>182.2612539462515</v>
+        <v>182.2612693128198</v>
       </c>
       <c r="D253" t="n">
-        <v>177.9405754645176</v>
+        <v>177.9405904668067</v>
       </c>
       <c r="E253" t="n">
-        <v>180.9828948974609</v>
+        <v>180.98291015625</v>
       </c>
       <c r="F253" t="n">
         <v>54318900</v>
@@ -7029,16 +7029,16 @@
         <v>45350</v>
       </c>
       <c r="B254" t="n">
-        <v>180.8639793914523</v>
+        <v>180.8639640409863</v>
       </c>
       <c r="C254" t="n">
-        <v>181.4684785484301</v>
+        <v>181.4684631466585</v>
       </c>
       <c r="D254" t="n">
-        <v>178.5054543393071</v>
+        <v>178.5054391890162</v>
       </c>
       <c r="E254" t="n">
-        <v>179.7838134765625</v>
+        <v>179.7837982177734</v>
       </c>
       <c r="F254" t="n">
         <v>48953900</v>
@@ -7055,16 +7055,16 @@
         <v>45351</v>
       </c>
       <c r="B255" t="n">
-        <v>179.635172262954</v>
+        <v>179.6351875656414</v>
       </c>
       <c r="C255" t="n">
-        <v>180.9234508895373</v>
+        <v>180.9234663019701</v>
       </c>
       <c r="D255" t="n">
-        <v>177.9108594746495</v>
+        <v>177.9108746304469</v>
       </c>
       <c r="E255" t="n">
-        <v>179.1198577880859</v>
+        <v>179.119873046875</v>
       </c>
       <c r="F255" t="n">
         <v>136682600</v>
@@ -7081,16 +7081,16 @@
         <v>45352</v>
       </c>
       <c r="B256" t="n">
-        <v>177.9306795722254</v>
+        <v>177.930694821672</v>
       </c>
       <c r="C256" t="n">
-        <v>178.9018369256933</v>
+        <v>178.9018522583724</v>
       </c>
       <c r="D256" t="n">
-        <v>175.7802521575312</v>
+        <v>175.7802672226767</v>
       </c>
       <c r="E256" t="n">
-        <v>178.0396881103516</v>
+        <v>178.0397033691406</v>
       </c>
       <c r="F256" t="n">
         <v>73563100</v>
@@ -7107,16 +7107,16 @@
         <v>45355</v>
       </c>
       <c r="B257" t="n">
-        <v>174.5613464945542</v>
+        <v>174.5613311442658</v>
       </c>
       <c r="C257" t="n">
-        <v>175.3045824548566</v>
+        <v>175.3045670392107</v>
       </c>
       <c r="D257" t="n">
-        <v>172.2226300679557</v>
+        <v>172.2226149233254</v>
       </c>
       <c r="E257" t="n">
-        <v>173.5208282470703</v>
+        <v>173.5208129882812</v>
       </c>
       <c r="F257" t="n">
         <v>81510100</v>
@@ -7133,16 +7133,16 @@
         <v>45356</v>
       </c>
       <c r="B258" t="n">
-        <v>169.2199512663342</v>
+        <v>169.2199359501408</v>
       </c>
       <c r="C258" t="n">
-        <v>170.4884060450963</v>
+        <v>170.4883906140944</v>
       </c>
       <c r="D258" t="n">
-        <v>168.0902332564625</v>
+        <v>168.0902180425206</v>
       </c>
       <c r="E258" t="n">
-        <v>168.5857238769531</v>
+        <v>168.5857086181641</v>
       </c>
       <c r="F258" t="n">
         <v>95132400</v>
@@ -7159,16 +7159,16 @@
         <v>45357</v>
       </c>
       <c r="B259" t="n">
-        <v>169.51723240501</v>
+        <v>169.5172478388351</v>
       </c>
       <c r="C259" t="n">
-        <v>169.6956168742887</v>
+        <v>169.6956323243549</v>
       </c>
       <c r="D259" t="n">
-        <v>167.1586924388991</v>
+        <v>167.1587076579891</v>
       </c>
       <c r="E259" t="n">
-        <v>167.5947265625</v>
+        <v>167.5947418212891</v>
       </c>
       <c r="F259" t="n">
         <v>68587700</v>
@@ -7185,16 +7185,16 @@
         <v>45358</v>
       </c>
       <c r="B260" t="n">
-        <v>167.6244559437835</v>
+        <v>167.6244712161154</v>
       </c>
       <c r="C260" t="n">
-        <v>169.1902079797121</v>
+        <v>169.1902233947002</v>
       </c>
       <c r="D260" t="n">
-        <v>166.9704198750416</v>
+        <v>166.970435087784</v>
       </c>
       <c r="E260" t="n">
-        <v>167.4758148193359</v>
+        <v>167.475830078125</v>
       </c>
       <c r="F260" t="n">
         <v>71765100</v>
@@ -7289,16 +7289,16 @@
         <v>45364</v>
       </c>
       <c r="B264" t="n">
-        <v>171.2118327714389</v>
+        <v>171.2118481764583</v>
       </c>
       <c r="C264" t="n">
-        <v>171.6280430769753</v>
+        <v>171.6280585194439</v>
       </c>
       <c r="D264" t="n">
-        <v>169.2199508049464</v>
+        <v>169.2199660307435</v>
       </c>
       <c r="E264" t="n">
-        <v>169.5866241455078</v>
+        <v>169.5866394042969</v>
       </c>
       <c r="F264" t="n">
         <v>52488700</v>
@@ -7341,16 +7341,16 @@
         <v>45366</v>
       </c>
       <c r="B266" t="n">
-        <v>169.6262365278927</v>
+        <v>169.6262667891251</v>
       </c>
       <c r="C266" t="n">
-        <v>171.0631561279297</v>
+        <v>171.0631866455078</v>
       </c>
       <c r="D266" t="n">
-        <v>168.754168303353</v>
+        <v>168.7541984090089</v>
       </c>
       <c r="E266" t="n">
-        <v>171.0631561279297</v>
+        <v>171.0631866455078</v>
       </c>
       <c r="F266" t="n">
         <v>121752700</v>
@@ -7393,16 +7393,16 @@
         <v>45370</v>
       </c>
       <c r="B268" t="n">
-        <v>172.7676762299494</v>
+        <v>172.7676611219462</v>
       </c>
       <c r="C268" t="n">
-        <v>175.0172080151</v>
+        <v>175.0171927103821</v>
       </c>
       <c r="D268" t="n">
-        <v>171.4694931462093</v>
+        <v>171.4694781517283</v>
       </c>
       <c r="E268" t="n">
-        <v>174.4919891357422</v>
+        <v>174.4919738769531</v>
       </c>
       <c r="F268" t="n">
         <v>55215200</v>
@@ -7419,16 +7419,16 @@
         <v>45371</v>
       </c>
       <c r="B269" t="n">
-        <v>174.1352475097131</v>
+        <v>174.1352024891535</v>
       </c>
       <c r="C269" t="n">
-        <v>177.0586395263672</v>
+        <v>177.05859375</v>
       </c>
       <c r="D269" t="n">
-        <v>173.5109244079673</v>
+        <v>173.5108795488189</v>
       </c>
       <c r="E269" t="n">
-        <v>177.0586395263672</v>
+        <v>177.05859375</v>
       </c>
       <c r="F269" t="n">
         <v>53423100</v>
@@ -7445,16 +7445,16 @@
         <v>45372</v>
       </c>
       <c r="B270" t="n">
-        <v>175.4532288509357</v>
+        <v>175.4532130863986</v>
       </c>
       <c r="C270" t="n">
-        <v>175.8892630091755</v>
+        <v>175.8892472054605</v>
       </c>
       <c r="D270" t="n">
-        <v>169.2992287924581</v>
+        <v>169.2992135808601</v>
       </c>
       <c r="E270" t="n">
-        <v>169.8244476318359</v>
+        <v>169.8244323730469</v>
       </c>
       <c r="F270" t="n">
         <v>106181300</v>
@@ -7471,16 +7471,16 @@
         <v>45373</v>
       </c>
       <c r="B271" t="n">
-        <v>170.210942813777</v>
+        <v>170.2109276010445</v>
       </c>
       <c r="C271" t="n">
-        <v>171.4893171599071</v>
+        <v>171.489301832919</v>
       </c>
       <c r="D271" t="n">
-        <v>168.5262776263353</v>
+        <v>168.5262625641711</v>
       </c>
       <c r="E271" t="n">
-        <v>170.7262573242188</v>
+        <v>170.7262420654297</v>
       </c>
       <c r="F271" t="n">
         <v>71160100</v>
@@ -7523,16 +7523,16 @@
         <v>45377</v>
       </c>
       <c r="B273" t="n">
-        <v>168.4667907138166</v>
+        <v>168.4668212835419</v>
       </c>
       <c r="C273" t="n">
-        <v>169.8739820922972</v>
+        <v>169.8740129173693</v>
       </c>
       <c r="D273" t="n">
-        <v>168.0505804571819</v>
+        <v>168.0506109513823</v>
       </c>
       <c r="E273" t="n">
-        <v>168.1794128417969</v>
+        <v>168.179443359375</v>
       </c>
       <c r="F273" t="n">
         <v>57388400</v>
@@ -7549,16 +7549,16 @@
         <v>45378</v>
       </c>
       <c r="B274" t="n">
-        <v>168.8731088292375</v>
+        <v>168.8731238327014</v>
       </c>
       <c r="C274" t="n">
-        <v>172.0343412561863</v>
+        <v>172.0343565405087</v>
       </c>
       <c r="D274" t="n">
-        <v>168.575811446925</v>
+        <v>168.5758264239757</v>
       </c>
       <c r="E274" t="n">
-        <v>171.7469482421875</v>
+        <v>171.7469635009766</v>
       </c>
       <c r="F274" t="n">
         <v>60273300</v>
@@ -7575,16 +7575,16 @@
         <v>45379</v>
       </c>
       <c r="B275" t="n">
-        <v>170.2010103030642</v>
+        <v>170.2010255858791</v>
       </c>
       <c r="C275" t="n">
-        <v>170.6766770149612</v>
+        <v>170.6766923404874</v>
       </c>
       <c r="D275" t="n">
-        <v>168.9721882493939</v>
+        <v>168.9722034218695</v>
       </c>
       <c r="E275" t="n">
-        <v>169.9334411621094</v>
+        <v>169.9334564208984</v>
       </c>
       <c r="F275" t="n">
         <v>65672700</v>
@@ -7627,16 +7627,16 @@
         <v>45384</v>
       </c>
       <c r="B277" t="n">
-        <v>167.5551169522469</v>
+        <v>167.5551016717675</v>
       </c>
       <c r="C277" t="n">
-        <v>167.812766641909</v>
+        <v>167.8127513379328</v>
       </c>
       <c r="D277" t="n">
-        <v>166.712776814192</v>
+        <v>166.7127616105313</v>
       </c>
       <c r="E277" t="n">
-        <v>167.3172760009766</v>
+        <v>167.3172607421875</v>
       </c>
       <c r="F277" t="n">
         <v>49329500</v>
@@ -7679,16 +7679,16 @@
         <v>45386</v>
       </c>
       <c r="B279" t="n">
-        <v>168.7541525153169</v>
+        <v>168.7541832986243</v>
       </c>
       <c r="C279" t="n">
-        <v>170.3694564288749</v>
+        <v>170.3694875068381</v>
       </c>
       <c r="D279" t="n">
-        <v>167.2974243164062</v>
+        <v>167.2974548339844</v>
       </c>
       <c r="E279" t="n">
-        <v>167.2974243164062</v>
+        <v>167.2974548339844</v>
       </c>
       <c r="F279" t="n">
         <v>53704400</v>
@@ -7705,16 +7705,16 @@
         <v>45387</v>
       </c>
       <c r="B280" t="n">
-        <v>168.0604719937935</v>
+        <v>168.0605025131703</v>
       </c>
       <c r="C280" t="n">
-        <v>168.8532598549774</v>
+        <v>168.8532905183225</v>
       </c>
       <c r="D280" t="n">
-        <v>167.4262447290806</v>
+        <v>167.4262751332832</v>
       </c>
       <c r="E280" t="n">
-        <v>168.0505676269531</v>
+        <v>168.0505981445312</v>
       </c>
       <c r="F280" t="n">
         <v>42104800</v>
@@ -7783,16 +7783,16 @@
         <v>45392</v>
       </c>
       <c r="B283" t="n">
-        <v>167.277620186689</v>
+        <v>167.2776355382426</v>
       </c>
       <c r="C283" t="n">
-        <v>167.5649980652281</v>
+        <v>167.5650134431552</v>
       </c>
       <c r="D283" t="n">
-        <v>165.6028596333882</v>
+        <v>165.6028748312442</v>
       </c>
       <c r="E283" t="n">
-        <v>166.2668151855469</v>
+        <v>166.2668304443359</v>
       </c>
       <c r="F283" t="n">
         <v>49709300</v>
@@ -7809,16 +7809,16 @@
         <v>45393</v>
       </c>
       <c r="B284" t="n">
-        <v>166.8217635329816</v>
+        <v>166.82179288244</v>
       </c>
       <c r="C284" t="n">
-        <v>173.8775596190731</v>
+        <v>173.877590209879</v>
       </c>
       <c r="D284" t="n">
-        <v>166.6433941837476</v>
+        <v>166.6434235018249</v>
       </c>
       <c r="E284" t="n">
-        <v>173.4613342285156</v>
+        <v>173.4613647460938</v>
       </c>
       <c r="F284" t="n">
         <v>91070300</v>
@@ -7861,16 +7861,16 @@
         <v>45397</v>
       </c>
       <c r="B286" t="n">
-        <v>173.7784557074799</v>
+        <v>173.7784712021885</v>
       </c>
       <c r="C286" t="n">
-        <v>175.0370060065333</v>
+        <v>175.0370216134587</v>
       </c>
       <c r="D286" t="n">
-        <v>170.9442490032174</v>
+        <v>170.9442642452179</v>
       </c>
       <c r="E286" t="n">
-        <v>171.1325378417969</v>
+        <v>171.1325531005859</v>
       </c>
       <c r="F286" t="n">
         <v>73531800</v>
@@ -7887,16 +7887,16 @@
         <v>45398</v>
       </c>
       <c r="B287" t="n">
-        <v>170.2010378282468</v>
+        <v>170.2010068836613</v>
       </c>
       <c r="C287" t="n">
-        <v>172.1929047923956</v>
+        <v>172.1928734856648</v>
       </c>
       <c r="D287" t="n">
-        <v>166.7524271472278</v>
+        <v>166.752396829641</v>
       </c>
       <c r="E287" t="n">
-        <v>167.8524169921875</v>
+        <v>167.8523864746094</v>
       </c>
       <c r="F287" t="n">
         <v>73711200</v>
@@ -7913,16 +7913,16 @@
         <v>45399</v>
       </c>
       <c r="B288" t="n">
-        <v>168.0803284208565</v>
+        <v>168.0803130158373</v>
       </c>
       <c r="C288" t="n">
-        <v>169.1109422552981</v>
+        <v>169.1109267558204</v>
       </c>
       <c r="D288" t="n">
-        <v>166.4848480224609</v>
+        <v>166.4848327636719</v>
       </c>
       <c r="E288" t="n">
-        <v>166.4848480224609</v>
+        <v>166.4848327636719</v>
       </c>
       <c r="F288" t="n">
         <v>50901200</v>
@@ -7939,16 +7939,16 @@
         <v>45400</v>
       </c>
       <c r="B289" t="n">
-        <v>166.5145545246707</v>
+        <v>166.5145698738949</v>
       </c>
       <c r="C289" t="n">
-        <v>167.119053605968</v>
+        <v>167.1190690109146</v>
       </c>
       <c r="D289" t="n">
-        <v>165.0479067173748</v>
+        <v>165.0479219314042</v>
       </c>
       <c r="E289" t="n">
-        <v>165.5334777832031</v>
+        <v>165.5334930419922</v>
       </c>
       <c r="F289" t="n">
         <v>43122900</v>
@@ -7965,16 +7965,16 @@
         <v>45401</v>
       </c>
       <c r="B290" t="n">
-        <v>164.710980418371</v>
+        <v>164.7109957890585</v>
       </c>
       <c r="C290" t="n">
-        <v>164.8992541314554</v>
+        <v>164.8992695197124</v>
       </c>
       <c r="D290" t="n">
-        <v>162.6001857708025</v>
+        <v>162.6002009445124</v>
       </c>
       <c r="E290" t="n">
-        <v>163.5118865966797</v>
+        <v>163.5119018554688</v>
       </c>
       <c r="F290" t="n">
         <v>68149400</v>
@@ -8017,16 +8017,16 @@
         <v>45405</v>
       </c>
       <c r="B292" t="n">
-        <v>163.8587513325526</v>
+        <v>163.8587664496344</v>
       </c>
       <c r="C292" t="n">
-        <v>165.5434163880454</v>
+        <v>165.543431660549</v>
       </c>
       <c r="D292" t="n">
-        <v>163.4326215434936</v>
+        <v>163.4326366212621</v>
       </c>
       <c r="E292" t="n">
-        <v>165.3947601318359</v>
+        <v>165.394775390625</v>
       </c>
       <c r="F292" t="n">
         <v>49537800</v>
@@ -8069,16 +8069,16 @@
         <v>45407</v>
       </c>
       <c r="B294" t="n">
-        <v>168.0010647176338</v>
+        <v>168.0010494911784</v>
       </c>
       <c r="C294" t="n">
-        <v>169.0713263752793</v>
+        <v>169.0713110518229</v>
       </c>
       <c r="D294" t="n">
-        <v>166.6335056348908</v>
+        <v>166.6334905323815</v>
       </c>
       <c r="E294" t="n">
-        <v>168.3578186035156</v>
+        <v>168.3578033447266</v>
       </c>
       <c r="F294" t="n">
         <v>50558300</v>
@@ -8095,16 +8095,16 @@
         <v>45408</v>
       </c>
       <c r="B295" t="n">
-        <v>168.3478726542219</v>
+        <v>168.3478879652858</v>
       </c>
       <c r="C295" t="n">
-        <v>169.7946965798822</v>
+        <v>169.7947120225332</v>
       </c>
       <c r="D295" t="n">
-        <v>167.6541737932701</v>
+        <v>167.6541890412428</v>
       </c>
       <c r="E295" t="n">
-        <v>167.7731018066406</v>
+        <v>167.7731170654297</v>
       </c>
       <c r="F295" t="n">
         <v>44838400</v>
@@ -8121,16 +8121,16 @@
         <v>45411</v>
       </c>
       <c r="B296" t="n">
-        <v>171.8063788071103</v>
+        <v>171.8064093018214</v>
       </c>
       <c r="C296" t="n">
-        <v>174.4423920139617</v>
+        <v>174.4424229765509</v>
       </c>
       <c r="D296" t="n">
-        <v>171.5388248123991</v>
+        <v>171.5388552596207</v>
       </c>
       <c r="E296" t="n">
-        <v>171.9352111816406</v>
+        <v>171.9352416992188</v>
       </c>
       <c r="F296" t="n">
         <v>68169400</v>
@@ -8147,16 +8147,16 @@
         <v>45412</v>
       </c>
       <c r="B297" t="n">
-        <v>171.7667822575627</v>
+        <v>171.7667667300225</v>
       </c>
       <c r="C297" t="n">
-        <v>173.4118147652887</v>
+        <v>173.4117990890393</v>
       </c>
       <c r="D297" t="n">
-        <v>168.4668128732112</v>
+        <v>168.4667976439849</v>
       </c>
       <c r="E297" t="n">
-        <v>168.7938385009766</v>
+        <v>168.7938232421875</v>
       </c>
       <c r="F297" t="n">
         <v>65934800</v>
@@ -8173,16 +8173,16 @@
         <v>45413</v>
       </c>
       <c r="B298" t="n">
-        <v>168.0505753025528</v>
+        <v>168.0505905865778</v>
       </c>
       <c r="C298" t="n">
-        <v>171.1523509575647</v>
+        <v>171.152366523693</v>
       </c>
       <c r="D298" t="n">
-        <v>167.5848129798778</v>
+        <v>167.5848282215422</v>
       </c>
       <c r="E298" t="n">
-        <v>167.7731018066406</v>
+        <v>167.7731170654297</v>
       </c>
       <c r="F298" t="n">
         <v>50383100</v>
@@ -8199,16 +8199,16 @@
         <v>45414</v>
       </c>
       <c r="B299" t="n">
-        <v>170.954167944125</v>
+        <v>170.954183157057</v>
       </c>
       <c r="C299" t="n">
-        <v>171.8559644998941</v>
+        <v>171.8559797930756</v>
       </c>
       <c r="D299" t="n">
-        <v>169.3487831771493</v>
+        <v>169.3487982472208</v>
       </c>
       <c r="E299" t="n">
-        <v>171.469482421875</v>
+        <v>171.4694976806641</v>
       </c>
       <c r="F299" t="n">
         <v>94214900</v>
@@ -8225,16 +8225,16 @@
         <v>45415</v>
       </c>
       <c r="B300" t="n">
-        <v>184.9666328542693</v>
+        <v>184.9666483851495</v>
       </c>
       <c r="C300" t="n">
-        <v>185.3134823188433</v>
+        <v>185.313497878847</v>
       </c>
       <c r="D300" t="n">
-        <v>181.0126275882254</v>
+        <v>181.0126427871042</v>
       </c>
       <c r="E300" t="n">
-        <v>181.7261352539062</v>
+        <v>181.7261505126953</v>
       </c>
       <c r="F300" t="n">
         <v>163224100</v>
@@ -8251,16 +8251,16 @@
         <v>45418</v>
       </c>
       <c r="B301" t="n">
-        <v>180.7054248623681</v>
+        <v>180.7054554874319</v>
       </c>
       <c r="C301" t="n">
-        <v>182.5387309791665</v>
+        <v>182.5387619149301</v>
       </c>
       <c r="D301" t="n">
-        <v>178.7928233151749</v>
+        <v>178.7928536161005</v>
       </c>
       <c r="E301" t="n">
-        <v>180.0711975097656</v>
+        <v>180.0712280273438</v>
       </c>
       <c r="F301" t="n">
         <v>78569700</v>
@@ -8277,16 +8277,16 @@
         <v>45419</v>
       </c>
       <c r="B302" t="n">
-        <v>181.7954923577229</v>
+        <v>181.7955383976062</v>
       </c>
       <c r="C302" t="n">
-        <v>183.2324120279765</v>
+        <v>183.232458431761</v>
       </c>
       <c r="D302" t="n">
-        <v>179.6847127509758</v>
+        <v>179.684758256302</v>
       </c>
       <c r="E302" t="n">
-        <v>180.7549591064453</v>
+        <v>180.7550048828125</v>
       </c>
       <c r="F302" t="n">
         <v>77305800</v>
@@ -8303,16 +8303,16 @@
         <v>45420</v>
       </c>
       <c r="B303" t="n">
-        <v>181.2009122196111</v>
+        <v>181.2009427555593</v>
       </c>
       <c r="C303" t="n">
-        <v>181.4189292857865</v>
+        <v>181.4189598584749</v>
       </c>
       <c r="D303" t="n">
-        <v>179.8135295147522</v>
+        <v>179.813559816899</v>
       </c>
       <c r="E303" t="n">
-        <v>181.0919036865234</v>
+        <v>181.0919342041016</v>
       </c>
       <c r="F303" t="n">
         <v>45057100</v>
@@ -8329,16 +8329,16 @@
         <v>45421</v>
       </c>
       <c r="B304" t="n">
-        <v>180.9135288397579</v>
+        <v>180.9135590249926</v>
       </c>
       <c r="C304" t="n">
-        <v>182.9945954471898</v>
+        <v>182.9946259796483</v>
       </c>
       <c r="D304" t="n">
-        <v>180.4675903156434</v>
+        <v>180.4676204264737</v>
       </c>
       <c r="E304" t="n">
-        <v>182.9054107666016</v>
+        <v>182.9054412841797</v>
       </c>
       <c r="F304" t="n">
         <v>48983000</v>
@@ -8355,16 +8355,16 @@
         <v>45422</v>
       </c>
       <c r="B305" t="n">
-        <v>183.4809496578286</v>
+        <v>183.4809650708303</v>
       </c>
       <c r="C305" t="n">
-        <v>183.669493895456</v>
+        <v>183.669509324296</v>
       </c>
       <c r="D305" t="n">
-        <v>180.7322193628195</v>
+        <v>180.7322345449188</v>
       </c>
       <c r="E305" t="n">
-        <v>181.6451568603516</v>
+        <v>181.6451721191406</v>
       </c>
       <c r="F305" t="n">
         <v>50759500</v>
@@ -8381,16 +8381,16 @@
         <v>45425</v>
       </c>
       <c r="B306" t="n">
-        <v>184.0167922414492</v>
+        <v>184.0168226214138</v>
       </c>
       <c r="C306" t="n">
-        <v>185.6640557498012</v>
+        <v>185.6640864017181</v>
       </c>
       <c r="D306" t="n">
-        <v>183.203078288523</v>
+        <v>183.2031085341488</v>
       </c>
       <c r="E306" t="n">
-        <v>184.850341796875</v>
+        <v>184.8503723144531</v>
       </c>
       <c r="F306" t="n">
         <v>72044800</v>
@@ -8407,16 +8407,16 @@
         <v>45426</v>
       </c>
       <c r="B307" t="n">
-        <v>186.0709192163422</v>
+        <v>186.0708886857381</v>
       </c>
       <c r="C307" t="n">
-        <v>186.8548647149755</v>
+        <v>186.8548340557412</v>
       </c>
       <c r="D307" t="n">
-        <v>184.8602810891409</v>
+        <v>184.8602507571788</v>
       </c>
       <c r="E307" t="n">
-        <v>185.9915313720703</v>
+        <v>185.9915008544922</v>
       </c>
       <c r="F307" t="n">
         <v>52393600</v>
@@ -8433,16 +8433,16 @@
         <v>45427</v>
       </c>
       <c r="B308" t="n">
-        <v>186.4678553771589</v>
+        <v>186.4678402639442</v>
       </c>
       <c r="C308" t="n">
-        <v>189.1868170758504</v>
+        <v>189.186801742264</v>
       </c>
       <c r="D308" t="n">
-        <v>185.9319912225395</v>
+        <v>185.9319761527566</v>
       </c>
       <c r="E308" t="n">
-        <v>188.2639617919922</v>
+        <v>188.2639465332031</v>
       </c>
       <c r="F308" t="n">
         <v>70400000</v>
@@ -8459,16 +8459,16 @@
         <v>45428</v>
       </c>
       <c r="B309" t="n">
-        <v>189.0082111995723</v>
+        <v>189.0081958901452</v>
       </c>
       <c r="C309" t="n">
-        <v>189.6333810173086</v>
+        <v>189.6333656572436</v>
       </c>
       <c r="D309" t="n">
-        <v>188.2044300863017</v>
+        <v>188.2044148419799</v>
       </c>
       <c r="E309" t="n">
-        <v>188.3830413818359</v>
+        <v>188.3830261230469</v>
       </c>
       <c r="F309" t="n">
         <v>52845200</v>
@@ -8485,16 +8485,16 @@
         <v>45429</v>
       </c>
       <c r="B310" t="n">
-        <v>188.0555887738467</v>
+        <v>188.0555583141311</v>
       </c>
       <c r="C310" t="n">
-        <v>189.3456148748041</v>
+        <v>189.3455842061406</v>
       </c>
       <c r="D310" t="n">
-        <v>187.7281195614871</v>
+        <v>187.7280891548122</v>
       </c>
       <c r="E310" t="n">
-        <v>188.4128265380859</v>
+        <v>188.4127960205078</v>
       </c>
       <c r="F310" t="n">
         <v>41282900</v>
@@ -8511,16 +8511,16 @@
         <v>45432</v>
       </c>
       <c r="B311" t="n">
-        <v>187.8769844520619</v>
+        <v>187.8769542076455</v>
       </c>
       <c r="C311" t="n">
-        <v>190.4471038045087</v>
+        <v>190.4470731463547</v>
       </c>
       <c r="D311" t="n">
-        <v>187.5594330312869</v>
+        <v>187.5594028379898</v>
       </c>
       <c r="E311" t="n">
-        <v>189.5738525390625</v>
+        <v>189.5738220214844</v>
       </c>
       <c r="F311" t="n">
         <v>44361300</v>
@@ -8537,16 +8537,16 @@
         <v>45433</v>
       </c>
       <c r="B312" t="n">
-        <v>189.6234700341735</v>
+        <v>189.6234397165041</v>
       </c>
       <c r="C312" t="n">
-        <v>191.2508831959236</v>
+        <v>191.2508526180576</v>
       </c>
       <c r="D312" t="n">
-        <v>189.4547765216263</v>
+        <v>189.4547462309282</v>
       </c>
       <c r="E312" t="n">
-        <v>190.8738098144531</v>
+        <v>190.873779296875</v>
       </c>
       <c r="F312" t="n">
         <v>42309400</v>
@@ -8589,16 +8589,16 @@
         <v>45435</v>
       </c>
       <c r="B314" t="n">
-        <v>189.5142796080912</v>
+        <v>189.5142952016453</v>
       </c>
       <c r="C314" t="n">
-        <v>189.5341303535584</v>
+        <v>189.5341459487459</v>
       </c>
       <c r="D314" t="n">
-        <v>185.1976736824305</v>
+        <v>185.197688920807</v>
       </c>
       <c r="E314" t="n">
-        <v>185.4457550048828</v>
+        <v>185.4457702636719</v>
       </c>
       <c r="F314" t="n">
         <v>51005900</v>
@@ -8615,16 +8615,16 @@
         <v>45436</v>
       </c>
       <c r="B315" t="n">
-        <v>187.3708867157811</v>
+        <v>187.3708715501598</v>
       </c>
       <c r="C315" t="n">
-        <v>189.1173739447245</v>
+        <v>189.1173586377442</v>
       </c>
       <c r="D315" t="n">
-        <v>186.5968589840907</v>
+        <v>186.5968438811185</v>
       </c>
       <c r="E315" t="n">
-        <v>188.52197265625</v>
+        <v>188.5219573974609</v>
       </c>
       <c r="F315" t="n">
         <v>36327000</v>
@@ -8641,16 +8641,16 @@
         <v>45440</v>
       </c>
       <c r="B316" t="n">
-        <v>190.040199055634</v>
+        <v>190.0402298173639</v>
       </c>
       <c r="C316" t="n">
-        <v>191.5187690970779</v>
+        <v>191.5188000981433</v>
       </c>
       <c r="D316" t="n">
-        <v>187.6487067626696</v>
+        <v>187.6487371372895</v>
       </c>
       <c r="E316" t="n">
-        <v>188.5318756103516</v>
+        <v>188.5319061279297</v>
       </c>
       <c r="F316" t="n">
         <v>52280100</v>
@@ -8667,16 +8667,16 @@
         <v>45441</v>
       </c>
       <c r="B317" t="n">
-        <v>188.154831057814</v>
+        <v>188.1548006492891</v>
       </c>
       <c r="C317" t="n">
-        <v>190.7745696662896</v>
+        <v>190.7745388343773</v>
       </c>
       <c r="D317" t="n">
-        <v>188.0555924551498</v>
+        <v>188.0555620626632</v>
       </c>
       <c r="E317" t="n">
-        <v>188.8296051025391</v>
+        <v>188.8295745849609</v>
       </c>
       <c r="F317" t="n">
         <v>53068000</v>
@@ -8693,16 +8693,16 @@
         <v>45442</v>
       </c>
       <c r="B318" t="n">
-        <v>189.2959834344625</v>
+        <v>189.2959682179503</v>
       </c>
       <c r="C318" t="n">
-        <v>190.7050836525693</v>
+        <v>190.705068322787</v>
       </c>
       <c r="D318" t="n">
-        <v>189.1669914318185</v>
+        <v>189.1669762256753</v>
       </c>
       <c r="E318" t="n">
-        <v>189.8219146728516</v>
+        <v>189.8218994140625</v>
       </c>
       <c r="F318" t="n">
         <v>49889100</v>
@@ -8745,16 +8745,16 @@
         <v>45446</v>
       </c>
       <c r="B320" t="n">
-        <v>191.4195458525434</v>
+        <v>191.4195610224673</v>
       </c>
       <c r="C320" t="n">
-        <v>193.4935172538989</v>
+        <v>193.4935325881843</v>
       </c>
       <c r="D320" t="n">
-        <v>191.0424725318553</v>
+        <v>191.0424876718963</v>
       </c>
       <c r="E320" t="n">
-        <v>192.5408782958984</v>
+        <v>192.5408935546875</v>
       </c>
       <c r="F320" t="n">
         <v>50080500</v>
@@ -8771,16 +8771,16 @@
         <v>45447</v>
       </c>
       <c r="B321" t="n">
-        <v>193.1461966309963</v>
+        <v>193.1462119125533</v>
       </c>
       <c r="C321" t="n">
-        <v>193.8209857116221</v>
+        <v>193.8210010465679</v>
       </c>
       <c r="D321" t="n">
-        <v>191.5485522853422</v>
+        <v>191.548567440495</v>
       </c>
       <c r="E321" t="n">
-        <v>192.8584289550781</v>
+        <v>192.8584442138672</v>
       </c>
       <c r="F321" t="n">
         <v>47471400</v>
@@ -8797,16 +8797,16 @@
         <v>45448</v>
       </c>
       <c r="B322" t="n">
-        <v>193.9003813531384</v>
+        <v>193.9003661309637</v>
       </c>
       <c r="C322" t="n">
-        <v>195.3888694857623</v>
+        <v>195.3888541467336</v>
       </c>
       <c r="D322" t="n">
-        <v>193.374450090946</v>
+        <v>193.3744349100596</v>
       </c>
       <c r="E322" t="n">
-        <v>194.3667755126953</v>
+        <v>194.3667602539062</v>
       </c>
       <c r="F322" t="n">
         <v>54156800</v>
@@ -8823,16 +8823,16 @@
         <v>45449</v>
       </c>
       <c r="B323" t="n">
-        <v>194.1881624282746</v>
+        <v>194.1881470745491</v>
       </c>
       <c r="C323" t="n">
-        <v>194.9919435898687</v>
+        <v>194.9919281725913</v>
       </c>
       <c r="D323" t="n">
-        <v>192.679823561343</v>
+        <v>192.6798083268762</v>
       </c>
       <c r="E323" t="n">
-        <v>192.9874420166016</v>
+        <v>192.9874267578125</v>
       </c>
       <c r="F323" t="n">
         <v>41181800</v>
@@ -8901,16 +8901,16 @@
         <v>45454</v>
       </c>
       <c r="B326" t="n">
-        <v>192.1637890602492</v>
+        <v>192.163774795878</v>
       </c>
       <c r="C326" t="n">
-        <v>205.5701136077791</v>
+        <v>205.5700983482528</v>
       </c>
       <c r="D326" t="n">
-        <v>192.1439534561808</v>
+        <v>192.1439391932821</v>
       </c>
       <c r="E326" t="n">
-        <v>205.5601806640625</v>
+        <v>205.5601654052734</v>
       </c>
       <c r="F326" t="n">
         <v>172373300</v>
@@ -8927,16 +8927,16 @@
         <v>45455</v>
       </c>
       <c r="B327" t="n">
-        <v>205.7784872423207</v>
+        <v>205.7784723917321</v>
       </c>
       <c r="C327" t="n">
-        <v>218.5100223258735</v>
+        <v>218.5100065564775</v>
       </c>
       <c r="D327" t="n">
-        <v>205.3120931521647</v>
+        <v>205.3120783352348</v>
       </c>
       <c r="E327" t="n">
-        <v>211.4347534179688</v>
+        <v>211.4347381591797</v>
       </c>
       <c r="F327" t="n">
         <v>198134300</v>
@@ -8953,16 +8953,16 @@
         <v>45456</v>
       </c>
       <c r="B328" t="n">
-        <v>213.0919420729034</v>
+        <v>213.0919267785029</v>
       </c>
       <c r="C328" t="n">
-        <v>215.0865104908089</v>
+        <v>215.0864950532508</v>
       </c>
       <c r="D328" t="n">
-        <v>209.9760412117142</v>
+        <v>209.9760261409535</v>
       </c>
       <c r="E328" t="n">
-        <v>212.5957794189453</v>
+        <v>212.5957641601562</v>
       </c>
       <c r="F328" t="n">
         <v>97862700</v>
@@ -8979,16 +8979,16 @@
         <v>45457</v>
       </c>
       <c r="B329" t="n">
-        <v>212.2088008716011</v>
+        <v>212.2087701587012</v>
       </c>
       <c r="C329" t="n">
-        <v>213.5186625754594</v>
+        <v>213.5186316729838</v>
       </c>
       <c r="D329" t="n">
-        <v>209.678367977573</v>
+        <v>209.6783376309017</v>
       </c>
       <c r="E329" t="n">
-        <v>210.8592376708984</v>
+        <v>210.8592071533203</v>
       </c>
       <c r="F329" t="n">
         <v>70122700</v>
@@ -9031,16 +9031,16 @@
         <v>45461</v>
       </c>
       <c r="B331" t="n">
-        <v>215.9200623200828</v>
+        <v>215.9200778138527</v>
       </c>
       <c r="C331" t="n">
-        <v>216.9520891301951</v>
+        <v>216.9521046980202</v>
       </c>
       <c r="D331" t="n">
-        <v>211.3652927442458</v>
+        <v>211.3653079111793</v>
       </c>
       <c r="E331" t="n">
-        <v>212.6453857421875</v>
+        <v>212.6454010009766</v>
       </c>
       <c r="F331" t="n">
         <v>79943300</v>
@@ -9057,16 +9057,16 @@
         <v>45463</v>
       </c>
       <c r="B332" t="n">
-        <v>212.288137395477</v>
+        <v>212.2881685316153</v>
       </c>
       <c r="C332" t="n">
-        <v>212.5957709476861</v>
+        <v>212.5958021289448</v>
       </c>
       <c r="D332" t="n">
-        <v>207.2471383568116</v>
+        <v>207.2471687535905</v>
       </c>
       <c r="E332" t="n">
-        <v>208.0707550048828</v>
+        <v>208.0707855224609</v>
       </c>
       <c r="F332" t="n">
         <v>86172500</v>
@@ -9083,16 +9083,16 @@
         <v>45464</v>
       </c>
       <c r="B333" t="n">
-        <v>208.775320335952</v>
+        <v>208.7753512800605</v>
       </c>
       <c r="C333" t="n">
-        <v>210.2638082936136</v>
+        <v>210.2638394583417</v>
       </c>
       <c r="D333" t="n">
-        <v>205.5204945465331</v>
+        <v>205.5205250082203</v>
       </c>
       <c r="E333" t="n">
-        <v>205.8975830078125</v>
+        <v>205.8976135253906</v>
       </c>
       <c r="F333" t="n">
         <v>241805100</v>
@@ -9109,16 +9109,16 @@
         <v>45467</v>
       </c>
       <c r="B334" t="n">
-        <v>206.1258124713885</v>
+        <v>206.1258276993873</v>
       </c>
       <c r="C334" t="n">
-        <v>211.0675882243761</v>
+        <v>211.0676038174596</v>
       </c>
       <c r="D334" t="n">
-        <v>205.0044800373544</v>
+        <v>205.0044951825124</v>
       </c>
       <c r="E334" t="n">
-        <v>206.5425872802734</v>
+        <v>206.5426025390625</v>
       </c>
       <c r="F334" t="n">
         <v>80727000</v>
@@ -9135,16 +9135,16 @@
         <v>45468</v>
       </c>
       <c r="B335" t="n">
-        <v>207.5448267994903</v>
+        <v>207.544857328744</v>
       </c>
       <c r="C335" t="n">
-        <v>209.7577230817035</v>
+        <v>209.7577539364679</v>
       </c>
       <c r="D335" t="n">
-        <v>207.0089778092255</v>
+        <v>207.0090082596573</v>
       </c>
       <c r="E335" t="n">
-        <v>207.4654541015625</v>
+        <v>207.4654846191406</v>
       </c>
       <c r="F335" t="n">
         <v>55549700</v>
@@ -9161,16 +9161,16 @@
         <v>45469</v>
       </c>
       <c r="B336" t="n">
-        <v>209.876818640151</v>
+        <v>209.8768035065806</v>
       </c>
       <c r="C336" t="n">
-        <v>213.2110325348534</v>
+        <v>213.2110171608631</v>
       </c>
       <c r="D336" t="n">
-        <v>209.0234182045521</v>
+        <v>209.0234031325178</v>
       </c>
       <c r="E336" t="n">
-        <v>211.6133880615234</v>
+        <v>211.6133728027344</v>
       </c>
       <c r="F336" t="n">
         <v>66213200</v>
@@ -9213,16 +9213,16 @@
         <v>45471</v>
       </c>
       <c r="B338" t="n">
-        <v>214.1140398112984</v>
+        <v>214.1140241794066</v>
       </c>
       <c r="C338" t="n">
-        <v>214.411740437408</v>
+        <v>214.4117247837818</v>
       </c>
       <c r="D338" t="n">
-        <v>208.6860190672354</v>
+        <v>208.6860038316288</v>
       </c>
       <c r="E338" t="n">
-        <v>209.0035552978516</v>
+        <v>209.0035400390625</v>
       </c>
       <c r="F338" t="n">
         <v>82542700</v>
@@ -9265,16 +9265,16 @@
         <v>45475</v>
       </c>
       <c r="B340" t="n">
-        <v>214.4911077545502</v>
+        <v>214.4911227279333</v>
       </c>
       <c r="C340" t="n">
-        <v>218.688654679793</v>
+        <v>218.6886699462021</v>
       </c>
       <c r="D340" t="n">
-        <v>213.4491783018458</v>
+        <v>213.4491932024929</v>
       </c>
       <c r="E340" t="n">
-        <v>218.5794982910156</v>
+        <v>218.5795135498047</v>
       </c>
       <c r="F340" t="n">
         <v>58046200</v>
@@ -9317,16 +9317,16 @@
         <v>45478</v>
       </c>
       <c r="B342" t="n">
-        <v>219.948897183295</v>
+        <v>219.9489270685169</v>
       </c>
       <c r="C342" t="n">
-        <v>224.7120616623504</v>
+        <v>224.71209219476</v>
       </c>
       <c r="D342" t="n">
-        <v>219.948897183295</v>
+        <v>219.9489270685169</v>
       </c>
       <c r="E342" t="n">
-        <v>224.6029052734375</v>
+        <v>224.6029357910156</v>
       </c>
       <c r="F342" t="n">
         <v>60412400</v>
@@ -9343,16 +9343,16 @@
         <v>45481</v>
       </c>
       <c r="B343" t="n">
-        <v>225.3471705384165</v>
+        <v>225.3471857483114</v>
       </c>
       <c r="C343" t="n">
-        <v>226.1013475300368</v>
+        <v>226.1013627908351</v>
       </c>
       <c r="D343" t="n">
-        <v>221.5366446518689</v>
+        <v>221.5366596045708</v>
       </c>
       <c r="E343" t="n">
-        <v>226.0715789794922</v>
+        <v>226.0715942382812</v>
       </c>
       <c r="F343" t="n">
         <v>59085900</v>
@@ -9369,16 +9369,16 @@
         <v>45482</v>
       </c>
       <c r="B344" t="n">
-        <v>226.1806980426491</v>
+        <v>226.180713251394</v>
       </c>
       <c r="C344" t="n">
-        <v>227.6394174429306</v>
+        <v>227.6394327497621</v>
       </c>
       <c r="D344" t="n">
-        <v>224.6326729994971</v>
+        <v>224.6326881041504</v>
       </c>
       <c r="E344" t="n">
-        <v>226.9249420166016</v>
+        <v>226.9249572753906</v>
       </c>
       <c r="F344" t="n">
         <v>48076100</v>
@@ -9499,16 +9499,16 @@
         <v>45489</v>
       </c>
       <c r="B349" t="n">
-        <v>233.196448812944</v>
+        <v>233.1964640834291</v>
       </c>
       <c r="C349" t="n">
-        <v>234.4567062015191</v>
+        <v>234.4567215545301</v>
       </c>
       <c r="D349" t="n">
-        <v>230.5469420413052</v>
+        <v>230.5469571382917</v>
       </c>
       <c r="E349" t="n">
-        <v>233.0178375244141</v>
+        <v>233.0178527832031</v>
       </c>
       <c r="F349" t="n">
         <v>43234300</v>
@@ -9525,16 +9525,16 @@
         <v>45490</v>
       </c>
       <c r="B350" t="n">
-        <v>227.6890459140549</v>
+        <v>227.6890612108438</v>
       </c>
       <c r="C350" t="n">
-        <v>229.6836295353235</v>
+        <v>229.6836449661141</v>
       </c>
       <c r="D350" t="n">
-        <v>224.9006141352506</v>
+        <v>224.9006292447048</v>
       </c>
       <c r="E350" t="n">
-        <v>227.1234283447266</v>
+        <v>227.1234436035156</v>
       </c>
       <c r="F350" t="n">
         <v>57345900</v>
@@ -9551,16 +9551,16 @@
         <v>45491</v>
       </c>
       <c r="B351" t="n">
-        <v>228.5126942322647</v>
+        <v>228.5126785582793</v>
       </c>
       <c r="C351" t="n">
-        <v>228.6714699318889</v>
+        <v>228.6714542470128</v>
       </c>
       <c r="D351" t="n">
-        <v>220.5641731481692</v>
+        <v>220.5641580193833</v>
       </c>
       <c r="E351" t="n">
-        <v>222.4595031738281</v>
+        <v>222.4594879150391</v>
       </c>
       <c r="F351" t="n">
         <v>66034600</v>
@@ -9603,16 +9603,16 @@
         <v>45495</v>
       </c>
       <c r="B353" t="n">
-        <v>225.2677604657143</v>
+        <v>225.2677759323044</v>
       </c>
       <c r="C353" t="n">
-        <v>226.0318551849055</v>
+        <v>226.0318707039574</v>
       </c>
       <c r="D353" t="n">
-        <v>221.3778471142498</v>
+        <v>221.3778623137636</v>
       </c>
       <c r="E353" t="n">
-        <v>222.2411804199219</v>
+        <v>222.2411956787109</v>
       </c>
       <c r="F353" t="n">
         <v>48201800</v>
@@ -9681,16 +9681,16 @@
         <v>45498</v>
       </c>
       <c r="B356" t="n">
-        <v>217.2497823474704</v>
+        <v>217.2497669876539</v>
       </c>
       <c r="C356" t="n">
-        <v>219.1550603506412</v>
+        <v>219.1550448561193</v>
       </c>
       <c r="D356" t="n">
-        <v>212.972862497072</v>
+        <v>212.9728474396388</v>
       </c>
       <c r="E356" t="n">
-        <v>215.8208465576172</v>
+        <v>215.8208312988281</v>
       </c>
       <c r="F356" t="n">
         <v>51391200</v>
@@ -9733,16 +9733,16 @@
         <v>45502</v>
       </c>
       <c r="B358" t="n">
-        <v>215.2949339023763</v>
+        <v>215.2949187330815</v>
       </c>
       <c r="C358" t="n">
-        <v>217.6169717955738</v>
+        <v>217.6169564626723</v>
       </c>
       <c r="D358" t="n">
-        <v>214.0942134588753</v>
+        <v>214.0941983741811</v>
       </c>
       <c r="E358" t="n">
-        <v>216.5651092529297</v>
+        <v>216.5650939941406</v>
       </c>
       <c r="F358" t="n">
         <v>36311800</v>
@@ -9811,16 +9811,16 @@
         <v>45505</v>
       </c>
       <c r="B361" t="n">
-        <v>222.6480280706282</v>
+        <v>222.64804374939</v>
       </c>
       <c r="C361" t="n">
-        <v>222.7571844619209</v>
+        <v>222.7572001483694</v>
       </c>
       <c r="D361" t="n">
-        <v>215.3544460252178</v>
+        <v>215.3544611903692</v>
       </c>
       <c r="E361" t="n">
-        <v>216.6841583251953</v>
+        <v>216.6841735839844</v>
       </c>
       <c r="F361" t="n">
         <v>62501000</v>
@@ -9863,16 +9863,16 @@
         <v>45509</v>
       </c>
       <c r="B363" t="n">
-        <v>197.562059997048</v>
+        <v>197.5620309640075</v>
       </c>
       <c r="C363" t="n">
-        <v>211.8614726265992</v>
+        <v>211.8614414921662</v>
       </c>
       <c r="D363" t="n">
-        <v>194.4957781490091</v>
+        <v>194.4957495665788</v>
       </c>
       <c r="E363" t="n">
-        <v>207.6639404296875</v>
+        <v>207.6639099121094</v>
       </c>
       <c r="F363" t="n">
         <v>119548600</v>
@@ -9889,16 +9889,16 @@
         <v>45510</v>
       </c>
       <c r="B364" t="n">
-        <v>203.7244066576652</v>
+        <v>203.7243915409856</v>
       </c>
       <c r="C364" t="n">
-        <v>208.3784151837031</v>
+        <v>208.3783997216886</v>
       </c>
       <c r="D364" t="n">
-        <v>199.5268744757485</v>
+        <v>199.5268596705326</v>
       </c>
       <c r="E364" t="n">
-        <v>205.6395874023438</v>
+        <v>205.6395721435547</v>
       </c>
       <c r="F364" t="n">
         <v>69660500</v>
@@ -9915,16 +9915,16 @@
         <v>45511</v>
       </c>
       <c r="B365" t="n">
-        <v>205.3120983398537</v>
+        <v>205.3121133862899</v>
       </c>
       <c r="C365" t="n">
-        <v>212.0003763072082</v>
+        <v>212.0003918437995</v>
       </c>
       <c r="D365" t="n">
-        <v>204.8060178882869</v>
+        <v>204.8060328976347</v>
       </c>
       <c r="E365" t="n">
-        <v>208.2097015380859</v>
+        <v>208.209716796875</v>
       </c>
       <c r="F365" t="n">
         <v>63516400</v>
@@ -9993,16 +9993,16 @@
         <v>45516</v>
       </c>
       <c r="B368" t="n">
-        <v>214.659933792511</v>
+        <v>214.659918636134</v>
       </c>
       <c r="C368" t="n">
-        <v>218.0774716082045</v>
+        <v>218.0774562105273</v>
       </c>
       <c r="D368" t="n">
-        <v>214.1929998012183</v>
+        <v>214.1929846778099</v>
       </c>
       <c r="E368" t="n">
-        <v>216.1103973388672</v>
+        <v>216.1103820800781</v>
       </c>
       <c r="F368" t="n">
         <v>38028100</v>
@@ -10019,16 +10019,16 @@
         <v>45517</v>
       </c>
       <c r="B369" t="n">
-        <v>217.5807430067198</v>
+        <v>217.5807279037812</v>
       </c>
       <c r="C369" t="n">
-        <v>220.441953079239</v>
+        <v>220.441937777695</v>
       </c>
       <c r="D369" t="n">
-        <v>217.5807430067198</v>
+        <v>217.5807279037812</v>
       </c>
       <c r="E369" t="n">
-        <v>219.8260040283203</v>
+        <v>219.8259887695312</v>
       </c>
       <c r="F369" t="n">
         <v>44155300</v>
@@ -10071,16 +10071,16 @@
         <v>45519</v>
       </c>
       <c r="B371" t="n">
-        <v>223.1342669745806</v>
+        <v>223.1342517239393</v>
       </c>
       <c r="C371" t="n">
-        <v>223.8793724762866</v>
+        <v>223.8793571747194</v>
       </c>
       <c r="D371" t="n">
-        <v>221.3062632893953</v>
+        <v>221.3062481636934</v>
       </c>
       <c r="E371" t="n">
-        <v>223.2534790039062</v>
+        <v>223.2534637451172</v>
       </c>
       <c r="F371" t="n">
         <v>46414000</v>
@@ -10123,16 +10123,16 @@
         <v>45523</v>
       </c>
       <c r="B373" t="n">
-        <v>224.2469590125152</v>
+        <v>224.2469285179038</v>
       </c>
       <c r="C373" t="n">
-        <v>224.515201244893</v>
+        <v>224.5151707138041</v>
       </c>
       <c r="D373" t="n">
-        <v>221.5844407323156</v>
+        <v>221.5844105997713</v>
       </c>
       <c r="E373" t="n">
-        <v>224.4158477783203</v>
+        <v>224.4158172607422</v>
       </c>
       <c r="F373" t="n">
         <v>40687800</v>
@@ -10149,16 +10149,16 @@
         <v>45524</v>
       </c>
       <c r="B374" t="n">
-        <v>224.2966230198485</v>
+        <v>224.2966078109087</v>
       </c>
       <c r="C374" t="n">
-        <v>225.6874805176891</v>
+        <v>225.687465214439</v>
       </c>
       <c r="D374" t="n">
-        <v>223.9787040722222</v>
+        <v>223.9786888848396</v>
       </c>
       <c r="E374" t="n">
-        <v>225.0317840576172</v>
+        <v>225.0317687988281</v>
       </c>
       <c r="F374" t="n">
         <v>30299000</v>
@@ -10253,16 +10253,16 @@
         <v>45530</v>
       </c>
       <c r="B378" t="n">
-        <v>225.2801304868265</v>
+        <v>225.2801609479854</v>
       </c>
       <c r="C378" t="n">
-        <v>225.7967411465175</v>
+        <v>225.7967716775297</v>
       </c>
       <c r="D378" t="n">
-        <v>222.4288653159012</v>
+        <v>222.4288953915274</v>
       </c>
       <c r="E378" t="n">
-        <v>225.6973876953125</v>
+        <v>225.6974182128906</v>
       </c>
       <c r="F378" t="n">
         <v>30602200</v>
@@ -10279,16 +10279,16 @@
         <v>45531</v>
       </c>
       <c r="B379" t="n">
-        <v>224.5251040305072</v>
+        <v>224.5251191534574</v>
       </c>
       <c r="C379" t="n">
-        <v>227.356510742363</v>
+        <v>227.3565260560234</v>
       </c>
       <c r="D379" t="n">
-        <v>223.422347382219</v>
+        <v>223.4223624308928</v>
       </c>
       <c r="E379" t="n">
-        <v>226.5418548583984</v>
+        <v>226.5418701171875</v>
       </c>
       <c r="F379" t="n">
         <v>35934600</v>
@@ -10305,16 +10305,16 @@
         <v>45532</v>
       </c>
       <c r="B380" t="n">
-        <v>226.4325622105088</v>
+        <v>226.4325929207661</v>
       </c>
       <c r="C380" t="n">
-        <v>228.3599039402004</v>
+        <v>228.3599349118564</v>
       </c>
       <c r="D380" t="n">
-        <v>224.2071752885293</v>
+        <v>224.2072056969652</v>
       </c>
       <c r="E380" t="n">
-        <v>225.0119018554688</v>
+        <v>225.0119323730469</v>
       </c>
       <c r="F380" t="n">
         <v>38052200</v>
@@ -10331,16 +10331,16 @@
         <v>45533</v>
       </c>
       <c r="B381" t="n">
-        <v>228.598349138033</v>
+        <v>228.5983644174079</v>
       </c>
       <c r="C381" t="n">
-        <v>231.3999376371206</v>
+        <v>231.3999531037519</v>
       </c>
       <c r="D381" t="n">
-        <v>227.386309774272</v>
+        <v>227.3863249726349</v>
       </c>
       <c r="E381" t="n">
-        <v>228.2903594970703</v>
+        <v>228.2903747558594</v>
       </c>
       <c r="F381" t="n">
         <v>51906300</v>
@@ -10383,16 +10383,16 @@
         <v>45538</v>
       </c>
       <c r="B383" t="n">
-        <v>227.0584707554658</v>
+        <v>227.0584864101599</v>
       </c>
       <c r="C383" t="n">
-        <v>227.5055309941364</v>
+        <v>227.5055466796534</v>
       </c>
       <c r="D383" t="n">
-        <v>219.7266282681139</v>
+        <v>219.7266434173094</v>
       </c>
       <c r="E383" t="n">
-        <v>221.3161926269531</v>
+        <v>221.3162078857422</v>
       </c>
       <c r="F383" t="n">
         <v>50190600</v>
@@ -10435,16 +10435,16 @@
         <v>45540</v>
       </c>
       <c r="B385" t="n">
-        <v>220.1836512012438</v>
+        <v>220.1836359939166</v>
       </c>
       <c r="C385" t="n">
-        <v>224.0085170705176</v>
+        <v>224.0085015990201</v>
       </c>
       <c r="D385" t="n">
-        <v>220.074368453024</v>
+        <v>220.0743532532445</v>
       </c>
       <c r="E385" t="n">
-        <v>220.9287567138672</v>
+        <v>220.9287414550781</v>
       </c>
       <c r="F385" t="n">
         <v>36615400</v>
@@ -10461,16 +10461,16 @@
         <v>45541</v>
       </c>
       <c r="B386" t="n">
-        <v>222.4884846157397</v>
+        <v>222.4885000908128</v>
       </c>
       <c r="C386" t="n">
-        <v>223.7700744804958</v>
+        <v>223.7700900447093</v>
       </c>
       <c r="D386" t="n">
-        <v>218.3357708456458</v>
+        <v>218.335786031879</v>
       </c>
       <c r="E386" t="n">
-        <v>219.3789215087891</v>
+        <v>219.3789367675781</v>
       </c>
       <c r="F386" t="n">
         <v>48423000</v>
@@ -10513,16 +10513,16 @@
         <v>45545</v>
       </c>
       <c r="B388" t="n">
-        <v>217.4913322077863</v>
+        <v>217.4913170314923</v>
       </c>
       <c r="C388" t="n">
-        <v>220.0346232918541</v>
+        <v>220.0346079380923</v>
       </c>
       <c r="D388" t="n">
-        <v>215.3156216628219</v>
+        <v>215.3156066383465</v>
       </c>
       <c r="E388" t="n">
-        <v>218.6735687255859</v>
+        <v>218.6735534667969</v>
       </c>
       <c r="F388" t="n">
         <v>51591000</v>
@@ -10565,16 +10565,16 @@
         <v>45547</v>
       </c>
       <c r="B390" t="n">
-        <v>221.0479504200671</v>
+        <v>221.047965660362</v>
       </c>
       <c r="C390" t="n">
-        <v>222.0911010831047</v>
+        <v>222.0911163953203</v>
       </c>
       <c r="D390" t="n">
-        <v>218.3854475521019</v>
+        <v>218.3854626088289</v>
       </c>
       <c r="E390" t="n">
-        <v>221.3161926269531</v>
+        <v>221.3162078857422</v>
       </c>
       <c r="F390" t="n">
         <v>37455600</v>
@@ -10591,16 +10591,16 @@
         <v>45548</v>
       </c>
       <c r="B391" t="n">
-        <v>222.1208967481122</v>
+        <v>222.1209120809665</v>
       </c>
       <c r="C391" t="n">
-        <v>222.5778862537105</v>
+        <v>222.5779016181104</v>
       </c>
       <c r="D391" t="n">
-        <v>220.461797151476</v>
+        <v>220.4618123698038</v>
       </c>
       <c r="E391" t="n">
-        <v>221.0479431152344</v>
+        <v>221.0479583740234</v>
       </c>
       <c r="F391" t="n">
         <v>36766600</v>
@@ -10617,16 +10617,16 @@
         <v>45551</v>
       </c>
       <c r="B392" t="n">
-        <v>215.1268602771484</v>
+        <v>215.126845002842</v>
       </c>
       <c r="C392" t="n">
-        <v>215.8024305018799</v>
+        <v>215.802415179607</v>
       </c>
       <c r="D392" t="n">
-        <v>212.5239631635551</v>
+        <v>212.5239480740579</v>
       </c>
       <c r="E392" t="n">
-        <v>214.9083099365234</v>
+        <v>214.9082946777344</v>
       </c>
       <c r="F392" t="n">
         <v>59357400</v>
@@ -10643,16 +10643,16 @@
         <v>45552</v>
       </c>
       <c r="B393" t="n">
-        <v>214.3420225578669</v>
+        <v>214.3419921866889</v>
       </c>
       <c r="C393" t="n">
-        <v>215.4845116318028</v>
+        <v>215.4844810987399</v>
       </c>
       <c r="D393" t="n">
-        <v>213.1001800169755</v>
+        <v>213.1001498217603</v>
       </c>
       <c r="E393" t="n">
-        <v>215.3752288818359</v>
+        <v>215.3751983642578</v>
       </c>
       <c r="F393" t="n">
         <v>45519300</v>
@@ -10669,16 +10669,16 @@
         <v>45553</v>
       </c>
       <c r="B394" t="n">
-        <v>216.1302634835834</v>
+        <v>216.1302484418979</v>
       </c>
       <c r="C394" t="n">
-        <v>221.2565927661558</v>
+        <v>221.2565773677011</v>
       </c>
       <c r="D394" t="n">
-        <v>216.1203190420684</v>
+        <v>216.120304001075</v>
       </c>
       <c r="E394" t="n">
-        <v>219.2497711181641</v>
+        <v>219.249755859375</v>
       </c>
       <c r="F394" t="n">
         <v>59894900</v>
@@ -10695,16 +10695,16 @@
         <v>45554</v>
       </c>
       <c r="B395" t="n">
-        <v>223.521704754559</v>
+        <v>223.5217197546686</v>
       </c>
       <c r="C395" t="n">
-        <v>228.3201856509816</v>
+        <v>228.3202009731081</v>
       </c>
       <c r="D395" t="n">
-        <v>223.1640535337321</v>
+        <v>223.1640685098405</v>
       </c>
       <c r="E395" t="n">
-        <v>227.3763732910156</v>
+        <v>227.3763885498047</v>
       </c>
       <c r="F395" t="n">
         <v>66781300</v>
@@ -10721,16 +10721,16 @@
         <v>45555</v>
       </c>
       <c r="B396" t="n">
-        <v>228.4692075464048</v>
+        <v>228.4691921692628</v>
       </c>
       <c r="C396" t="n">
-        <v>231.5688414472994</v>
+        <v>231.5688258615364</v>
       </c>
       <c r="D396" t="n">
-        <v>226.1345376792504</v>
+        <v>226.1345224592437</v>
       </c>
       <c r="E396" t="n">
-        <v>226.7107543945312</v>
+        <v>226.7107391357422</v>
       </c>
       <c r="F396" t="n">
         <v>318679900</v>
@@ -10747,16 +10747,16 @@
         <v>45558</v>
       </c>
       <c r="B397" t="n">
-        <v>225.8563523524968</v>
+        <v>225.8563829873096</v>
       </c>
       <c r="C397" t="n">
-        <v>227.9525828838251</v>
+        <v>227.9526138029674</v>
       </c>
       <c r="D397" t="n">
-        <v>224.336338501163</v>
+        <v>224.3363689298035</v>
       </c>
       <c r="E397" t="n">
-        <v>224.9920349121094</v>
+        <v>224.9920654296875</v>
       </c>
       <c r="F397" t="n">
         <v>54146000</v>
@@ -10773,16 +10773,16 @@
         <v>45559</v>
       </c>
       <c r="B398" t="n">
-        <v>227.1577995449636</v>
+        <v>227.1578148896533</v>
       </c>
       <c r="C398" t="n">
-        <v>227.8532433973514</v>
+        <v>227.8532587890189</v>
       </c>
       <c r="D398" t="n">
-        <v>224.2568575968381</v>
+        <v>224.2568727455669</v>
       </c>
       <c r="E398" t="n">
-        <v>225.8861541748047</v>
+        <v>225.8861694335938</v>
       </c>
       <c r="F398" t="n">
         <v>43556100</v>
@@ -10799,16 +10799,16 @@
         <v>45560</v>
       </c>
       <c r="B399" t="n">
-        <v>223.4621103991307</v>
+        <v>223.4620800756833</v>
       </c>
       <c r="C399" t="n">
-        <v>225.8067097593972</v>
+        <v>225.8066791177915</v>
       </c>
       <c r="D399" t="n">
-        <v>222.5580605362127</v>
+        <v>222.5580303354434</v>
       </c>
       <c r="E399" t="n">
-        <v>224.8927154541016</v>
+        <v>224.8926849365234</v>
       </c>
       <c r="F399" t="n">
         <v>42308700</v>
@@ -10825,16 +10825,16 @@
         <v>45561</v>
       </c>
       <c r="B400" t="n">
-        <v>225.8166212960727</v>
+        <v>225.8166365401072</v>
       </c>
       <c r="C400" t="n">
-        <v>227.008786948424</v>
+        <v>227.0088022729372</v>
       </c>
       <c r="D400" t="n">
-        <v>223.938956224837</v>
+        <v>223.9389713421174</v>
       </c>
       <c r="E400" t="n">
-        <v>226.0351867675781</v>
+        <v>226.0352020263672</v>
       </c>
       <c r="F400" t="n">
         <v>36636700</v>
@@ -10851,16 +10851,16 @@
         <v>45562</v>
       </c>
       <c r="B401" t="n">
-        <v>226.9690772008412</v>
+        <v>226.9690465934998</v>
       </c>
       <c r="C401" t="n">
-        <v>228.0221572176447</v>
+        <v>228.0221264682928</v>
       </c>
       <c r="D401" t="n">
-        <v>225.8166437201388</v>
+        <v>225.8166132682059</v>
       </c>
       <c r="E401" t="n">
-        <v>226.3034362792969</v>
+        <v>226.3034057617188</v>
       </c>
       <c r="F401" t="n">
         <v>34026000</v>
@@ -10877,16 +10877,16 @@
         <v>45565</v>
       </c>
       <c r="B402" t="n">
-        <v>228.5387566450418</v>
+        <v>228.5387415800987</v>
       </c>
       <c r="C402" t="n">
-        <v>231.4794464111328</v>
+        <v>231.4794311523438</v>
       </c>
       <c r="D402" t="n">
-        <v>228.1513023840267</v>
+        <v>228.1512873446241</v>
       </c>
       <c r="E402" t="n">
-        <v>231.4794464111328</v>
+        <v>231.4794311523438</v>
       </c>
       <c r="F402" t="n">
         <v>54541900</v>
@@ -10929,16 +10929,16 @@
         <v>45567</v>
       </c>
       <c r="B404" t="n">
-        <v>224.4158423115362</v>
+        <v>224.4158271126304</v>
       </c>
       <c r="C404" t="n">
-        <v>225.8861795938886</v>
+        <v>225.8861642954019</v>
       </c>
       <c r="D404" t="n">
-        <v>221.5645767690425</v>
+        <v>221.564561763243</v>
       </c>
       <c r="E404" t="n">
-        <v>225.3000335693359</v>
+        <v>225.3000183105469</v>
       </c>
       <c r="F404" t="n">
         <v>32880600</v>
@@ -10955,16 +10955,16 @@
         <v>45568</v>
       </c>
       <c r="B405" t="n">
-        <v>223.6707104185886</v>
+        <v>223.6707256415415</v>
       </c>
       <c r="C405" t="n">
-        <v>225.3298099915582</v>
+        <v>225.3298253274289</v>
       </c>
       <c r="D405" t="n">
-        <v>221.8625958261819</v>
+        <v>221.8626109260752</v>
       </c>
       <c r="E405" t="n">
-        <v>224.1972503662109</v>
+        <v>224.197265625</v>
       </c>
       <c r="F405" t="n">
         <v>34044200</v>
@@ -11033,16 +11033,16 @@
         <v>45573</v>
       </c>
       <c r="B408" t="n">
-        <v>222.8362076965557</v>
+        <v>222.8362228559939</v>
       </c>
       <c r="C408" t="n">
-        <v>224.5052366387564</v>
+        <v>224.5052519117378</v>
       </c>
       <c r="D408" t="n">
-        <v>221.7930570280757</v>
+        <v>221.7930721165488</v>
       </c>
       <c r="E408" t="n">
-        <v>224.2966156005859</v>
+        <v>224.296630859375</v>
       </c>
       <c r="F408" t="n">
         <v>31855700</v>
@@ -11059,16 +11059,16 @@
         <v>45574</v>
       </c>
       <c r="B409" t="n">
-        <v>223.7601520513203</v>
+        <v>223.7601370790405</v>
       </c>
       <c r="C409" t="n">
-        <v>228.2506589219147</v>
+        <v>228.2506436491654</v>
       </c>
       <c r="D409" t="n">
-        <v>223.3627685020828</v>
+        <v>223.3627535563929</v>
       </c>
       <c r="E409" t="n">
-        <v>228.0420227050781</v>
+        <v>228.0420074462891</v>
       </c>
       <c r="F409" t="n">
         <v>33591100</v>
@@ -11085,16 +11085,16 @@
         <v>45575</v>
       </c>
       <c r="B410" t="n">
-        <v>226.2935010745161</v>
+        <v>226.2934858996686</v>
       </c>
       <c r="C410" t="n">
-        <v>228.0022775262294</v>
+        <v>228.0022622367944</v>
       </c>
       <c r="D410" t="n">
-        <v>225.6874813426967</v>
+        <v>225.6874662084879</v>
       </c>
       <c r="E410" t="n">
-        <v>227.5452728271484</v>
+        <v>227.5452575683594</v>
       </c>
       <c r="F410" t="n">
         <v>28183500</v>
@@ -11111,16 +11111,16 @@
         <v>45576</v>
       </c>
       <c r="B411" t="n">
-        <v>227.8035818699571</v>
+        <v>227.8035972460956</v>
       </c>
       <c r="C411" t="n">
-        <v>227.9128646118344</v>
+        <v>227.9128799953492</v>
       </c>
       <c r="D411" t="n">
-        <v>225.856366239928</v>
+        <v>225.8563814846346</v>
       </c>
       <c r="E411" t="n">
-        <v>226.0650024414062</v>
+        <v>226.0650177001953</v>
       </c>
       <c r="F411" t="n">
         <v>31759200</v>
@@ -11137,16 +11137,16 @@
         <v>45579</v>
       </c>
       <c r="B412" t="n">
-        <v>227.2075041009655</v>
+        <v>227.2074890136981</v>
       </c>
       <c r="C412" t="n">
-        <v>230.2177291523844</v>
+        <v>230.2177138652288</v>
       </c>
       <c r="D412" t="n">
-        <v>227.1081657950345</v>
+        <v>227.1081507143634</v>
       </c>
       <c r="E412" t="n">
-        <v>229.7905426025391</v>
+        <v>229.79052734375</v>
       </c>
       <c r="F412" t="n">
         <v>39882100</v>
@@ -11163,16 +11163,16 @@
         <v>45580</v>
       </c>
       <c r="B413" t="n">
-        <v>232.0854438577034</v>
+        <v>232.085459100832</v>
       </c>
       <c r="C413" t="n">
-        <v>235.9401275315396</v>
+        <v>235.9401430278398</v>
       </c>
       <c r="D413" t="n">
-        <v>230.853530735341</v>
+        <v>230.8535458975589</v>
       </c>
       <c r="E413" t="n">
-        <v>232.3238830566406</v>
+        <v>232.3238983154297</v>
       </c>
       <c r="F413" t="n">
         <v>64751400</v>
@@ -11215,16 +11215,16 @@
         <v>45582</v>
       </c>
       <c r="B415" t="n">
-        <v>231.9066400773438</v>
+        <v>231.9066247344228</v>
       </c>
       <c r="C415" t="n">
-        <v>232.3239125182016</v>
+        <v>232.3238971476739</v>
       </c>
       <c r="D415" t="n">
-        <v>229.0156421145612</v>
+        <v>229.0156269629083</v>
       </c>
       <c r="E415" t="n">
-        <v>230.6349945068359</v>
+        <v>230.6349792480469</v>
       </c>
       <c r="F415" t="n">
         <v>32993800</v>
@@ -11241,16 +11241,16 @@
         <v>45583</v>
       </c>
       <c r="B416" t="n">
-        <v>234.6386462347899</v>
+        <v>234.6386615701971</v>
       </c>
       <c r="C416" t="n">
-        <v>234.6386462347899</v>
+        <v>234.6386615701971</v>
       </c>
       <c r="D416" t="n">
-        <v>232.4828098029027</v>
+        <v>232.4828249974097</v>
       </c>
       <c r="E416" t="n">
-        <v>233.4663543701172</v>
+        <v>233.4663696289062</v>
       </c>
       <c r="F416" t="n">
         <v>46431500</v>
@@ -11319,16 +11319,16 @@
         <v>45588</v>
       </c>
       <c r="B419" t="n">
-        <v>232.5523998526549</v>
+        <v>232.5523843743334</v>
       </c>
       <c r="C419" t="n">
-        <v>233.6054798858088</v>
+        <v>233.6054643373961</v>
       </c>
       <c r="D419" t="n">
-        <v>226.2736367851708</v>
+        <v>226.273621724754</v>
       </c>
       <c r="E419" t="n">
-        <v>229.2540588378906</v>
+        <v>229.2540435791016</v>
       </c>
       <c r="F419" t="n">
         <v>52287000</v>
@@ -11345,16 +11345,16 @@
         <v>45589</v>
       </c>
       <c r="B420" t="n">
-        <v>228.4791616555193</v>
+        <v>228.4791312160334</v>
       </c>
       <c r="C420" t="n">
-        <v>229.3136913926955</v>
+        <v>229.3136608420281</v>
       </c>
       <c r="D420" t="n">
-        <v>226.9194152533141</v>
+        <v>226.9193850216278</v>
       </c>
       <c r="E420" t="n">
-        <v>229.0653228759766</v>
+        <v>229.0652923583984</v>
       </c>
       <c r="F420" t="n">
         <v>31109500</v>
@@ -11397,16 +11397,16 @@
         <v>45593</v>
       </c>
       <c r="B422" t="n">
-        <v>231.7973664729013</v>
+        <v>231.7973512193415</v>
       </c>
       <c r="C422" t="n">
-        <v>233.1981533252385</v>
+        <v>233.1981379794991</v>
       </c>
       <c r="D422" t="n">
-        <v>231.0323872301169</v>
+        <v>231.032372026897</v>
       </c>
       <c r="E422" t="n">
-        <v>231.8768310546875</v>
+        <v>231.8768157958984</v>
       </c>
       <c r="F422" t="n">
         <v>36087100</v>
@@ -11423,16 +11423,16 @@
         <v>45594</v>
       </c>
       <c r="B423" t="n">
-        <v>231.5787930163908</v>
+        <v>231.5787777948225</v>
       </c>
       <c r="C423" t="n">
-        <v>232.8007617788983</v>
+        <v>232.8007464770106</v>
       </c>
       <c r="D423" t="n">
-        <v>230.8038845173167</v>
+        <v>230.8038693466829</v>
       </c>
       <c r="E423" t="n">
-        <v>232.1450653076172</v>
+        <v>232.1450500488281</v>
       </c>
       <c r="F423" t="n">
         <v>35417200</v>
@@ -11475,16 +11475,16 @@
         <v>45596</v>
       </c>
       <c r="B425" t="n">
-        <v>227.8433232613639</v>
+        <v>227.8433077709005</v>
       </c>
       <c r="C425" t="n">
-        <v>228.3301309781232</v>
+        <v>228.330115454563</v>
       </c>
       <c r="D425" t="n">
-        <v>223.8992302731352</v>
+        <v>223.8992150508203</v>
       </c>
       <c r="E425" t="n">
-        <v>224.4357147216797</v>
+        <v>224.4356994628906</v>
       </c>
       <c r="F425" t="n">
         <v>64370100</v>
@@ -11501,16 +11501,16 @@
         <v>45597</v>
       </c>
       <c r="B426" t="n">
-        <v>219.5279346472888</v>
+        <v>219.5279497732794</v>
       </c>
       <c r="C426" t="n">
-        <v>223.8793552942412</v>
+        <v>223.879370720055</v>
       </c>
       <c r="D426" t="n">
-        <v>218.8325059309105</v>
+        <v>218.8325210089845</v>
       </c>
       <c r="E426" t="n">
-        <v>221.4552764892578</v>
+        <v>221.4552917480469</v>
       </c>
       <c r="F426" t="n">
         <v>65276700</v>
@@ -11527,16 +11527,16 @@
         <v>45600</v>
       </c>
       <c r="B427" t="n">
-        <v>219.5477942840816</v>
+        <v>219.5478398501367</v>
       </c>
       <c r="C427" t="n">
-        <v>221.3360351088315</v>
+        <v>221.336081046027</v>
       </c>
       <c r="D427" t="n">
-        <v>218.2761489530912</v>
+        <v>218.2761942552225</v>
       </c>
       <c r="E427" t="n">
-        <v>220.5611267089844</v>
+        <v>220.5611724853516</v>
       </c>
       <c r="F427" t="n">
         <v>44944500</v>
@@ -11657,16 +11657,16 @@
         <v>45607</v>
       </c>
       <c r="B432" t="n">
-        <v>223.777554778836</v>
+        <v>223.7775700900237</v>
       </c>
       <c r="C432" t="n">
-        <v>224.4737485807484</v>
+        <v>224.4737639395706</v>
       </c>
       <c r="D432" t="n">
-        <v>220.2965705933875</v>
+        <v>220.2965856664011</v>
       </c>
       <c r="E432" t="n">
-        <v>223.0117340087891</v>
+        <v>223.0117492675781</v>
       </c>
       <c r="F432" t="n">
         <v>42005600</v>
@@ -11683,16 +11683,16 @@
         <v>45608</v>
       </c>
       <c r="B433" t="n">
-        <v>223.3300027044557</v>
+        <v>223.3300179850212</v>
       </c>
       <c r="C433" t="n">
-        <v>224.3643456135988</v>
+        <v>224.3643609649356</v>
       </c>
       <c r="D433" t="n">
-        <v>222.1464656532613</v>
+        <v>222.1464808528474</v>
       </c>
       <c r="E433" t="n">
-        <v>223.0117340087891</v>
+        <v>223.0117492675781</v>
       </c>
       <c r="F433" t="n">
         <v>40398300</v>
@@ -11787,16 +11787,16 @@
         <v>45614</v>
       </c>
       <c r="B437" t="n">
-        <v>224.0262037676668</v>
+        <v>224.0262188410909</v>
       </c>
       <c r="C437" t="n">
-        <v>228.491814802204</v>
+        <v>228.4918301760932</v>
       </c>
       <c r="D437" t="n">
-        <v>223.9466365911711</v>
+        <v>223.9466516592416</v>
       </c>
       <c r="E437" t="n">
-        <v>226.7811584472656</v>
+        <v>226.7811737060547</v>
       </c>
       <c r="F437" t="n">
         <v>44633700</v>
@@ -11839,16 +11839,16 @@
         <v>45616</v>
       </c>
       <c r="B439" t="n">
-        <v>226.8209335073324</v>
+        <v>226.820948703487</v>
       </c>
       <c r="C439" t="n">
-        <v>228.6807688255611</v>
+        <v>228.6807841463177</v>
       </c>
       <c r="D439" t="n">
-        <v>224.6627250724537</v>
+        <v>224.6627401240164</v>
       </c>
       <c r="E439" t="n">
-        <v>227.7558288574219</v>
+        <v>227.7558441162109</v>
       </c>
       <c r="F439" t="n">
         <v>35169600</v>
@@ -11891,16 +11891,16 @@
         <v>45618</v>
       </c>
       <c r="B441" t="n">
-        <v>226.820945186025</v>
+        <v>226.8209300473837</v>
       </c>
       <c r="C441" t="n">
-        <v>229.4664970201775</v>
+        <v>229.4664817049649</v>
       </c>
       <c r="D441" t="n">
-        <v>226.820945186025</v>
+        <v>226.8209300473837</v>
       </c>
       <c r="E441" t="n">
-        <v>228.6211090087891</v>
+        <v>228.62109375</v>
       </c>
       <c r="F441" t="n">
         <v>38168300</v>
@@ -11917,16 +11917,16 @@
         <v>45621</v>
       </c>
       <c r="B442" t="n">
-        <v>230.2024846846048</v>
+        <v>230.2024695182051</v>
       </c>
       <c r="C442" t="n">
-        <v>231.9827529386618</v>
+        <v>231.982737654973</v>
       </c>
       <c r="D442" t="n">
-        <v>228.4918282291425</v>
+        <v>228.4918131754458</v>
       </c>
       <c r="E442" t="n">
-        <v>231.6048126220703</v>
+        <v>231.6047973632812</v>
       </c>
       <c r="F442" t="n">
         <v>90152800</v>
@@ -11943,16 +11943,16 @@
         <v>45622</v>
       </c>
       <c r="B443" t="n">
-        <v>232.0623165721609</v>
+        <v>232.0623317186483</v>
       </c>
       <c r="C443" t="n">
-        <v>234.2901520832342</v>
+        <v>234.2901673751303</v>
       </c>
       <c r="D443" t="n">
-        <v>232.0623165721609</v>
+        <v>232.0623317186483</v>
       </c>
       <c r="E443" t="n">
-        <v>233.7829132080078</v>
+        <v>233.7829284667969</v>
       </c>
       <c r="F443" t="n">
         <v>45986200</v>
@@ -11995,16 +11995,16 @@
         <v>45625</v>
       </c>
       <c r="B445" t="n">
-        <v>233.5342601881338</v>
+        <v>233.5342752849028</v>
       </c>
       <c r="C445" t="n">
-        <v>236.5179610009136</v>
+        <v>236.5179762905633</v>
       </c>
       <c r="D445" t="n">
-        <v>232.6988276027683</v>
+        <v>232.698842645531</v>
       </c>
       <c r="E445" t="n">
-        <v>236.0405731201172</v>
+        <v>236.0405883789062</v>
       </c>
       <c r="F445" t="n">
         <v>28481400</v>
@@ -12021,16 +12021,16 @@
         <v>45628</v>
       </c>
       <c r="B446" t="n">
-        <v>235.9809120539101</v>
+        <v>235.9808969428746</v>
       </c>
       <c r="C446" t="n">
-        <v>239.4817769036961</v>
+        <v>239.4817615684827</v>
       </c>
       <c r="D446" t="n">
-        <v>235.8715090788613</v>
+        <v>235.8714939748314</v>
       </c>
       <c r="E446" t="n">
-        <v>238.2882995605469</v>
+        <v>238.2882843017578</v>
       </c>
       <c r="F446" t="n">
         <v>48137100</v>
@@ -12047,16 +12047,16 @@
         <v>45629</v>
       </c>
       <c r="B447" t="n">
-        <v>238.5070985351772</v>
+        <v>238.5071136153761</v>
       </c>
       <c r="C447" t="n">
-        <v>241.4410680109117</v>
+        <v>241.441083276618</v>
       </c>
       <c r="D447" t="n">
-        <v>237.6020389658694</v>
+        <v>237.6020539888436</v>
       </c>
       <c r="E447" t="n">
-        <v>241.3316650390625</v>
+        <v>241.3316802978516</v>
       </c>
       <c r="F447" t="n">
         <v>38861000</v>
@@ -12073,16 +12073,16 @@
         <v>45630</v>
       </c>
       <c r="B448" t="n">
-        <v>241.5504737564515</v>
+        <v>241.5504890064499</v>
       </c>
       <c r="C448" t="n">
-        <v>242.7837422554682</v>
+        <v>242.7837575833276</v>
       </c>
       <c r="D448" t="n">
-        <v>239.9392801306149</v>
+        <v>239.9392952788925</v>
       </c>
       <c r="E448" t="n">
-        <v>241.6897125244141</v>
+        <v>241.6897277832031</v>
       </c>
       <c r="F448" t="n">
         <v>44383900</v>
@@ -12125,16 +12125,16 @@
         <v>45632</v>
       </c>
       <c r="B450" t="n">
-        <v>241.5902568524086</v>
+        <v>241.5902721155965</v>
       </c>
       <c r="C450" t="n">
-        <v>243.3009131878065</v>
+        <v>243.3009285590703</v>
       </c>
       <c r="D450" t="n">
-        <v>240.7647644785688</v>
+        <v>240.7647796896037</v>
       </c>
       <c r="E450" t="n">
-        <v>241.5206298828125</v>
+        <v>241.5206451416016</v>
       </c>
       <c r="F450" t="n">
         <v>36870600</v>
@@ -12151,16 +12151,16 @@
         <v>45635</v>
       </c>
       <c r="B451" t="n">
-        <v>240.516140724136</v>
+        <v>240.516125769595</v>
       </c>
       <c r="C451" t="n">
-        <v>245.8967518652756</v>
+        <v>245.8967365761851</v>
       </c>
       <c r="D451" t="n">
-        <v>240.4365735426017</v>
+        <v>240.4365585930079</v>
       </c>
       <c r="E451" t="n">
-        <v>245.4094085693359</v>
+        <v>245.4093933105469</v>
       </c>
       <c r="F451" t="n">
         <v>44649200</v>
@@ -12203,16 +12203,16 @@
         <v>45637</v>
       </c>
       <c r="B453" t="n">
-        <v>246.6128325309006</v>
+        <v>246.6128478806891</v>
       </c>
       <c r="C453" t="n">
-        <v>249.4373990831704</v>
+        <v>249.4374146087669</v>
       </c>
       <c r="D453" t="n">
-        <v>244.9220565413804</v>
+        <v>244.9220717859308</v>
       </c>
       <c r="E453" t="n">
-        <v>245.1508178710938</v>
+        <v>245.1508331298828</v>
       </c>
       <c r="F453" t="n">
         <v>45205800</v>
@@ -12229,16 +12229,16 @@
         <v>45638</v>
       </c>
       <c r="B454" t="n">
-        <v>245.5486599690385</v>
+        <v>245.5486295831511</v>
       </c>
       <c r="C454" t="n">
-        <v>247.388615093895</v>
+        <v>247.3885844803188</v>
       </c>
       <c r="D454" t="n">
-        <v>244.3452271532981</v>
+        <v>244.3451969163318</v>
       </c>
       <c r="E454" t="n">
-        <v>246.6128540039062</v>
+        <v>246.6128234863281</v>
       </c>
       <c r="F454" t="n">
         <v>32777500</v>
@@ -12255,16 +12255,16 @@
         <v>45639</v>
       </c>
       <c r="B455" t="n">
-        <v>246.4735775568884</v>
+        <v>246.4736080363398</v>
       </c>
       <c r="C455" t="n">
-        <v>247.9355769446834</v>
+        <v>247.9356076049288</v>
       </c>
       <c r="D455" t="n">
-        <v>244.9021600266767</v>
+        <v>244.9021903118032</v>
       </c>
       <c r="E455" t="n">
-        <v>246.7818908691406</v>
+        <v>246.7819213867188</v>
       </c>
       <c r="F455" t="n">
         <v>33155300</v>
@@ -12281,16 +12281,16 @@
         <v>45642</v>
       </c>
       <c r="B456" t="n">
-        <v>246.6426692963963</v>
+        <v>246.6426542229925</v>
       </c>
       <c r="C456" t="n">
-        <v>250.0142507305484</v>
+        <v>250.0142354510927</v>
       </c>
       <c r="D456" t="n">
-        <v>246.3045049916291</v>
+        <v>246.304489938892</v>
       </c>
       <c r="E456" t="n">
-        <v>249.6760864257812</v>
+        <v>249.6760711669922</v>
       </c>
       <c r="F456" t="n">
         <v>51694800</v>
@@ -12385,16 +12385,16 @@
         <v>45646</v>
       </c>
       <c r="B460" t="n">
-        <v>246.6924064326839</v>
+        <v>246.6923766885693</v>
       </c>
       <c r="C460" t="n">
-        <v>253.6145998349828</v>
+        <v>253.6145692562478</v>
       </c>
       <c r="D460" t="n">
-        <v>244.3551829515027</v>
+        <v>244.3551534891911</v>
       </c>
       <c r="E460" t="n">
-        <v>253.1073760986328</v>
+        <v>253.1073455810547</v>
       </c>
       <c r="F460" t="n">
         <v>147495300</v>
@@ -12437,16 +12437,16 @@
         <v>45650</v>
       </c>
       <c r="B462" t="n">
-        <v>254.101957652135</v>
+        <v>254.1019274548622</v>
       </c>
       <c r="C462" t="n">
-        <v>256.8071662428765</v>
+        <v>256.8071357241188</v>
       </c>
       <c r="D462" t="n">
-        <v>253.9030320884408</v>
+        <v>253.9030019148082</v>
       </c>
       <c r="E462" t="n">
-        <v>256.7972412109375</v>
+        <v>256.7972106933594</v>
       </c>
       <c r="F462" t="n">
         <v>23234700</v>
@@ -12463,16 +12463,16 @@
         <v>45652</v>
       </c>
       <c r="B463" t="n">
-        <v>256.7872546831169</v>
+        <v>256.7872242633273</v>
       </c>
       <c r="C463" t="n">
-        <v>258.6868812844183</v>
+        <v>258.6868506395932</v>
       </c>
       <c r="D463" t="n">
-        <v>256.2302995944582</v>
+        <v>256.2302692406472</v>
       </c>
       <c r="E463" t="n">
-        <v>257.6127319335938</v>
+        <v>257.6127014160156</v>
       </c>
       <c r="F463" t="n">
         <v>27237100</v>
@@ -12489,16 +12489,16 @@
         <v>45653</v>
       </c>
       <c r="B464" t="n">
-        <v>256.4291905571857</v>
+        <v>256.4291751646687</v>
       </c>
       <c r="C464" t="n">
-        <v>257.2944893234501</v>
+        <v>257.2944738789923</v>
       </c>
       <c r="D464" t="n">
-        <v>251.6851169992417</v>
+        <v>251.6851018914942</v>
       </c>
       <c r="E464" t="n">
-        <v>254.2013702392578</v>
+        <v>254.2013549804688</v>
       </c>
       <c r="F464" t="n">
         <v>42355300</v>
@@ -12593,16 +12593,16 @@
         <v>45660</v>
       </c>
       <c r="B468" t="n">
-        <v>242.0378112792969</v>
+        <v>242.037841796875</v>
       </c>
       <c r="C468" t="n">
-        <v>242.853348279154</v>
+        <v>242.8533788995599</v>
       </c>
       <c r="D468" t="n">
-        <v>240.5757966624965</v>
+        <v>240.5758269957351</v>
       </c>
       <c r="E468" t="n">
-        <v>242.0378112792969</v>
+        <v>242.037841796875</v>
       </c>
       <c r="F468" t="n">
         <v>40244100</v>
@@ -12645,16 +12645,16 @@
         <v>45664</v>
       </c>
       <c r="B470" t="n">
-        <v>241.6598944370817</v>
+        <v>241.6598791297847</v>
       </c>
       <c r="C470" t="n">
-        <v>244.2159390069797</v>
+        <v>244.215923537777</v>
       </c>
       <c r="D470" t="n">
-        <v>240.038760486134</v>
+        <v>240.0387452815234</v>
       </c>
       <c r="E470" t="n">
-        <v>240.8940887451172</v>
+        <v>240.8940734863281</v>
       </c>
       <c r="F470" t="n">
         <v>40856000</v>
@@ -12671,16 +12671,16 @@
         <v>45665</v>
       </c>
       <c r="B471" t="n">
-        <v>240.6056628525705</v>
+        <v>240.6056476428208</v>
       </c>
       <c r="C471" t="n">
-        <v>242.3859463997038</v>
+        <v>242.3859310774145</v>
       </c>
       <c r="D471" t="n">
-        <v>238.7458272949175</v>
+        <v>238.7458122027362</v>
       </c>
       <c r="E471" t="n">
-        <v>241.3814239501953</v>
+        <v>241.3814086914062</v>
       </c>
       <c r="F471" t="n">
         <v>37628900</v>
@@ -12697,16 +12697,16 @@
         <v>45667</v>
       </c>
       <c r="B472" t="n">
-        <v>238.7060066533893</v>
+        <v>238.7060375781247</v>
       </c>
       <c r="C472" t="n">
-        <v>238.8552008004512</v>
+        <v>238.8552317445149</v>
       </c>
       <c r="D472" t="n">
-        <v>231.7340978425613</v>
+        <v>231.734127864075</v>
       </c>
       <c r="E472" t="n">
-        <v>235.5631866455078</v>
+        <v>235.5632171630859</v>
       </c>
       <c r="F472" t="n">
         <v>61710900</v>
@@ -12723,16 +12723,16 @@
         <v>45670</v>
       </c>
       <c r="B473" t="n">
-        <v>232.2612269401141</v>
+        <v>232.2612421422689</v>
       </c>
       <c r="C473" t="n">
-        <v>233.3950326966968</v>
+        <v>233.3950479730624</v>
       </c>
       <c r="D473" t="n">
-        <v>228.4719291530057</v>
+        <v>228.4719441071402</v>
       </c>
       <c r="E473" t="n">
-        <v>233.1264953613281</v>
+        <v>233.1265106201172</v>
       </c>
       <c r="F473" t="n">
         <v>49630700</v>
@@ -12749,16 +12749,16 @@
         <v>45671</v>
       </c>
       <c r="B474" t="n">
-        <v>233.4746032047643</v>
+        <v>233.4745878498229</v>
       </c>
       <c r="C474" t="n">
-        <v>234.8371551382162</v>
+        <v>234.8371396936636</v>
       </c>
       <c r="D474" t="n">
-        <v>231.2069916592748</v>
+        <v>231.2069764534674</v>
       </c>
       <c r="E474" t="n">
-        <v>232.0125885009766</v>
+        <v>232.0125732421875</v>
       </c>
       <c r="F474" t="n">
         <v>39435300</v>
@@ -12775,16 +12775,16 @@
         <v>45672</v>
       </c>
       <c r="B475" t="n">
-        <v>233.3652047550879</v>
+        <v>233.3651897034953</v>
       </c>
       <c r="C475" t="n">
-        <v>237.6617415620355</v>
+        <v>237.6617262333249</v>
       </c>
       <c r="D475" t="n">
-        <v>233.1563390036856</v>
+        <v>233.1563239655644</v>
       </c>
       <c r="E475" t="n">
-        <v>236.5776519775391</v>
+        <v>236.57763671875</v>
       </c>
       <c r="F475" t="n">
         <v>39832000</v>
@@ -12801,16 +12801,16 @@
         <v>45673</v>
       </c>
       <c r="B476" t="n">
-        <v>236.0604928649114</v>
+        <v>236.0604769984706</v>
       </c>
       <c r="C476" t="n">
-        <v>236.7168955772204</v>
+        <v>236.7168796666606</v>
       </c>
       <c r="D476" t="n">
-        <v>226.791120773553</v>
+        <v>226.7911055301388</v>
       </c>
       <c r="E476" t="n">
-        <v>227.0198669433594</v>
+        <v>227.0198516845703</v>
       </c>
       <c r="F476" t="n">
         <v>71759100</v>
@@ -12827,16 +12827,16 @@
         <v>45674</v>
       </c>
       <c r="B477" t="n">
-        <v>230.858871899633</v>
+        <v>230.8588873004075</v>
       </c>
       <c r="C477" t="n">
-        <v>231.0279464573329</v>
+        <v>231.0279618693864</v>
       </c>
       <c r="D477" t="n">
-        <v>227.2386488663466</v>
+        <v>227.2386640256131</v>
       </c>
       <c r="E477" t="n">
-        <v>228.7304992675781</v>
+        <v>228.7305145263672</v>
       </c>
       <c r="F477" t="n">
         <v>68488300</v>
@@ -12853,16 +12853,16 @@
         <v>45678</v>
       </c>
       <c r="B478" t="n">
-        <v>222.7830317933703</v>
+        <v>222.7829857373774</v>
       </c>
       <c r="C478" t="n">
-        <v>223.2007481568761</v>
+        <v>223.2007020145286</v>
       </c>
       <c r="D478" t="n">
-        <v>218.1881366189168</v>
+        <v>218.1880915128276</v>
       </c>
       <c r="E478" t="n">
-        <v>221.430419921875</v>
+        <v>221.4303741455078</v>
       </c>
       <c r="F478" t="n">
         <v>98070400</v>
@@ -12905,16 +12905,16 @@
         <v>45680</v>
       </c>
       <c r="B480" t="n">
-        <v>223.5189735650416</v>
+        <v>223.5189888975118</v>
       </c>
       <c r="C480" t="n">
-        <v>225.7965251191765</v>
+        <v>225.7965406078772</v>
       </c>
       <c r="D480" t="n">
-        <v>221.0922278683752</v>
+        <v>221.0922430343807</v>
       </c>
       <c r="E480" t="n">
-        <v>222.4448394775391</v>
+        <v>222.4448547363281</v>
       </c>
       <c r="F480" t="n">
         <v>60234800</v>
@@ -12931,16 +12931,16 @@
         <v>45681</v>
       </c>
       <c r="B481" t="n">
-        <v>223.5587751677507</v>
+        <v>223.5587597719764</v>
       </c>
       <c r="C481" t="n">
-        <v>224.4041632112556</v>
+        <v>224.4041477572621</v>
       </c>
       <c r="D481" t="n">
-        <v>220.207089142254</v>
+        <v>220.2070739772995</v>
       </c>
       <c r="E481" t="n">
-        <v>221.5696411132812</v>
+        <v>221.5696258544922</v>
       </c>
       <c r="F481" t="n">
         <v>54697900</v>
@@ -12983,16 +12983,16 @@
         <v>45685</v>
       </c>
       <c r="B483" t="n">
-        <v>229.5957855991</v>
+        <v>229.5958003833341</v>
       </c>
       <c r="C483" t="n">
-        <v>238.8850372343334</v>
+        <v>238.8850526167251</v>
       </c>
       <c r="D483" t="n">
-        <v>229.5559944227554</v>
+        <v>229.5560092044273</v>
       </c>
       <c r="E483" t="n">
-        <v>236.9655151367188</v>
+        <v>236.9655303955078</v>
       </c>
       <c r="F483" t="n">
         <v>75707600</v>
@@ -13035,16 +13035,16 @@
         <v>45687</v>
       </c>
       <c r="B485" t="n">
-        <v>237.3733133000267</v>
+        <v>237.3732979718764</v>
       </c>
       <c r="C485" t="n">
-        <v>239.4817905657384</v>
+        <v>239.4817751014353</v>
       </c>
       <c r="D485" t="n">
-        <v>235.9212539220553</v>
+        <v>235.9212386876704</v>
       </c>
       <c r="E485" t="n">
-        <v>236.2991790771484</v>
+        <v>236.2991638183594</v>
       </c>
       <c r="F485" t="n">
         <v>55658300</v>
@@ -13061,16 +13061,16 @@
         <v>45688</v>
       </c>
       <c r="B486" t="n">
-        <v>245.8469947494795</v>
+        <v>245.8470107317681</v>
       </c>
       <c r="C486" t="n">
-        <v>245.8469947494795</v>
+        <v>245.8470107317681</v>
       </c>
       <c r="D486" t="n">
-        <v>232.1716998572169</v>
+        <v>232.1717149504871</v>
       </c>
       <c r="E486" t="n">
-        <v>234.7177886962891</v>
+        <v>234.7178039550781</v>
       </c>
       <c r="F486" t="n">
         <v>100959800</v>
@@ -13087,16 +13087,16 @@
         <v>45691</v>
       </c>
       <c r="B487" t="n">
-        <v>228.7404632470789</v>
+        <v>228.7404786383734</v>
       </c>
       <c r="C487" t="n">
-        <v>230.5704628324937</v>
+        <v>230.5704783469237</v>
       </c>
       <c r="D487" t="n">
-        <v>224.4737624406888</v>
+        <v>224.4737775448892</v>
       </c>
       <c r="E487" t="n">
-        <v>226.7712097167969</v>
+        <v>226.7712249755859</v>
       </c>
       <c r="F487" t="n">
         <v>73063300</v>
@@ -13113,16 +13113,16 @@
         <v>45692</v>
       </c>
       <c r="B488" t="n">
-        <v>226.0153372130071</v>
+        <v>226.0153670030395</v>
       </c>
       <c r="C488" t="n">
-        <v>231.8633956790269</v>
+        <v>231.8634262398647</v>
       </c>
       <c r="D488" t="n">
-        <v>225.4185909783935</v>
+        <v>225.4186206897715</v>
       </c>
       <c r="E488" t="n">
-        <v>231.5351867675781</v>
+        <v>231.5352172851562</v>
       </c>
       <c r="F488" t="n">
         <v>45067300</v>
@@ -13139,16 +13139,16 @@
         <v>45693</v>
       </c>
       <c r="B489" t="n">
-        <v>227.2883741709104</v>
+        <v>227.2883891710869</v>
       </c>
       <c r="C489" t="n">
-        <v>231.4058805611787</v>
+        <v>231.4058958330951</v>
       </c>
       <c r="D489" t="n">
-        <v>227.0297922382637</v>
+        <v>227.0298072213747</v>
       </c>
       <c r="E489" t="n">
-        <v>231.2069702148438</v>
+        <v>231.2069854736328</v>
       </c>
       <c r="F489" t="n">
         <v>39620300</v>
@@ -13165,16 +13165,16 @@
         <v>45694</v>
       </c>
       <c r="B490" t="n">
-        <v>230.0334043541599</v>
+        <v>230.0333892216447</v>
       </c>
       <c r="C490" t="n">
-        <v>232.5297773409264</v>
+        <v>232.5297620441898</v>
       </c>
       <c r="D490" t="n">
-        <v>229.1780760914231</v>
+        <v>229.1780610151748</v>
       </c>
       <c r="E490" t="n">
-        <v>231.9529266357422</v>
+        <v>231.9529113769531</v>
       </c>
       <c r="F490" t="n">
         <v>29925300</v>
@@ -13191,16 +13191,16 @@
         <v>45695</v>
       </c>
       <c r="B491" t="n">
-        <v>231.3362789923899</v>
+        <v>231.3362945843344</v>
       </c>
       <c r="C491" t="n">
-        <v>232.7286666541538</v>
+        <v>232.7286823399446</v>
       </c>
       <c r="D491" t="n">
-        <v>226.0252799376335</v>
+        <v>226.0252951716195</v>
       </c>
       <c r="E491" t="n">
-        <v>226.3932800292969</v>
+        <v>226.3932952880859</v>
       </c>
       <c r="F491" t="n">
         <v>39707200</v>
@@ -13269,16 +13269,16 @@
         <v>45700</v>
       </c>
       <c r="B494" t="n">
-        <v>230.1967087365011</v>
+        <v>230.1966938429643</v>
       </c>
       <c r="C494" t="n">
-        <v>235.9317230437626</v>
+        <v>235.9317077791751</v>
       </c>
       <c r="D494" t="n">
-        <v>229.6789610131902</v>
+        <v>229.6789461531513</v>
       </c>
       <c r="E494" t="n">
-        <v>235.8421020507812</v>
+        <v>235.8420867919922</v>
       </c>
       <c r="F494" t="n">
         <v>45243300</v>
@@ -13295,16 +13295,16 @@
         <v>45701</v>
       </c>
       <c r="B495" t="n">
-        <v>235.8819410070342</v>
+        <v>235.8819260401158</v>
       </c>
       <c r="C495" t="n">
-        <v>241.2883704199687</v>
+        <v>241.2883551100076</v>
       </c>
       <c r="D495" t="n">
-        <v>234.5477595362729</v>
+        <v>234.5477446540096</v>
       </c>
       <c r="E495" t="n">
-        <v>240.4818878173828</v>
+        <v>240.4818725585938</v>
       </c>
       <c r="F495" t="n">
         <v>53614100</v>
@@ -13399,16 +13399,16 @@
         <v>45708</v>
       </c>
       <c r="B499" t="n">
-        <v>243.8770769045393</v>
+        <v>243.8770921080856</v>
       </c>
       <c r="C499" t="n">
-        <v>245.7090885152486</v>
+        <v>245.7091038330044</v>
       </c>
       <c r="D499" t="n">
-        <v>243.2298884862767</v>
+        <v>243.2299036494767</v>
       </c>
       <c r="E499" t="n">
-        <v>244.7632141113281</v>
+        <v>244.7632293701172</v>
       </c>
       <c r="F499" t="n">
         <v>32316900</v>
@@ -13425,16 +13425,16 @@
         <v>45709</v>
       </c>
       <c r="B500" t="n">
-        <v>244.882694153601</v>
+        <v>244.8826788699558</v>
       </c>
       <c r="C500" t="n">
-        <v>247.6108093619247</v>
+        <v>247.6107939080121</v>
       </c>
       <c r="D500" t="n">
-        <v>244.1558662507813</v>
+        <v>244.155851012499</v>
       </c>
       <c r="E500" t="n">
-        <v>244.4844360351562</v>
+        <v>244.4844207763672</v>
       </c>
       <c r="F500" t="n">
         <v>53197400</v>
@@ -13477,16 +13477,16 @@
         <v>45713</v>
       </c>
       <c r="B502" t="n">
-        <v>246.9237972816946</v>
+        <v>246.9238125997799</v>
       </c>
       <c r="C502" t="n">
-        <v>248.9151182275147</v>
+        <v>248.9151336691329</v>
       </c>
       <c r="D502" t="n">
-        <v>243.8472100666201</v>
+        <v>243.8472251938472</v>
       </c>
       <c r="E502" t="n">
-        <v>245.9679565429688</v>
+        <v>245.9679718017578</v>
       </c>
       <c r="F502" t="n">
         <v>48013300</v>
@@ -13529,16 +13529,16 @@
         <v>45715</v>
       </c>
       <c r="B504" t="n">
-        <v>238.3710927533652</v>
+        <v>238.3710773588995</v>
       </c>
       <c r="C504" t="n">
-        <v>241.4078604290163</v>
+        <v>241.4078448384303</v>
       </c>
       <c r="D504" t="n">
-        <v>236.0312844149354</v>
+        <v>236.0312691715791</v>
       </c>
       <c r="E504" t="n">
-        <v>236.2702484130859</v>
+        <v>236.2702331542969</v>
       </c>
       <c r="F504" t="n">
         <v>41153600</v>
@@ -13555,16 +13555,16 @@
         <v>45716</v>
       </c>
       <c r="B505" t="n">
-        <v>235.9217631442628</v>
+        <v>235.9217481940061</v>
       </c>
       <c r="C505" t="n">
-        <v>241.0394577388366</v>
+        <v>241.0394424642739</v>
       </c>
       <c r="D505" t="n">
-        <v>229.2010544642301</v>
+        <v>229.2010399398617</v>
       </c>
       <c r="E505" t="n">
-        <v>240.7905426025391</v>
+        <v>240.79052734375</v>
       </c>
       <c r="F505" t="n">
         <v>56833400</v>
@@ -13581,16 +13581,16 @@
         <v>45719</v>
       </c>
       <c r="B506" t="n">
-        <v>240.7407483660274</v>
+        <v>240.7407328662059</v>
       </c>
       <c r="C506" t="n">
-        <v>242.971033380884</v>
+        <v>242.971017737468</v>
       </c>
       <c r="D506" t="n">
-        <v>235.085403953726</v>
+        <v>235.0853888180174</v>
       </c>
       <c r="E506" t="n">
-        <v>236.9970703125</v>
+        <v>236.9970550537109</v>
       </c>
       <c r="F506" t="n">
         <v>47184000</v>
@@ -13737,16 +13737,16 @@
         <v>45727</v>
       </c>
       <c r="B512" t="n">
-        <v>222.8387810842511</v>
+        <v>222.8387656202518</v>
       </c>
       <c r="C512" t="n">
-        <v>224.8599707474278</v>
+        <v>224.8599551431671</v>
       </c>
       <c r="D512" t="n">
-        <v>216.5063794973434</v>
+        <v>216.506364472784</v>
       </c>
       <c r="E512" t="n">
-        <v>219.8816680908203</v>
+        <v>219.8816528320312</v>
       </c>
       <c r="F512" t="n">
         <v>76137400</v>
@@ -13841,16 +13841,16 @@
         <v>45733</v>
       </c>
       <c r="B516" t="n">
-        <v>212.3843267022667</v>
+        <v>212.3843419118567</v>
       </c>
       <c r="C516" t="n">
-        <v>214.2860417949432</v>
+        <v>214.2860571407217</v>
       </c>
       <c r="D516" t="n">
-        <v>209.0588244682887</v>
+        <v>209.0588394397278</v>
       </c>
       <c r="E516" t="n">
-        <v>213.0713348388672</v>
+        <v>213.0713500976562</v>
       </c>
       <c r="F516" t="n">
         <v>48073400</v>
@@ -13867,16 +13867,16 @@
         <v>45734</v>
       </c>
       <c r="B517" t="n">
-        <v>213.2306355576545</v>
+        <v>213.230666286154</v>
       </c>
       <c r="C517" t="n">
-        <v>214.2163296334013</v>
+        <v>214.2163605039484</v>
       </c>
       <c r="D517" t="n">
-        <v>210.5722241046913</v>
+        <v>210.5722544500893</v>
       </c>
       <c r="E517" t="n">
-        <v>211.7670135498047</v>
+        <v>211.7670440673828</v>
       </c>
       <c r="F517" t="n">
         <v>42432400</v>
@@ -13893,16 +13893,16 @@
         <v>45735</v>
       </c>
       <c r="B518" t="n">
-        <v>213.2903912850282</v>
+        <v>213.2903760985492</v>
       </c>
       <c r="C518" t="n">
-        <v>217.8106832228152</v>
+        <v>217.8106677144872</v>
       </c>
       <c r="D518" t="n">
-        <v>212.8224296395377</v>
+        <v>212.8224144863781</v>
       </c>
       <c r="E518" t="n">
-        <v>214.3059692382812</v>
+        <v>214.3059539794922</v>
       </c>
       <c r="F518" t="n">
         <v>54385400</v>
@@ -13919,16 +13919,16 @@
         <v>45736</v>
       </c>
       <c r="B519" t="n">
-        <v>213.0613904363763</v>
+        <v>213.0614056873257</v>
       </c>
       <c r="C519" t="n">
-        <v>216.5462020975973</v>
+        <v>216.5462175979897</v>
       </c>
       <c r="D519" t="n">
-        <v>211.2990671423527</v>
+        <v>211.2990822671548</v>
       </c>
       <c r="E519" t="n">
-        <v>213.1709136962891</v>
+        <v>213.1709289550781</v>
       </c>
       <c r="F519" t="n">
         <v>48862900</v>
@@ -13997,16 +13997,16 @@
         <v>45741</v>
       </c>
       <c r="B522" t="n">
-        <v>219.8119583759415</v>
+        <v>219.8119884870738</v>
       </c>
       <c r="C522" t="n">
-        <v>223.1275094458969</v>
+        <v>223.1275400112128</v>
       </c>
       <c r="D522" t="n">
-        <v>219.1249502453329</v>
+        <v>219.1249802623548</v>
       </c>
       <c r="E522" t="n">
-        <v>222.7790222167969</v>
+        <v>222.779052734375</v>
       </c>
       <c r="F522" t="n">
         <v>34493600</v>
@@ -14023,16 +14023,16 @@
         <v>45742</v>
       </c>
       <c r="B523" t="n">
-        <v>222.5400834391391</v>
+        <v>222.5400680439697</v>
       </c>
       <c r="C523" t="n">
-        <v>224.0435405886843</v>
+        <v>224.0435250895067</v>
       </c>
       <c r="D523" t="n">
-        <v>219.5132820603322</v>
+        <v>219.5132668745548</v>
       </c>
       <c r="E523" t="n">
-        <v>220.5686798095703</v>
+        <v>220.5686645507812</v>
       </c>
       <c r="F523" t="n">
         <v>34466100</v>
@@ -14049,16 +14049,16 @@
         <v>45743</v>
       </c>
       <c r="B524" t="n">
-        <v>220.4292847377114</v>
+        <v>220.4292696466093</v>
       </c>
       <c r="C524" t="n">
-        <v>224.0136687326393</v>
+        <v>224.0136533961419</v>
       </c>
       <c r="D524" t="n">
-        <v>219.6028846724205</v>
+        <v>219.6028696378956</v>
       </c>
       <c r="E524" t="n">
-        <v>222.8786163330078</v>
+        <v>222.8786010742188</v>
       </c>
       <c r="F524" t="n">
         <v>37094800</v>
@@ -14127,16 +14127,16 @@
         <v>45748</v>
       </c>
       <c r="B527" t="n">
-        <v>218.8561287637342</v>
+        <v>218.8561437914431</v>
       </c>
       <c r="C527" t="n">
-        <v>222.7093299788266</v>
+        <v>222.7093452711147</v>
       </c>
       <c r="D527" t="n">
-        <v>217.9500740762217</v>
+        <v>217.9500890417166</v>
       </c>
       <c r="E527" t="n">
-        <v>222.2214660644531</v>
+        <v>222.2214813232422</v>
       </c>
       <c r="F527" t="n">
         <v>36412700</v>
@@ -14153,16 +14153,16 @@
         <v>45749</v>
       </c>
       <c r="B528" t="n">
-        <v>220.3595718706985</v>
+        <v>220.3596020379709</v>
       </c>
       <c r="C528" t="n">
-        <v>224.212772841887</v>
+        <v>224.2128035366635</v>
       </c>
       <c r="D528" t="n">
-        <v>220.0608707056094</v>
+        <v>220.0609008319897</v>
       </c>
       <c r="E528" t="n">
-        <v>222.9184112548828</v>
+        <v>222.9184417724609</v>
       </c>
       <c r="F528" t="n">
         <v>35905900</v>
@@ -14179,16 +14179,16 @@
         <v>45750</v>
       </c>
       <c r="B529" t="n">
-        <v>204.6480511002614</v>
+        <v>204.648035664997</v>
       </c>
       <c r="C529" t="n">
-        <v>206.5896012161803</v>
+        <v>206.5895856344775</v>
       </c>
       <c r="D529" t="n">
-        <v>200.3766742689013</v>
+        <v>200.376659155799</v>
       </c>
       <c r="E529" t="n">
-        <v>202.3082580566406</v>
+        <v>202.3082427978516</v>
       </c>
       <c r="F529" t="n">
         <v>103419000</v>
@@ -14257,16 +14257,16 @@
         <v>45755</v>
       </c>
       <c r="B532" t="n">
-        <v>185.8898308484753</v>
+        <v>185.8897978034004</v>
       </c>
       <c r="C532" t="n">
-        <v>189.514034822179</v>
+        <v>189.5140011328404</v>
       </c>
       <c r="D532" t="n">
-        <v>168.4757366901836</v>
+        <v>168.4757067407598</v>
       </c>
       <c r="E532" t="n">
-        <v>171.6717987060547</v>
+        <v>171.6717681884766</v>
       </c>
       <c r="F532" t="n">
         <v>120859500</v>
@@ -14309,16 +14309,16 @@
         <v>45757</v>
       </c>
       <c r="B534" t="n">
-        <v>188.2495562750966</v>
+        <v>188.2495411244854</v>
       </c>
       <c r="C534" t="n">
-        <v>193.9347697733422</v>
+        <v>193.9347541651764</v>
       </c>
       <c r="D534" t="n">
-        <v>182.2058891618283</v>
+        <v>182.2058744976207</v>
       </c>
       <c r="E534" t="n">
-        <v>189.5936889648438</v>
+        <v>189.5936737060547</v>
       </c>
       <c r="F534" t="n">
         <v>121880000</v>
@@ -14361,16 +14361,16 @@
         <v>45761</v>
       </c>
       <c r="B536" t="n">
-        <v>210.5224325383335</v>
+        <v>210.522464400059</v>
       </c>
       <c r="C536" t="n">
-        <v>212.0159231037955</v>
+        <v>212.0159551915548</v>
       </c>
       <c r="D536" t="n">
-        <v>200.2870450784397</v>
+        <v>200.2870753910804</v>
       </c>
       <c r="E536" t="n">
-        <v>201.6411437988281</v>
+        <v>201.6411743164062</v>
       </c>
       <c r="F536" t="n">
         <v>101352900</v>
@@ -14387,16 +14387,16 @@
         <v>45762</v>
       </c>
       <c r="B537" t="n">
-        <v>200.9840336519567</v>
+        <v>200.9840184143037</v>
       </c>
       <c r="C537" t="n">
-        <v>202.6268674368266</v>
+        <v>202.6268520746217</v>
       </c>
       <c r="D537" t="n">
-        <v>198.9329754067001</v>
+        <v>198.9329603245486</v>
       </c>
       <c r="E537" t="n">
-        <v>201.2628173828125</v>
+        <v>201.2628021240234</v>
       </c>
       <c r="F537" t="n">
         <v>51343900</v>
@@ -14439,16 +14439,16 @@
         <v>45764</v>
       </c>
       <c r="B539" t="n">
-        <v>196.3442601625108</v>
+        <v>196.3442448866796</v>
       </c>
       <c r="C539" t="n">
-        <v>197.9671917432912</v>
+        <v>197.9671763411939</v>
       </c>
       <c r="D539" t="n">
-        <v>193.5763250102755</v>
+        <v>193.5763099497932</v>
       </c>
       <c r="E539" t="n">
-        <v>196.1252136230469</v>
+        <v>196.1251983642578</v>
       </c>
       <c r="F539" t="n">
         <v>52164700</v>
@@ -14465,16 +14465,16 @@
         <v>45768</v>
       </c>
       <c r="B540" t="n">
-        <v>192.431315869101</v>
+        <v>192.4313006016224</v>
       </c>
       <c r="C540" t="n">
-        <v>192.9590147372882</v>
+        <v>192.958999427942</v>
       </c>
       <c r="D540" t="n">
-        <v>188.9863237329868</v>
+        <v>188.9863087388334</v>
       </c>
       <c r="E540" t="n">
-        <v>192.3217926025391</v>
+        <v>192.32177734375</v>
       </c>
       <c r="F540" t="n">
         <v>46742500</v>
@@ -14491,16 +14491,16 @@
         <v>45769</v>
       </c>
       <c r="B541" t="n">
-        <v>195.2689287076428</v>
+        <v>195.2689436898875</v>
       </c>
       <c r="C541" t="n">
-        <v>200.7151927551101</v>
+        <v>200.715208155226</v>
       </c>
       <c r="D541" t="n">
-        <v>195.1195857124949</v>
+        <v>195.1196006832811</v>
       </c>
       <c r="E541" t="n">
-        <v>198.8732299804688</v>
+        <v>198.8732452392578</v>
       </c>
       <c r="F541" t="n">
         <v>52976400</v>
@@ -14517,16 +14517,16 @@
         <v>45770</v>
       </c>
       <c r="B542" t="n">
-        <v>205.1060461943045</v>
+        <v>205.1060615575032</v>
       </c>
       <c r="C542" t="n">
-        <v>207.0973670311424</v>
+        <v>207.0973825434984</v>
       </c>
       <c r="D542" t="n">
-        <v>201.9199358938783</v>
+        <v>201.9199510184256</v>
       </c>
       <c r="E542" t="n">
-        <v>203.7121276855469</v>
+        <v>203.7121429443359</v>
       </c>
       <c r="F542" t="n">
         <v>52929200</v>
@@ -14543,16 +14543,16 @@
         <v>45771</v>
       </c>
       <c r="B543" t="n">
-        <v>204.0008652291879</v>
+        <v>204.0008802331393</v>
       </c>
       <c r="C543" t="n">
-        <v>207.923769760626</v>
+        <v>207.923785053101</v>
       </c>
       <c r="D543" t="n">
-        <v>202.0593304260218</v>
+        <v>202.0593452871763</v>
       </c>
       <c r="E543" t="n">
-        <v>207.4657592773438</v>
+        <v>207.4657745361328</v>
       </c>
       <c r="F543" t="n">
         <v>47311000</v>
@@ -14595,16 +14595,16 @@
         <v>45775</v>
       </c>
       <c r="B545" t="n">
-        <v>209.088696522261</v>
+        <v>209.0887117708843</v>
       </c>
       <c r="C545" t="n">
-        <v>210.5821872117057</v>
+        <v>210.5822025692478</v>
       </c>
       <c r="D545" t="n">
-        <v>206.5597256395334</v>
+        <v>206.5597407037215</v>
       </c>
       <c r="E545" t="n">
-        <v>209.2280883789062</v>
+        <v>209.2281036376953</v>
       </c>
       <c r="F545" t="n">
         <v>38743100</v>
@@ -14647,16 +14647,16 @@
         <v>45777</v>
       </c>
       <c r="B547" t="n">
-        <v>208.3917248402722</v>
+        <v>208.3917398692821</v>
       </c>
       <c r="C547" t="n">
-        <v>212.6531501385383</v>
+        <v>212.6531654748781</v>
       </c>
       <c r="D547" t="n">
-        <v>205.7731331256218</v>
+        <v>205.7731479657814</v>
       </c>
       <c r="E547" t="n">
-        <v>211.5778350830078</v>
+        <v>211.5778503417969</v>
       </c>
       <c r="F547" t="n">
         <v>52286500</v>
@@ -14673,16 +14673,16 @@
         <v>45778</v>
       </c>
       <c r="B548" t="n">
-        <v>208.1727113896798</v>
+        <v>208.1726964341785</v>
       </c>
       <c r="C548" t="n">
-        <v>213.6289269962182</v>
+        <v>213.6289116487325</v>
       </c>
       <c r="D548" t="n">
-        <v>207.9934845890151</v>
+        <v>207.9934696463897</v>
       </c>
       <c r="E548" t="n">
-        <v>212.3943176269531</v>
+        <v>212.3943023681641</v>
       </c>
       <c r="F548" t="n">
         <v>57365700</v>
@@ -14751,16 +14751,16 @@
         <v>45783</v>
       </c>
       <c r="B551" t="n">
-        <v>197.3498735756035</v>
+        <v>197.3498888113335</v>
       </c>
       <c r="C551" t="n">
-        <v>199.7792724238197</v>
+        <v>199.7792878471033</v>
       </c>
       <c r="D551" t="n">
-        <v>196.1650351546796</v>
+        <v>196.1650502989381</v>
       </c>
       <c r="E551" t="n">
-        <v>197.6485595703125</v>
+        <v>197.6485748291016</v>
       </c>
       <c r="F551" t="n">
         <v>51216500</v>
@@ -14907,16 +14907,16 @@
         <v>45791</v>
       </c>
       <c r="B557" t="n">
-        <v>211.7854937533547</v>
+        <v>211.7855090193295</v>
       </c>
       <c r="C557" t="n">
-        <v>213.2909222465589</v>
+        <v>213.2909376210483</v>
       </c>
       <c r="D557" t="n">
-        <v>209.9411156617564</v>
+        <v>209.9411307947842</v>
       </c>
       <c r="E557" t="n">
-        <v>211.6858062744141</v>
+        <v>211.6858215332031</v>
       </c>
       <c r="F557" t="n">
         <v>49325800</v>
@@ -14933,16 +14933,16 @@
         <v>45792</v>
       </c>
       <c r="B558" t="n">
-        <v>210.310003869238</v>
+        <v>210.3100190919458</v>
       </c>
       <c r="C558" t="n">
-        <v>212.3139155435744</v>
+        <v>212.3139309113297</v>
       </c>
       <c r="D558" t="n">
-        <v>208.9042779629863</v>
+        <v>208.9042930839445</v>
       </c>
       <c r="E558" t="n">
-        <v>210.8084869384766</v>
+        <v>210.8085021972656</v>
       </c>
       <c r="F558" t="n">
         <v>45029500</v>
@@ -15037,16 +15037,16 @@
         <v>45798</v>
       </c>
       <c r="B562" t="n">
-        <v>204.547555952753</v>
+        <v>204.5475404614086</v>
       </c>
       <c r="C562" t="n">
-        <v>206.4118779017609</v>
+        <v>206.4118622692227</v>
       </c>
       <c r="D562" t="n">
-        <v>200.101095164879</v>
+        <v>200.1010800102859</v>
       </c>
       <c r="E562" t="n">
-        <v>201.4768981933594</v>
+        <v>201.4768829345703</v>
       </c>
       <c r="F562" t="n">
         <v>59211800</v>
@@ -15063,16 +15063,16 @@
         <v>45799</v>
       </c>
       <c r="B563" t="n">
-        <v>200.1010930441042</v>
+        <v>200.1010626250374</v>
       </c>
       <c r="C563" t="n">
-        <v>202.1348974021487</v>
+        <v>202.1348666739061</v>
       </c>
       <c r="D563" t="n">
-        <v>199.0941474443519</v>
+        <v>199.0941171783595</v>
       </c>
       <c r="E563" t="n">
-        <v>200.7491149902344</v>
+        <v>200.7490844726562</v>
       </c>
       <c r="F563" t="n">
         <v>46742400</v>
@@ -15089,16 +15089,16 @@
         <v>45800</v>
       </c>
       <c r="B564" t="n">
-        <v>193.0824298832746</v>
+        <v>193.082445017036</v>
       </c>
       <c r="C564" t="n">
-        <v>197.100202197469</v>
+        <v>197.1002176461426</v>
       </c>
       <c r="D564" t="n">
-        <v>192.8730755135501</v>
+        <v>192.8730906309023</v>
       </c>
       <c r="E564" t="n">
-        <v>194.6775817871094</v>
+        <v>194.6775970458984</v>
       </c>
       <c r="F564" t="n">
         <v>78432900</v>
@@ -15167,16 +15167,16 @@
         <v>45806</v>
       </c>
       <c r="B567" t="n">
-        <v>202.962360339053</v>
+        <v>202.9623758748587</v>
       </c>
       <c r="C567" t="n">
-        <v>203.1916582824137</v>
+        <v>203.1916738357711</v>
       </c>
       <c r="D567" t="n">
-        <v>197.9077349131544</v>
+        <v>197.9077500620525</v>
       </c>
       <c r="E567" t="n">
-        <v>199.3433685302734</v>
+        <v>199.3433837890625</v>
       </c>
       <c r="F567" t="n">
         <v>51396800</v>
@@ -15245,16 +15245,16 @@
         <v>45811</v>
       </c>
       <c r="B570" t="n">
-        <v>200.7391470663129</v>
+        <v>200.7391319516516</v>
       </c>
       <c r="C570" t="n">
-        <v>203.1518034040851</v>
+        <v>203.1517881077627</v>
       </c>
       <c r="D570" t="n">
-        <v>200.3503308633764</v>
+        <v>200.350315777991</v>
       </c>
       <c r="E570" t="n">
-        <v>202.6533203125</v>
+        <v>202.6533050537109</v>
       </c>
       <c r="F570" t="n">
         <v>46381600</v>
@@ -15297,16 +15297,16 @@
         <v>45813</v>
       </c>
       <c r="B572" t="n">
-        <v>202.8826044104843</v>
+        <v>202.882619887549</v>
       </c>
       <c r="C572" t="n">
-        <v>204.1288120542833</v>
+        <v>204.128827626416</v>
       </c>
       <c r="D572" t="n">
-        <v>199.5427618401046</v>
+        <v>199.5427770623867</v>
       </c>
       <c r="E572" t="n">
-        <v>200.0213165283203</v>
+        <v>200.0213317871094</v>
       </c>
       <c r="F572" t="n">
         <v>55126100</v>
@@ -15323,16 +15323,16 @@
         <v>45814</v>
       </c>
       <c r="B573" t="n">
-        <v>202.3841387460331</v>
+        <v>202.3841235560851</v>
       </c>
       <c r="C573" t="n">
-        <v>205.075944445476</v>
+        <v>205.0759290534944</v>
       </c>
       <c r="D573" t="n">
-        <v>201.4370238978491</v>
+        <v>201.4370087789868</v>
       </c>
       <c r="E573" t="n">
-        <v>203.3013458251953</v>
+        <v>203.3013305664062</v>
       </c>
       <c r="F573" t="n">
         <v>46607700</v>
@@ -15349,16 +15349,16 @@
         <v>45817</v>
       </c>
       <c r="B574" t="n">
-        <v>203.7699042317972</v>
+        <v>203.7699197132762</v>
       </c>
       <c r="C574" t="n">
-        <v>205.3750202901374</v>
+        <v>205.3750358935656</v>
       </c>
       <c r="D574" t="n">
-        <v>199.4131671645147</v>
+        <v>199.4131823149893</v>
       </c>
       <c r="E574" t="n">
-        <v>200.8388214111328</v>
+        <v>200.8388366699219</v>
       </c>
       <c r="F574" t="n">
         <v>72862600</v>
@@ -15375,16 +15375,16 @@
         <v>45818</v>
       </c>
       <c r="B575" t="n">
-        <v>199.99141796231</v>
+        <v>199.9914028593682</v>
       </c>
       <c r="C575" t="n">
-        <v>203.7300410656994</v>
+        <v>203.7300256804245</v>
       </c>
       <c r="D575" t="n">
-        <v>199.9615101944825</v>
+        <v>199.9614950937994</v>
       </c>
       <c r="E575" t="n">
-        <v>202.0551300048828</v>
+        <v>202.0551147460938</v>
       </c>
       <c r="F575" t="n">
         <v>54672600</v>
@@ -15453,16 +15453,16 @@
         <v>45821</v>
       </c>
       <c r="B578" t="n">
-        <v>199.1240362609173</v>
+        <v>199.1240517744725</v>
       </c>
       <c r="C578" t="n">
-        <v>199.7620939607991</v>
+        <v>199.7621095240647</v>
       </c>
       <c r="D578" t="n">
-        <v>195.1062640673262</v>
+        <v>195.1062792678608</v>
       </c>
       <c r="E578" t="n">
-        <v>195.8539886474609</v>
+        <v>195.85400390625</v>
       </c>
       <c r="F578" t="n">
         <v>51447300</v>
@@ -15505,16 +15505,16 @@
         <v>45825</v>
       </c>
       <c r="B580" t="n">
-        <v>196.6017278208195</v>
+        <v>196.6017124403596</v>
       </c>
       <c r="C580" t="n">
-        <v>197.7881200100286</v>
+        <v>197.7881045367554</v>
       </c>
       <c r="D580" t="n">
-        <v>194.6177748569289</v>
+        <v>194.6177596316767</v>
       </c>
       <c r="E580" t="n">
-        <v>195.0464630126953</v>
+        <v>195.0464477539062</v>
       </c>
       <c r="F580" t="n">
         <v>38856200</v>
@@ -15557,16 +15557,16 @@
         <v>45828</v>
       </c>
       <c r="B582" t="n">
-        <v>197.638591683647</v>
+        <v>197.6385615851153</v>
       </c>
       <c r="C582" t="n">
-        <v>201.0880863339216</v>
+        <v>201.0880557100638</v>
       </c>
       <c r="D582" t="n">
-        <v>196.262773412874</v>
+        <v>196.2627435238668</v>
       </c>
       <c r="E582" t="n">
-        <v>200.3902130126953</v>
+        <v>200.3901824951172</v>
       </c>
       <c r="F582" t="n">
         <v>96813500</v>
@@ -15583,16 +15583,16 @@
         <v>45831</v>
       </c>
       <c r="B583" t="n">
-        <v>201.0182823377567</v>
+        <v>201.0182976063905</v>
       </c>
       <c r="C583" t="n">
-        <v>201.686247808318</v>
+        <v>201.6862631276881</v>
       </c>
       <c r="D583" t="n">
-        <v>198.3563846401482</v>
+        <v>198.3563997065937</v>
       </c>
       <c r="E583" t="n">
-        <v>200.888671875</v>
+        <v>200.8886871337891</v>
       </c>
       <c r="F583" t="n">
         <v>55814300</v>
@@ -15609,16 +15609,16 @@
         <v>45832</v>
       </c>
       <c r="B584" t="n">
-        <v>201.9753521214132</v>
+        <v>201.9753675546532</v>
       </c>
       <c r="C584" t="n">
-        <v>202.8227793644474</v>
+        <v>202.8227948624406</v>
       </c>
       <c r="D584" t="n">
-        <v>199.5926038267289</v>
+        <v>199.5926190778996</v>
       </c>
       <c r="E584" t="n">
-        <v>199.6923065185547</v>
+        <v>199.6923217773438</v>
       </c>
       <c r="F584" t="n">
         <v>54064000</v>
@@ -15635,16 +15635,16 @@
         <v>45833</v>
       </c>
       <c r="B585" t="n">
-        <v>200.8388194477268</v>
+        <v>200.8388346981885</v>
       </c>
       <c r="C585" t="n">
-        <v>203.052085424857</v>
+        <v>203.0521008433804</v>
       </c>
       <c r="D585" t="n">
-        <v>200.0113357524488</v>
+        <v>200.0113509400764</v>
       </c>
       <c r="E585" t="n">
-        <v>200.948486328125</v>
+        <v>200.9485015869141</v>
       </c>
       <c r="F585" t="n">
         <v>39525700</v>
@@ -15661,16 +15661,16 @@
         <v>45834</v>
       </c>
       <c r="B586" t="n">
-        <v>200.818901191271</v>
+        <v>200.8188706084076</v>
       </c>
       <c r="C586" t="n">
-        <v>202.0252370277816</v>
+        <v>202.0252062612044</v>
       </c>
       <c r="D586" t="n">
-        <v>198.8548917059974</v>
+        <v>198.8548614222345</v>
       </c>
       <c r="E586" t="n">
-        <v>200.3902130126953</v>
+        <v>200.3901824951172</v>
       </c>
       <c r="F586" t="n">
         <v>50799100</v>
@@ -15687,16 +15687,16 @@
         <v>45835</v>
       </c>
       <c r="B587" t="n">
-        <v>201.2775109128039</v>
+        <v>201.2774955925489</v>
       </c>
       <c r="C587" t="n">
-        <v>202.6034778198992</v>
+        <v>202.6034623987181</v>
       </c>
       <c r="D587" t="n">
-        <v>199.3932453527206</v>
+        <v>199.3932301758866</v>
       </c>
       <c r="E587" t="n">
-        <v>200.469970703125</v>
+        <v>200.4699554443359</v>
       </c>
       <c r="F587" t="n">
         <v>73188600</v>
@@ -15713,16 +15713,16 @@
         <v>45838</v>
       </c>
       <c r="B588" t="n">
-        <v>201.3971146284011</v>
+        <v>201.3971296521761</v>
       </c>
       <c r="C588" t="n">
-        <v>206.7607970676305</v>
+        <v>206.7608124915243</v>
       </c>
       <c r="D588" t="n">
-        <v>198.6554578773073</v>
+        <v>198.6554726965608</v>
       </c>
       <c r="E588" t="n">
-        <v>204.5475311279297</v>
+        <v>204.5475463867188</v>
       </c>
       <c r="F588" t="n">
         <v>91912800</v>
@@ -15843,16 +15843,16 @@
         <v>45846</v>
       </c>
       <c r="B593" t="n">
-        <v>209.4625870226643</v>
+        <v>209.4626022879934</v>
       </c>
       <c r="C593" t="n">
-        <v>210.7885385697334</v>
+        <v>210.7885539316959</v>
       </c>
       <c r="D593" t="n">
-        <v>207.8175838040334</v>
+        <v>207.8175989494771</v>
       </c>
       <c r="E593" t="n">
-        <v>209.3728485107422</v>
+        <v>209.3728637695312</v>
       </c>
       <c r="F593" t="n">
         <v>42848900</v>
@@ -15973,16 +15973,16 @@
         <v>45853</v>
       </c>
       <c r="B598" t="n">
-        <v>208.5852528191871</v>
+        <v>208.5852680860029</v>
       </c>
       <c r="C598" t="n">
-        <v>211.2471505337786</v>
+        <v>211.2471659954246</v>
       </c>
       <c r="D598" t="n">
-        <v>208.2861599407227</v>
+        <v>208.2861751856472</v>
       </c>
       <c r="E598" t="n">
-        <v>208.4755859375</v>
+        <v>208.4756011962891</v>
       </c>
       <c r="F598" t="n">
         <v>42296300</v>
@@ -15999,16 +15999,16 @@
         <v>45854</v>
       </c>
       <c r="B599" t="n">
-        <v>209.6619745482938</v>
+        <v>209.6619898172476</v>
       </c>
       <c r="C599" t="n">
-        <v>211.7555942375448</v>
+        <v>211.7556096589697</v>
       </c>
       <c r="D599" t="n">
-        <v>208.0070071659605</v>
+        <v>208.0070223143888</v>
       </c>
       <c r="E599" t="n">
-        <v>209.5223999023438</v>
+        <v>209.5224151611328</v>
       </c>
       <c r="F599" t="n">
         <v>47490500</v>
@@ -16025,16 +16025,16 @@
         <v>45855</v>
       </c>
       <c r="B600" t="n">
-        <v>209.9311774633578</v>
+        <v>209.9311621646089</v>
       </c>
       <c r="C600" t="n">
-        <v>211.1574416148312</v>
+        <v>211.1574262267181</v>
       </c>
       <c r="D600" t="n">
-        <v>208.9541396463333</v>
+        <v>208.9541244187861</v>
       </c>
       <c r="E600" t="n">
-        <v>209.3828430175781</v>
+        <v>209.3828277587891</v>
       </c>
       <c r="F600" t="n">
         <v>48068100</v>
@@ -16129,16 +16129,16 @@
         <v>45861</v>
       </c>
       <c r="B604" t="n">
-        <v>214.3477172095632</v>
+        <v>214.3477325289176</v>
       </c>
       <c r="C604" t="n">
-        <v>214.4972560435483</v>
+        <v>214.4972713735902</v>
       </c>
       <c r="D604" t="n">
-        <v>211.7655785927819</v>
+        <v>211.7655937275917</v>
       </c>
       <c r="E604" t="n">
-        <v>213.5002899169922</v>
+        <v>213.5003051757812</v>
       </c>
       <c r="F604" t="n">
         <v>46989300</v>
@@ -16155,16 +16155,16 @@
         <v>45862</v>
       </c>
       <c r="B605" t="n">
-        <v>213.251055366678</v>
+        <v>213.2510400978954</v>
       </c>
       <c r="C605" t="n">
-        <v>215.0356333106338</v>
+        <v>215.0356179140754</v>
       </c>
       <c r="D605" t="n">
-        <v>212.8821827557749</v>
+        <v>212.8821675134036</v>
       </c>
       <c r="E605" t="n">
-        <v>213.1114807128906</v>
+        <v>213.1114654541016</v>
       </c>
       <c r="F605" t="n">
         <v>46022600</v>
@@ -16207,16 +16207,16 @@
         <v>45866</v>
       </c>
       <c r="B607" t="n">
-        <v>213.3806606658472</v>
+        <v>213.3806759232102</v>
       </c>
       <c r="C607" t="n">
-        <v>214.198180198579</v>
+        <v>214.1981955143971</v>
       </c>
       <c r="D607" t="n">
-        <v>212.4136022978576</v>
+        <v>212.4136174860731</v>
       </c>
       <c r="E607" t="n">
-        <v>213.4006042480469</v>
+        <v>213.4006195068359</v>
       </c>
       <c r="F607" t="n">
         <v>37858000</v>
@@ -16233,16 +16233,16 @@
         <v>45867</v>
       </c>
       <c r="B608" t="n">
-        <v>213.5301880562885</v>
+        <v>213.5302035252489</v>
       </c>
       <c r="C608" t="n">
-        <v>214.1582815556984</v>
+        <v>214.1582970701604</v>
       </c>
       <c r="D608" t="n">
-        <v>210.180396626089</v>
+        <v>210.1804118523774</v>
       </c>
       <c r="E608" t="n">
-        <v>210.6290283203125</v>
+        <v>210.6290435791016</v>
       </c>
       <c r="F608" t="n">
         <v>51411700</v>
@@ -16285,16 +16285,16 @@
         <v>45869</v>
       </c>
       <c r="B610" t="n">
-        <v>207.8574688324703</v>
+        <v>207.8574841588899</v>
       </c>
       <c r="C610" t="n">
-        <v>209.2033639475293</v>
+        <v>209.2033793731887</v>
       </c>
       <c r="D610" t="n">
-        <v>206.5315020865265</v>
+        <v>206.5315173151756</v>
       </c>
       <c r="E610" t="n">
-        <v>206.9402618408203</v>
+        <v>206.9402770996094</v>
       </c>
       <c r="F610" t="n">
         <v>80698400</v>
@@ -16311,16 +16311,16 @@
         <v>45870</v>
       </c>
       <c r="B611" t="n">
-        <v>210.2302390185336</v>
+        <v>210.2302549174401</v>
       </c>
       <c r="C611" t="n">
-        <v>212.9320238736122</v>
+        <v>212.9320399768444</v>
       </c>
       <c r="D611" t="n">
-        <v>200.8886714237977</v>
+        <v>200.8886866162373</v>
       </c>
       <c r="E611" t="n">
-        <v>201.7660064697266</v>
+        <v>201.7660217285156</v>
       </c>
       <c r="F611" t="n">
         <v>104434500</v>
@@ -16389,16 +16389,16 @@
         <v>45875</v>
       </c>
       <c r="B614" t="n">
-        <v>205.0061502968161</v>
+        <v>205.0061650103677</v>
       </c>
       <c r="C614" t="n">
-        <v>214.7265700698598</v>
+        <v>214.7265854810582</v>
       </c>
       <c r="D614" t="n">
-        <v>204.9662631325957</v>
+        <v>204.9662778432845</v>
       </c>
       <c r="E614" t="n">
-        <v>212.60302734375</v>
+        <v>212.6030426025391</v>
       </c>
       <c r="F614" t="n">
         <v>108483100</v>
@@ -16467,16 +16467,16 @@
         <v>45880</v>
       </c>
       <c r="B617" t="n">
-        <v>227.4864157407103</v>
+        <v>227.486400432218</v>
       </c>
       <c r="C617" t="n">
-        <v>229.1232952860126</v>
+        <v>229.1232798673679</v>
       </c>
       <c r="D617" t="n">
-        <v>224.3324234952035</v>
+        <v>224.3324083989562</v>
       </c>
       <c r="E617" t="n">
-        <v>226.7478179931641</v>
+        <v>226.747802734375</v>
       </c>
       <c r="F617" t="n">
         <v>61806100</v>
@@ -16545,16 +16545,16 @@
         <v>45883</v>
       </c>
       <c r="B620" t="n">
-        <v>233.6147372559516</v>
+        <v>233.6147219132583</v>
       </c>
       <c r="C620" t="n">
-        <v>234.6727183450988</v>
+        <v>234.6727029329224</v>
       </c>
       <c r="D620" t="n">
-        <v>230.4108522769124</v>
+        <v>230.4108371446349</v>
       </c>
       <c r="E620" t="n">
-        <v>232.3371734619141</v>
+        <v>232.337158203125</v>
       </c>
       <c r="F620" t="n">
         <v>51916300</v>
@@ -16597,16 +16597,16 @@
         <v>45887</v>
       </c>
       <c r="B622" t="n">
-        <v>231.2592012143754</v>
+        <v>231.2592165266946</v>
       </c>
       <c r="C622" t="n">
-        <v>232.6764979196037</v>
+        <v>232.6765133257662</v>
       </c>
       <c r="D622" t="n">
-        <v>229.6722297518056</v>
+        <v>229.672244959047</v>
       </c>
       <c r="E622" t="n">
-        <v>230.4507446289062</v>
+        <v>230.4507598876953</v>
       </c>
       <c r="F622" t="n">
         <v>37476200</v>
@@ -16675,16 +16675,16 @@
         <v>45890</v>
       </c>
       <c r="B625" t="n">
-        <v>225.8395414786139</v>
+        <v>225.8395568303541</v>
       </c>
       <c r="C625" t="n">
-        <v>226.0890658711696</v>
+        <v>226.0890812398715</v>
       </c>
       <c r="D625" t="n">
-        <v>223.3542730460458</v>
+        <v>223.3542882288465</v>
       </c>
       <c r="E625" t="n">
-        <v>224.4721374511719</v>
+        <v>224.4721527099609</v>
       </c>
       <c r="F625" t="n">
         <v>30621200</v>
@@ -16727,16 +16727,16 @@
         <v>45894</v>
       </c>
       <c r="B627" t="n">
-        <v>226.0491451945495</v>
+        <v>226.0491299814379</v>
       </c>
       <c r="C627" t="n">
-        <v>228.8637877992275</v>
+        <v>228.8637723966904</v>
       </c>
       <c r="D627" t="n">
-        <v>225.7996207890183</v>
+        <v>225.7996055926997</v>
       </c>
       <c r="E627" t="n">
-        <v>226.7278594970703</v>
+        <v>226.7278442382812</v>
       </c>
       <c r="F627" t="n">
         <v>30983100</v>
@@ -16909,16 +16909,16 @@
         <v>45904</v>
       </c>
       <c r="B634" t="n">
-        <v>237.9963808412042</v>
+        <v>237.996365667052</v>
       </c>
       <c r="C634" t="n">
-        <v>239.4436193831587</v>
+        <v>239.4436041167336</v>
       </c>
       <c r="D634" t="n">
-        <v>236.2896423937874</v>
+        <v>236.2896273284533</v>
       </c>
       <c r="E634" t="n">
-        <v>239.3238525390625</v>
+        <v>239.3238372802734</v>
       </c>
       <c r="F634" t="n">
         <v>47549400</v>
@@ -17065,16 +17065,16 @@
         <v>45912</v>
       </c>
       <c r="B640" t="n">
-        <v>228.7839456246826</v>
+        <v>228.7839306820605</v>
       </c>
       <c r="C640" t="n">
-        <v>234.0638755168574</v>
+        <v>234.063860229386</v>
       </c>
       <c r="D640" t="n">
-        <v>228.5843291396984</v>
+        <v>228.584314210114</v>
       </c>
       <c r="E640" t="n">
-        <v>233.6247253417969</v>
+        <v>233.6247100830078</v>
       </c>
       <c r="F640" t="n">
         <v>55824200</v>
@@ -17481,16 +17481,16 @@
         <v>45936</v>
       </c>
       <c r="B656" t="n">
-        <v>257.4992054474702</v>
+        <v>257.499174775338</v>
       </c>
       <c r="C656" t="n">
-        <v>258.5771679771474</v>
+        <v>258.5771371766132</v>
       </c>
       <c r="D656" t="n">
-        <v>254.5648111213107</v>
+        <v>254.5647807987102</v>
       </c>
       <c r="E656" t="n">
-        <v>256.2016906738281</v>
+        <v>256.20166015625</v>
       </c>
       <c r="F656" t="n">
         <v>44664100</v>
@@ -17507,16 +17507,16 @@
         <v>45937</v>
       </c>
       <c r="B657" t="n">
-        <v>256.3214394907812</v>
+        <v>256.3214547692021</v>
       </c>
       <c r="C657" t="n">
-        <v>256.9103134133703</v>
+        <v>256.9103287268919</v>
       </c>
       <c r="D657" t="n">
-        <v>254.9440599439195</v>
+        <v>254.9440751402397</v>
       </c>
       <c r="E657" t="n">
-        <v>255.9920806884766</v>
+        <v>255.9920959472656</v>
       </c>
       <c r="F657" t="n">
         <v>31955800</v>
@@ -17533,16 +17533,16 @@
         <v>45938</v>
       </c>
       <c r="B658" t="n">
-        <v>256.0319824641754</v>
+        <v>256.0320127996357</v>
       </c>
       <c r="C658" t="n">
-        <v>258.0281776413904</v>
+        <v>258.0282082133661</v>
       </c>
       <c r="D658" t="n">
-        <v>255.6227587977037</v>
+        <v>255.6227890846779</v>
       </c>
       <c r="E658" t="n">
-        <v>257.5690612792969</v>
+        <v>257.569091796875</v>
       </c>
       <c r="F658" t="n">
         <v>36496900</v>
@@ -17663,16 +17663,16 @@
         <v>45945</v>
       </c>
       <c r="B663" t="n">
-        <v>249.0153701368122</v>
+        <v>249.0153854047813</v>
       </c>
       <c r="C663" t="n">
-        <v>251.3409393203658</v>
+        <v>251.3409547309234</v>
       </c>
       <c r="D663" t="n">
-        <v>246.999208765576</v>
+        <v>246.9992239099275</v>
       </c>
       <c r="E663" t="n">
-        <v>248.8656463623047</v>
+        <v>248.8656616210938</v>
       </c>
       <c r="F663" t="n">
         <v>33893600</v>
@@ -17689,16 +17689,16 @@
         <v>45946</v>
       </c>
       <c r="B664" t="n">
-        <v>247.7777291727393</v>
+        <v>247.7777444808599</v>
       </c>
       <c r="C664" t="n">
-        <v>248.5662195755578</v>
+        <v>248.5662349323926</v>
       </c>
       <c r="D664" t="n">
-        <v>244.6636695346054</v>
+        <v>244.6636846503341</v>
       </c>
       <c r="E664" t="n">
-        <v>246.979248046875</v>
+        <v>246.9792633056641</v>
       </c>
       <c r="F664" t="n">
         <v>39777000</v>
@@ -17767,16 +17767,16 @@
         <v>45951</v>
       </c>
       <c r="B667" t="n">
-        <v>261.3818200057694</v>
+        <v>261.3817895915523</v>
       </c>
       <c r="C667" t="n">
-        <v>264.7853366806196</v>
+        <v>264.7853058703715</v>
       </c>
       <c r="D667" t="n">
-        <v>261.3318968470685</v>
+        <v>261.3318664386604</v>
       </c>
       <c r="E667" t="n">
-        <v>262.2701110839844</v>
+        <v>262.2700805664062</v>
       </c>
       <c r="F667" t="n">
         <v>46695900</v>
@@ -17845,16 +17845,16 @@
         <v>45954</v>
       </c>
       <c r="B670" t="n">
-        <v>260.6931034322695</v>
+        <v>260.6931337605782</v>
       </c>
       <c r="C670" t="n">
-        <v>263.6275126875418</v>
+        <v>263.6275433572314</v>
       </c>
       <c r="D670" t="n">
-        <v>258.6869175950168</v>
+        <v>258.6869476899315</v>
       </c>
       <c r="E670" t="n">
-        <v>262.3200073242188</v>
+        <v>262.3200378417969</v>
       </c>
       <c r="F670" t="n">
         <v>38253700</v>
@@ -20006,16 +20006,16 @@
         <v>271.6799926757812</v>
       </c>
       <c r="C753" t="n">
-        <v>274.5899047851562</v>
+        <v>274.75</v>
       </c>
       <c r="D753" t="n">
         <v>271.0499877929688</v>
       </c>
       <c r="E753" t="n">
-        <v>273.7300109863281</v>
+        <v>274.6650085449219</v>
       </c>
       <c r="F753" t="n">
-        <v>12626218</v>
+        <v>16349103</v>
       </c>
       <c r="G753" t="n">
         <v>0</v>
@@ -21069,7 +21069,7 @@
         <v>271.05</v>
       </c>
       <c r="AF2" t="n">
-        <v>274.5899</v>
+        <v>274.74</v>
       </c>
       <c r="AG2" t="n">
         <v>272.14</v>
@@ -21081,7 +21081,7 @@
         <v>271.05</v>
       </c>
       <c r="AJ2" t="n">
-        <v>274.5899</v>
+        <v>274.75</v>
       </c>
       <c r="AK2" t="n">
         <v>1.04</v>
@@ -21102,16 +21102,16 @@
         <v>1.107</v>
       </c>
       <c r="AQ2" t="n">
-        <v>34.693283</v>
+        <v>34.81161</v>
       </c>
       <c r="AR2" t="n">
-        <v>29.435963</v>
+        <v>29.536358</v>
       </c>
       <c r="AS2" t="n">
-        <v>12626243</v>
+        <v>16351136</v>
       </c>
       <c r="AT2" t="n">
-        <v>12626269</v>
+        <v>16351204</v>
       </c>
       <c r="AU2" t="n">
         <v>48279330</v>
@@ -21123,19 +21123,19 @@
         <v>47353250</v>
       </c>
       <c r="AX2" t="n">
-        <v>273.24</v>
+        <v>274.18</v>
       </c>
       <c r="AY2" t="n">
-        <v>274.98</v>
+        <v>274.77</v>
       </c>
       <c r="AZ2" t="n">
         <v>2</v>
       </c>
       <c r="BA2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BB2" t="n">
-        <v>4023263428608</v>
+        <v>4036985356288</v>
       </c>
       <c r="BC2" t="n">
         <v>3815909480700</v>
@@ -21153,7 +21153,7 @@
         <v>0.049107</v>
       </c>
       <c r="BH2" t="n">
-        <v>9.235782</v>
+        <v>9.267282</v>
       </c>
       <c r="BI2" t="n">
         <v>265.7598</v>
@@ -21221,7 +21221,7 @@
         <v>5.998</v>
       </c>
       <c r="CD2" t="n">
-        <v>45.63688</v>
+        <v>45.79253</v>
       </c>
       <c r="CE2" t="n">
         <v>1758931200</v>
@@ -21276,7 +21276,7 @@
         </is>
       </c>
       <c r="CU2" t="n">
-        <v>273.73</v>
+        <v>274.6636</v>
       </c>
       <c r="CV2" t="n">
         <v>350</v>
@@ -21402,7 +21402,7 @@
         </is>
       </c>
       <c r="EE2" t="n">
-        <v>1772040223</v>
+        <v>1772046596</v>
       </c>
       <c r="EF2" t="inlineStr">
         <is>
@@ -21468,19 +21468,19 @@
         <v>8.50272</v>
       </c>
       <c r="EW2" t="n">
-        <v>32.19323</v>
+        <v>32.30303</v>
       </c>
       <c r="EX2" t="n">
-        <v>7.970215</v>
+        <v>8.903809000000001</v>
       </c>
       <c r="EY2" t="n">
-        <v>0.029990295</v>
+        <v>0.03350322</v>
       </c>
       <c r="EZ2" t="n">
-        <v>31.836456</v>
+        <v>32.77005</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.1316135</v>
+        <v>0.13547301</v>
       </c>
       <c r="FB2" t="n">
         <v>15</v>
@@ -21500,11 +21500,11 @@
         <v>345479400000</v>
       </c>
       <c r="FG2" t="n">
-        <v>1.5899963</v>
+        <v>2.52359</v>
       </c>
       <c r="FH2" t="inlineStr">
         <is>
-          <t>271.05 - 274.5899</t>
+          <t>271.05 - 274.75</t>
         </is>
       </c>
       <c r="FI2" t="inlineStr">
@@ -21516,10 +21516,10 @@
         <v>47809226</v>
       </c>
       <c r="FK2" t="n">
-        <v>104.520004</v>
+        <v>105.4536</v>
       </c>
       <c r="FL2" t="n">
-        <v>0.61769396</v>
+        <v>0.6232114</v>
       </c>
       <c r="FM2" t="inlineStr">
         <is>
@@ -21527,10 +21527,10 @@
         </is>
       </c>
       <c r="FN2" t="n">
-        <v>-14.889984</v>
+        <v>-13.95639</v>
       </c>
       <c r="FO2" t="n">
-        <v>-0.05159027</v>
+        <v>-0.04835559</v>
       </c>
       <c r="FP2" t="n">
         <v>13.221836</v>
@@ -21539,10 +21539,10 @@
         <v>1770854400</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.5842567</v>
+        <v>0.92731315</v>
       </c>
       <c r="FS2" t="n">
-        <v>273.73</v>
+        <v>274.6636</v>
       </c>
       <c r="FT2" t="inlineStr">
         <is>
@@ -21617,7 +21617,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>273.73</v>
+        <v>274.68</v>
       </c>
       <c r="C2" t="n">
         <v>350</v>
